--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="1475">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -2866,7 +2866,7 @@
     <t>Jake Rogers</t>
   </si>
   <si>
-    <t>Nomar Mazara</t>
+    <t>Nomar</t>
   </si>
   <si>
     <t>Ryan Rolison</t>
@@ -3736,6 +3736,9 @@
     <t>CF,DH,LF</t>
   </si>
   <si>
+    <t>2B,DH,SS</t>
+  </si>
+  <si>
     <t>C,1B</t>
   </si>
   <si>
@@ -3949,9 +3952,6 @@
     <t>3B,RF</t>
   </si>
   <si>
-    <t>CF,RF,RP,SP</t>
-  </si>
-  <si>
     <t>P,SP</t>
   </si>
   <si>
@@ -4274,6 +4274,9 @@
   </si>
   <si>
     <t>Ponce</t>
+  </si>
+  <si>
+    <t>Mazara</t>
   </si>
   <si>
     <t>Fiers</t>
@@ -5863,7 +5866,7 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>1208</v>
+        <v>1239</v>
       </c>
       <c r="D76" t="s">
         <v>1352</v>
@@ -5905,7 +5908,7 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D79" t="s">
         <v>1339</v>
@@ -6045,7 +6048,7 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D89" t="s">
         <v>1362</v>
@@ -6115,7 +6118,7 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D94" t="s">
         <v>1354</v>
@@ -6143,7 +6146,7 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D96" t="s">
         <v>1339</v>
@@ -6185,7 +6188,7 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D99" t="s">
         <v>1335</v>
@@ -6199,7 +6202,7 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D100" t="s">
         <v>1363</v>
@@ -6213,7 +6216,7 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D101" t="s">
         <v>1336</v>
@@ -6269,7 +6272,7 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D105" t="s">
         <v>1342</v>
@@ -6339,7 +6342,7 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D110" t="s">
         <v>1336</v>
@@ -6367,7 +6370,7 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D112" t="s">
         <v>1348</v>
@@ -6409,7 +6412,7 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D115" t="s">
         <v>1350</v>
@@ -6423,7 +6426,7 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D116" t="s">
         <v>1336</v>
@@ -6675,7 +6678,7 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D134" t="s">
         <v>1338</v>
@@ -6745,7 +6748,7 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D139" t="s">
         <v>1335</v>
@@ -6801,7 +6804,7 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D143" t="s">
         <v>1340</v>
@@ -6815,7 +6818,7 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D144" t="s">
         <v>1344</v>
@@ -6829,7 +6832,7 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D145" t="s">
         <v>1350</v>
@@ -6857,7 +6860,7 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D147" t="s">
         <v>1354</v>
@@ -6927,7 +6930,7 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D152" t="s">
         <v>1346</v>
@@ -6969,7 +6972,7 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D155" t="s">
         <v>1358</v>
@@ -6983,7 +6986,7 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D156" t="s">
         <v>1346</v>
@@ -6997,7 +7000,7 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D157" t="s">
         <v>1343</v>
@@ -7025,7 +7028,7 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D159" t="s">
         <v>1356</v>
@@ -7039,7 +7042,7 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D160" t="s">
         <v>1362</v>
@@ -7067,7 +7070,7 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D162" t="s">
         <v>1347</v>
@@ -7081,7 +7084,7 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D163" t="s">
         <v>1354</v>
@@ -7109,7 +7112,7 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D165" t="s">
         <v>1349</v>
@@ -7165,7 +7168,7 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D169" t="s">
         <v>1352</v>
@@ -7179,7 +7182,7 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D170" t="s">
         <v>1347</v>
@@ -7221,7 +7224,7 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D173" t="s">
         <v>1357</v>
@@ -7263,7 +7266,7 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D176" t="s">
         <v>1362</v>
@@ -7305,7 +7308,7 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D179" t="s">
         <v>1347</v>
@@ -7319,7 +7322,7 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D180" t="s">
         <v>1339</v>
@@ -7375,7 +7378,7 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D184" t="s">
         <v>1348</v>
@@ -7417,7 +7420,7 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D187" t="s">
         <v>1342</v>
@@ -7473,7 +7476,7 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D191" t="s">
         <v>1339</v>
@@ -7487,7 +7490,7 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D192" t="s">
         <v>1346</v>
@@ -7585,7 +7588,7 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D199" t="s">
         <v>1337</v>
@@ -7669,7 +7672,7 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D205" t="s">
         <v>1340</v>
@@ -7683,7 +7686,7 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D206" t="s">
         <v>1354</v>
@@ -7739,7 +7742,7 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D210" t="s">
         <v>1345</v>
@@ -7781,7 +7784,7 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D213" t="s">
         <v>1345</v>
@@ -7837,7 +7840,7 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D217" t="s">
         <v>1357</v>
@@ -7851,7 +7854,7 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D218" t="s">
         <v>1344</v>
@@ -7949,7 +7952,7 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D225" t="s">
         <v>1341</v>
@@ -7977,7 +7980,7 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D227" t="s">
         <v>1355</v>
@@ -8005,7 +8008,7 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D229" t="s">
         <v>1363</v>
@@ -8131,7 +8134,7 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D238" t="s">
         <v>1361</v>
@@ -8145,7 +8148,7 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D239" t="s">
         <v>1336</v>
@@ -8159,7 +8162,7 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D240" t="s">
         <v>1344</v>
@@ -8243,7 +8246,7 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D246" t="s">
         <v>1346</v>
@@ -8299,7 +8302,7 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D250" t="s">
         <v>1353</v>
@@ -8369,7 +8372,7 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D255" t="s">
         <v>1345</v>
@@ -8481,7 +8484,7 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D263" t="s">
         <v>1343</v>
@@ -8495,7 +8498,7 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D264" t="s">
         <v>1345</v>
@@ -8579,7 +8582,7 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D270" t="s">
         <v>1351</v>
@@ -8593,7 +8596,7 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D271" t="s">
         <v>1338</v>
@@ -8607,7 +8610,7 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D272" t="s">
         <v>1344</v>
@@ -8621,7 +8624,7 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D273" t="s">
         <v>1335</v>
@@ -8635,7 +8638,7 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D274" t="s">
         <v>1347</v>
@@ -8733,7 +8736,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D281" t="s">
         <v>1337</v>
@@ -8775,7 +8778,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D284" t="s">
         <v>1353</v>
@@ -8859,7 +8862,7 @@
         <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D290" t="s">
         <v>1358</v>
@@ -8887,7 +8890,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D292" t="s">
         <v>1343</v>
@@ -8901,7 +8904,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D293" t="s">
         <v>1362</v>
@@ -8915,7 +8918,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D294" t="s">
         <v>1354</v>
@@ -8957,7 +8960,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D297" t="s">
         <v>1354</v>
@@ -8971,7 +8974,7 @@
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D298" t="s">
         <v>1341</v>
@@ -8985,7 +8988,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D299" t="s">
         <v>1338</v>
@@ -9027,7 +9030,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D302" t="s">
         <v>1341</v>
@@ -9041,7 +9044,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D303" t="s">
         <v>1359</v>
@@ -9055,7 +9058,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D304" t="s">
         <v>1356</v>
@@ -9069,7 +9072,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D305" t="s">
         <v>1355</v>
@@ -9083,7 +9086,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D306" t="s">
         <v>1355</v>
@@ -9111,7 +9114,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D308" t="s">
         <v>1356</v>
@@ -9125,7 +9128,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D309" t="s">
         <v>1345</v>
@@ -9153,7 +9156,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D311" t="s">
         <v>1361</v>
@@ -9181,7 +9184,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D313" t="s">
         <v>1345</v>
@@ -9195,7 +9198,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D314" t="s">
         <v>1340</v>
@@ -9251,7 +9254,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D318" t="s">
         <v>1363</v>
@@ -9335,7 +9338,7 @@
         <v>325</v>
       </c>
       <c r="C324" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D324" t="s">
         <v>1361</v>
@@ -9349,7 +9352,7 @@
         <v>326</v>
       </c>
       <c r="C325" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D325" t="s">
         <v>1355</v>
@@ -9391,7 +9394,7 @@
         <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D328" t="s">
         <v>1356</v>
@@ -9405,7 +9408,7 @@
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D329" t="s">
         <v>1358</v>
@@ -9489,7 +9492,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D335" t="s">
         <v>1354</v>
@@ -9531,7 +9534,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D338" t="s">
         <v>1335</v>
@@ -9545,7 +9548,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D339" t="s">
         <v>1356</v>
@@ -9573,7 +9576,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D341" t="s">
         <v>1353</v>
@@ -9587,7 +9590,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D342" t="s">
         <v>1355</v>
@@ -9671,7 +9674,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D348" t="s">
         <v>1362</v>
@@ -9713,7 +9716,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D351" t="s">
         <v>1349</v>
@@ -9811,7 +9814,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D358" t="s">
         <v>1353</v>
@@ -9839,7 +9842,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D360" t="s">
         <v>1342</v>
@@ -9853,7 +9856,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D361" t="s">
         <v>1359</v>
@@ -9895,7 +9898,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D364" t="s">
         <v>1358</v>
@@ -9923,7 +9926,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D366" t="s">
         <v>1354</v>
@@ -9937,7 +9940,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D367" t="s">
         <v>1346</v>
@@ -9951,7 +9954,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D368" t="s">
         <v>1350</v>
@@ -10007,7 +10010,7 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D372" t="s">
         <v>1339</v>
@@ -10021,7 +10024,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D373" t="s">
         <v>1352</v>
@@ -10035,7 +10038,7 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D374" t="s">
         <v>1352</v>
@@ -10133,7 +10136,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D381" t="s">
         <v>1353</v>
@@ -10161,7 +10164,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D383" t="s">
         <v>1359</v>
@@ -10203,7 +10206,7 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D386" t="s">
         <v>1345</v>
@@ -10217,7 +10220,7 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D387" t="s">
         <v>1341</v>
@@ -10259,7 +10262,7 @@
         <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D390" t="s">
         <v>1351</v>
@@ -10287,7 +10290,7 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D392" t="s">
         <v>1353</v>
@@ -10301,7 +10304,7 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D393" t="s">
         <v>1336</v>
@@ -10315,7 +10318,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D394" t="s">
         <v>1355</v>
@@ -10343,7 +10346,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D396" t="s">
         <v>1359</v>
@@ -10357,7 +10360,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D397" t="s">
         <v>1357</v>
@@ -10399,7 +10402,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D400" t="s">
         <v>1348</v>
@@ -10413,7 +10416,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D401" t="s">
         <v>1355</v>
@@ -10427,7 +10430,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D402" t="s">
         <v>1338</v>
@@ -10441,7 +10444,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D403" t="s">
         <v>1346</v>
@@ -10469,7 +10472,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D405" t="s">
         <v>1336</v>
@@ -10525,7 +10528,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D409" t="s">
         <v>1347</v>
@@ -10539,7 +10542,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D410" t="s">
         <v>1340</v>
@@ -10609,7 +10612,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D415" t="s">
         <v>1336</v>
@@ -10637,7 +10640,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D417" t="s">
         <v>1338</v>
@@ -10651,7 +10654,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D418" t="s">
         <v>1361</v>
@@ -10693,7 +10696,7 @@
         <v>422</v>
       </c>
       <c r="C421" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D421" t="s">
         <v>1337</v>
@@ -10721,7 +10724,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D423" t="s">
         <v>1351</v>
@@ -10735,7 +10738,7 @@
         <v>425</v>
       </c>
       <c r="C424" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D424" t="s">
         <v>1345</v>
@@ -10777,7 +10780,7 @@
         <v>428</v>
       </c>
       <c r="C427" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D427" t="s">
         <v>1364</v>
@@ -10833,7 +10836,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D431" t="s">
         <v>1340</v>
@@ -10917,7 +10920,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D437" t="s">
         <v>1349</v>
@@ -10945,7 +10948,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D439" t="s">
         <v>1353</v>
@@ -10973,7 +10976,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D441" t="s">
         <v>1357</v>
@@ -10987,7 +10990,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D442" t="s">
         <v>1348</v>
@@ -11015,7 +11018,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D444" t="s">
         <v>1364</v>
@@ -11113,7 +11116,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D451" t="s">
         <v>1369</v>
@@ -11127,7 +11130,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D452" t="s">
         <v>1362</v>
@@ -11141,7 +11144,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D453" t="s">
         <v>1360</v>
@@ -11197,7 +11200,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D457" t="s">
         <v>1351</v>
@@ -11225,7 +11228,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D459" t="s">
         <v>1355</v>
@@ -11239,7 +11242,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D460" t="s">
         <v>1352</v>
@@ -11253,7 +11256,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D461" t="s">
         <v>1356</v>
@@ -11281,7 +11284,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D463" t="s">
         <v>1352</v>
@@ -11295,7 +11298,7 @@
         <v>465</v>
       </c>
       <c r="C464" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D464" t="s">
         <v>1361</v>
@@ -11337,7 +11340,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D467" t="s">
         <v>1355</v>
@@ -11351,7 +11354,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D468" t="s">
         <v>1355</v>
@@ -11407,7 +11410,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D472" t="s">
         <v>1362</v>
@@ -11477,7 +11480,7 @@
         <v>353</v>
       </c>
       <c r="C477" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D477" t="s">
         <v>1360</v>
@@ -11533,7 +11536,7 @@
         <v>481</v>
       </c>
       <c r="C481" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D481" t="s">
         <v>1350</v>
@@ -11603,7 +11606,7 @@
         <v>486</v>
       </c>
       <c r="C486" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D486" t="s">
         <v>1362</v>
@@ -11631,7 +11634,7 @@
         <v>488</v>
       </c>
       <c r="C488" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D488" t="s">
         <v>1354</v>
@@ -11659,7 +11662,7 @@
         <v>490</v>
       </c>
       <c r="C490" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D490" t="s">
         <v>1336</v>
@@ -11715,7 +11718,7 @@
         <v>494</v>
       </c>
       <c r="C494" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D494" t="s">
         <v>1336</v>
@@ -11813,7 +11816,7 @@
         <v>501</v>
       </c>
       <c r="C501" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D501" t="s">
         <v>1355</v>
@@ -11827,7 +11830,7 @@
         <v>502</v>
       </c>
       <c r="C502" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D502" t="s">
         <v>1341</v>
@@ -11883,7 +11886,7 @@
         <v>506</v>
       </c>
       <c r="C506" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D506" t="s">
         <v>1352</v>
@@ -11939,7 +11942,7 @@
         <v>510</v>
       </c>
       <c r="C510" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D510" t="s">
         <v>1346</v>
@@ -11967,7 +11970,7 @@
         <v>512</v>
       </c>
       <c r="C512" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D512" t="s">
         <v>1355</v>
@@ -11981,7 +11984,7 @@
         <v>513</v>
       </c>
       <c r="C513" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D513" t="s">
         <v>1348</v>
@@ -11995,7 +11998,7 @@
         <v>514</v>
       </c>
       <c r="C514" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D514" t="s">
         <v>1354</v>
@@ -12065,7 +12068,7 @@
         <v>519</v>
       </c>
       <c r="C519" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D519" t="s">
         <v>1356</v>
@@ -12107,7 +12110,7 @@
         <v>522</v>
       </c>
       <c r="C522" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D522" t="s">
         <v>1336</v>
@@ -12121,7 +12124,7 @@
         <v>523</v>
       </c>
       <c r="C523" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D523" t="s">
         <v>1354</v>
@@ -12149,7 +12152,7 @@
         <v>525</v>
       </c>
       <c r="C525" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D525" t="s">
         <v>1348</v>
@@ -12289,7 +12292,7 @@
         <v>535</v>
       </c>
       <c r="C535" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D535" t="s">
         <v>1335</v>
@@ -12303,7 +12306,7 @@
         <v>536</v>
       </c>
       <c r="C536" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D536" t="s">
         <v>1341</v>
@@ -12345,7 +12348,7 @@
         <v>539</v>
       </c>
       <c r="C539" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D539" t="s">
         <v>1351</v>
@@ -12359,7 +12362,7 @@
         <v>540</v>
       </c>
       <c r="C540" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D540" t="s">
         <v>1359</v>
@@ -12401,7 +12404,7 @@
         <v>543</v>
       </c>
       <c r="C543" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D543" t="s">
         <v>1353</v>
@@ -12415,7 +12418,7 @@
         <v>544</v>
       </c>
       <c r="C544" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D544" t="s">
         <v>1360</v>
@@ -12429,7 +12432,7 @@
         <v>545</v>
       </c>
       <c r="C545" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D545" t="s">
         <v>1360</v>
@@ -12485,7 +12488,7 @@
         <v>549</v>
       </c>
       <c r="C549" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D549" t="s">
         <v>1337</v>
@@ -12499,7 +12502,7 @@
         <v>550</v>
       </c>
       <c r="C550" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D550" t="s">
         <v>1342</v>
@@ -12583,7 +12586,7 @@
         <v>556</v>
       </c>
       <c r="C556" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D556" t="s">
         <v>1364</v>
@@ -12625,7 +12628,7 @@
         <v>559</v>
       </c>
       <c r="C559" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D559" t="s">
         <v>1349</v>
@@ -12639,7 +12642,7 @@
         <v>560</v>
       </c>
       <c r="C560" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D560" t="s">
         <v>1372</v>
@@ -12667,7 +12670,7 @@
         <v>562</v>
       </c>
       <c r="C562" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D562" t="s">
         <v>1373</v>
@@ -12681,7 +12684,7 @@
         <v>563</v>
       </c>
       <c r="C563" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D563" t="s">
         <v>1343</v>
@@ -12737,7 +12740,7 @@
         <v>567</v>
       </c>
       <c r="C567" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D567" t="s">
         <v>1359</v>
@@ -12779,7 +12782,7 @@
         <v>570</v>
       </c>
       <c r="C570" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D570" t="s">
         <v>1352</v>
@@ -12821,7 +12824,7 @@
         <v>573</v>
       </c>
       <c r="C573" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D573" t="s">
         <v>1359</v>
@@ -12919,7 +12922,7 @@
         <v>580</v>
       </c>
       <c r="C580" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D580" t="s">
         <v>1347</v>
@@ -12961,7 +12964,7 @@
         <v>583</v>
       </c>
       <c r="C583" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D583" t="s">
         <v>1364</v>
@@ -12975,7 +12978,7 @@
         <v>584</v>
       </c>
       <c r="C584" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D584" t="s">
         <v>1343</v>
@@ -12989,7 +12992,7 @@
         <v>585</v>
       </c>
       <c r="C585" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D585" t="s">
         <v>1361</v>
@@ -13255,7 +13258,7 @@
         <v>604</v>
       </c>
       <c r="C604" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D604" t="s">
         <v>1359</v>
@@ -13269,7 +13272,7 @@
         <v>605</v>
       </c>
       <c r="C605" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D605" t="s">
         <v>1340</v>
@@ -13311,7 +13314,7 @@
         <v>608</v>
       </c>
       <c r="C608" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D608" t="s">
         <v>1351</v>
@@ -13325,7 +13328,7 @@
         <v>609</v>
       </c>
       <c r="C609" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D609" t="s">
         <v>1358</v>
@@ -13339,7 +13342,7 @@
         <v>610</v>
       </c>
       <c r="C610" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D610" t="s">
         <v>1356</v>
@@ -13353,7 +13356,7 @@
         <v>611</v>
       </c>
       <c r="C611" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D611" t="s">
         <v>1347</v>
@@ -13395,7 +13398,7 @@
         <v>614</v>
       </c>
       <c r="C614" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D614" t="s">
         <v>1346</v>
@@ -13409,7 +13412,7 @@
         <v>615</v>
       </c>
       <c r="C615" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D615" t="s">
         <v>1344</v>
@@ -13423,7 +13426,7 @@
         <v>616</v>
       </c>
       <c r="C616" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D616" t="s">
         <v>1361</v>
@@ -13465,7 +13468,7 @@
         <v>619</v>
       </c>
       <c r="C619" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D619" t="s">
         <v>1340</v>
@@ -13507,7 +13510,7 @@
         <v>622</v>
       </c>
       <c r="C622" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D622" t="s">
         <v>1337</v>
@@ -13521,7 +13524,7 @@
         <v>623</v>
       </c>
       <c r="C623" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D623" t="s">
         <v>1337</v>
@@ -13535,7 +13538,7 @@
         <v>624</v>
       </c>
       <c r="C624" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D624" t="s">
         <v>1339</v>
@@ -13563,7 +13566,7 @@
         <v>626</v>
       </c>
       <c r="C626" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D626" t="s">
         <v>1351</v>
@@ -13577,7 +13580,7 @@
         <v>627</v>
       </c>
       <c r="C627" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D627" t="s">
         <v>1335</v>
@@ -13605,7 +13608,7 @@
         <v>629</v>
       </c>
       <c r="C629" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D629" t="s">
         <v>1358</v>
@@ -13619,7 +13622,7 @@
         <v>630</v>
       </c>
       <c r="C630" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D630" t="s">
         <v>1349</v>
@@ -13647,7 +13650,7 @@
         <v>632</v>
       </c>
       <c r="C632" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D632" t="s">
         <v>1338</v>
@@ -13661,7 +13664,7 @@
         <v>633</v>
       </c>
       <c r="C633" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D633" t="s">
         <v>1339</v>
@@ -13675,7 +13678,7 @@
         <v>634</v>
       </c>
       <c r="C634" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D634" t="s">
         <v>1336</v>
@@ -13731,7 +13734,7 @@
         <v>638</v>
       </c>
       <c r="C638" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D638" t="s">
         <v>1351</v>
@@ -13745,7 +13748,7 @@
         <v>639</v>
       </c>
       <c r="C639" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D639" t="s">
         <v>1357</v>
@@ -13801,7 +13804,7 @@
         <v>643</v>
       </c>
       <c r="C643" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D643" t="s">
         <v>1350</v>
@@ -13815,7 +13818,7 @@
         <v>644</v>
       </c>
       <c r="C644" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D644" t="s">
         <v>1358</v>
@@ -13829,7 +13832,7 @@
         <v>645</v>
       </c>
       <c r="C645" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D645" t="s">
         <v>1358</v>
@@ -13843,7 +13846,7 @@
         <v>646</v>
       </c>
       <c r="C646" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D646" t="s">
         <v>1362</v>
@@ -13871,7 +13874,7 @@
         <v>648</v>
       </c>
       <c r="C648" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D648" t="s">
         <v>1360</v>
@@ -13927,7 +13930,7 @@
         <v>652</v>
       </c>
       <c r="C652" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D652" t="s">
         <v>1339</v>
@@ -14011,7 +14014,7 @@
         <v>657</v>
       </c>
       <c r="C658" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D658" t="s">
         <v>1357</v>
@@ -14025,7 +14028,7 @@
         <v>658</v>
       </c>
       <c r="C659" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D659" t="s">
         <v>1350</v>
@@ -14067,7 +14070,7 @@
         <v>661</v>
       </c>
       <c r="C662" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D662" t="s">
         <v>1338</v>
@@ -14109,7 +14112,7 @@
         <v>664</v>
       </c>
       <c r="C665" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D665" t="s">
         <v>1341</v>
@@ -14123,7 +14126,7 @@
         <v>665</v>
       </c>
       <c r="C666" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D666" t="s">
         <v>1351</v>
@@ -14151,7 +14154,7 @@
         <v>667</v>
       </c>
       <c r="C668" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D668" t="s">
         <v>1341</v>
@@ -14179,7 +14182,7 @@
         <v>669</v>
       </c>
       <c r="C670" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D670" t="s">
         <v>1337</v>
@@ -14277,7 +14280,7 @@
         <v>676</v>
       </c>
       <c r="C677" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D677" t="s">
         <v>1345</v>
@@ -14291,7 +14294,7 @@
         <v>677</v>
       </c>
       <c r="C678" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D678" t="s">
         <v>1379</v>
@@ -14319,7 +14322,7 @@
         <v>679</v>
       </c>
       <c r="C680" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D680" t="s">
         <v>1342</v>
@@ -14333,7 +14336,7 @@
         <v>680</v>
       </c>
       <c r="C681" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D681" t="s">
         <v>1352</v>
@@ -14431,7 +14434,7 @@
         <v>687</v>
       </c>
       <c r="C688" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D688" t="s">
         <v>1380</v>
@@ -14445,7 +14448,7 @@
         <v>688</v>
       </c>
       <c r="C689" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D689" t="s">
         <v>1349</v>
@@ -14459,7 +14462,7 @@
         <v>689</v>
       </c>
       <c r="C690" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D690" t="s">
         <v>1348</v>
@@ -14501,7 +14504,7 @@
         <v>692</v>
       </c>
       <c r="C693" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D693" t="s">
         <v>1338</v>
@@ -14529,7 +14532,7 @@
         <v>694</v>
       </c>
       <c r="C695" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D695" t="s">
         <v>1356</v>
@@ -14557,7 +14560,7 @@
         <v>696</v>
       </c>
       <c r="C697" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D697" t="s">
         <v>1348</v>
@@ -14585,7 +14588,7 @@
         <v>698</v>
       </c>
       <c r="C699" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D699" t="s">
         <v>1381</v>
@@ -14599,7 +14602,7 @@
         <v>699</v>
       </c>
       <c r="C700" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D700" t="s">
         <v>1350</v>
@@ -14683,7 +14686,7 @@
         <v>705</v>
       </c>
       <c r="C706" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D706" t="s">
         <v>1361</v>
@@ -14697,7 +14700,7 @@
         <v>706</v>
       </c>
       <c r="C707" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D707" t="s">
         <v>1340</v>
@@ -14767,7 +14770,7 @@
         <v>711</v>
       </c>
       <c r="C712" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D712" t="s">
         <v>1352</v>
@@ -14795,7 +14798,7 @@
         <v>713</v>
       </c>
       <c r="C714" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D714" t="s">
         <v>1358</v>
@@ -14935,7 +14938,7 @@
         <v>723</v>
       </c>
       <c r="C724" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D724" t="s">
         <v>1384</v>
@@ -14949,7 +14952,7 @@
         <v>724</v>
       </c>
       <c r="C725" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D725" t="s">
         <v>1336</v>
@@ -14963,7 +14966,7 @@
         <v>725</v>
       </c>
       <c r="C726" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D726" t="s">
         <v>1343</v>
@@ -15061,7 +15064,7 @@
         <v>732</v>
       </c>
       <c r="C733" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D733" t="s">
         <v>1338</v>
@@ -15075,7 +15078,7 @@
         <v>733</v>
       </c>
       <c r="C734" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D734" t="s">
         <v>1359</v>
@@ -15089,7 +15092,7 @@
         <v>734</v>
       </c>
       <c r="C735" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D735" t="s">
         <v>1364</v>
@@ -15117,7 +15120,7 @@
         <v>736</v>
       </c>
       <c r="C737" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D737" t="s">
         <v>1350</v>
@@ -15201,7 +15204,7 @@
         <v>742</v>
       </c>
       <c r="C743" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D743" t="s">
         <v>1346</v>
@@ -15215,7 +15218,7 @@
         <v>743</v>
       </c>
       <c r="C744" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D744" t="s">
         <v>1351</v>
@@ -15243,7 +15246,7 @@
         <v>745</v>
       </c>
       <c r="C746" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D746" t="s">
         <v>1361</v>
@@ -15257,7 +15260,7 @@
         <v>746</v>
       </c>
       <c r="C747" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D747" t="s">
         <v>1338</v>
@@ -15397,7 +15400,7 @@
         <v>756</v>
       </c>
       <c r="C757" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D757" t="s">
         <v>1335</v>
@@ -15425,7 +15428,7 @@
         <v>758</v>
       </c>
       <c r="C759" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D759" t="s">
         <v>1335</v>
@@ -15481,7 +15484,7 @@
         <v>762</v>
       </c>
       <c r="C763" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D763" t="s">
         <v>1388</v>
@@ -15509,7 +15512,7 @@
         <v>764</v>
       </c>
       <c r="C765" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D765" t="s">
         <v>1357</v>
@@ -15523,7 +15526,7 @@
         <v>765</v>
       </c>
       <c r="C766" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D766" t="s">
         <v>1356</v>
@@ -15551,7 +15554,7 @@
         <v>767</v>
       </c>
       <c r="C768" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D768" t="s">
         <v>1344</v>
@@ -15593,7 +15596,7 @@
         <v>770</v>
       </c>
       <c r="C771" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D771" t="s">
         <v>1344</v>
@@ -15635,7 +15638,7 @@
         <v>773</v>
       </c>
       <c r="C774" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D774" t="s">
         <v>1341</v>
@@ -15649,7 +15652,7 @@
         <v>774</v>
       </c>
       <c r="C775" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D775" t="s">
         <v>1354</v>
@@ -15677,7 +15680,7 @@
         <v>776</v>
       </c>
       <c r="C777" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D777" t="s">
         <v>1337</v>
@@ -15691,7 +15694,7 @@
         <v>777</v>
       </c>
       <c r="C778" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D778" t="s">
         <v>1342</v>
@@ -15705,7 +15708,7 @@
         <v>778</v>
       </c>
       <c r="C779" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D779" t="s">
         <v>1348</v>
@@ -15761,7 +15764,7 @@
         <v>782</v>
       </c>
       <c r="C783" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D783" t="s">
         <v>1350</v>
@@ -15803,7 +15806,7 @@
         <v>785</v>
       </c>
       <c r="C786" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D786" t="s">
         <v>1354</v>
@@ -15817,7 +15820,7 @@
         <v>786</v>
       </c>
       <c r="C787" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D787" t="s">
         <v>1361</v>
@@ -15831,7 +15834,7 @@
         <v>787</v>
       </c>
       <c r="C788" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D788" t="s">
         <v>1347</v>
@@ -15915,7 +15918,7 @@
         <v>793</v>
       </c>
       <c r="C794" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D794" t="s">
         <v>1359</v>
@@ -15957,7 +15960,7 @@
         <v>796</v>
       </c>
       <c r="C797" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D797" t="s">
         <v>1350</v>
@@ -15971,7 +15974,7 @@
         <v>797</v>
       </c>
       <c r="C798" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D798" t="s">
         <v>1340</v>
@@ -15985,7 +15988,7 @@
         <v>798</v>
       </c>
       <c r="C799" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D799" t="s">
         <v>1338</v>
@@ -15999,7 +16002,7 @@
         <v>799</v>
       </c>
       <c r="C800" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D800" t="s">
         <v>1355</v>
@@ -16069,7 +16072,7 @@
         <v>804</v>
       </c>
       <c r="C805" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D805" t="s">
         <v>1355</v>
@@ -16195,7 +16198,7 @@
         <v>813</v>
       </c>
       <c r="C814" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D814" t="s">
         <v>1363</v>
@@ -16223,7 +16226,7 @@
         <v>815</v>
       </c>
       <c r="C816" t="s">
-        <v>1310</v>
+        <v>1263</v>
       </c>
       <c r="D816" t="s">
         <v>1342</v>
@@ -16237,7 +16240,7 @@
         <v>816</v>
       </c>
       <c r="C817" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D817" t="s">
         <v>1355</v>
@@ -16251,7 +16254,7 @@
         <v>817</v>
       </c>
       <c r="C818" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D818" t="s">
         <v>1351</v>
@@ -16265,7 +16268,7 @@
         <v>818</v>
       </c>
       <c r="C819" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D819" t="s">
         <v>1363</v>
@@ -16279,7 +16282,7 @@
         <v>819</v>
       </c>
       <c r="C820" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D820" t="s">
         <v>1343</v>
@@ -16419,7 +16422,7 @@
         <v>829</v>
       </c>
       <c r="C830" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D830" t="s">
         <v>1354</v>
@@ -16447,7 +16450,7 @@
         <v>831</v>
       </c>
       <c r="C832" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D832" t="s">
         <v>1359</v>
@@ -16461,7 +16464,7 @@
         <v>832</v>
       </c>
       <c r="C833" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D833" t="s">
         <v>1348</v>
@@ -16475,7 +16478,7 @@
         <v>833</v>
       </c>
       <c r="C834" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D834" t="s">
         <v>1349</v>
@@ -16503,7 +16506,7 @@
         <v>835</v>
       </c>
       <c r="C836" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D836" t="s">
         <v>1344</v>
@@ -16517,7 +16520,7 @@
         <v>836</v>
       </c>
       <c r="C837" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D837" t="s">
         <v>1360</v>
@@ -16685,7 +16688,7 @@
         <v>847</v>
       </c>
       <c r="C849" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D849" t="s">
         <v>1361</v>
@@ -16713,7 +16716,7 @@
         <v>849</v>
       </c>
       <c r="C851" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D851" t="s">
         <v>1342</v>
@@ -16811,7 +16814,7 @@
         <v>856</v>
       </c>
       <c r="C858" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D858" t="s">
         <v>1357</v>
@@ -16909,7 +16912,7 @@
         <v>863</v>
       </c>
       <c r="C865" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D865" t="s">
         <v>1348</v>
@@ -16923,7 +16926,7 @@
         <v>864</v>
       </c>
       <c r="C866" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D866" t="s">
         <v>1362</v>
@@ -16937,7 +16940,7 @@
         <v>865</v>
       </c>
       <c r="C867" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D867" t="s">
         <v>1336</v>
@@ -16951,7 +16954,7 @@
         <v>866</v>
       </c>
       <c r="C868" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D868" t="s">
         <v>1337</v>
@@ -16965,7 +16968,7 @@
         <v>867</v>
       </c>
       <c r="C869" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D869" t="s">
         <v>1351</v>
@@ -16979,7 +16982,7 @@
         <v>868</v>
       </c>
       <c r="C870" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D870" t="s">
         <v>1340</v>
@@ -17035,7 +17038,7 @@
         <v>872</v>
       </c>
       <c r="C874" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D874" t="s">
         <v>1350</v>
@@ -17049,7 +17052,7 @@
         <v>873</v>
       </c>
       <c r="C875" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D875" t="s">
         <v>1345</v>
@@ -17063,7 +17066,7 @@
         <v>874</v>
       </c>
       <c r="C876" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D876" t="s">
         <v>1344</v>
@@ -17161,7 +17164,7 @@
         <v>881</v>
       </c>
       <c r="C883" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D883" t="s">
         <v>1360</v>
@@ -17217,7 +17220,7 @@
         <v>885</v>
       </c>
       <c r="C887" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D887" t="s">
         <v>1358</v>
@@ -17315,7 +17318,7 @@
         <v>892</v>
       </c>
       <c r="C894" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D894" t="s">
         <v>1358</v>
@@ -17329,7 +17332,7 @@
         <v>893</v>
       </c>
       <c r="C895" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D895" t="s">
         <v>1347</v>
@@ -17371,7 +17374,7 @@
         <v>896</v>
       </c>
       <c r="C898" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D898" t="s">
         <v>1358</v>
@@ -17413,7 +17416,7 @@
         <v>899</v>
       </c>
       <c r="C901" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D901" t="s">
         <v>1345</v>
@@ -17441,7 +17444,7 @@
         <v>901</v>
       </c>
       <c r="C903" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D903" t="s">
         <v>1359</v>
@@ -17455,7 +17458,7 @@
         <v>902</v>
       </c>
       <c r="C904" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D904" t="s">
         <v>1349</v>
@@ -17469,7 +17472,7 @@
         <v>903</v>
       </c>
       <c r="C905" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D905" t="s">
         <v>1346</v>
@@ -17497,7 +17500,7 @@
         <v>905</v>
       </c>
       <c r="C907" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D907" t="s">
         <v>1350</v>
@@ -17567,7 +17570,7 @@
         <v>910</v>
       </c>
       <c r="C912" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D912" t="s">
         <v>1406</v>
@@ -17581,7 +17584,7 @@
         <v>911</v>
       </c>
       <c r="C913" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D913" t="s">
         <v>1362</v>
@@ -17595,7 +17598,7 @@
         <v>912</v>
       </c>
       <c r="C914" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D914" t="s">
         <v>1407</v>
@@ -17609,7 +17612,7 @@
         <v>913</v>
       </c>
       <c r="C915" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D915" t="s">
         <v>1344</v>
@@ -17623,7 +17626,7 @@
         <v>914</v>
       </c>
       <c r="C916" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D916" t="s">
         <v>1408</v>
@@ -17651,7 +17654,7 @@
         <v>915</v>
       </c>
       <c r="C918" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D918" t="s">
         <v>1360</v>
@@ -17679,7 +17682,7 @@
         <v>917</v>
       </c>
       <c r="C920" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D920" t="s">
         <v>1360</v>
@@ -17707,7 +17710,7 @@
         <v>919</v>
       </c>
       <c r="C922" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D922" t="s">
         <v>1352</v>
@@ -17721,7 +17724,7 @@
         <v>920</v>
       </c>
       <c r="C923" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D923" t="s">
         <v>1341</v>
@@ -17735,7 +17738,7 @@
         <v>921</v>
       </c>
       <c r="C924" t="s">
-        <v>1226</v>
+        <v>1253</v>
       </c>
       <c r="D924" t="s">
         <v>1364</v>
@@ -17763,7 +17766,7 @@
         <v>923</v>
       </c>
       <c r="C926" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D926" t="s">
         <v>1353</v>
@@ -17777,7 +17780,7 @@
         <v>924</v>
       </c>
       <c r="C927" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D927" t="s">
         <v>1360</v>
@@ -17833,7 +17836,7 @@
         <v>928</v>
       </c>
       <c r="C931" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D931" t="s">
         <v>1352</v>
@@ -17847,7 +17850,7 @@
         <v>929</v>
       </c>
       <c r="C932" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D932" t="s">
         <v>1412</v>
@@ -17875,7 +17878,7 @@
         <v>931</v>
       </c>
       <c r="C934" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D934" t="s">
         <v>1341</v>
@@ -17889,7 +17892,7 @@
         <v>932</v>
       </c>
       <c r="C935" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D935" t="s">
         <v>1346</v>
@@ -17903,7 +17906,7 @@
         <v>933</v>
       </c>
       <c r="C936" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D936" t="s">
         <v>1339</v>
@@ -17945,7 +17948,7 @@
         <v>936</v>
       </c>
       <c r="C939" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D939" t="s">
         <v>1336</v>
@@ -17973,7 +17976,7 @@
         <v>937</v>
       </c>
       <c r="C941" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D941" t="s">
         <v>1350</v>
@@ -18015,7 +18018,7 @@
         <v>940</v>
       </c>
       <c r="C944" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D944" t="s">
         <v>1357</v>
@@ -18029,7 +18032,7 @@
         <v>941</v>
       </c>
       <c r="C945" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D945" t="s">
         <v>1339</v>
@@ -18043,7 +18046,7 @@
         <v>942</v>
       </c>
       <c r="C946" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D946" t="s">
         <v>1361</v>
@@ -18127,7 +18130,7 @@
         <v>948</v>
       </c>
       <c r="C952" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D952" t="s">
         <v>1357</v>
@@ -18144,7 +18147,7 @@
         <v>1209</v>
       </c>
       <c r="D953" t="s">
-        <v>1336</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="954" spans="1:4">
@@ -18172,7 +18175,7 @@
         <v>1214</v>
       </c>
       <c r="D955" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="956" spans="1:4">
@@ -18183,7 +18186,7 @@
         <v>951</v>
       </c>
       <c r="C956" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D956" t="s">
         <v>1362</v>
@@ -18197,7 +18200,7 @@
         <v>952</v>
       </c>
       <c r="C957" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D957" t="s">
         <v>1337</v>
@@ -18211,7 +18214,7 @@
         <v>953</v>
       </c>
       <c r="C958" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D958" t="s">
         <v>1361</v>
@@ -18225,7 +18228,7 @@
         <v>954</v>
       </c>
       <c r="C959" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D959" t="s">
         <v>1363</v>
@@ -18253,7 +18256,7 @@
         <v>956</v>
       </c>
       <c r="C961" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D961" t="s">
         <v>1342</v>
@@ -18309,7 +18312,7 @@
         <v>960</v>
       </c>
       <c r="C965" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D965" t="s">
         <v>1361</v>
@@ -18323,7 +18326,7 @@
         <v>961</v>
       </c>
       <c r="C966" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D966" t="s">
         <v>1358</v>
@@ -18337,7 +18340,7 @@
         <v>962</v>
       </c>
       <c r="C967" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D967" t="s">
         <v>1359</v>
@@ -18351,7 +18354,7 @@
         <v>963</v>
       </c>
       <c r="C968" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D968" t="s">
         <v>1363</v>
@@ -18365,7 +18368,7 @@
         <v>964</v>
       </c>
       <c r="C969" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D969" t="s">
         <v>1358</v>
@@ -18379,7 +18382,7 @@
         <v>965</v>
       </c>
       <c r="C970" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D970" t="s">
         <v>1352</v>
@@ -18393,7 +18396,7 @@
         <v>966</v>
       </c>
       <c r="C971" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D971" t="s">
         <v>1362</v>
@@ -18407,7 +18410,7 @@
         <v>967</v>
       </c>
       <c r="C972" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D972" t="s">
         <v>1357</v>
@@ -18421,7 +18424,7 @@
         <v>968</v>
       </c>
       <c r="C973" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D973" t="s">
         <v>1337</v>
@@ -18435,7 +18438,7 @@
         <v>969</v>
       </c>
       <c r="C974" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D974" t="s">
         <v>1360</v>
@@ -18452,7 +18455,7 @@
         <v>1209</v>
       </c>
       <c r="D975" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="976" spans="1:4">
@@ -18463,7 +18466,7 @@
         <v>971</v>
       </c>
       <c r="C976" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D976" t="s">
         <v>1344</v>
@@ -18477,7 +18480,7 @@
         <v>972</v>
       </c>
       <c r="C977" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D977" t="s">
         <v>1342</v>
@@ -18491,7 +18494,7 @@
         <v>973</v>
       </c>
       <c r="C978" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D978" t="s">
         <v>1348</v>
@@ -18505,7 +18508,7 @@
         <v>974</v>
       </c>
       <c r="C979" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D979" t="s">
         <v>1361</v>
@@ -18519,7 +18522,7 @@
         <v>975</v>
       </c>
       <c r="C980" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D980" t="s">
         <v>1357</v>
@@ -18533,7 +18536,7 @@
         <v>976</v>
       </c>
       <c r="C981" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D981" t="s">
         <v>1342</v>
@@ -18561,10 +18564,10 @@
         <v>978</v>
       </c>
       <c r="C983" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D983" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="984" spans="1:4">
@@ -18575,7 +18578,7 @@
         <v>979</v>
       </c>
       <c r="C984" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D984" t="s">
         <v>1349</v>
@@ -18592,7 +18595,7 @@
         <v>1231</v>
       </c>
       <c r="D985" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="986" spans="1:4">
@@ -18603,7 +18606,7 @@
         <v>981</v>
       </c>
       <c r="C986" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D986" t="s">
         <v>1351</v>
@@ -18617,7 +18620,7 @@
         <v>982</v>
       </c>
       <c r="C987" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D987" t="s">
         <v>1343</v>
@@ -18631,7 +18634,7 @@
         <v>983</v>
       </c>
       <c r="C988" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D988" t="s">
         <v>1336</v>
@@ -18645,7 +18648,7 @@
         <v>984</v>
       </c>
       <c r="C989" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D989" t="s">
         <v>1349</v>
@@ -18673,7 +18676,7 @@
         <v>986</v>
       </c>
       <c r="C991" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D991" t="s">
         <v>1362</v>
@@ -18687,7 +18690,7 @@
         <v>987</v>
       </c>
       <c r="C992" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D992" t="s">
         <v>1348</v>
@@ -18715,10 +18718,10 @@
         <v>698</v>
       </c>
       <c r="C994" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D994" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="995" spans="1:4">
@@ -18729,7 +18732,7 @@
         <v>989</v>
       </c>
       <c r="C995" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D995" t="s">
         <v>1360</v>
@@ -18771,7 +18774,7 @@
         <v>992</v>
       </c>
       <c r="C998" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D998" t="s">
         <v>1347</v>
@@ -18785,7 +18788,7 @@
         <v>993</v>
       </c>
       <c r="C999" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D999" t="s">
         <v>1355</v>
@@ -18802,7 +18805,7 @@
         <v>1218</v>
       </c>
       <c r="D1000" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1001" spans="1:4">
@@ -18813,7 +18816,7 @@
         <v>995</v>
       </c>
       <c r="C1001" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D1001" t="s">
         <v>1356</v>
@@ -18827,7 +18830,7 @@
         <v>996</v>
       </c>
       <c r="C1002" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D1002" t="s">
         <v>1352</v>
@@ -18855,7 +18858,7 @@
         <v>998</v>
       </c>
       <c r="C1004" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D1004" t="s">
         <v>1353</v>
@@ -18886,7 +18889,7 @@
         <v>1228</v>
       </c>
       <c r="D1006" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1007" spans="1:4">
@@ -18897,7 +18900,7 @@
         <v>1001</v>
       </c>
       <c r="C1007" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D1007" t="s">
         <v>1335</v>
@@ -18911,7 +18914,7 @@
         <v>1002</v>
       </c>
       <c r="C1008" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D1008" t="s">
         <v>1360</v>
@@ -18925,7 +18928,7 @@
         <v>1003</v>
       </c>
       <c r="C1009" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D1009" t="s">
         <v>1362</v>
@@ -18939,7 +18942,7 @@
         <v>1004</v>
       </c>
       <c r="C1010" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D1010" t="s">
         <v>1356</v>
@@ -18953,7 +18956,7 @@
         <v>1005</v>
       </c>
       <c r="C1011" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D1011" t="s">
         <v>1340</v>
@@ -18967,7 +18970,7 @@
         <v>1006</v>
       </c>
       <c r="C1012" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D1012" t="s">
         <v>1362</v>
@@ -18981,7 +18984,7 @@
         <v>1007</v>
       </c>
       <c r="C1013" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D1013" t="s">
         <v>1348</v>
@@ -18995,10 +18998,10 @@
         <v>1008</v>
       </c>
       <c r="C1014" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D1014" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1015" spans="1:4">
@@ -19009,10 +19012,10 @@
         <v>1009</v>
       </c>
       <c r="C1015" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D1015" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1016" spans="1:4">
@@ -19023,7 +19026,7 @@
         <v>1010</v>
       </c>
       <c r="C1016" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D1016" t="s">
         <v>1361</v>
@@ -19037,7 +19040,7 @@
         <v>1011</v>
       </c>
       <c r="C1017" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D1017" t="s">
         <v>1353</v>
@@ -19051,7 +19054,7 @@
         <v>1012</v>
       </c>
       <c r="C1018" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D1018" t="s">
         <v>1360</v>
@@ -19082,7 +19085,7 @@
         <v>1231</v>
       </c>
       <c r="D1020" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1021" spans="1:4">
@@ -19107,7 +19110,7 @@
         <v>1016</v>
       </c>
       <c r="C1022" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D1022" t="s">
         <v>1357</v>
@@ -19135,10 +19138,10 @@
         <v>1018</v>
       </c>
       <c r="C1024" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D1024" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1025" spans="1:4">
@@ -19152,7 +19155,7 @@
         <v>1222</v>
       </c>
       <c r="D1025" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="1026" spans="1:4">
@@ -19163,10 +19166,10 @@
         <v>1019</v>
       </c>
       <c r="C1026" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D1026" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1027" spans="1:4">
@@ -19180,7 +19183,7 @@
         <v>1216</v>
       </c>
       <c r="D1027" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1028" spans="1:4">
@@ -19219,7 +19222,7 @@
         <v>1023</v>
       </c>
       <c r="C1030" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D1030" t="s">
         <v>1347</v>
@@ -19236,7 +19239,7 @@
         <v>1214</v>
       </c>
       <c r="D1031" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1032" spans="1:4">
@@ -19289,10 +19292,10 @@
         <v>945</v>
       </c>
       <c r="C1035" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D1035" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1036" spans="1:4">
@@ -19303,7 +19306,7 @@
         <v>1028</v>
       </c>
       <c r="C1036" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D1036" t="s">
         <v>1340</v>
@@ -19348,7 +19351,7 @@
         <v>1209</v>
       </c>
       <c r="D1039" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1040" spans="1:4">
@@ -19373,7 +19376,7 @@
         <v>1032</v>
       </c>
       <c r="C1041" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D1041" t="s">
         <v>1342</v>
@@ -19387,7 +19390,7 @@
         <v>1033</v>
       </c>
       <c r="C1042" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D1042" t="s">
         <v>1349</v>
@@ -19401,10 +19404,10 @@
         <v>1034</v>
       </c>
       <c r="C1043" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D1043" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1044" spans="1:4">
@@ -19429,7 +19432,7 @@
         <v>1036</v>
       </c>
       <c r="C1045" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D1045" t="s">
         <v>1337</v>
@@ -19443,7 +19446,7 @@
         <v>1037</v>
       </c>
       <c r="C1046" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D1046" t="s">
         <v>1343</v>
@@ -19471,7 +19474,7 @@
         <v>1039</v>
       </c>
       <c r="C1048" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D1048" t="s">
         <v>1344</v>
@@ -19485,7 +19488,7 @@
         <v>1040</v>
       </c>
       <c r="C1049" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D1049" t="s">
         <v>1342</v>
@@ -19499,10 +19502,10 @@
         <v>820</v>
       </c>
       <c r="C1050" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D1050" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1051" spans="1:4">
@@ -19516,7 +19519,7 @@
         <v>1218</v>
       </c>
       <c r="D1051" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1052" spans="1:4">
@@ -19597,7 +19600,7 @@
         <v>1047</v>
       </c>
       <c r="C1057" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D1057" t="s">
         <v>1345</v>
@@ -19625,7 +19628,7 @@
         <v>1049</v>
       </c>
       <c r="C1059" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D1059" t="s">
         <v>1364</v>
@@ -19639,10 +19642,10 @@
         <v>910</v>
       </c>
       <c r="C1060" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D1060" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1061" spans="1:4">
@@ -19709,10 +19712,10 @@
         <v>1054</v>
       </c>
       <c r="C1065" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D1065" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1066" spans="1:4">
@@ -19723,7 +19726,7 @@
         <v>1055</v>
       </c>
       <c r="C1066" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D1066" t="s">
         <v>1342</v>
@@ -19737,7 +19740,7 @@
         <v>1056</v>
       </c>
       <c r="C1067" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D1067" t="s">
         <v>1351</v>
@@ -19751,10 +19754,10 @@
         <v>1057</v>
       </c>
       <c r="C1068" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D1068" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1069" spans="1:4">
@@ -19765,7 +19768,7 @@
         <v>1058</v>
       </c>
       <c r="C1069" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D1069" t="s">
         <v>1358</v>
@@ -19793,10 +19796,10 @@
         <v>1060</v>
       </c>
       <c r="C1071" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D1071" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1072" spans="1:4">
@@ -19821,7 +19824,7 @@
         <v>1062</v>
       </c>
       <c r="C1073" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D1073" t="s">
         <v>1344</v>
@@ -19835,7 +19838,7 @@
         <v>1063</v>
       </c>
       <c r="C1074" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D1074" t="s">
         <v>1352</v>
@@ -19849,7 +19852,7 @@
         <v>1064</v>
       </c>
       <c r="C1075" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D1075" t="s">
         <v>1355</v>
@@ -19866,7 +19869,7 @@
         <v>1231</v>
       </c>
       <c r="D1076" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1077" spans="1:4">
@@ -19877,7 +19880,7 @@
         <v>1066</v>
       </c>
       <c r="C1077" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D1077" t="s">
         <v>1360</v>
@@ -19905,7 +19908,7 @@
         <v>1068</v>
       </c>
       <c r="C1079" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D1079" t="s">
         <v>1354</v>
@@ -19933,7 +19936,7 @@
         <v>1070</v>
       </c>
       <c r="C1081" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D1081" t="s">
         <v>1364</v>
@@ -19961,7 +19964,7 @@
         <v>1072</v>
       </c>
       <c r="C1083" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D1083" t="s">
         <v>1344</v>
@@ -19975,7 +19978,7 @@
         <v>1073</v>
       </c>
       <c r="C1084" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D1084" t="s">
         <v>1355</v>
@@ -20003,7 +20006,7 @@
         <v>1075</v>
       </c>
       <c r="C1086" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D1086" t="s">
         <v>1346</v>
@@ -20017,10 +20020,10 @@
         <v>1076</v>
       </c>
       <c r="C1087" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D1087" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -20031,7 +20034,7 @@
         <v>1077</v>
       </c>
       <c r="C1088" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D1088" t="s">
         <v>1348</v>
@@ -20059,7 +20062,7 @@
         <v>1079</v>
       </c>
       <c r="C1090" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D1090" t="s">
         <v>1359</v>
@@ -20073,10 +20076,10 @@
         <v>1080</v>
       </c>
       <c r="C1091" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D1091" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1092" spans="1:4">
@@ -20101,7 +20104,7 @@
         <v>1082</v>
       </c>
       <c r="C1093" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D1093" t="s">
         <v>1345</v>
@@ -20115,7 +20118,7 @@
         <v>1083</v>
       </c>
       <c r="C1094" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D1094" t="s">
         <v>1352</v>
@@ -20171,7 +20174,7 @@
         <v>1087</v>
       </c>
       <c r="C1098" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D1098" t="s">
         <v>1363</v>
@@ -20185,7 +20188,7 @@
         <v>1088</v>
       </c>
       <c r="C1099" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D1099" t="s">
         <v>1343</v>
@@ -20213,10 +20216,10 @@
         <v>723</v>
       </c>
       <c r="C1101" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D1101" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1102" spans="1:4">
@@ -20269,7 +20272,7 @@
         <v>1093</v>
       </c>
       <c r="C1105" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D1105" t="s">
         <v>1348</v>
@@ -20339,7 +20342,7 @@
         <v>1098</v>
       </c>
       <c r="C1110" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D1110" t="s">
         <v>1355</v>
@@ -20381,7 +20384,7 @@
         <v>1101</v>
       </c>
       <c r="C1113" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D1113" t="s">
         <v>1346</v>
@@ -20395,7 +20398,7 @@
         <v>1102</v>
       </c>
       <c r="C1114" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D1114" t="s">
         <v>1352</v>
@@ -20412,7 +20415,7 @@
         <v>1232</v>
       </c>
       <c r="D1115" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1116" spans="1:4">
@@ -20437,7 +20440,7 @@
         <v>1105</v>
       </c>
       <c r="C1117" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D1117" t="s">
         <v>1361</v>
@@ -20465,7 +20468,7 @@
         <v>1107</v>
       </c>
       <c r="C1119" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D1119" t="s">
         <v>1362</v>
@@ -20479,7 +20482,7 @@
         <v>1108</v>
       </c>
       <c r="C1120" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D1120" t="s">
         <v>1348</v>
@@ -20493,7 +20496,7 @@
         <v>1109</v>
       </c>
       <c r="C1121" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D1121" t="s">
         <v>1342</v>
@@ -20507,10 +20510,10 @@
         <v>1110</v>
       </c>
       <c r="C1122" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D1122" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1123" spans="1:4">
@@ -20535,7 +20538,7 @@
         <v>1112</v>
       </c>
       <c r="C1124" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D1124" t="s">
         <v>1360</v>
@@ -20580,7 +20583,7 @@
         <v>1217</v>
       </c>
       <c r="D1127" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1128" spans="1:4">
@@ -20591,10 +20594,10 @@
         <v>761</v>
       </c>
       <c r="C1128" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D1128" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1129" spans="1:4">
@@ -20622,7 +20625,7 @@
         <v>1216</v>
       </c>
       <c r="D1130" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1131" spans="1:4">
@@ -20689,10 +20692,10 @@
         <v>698</v>
       </c>
       <c r="C1135" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D1135" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1136" spans="1:4">
@@ -20703,10 +20706,10 @@
         <v>1121</v>
       </c>
       <c r="C1136" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D1136" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1137" spans="1:4">
@@ -20745,7 +20748,7 @@
         <v>1124</v>
       </c>
       <c r="C1139" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D1139" t="s">
         <v>1335</v>
@@ -20776,7 +20779,7 @@
         <v>1209</v>
       </c>
       <c r="D1141" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1142" spans="1:4">
@@ -20832,7 +20835,7 @@
         <v>1222</v>
       </c>
       <c r="D1145" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1146" spans="1:4">
@@ -20846,7 +20849,7 @@
         <v>1209</v>
       </c>
       <c r="D1146" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1147" spans="1:4">
@@ -20899,7 +20902,7 @@
         <v>1134</v>
       </c>
       <c r="C1150" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D1150" t="s">
         <v>1360</v>
@@ -20927,7 +20930,7 @@
         <v>1136</v>
       </c>
       <c r="C1152" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D1152" t="s">
         <v>1341</v>
@@ -20986,7 +20989,7 @@
         <v>1216</v>
       </c>
       <c r="D1156" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1157" spans="1:4">
@@ -21000,7 +21003,7 @@
         <v>1209</v>
       </c>
       <c r="D1157" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1158" spans="1:4">
@@ -21025,7 +21028,7 @@
         <v>1143</v>
       </c>
       <c r="C1159" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D1159" t="s">
         <v>1342</v>
@@ -21042,7 +21045,7 @@
         <v>1209</v>
       </c>
       <c r="D1160" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1161" spans="1:4">
@@ -21067,7 +21070,7 @@
         <v>1146</v>
       </c>
       <c r="C1162" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D1162" t="s">
         <v>1353</v>
@@ -21098,7 +21101,7 @@
         <v>1232</v>
       </c>
       <c r="D1164" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1165" spans="1:4">
@@ -21109,10 +21112,10 @@
         <v>581</v>
       </c>
       <c r="C1165" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D1165" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1166" spans="1:4">
@@ -21126,7 +21129,7 @@
         <v>1232</v>
       </c>
       <c r="D1166" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1167" spans="1:4">
@@ -21140,7 +21143,7 @@
         <v>1216</v>
       </c>
       <c r="D1167" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1168" spans="1:4">
@@ -21151,7 +21154,7 @@
         <v>1151</v>
       </c>
       <c r="C1168" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D1168" t="s">
         <v>1353</v>
@@ -21207,7 +21210,7 @@
         <v>1155</v>
       </c>
       <c r="C1172" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D1172" t="s">
         <v>1336</v>
@@ -21221,7 +21224,7 @@
         <v>1156</v>
       </c>
       <c r="C1173" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D1173" t="s">
         <v>1348</v>
@@ -21235,7 +21238,7 @@
         <v>1157</v>
       </c>
       <c r="C1174" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D1174" t="s">
         <v>1345</v>
@@ -21294,7 +21297,7 @@
         <v>1217</v>
       </c>
       <c r="D1178" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1179" spans="1:4">
@@ -21308,7 +21311,7 @@
         <v>1209</v>
       </c>
       <c r="D1179" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1180" spans="1:4">
@@ -21319,7 +21322,7 @@
         <v>1161</v>
       </c>
       <c r="C1180" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D1180" t="s">
         <v>1363</v>
@@ -21347,10 +21350,10 @@
         <v>900</v>
       </c>
       <c r="C1182" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D1182" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1183" spans="1:4">
@@ -21375,7 +21378,7 @@
         <v>1164</v>
       </c>
       <c r="C1184" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D1184" t="s">
         <v>1346</v>
@@ -21403,7 +21406,7 @@
         <v>1166</v>
       </c>
       <c r="C1186" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D1186" t="s">
         <v>1361</v>
@@ -21431,7 +21434,7 @@
         <v>1168</v>
       </c>
       <c r="C1188" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D1188" t="s">
         <v>1364</v>
@@ -21448,7 +21451,7 @@
         <v>1219</v>
       </c>
       <c r="D1189" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1190" spans="1:4">
@@ -21462,7 +21465,7 @@
         <v>1216</v>
       </c>
       <c r="D1190" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1191" spans="1:4">
@@ -21473,10 +21476,10 @@
         <v>1171</v>
       </c>
       <c r="C1191" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D1191" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1192" spans="1:4">
@@ -21487,7 +21490,7 @@
         <v>1172</v>
       </c>
       <c r="C1192" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D1192" t="s">
         <v>1345</v>
@@ -21504,7 +21507,7 @@
         <v>1231</v>
       </c>
       <c r="D1193" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1194" spans="1:4">
@@ -21585,7 +21588,7 @@
         <v>1179</v>
       </c>
       <c r="C1199" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D1199" t="s">
         <v>1363</v>
@@ -21599,7 +21602,7 @@
         <v>1180</v>
       </c>
       <c r="C1200" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D1200" t="s">
         <v>1351</v>
@@ -21627,10 +21630,10 @@
         <v>1182</v>
       </c>
       <c r="C1202" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D1202" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1203" spans="1:4">
@@ -21644,7 +21647,7 @@
         <v>1218</v>
       </c>
       <c r="D1203" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1204" spans="1:4">
@@ -21756,7 +21759,7 @@
         <v>1208</v>
       </c>
       <c r="D1211" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1212" spans="1:4">
@@ -21767,7 +21770,7 @@
         <v>1192</v>
       </c>
       <c r="C1212" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D1212" t="s">
         <v>1336</v>
@@ -21837,7 +21840,7 @@
         <v>1197</v>
       </c>
       <c r="C1217" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D1217" t="s">
         <v>1358</v>
@@ -21854,7 +21857,7 @@
         <v>1223</v>
       </c>
       <c r="D1218" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1219" spans="1:4">
@@ -21865,7 +21868,7 @@
         <v>1199</v>
       </c>
       <c r="C1219" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D1219" t="s">
         <v>1343</v>
@@ -21893,10 +21896,10 @@
         <v>1201</v>
       </c>
       <c r="C1221" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D1221" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1222" spans="1:4">

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -6728,7 +6728,7 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="D135" t="s">
         <v>1354</v>
@@ -12440,7 +12440,7 @@
         <v>542</v>
       </c>
       <c r="C543" t="s">
-        <v>1249</v>
+        <v>1257</v>
       </c>
       <c r="D543" t="s">
         <v>1354</v>
@@ -21820,7 +21820,7 @@
         <v>1191</v>
       </c>
       <c r="C1213" t="s">
-        <v>1221</v>
+        <v>1229</v>
       </c>
       <c r="D1213" t="s">
         <v>1358</v>

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="1487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="1488">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -1831,7 +1831,7 @@
     <t>Rafael Montero</t>
   </si>
   <si>
-    <t>Dominic Leone</t>
+    <t>Dominic</t>
   </si>
   <si>
     <t>Caleb Ferguson</t>
@@ -2596,7 +2596,7 @@
     <t>Yusmeiro</t>
   </si>
   <si>
-    <t>Rafael Dolis</t>
+    <t>Rafael</t>
   </si>
   <si>
     <t>Jimmy Herget</t>
@@ -3346,7 +3346,7 @@
     <t>Magneuris Sierra</t>
   </si>
   <si>
-    <t>DJ</t>
+    <t>DJ Peters</t>
   </si>
   <si>
     <t>Josh Palacios</t>
@@ -4159,6 +4159,9 @@
     <t>Upton</t>
   </si>
   <si>
+    <t>Leone</t>
+  </si>
+  <si>
     <t>Adams</t>
   </si>
   <si>
@@ -4261,6 +4264,9 @@
     <t>Petit</t>
   </si>
   <si>
+    <t>Dolis</t>
+  </si>
+  <si>
     <t>Harper</t>
   </si>
   <si>
@@ -4397,9 +4403,6 @@
   </si>
   <si>
     <t>Reks</t>
-  </si>
-  <si>
-    <t>Peters</t>
   </si>
   <si>
     <t>Smoak</t>
@@ -13311,7 +13314,7 @@
         <v>1252</v>
       </c>
       <c r="D605" t="s">
-        <v>1360</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -13479,7 +13482,7 @@
         <v>1226</v>
       </c>
       <c r="D617" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -13577,7 +13580,7 @@
         <v>1228</v>
       </c>
       <c r="D624" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -13801,7 +13804,7 @@
         <v>1226</v>
       </c>
       <c r="D640" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="641" spans="1:4">
@@ -14081,7 +14084,7 @@
         <v>1226</v>
       </c>
       <c r="D660" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -14375,7 +14378,7 @@
         <v>1216</v>
       </c>
       <c r="D681" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -14403,7 +14406,7 @@
         <v>1301</v>
       </c>
       <c r="D683" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -14487,7 +14490,7 @@
         <v>1252</v>
       </c>
       <c r="D689" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -14529,7 +14532,7 @@
         <v>1212</v>
       </c>
       <c r="D692" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -14599,7 +14602,7 @@
         <v>1302</v>
       </c>
       <c r="D697" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -14711,7 +14714,7 @@
         <v>1226</v>
       </c>
       <c r="D705" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -14949,7 +14952,7 @@
         <v>1206</v>
       </c>
       <c r="D722" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -14977,7 +14980,7 @@
         <v>1244</v>
       </c>
       <c r="D724" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -15075,7 +15078,7 @@
         <v>1206</v>
       </c>
       <c r="D731" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -15117,7 +15120,7 @@
         <v>1304</v>
       </c>
       <c r="D734" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -15187,7 +15190,7 @@
         <v>1226</v>
       </c>
       <c r="D739" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -15453,7 +15456,7 @@
         <v>1226</v>
       </c>
       <c r="D758" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -15537,7 +15540,7 @@
         <v>1252</v>
       </c>
       <c r="D764" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -15761,7 +15764,7 @@
         <v>1230</v>
       </c>
       <c r="D780" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -15845,7 +15848,7 @@
         <v>1212</v>
       </c>
       <c r="D786" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -15957,7 +15960,7 @@
         <v>1220</v>
       </c>
       <c r="D794" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -16083,7 +16086,7 @@
         <v>1226</v>
       </c>
       <c r="D803" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -16153,7 +16156,7 @@
         <v>1226</v>
       </c>
       <c r="D808" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -16167,7 +16170,7 @@
         <v>1226</v>
       </c>
       <c r="D809" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -16209,7 +16212,7 @@
         <v>1226</v>
       </c>
       <c r="D812" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -16335,7 +16338,7 @@
         <v>1226</v>
       </c>
       <c r="D821" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -16391,7 +16394,7 @@
         <v>1226</v>
       </c>
       <c r="D825" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -16433,7 +16436,7 @@
         <v>1226</v>
       </c>
       <c r="D828" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -16573,7 +16576,7 @@
         <v>1226</v>
       </c>
       <c r="D838" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="839" spans="1:4">
@@ -16629,7 +16632,7 @@
         <v>1226</v>
       </c>
       <c r="D842" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -16643,7 +16646,7 @@
         <v>1207</v>
       </c>
       <c r="D843" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -16727,7 +16730,7 @@
         <v>1252</v>
       </c>
       <c r="D849" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -16783,7 +16786,7 @@
         <v>1226</v>
       </c>
       <c r="D853" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -16797,7 +16800,7 @@
         <v>1226</v>
       </c>
       <c r="D854" t="s">
-        <v>1364</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="855" spans="1:4">
@@ -16881,7 +16884,7 @@
         <v>1226</v>
       </c>
       <c r="D860" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="861" spans="1:4">
@@ -16895,7 +16898,7 @@
         <v>1226</v>
       </c>
       <c r="D861" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -16909,7 +16912,7 @@
         <v>1226</v>
       </c>
       <c r="D862" t="s">
-        <v>1347</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -17189,7 +17192,7 @@
         <v>1226</v>
       </c>
       <c r="D882" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -17469,7 +17472,7 @@
         <v>1212</v>
       </c>
       <c r="D902" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="903" spans="1:4">
@@ -17581,7 +17584,7 @@
         <v>1226</v>
       </c>
       <c r="D910" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="911" spans="1:4">
@@ -17609,7 +17612,7 @@
         <v>1252</v>
       </c>
       <c r="D912" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -17637,7 +17640,7 @@
         <v>1252</v>
       </c>
       <c r="D914" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -17665,7 +17668,7 @@
         <v>1260</v>
       </c>
       <c r="D916" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="917" spans="1:4">
@@ -17679,7 +17682,7 @@
         <v>1226</v>
       </c>
       <c r="D917" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="918" spans="1:4">
@@ -17735,7 +17738,7 @@
         <v>1212</v>
       </c>
       <c r="D921" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="922" spans="1:4">
@@ -17833,7 +17836,7 @@
         <v>1226</v>
       </c>
       <c r="D928" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="929" spans="1:4">
@@ -17889,7 +17892,7 @@
         <v>1262</v>
       </c>
       <c r="D932" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="933" spans="1:4">
@@ -17959,7 +17962,7 @@
         <v>1212</v>
       </c>
       <c r="D937" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="938" spans="1:4">
@@ -18029,7 +18032,7 @@
         <v>1212</v>
       </c>
       <c r="D942" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="943" spans="1:4">
@@ -18043,7 +18046,7 @@
         <v>1209</v>
       </c>
       <c r="D943" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="944" spans="1:4">
@@ -18113,7 +18116,7 @@
         <v>1212</v>
       </c>
       <c r="D948" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="949" spans="1:4">
@@ -18127,7 +18130,7 @@
         <v>1212</v>
       </c>
       <c r="D949" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="950" spans="1:4">
@@ -18155,7 +18158,7 @@
         <v>1226</v>
       </c>
       <c r="D951" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="952" spans="1:4">
@@ -18183,7 +18186,7 @@
         <v>1207</v>
       </c>
       <c r="D953" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="954" spans="1:4">
@@ -18211,7 +18214,7 @@
         <v>1212</v>
       </c>
       <c r="D955" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="956" spans="1:4">
@@ -18491,7 +18494,7 @@
         <v>1207</v>
       </c>
       <c r="D975" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="976" spans="1:4">
@@ -18603,7 +18606,7 @@
         <v>1268</v>
       </c>
       <c r="D983" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="984" spans="1:4">
@@ -18631,7 +18634,7 @@
         <v>1228</v>
       </c>
       <c r="D985" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="986" spans="1:4">
@@ -18757,7 +18760,7 @@
         <v>1268</v>
       </c>
       <c r="D994" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="995" spans="1:4">
@@ -18841,7 +18844,7 @@
         <v>1216</v>
       </c>
       <c r="D1000" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1001" spans="1:4">
@@ -18911,7 +18914,7 @@
         <v>1315</v>
       </c>
       <c r="D1005" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1006" spans="1:4">
@@ -18925,7 +18928,7 @@
         <v>1226</v>
       </c>
       <c r="D1006" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1007" spans="1:4">
@@ -19037,7 +19040,7 @@
         <v>1268</v>
       </c>
       <c r="D1014" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1015" spans="1:4">
@@ -19051,7 +19054,7 @@
         <v>1243</v>
       </c>
       <c r="D1015" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1016" spans="1:4">
@@ -19065,7 +19068,7 @@
         <v>1270</v>
       </c>
       <c r="D1016" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -19121,7 +19124,7 @@
         <v>1228</v>
       </c>
       <c r="D1020" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1021" spans="1:4">
@@ -19163,7 +19166,7 @@
         <v>1317</v>
       </c>
       <c r="D1023" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1024" spans="1:4">
@@ -19177,7 +19180,7 @@
         <v>1249</v>
       </c>
       <c r="D1024" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1025" spans="1:4">
@@ -19191,7 +19194,7 @@
         <v>1220</v>
       </c>
       <c r="D1025" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1026" spans="1:4">
@@ -19205,7 +19208,7 @@
         <v>1249</v>
       </c>
       <c r="D1026" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1027" spans="1:4">
@@ -19219,7 +19222,7 @@
         <v>1214</v>
       </c>
       <c r="D1027" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1028" spans="1:4">
@@ -19275,7 +19278,7 @@
         <v>1212</v>
       </c>
       <c r="D1031" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1032" spans="1:4">
@@ -19387,7 +19390,7 @@
         <v>1207</v>
       </c>
       <c r="D1039" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1040" spans="1:4">
@@ -19443,7 +19446,7 @@
         <v>1270</v>
       </c>
       <c r="D1043" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1044" spans="1:4">
@@ -19541,7 +19544,7 @@
         <v>1264</v>
       </c>
       <c r="D1050" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1051" spans="1:4">
@@ -19555,7 +19558,7 @@
         <v>1216</v>
       </c>
       <c r="D1051" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1052" spans="1:4">
@@ -19681,7 +19684,7 @@
         <v>1255</v>
       </c>
       <c r="D1060" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1061" spans="1:4">
@@ -19751,7 +19754,7 @@
         <v>1249</v>
       </c>
       <c r="D1065" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1066" spans="1:4">
@@ -19793,7 +19796,7 @@
         <v>1260</v>
       </c>
       <c r="D1068" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1069" spans="1:4">
@@ -19835,7 +19838,7 @@
         <v>1267</v>
       </c>
       <c r="D1071" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1072" spans="1:4">
@@ -19905,7 +19908,7 @@
         <v>1228</v>
       </c>
       <c r="D1076" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1077" spans="1:4">
@@ -20115,7 +20118,7 @@
         <v>1255</v>
       </c>
       <c r="D1091" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1092" spans="1:4">
@@ -20255,7 +20258,7 @@
         <v>1256</v>
       </c>
       <c r="D1101" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1102" spans="1:4">
@@ -20451,7 +20454,7 @@
         <v>1258</v>
       </c>
       <c r="D1115" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1116" spans="1:4">
@@ -20549,7 +20552,7 @@
         <v>1249</v>
       </c>
       <c r="D1122" t="s">
-        <v>1460</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1123" spans="1:4">
@@ -20619,7 +20622,7 @@
         <v>1215</v>
       </c>
       <c r="D1127" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1128" spans="1:4">
@@ -20633,7 +20636,7 @@
         <v>1284</v>
       </c>
       <c r="D1128" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1129" spans="1:4">
@@ -20661,7 +20664,7 @@
         <v>1214</v>
       </c>
       <c r="D1130" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1131" spans="1:4">
@@ -20731,7 +20734,7 @@
         <v>1256</v>
       </c>
       <c r="D1135" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1136" spans="1:4">
@@ -20745,7 +20748,7 @@
         <v>1243</v>
       </c>
       <c r="D1136" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1137" spans="1:4">
@@ -20815,7 +20818,7 @@
         <v>1207</v>
       </c>
       <c r="D1141" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1142" spans="1:4">
@@ -20871,7 +20874,7 @@
         <v>1220</v>
       </c>
       <c r="D1145" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1146" spans="1:4">
@@ -20885,7 +20888,7 @@
         <v>1207</v>
       </c>
       <c r="D1146" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1147" spans="1:4">
@@ -20983,7 +20986,7 @@
         <v>1207</v>
       </c>
       <c r="D1153" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1154" spans="1:4">
@@ -21025,7 +21028,7 @@
         <v>1214</v>
       </c>
       <c r="D1156" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1157" spans="1:4">
@@ -21039,7 +21042,7 @@
         <v>1207</v>
       </c>
       <c r="D1157" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1158" spans="1:4">
@@ -21081,7 +21084,7 @@
         <v>1207</v>
       </c>
       <c r="D1160" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1161" spans="1:4">
@@ -21137,7 +21140,7 @@
         <v>1258</v>
       </c>
       <c r="D1164" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1165" spans="1:4">
@@ -21151,7 +21154,7 @@
         <v>1255</v>
       </c>
       <c r="D1165" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1166" spans="1:4">
@@ -21165,7 +21168,7 @@
         <v>1258</v>
       </c>
       <c r="D1166" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1167" spans="1:4">
@@ -21179,7 +21182,7 @@
         <v>1214</v>
       </c>
       <c r="D1167" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1168" spans="1:4">
@@ -21333,7 +21336,7 @@
         <v>1215</v>
       </c>
       <c r="D1178" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1179" spans="1:4">
@@ -21347,7 +21350,7 @@
         <v>1207</v>
       </c>
       <c r="D1179" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1180" spans="1:4">
@@ -21389,7 +21392,7 @@
         <v>1249</v>
       </c>
       <c r="D1182" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1183" spans="1:4">
@@ -21487,7 +21490,7 @@
         <v>1217</v>
       </c>
       <c r="D1189" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1190" spans="1:4">
@@ -21501,7 +21504,7 @@
         <v>1214</v>
       </c>
       <c r="D1190" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1191" spans="1:4">
@@ -21515,7 +21518,7 @@
         <v>1264</v>
       </c>
       <c r="D1191" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1192" spans="1:4">
@@ -21543,7 +21546,7 @@
         <v>1228</v>
       </c>
       <c r="D1193" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1194" spans="1:4">
@@ -21669,7 +21672,7 @@
         <v>1267</v>
       </c>
       <c r="D1202" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1203" spans="1:4">
@@ -21683,7 +21686,7 @@
         <v>1216</v>
       </c>
       <c r="D1203" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1204" spans="1:4">
@@ -21795,7 +21798,7 @@
         <v>1206</v>
       </c>
       <c r="D1211" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1212" spans="1:4">
@@ -21893,7 +21896,7 @@
         <v>1221</v>
       </c>
       <c r="D1218" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="1219" spans="1:4">
@@ -21935,7 +21938,7 @@
         <v>1268</v>
       </c>
       <c r="D1221" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1222" spans="1:4">

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="1489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="1490">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -1792,7 +1792,7 @@
     <t>Robert Stephenson</t>
   </si>
   <si>
-    <t>Heath Hembree</t>
+    <t>Heath</t>
   </si>
   <si>
     <t>Josh Sborz</t>
@@ -3820,66 +3820,66 @@
     <t>1B,C</t>
   </si>
   <si>
+    <t>2B,LF,RF</t>
+  </si>
+  <si>
+    <t>2B,SS,LF,CF</t>
+  </si>
+  <si>
+    <t>1B,3B,LF</t>
+  </si>
+  <si>
+    <t>2B,3B,SS,LF,RF</t>
+  </si>
+  <si>
+    <t>1B,2B,3B,RF</t>
+  </si>
+  <si>
+    <t>2B,3B,CF,DH,SS</t>
+  </si>
+  <si>
+    <t>1B,3B,DH</t>
+  </si>
+  <si>
+    <t>2B,DH,LF</t>
+  </si>
+  <si>
+    <t>1B,CF,DH,LF,RF</t>
+  </si>
+  <si>
+    <t>2B,3B,DH</t>
+  </si>
+  <si>
+    <t>2B,3B,SS,LF</t>
+  </si>
+  <si>
+    <t>1B,2B,3B,DH,LF</t>
+  </si>
+  <si>
+    <t>1B,DH,RF</t>
+  </si>
+  <si>
+    <t>1B,3B,DH,LF,RF</t>
+  </si>
+  <si>
+    <t>3B,DH,LF,RF</t>
+  </si>
+  <si>
+    <t>C,DH,LF</t>
+  </si>
+  <si>
+    <t>2B,SS,CF</t>
+  </si>
+  <si>
+    <t>2B,RF</t>
+  </si>
+  <si>
+    <t>1B,RF,DH</t>
+  </si>
+  <si>
     <t>2B,LF</t>
   </si>
   <si>
-    <t>2B,SS,LF,CF</t>
-  </si>
-  <si>
-    <t>1B,3B,LF</t>
-  </si>
-  <si>
-    <t>2B,LF,RF</t>
-  </si>
-  <si>
-    <t>2B,3B,SS,LF,RF</t>
-  </si>
-  <si>
-    <t>1B,2B,3B,RF</t>
-  </si>
-  <si>
-    <t>2B,3B,CF,DH,SS</t>
-  </si>
-  <si>
-    <t>1B,3B,DH</t>
-  </si>
-  <si>
-    <t>2B,DH,LF</t>
-  </si>
-  <si>
-    <t>1B,CF,DH,LF,RF</t>
-  </si>
-  <si>
-    <t>2B,3B,DH</t>
-  </si>
-  <si>
-    <t>2B,3B,SS,LF</t>
-  </si>
-  <si>
-    <t>1B,2B,3B,DH,LF</t>
-  </si>
-  <si>
-    <t>1B,DH,RF</t>
-  </si>
-  <si>
-    <t>1B,3B,DH,LF,RF</t>
-  </si>
-  <si>
-    <t>3B,DH,LF,RF</t>
-  </si>
-  <si>
-    <t>C,DH,LF</t>
-  </si>
-  <si>
-    <t>2B,SS,CF</t>
-  </si>
-  <si>
-    <t>2B,RF</t>
-  </si>
-  <si>
-    <t>1B,RF,DH</t>
-  </si>
-  <si>
     <t>1B,2B,3B,DH,LF,RF</t>
   </si>
   <si>
@@ -4145,6 +4145,9 @@
   </si>
   <si>
     <t>Upton</t>
+  </si>
+  <si>
+    <t>Hembree</t>
   </si>
   <si>
     <t>Leone</t>
@@ -8932,7 +8935,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="D292" t="s">
         <v>1350</v>
@@ -8960,7 +8963,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D294" t="s">
         <v>1354</v>
@@ -9030,7 +9033,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D299" t="s">
         <v>1334</v>
@@ -9114,7 +9117,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D305" t="s">
         <v>1352</v>
@@ -9198,7 +9201,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D311" t="s">
         <v>1357</v>
@@ -9772,7 +9775,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D352" t="s">
         <v>1345</v>
@@ -9940,7 +9943,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D364" t="s">
         <v>1354</v>
@@ -9968,7 +9971,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D366" t="s">
         <v>1350</v>
@@ -9982,7 +9985,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D367" t="s">
         <v>1342</v>
@@ -10080,7 +10083,7 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D374" t="s">
         <v>1348</v>
@@ -10178,7 +10181,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D381" t="s">
         <v>1349</v>
@@ -10304,7 +10307,7 @@
         <v>390</v>
       </c>
       <c r="C390" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D390" t="s">
         <v>1347</v>
@@ -10332,7 +10335,7 @@
         <v>392</v>
       </c>
       <c r="C392" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D392" t="s">
         <v>1349</v>
@@ -10360,7 +10363,7 @@
         <v>394</v>
       </c>
       <c r="C394" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D394" t="s">
         <v>1351</v>
@@ -10416,7 +10419,7 @@
         <v>398</v>
       </c>
       <c r="C398" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D398" t="s">
         <v>1353</v>
@@ -10472,7 +10475,7 @@
         <v>402</v>
       </c>
       <c r="C402" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D402" t="s">
         <v>1344</v>
@@ -10486,7 +10489,7 @@
         <v>403</v>
       </c>
       <c r="C403" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D403" t="s">
         <v>1351</v>
@@ -10514,7 +10517,7 @@
         <v>405</v>
       </c>
       <c r="C405" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D405" t="s">
         <v>1342</v>
@@ -10668,7 +10671,7 @@
         <v>416</v>
       </c>
       <c r="C416" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D416" t="s">
         <v>1332</v>
@@ -10822,7 +10825,7 @@
         <v>427</v>
       </c>
       <c r="C427" t="s">
-        <v>1267</v>
+        <v>1286</v>
       </c>
       <c r="D427" t="s">
         <v>1360</v>
@@ -11284,7 +11287,7 @@
         <v>460</v>
       </c>
       <c r="C460" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D460" t="s">
         <v>1348</v>
@@ -11382,7 +11385,7 @@
         <v>467</v>
       </c>
       <c r="C467" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D467" t="s">
         <v>1351</v>
@@ -11942,7 +11945,7 @@
         <v>506</v>
       </c>
       <c r="C507" t="s">
-        <v>1223</v>
+        <v>1259</v>
       </c>
       <c r="D507" t="s">
         <v>1334</v>
@@ -12432,7 +12435,7 @@
         <v>541</v>
       </c>
       <c r="C542" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D542" t="s">
         <v>1355</v>
@@ -12852,7 +12855,7 @@
         <v>571</v>
       </c>
       <c r="C572" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D572" t="s">
         <v>1355</v>
@@ -13135,7 +13138,7 @@
         <v>1223</v>
       </c>
       <c r="D592" t="s">
-        <v>1331</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -13317,7 +13320,7 @@
         <v>1249</v>
       </c>
       <c r="D605" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -13485,7 +13488,7 @@
         <v>1223</v>
       </c>
       <c r="D617" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -13583,7 +13586,7 @@
         <v>1225</v>
       </c>
       <c r="D624" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -13709,7 +13712,7 @@
         <v>1256</v>
       </c>
       <c r="D633" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -13807,7 +13810,7 @@
         <v>1223</v>
       </c>
       <c r="D640" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="641" spans="1:4">
@@ -13821,7 +13824,7 @@
         <v>1223</v>
       </c>
       <c r="D641" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -14087,7 +14090,7 @@
         <v>1223</v>
       </c>
       <c r="D660" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -14129,7 +14132,7 @@
         <v>1223</v>
       </c>
       <c r="D663" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -14280,7 +14283,7 @@
         <v>671</v>
       </c>
       <c r="C674" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D674" t="s">
         <v>1333</v>
@@ -14381,7 +14384,7 @@
         <v>1213</v>
       </c>
       <c r="D681" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -14409,7 +14412,7 @@
         <v>1297</v>
       </c>
       <c r="D683" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -14493,7 +14496,7 @@
         <v>1249</v>
       </c>
       <c r="D689" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -14535,7 +14538,7 @@
         <v>1209</v>
       </c>
       <c r="D692" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -14605,7 +14608,7 @@
         <v>1298</v>
       </c>
       <c r="D697" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -14630,7 +14633,7 @@
         <v>696</v>
       </c>
       <c r="C699" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D699" t="s">
         <v>1346</v>
@@ -14717,7 +14720,7 @@
         <v>1223</v>
       </c>
       <c r="D705" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -14882,7 +14885,7 @@
         <v>714</v>
       </c>
       <c r="C717" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D717" t="s">
         <v>1354</v>
@@ -14955,7 +14958,7 @@
         <v>1203</v>
       </c>
       <c r="D722" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -14983,7 +14986,7 @@
         <v>1241</v>
       </c>
       <c r="D724" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -15081,7 +15084,7 @@
         <v>1203</v>
       </c>
       <c r="D731" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -15123,7 +15126,7 @@
         <v>1300</v>
       </c>
       <c r="D734" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -15193,7 +15196,7 @@
         <v>1223</v>
       </c>
       <c r="D739" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -15459,7 +15462,7 @@
         <v>1223</v>
       </c>
       <c r="D758" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -15470,7 +15473,7 @@
         <v>756</v>
       </c>
       <c r="C759" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D759" t="s">
         <v>1331</v>
@@ -15543,7 +15546,7 @@
         <v>1249</v>
       </c>
       <c r="D764" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -15767,7 +15770,7 @@
         <v>1227</v>
       </c>
       <c r="D780" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -15781,7 +15784,7 @@
         <v>1213</v>
       </c>
       <c r="D781" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -15851,7 +15854,7 @@
         <v>1209</v>
       </c>
       <c r="D786" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -15890,7 +15893,7 @@
         <v>786</v>
       </c>
       <c r="C789" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D789" t="s">
         <v>1343</v>
@@ -15963,7 +15966,7 @@
         <v>1217</v>
       </c>
       <c r="D794" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -16016,7 +16019,7 @@
         <v>795</v>
       </c>
       <c r="C798" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D798" t="s">
         <v>1346</v>
@@ -16089,7 +16092,7 @@
         <v>1223</v>
       </c>
       <c r="D803" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -16159,7 +16162,7 @@
         <v>1223</v>
       </c>
       <c r="D808" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -16173,7 +16176,7 @@
         <v>1223</v>
       </c>
       <c r="D809" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -16215,7 +16218,7 @@
         <v>1223</v>
       </c>
       <c r="D812" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -16341,7 +16344,7 @@
         <v>1223</v>
       </c>
       <c r="D821" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -16397,7 +16400,7 @@
         <v>1223</v>
       </c>
       <c r="D825" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -16439,7 +16442,7 @@
         <v>1223</v>
       </c>
       <c r="D828" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -16579,7 +16582,7 @@
         <v>1223</v>
       </c>
       <c r="D838" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="839" spans="1:4">
@@ -16635,7 +16638,7 @@
         <v>1223</v>
       </c>
       <c r="D842" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -16649,7 +16652,7 @@
         <v>1204</v>
       </c>
       <c r="D843" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -16733,7 +16736,7 @@
         <v>1249</v>
       </c>
       <c r="D849" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -16789,7 +16792,7 @@
         <v>1223</v>
       </c>
       <c r="D853" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -16887,7 +16890,7 @@
         <v>1223</v>
       </c>
       <c r="D860" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="861" spans="1:4">
@@ -16901,7 +16904,7 @@
         <v>1223</v>
       </c>
       <c r="D861" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -16915,7 +16918,7 @@
         <v>1223</v>
       </c>
       <c r="D862" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -17111,7 +17114,7 @@
         <v>1259</v>
       </c>
       <c r="D876" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="877" spans="1:4">
@@ -17195,7 +17198,7 @@
         <v>1223</v>
       </c>
       <c r="D882" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -17360,7 +17363,7 @@
         <v>889</v>
       </c>
       <c r="C894" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D894" t="s">
         <v>1354</v>
@@ -17475,7 +17478,7 @@
         <v>1209</v>
       </c>
       <c r="D902" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="903" spans="1:4">
@@ -17587,7 +17590,7 @@
         <v>1223</v>
       </c>
       <c r="D910" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="911" spans="1:4">
@@ -17615,7 +17618,7 @@
         <v>1249</v>
       </c>
       <c r="D912" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -17643,7 +17646,7 @@
         <v>1249</v>
       </c>
       <c r="D914" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -17671,7 +17674,7 @@
         <v>1257</v>
       </c>
       <c r="D916" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="917" spans="1:4">
@@ -17685,7 +17688,7 @@
         <v>1223</v>
       </c>
       <c r="D917" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="918" spans="1:4">
@@ -17741,7 +17744,7 @@
         <v>1209</v>
       </c>
       <c r="D921" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="922" spans="1:4">
@@ -17839,7 +17842,7 @@
         <v>1223</v>
       </c>
       <c r="D928" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="929" spans="1:4">
@@ -17895,7 +17898,7 @@
         <v>1259</v>
       </c>
       <c r="D932" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="933" spans="1:4">
@@ -17965,7 +17968,7 @@
         <v>1209</v>
       </c>
       <c r="D937" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="938" spans="1:4">
@@ -18035,7 +18038,7 @@
         <v>1209</v>
       </c>
       <c r="D942" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="943" spans="1:4">
@@ -18049,7 +18052,7 @@
         <v>1206</v>
       </c>
       <c r="D943" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="944" spans="1:4">
@@ -18119,7 +18122,7 @@
         <v>1209</v>
       </c>
       <c r="D948" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="949" spans="1:4">
@@ -18133,7 +18136,7 @@
         <v>1209</v>
       </c>
       <c r="D949" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="950" spans="1:4">
@@ -18161,7 +18164,7 @@
         <v>1223</v>
       </c>
       <c r="D951" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="952" spans="1:4">
@@ -18189,7 +18192,7 @@
         <v>1204</v>
       </c>
       <c r="D953" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="954" spans="1:4">
@@ -18217,7 +18220,7 @@
         <v>1209</v>
       </c>
       <c r="D955" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="956" spans="1:4">
@@ -18497,7 +18500,7 @@
         <v>1204</v>
       </c>
       <c r="D975" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="976" spans="1:4">
@@ -18609,7 +18612,7 @@
         <v>1265</v>
       </c>
       <c r="D983" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="984" spans="1:4">
@@ -18637,7 +18640,7 @@
         <v>1225</v>
       </c>
       <c r="D985" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="986" spans="1:4">
@@ -18763,7 +18766,7 @@
         <v>1265</v>
       </c>
       <c r="D994" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="995" spans="1:4">
@@ -18805,7 +18808,7 @@
         <v>1223</v>
       </c>
       <c r="D997" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="998" spans="1:4">
@@ -18847,7 +18850,7 @@
         <v>1213</v>
       </c>
       <c r="D1000" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1001" spans="1:4">
@@ -18917,7 +18920,7 @@
         <v>1311</v>
       </c>
       <c r="D1005" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1006" spans="1:4">
@@ -18931,7 +18934,7 @@
         <v>1223</v>
       </c>
       <c r="D1006" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1007" spans="1:4">
@@ -19043,7 +19046,7 @@
         <v>1265</v>
       </c>
       <c r="D1014" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1015" spans="1:4">
@@ -19057,7 +19060,7 @@
         <v>1240</v>
       </c>
       <c r="D1015" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1016" spans="1:4">
@@ -19068,10 +19071,10 @@
         <v>1005</v>
       </c>
       <c r="C1016" t="s">
-        <v>1267</v>
+        <v>1286</v>
       </c>
       <c r="D1016" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -19127,7 +19130,7 @@
         <v>1225</v>
       </c>
       <c r="D1020" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1021" spans="1:4">
@@ -19169,7 +19172,7 @@
         <v>1313</v>
       </c>
       <c r="D1023" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1024" spans="1:4">
@@ -19183,7 +19186,7 @@
         <v>1246</v>
       </c>
       <c r="D1024" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1025" spans="1:4">
@@ -19197,7 +19200,7 @@
         <v>1217</v>
       </c>
       <c r="D1025" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1026" spans="1:4">
@@ -19211,7 +19214,7 @@
         <v>1246</v>
       </c>
       <c r="D1026" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1027" spans="1:4">
@@ -19225,7 +19228,7 @@
         <v>1211</v>
       </c>
       <c r="D1027" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1028" spans="1:4">
@@ -19281,7 +19284,7 @@
         <v>1209</v>
       </c>
       <c r="D1031" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1032" spans="1:4">
@@ -19393,7 +19396,7 @@
         <v>1204</v>
       </c>
       <c r="D1039" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1040" spans="1:4">
@@ -19446,10 +19449,10 @@
         <v>1030</v>
       </c>
       <c r="C1043" t="s">
-        <v>1267</v>
+        <v>1286</v>
       </c>
       <c r="D1043" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1044" spans="1:4">
@@ -19547,7 +19550,7 @@
         <v>1261</v>
       </c>
       <c r="D1050" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1051" spans="1:4">
@@ -19561,7 +19564,7 @@
         <v>1213</v>
       </c>
       <c r="D1051" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1052" spans="1:4">
@@ -19687,7 +19690,7 @@
         <v>1252</v>
       </c>
       <c r="D1060" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1061" spans="1:4">
@@ -19757,7 +19760,7 @@
         <v>1246</v>
       </c>
       <c r="D1065" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1066" spans="1:4">
@@ -19782,7 +19785,7 @@
         <v>1052</v>
       </c>
       <c r="C1067" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D1067" t="s">
         <v>1347</v>
@@ -19799,7 +19802,7 @@
         <v>1257</v>
       </c>
       <c r="D1068" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1069" spans="1:4">
@@ -19841,7 +19844,7 @@
         <v>1264</v>
       </c>
       <c r="D1071" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1072" spans="1:4">
@@ -19911,7 +19914,7 @@
         <v>1225</v>
       </c>
       <c r="D1076" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1077" spans="1:4">
@@ -20121,7 +20124,7 @@
         <v>1252</v>
       </c>
       <c r="D1091" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1092" spans="1:4">
@@ -20132,7 +20135,7 @@
         <v>1077</v>
       </c>
       <c r="C1092" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D1092" t="s">
         <v>1350</v>
@@ -20261,7 +20264,7 @@
         <v>1253</v>
       </c>
       <c r="D1101" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1102" spans="1:4">
@@ -20457,7 +20460,7 @@
         <v>1255</v>
       </c>
       <c r="D1115" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1116" spans="1:4">
@@ -20485,7 +20488,7 @@
         <v>1247</v>
       </c>
       <c r="D1117" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1118" spans="1:4">
@@ -20580,7 +20583,7 @@
         <v>1108</v>
       </c>
       <c r="C1124" t="s">
-        <v>1267</v>
+        <v>1286</v>
       </c>
       <c r="D1124" t="s">
         <v>1356</v>
@@ -20625,7 +20628,7 @@
         <v>1212</v>
       </c>
       <c r="D1127" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1128" spans="1:4">
@@ -20636,10 +20639,10 @@
         <v>1111</v>
       </c>
       <c r="C1128" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D1128" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1129" spans="1:4">
@@ -20667,7 +20670,7 @@
         <v>1211</v>
       </c>
       <c r="D1130" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1131" spans="1:4">
@@ -20737,7 +20740,7 @@
         <v>1253</v>
       </c>
       <c r="D1135" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1136" spans="1:4">
@@ -20751,7 +20754,7 @@
         <v>1240</v>
       </c>
       <c r="D1136" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1137" spans="1:4">
@@ -20762,7 +20765,7 @@
         <v>1119</v>
       </c>
       <c r="C1137" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D1137" t="s">
         <v>1352</v>
@@ -20821,7 +20824,7 @@
         <v>1204</v>
       </c>
       <c r="D1141" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1142" spans="1:4">
@@ -20877,7 +20880,7 @@
         <v>1217</v>
       </c>
       <c r="D1145" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1146" spans="1:4">
@@ -20891,7 +20894,7 @@
         <v>1204</v>
       </c>
       <c r="D1146" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1147" spans="1:4">
@@ -20989,7 +20992,7 @@
         <v>1204</v>
       </c>
       <c r="D1153" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1154" spans="1:4">
@@ -21031,7 +21034,7 @@
         <v>1211</v>
       </c>
       <c r="D1156" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1157" spans="1:4">
@@ -21045,7 +21048,7 @@
         <v>1204</v>
       </c>
       <c r="D1157" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1158" spans="1:4">
@@ -21087,7 +21090,7 @@
         <v>1204</v>
       </c>
       <c r="D1160" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1161" spans="1:4">
@@ -21143,7 +21146,7 @@
         <v>1255</v>
       </c>
       <c r="D1164" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1165" spans="1:4">
@@ -21157,7 +21160,7 @@
         <v>1252</v>
       </c>
       <c r="D1165" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1166" spans="1:4">
@@ -21171,7 +21174,7 @@
         <v>1255</v>
       </c>
       <c r="D1166" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1167" spans="1:4">
@@ -21185,7 +21188,7 @@
         <v>1211</v>
       </c>
       <c r="D1167" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1168" spans="1:4">
@@ -21339,7 +21342,7 @@
         <v>1212</v>
       </c>
       <c r="D1178" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1179" spans="1:4">
@@ -21353,7 +21356,7 @@
         <v>1204</v>
       </c>
       <c r="D1179" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1180" spans="1:4">
@@ -21395,7 +21398,7 @@
         <v>1246</v>
       </c>
       <c r="D1182" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1183" spans="1:4">
@@ -21493,7 +21496,7 @@
         <v>1214</v>
       </c>
       <c r="D1189" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1190" spans="1:4">
@@ -21507,7 +21510,7 @@
         <v>1211</v>
       </c>
       <c r="D1190" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1191" spans="1:4">
@@ -21521,7 +21524,7 @@
         <v>1261</v>
       </c>
       <c r="D1191" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1192" spans="1:4">
@@ -21549,7 +21552,7 @@
         <v>1225</v>
       </c>
       <c r="D1193" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1194" spans="1:4">
@@ -21675,7 +21678,7 @@
         <v>1264</v>
       </c>
       <c r="D1202" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1203" spans="1:4">
@@ -21689,7 +21692,7 @@
         <v>1213</v>
       </c>
       <c r="D1203" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="1204" spans="1:4">
@@ -21801,7 +21804,7 @@
         <v>1203</v>
       </c>
       <c r="D1211" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1212" spans="1:4">
@@ -21899,7 +21902,7 @@
         <v>1218</v>
       </c>
       <c r="D1218" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="1219" spans="1:4">
@@ -21941,7 +21944,7 @@
         <v>1265</v>
       </c>
       <c r="D1221" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1222" spans="1:4">

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -12058,7 +12058,7 @@
         <v>513</v>
       </c>
       <c r="C514" t="s">
-        <v>1208</v>
+        <v>1259</v>
       </c>
       <c r="D514" t="s">
         <v>1351</v>
@@ -20346,7 +20346,7 @@
         <v>1089</v>
       </c>
       <c r="C1106" t="s">
-        <v>1317</v>
+        <v>1279</v>
       </c>
       <c r="D1106" t="s">
         <v>1334</v>

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="1495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="1494">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -2326,7 +2326,7 @@
     <t>Darwinzon Hernandez</t>
   </si>
   <si>
-    <t>Kevin</t>
+    <t>Kevin Plawecki</t>
   </si>
   <si>
     <t>Jace Peterson</t>
@@ -4217,9 +4217,6 @@
   </si>
   <si>
     <t>Richards</t>
-  </si>
-  <si>
-    <t>Plawecki</t>
   </si>
   <si>
     <t>Duggar</t>
@@ -15673,7 +15670,7 @@
         <v>1265</v>
       </c>
       <c r="D772" t="s">
-        <v>1400</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -15785,7 +15782,7 @@
         <v>1226</v>
       </c>
       <c r="D780" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -15799,7 +15796,7 @@
         <v>1212</v>
       </c>
       <c r="D781" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -15869,7 +15866,7 @@
         <v>1208</v>
       </c>
       <c r="D786" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -15981,7 +15978,7 @@
         <v>1216</v>
       </c>
       <c r="D794" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -16107,7 +16104,7 @@
         <v>1222</v>
       </c>
       <c r="D803" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -16177,7 +16174,7 @@
         <v>1222</v>
       </c>
       <c r="D808" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -16191,7 +16188,7 @@
         <v>1222</v>
       </c>
       <c r="D809" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -16233,7 +16230,7 @@
         <v>1222</v>
       </c>
       <c r="D812" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -16359,7 +16356,7 @@
         <v>1222</v>
       </c>
       <c r="D821" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -16415,7 +16412,7 @@
         <v>1222</v>
       </c>
       <c r="D825" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -16457,7 +16454,7 @@
         <v>1222</v>
       </c>
       <c r="D828" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -16597,7 +16594,7 @@
         <v>1222</v>
       </c>
       <c r="D838" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="839" spans="1:4">
@@ -16653,7 +16650,7 @@
         <v>1222</v>
       </c>
       <c r="D842" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -16667,7 +16664,7 @@
         <v>1203</v>
       </c>
       <c r="D843" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -16751,7 +16748,7 @@
         <v>1249</v>
       </c>
       <c r="D849" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -16807,7 +16804,7 @@
         <v>1222</v>
       </c>
       <c r="D853" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -16905,7 +16902,7 @@
         <v>1222</v>
       </c>
       <c r="D860" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="861" spans="1:4">
@@ -16919,7 +16916,7 @@
         <v>1222</v>
       </c>
       <c r="D861" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -16933,7 +16930,7 @@
         <v>1222</v>
       </c>
       <c r="D862" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -17129,7 +17126,7 @@
         <v>1259</v>
       </c>
       <c r="D876" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="877" spans="1:4">
@@ -17213,7 +17210,7 @@
         <v>1222</v>
       </c>
       <c r="D882" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -17493,7 +17490,7 @@
         <v>1208</v>
       </c>
       <c r="D902" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="903" spans="1:4">
@@ -17605,7 +17602,7 @@
         <v>1222</v>
       </c>
       <c r="D910" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="911" spans="1:4">
@@ -17633,7 +17630,7 @@
         <v>1249</v>
       </c>
       <c r="D912" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -17661,7 +17658,7 @@
         <v>1249</v>
       </c>
       <c r="D914" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -17689,7 +17686,7 @@
         <v>1257</v>
       </c>
       <c r="D916" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="917" spans="1:4">
@@ -17703,7 +17700,7 @@
         <v>1222</v>
       </c>
       <c r="D917" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="918" spans="1:4">
@@ -17759,7 +17756,7 @@
         <v>1208</v>
       </c>
       <c r="D921" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="922" spans="1:4">
@@ -17857,7 +17854,7 @@
         <v>1222</v>
       </c>
       <c r="D928" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="929" spans="1:4">
@@ -17913,7 +17910,7 @@
         <v>1259</v>
       </c>
       <c r="D932" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="933" spans="1:4">
@@ -17983,7 +17980,7 @@
         <v>1208</v>
       </c>
       <c r="D937" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="938" spans="1:4">
@@ -18053,7 +18050,7 @@
         <v>1208</v>
       </c>
       <c r="D942" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="943" spans="1:4">
@@ -18067,7 +18064,7 @@
         <v>1205</v>
       </c>
       <c r="D943" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="944" spans="1:4">
@@ -18137,7 +18134,7 @@
         <v>1208</v>
       </c>
       <c r="D948" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="949" spans="1:4">
@@ -18151,7 +18148,7 @@
         <v>1208</v>
       </c>
       <c r="D949" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="950" spans="1:4">
@@ -18179,7 +18176,7 @@
         <v>1222</v>
       </c>
       <c r="D951" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="952" spans="1:4">
@@ -18207,7 +18204,7 @@
         <v>1203</v>
       </c>
       <c r="D953" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="954" spans="1:4">
@@ -18235,7 +18232,7 @@
         <v>1208</v>
       </c>
       <c r="D955" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="956" spans="1:4">
@@ -18515,7 +18512,7 @@
         <v>1203</v>
       </c>
       <c r="D975" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="976" spans="1:4">
@@ -18627,7 +18624,7 @@
         <v>1265</v>
       </c>
       <c r="D983" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="984" spans="1:4">
@@ -18655,7 +18652,7 @@
         <v>1224</v>
       </c>
       <c r="D985" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="986" spans="1:4">
@@ -18781,7 +18778,7 @@
         <v>1265</v>
       </c>
       <c r="D994" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="995" spans="1:4">
@@ -18823,7 +18820,7 @@
         <v>1222</v>
       </c>
       <c r="D997" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="998" spans="1:4">
@@ -18865,7 +18862,7 @@
         <v>1212</v>
       </c>
       <c r="D1000" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1001" spans="1:4">
@@ -18935,7 +18932,7 @@
         <v>1312</v>
       </c>
       <c r="D1005" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1006" spans="1:4">
@@ -18949,7 +18946,7 @@
         <v>1222</v>
       </c>
       <c r="D1006" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1007" spans="1:4">
@@ -19061,7 +19058,7 @@
         <v>1265</v>
       </c>
       <c r="D1014" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1015" spans="1:4">
@@ -19075,7 +19072,7 @@
         <v>1240</v>
       </c>
       <c r="D1015" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1016" spans="1:4">
@@ -19089,7 +19086,7 @@
         <v>1287</v>
       </c>
       <c r="D1016" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -19145,7 +19142,7 @@
         <v>1224</v>
       </c>
       <c r="D1020" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1021" spans="1:4">
@@ -19187,7 +19184,7 @@
         <v>1314</v>
       </c>
       <c r="D1023" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1024" spans="1:4">
@@ -19201,7 +19198,7 @@
         <v>1246</v>
       </c>
       <c r="D1024" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1025" spans="1:4">
@@ -19215,7 +19212,7 @@
         <v>1216</v>
       </c>
       <c r="D1025" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1026" spans="1:4">
@@ -19229,7 +19226,7 @@
         <v>1246</v>
       </c>
       <c r="D1026" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1027" spans="1:4">
@@ -19243,7 +19240,7 @@
         <v>1210</v>
       </c>
       <c r="D1027" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1028" spans="1:4">
@@ -19299,7 +19296,7 @@
         <v>1208</v>
       </c>
       <c r="D1031" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1032" spans="1:4">
@@ -19411,7 +19408,7 @@
         <v>1203</v>
       </c>
       <c r="D1039" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1040" spans="1:4">
@@ -19467,7 +19464,7 @@
         <v>1287</v>
       </c>
       <c r="D1043" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1044" spans="1:4">
@@ -19565,7 +19562,7 @@
         <v>1261</v>
       </c>
       <c r="D1050" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1051" spans="1:4">
@@ -19579,7 +19576,7 @@
         <v>1212</v>
       </c>
       <c r="D1051" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1052" spans="1:4">
@@ -19705,7 +19702,7 @@
         <v>1252</v>
       </c>
       <c r="D1060" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1061" spans="1:4">
@@ -19775,7 +19772,7 @@
         <v>1246</v>
       </c>
       <c r="D1065" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1066" spans="1:4">
@@ -19817,7 +19814,7 @@
         <v>1257</v>
       </c>
       <c r="D1068" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1069" spans="1:4">
@@ -19859,7 +19856,7 @@
         <v>1264</v>
       </c>
       <c r="D1071" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1072" spans="1:4">
@@ -19929,7 +19926,7 @@
         <v>1224</v>
       </c>
       <c r="D1076" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1077" spans="1:4">
@@ -20013,7 +20010,7 @@
         <v>1323</v>
       </c>
       <c r="D1082" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1083" spans="1:4">
@@ -20139,7 +20136,7 @@
         <v>1252</v>
       </c>
       <c r="D1091" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1092" spans="1:4">
@@ -20195,7 +20192,7 @@
         <v>1323</v>
       </c>
       <c r="D1095" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1096" spans="1:4">
@@ -20279,7 +20276,7 @@
         <v>1253</v>
       </c>
       <c r="D1101" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1102" spans="1:4">
@@ -20475,7 +20472,7 @@
         <v>1255</v>
       </c>
       <c r="D1115" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1116" spans="1:4">
@@ -20503,7 +20500,7 @@
         <v>1247</v>
       </c>
       <c r="D1117" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1118" spans="1:4">
@@ -20643,7 +20640,7 @@
         <v>1211</v>
       </c>
       <c r="D1127" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1128" spans="1:4">
@@ -20657,7 +20654,7 @@
         <v>1280</v>
       </c>
       <c r="D1128" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1129" spans="1:4">
@@ -20685,7 +20682,7 @@
         <v>1210</v>
       </c>
       <c r="D1130" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1131" spans="1:4">
@@ -20755,7 +20752,7 @@
         <v>1253</v>
       </c>
       <c r="D1135" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1136" spans="1:4">
@@ -20769,7 +20766,7 @@
         <v>1240</v>
       </c>
       <c r="D1136" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1137" spans="1:4">
@@ -20839,7 +20836,7 @@
         <v>1203</v>
       </c>
       <c r="D1141" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1142" spans="1:4">
@@ -20895,7 +20892,7 @@
         <v>1216</v>
       </c>
       <c r="D1145" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1146" spans="1:4">
@@ -20909,7 +20906,7 @@
         <v>1203</v>
       </c>
       <c r="D1146" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1147" spans="1:4">
@@ -21007,7 +21004,7 @@
         <v>1203</v>
       </c>
       <c r="D1153" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1154" spans="1:4">
@@ -21049,7 +21046,7 @@
         <v>1210</v>
       </c>
       <c r="D1156" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1157" spans="1:4">
@@ -21063,7 +21060,7 @@
         <v>1203</v>
       </c>
       <c r="D1157" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1158" spans="1:4">
@@ -21105,7 +21102,7 @@
         <v>1203</v>
       </c>
       <c r="D1160" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1161" spans="1:4">
@@ -21161,7 +21158,7 @@
         <v>1255</v>
       </c>
       <c r="D1164" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1165" spans="1:4">
@@ -21175,7 +21172,7 @@
         <v>1252</v>
       </c>
       <c r="D1165" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1166" spans="1:4">
@@ -21189,7 +21186,7 @@
         <v>1255</v>
       </c>
       <c r="D1166" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1167" spans="1:4">
@@ -21203,7 +21200,7 @@
         <v>1210</v>
       </c>
       <c r="D1167" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1168" spans="1:4">
@@ -21357,7 +21354,7 @@
         <v>1211</v>
       </c>
       <c r="D1178" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1179" spans="1:4">
@@ -21371,7 +21368,7 @@
         <v>1203</v>
       </c>
       <c r="D1179" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1180" spans="1:4">
@@ -21413,7 +21410,7 @@
         <v>1246</v>
       </c>
       <c r="D1182" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1183" spans="1:4">
@@ -21511,7 +21508,7 @@
         <v>1213</v>
       </c>
       <c r="D1189" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1190" spans="1:4">
@@ -21525,7 +21522,7 @@
         <v>1210</v>
       </c>
       <c r="D1190" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="1191" spans="1:4">
@@ -21539,7 +21536,7 @@
         <v>1261</v>
       </c>
       <c r="D1191" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1192" spans="1:4">
@@ -21567,7 +21564,7 @@
         <v>1224</v>
       </c>
       <c r="D1193" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="1194" spans="1:4">
@@ -21693,7 +21690,7 @@
         <v>1264</v>
       </c>
       <c r="D1202" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1203" spans="1:4">
@@ -21707,7 +21704,7 @@
         <v>1212</v>
       </c>
       <c r="D1203" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="1204" spans="1:4">
@@ -21819,7 +21816,7 @@
         <v>1202</v>
       </c>
       <c r="D1211" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1212" spans="1:4">
@@ -21917,7 +21914,7 @@
         <v>1217</v>
       </c>
       <c r="D1218" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="1219" spans="1:4">
@@ -21959,7 +21956,7 @@
         <v>1265</v>
       </c>
       <c r="D1221" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="1222" spans="1:4">

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -3751,165 +3751,168 @@
     <t>1B,2B,SS</t>
   </si>
   <si>
+    <t>2B,3B,CF,DH,LF,RF,SS</t>
+  </si>
+  <si>
+    <t>LF,CF,RF</t>
+  </si>
+  <si>
+    <t>CF,LF,RF</t>
+  </si>
+  <si>
+    <t>1B,C,DH</t>
+  </si>
+  <si>
+    <t>SP,RP</t>
+  </si>
+  <si>
+    <t>C,CF,DH,LF,RF</t>
+  </si>
+  <si>
+    <t>1B,DH,LF,RF</t>
+  </si>
+  <si>
+    <t>LF,RF</t>
+  </si>
+  <si>
+    <t>2B,3B</t>
+  </si>
+  <si>
+    <t>CF,DH,LF,RF</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>1B,LF,RF</t>
+  </si>
+  <si>
+    <t>LF,CF</t>
+  </si>
+  <si>
+    <t>CF,LF,SS</t>
+  </si>
+  <si>
+    <t>RP,SP</t>
+  </si>
+  <si>
+    <t>3B,DH,SS</t>
+  </si>
+  <si>
+    <t>1B,2B,3B</t>
+  </si>
+  <si>
+    <t>1B,2B,DH</t>
+  </si>
+  <si>
+    <t>2B,CF,SS</t>
+  </si>
+  <si>
+    <t>2B,3B,SS</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>1B,C</t>
+  </si>
+  <si>
+    <t>2B,LF,RF</t>
+  </si>
+  <si>
+    <t>2B,SS,LF,CF</t>
+  </si>
+  <si>
+    <t>1B,3B,LF,RF</t>
+  </si>
+  <si>
+    <t>2B,3B,SS,LF,RF</t>
+  </si>
+  <si>
+    <t>1B,2B,3B,RF</t>
+  </si>
+  <si>
+    <t>2B,3B,CF,DH,SS</t>
+  </si>
+  <si>
+    <t>1B,3B,DH</t>
+  </si>
+  <si>
+    <t>2B,3B,LF</t>
+  </si>
+  <si>
+    <t>2B,DH,LF</t>
+  </si>
+  <si>
+    <t>1B,CF,DH,LF,RF</t>
+  </si>
+  <si>
+    <t>2B,3B,DH</t>
+  </si>
+  <si>
+    <t>2B,3B,SS,LF</t>
+  </si>
+  <si>
+    <t>1B,2B,3B,DH,LF</t>
+  </si>
+  <si>
+    <t>1B,DH,RF</t>
+  </si>
+  <si>
+    <t>1B,3B,DH,LF,RF</t>
+  </si>
+  <si>
+    <t>3B,DH,LF,RF</t>
+  </si>
+  <si>
+    <t>C,DH,LF</t>
+  </si>
+  <si>
+    <t>2B,SS,CF</t>
+  </si>
+  <si>
+    <t>2B,RF</t>
+  </si>
+  <si>
+    <t>1B,RF,DH</t>
+  </si>
+  <si>
+    <t>2B,LF</t>
+  </si>
+  <si>
+    <t>1B,2B,3B,DH,LF,RF</t>
+  </si>
+  <si>
+    <t>1B,CF,LF,RF</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>2B,3B,RF,SS</t>
+  </si>
+  <si>
+    <t>C,1B,DH</t>
+  </si>
+  <si>
+    <t>1B,2B,CF,DH,LF,RF</t>
+  </si>
+  <si>
+    <t>2B,3B,CF,LF,RF,SS</t>
+  </si>
+  <si>
+    <t>2B,3B,DH,LF,RF</t>
+  </si>
+  <si>
+    <t>2B,3B,SS,CF</t>
+  </si>
+  <si>
+    <t>2B,SS,RF</t>
+  </si>
+  <si>
     <t>2B,3B,SS,LF,CF,RF</t>
   </si>
   <si>
-    <t>LF,CF,RF</t>
-  </si>
-  <si>
-    <t>CF,LF,RF</t>
-  </si>
-  <si>
-    <t>1B,C,DH</t>
-  </si>
-  <si>
-    <t>SP,RP</t>
-  </si>
-  <si>
-    <t>C,CF,DH,LF,RF</t>
-  </si>
-  <si>
-    <t>1B,DH,LF,RF</t>
-  </si>
-  <si>
-    <t>LF,RF</t>
-  </si>
-  <si>
-    <t>2B,3B</t>
-  </si>
-  <si>
-    <t>CF,DH,LF,RF</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>1B,LF,RF</t>
-  </si>
-  <si>
-    <t>LF,CF</t>
-  </si>
-  <si>
-    <t>CF,LF,SS</t>
-  </si>
-  <si>
-    <t>RP,SP</t>
-  </si>
-  <si>
-    <t>3B,DH,SS</t>
-  </si>
-  <si>
-    <t>1B,2B,3B</t>
-  </si>
-  <si>
-    <t>1B,2B,DH</t>
-  </si>
-  <si>
-    <t>2B,CF,SS</t>
-  </si>
-  <si>
-    <t>2B,3B,SS</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>1B,C</t>
-  </si>
-  <si>
-    <t>2B,LF,RF</t>
-  </si>
-  <si>
-    <t>2B,SS,LF,CF</t>
-  </si>
-  <si>
-    <t>1B,3B,LF,RF</t>
-  </si>
-  <si>
-    <t>2B,3B,SS,LF,RF</t>
-  </si>
-  <si>
-    <t>1B,2B,3B,RF</t>
-  </si>
-  <si>
-    <t>2B,3B,CF,DH,SS</t>
-  </si>
-  <si>
-    <t>1B,3B,DH</t>
-  </si>
-  <si>
-    <t>2B,3B,LF</t>
-  </si>
-  <si>
-    <t>2B,DH,LF</t>
-  </si>
-  <si>
-    <t>1B,CF,DH,LF,RF</t>
-  </si>
-  <si>
-    <t>2B,3B,DH</t>
-  </si>
-  <si>
-    <t>2B,3B,SS,LF</t>
-  </si>
-  <si>
-    <t>1B,2B,3B,DH,LF</t>
-  </si>
-  <si>
-    <t>1B,DH,RF</t>
-  </si>
-  <si>
-    <t>1B,3B,DH,LF,RF</t>
-  </si>
-  <si>
-    <t>3B,DH,LF,RF</t>
-  </si>
-  <si>
-    <t>C,DH,LF</t>
-  </si>
-  <si>
-    <t>2B,SS,CF</t>
-  </si>
-  <si>
-    <t>2B,RF</t>
-  </si>
-  <si>
-    <t>1B,RF,DH</t>
-  </si>
-  <si>
-    <t>2B,LF</t>
-  </si>
-  <si>
-    <t>1B,2B,3B,DH,LF,RF</t>
-  </si>
-  <si>
-    <t>1B,CF,LF,RF</t>
-  </si>
-  <si>
-    <t>OF</t>
-  </si>
-  <si>
-    <t>2B,3B,RF,SS</t>
-  </si>
-  <si>
-    <t>C,1B,DH</t>
-  </si>
-  <si>
-    <t>1B,2B,CF,DH,LF,RF</t>
-  </si>
-  <si>
-    <t>2B,3B,CF,LF,RF,SS</t>
-  </si>
-  <si>
-    <t>2B,3B,DH,LF,RF</t>
-  </si>
-  <si>
-    <t>2B,3B,SS,CF</t>
-  </si>
-  <si>
-    <t>2B,SS,RF</t>
-  </si>
-  <si>
     <t>1B,3B,CF,LF,RF</t>
   </si>
   <si>
@@ -3932,9 +3935,6 @@
   </si>
   <si>
     <t>3B,RF</t>
-  </si>
-  <si>
-    <t>CF,RF,RP,SP</t>
   </si>
   <si>
     <t>P,SP</t>
@@ -13489,7 +13489,7 @@
         <v>615</v>
       </c>
       <c r="C616" t="s">
-        <v>1244</v>
+        <v>1297</v>
       </c>
       <c r="D616" t="s">
         <v>1343</v>
@@ -13587,7 +13587,7 @@
         <v>622</v>
       </c>
       <c r="C623" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D623" t="s">
         <v>1336</v>
@@ -14623,7 +14623,7 @@
         <v>694</v>
       </c>
       <c r="C697" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D697" t="s">
         <v>1391</v>
@@ -14777,7 +14777,7 @@
         <v>705</v>
       </c>
       <c r="C708" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D708" t="s">
         <v>1358</v>
@@ -15141,7 +15141,7 @@
         <v>731</v>
       </c>
       <c r="C734" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D734" t="s">
         <v>1396</v>
@@ -15323,7 +15323,7 @@
         <v>744</v>
       </c>
       <c r="C747" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D747" t="s">
         <v>1348</v>
@@ -15575,7 +15575,7 @@
         <v>762</v>
       </c>
       <c r="C765" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D765" t="s">
         <v>1354</v>
@@ -15687,7 +15687,7 @@
         <v>770</v>
       </c>
       <c r="C773" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D773" t="s">
         <v>1338</v>
@@ -15757,7 +15757,7 @@
         <v>775</v>
       </c>
       <c r="C778" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D778" t="s">
         <v>1334</v>
@@ -16289,7 +16289,7 @@
         <v>813</v>
       </c>
       <c r="C816" t="s">
-        <v>1305</v>
+        <v>1258</v>
       </c>
       <c r="D816" t="s">
         <v>1339</v>
@@ -16317,7 +16317,7 @@
         <v>815</v>
       </c>
       <c r="C818" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D818" t="s">
         <v>1348</v>
@@ -19943,7 +19943,7 @@
         <v>1062</v>
       </c>
       <c r="C1077" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D1077" t="s">
         <v>1357</v>
@@ -20251,7 +20251,7 @@
         <v>1082</v>
       </c>
       <c r="C1099" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D1099" t="s">
         <v>1356</v>
@@ -21931,7 +21931,7 @@
         <v>1192</v>
       </c>
       <c r="C1219" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D1219" t="s">
         <v>1340</v>

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -8452,7 +8452,7 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>1207</v>
+        <v>1259</v>
       </c>
       <c r="D256" t="s">
         <v>1348</v>

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -3862,6 +3862,9 @@
     <t>1B,DH,RF</t>
   </si>
   <si>
+    <t>1B,2B,DH,LF</t>
+  </si>
+  <si>
     <t>1B,3B,DH,LF,RF</t>
   </si>
   <si>
@@ -3938,9 +3941,6 @@
   </si>
   <si>
     <t>3B,RF</t>
-  </si>
-  <si>
-    <t>CF,RF,RP,SP</t>
   </si>
   <si>
     <t>P,SP</t>
@@ -10278,7 +10278,7 @@
         <v>386</v>
       </c>
       <c r="C386" t="s">
-        <v>1261</v>
+        <v>1281</v>
       </c>
       <c r="D386" t="s">
         <v>1339</v>
@@ -10334,7 +10334,7 @@
         <v>390</v>
       </c>
       <c r="C390" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D390" t="s">
         <v>1349</v>
@@ -10362,7 +10362,7 @@
         <v>392</v>
       </c>
       <c r="C392" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D392" t="s">
         <v>1351</v>
@@ -10446,7 +10446,7 @@
         <v>398</v>
       </c>
       <c r="C398" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D398" t="s">
         <v>1355</v>
@@ -10502,7 +10502,7 @@
         <v>402</v>
       </c>
       <c r="C402" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D402" t="s">
         <v>1346</v>
@@ -10516,7 +10516,7 @@
         <v>403</v>
       </c>
       <c r="C403" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D403" t="s">
         <v>1353</v>
@@ -10544,7 +10544,7 @@
         <v>405</v>
       </c>
       <c r="C405" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D405" t="s">
         <v>1344</v>
@@ -10698,7 +10698,7 @@
         <v>416</v>
       </c>
       <c r="C416" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D416" t="s">
         <v>1334</v>
@@ -10852,7 +10852,7 @@
         <v>427</v>
       </c>
       <c r="C427" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D427" t="s">
         <v>1362</v>
@@ -10992,7 +10992,7 @@
         <v>437</v>
       </c>
       <c r="C437" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D437" t="s">
         <v>1347</v>
@@ -11090,7 +11090,7 @@
         <v>444</v>
       </c>
       <c r="C444" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D444" t="s">
         <v>1362</v>
@@ -11174,7 +11174,7 @@
         <v>450</v>
       </c>
       <c r="C450" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D450" t="s">
         <v>1371</v>
@@ -11538,7 +11538,7 @@
         <v>354</v>
       </c>
       <c r="C476" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D476" t="s">
         <v>1358</v>
@@ -11706,7 +11706,7 @@
         <v>487</v>
       </c>
       <c r="C488" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D488" t="s">
         <v>1352</v>
@@ -11734,7 +11734,7 @@
         <v>489</v>
       </c>
       <c r="C490" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D490" t="s">
         <v>1334</v>
@@ -12098,7 +12098,7 @@
         <v>515</v>
       </c>
       <c r="C516" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D516" t="s">
         <v>1352</v>
@@ -12672,7 +12672,7 @@
         <v>556</v>
       </c>
       <c r="C557" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D557" t="s">
         <v>1362</v>
@@ -13400,7 +13400,7 @@
         <v>608</v>
       </c>
       <c r="C609" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D609" t="s">
         <v>1338</v>
@@ -13414,7 +13414,7 @@
         <v>609</v>
       </c>
       <c r="C610" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D610" t="s">
         <v>1356</v>
@@ -13498,7 +13498,7 @@
         <v>615</v>
       </c>
       <c r="C616" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D616" t="s">
         <v>1344</v>
@@ -13596,7 +13596,7 @@
         <v>622</v>
       </c>
       <c r="C623" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D623" t="s">
         <v>1337</v>
@@ -14632,7 +14632,7 @@
         <v>694</v>
       </c>
       <c r="C697" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D697" t="s">
         <v>1392</v>
@@ -14660,7 +14660,7 @@
         <v>696</v>
       </c>
       <c r="C699" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D699" t="s">
         <v>1348</v>
@@ -14786,7 +14786,7 @@
         <v>705</v>
       </c>
       <c r="C708" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D708" t="s">
         <v>1359</v>
@@ -15150,7 +15150,7 @@
         <v>731</v>
       </c>
       <c r="C734" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D734" t="s">
         <v>1397</v>
@@ -15332,7 +15332,7 @@
         <v>744</v>
       </c>
       <c r="C747" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D747" t="s">
         <v>1349</v>
@@ -15584,7 +15584,7 @@
         <v>762</v>
       </c>
       <c r="C765" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D765" t="s">
         <v>1355</v>
@@ -15696,7 +15696,7 @@
         <v>770</v>
       </c>
       <c r="C773" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D773" t="s">
         <v>1339</v>
@@ -15766,7 +15766,7 @@
         <v>775</v>
       </c>
       <c r="C778" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D778" t="s">
         <v>1335</v>
@@ -16298,7 +16298,7 @@
         <v>813</v>
       </c>
       <c r="C816" t="s">
-        <v>1307</v>
+        <v>1259</v>
       </c>
       <c r="D816" t="s">
         <v>1340</v>
@@ -16326,7 +16326,7 @@
         <v>815</v>
       </c>
       <c r="C818" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D818" t="s">
         <v>1349</v>
@@ -17390,7 +17390,7 @@
         <v>889</v>
       </c>
       <c r="C894" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D894" t="s">
         <v>1356</v>
@@ -19098,7 +19098,7 @@
         <v>1005</v>
       </c>
       <c r="C1016" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D1016" t="s">
         <v>1450</v>
@@ -19448,7 +19448,7 @@
         <v>1028</v>
       </c>
       <c r="C1041" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D1041" t="s">
         <v>1340</v>
@@ -19476,7 +19476,7 @@
         <v>1030</v>
       </c>
       <c r="C1043" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D1043" t="s">
         <v>1459</v>
@@ -19812,7 +19812,7 @@
         <v>1052</v>
       </c>
       <c r="C1067" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D1067" t="s">
         <v>1349</v>
@@ -19952,7 +19952,7 @@
         <v>1062</v>
       </c>
       <c r="C1077" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D1077" t="s">
         <v>1358</v>
@@ -20078,7 +20078,7 @@
         <v>1070</v>
       </c>
       <c r="C1086" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D1086" t="s">
         <v>1344</v>
@@ -20162,7 +20162,7 @@
         <v>256</v>
       </c>
       <c r="C1092" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D1092" t="s">
         <v>1469</v>
@@ -20260,7 +20260,7 @@
         <v>1082</v>
       </c>
       <c r="C1099" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D1099" t="s">
         <v>1357</v>
@@ -20610,7 +20610,7 @@
         <v>1106</v>
       </c>
       <c r="C1124" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D1124" t="s">
         <v>1358</v>
@@ -21940,7 +21940,7 @@
         <v>1192</v>
       </c>
       <c r="C1219" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D1219" t="s">
         <v>1341</v>

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -12480,7 +12480,7 @@
         <v>1239</v>
       </c>
       <c r="D539" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="540" spans="1:4">

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -1129,7 +1129,7 @@
     <t>Brandon Marsh</t>
   </si>
   <si>
-    <t>Yadier Molina</t>
+    <t>Yadier</t>
   </si>
   <si>
     <t>Hunter Greene</t>
@@ -3880,9 +3880,6 @@
     <t>3B,RF</t>
   </si>
   <si>
-    <t>CF,RF,RP,SP</t>
-  </si>
-  <si>
     <t>P,SP</t>
   </si>
   <si>
@@ -4064,6 +4061,9 @@
   </si>
   <si>
     <t>Bradley</t>
+  </si>
+  <si>
+    <t>Molina</t>
   </si>
   <si>
     <t>Giles</t>
@@ -4965,7 +4965,7 @@
         <v>1180</v>
       </c>
       <c r="D2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4979,7 +4979,7 @@
         <v>1181</v>
       </c>
       <c r="D3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4993,7 +4993,7 @@
         <v>1182</v>
       </c>
       <c r="D4" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5007,7 +5007,7 @@
         <v>1183</v>
       </c>
       <c r="D5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5021,7 +5021,7 @@
         <v>1184</v>
       </c>
       <c r="D6" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5035,7 +5035,7 @@
         <v>1185</v>
       </c>
       <c r="D7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5049,7 +5049,7 @@
         <v>1186</v>
       </c>
       <c r="D8" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5063,7 +5063,7 @@
         <v>1186</v>
       </c>
       <c r="D9" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5077,7 +5077,7 @@
         <v>1187</v>
       </c>
       <c r="D10" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5091,7 +5091,7 @@
         <v>1188</v>
       </c>
       <c r="D11" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5105,7 +5105,7 @@
         <v>1181</v>
       </c>
       <c r="D12" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5119,7 +5119,7 @@
         <v>1189</v>
       </c>
       <c r="D13" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5133,7 +5133,7 @@
         <v>1190</v>
       </c>
       <c r="D14" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5147,7 +5147,7 @@
         <v>1186</v>
       </c>
       <c r="D15" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5161,7 +5161,7 @@
         <v>1188</v>
       </c>
       <c r="D16" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5175,7 +5175,7 @@
         <v>1185</v>
       </c>
       <c r="D17" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5189,7 +5189,7 @@
         <v>1191</v>
       </c>
       <c r="D18" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5203,7 +5203,7 @@
         <v>1186</v>
       </c>
       <c r="D19" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5217,7 +5217,7 @@
         <v>1186</v>
       </c>
       <c r="D20" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5231,7 +5231,7 @@
         <v>1182</v>
       </c>
       <c r="D21" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5245,7 +5245,7 @@
         <v>1192</v>
       </c>
       <c r="D22" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5259,7 +5259,7 @@
         <v>1186</v>
       </c>
       <c r="D23" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5273,7 +5273,7 @@
         <v>1193</v>
       </c>
       <c r="D24" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5287,7 +5287,7 @@
         <v>1194</v>
       </c>
       <c r="D25" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5301,7 +5301,7 @@
         <v>1189</v>
       </c>
       <c r="D26" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5315,7 +5315,7 @@
         <v>1195</v>
       </c>
       <c r="D27" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5329,7 +5329,7 @@
         <v>1196</v>
       </c>
       <c r="D28" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5343,7 +5343,7 @@
         <v>1197</v>
       </c>
       <c r="D29" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5357,7 +5357,7 @@
         <v>1195</v>
       </c>
       <c r="D30" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5371,7 +5371,7 @@
         <v>1180</v>
       </c>
       <c r="D31" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5385,7 +5385,7 @@
         <v>1186</v>
       </c>
       <c r="D32" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5399,7 +5399,7 @@
         <v>1188</v>
       </c>
       <c r="D33" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5413,7 +5413,7 @@
         <v>1180</v>
       </c>
       <c r="D34" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5427,7 +5427,7 @@
         <v>1186</v>
       </c>
       <c r="D35" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5441,7 +5441,7 @@
         <v>1186</v>
       </c>
       <c r="D36" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5455,7 +5455,7 @@
         <v>1187</v>
       </c>
       <c r="D37" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5469,7 +5469,7 @@
         <v>1186</v>
       </c>
       <c r="D38" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5483,7 +5483,7 @@
         <v>1183</v>
       </c>
       <c r="D39" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5497,7 +5497,7 @@
         <v>1198</v>
       </c>
       <c r="D40" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5511,7 +5511,7 @@
         <v>1185</v>
       </c>
       <c r="D41" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5525,7 +5525,7 @@
         <v>1195</v>
       </c>
       <c r="D42" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5539,7 +5539,7 @@
         <v>1183</v>
       </c>
       <c r="D43" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5553,7 +5553,7 @@
         <v>1199</v>
       </c>
       <c r="D44" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5567,7 +5567,7 @@
         <v>1200</v>
       </c>
       <c r="D45" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -5581,7 +5581,7 @@
         <v>1186</v>
       </c>
       <c r="D46" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5595,7 +5595,7 @@
         <v>1200</v>
       </c>
       <c r="D47" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5609,7 +5609,7 @@
         <v>1201</v>
       </c>
       <c r="D48" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5623,7 +5623,7 @@
         <v>1186</v>
       </c>
       <c r="D49" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5637,7 +5637,7 @@
         <v>1202</v>
       </c>
       <c r="D50" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5651,7 +5651,7 @@
         <v>1203</v>
       </c>
       <c r="D51" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5665,7 +5665,7 @@
         <v>1186</v>
       </c>
       <c r="D52" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5679,7 +5679,7 @@
         <v>1204</v>
       </c>
       <c r="D53" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -5693,7 +5693,7 @@
         <v>1205</v>
       </c>
       <c r="D54" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -5707,7 +5707,7 @@
         <v>1191</v>
       </c>
       <c r="D55" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -5721,7 +5721,7 @@
         <v>1206</v>
       </c>
       <c r="D56" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -5735,7 +5735,7 @@
         <v>1196</v>
       </c>
       <c r="D57" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5749,7 +5749,7 @@
         <v>1183</v>
       </c>
       <c r="D58" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5763,7 +5763,7 @@
         <v>1184</v>
       </c>
       <c r="D59" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5777,7 +5777,7 @@
         <v>1207</v>
       </c>
       <c r="D60" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5791,7 +5791,7 @@
         <v>1186</v>
       </c>
       <c r="D61" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -5805,7 +5805,7 @@
         <v>1186</v>
       </c>
       <c r="D62" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5819,7 +5819,7 @@
         <v>1182</v>
       </c>
       <c r="D63" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -5833,7 +5833,7 @@
         <v>1208</v>
       </c>
       <c r="D64" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -5847,7 +5847,7 @@
         <v>1209</v>
       </c>
       <c r="D65" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -5861,7 +5861,7 @@
         <v>1186</v>
       </c>
       <c r="D66" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5875,7 +5875,7 @@
         <v>1186</v>
       </c>
       <c r="D67" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5889,7 +5889,7 @@
         <v>1186</v>
       </c>
       <c r="D68" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -5903,7 +5903,7 @@
         <v>1210</v>
       </c>
       <c r="D69" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -5917,7 +5917,7 @@
         <v>1211</v>
       </c>
       <c r="D70" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -5931,7 +5931,7 @@
         <v>1186</v>
       </c>
       <c r="D71" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -5945,7 +5945,7 @@
         <v>1207</v>
       </c>
       <c r="D72" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5959,7 +5959,7 @@
         <v>1195</v>
       </c>
       <c r="D73" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -5973,7 +5973,7 @@
         <v>1212</v>
       </c>
       <c r="D74" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -5987,7 +5987,7 @@
         <v>1200</v>
       </c>
       <c r="D75" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -6001,7 +6001,7 @@
         <v>1208</v>
       </c>
       <c r="D76" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -6015,7 +6015,7 @@
         <v>1186</v>
       </c>
       <c r="D77" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -6029,7 +6029,7 @@
         <v>1190</v>
       </c>
       <c r="D78" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -6043,7 +6043,7 @@
         <v>1186</v>
       </c>
       <c r="D79" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -6057,7 +6057,7 @@
         <v>1213</v>
       </c>
       <c r="D80" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -6071,7 +6071,7 @@
         <v>1214</v>
       </c>
       <c r="D81" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -6085,7 +6085,7 @@
         <v>1205</v>
       </c>
       <c r="D82" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -6099,7 +6099,7 @@
         <v>1200</v>
       </c>
       <c r="D83" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -6113,7 +6113,7 @@
         <v>1186</v>
       </c>
       <c r="D84" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -6127,7 +6127,7 @@
         <v>1200</v>
       </c>
       <c r="D85" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -6141,7 +6141,7 @@
         <v>1186</v>
       </c>
       <c r="D86" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -6155,7 +6155,7 @@
         <v>1186</v>
       </c>
       <c r="D87" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6169,7 +6169,7 @@
         <v>1186</v>
       </c>
       <c r="D88" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -6183,7 +6183,7 @@
         <v>1215</v>
       </c>
       <c r="D89" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -6197,7 +6197,7 @@
         <v>1211</v>
       </c>
       <c r="D90" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -6211,7 +6211,7 @@
         <v>1186</v>
       </c>
       <c r="D91" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -6225,7 +6225,7 @@
         <v>1200</v>
       </c>
       <c r="D92" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -6239,7 +6239,7 @@
         <v>1180</v>
       </c>
       <c r="D93" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -6253,7 +6253,7 @@
         <v>1215</v>
       </c>
       <c r="D94" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -6267,7 +6267,7 @@
         <v>1186</v>
       </c>
       <c r="D95" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -6281,7 +6281,7 @@
         <v>1216</v>
       </c>
       <c r="D96" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -6295,7 +6295,7 @@
         <v>1190</v>
       </c>
       <c r="D97" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -6309,7 +6309,7 @@
         <v>1217</v>
       </c>
       <c r="D98" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -6323,7 +6323,7 @@
         <v>1200</v>
       </c>
       <c r="D99" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -6337,7 +6337,7 @@
         <v>1218</v>
       </c>
       <c r="D100" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -6351,7 +6351,7 @@
         <v>1219</v>
       </c>
       <c r="D101" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6365,7 +6365,7 @@
         <v>1205</v>
       </c>
       <c r="D102" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -6379,7 +6379,7 @@
         <v>1189</v>
       </c>
       <c r="D103" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -6393,7 +6393,7 @@
         <v>1183</v>
       </c>
       <c r="D104" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -6407,7 +6407,7 @@
         <v>1198</v>
       </c>
       <c r="D105" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -6421,7 +6421,7 @@
         <v>1220</v>
       </c>
       <c r="D106" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -6435,7 +6435,7 @@
         <v>1186</v>
       </c>
       <c r="D107" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -6449,7 +6449,7 @@
         <v>1183</v>
       </c>
       <c r="D108" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6463,7 +6463,7 @@
         <v>1195</v>
       </c>
       <c r="D109" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -6477,7 +6477,7 @@
         <v>1216</v>
       </c>
       <c r="D110" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -6491,7 +6491,7 @@
         <v>1188</v>
       </c>
       <c r="D111" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -6505,7 +6505,7 @@
         <v>1221</v>
       </c>
       <c r="D112" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -6519,7 +6519,7 @@
         <v>1200</v>
       </c>
       <c r="D113" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -6533,7 +6533,7 @@
         <v>1186</v>
       </c>
       <c r="D114" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -6547,7 +6547,7 @@
         <v>1222</v>
       </c>
       <c r="D115" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -6561,7 +6561,7 @@
         <v>1223</v>
       </c>
       <c r="D116" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -6575,7 +6575,7 @@
         <v>1195</v>
       </c>
       <c r="D117" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6589,7 +6589,7 @@
         <v>1186</v>
       </c>
       <c r="D118" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -6603,7 +6603,7 @@
         <v>1186</v>
       </c>
       <c r="D119" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -6617,7 +6617,7 @@
         <v>1186</v>
       </c>
       <c r="D120" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -6631,7 +6631,7 @@
         <v>1200</v>
       </c>
       <c r="D121" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -6645,7 +6645,7 @@
         <v>1186</v>
       </c>
       <c r="D122" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -6659,7 +6659,7 @@
         <v>1186</v>
       </c>
       <c r="D123" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -6673,7 +6673,7 @@
         <v>1182</v>
       </c>
       <c r="D124" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -6687,7 +6687,7 @@
         <v>1196</v>
       </c>
       <c r="D125" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -6701,7 +6701,7 @@
         <v>1186</v>
       </c>
       <c r="D126" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -6715,7 +6715,7 @@
         <v>1186</v>
       </c>
       <c r="D127" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -6729,7 +6729,7 @@
         <v>1186</v>
       </c>
       <c r="D128" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -6743,7 +6743,7 @@
         <v>1188</v>
       </c>
       <c r="D129" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -6757,7 +6757,7 @@
         <v>1200</v>
       </c>
       <c r="D130" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -6771,7 +6771,7 @@
         <v>1186</v>
       </c>
       <c r="D131" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -6785,7 +6785,7 @@
         <v>1196</v>
       </c>
       <c r="D132" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6799,7 +6799,7 @@
         <v>1200</v>
       </c>
       <c r="D133" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6813,7 +6813,7 @@
         <v>1216</v>
       </c>
       <c r="D134" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6827,7 +6827,7 @@
         <v>1185</v>
       </c>
       <c r="D135" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6841,7 +6841,7 @@
         <v>1190</v>
       </c>
       <c r="D136" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6855,7 +6855,7 @@
         <v>1194</v>
       </c>
       <c r="D137" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -6869,7 +6869,7 @@
         <v>1224</v>
       </c>
       <c r="D138" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -6883,7 +6883,7 @@
         <v>1189</v>
       </c>
       <c r="D139" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -6897,7 +6897,7 @@
         <v>1186</v>
       </c>
       <c r="D140" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -6911,7 +6911,7 @@
         <v>1190</v>
       </c>
       <c r="D141" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -6925,7 +6925,7 @@
         <v>1186</v>
       </c>
       <c r="D142" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -6939,7 +6939,7 @@
         <v>1217</v>
       </c>
       <c r="D143" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -6953,7 +6953,7 @@
         <v>1225</v>
       </c>
       <c r="D144" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -6967,7 +6967,7 @@
         <v>1225</v>
       </c>
       <c r="D145" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -6981,7 +6981,7 @@
         <v>1186</v>
       </c>
       <c r="D146" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -6995,7 +6995,7 @@
         <v>1226</v>
       </c>
       <c r="D147" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -7009,7 +7009,7 @@
         <v>1198</v>
       </c>
       <c r="D148" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -7023,7 +7023,7 @@
         <v>1186</v>
       </c>
       <c r="D149" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -7037,7 +7037,7 @@
         <v>1182</v>
       </c>
       <c r="D150" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -7051,7 +7051,7 @@
         <v>1196</v>
       </c>
       <c r="D151" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -7065,7 +7065,7 @@
         <v>1227</v>
       </c>
       <c r="D152" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -7079,7 +7079,7 @@
         <v>1190</v>
       </c>
       <c r="D153" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -7093,7 +7093,7 @@
         <v>1228</v>
       </c>
       <c r="D154" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -7107,7 +7107,7 @@
         <v>1186</v>
       </c>
       <c r="D155" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -7121,7 +7121,7 @@
         <v>1229</v>
       </c>
       <c r="D156" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -7135,7 +7135,7 @@
         <v>1230</v>
       </c>
       <c r="D157" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -7149,7 +7149,7 @@
         <v>1231</v>
       </c>
       <c r="D158" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -7163,7 +7163,7 @@
         <v>1186</v>
       </c>
       <c r="D159" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -7177,7 +7177,7 @@
         <v>1232</v>
       </c>
       <c r="D160" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -7191,7 +7191,7 @@
         <v>1231</v>
       </c>
       <c r="D161" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -7205,7 +7205,7 @@
         <v>1180</v>
       </c>
       <c r="D162" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -7219,7 +7219,7 @@
         <v>1217</v>
       </c>
       <c r="D163" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -7233,7 +7233,7 @@
         <v>1233</v>
       </c>
       <c r="D164" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -7247,7 +7247,7 @@
         <v>1205</v>
       </c>
       <c r="D165" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -7261,7 +7261,7 @@
         <v>1234</v>
       </c>
       <c r="D166" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -7275,7 +7275,7 @@
         <v>1189</v>
       </c>
       <c r="D167" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7289,7 +7289,7 @@
         <v>1186</v>
       </c>
       <c r="D168" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -7303,7 +7303,7 @@
         <v>1231</v>
       </c>
       <c r="D169" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -7317,7 +7317,7 @@
         <v>1235</v>
       </c>
       <c r="D170" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -7331,7 +7331,7 @@
         <v>1236</v>
       </c>
       <c r="D171" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -7345,7 +7345,7 @@
         <v>1186</v>
       </c>
       <c r="D172" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -7359,7 +7359,7 @@
         <v>1200</v>
       </c>
       <c r="D173" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -7373,7 +7373,7 @@
         <v>1200</v>
       </c>
       <c r="D174" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -7387,7 +7387,7 @@
         <v>1186</v>
       </c>
       <c r="D175" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -7401,7 +7401,7 @@
         <v>1183</v>
       </c>
       <c r="D176" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -7415,7 +7415,7 @@
         <v>1233</v>
       </c>
       <c r="D177" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -7429,7 +7429,7 @@
         <v>1183</v>
       </c>
       <c r="D178" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -7443,7 +7443,7 @@
         <v>1225</v>
       </c>
       <c r="D179" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -7457,7 +7457,7 @@
         <v>1186</v>
       </c>
       <c r="D180" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -7471,7 +7471,7 @@
         <v>1228</v>
       </c>
       <c r="D181" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -7485,7 +7485,7 @@
         <v>1186</v>
       </c>
       <c r="D182" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -7499,7 +7499,7 @@
         <v>1191</v>
       </c>
       <c r="D183" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -7513,7 +7513,7 @@
         <v>1226</v>
       </c>
       <c r="D184" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -7527,7 +7527,7 @@
         <v>1195</v>
       </c>
       <c r="D185" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -7541,7 +7541,7 @@
         <v>1207</v>
       </c>
       <c r="D186" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -7555,7 +7555,7 @@
         <v>1231</v>
       </c>
       <c r="D187" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -7569,7 +7569,7 @@
         <v>1185</v>
       </c>
       <c r="D188" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -7583,7 +7583,7 @@
         <v>1200</v>
       </c>
       <c r="D189" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -7597,7 +7597,7 @@
         <v>1228</v>
       </c>
       <c r="D190" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -7611,7 +7611,7 @@
         <v>1212</v>
       </c>
       <c r="D191" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -7625,7 +7625,7 @@
         <v>1226</v>
       </c>
       <c r="D192" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -7639,7 +7639,7 @@
         <v>1186</v>
       </c>
       <c r="D193" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -7653,7 +7653,7 @@
         <v>1186</v>
       </c>
       <c r="D194" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -7667,7 +7667,7 @@
         <v>1186</v>
       </c>
       <c r="D195" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -7681,7 +7681,7 @@
         <v>1180</v>
       </c>
       <c r="D196" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -7695,7 +7695,7 @@
         <v>1191</v>
       </c>
       <c r="D197" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -7709,7 +7709,7 @@
         <v>1188</v>
       </c>
       <c r="D198" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -7723,7 +7723,7 @@
         <v>1186</v>
       </c>
       <c r="D199" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -7737,7 +7737,7 @@
         <v>1186</v>
       </c>
       <c r="D200" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -7751,7 +7751,7 @@
         <v>1237</v>
       </c>
       <c r="D201" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -7765,7 +7765,7 @@
         <v>1186</v>
       </c>
       <c r="D202" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -7779,7 +7779,7 @@
         <v>1194</v>
       </c>
       <c r="D203" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -7793,7 +7793,7 @@
         <v>1183</v>
       </c>
       <c r="D204" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -7807,7 +7807,7 @@
         <v>1238</v>
       </c>
       <c r="D205" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -7821,7 +7821,7 @@
         <v>1203</v>
       </c>
       <c r="D206" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -7835,7 +7835,7 @@
         <v>1186</v>
       </c>
       <c r="D207" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -7849,7 +7849,7 @@
         <v>1186</v>
       </c>
       <c r="D208" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -7863,7 +7863,7 @@
         <v>1189</v>
       </c>
       <c r="D209" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -7877,7 +7877,7 @@
         <v>1239</v>
       </c>
       <c r="D210" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -7891,7 +7891,7 @@
         <v>1201</v>
       </c>
       <c r="D211" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -7905,7 +7905,7 @@
         <v>1202</v>
       </c>
       <c r="D212" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -7919,7 +7919,7 @@
         <v>1225</v>
       </c>
       <c r="D213" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -7933,7 +7933,7 @@
         <v>1181</v>
       </c>
       <c r="D214" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -7947,7 +7947,7 @@
         <v>1186</v>
       </c>
       <c r="D215" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -7961,7 +7961,7 @@
         <v>1188</v>
       </c>
       <c r="D216" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -7975,7 +7975,7 @@
         <v>1240</v>
       </c>
       <c r="D217" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -7989,7 +7989,7 @@
         <v>1241</v>
       </c>
       <c r="D218" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -8003,7 +8003,7 @@
         <v>1202</v>
       </c>
       <c r="D219" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -8017,7 +8017,7 @@
         <v>1200</v>
       </c>
       <c r="D220" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -8031,7 +8031,7 @@
         <v>1194</v>
       </c>
       <c r="D221" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -8045,7 +8045,7 @@
         <v>1183</v>
       </c>
       <c r="D222" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -8059,7 +8059,7 @@
         <v>1200</v>
       </c>
       <c r="D223" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -8073,7 +8073,7 @@
         <v>1183</v>
       </c>
       <c r="D224" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -8087,7 +8087,7 @@
         <v>1242</v>
       </c>
       <c r="D225" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -8101,7 +8101,7 @@
         <v>1200</v>
       </c>
       <c r="D226" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -8115,7 +8115,7 @@
         <v>1228</v>
       </c>
       <c r="D227" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -8129,7 +8129,7 @@
         <v>1194</v>
       </c>
       <c r="D228" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -8143,7 +8143,7 @@
         <v>1243</v>
       </c>
       <c r="D229" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -8157,7 +8157,7 @@
         <v>1186</v>
       </c>
       <c r="D230" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -8171,7 +8171,7 @@
         <v>1200</v>
       </c>
       <c r="D231" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -8185,7 +8185,7 @@
         <v>1196</v>
       </c>
       <c r="D232" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -8199,7 +8199,7 @@
         <v>1186</v>
       </c>
       <c r="D233" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -8213,7 +8213,7 @@
         <v>1186</v>
       </c>
       <c r="D234" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -8227,7 +8227,7 @@
         <v>1186</v>
       </c>
       <c r="D235" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -8241,7 +8241,7 @@
         <v>1186</v>
       </c>
       <c r="D236" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -8255,7 +8255,7 @@
         <v>1190</v>
       </c>
       <c r="D237" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -8269,7 +8269,7 @@
         <v>1214</v>
       </c>
       <c r="D238" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -8283,7 +8283,7 @@
         <v>1235</v>
       </c>
       <c r="D239" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -8297,7 +8297,7 @@
         <v>1228</v>
       </c>
       <c r="D240" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -8311,7 +8311,7 @@
         <v>1194</v>
       </c>
       <c r="D241" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -8325,7 +8325,7 @@
         <v>1198</v>
       </c>
       <c r="D242" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -8339,7 +8339,7 @@
         <v>1186</v>
       </c>
       <c r="D243" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -8353,7 +8353,7 @@
         <v>1200</v>
       </c>
       <c r="D244" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -8367,7 +8367,7 @@
         <v>1186</v>
       </c>
       <c r="D245" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -8381,7 +8381,7 @@
         <v>1230</v>
       </c>
       <c r="D246" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -8395,7 +8395,7 @@
         <v>1200</v>
       </c>
       <c r="D247" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -8409,7 +8409,7 @@
         <v>1186</v>
       </c>
       <c r="D248" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -8423,7 +8423,7 @@
         <v>1196</v>
       </c>
       <c r="D249" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -8437,7 +8437,7 @@
         <v>1226</v>
       </c>
       <c r="D250" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -8451,7 +8451,7 @@
         <v>1184</v>
       </c>
       <c r="D251" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -8465,7 +8465,7 @@
         <v>1238</v>
       </c>
       <c r="D252" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -8479,7 +8479,7 @@
         <v>1200</v>
       </c>
       <c r="D253" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -8493,7 +8493,7 @@
         <v>1200</v>
       </c>
       <c r="D254" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -8507,7 +8507,7 @@
         <v>1236</v>
       </c>
       <c r="D255" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -8521,7 +8521,7 @@
         <v>1238</v>
       </c>
       <c r="D256" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -8535,7 +8535,7 @@
         <v>1186</v>
       </c>
       <c r="D257" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -8549,7 +8549,7 @@
         <v>1186</v>
       </c>
       <c r="D258" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -8563,7 +8563,7 @@
         <v>1195</v>
       </c>
       <c r="D259" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -8577,7 +8577,7 @@
         <v>1186</v>
       </c>
       <c r="D260" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -8591,7 +8591,7 @@
         <v>1202</v>
       </c>
       <c r="D261" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -8605,7 +8605,7 @@
         <v>1186</v>
       </c>
       <c r="D262" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -8619,7 +8619,7 @@
         <v>1244</v>
       </c>
       <c r="D263" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -8633,7 +8633,7 @@
         <v>1186</v>
       </c>
       <c r="D264" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -8647,7 +8647,7 @@
         <v>1200</v>
       </c>
       <c r="D265" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -8661,7 +8661,7 @@
         <v>1245</v>
       </c>
       <c r="D266" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -8675,7 +8675,7 @@
         <v>1186</v>
       </c>
       <c r="D267" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -8689,7 +8689,7 @@
         <v>1183</v>
       </c>
       <c r="D268" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -8703,7 +8703,7 @@
         <v>1242</v>
       </c>
       <c r="D269" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -8717,7 +8717,7 @@
         <v>1200</v>
       </c>
       <c r="D270" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -8731,7 +8731,7 @@
         <v>1238</v>
       </c>
       <c r="D271" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -8745,7 +8745,7 @@
         <v>1226</v>
       </c>
       <c r="D272" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -8759,7 +8759,7 @@
         <v>1198</v>
       </c>
       <c r="D273" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -8773,7 +8773,7 @@
         <v>1200</v>
       </c>
       <c r="D274" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -8787,7 +8787,7 @@
         <v>1246</v>
       </c>
       <c r="D275" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -8801,7 +8801,7 @@
         <v>1211</v>
       </c>
       <c r="D276" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -8815,7 +8815,7 @@
         <v>1186</v>
       </c>
       <c r="D277" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -8829,7 +8829,7 @@
         <v>1186</v>
       </c>
       <c r="D278" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -8843,7 +8843,7 @@
         <v>1199</v>
       </c>
       <c r="D279" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -8857,7 +8857,7 @@
         <v>1186</v>
       </c>
       <c r="D280" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -8871,7 +8871,7 @@
         <v>1186</v>
       </c>
       <c r="D281" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -8885,7 +8885,7 @@
         <v>1228</v>
       </c>
       <c r="D282" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -8899,7 +8899,7 @@
         <v>1228</v>
       </c>
       <c r="D283" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -8913,7 +8913,7 @@
         <v>1200</v>
       </c>
       <c r="D284" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -8927,7 +8927,7 @@
         <v>1200</v>
       </c>
       <c r="D285" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -8941,7 +8941,7 @@
         <v>1186</v>
       </c>
       <c r="D286" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -8955,7 +8955,7 @@
         <v>1186</v>
       </c>
       <c r="D287" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -8969,7 +8969,7 @@
         <v>1189</v>
       </c>
       <c r="D288" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -8983,7 +8983,7 @@
         <v>1186</v>
       </c>
       <c r="D289" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -8997,7 +8997,7 @@
         <v>1247</v>
       </c>
       <c r="D290" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -9011,7 +9011,7 @@
         <v>1198</v>
       </c>
       <c r="D291" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -9025,7 +9025,7 @@
         <v>1245</v>
       </c>
       <c r="D292" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -9039,7 +9039,7 @@
         <v>1191</v>
       </c>
       <c r="D293" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -9053,7 +9053,7 @@
         <v>1248</v>
       </c>
       <c r="D294" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -9067,7 +9067,7 @@
         <v>1228</v>
       </c>
       <c r="D295" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -9081,7 +9081,7 @@
         <v>1186</v>
       </c>
       <c r="D296" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -9095,7 +9095,7 @@
         <v>1242</v>
       </c>
       <c r="D297" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -9109,7 +9109,7 @@
         <v>1228</v>
       </c>
       <c r="D298" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -9123,7 +9123,7 @@
         <v>1249</v>
       </c>
       <c r="D299" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -9137,7 +9137,7 @@
         <v>1186</v>
       </c>
       <c r="D300" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -9151,7 +9151,7 @@
         <v>1198</v>
       </c>
       <c r="D301" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -9165,7 +9165,7 @@
         <v>1243</v>
       </c>
       <c r="D302" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -9179,7 +9179,7 @@
         <v>1233</v>
       </c>
       <c r="D303" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -9193,7 +9193,7 @@
         <v>1198</v>
       </c>
       <c r="D304" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -9207,7 +9207,7 @@
         <v>1250</v>
       </c>
       <c r="D305" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -9221,7 +9221,7 @@
         <v>1243</v>
       </c>
       <c r="D306" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -9235,7 +9235,7 @@
         <v>1228</v>
       </c>
       <c r="D307" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -9249,7 +9249,7 @@
         <v>1233</v>
       </c>
       <c r="D308" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -9263,7 +9263,7 @@
         <v>1216</v>
       </c>
       <c r="D309" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -9277,7 +9277,7 @@
         <v>1186</v>
       </c>
       <c r="D310" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -9291,7 +9291,7 @@
         <v>1251</v>
       </c>
       <c r="D311" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -9305,7 +9305,7 @@
         <v>1182</v>
       </c>
       <c r="D312" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -9319,7 +9319,7 @@
         <v>1233</v>
       </c>
       <c r="D313" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -9333,7 +9333,7 @@
         <v>1228</v>
       </c>
       <c r="D314" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -9347,7 +9347,7 @@
         <v>1195</v>
       </c>
       <c r="D315" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -9361,7 +9361,7 @@
         <v>1205</v>
       </c>
       <c r="D316" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -9375,7 +9375,7 @@
         <v>1186</v>
       </c>
       <c r="D317" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -9389,7 +9389,7 @@
         <v>1238</v>
       </c>
       <c r="D318" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -9403,7 +9403,7 @@
         <v>1225</v>
       </c>
       <c r="D319" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -9417,7 +9417,7 @@
         <v>1252</v>
       </c>
       <c r="D320" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -9431,7 +9431,7 @@
         <v>1200</v>
       </c>
       <c r="D321" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -9445,7 +9445,7 @@
         <v>1238</v>
       </c>
       <c r="D322" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -9459,7 +9459,7 @@
         <v>1180</v>
       </c>
       <c r="D323" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -9473,7 +9473,7 @@
         <v>1243</v>
       </c>
       <c r="D324" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -9487,7 +9487,7 @@
         <v>1209</v>
       </c>
       <c r="D325" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -9501,7 +9501,7 @@
         <v>1233</v>
       </c>
       <c r="D326" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -9515,7 +9515,7 @@
         <v>1200</v>
       </c>
       <c r="D327" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -9529,7 +9529,7 @@
         <v>1186</v>
       </c>
       <c r="D328" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -9543,7 +9543,7 @@
         <v>1230</v>
       </c>
       <c r="D329" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -9557,7 +9557,7 @@
         <v>1195</v>
       </c>
       <c r="D330" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -9571,7 +9571,7 @@
         <v>1180</v>
       </c>
       <c r="D331" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -9585,7 +9585,7 @@
         <v>1186</v>
       </c>
       <c r="D332" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -9599,7 +9599,7 @@
         <v>1198</v>
       </c>
       <c r="D333" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -9613,7 +9613,7 @@
         <v>1195</v>
       </c>
       <c r="D334" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -9627,7 +9627,7 @@
         <v>1228</v>
       </c>
       <c r="D335" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -9641,7 +9641,7 @@
         <v>1183</v>
       </c>
       <c r="D336" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -9655,7 +9655,7 @@
         <v>1200</v>
       </c>
       <c r="D337" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -9669,7 +9669,7 @@
         <v>1228</v>
       </c>
       <c r="D338" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -9683,7 +9683,7 @@
         <v>1228</v>
       </c>
       <c r="D339" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -9697,7 +9697,7 @@
         <v>1195</v>
       </c>
       <c r="D340" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -9711,7 +9711,7 @@
         <v>1238</v>
       </c>
       <c r="D341" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -9725,7 +9725,7 @@
         <v>1243</v>
       </c>
       <c r="D342" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -9739,7 +9739,7 @@
         <v>1200</v>
       </c>
       <c r="D343" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -9753,7 +9753,7 @@
         <v>1200</v>
       </c>
       <c r="D344" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -9767,7 +9767,7 @@
         <v>1200</v>
       </c>
       <c r="D345" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -9781,7 +9781,7 @@
         <v>1186</v>
       </c>
       <c r="D346" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -9795,7 +9795,7 @@
         <v>1186</v>
       </c>
       <c r="D347" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -9809,7 +9809,7 @@
         <v>1233</v>
       </c>
       <c r="D348" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -9823,7 +9823,7 @@
         <v>1200</v>
       </c>
       <c r="D349" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -9837,7 +9837,7 @@
         <v>1200</v>
       </c>
       <c r="D350" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -9851,7 +9851,7 @@
         <v>1180</v>
       </c>
       <c r="D351" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -9865,7 +9865,7 @@
         <v>1253</v>
       </c>
       <c r="D352" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -9879,7 +9879,7 @@
         <v>1200</v>
       </c>
       <c r="D353" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -9893,7 +9893,7 @@
         <v>1186</v>
       </c>
       <c r="D354" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -9907,7 +9907,7 @@
         <v>1188</v>
       </c>
       <c r="D355" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -9921,7 +9921,7 @@
         <v>1254</v>
       </c>
       <c r="D356" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -9935,7 +9935,7 @@
         <v>1243</v>
       </c>
       <c r="D357" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -9949,7 +9949,7 @@
         <v>1186</v>
       </c>
       <c r="D358" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -9963,7 +9963,7 @@
         <v>1242</v>
       </c>
       <c r="D359" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -9977,7 +9977,7 @@
         <v>1200</v>
       </c>
       <c r="D360" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -9991,7 +9991,7 @@
         <v>1230</v>
       </c>
       <c r="D361" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -10005,7 +10005,7 @@
         <v>1189</v>
       </c>
       <c r="D362" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -10019,7 +10019,7 @@
         <v>1200</v>
       </c>
       <c r="D363" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -10033,7 +10033,7 @@
         <v>1255</v>
       </c>
       <c r="D364" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -10047,7 +10047,7 @@
         <v>1183</v>
       </c>
       <c r="D365" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -10061,7 +10061,7 @@
         <v>1256</v>
       </c>
       <c r="D366" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -10075,7 +10075,7 @@
         <v>1257</v>
       </c>
       <c r="D367" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -10089,7 +10089,7 @@
         <v>1204</v>
       </c>
       <c r="D368" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -10103,7 +10103,7 @@
         <v>1243</v>
       </c>
       <c r="D369" t="s">
-        <v>1328</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -10117,7 +10117,7 @@
         <v>1186</v>
       </c>
       <c r="D370" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -10131,7 +10131,7 @@
         <v>1186</v>
       </c>
       <c r="D371" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -10145,7 +10145,7 @@
         <v>1238</v>
       </c>
       <c r="D372" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -10173,7 +10173,7 @@
         <v>1258</v>
       </c>
       <c r="D374" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -10187,7 +10187,7 @@
         <v>1228</v>
       </c>
       <c r="D375" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -10215,7 +10215,7 @@
         <v>1186</v>
       </c>
       <c r="D377" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -10229,7 +10229,7 @@
         <v>1186</v>
       </c>
       <c r="D378" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -10243,7 +10243,7 @@
         <v>1186</v>
       </c>
       <c r="D379" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -10257,7 +10257,7 @@
         <v>1200</v>
       </c>
       <c r="D380" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -10271,7 +10271,7 @@
         <v>1259</v>
       </c>
       <c r="D381" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -10285,7 +10285,7 @@
         <v>1180</v>
       </c>
       <c r="D382" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -10299,7 +10299,7 @@
         <v>1243</v>
       </c>
       <c r="D383" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -10327,7 +10327,7 @@
         <v>1200</v>
       </c>
       <c r="D385" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -10341,7 +10341,7 @@
         <v>1260</v>
       </c>
       <c r="D386" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -10355,7 +10355,7 @@
         <v>1214</v>
       </c>
       <c r="D387" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -10369,7 +10369,7 @@
         <v>1188</v>
       </c>
       <c r="D388" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -10383,7 +10383,7 @@
         <v>1200</v>
       </c>
       <c r="D389" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -10397,7 +10397,7 @@
         <v>1261</v>
       </c>
       <c r="D390" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -10411,7 +10411,7 @@
         <v>1200</v>
       </c>
       <c r="D391" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -10425,7 +10425,7 @@
         <v>1262</v>
       </c>
       <c r="D392" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -10439,7 +10439,7 @@
         <v>1242</v>
       </c>
       <c r="D393" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -10453,7 +10453,7 @@
         <v>1251</v>
       </c>
       <c r="D394" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -10467,7 +10467,7 @@
         <v>1200</v>
       </c>
       <c r="D395" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -10481,7 +10481,7 @@
         <v>1217</v>
       </c>
       <c r="D396" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -10495,7 +10495,7 @@
         <v>1186</v>
       </c>
       <c r="D397" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -10509,7 +10509,7 @@
         <v>1263</v>
       </c>
       <c r="D398" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -10523,7 +10523,7 @@
         <v>1194</v>
       </c>
       <c r="D399" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -10537,7 +10537,7 @@
         <v>1186</v>
       </c>
       <c r="D400" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -10551,7 +10551,7 @@
         <v>1180</v>
       </c>
       <c r="D401" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -10565,7 +10565,7 @@
         <v>1264</v>
       </c>
       <c r="D402" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -10579,7 +10579,7 @@
         <v>1265</v>
       </c>
       <c r="D403" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -10593,7 +10593,7 @@
         <v>1243</v>
       </c>
       <c r="D404" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -10607,7 +10607,7 @@
         <v>1266</v>
       </c>
       <c r="D405" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -10621,7 +10621,7 @@
         <v>1243</v>
       </c>
       <c r="D406" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -10635,7 +10635,7 @@
         <v>1200</v>
       </c>
       <c r="D407" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -10649,7 +10649,7 @@
         <v>1200</v>
       </c>
       <c r="D408" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -10663,7 +10663,7 @@
         <v>1196</v>
       </c>
       <c r="D409" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -10677,7 +10677,7 @@
         <v>1228</v>
       </c>
       <c r="D410" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -10691,7 +10691,7 @@
         <v>1243</v>
       </c>
       <c r="D411" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -10705,7 +10705,7 @@
         <v>1188</v>
       </c>
       <c r="D412" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -10719,7 +10719,7 @@
         <v>1186</v>
       </c>
       <c r="D413" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -10733,7 +10733,7 @@
         <v>1200</v>
       </c>
       <c r="D414" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -10747,7 +10747,7 @@
         <v>1188</v>
       </c>
       <c r="D415" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -10761,7 +10761,7 @@
         <v>1263</v>
       </c>
       <c r="D416" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -10775,7 +10775,7 @@
         <v>1230</v>
       </c>
       <c r="D417" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -10789,7 +10789,7 @@
         <v>1233</v>
       </c>
       <c r="D418" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -10803,7 +10803,7 @@
         <v>1200</v>
       </c>
       <c r="D419" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -10817,7 +10817,7 @@
         <v>1200</v>
       </c>
       <c r="D420" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -10831,7 +10831,7 @@
         <v>1226</v>
       </c>
       <c r="D421" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -10845,7 +10845,7 @@
         <v>1230</v>
       </c>
       <c r="D422" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -10859,7 +10859,7 @@
         <v>1200</v>
       </c>
       <c r="D423" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -10873,7 +10873,7 @@
         <v>1228</v>
       </c>
       <c r="D424" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -10887,7 +10887,7 @@
         <v>1200</v>
       </c>
       <c r="D425" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -10901,7 +10901,7 @@
         <v>1200</v>
       </c>
       <c r="D426" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -10915,7 +10915,7 @@
         <v>1267</v>
       </c>
       <c r="D427" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -10929,7 +10929,7 @@
         <v>1200</v>
       </c>
       <c r="D428" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -10943,7 +10943,7 @@
         <v>1194</v>
       </c>
       <c r="D429" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -10957,7 +10957,7 @@
         <v>1200</v>
       </c>
       <c r="D430" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -10971,7 +10971,7 @@
         <v>1200</v>
       </c>
       <c r="D431" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -10985,7 +10985,7 @@
         <v>1204</v>
       </c>
       <c r="D432" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -10999,7 +10999,7 @@
         <v>1200</v>
       </c>
       <c r="D433" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -11013,7 +11013,7 @@
         <v>1186</v>
       </c>
       <c r="D434" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -11027,7 +11027,7 @@
         <v>1200</v>
       </c>
       <c r="D435" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -11041,7 +11041,7 @@
         <v>1200</v>
       </c>
       <c r="D436" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -11055,7 +11055,7 @@
         <v>1268</v>
       </c>
       <c r="D437" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -11069,7 +11069,7 @@
         <v>1243</v>
       </c>
       <c r="D438" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -11083,7 +11083,7 @@
         <v>1203</v>
       </c>
       <c r="D439" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -11097,7 +11097,7 @@
         <v>1200</v>
       </c>
       <c r="D440" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -11111,7 +11111,7 @@
         <v>1243</v>
       </c>
       <c r="D441" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -11125,7 +11125,7 @@
         <v>1238</v>
       </c>
       <c r="D442" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -11139,7 +11139,7 @@
         <v>1186</v>
       </c>
       <c r="D443" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -11153,7 +11153,7 @@
         <v>1269</v>
       </c>
       <c r="D444" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -11167,7 +11167,7 @@
         <v>1200</v>
       </c>
       <c r="D445" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -11181,7 +11181,7 @@
         <v>1186</v>
       </c>
       <c r="D446" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -11195,7 +11195,7 @@
         <v>1200</v>
       </c>
       <c r="D447" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -11209,7 +11209,7 @@
         <v>1200</v>
       </c>
       <c r="D448" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -11223,7 +11223,7 @@
         <v>1200</v>
       </c>
       <c r="D449" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -11251,7 +11251,7 @@
         <v>1186</v>
       </c>
       <c r="D451" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -11265,7 +11265,7 @@
         <v>1243</v>
       </c>
       <c r="D452" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -11279,7 +11279,7 @@
         <v>1255</v>
       </c>
       <c r="D453" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -11293,7 +11293,7 @@
         <v>1186</v>
       </c>
       <c r="D454" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -11321,7 +11321,7 @@
         <v>1200</v>
       </c>
       <c r="D456" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -11335,7 +11335,7 @@
         <v>1226</v>
       </c>
       <c r="D457" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -11349,7 +11349,7 @@
         <v>1186</v>
       </c>
       <c r="D458" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -11363,7 +11363,7 @@
         <v>1228</v>
       </c>
       <c r="D459" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -11377,7 +11377,7 @@
         <v>1251</v>
       </c>
       <c r="D460" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -11391,7 +11391,7 @@
         <v>1225</v>
       </c>
       <c r="D461" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -11405,7 +11405,7 @@
         <v>1243</v>
       </c>
       <c r="D462" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -11419,7 +11419,7 @@
         <v>1183</v>
       </c>
       <c r="D463" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -11433,7 +11433,7 @@
         <v>1238</v>
       </c>
       <c r="D464" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -11447,7 +11447,7 @@
         <v>1200</v>
       </c>
       <c r="D465" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -11461,7 +11461,7 @@
         <v>1186</v>
       </c>
       <c r="D466" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -11475,7 +11475,7 @@
         <v>1255</v>
       </c>
       <c r="D467" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -11503,7 +11503,7 @@
         <v>1200</v>
       </c>
       <c r="D469" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -11517,7 +11517,7 @@
         <v>1200</v>
       </c>
       <c r="D470" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -11531,7 +11531,7 @@
         <v>1200</v>
       </c>
       <c r="D471" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -11559,7 +11559,7 @@
         <v>1200</v>
       </c>
       <c r="D473" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -11573,7 +11573,7 @@
         <v>1200</v>
       </c>
       <c r="D474" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -11587,7 +11587,7 @@
         <v>1200</v>
       </c>
       <c r="D475" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -11601,7 +11601,7 @@
         <v>1271</v>
       </c>
       <c r="D476" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -11615,7 +11615,7 @@
         <v>1186</v>
       </c>
       <c r="D477" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -11629,7 +11629,7 @@
         <v>1186</v>
       </c>
       <c r="D478" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -11643,7 +11643,7 @@
         <v>1186</v>
       </c>
       <c r="D479" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -11657,7 +11657,7 @@
         <v>1186</v>
       </c>
       <c r="D480" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -11671,7 +11671,7 @@
         <v>1238</v>
       </c>
       <c r="D481" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -11685,7 +11685,7 @@
         <v>1200</v>
       </c>
       <c r="D482" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -11699,7 +11699,7 @@
         <v>1186</v>
       </c>
       <c r="D483" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -11713,7 +11713,7 @@
         <v>1200</v>
       </c>
       <c r="D484" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -11727,7 +11727,7 @@
         <v>1180</v>
       </c>
       <c r="D485" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -11741,7 +11741,7 @@
         <v>1228</v>
       </c>
       <c r="D486" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -11755,7 +11755,7 @@
         <v>1200</v>
       </c>
       <c r="D487" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -11769,7 +11769,7 @@
         <v>1272</v>
       </c>
       <c r="D488" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -11783,7 +11783,7 @@
         <v>1186</v>
       </c>
       <c r="D489" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -11797,7 +11797,7 @@
         <v>1273</v>
       </c>
       <c r="D490" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -11811,7 +11811,7 @@
         <v>1200</v>
       </c>
       <c r="D491" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -11825,7 +11825,7 @@
         <v>1183</v>
       </c>
       <c r="D492" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -11839,7 +11839,7 @@
         <v>1200</v>
       </c>
       <c r="D493" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -11853,7 +11853,7 @@
         <v>1228</v>
       </c>
       <c r="D494" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -11867,7 +11867,7 @@
         <v>1238</v>
       </c>
       <c r="D495" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -11881,7 +11881,7 @@
         <v>1186</v>
       </c>
       <c r="D496" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -11895,7 +11895,7 @@
         <v>1200</v>
       </c>
       <c r="D497" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -11909,7 +11909,7 @@
         <v>1200</v>
       </c>
       <c r="D498" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -11923,7 +11923,7 @@
         <v>1200</v>
       </c>
       <c r="D499" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -11937,7 +11937,7 @@
         <v>1200</v>
       </c>
       <c r="D500" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -11951,7 +11951,7 @@
         <v>1225</v>
       </c>
       <c r="D501" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -11979,7 +11979,7 @@
         <v>1243</v>
       </c>
       <c r="D503" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -11993,7 +11993,7 @@
         <v>1200</v>
       </c>
       <c r="D504" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -12007,7 +12007,7 @@
         <v>1228</v>
       </c>
       <c r="D505" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -12021,7 +12021,7 @@
         <v>1186</v>
       </c>
       <c r="D506" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -12035,7 +12035,7 @@
         <v>1238</v>
       </c>
       <c r="D507" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -12049,7 +12049,7 @@
         <v>1200</v>
       </c>
       <c r="D508" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -12063,7 +12063,7 @@
         <v>1200</v>
       </c>
       <c r="D509" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -12077,7 +12077,7 @@
         <v>1228</v>
       </c>
       <c r="D510" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -12091,7 +12091,7 @@
         <v>1202</v>
       </c>
       <c r="D511" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -12105,7 +12105,7 @@
         <v>1238</v>
       </c>
       <c r="D512" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -12119,7 +12119,7 @@
         <v>1232</v>
       </c>
       <c r="D513" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -12133,7 +12133,7 @@
         <v>1238</v>
       </c>
       <c r="D514" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -12147,7 +12147,7 @@
         <v>1200</v>
       </c>
       <c r="D515" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -12161,7 +12161,7 @@
         <v>1274</v>
       </c>
       <c r="D516" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -12175,7 +12175,7 @@
         <v>1200</v>
       </c>
       <c r="D517" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -12189,7 +12189,7 @@
         <v>1200</v>
       </c>
       <c r="D518" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -12203,7 +12203,7 @@
         <v>1238</v>
       </c>
       <c r="D519" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -12217,7 +12217,7 @@
         <v>1186</v>
       </c>
       <c r="D520" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -12231,7 +12231,7 @@
         <v>1200</v>
       </c>
       <c r="D521" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -12245,7 +12245,7 @@
         <v>1238</v>
       </c>
       <c r="D522" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -12259,7 +12259,7 @@
         <v>1243</v>
       </c>
       <c r="D523" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -12273,7 +12273,7 @@
         <v>1200</v>
       </c>
       <c r="D524" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -12287,7 +12287,7 @@
         <v>1211</v>
       </c>
       <c r="D525" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -12301,7 +12301,7 @@
         <v>1242</v>
       </c>
       <c r="D526" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -12315,7 +12315,7 @@
         <v>1186</v>
       </c>
       <c r="D527" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -12329,7 +12329,7 @@
         <v>1200</v>
       </c>
       <c r="D528" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -12343,7 +12343,7 @@
         <v>1200</v>
       </c>
       <c r="D529" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -12357,7 +12357,7 @@
         <v>1200</v>
       </c>
       <c r="D530" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -12371,7 +12371,7 @@
         <v>1186</v>
       </c>
       <c r="D531" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -12385,7 +12385,7 @@
         <v>1200</v>
       </c>
       <c r="D532" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -12399,7 +12399,7 @@
         <v>1200</v>
       </c>
       <c r="D533" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -12427,7 +12427,7 @@
         <v>1228</v>
       </c>
       <c r="D535" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -12441,7 +12441,7 @@
         <v>1195</v>
       </c>
       <c r="D536" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -12455,7 +12455,7 @@
         <v>1196</v>
       </c>
       <c r="D537" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -12469,7 +12469,7 @@
         <v>1238</v>
       </c>
       <c r="D538" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -12483,7 +12483,7 @@
         <v>1238</v>
       </c>
       <c r="D539" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -12511,7 +12511,7 @@
         <v>1186</v>
       </c>
       <c r="D541" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -12525,7 +12525,7 @@
         <v>1256</v>
       </c>
       <c r="D542" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -12539,7 +12539,7 @@
         <v>1233</v>
       </c>
       <c r="D543" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -12553,7 +12553,7 @@
         <v>1200</v>
       </c>
       <c r="D544" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -12567,7 +12567,7 @@
         <v>1200</v>
       </c>
       <c r="D545" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -12581,7 +12581,7 @@
         <v>1200</v>
       </c>
       <c r="D546" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -12595,7 +12595,7 @@
         <v>1243</v>
       </c>
       <c r="D547" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -12609,7 +12609,7 @@
         <v>1228</v>
       </c>
       <c r="D548" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -12623,7 +12623,7 @@
         <v>1243</v>
       </c>
       <c r="D549" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -12637,7 +12637,7 @@
         <v>1190</v>
       </c>
       <c r="D550" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -12651,7 +12651,7 @@
         <v>1200</v>
       </c>
       <c r="D551" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -12665,7 +12665,7 @@
         <v>1228</v>
       </c>
       <c r="D552" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -12679,7 +12679,7 @@
         <v>1186</v>
       </c>
       <c r="D553" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -12693,7 +12693,7 @@
         <v>1183</v>
       </c>
       <c r="D554" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -12707,7 +12707,7 @@
         <v>1200</v>
       </c>
       <c r="D555" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -12721,7 +12721,7 @@
         <v>1200</v>
       </c>
       <c r="D556" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -12735,7 +12735,7 @@
         <v>1275</v>
       </c>
       <c r="D557" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -12749,7 +12749,7 @@
         <v>1200</v>
       </c>
       <c r="D558" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -12763,7 +12763,7 @@
         <v>1217</v>
       </c>
       <c r="D559" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -12777,7 +12777,7 @@
         <v>1200</v>
       </c>
       <c r="D560" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -12791,7 +12791,7 @@
         <v>1186</v>
       </c>
       <c r="D561" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -12805,7 +12805,7 @@
         <v>1225</v>
       </c>
       <c r="D562" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -12819,7 +12819,7 @@
         <v>1200</v>
       </c>
       <c r="D563" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -12861,7 +12861,7 @@
         <v>1200</v>
       </c>
       <c r="D566" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -12875,7 +12875,7 @@
         <v>1200</v>
       </c>
       <c r="D567" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -12889,7 +12889,7 @@
         <v>1238</v>
       </c>
       <c r="D568" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -12903,7 +12903,7 @@
         <v>1200</v>
       </c>
       <c r="D569" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -12917,7 +12917,7 @@
         <v>1200</v>
       </c>
       <c r="D570" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -12931,7 +12931,7 @@
         <v>1200</v>
       </c>
       <c r="D571" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -12945,7 +12945,7 @@
         <v>1251</v>
       </c>
       <c r="D572" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -12959,7 +12959,7 @@
         <v>1200</v>
       </c>
       <c r="D573" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -12973,7 +12973,7 @@
         <v>1225</v>
       </c>
       <c r="D574" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -12987,7 +12987,7 @@
         <v>1186</v>
       </c>
       <c r="D575" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -13001,7 +13001,7 @@
         <v>1186</v>
       </c>
       <c r="D576" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -13029,7 +13029,7 @@
         <v>1195</v>
       </c>
       <c r="D578" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -13043,7 +13043,7 @@
         <v>1243</v>
       </c>
       <c r="D579" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -13071,7 +13071,7 @@
         <v>1186</v>
       </c>
       <c r="D581" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -13085,7 +13085,7 @@
         <v>1238</v>
       </c>
       <c r="D582" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -13099,7 +13099,7 @@
         <v>1200</v>
       </c>
       <c r="D583" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -13113,7 +13113,7 @@
         <v>1225</v>
       </c>
       <c r="D584" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -13127,7 +13127,7 @@
         <v>1243</v>
       </c>
       <c r="D585" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -13141,7 +13141,7 @@
         <v>1200</v>
       </c>
       <c r="D586" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -13155,7 +13155,7 @@
         <v>1200</v>
       </c>
       <c r="D587" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -13169,7 +13169,7 @@
         <v>1188</v>
       </c>
       <c r="D588" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -13183,7 +13183,7 @@
         <v>1186</v>
       </c>
       <c r="D589" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -13197,7 +13197,7 @@
         <v>1186</v>
       </c>
       <c r="D590" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -13211,7 +13211,7 @@
         <v>1200</v>
       </c>
       <c r="D591" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -13239,7 +13239,7 @@
         <v>1200</v>
       </c>
       <c r="D593" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -13253,7 +13253,7 @@
         <v>1200</v>
       </c>
       <c r="D594" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -13267,7 +13267,7 @@
         <v>1186</v>
       </c>
       <c r="D595" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -13281,7 +13281,7 @@
         <v>1200</v>
       </c>
       <c r="D596" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -13309,7 +13309,7 @@
         <v>1200</v>
       </c>
       <c r="D598" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -13323,7 +13323,7 @@
         <v>1200</v>
       </c>
       <c r="D599" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -13337,7 +13337,7 @@
         <v>1200</v>
       </c>
       <c r="D600" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -13351,7 +13351,7 @@
         <v>1200</v>
       </c>
       <c r="D601" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -13365,7 +13365,7 @@
         <v>1186</v>
       </c>
       <c r="D602" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -13379,7 +13379,7 @@
         <v>1238</v>
       </c>
       <c r="D603" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -13393,7 +13393,7 @@
         <v>1200</v>
       </c>
       <c r="D604" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -13421,7 +13421,7 @@
         <v>1200</v>
       </c>
       <c r="D606" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -13435,7 +13435,7 @@
         <v>1228</v>
       </c>
       <c r="D607" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -13449,7 +13449,7 @@
         <v>1190</v>
       </c>
       <c r="D608" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -13477,7 +13477,7 @@
         <v>1277</v>
       </c>
       <c r="D610" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -13491,7 +13491,7 @@
         <v>1238</v>
       </c>
       <c r="D611" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -13505,7 +13505,7 @@
         <v>1228</v>
       </c>
       <c r="D612" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -13519,7 +13519,7 @@
         <v>1200</v>
       </c>
       <c r="D613" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -13533,7 +13533,7 @@
         <v>1188</v>
       </c>
       <c r="D614" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -13547,7 +13547,7 @@
         <v>1228</v>
       </c>
       <c r="D615" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -13561,7 +13561,7 @@
         <v>1278</v>
       </c>
       <c r="D616" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -13589,7 +13589,7 @@
         <v>1200</v>
       </c>
       <c r="D618" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -13603,7 +13603,7 @@
         <v>1228</v>
       </c>
       <c r="D619" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -13631,7 +13631,7 @@
         <v>1228</v>
       </c>
       <c r="D621" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -13645,7 +13645,7 @@
         <v>1228</v>
       </c>
       <c r="D622" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -13659,7 +13659,7 @@
         <v>1279</v>
       </c>
       <c r="D623" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -13701,7 +13701,7 @@
         <v>1196</v>
       </c>
       <c r="D626" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -13715,7 +13715,7 @@
         <v>1225</v>
       </c>
       <c r="D627" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -13729,7 +13729,7 @@
         <v>1228</v>
       </c>
       <c r="D628" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -13743,7 +13743,7 @@
         <v>1238</v>
       </c>
       <c r="D629" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -13757,7 +13757,7 @@
         <v>1225</v>
       </c>
       <c r="D630" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -13771,7 +13771,7 @@
         <v>1228</v>
       </c>
       <c r="D631" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -13785,7 +13785,7 @@
         <v>1200</v>
       </c>
       <c r="D632" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -13813,7 +13813,7 @@
         <v>1238</v>
       </c>
       <c r="D634" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -13827,7 +13827,7 @@
         <v>1238</v>
       </c>
       <c r="D635" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -13841,7 +13841,7 @@
         <v>1186</v>
       </c>
       <c r="D636" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -13855,7 +13855,7 @@
         <v>1231</v>
       </c>
       <c r="D637" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -13869,7 +13869,7 @@
         <v>1186</v>
       </c>
       <c r="D638" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -13883,7 +13883,7 @@
         <v>1238</v>
       </c>
       <c r="D639" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -13925,7 +13925,7 @@
         <v>1238</v>
       </c>
       <c r="D642" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -13939,7 +13939,7 @@
         <v>1200</v>
       </c>
       <c r="D643" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -13953,7 +13953,7 @@
         <v>1200</v>
       </c>
       <c r="D644" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -13967,7 +13967,7 @@
         <v>1228</v>
       </c>
       <c r="D645" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -13981,7 +13981,7 @@
         <v>1228</v>
       </c>
       <c r="D646" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="647" spans="1:4">
@@ -13995,7 +13995,7 @@
         <v>1200</v>
       </c>
       <c r="D647" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -14009,7 +14009,7 @@
         <v>1200</v>
       </c>
       <c r="D648" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="649" spans="1:4">
@@ -14023,7 +14023,7 @@
         <v>1239</v>
       </c>
       <c r="D649" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -14037,7 +14037,7 @@
         <v>1196</v>
       </c>
       <c r="D650" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -14051,7 +14051,7 @@
         <v>1228</v>
       </c>
       <c r="D651" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -14065,7 +14065,7 @@
         <v>1200</v>
       </c>
       <c r="D652" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -14079,7 +14079,7 @@
         <v>1200</v>
       </c>
       <c r="D653" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -14093,7 +14093,7 @@
         <v>1188</v>
       </c>
       <c r="D654" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -14107,7 +14107,7 @@
         <v>1242</v>
       </c>
       <c r="D655" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -14121,7 +14121,7 @@
         <v>1200</v>
       </c>
       <c r="D656" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="657" spans="1:4">
@@ -14135,7 +14135,7 @@
         <v>1186</v>
       </c>
       <c r="D657" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -14163,7 +14163,7 @@
         <v>1180</v>
       </c>
       <c r="D659" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="660" spans="1:4">
@@ -14191,7 +14191,7 @@
         <v>1226</v>
       </c>
       <c r="D661" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -14205,7 +14205,7 @@
         <v>1233</v>
       </c>
       <c r="D662" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -14233,7 +14233,7 @@
         <v>1228</v>
       </c>
       <c r="D664" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -14247,7 +14247,7 @@
         <v>1226</v>
       </c>
       <c r="D665" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -14261,7 +14261,7 @@
         <v>1200</v>
       </c>
       <c r="D666" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -14275,7 +14275,7 @@
         <v>1200</v>
       </c>
       <c r="D667" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -14289,7 +14289,7 @@
         <v>1186</v>
       </c>
       <c r="D668" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -14303,7 +14303,7 @@
         <v>1238</v>
       </c>
       <c r="D669" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -14317,7 +14317,7 @@
         <v>1200</v>
       </c>
       <c r="D670" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -14331,7 +14331,7 @@
         <v>1200</v>
       </c>
       <c r="D671" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -14345,7 +14345,7 @@
         <v>1243</v>
       </c>
       <c r="D672" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -14359,7 +14359,7 @@
         <v>1200</v>
       </c>
       <c r="D673" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -14373,7 +14373,7 @@
         <v>1259</v>
       </c>
       <c r="D674" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -14387,7 +14387,7 @@
         <v>1188</v>
       </c>
       <c r="D675" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="676" spans="1:4">
@@ -14401,7 +14401,7 @@
         <v>1180</v>
       </c>
       <c r="D676" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="677" spans="1:4">
@@ -14415,7 +14415,7 @@
         <v>1200</v>
       </c>
       <c r="D677" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -14429,7 +14429,7 @@
         <v>1228</v>
       </c>
       <c r="D678" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -14443,7 +14443,7 @@
         <v>1228</v>
       </c>
       <c r="D679" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -14457,7 +14457,7 @@
         <v>1186</v>
       </c>
       <c r="D680" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -14485,7 +14485,7 @@
         <v>1200</v>
       </c>
       <c r="D682" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -14513,7 +14513,7 @@
         <v>1200</v>
       </c>
       <c r="D684" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -14527,7 +14527,7 @@
         <v>1246</v>
       </c>
       <c r="D685" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -14541,7 +14541,7 @@
         <v>1200</v>
       </c>
       <c r="D686" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -14555,7 +14555,7 @@
         <v>1200</v>
       </c>
       <c r="D687" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -14569,7 +14569,7 @@
         <v>1200</v>
       </c>
       <c r="D688" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -14597,7 +14597,7 @@
         <v>1228</v>
       </c>
       <c r="D690" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -14611,7 +14611,7 @@
         <v>1238</v>
       </c>
       <c r="D691" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -14653,7 +14653,7 @@
         <v>1200</v>
       </c>
       <c r="D694" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -14667,7 +14667,7 @@
         <v>1238</v>
       </c>
       <c r="D695" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -14681,7 +14681,7 @@
         <v>1200</v>
       </c>
       <c r="D696" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -14709,7 +14709,7 @@
         <v>1243</v>
       </c>
       <c r="D698" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -14723,7 +14723,7 @@
         <v>1261</v>
       </c>
       <c r="D699" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -14737,7 +14737,7 @@
         <v>1200</v>
       </c>
       <c r="D700" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -14751,7 +14751,7 @@
         <v>1225</v>
       </c>
       <c r="D701" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -14765,7 +14765,7 @@
         <v>1200</v>
       </c>
       <c r="D702" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -14779,7 +14779,7 @@
         <v>1200</v>
       </c>
       <c r="D703" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -14793,7 +14793,7 @@
         <v>1200</v>
       </c>
       <c r="D704" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -14821,7 +14821,7 @@
         <v>1196</v>
       </c>
       <c r="D706" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -14849,7 +14849,7 @@
         <v>1281</v>
       </c>
       <c r="D708" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -14863,7 +14863,7 @@
         <v>1243</v>
       </c>
       <c r="D709" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -14877,7 +14877,7 @@
         <v>1231</v>
       </c>
       <c r="D710" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -14891,7 +14891,7 @@
         <v>1200</v>
       </c>
       <c r="D711" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -14905,7 +14905,7 @@
         <v>1200</v>
       </c>
       <c r="D712" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -14919,7 +14919,7 @@
         <v>1200</v>
       </c>
       <c r="D713" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -14933,7 +14933,7 @@
         <v>1194</v>
       </c>
       <c r="D714" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -14947,7 +14947,7 @@
         <v>1186</v>
       </c>
       <c r="D715" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -14961,7 +14961,7 @@
         <v>1200</v>
       </c>
       <c r="D716" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -14975,7 +14975,7 @@
         <v>1255</v>
       </c>
       <c r="D717" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -14989,7 +14989,7 @@
         <v>1186</v>
       </c>
       <c r="D718" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -15003,7 +15003,7 @@
         <v>1200</v>
       </c>
       <c r="D719" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -15017,7 +15017,7 @@
         <v>1200</v>
       </c>
       <c r="D720" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -15031,7 +15031,7 @@
         <v>1200</v>
       </c>
       <c r="D721" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -15059,7 +15059,7 @@
         <v>1189</v>
       </c>
       <c r="D723" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -15087,7 +15087,7 @@
         <v>1198</v>
       </c>
       <c r="D725" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -15101,7 +15101,7 @@
         <v>1228</v>
       </c>
       <c r="D726" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -15129,7 +15129,7 @@
         <v>1200</v>
       </c>
       <c r="D728" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -15143,7 +15143,7 @@
         <v>1200</v>
       </c>
       <c r="D729" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -15157,7 +15157,7 @@
         <v>1186</v>
       </c>
       <c r="D730" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -15185,7 +15185,7 @@
         <v>1200</v>
       </c>
       <c r="D732" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -15199,7 +15199,7 @@
         <v>1228</v>
       </c>
       <c r="D733" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -15227,7 +15227,7 @@
         <v>1239</v>
       </c>
       <c r="D735" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -15241,7 +15241,7 @@
         <v>1200</v>
       </c>
       <c r="D736" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -15255,7 +15255,7 @@
         <v>1238</v>
       </c>
       <c r="D737" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -15269,7 +15269,7 @@
         <v>1238</v>
       </c>
       <c r="D738" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -15297,7 +15297,7 @@
         <v>1200</v>
       </c>
       <c r="D740" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -15311,7 +15311,7 @@
         <v>1200</v>
       </c>
       <c r="D741" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -15325,7 +15325,7 @@
         <v>1211</v>
       </c>
       <c r="D742" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -15339,7 +15339,7 @@
         <v>1200</v>
       </c>
       <c r="D743" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -15353,7 +15353,7 @@
         <v>1238</v>
       </c>
       <c r="D744" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -15367,7 +15367,7 @@
         <v>1200</v>
       </c>
       <c r="D745" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -15381,7 +15381,7 @@
         <v>1228</v>
       </c>
       <c r="D746" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -15395,7 +15395,7 @@
         <v>1283</v>
       </c>
       <c r="D747" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -15409,7 +15409,7 @@
         <v>1242</v>
       </c>
       <c r="D748" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -15423,7 +15423,7 @@
         <v>1200</v>
       </c>
       <c r="D749" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -15437,7 +15437,7 @@
         <v>1200</v>
       </c>
       <c r="D750" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -15451,7 +15451,7 @@
         <v>1194</v>
       </c>
       <c r="D751" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -15465,7 +15465,7 @@
         <v>1200</v>
       </c>
       <c r="D752" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -15479,7 +15479,7 @@
         <v>1200</v>
       </c>
       <c r="D753" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -15493,7 +15493,7 @@
         <v>1200</v>
       </c>
       <c r="D754" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -15507,7 +15507,7 @@
         <v>1200</v>
       </c>
       <c r="D755" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -15521,7 +15521,7 @@
         <v>1200</v>
       </c>
       <c r="D756" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -15535,7 +15535,7 @@
         <v>1198</v>
       </c>
       <c r="D757" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -15563,7 +15563,7 @@
         <v>1251</v>
       </c>
       <c r="D759" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -15577,7 +15577,7 @@
         <v>1226</v>
       </c>
       <c r="D760" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -15591,7 +15591,7 @@
         <v>1200</v>
       </c>
       <c r="D761" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -15605,7 +15605,7 @@
         <v>1200</v>
       </c>
       <c r="D762" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -15619,7 +15619,7 @@
         <v>1200</v>
       </c>
       <c r="D763" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -15647,7 +15647,7 @@
         <v>1284</v>
       </c>
       <c r="D765" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -15661,7 +15661,7 @@
         <v>1225</v>
       </c>
       <c r="D766" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -15675,7 +15675,7 @@
         <v>1186</v>
       </c>
       <c r="D767" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -15689,7 +15689,7 @@
         <v>1200</v>
       </c>
       <c r="D768" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -15703,7 +15703,7 @@
         <v>1243</v>
       </c>
       <c r="D769" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -15717,7 +15717,7 @@
         <v>1188</v>
       </c>
       <c r="D770" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -15731,7 +15731,7 @@
         <v>1200</v>
       </c>
       <c r="D771" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -15745,7 +15745,7 @@
         <v>1243</v>
       </c>
       <c r="D772" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -15759,7 +15759,7 @@
         <v>1285</v>
       </c>
       <c r="D773" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -15773,7 +15773,7 @@
         <v>1194</v>
       </c>
       <c r="D774" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -15787,7 +15787,7 @@
         <v>1243</v>
       </c>
       <c r="D775" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -15801,7 +15801,7 @@
         <v>1186</v>
       </c>
       <c r="D776" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -15815,7 +15815,7 @@
         <v>1186</v>
       </c>
       <c r="D777" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="778" spans="1:4">
@@ -15829,7 +15829,7 @@
         <v>1286</v>
       </c>
       <c r="D778" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -15843,7 +15843,7 @@
         <v>1219</v>
       </c>
       <c r="D779" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -15885,7 +15885,7 @@
         <v>1186</v>
       </c>
       <c r="D782" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -15899,7 +15899,7 @@
         <v>1227</v>
       </c>
       <c r="D783" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -15913,7 +15913,7 @@
         <v>1243</v>
       </c>
       <c r="D784" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -15927,7 +15927,7 @@
         <v>1181</v>
       </c>
       <c r="D785" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -15955,7 +15955,7 @@
         <v>1243</v>
       </c>
       <c r="D787" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -15969,7 +15969,7 @@
         <v>1226</v>
       </c>
       <c r="D788" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -15983,7 +15983,7 @@
         <v>1253</v>
       </c>
       <c r="D789" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -15997,7 +15997,7 @@
         <v>1188</v>
       </c>
       <c r="D790" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -16011,7 +16011,7 @@
         <v>1200</v>
       </c>
       <c r="D791" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="792" spans="1:4">
@@ -16025,7 +16025,7 @@
         <v>1234</v>
       </c>
       <c r="D792" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="793" spans="1:4">
@@ -16039,7 +16039,7 @@
         <v>1204</v>
       </c>
       <c r="D793" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="794" spans="1:4">
@@ -16067,7 +16067,7 @@
         <v>1228</v>
       </c>
       <c r="D795" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -16081,7 +16081,7 @@
         <v>1194</v>
       </c>
       <c r="D796" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="797" spans="1:4">
@@ -16095,7 +16095,7 @@
         <v>1186</v>
       </c>
       <c r="D797" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="798" spans="1:4">
@@ -16109,7 +16109,7 @@
         <v>1256</v>
       </c>
       <c r="D798" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -16123,7 +16123,7 @@
         <v>1235</v>
       </c>
       <c r="D799" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="800" spans="1:4">
@@ -16137,7 +16137,7 @@
         <v>1243</v>
       </c>
       <c r="D800" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="801" spans="1:4">
@@ -16151,7 +16151,7 @@
         <v>1242</v>
       </c>
       <c r="D801" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -16193,7 +16193,7 @@
         <v>1186</v>
       </c>
       <c r="D804" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -16207,7 +16207,7 @@
         <v>1186</v>
       </c>
       <c r="D805" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="806" spans="1:4">
@@ -16221,7 +16221,7 @@
         <v>1238</v>
       </c>
       <c r="D806" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="807" spans="1:4">
@@ -16235,7 +16235,7 @@
         <v>1186</v>
       </c>
       <c r="D807" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -16277,7 +16277,7 @@
         <v>1186</v>
       </c>
       <c r="D810" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="811" spans="1:4">
@@ -16291,7 +16291,7 @@
         <v>1200</v>
       </c>
       <c r="D811" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -16319,7 +16319,7 @@
         <v>1186</v>
       </c>
       <c r="D813" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -16333,7 +16333,7 @@
         <v>1243</v>
       </c>
       <c r="D814" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -16347,7 +16347,7 @@
         <v>1198</v>
       </c>
       <c r="D815" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -16358,10 +16358,10 @@
         <v>811</v>
       </c>
       <c r="C816" t="s">
-        <v>1287</v>
+        <v>1238</v>
       </c>
       <c r="D816" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -16375,7 +16375,7 @@
         <v>1228</v>
       </c>
       <c r="D817" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="818" spans="1:4">
@@ -16389,7 +16389,7 @@
         <v>1280</v>
       </c>
       <c r="D818" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -16403,7 +16403,7 @@
         <v>1225</v>
       </c>
       <c r="D819" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="820" spans="1:4">
@@ -16417,7 +16417,7 @@
         <v>1243</v>
       </c>
       <c r="D820" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -16445,7 +16445,7 @@
         <v>1194</v>
       </c>
       <c r="D822" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -16459,7 +16459,7 @@
         <v>1200</v>
       </c>
       <c r="D823" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -16473,7 +16473,7 @@
         <v>1200</v>
       </c>
       <c r="D824" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -16501,7 +16501,7 @@
         <v>1189</v>
       </c>
       <c r="D826" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="827" spans="1:4">
@@ -16543,7 +16543,7 @@
         <v>1200</v>
       </c>
       <c r="D829" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -16557,7 +16557,7 @@
         <v>1228</v>
       </c>
       <c r="D830" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -16571,7 +16571,7 @@
         <v>1200</v>
       </c>
       <c r="D831" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -16585,7 +16585,7 @@
         <v>1228</v>
       </c>
       <c r="D832" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -16599,7 +16599,7 @@
         <v>1228</v>
       </c>
       <c r="D833" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -16627,7 +16627,7 @@
         <v>1190</v>
       </c>
       <c r="D835" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -16641,7 +16641,7 @@
         <v>1242</v>
       </c>
       <c r="D836" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="837" spans="1:4">
@@ -16683,7 +16683,7 @@
         <v>1205</v>
       </c>
       <c r="D839" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -16697,7 +16697,7 @@
         <v>1190</v>
       </c>
       <c r="D840" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -16711,7 +16711,7 @@
         <v>1200</v>
       </c>
       <c r="D841" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="842" spans="1:4">
@@ -16753,7 +16753,7 @@
         <v>1200</v>
       </c>
       <c r="D844" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -16767,7 +16767,7 @@
         <v>1200</v>
       </c>
       <c r="D845" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -16781,7 +16781,7 @@
         <v>1200</v>
       </c>
       <c r="D846" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -16795,7 +16795,7 @@
         <v>1186</v>
       </c>
       <c r="D847" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="848" spans="1:4">
@@ -16809,7 +16809,7 @@
         <v>1200</v>
       </c>
       <c r="D848" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="849" spans="1:4">
@@ -16837,7 +16837,7 @@
         <v>1186</v>
       </c>
       <c r="D850" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -16865,7 +16865,7 @@
         <v>1200</v>
       </c>
       <c r="D852" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="853" spans="1:4">
@@ -16907,7 +16907,7 @@
         <v>1200</v>
       </c>
       <c r="D855" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="856" spans="1:4">
@@ -16921,7 +16921,7 @@
         <v>1200</v>
       </c>
       <c r="D856" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -16949,7 +16949,7 @@
         <v>1228</v>
       </c>
       <c r="D858" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="859" spans="1:4">
@@ -16963,7 +16963,7 @@
         <v>1200</v>
       </c>
       <c r="D859" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -17019,7 +17019,7 @@
         <v>1200</v>
       </c>
       <c r="D863" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="864" spans="1:4">
@@ -17030,10 +17030,10 @@
         <v>857</v>
       </c>
       <c r="C864" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D864" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -17047,7 +17047,7 @@
         <v>1243</v>
       </c>
       <c r="D865" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -17061,7 +17061,7 @@
         <v>1228</v>
       </c>
       <c r="D866" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="867" spans="1:4">
@@ -17075,7 +17075,7 @@
         <v>1243</v>
       </c>
       <c r="D867" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="868" spans="1:4">
@@ -17089,7 +17089,7 @@
         <v>1238</v>
       </c>
       <c r="D868" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -17103,7 +17103,7 @@
         <v>1238</v>
       </c>
       <c r="D869" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -17117,7 +17117,7 @@
         <v>1243</v>
       </c>
       <c r="D870" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="871" spans="1:4">
@@ -17131,7 +17131,7 @@
         <v>1200</v>
       </c>
       <c r="D871" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="872" spans="1:4">
@@ -17159,7 +17159,7 @@
         <v>1200</v>
       </c>
       <c r="D873" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="874" spans="1:4">
@@ -17173,7 +17173,7 @@
         <v>1243</v>
       </c>
       <c r="D874" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="875" spans="1:4">
@@ -17187,7 +17187,7 @@
         <v>1243</v>
       </c>
       <c r="D875" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -17215,7 +17215,7 @@
         <v>1238</v>
       </c>
       <c r="D877" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="878" spans="1:4">
@@ -17243,7 +17243,7 @@
         <v>1200</v>
       </c>
       <c r="D879" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -17271,7 +17271,7 @@
         <v>1200</v>
       </c>
       <c r="D881" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -17313,7 +17313,7 @@
         <v>1186</v>
       </c>
       <c r="D884" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="885" spans="1:4">
@@ -17324,10 +17324,10 @@
         <v>876</v>
       </c>
       <c r="C885" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D885" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="886" spans="1:4">
@@ -17341,7 +17341,7 @@
         <v>1186</v>
       </c>
       <c r="D886" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="887" spans="1:4">
@@ -17355,7 +17355,7 @@
         <v>1233</v>
       </c>
       <c r="D887" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="888" spans="1:4">
@@ -17369,7 +17369,7 @@
         <v>1200</v>
       </c>
       <c r="D888" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="889" spans="1:4">
@@ -17380,10 +17380,10 @@
         <v>880</v>
       </c>
       <c r="C889" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D889" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="890" spans="1:4">
@@ -17397,7 +17397,7 @@
         <v>1200</v>
       </c>
       <c r="D890" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="891" spans="1:4">
@@ -17411,7 +17411,7 @@
         <v>1200</v>
       </c>
       <c r="D891" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="892" spans="1:4">
@@ -17425,7 +17425,7 @@
         <v>1200</v>
       </c>
       <c r="D892" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="893" spans="1:4">
@@ -17439,7 +17439,7 @@
         <v>1190</v>
       </c>
       <c r="D893" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -17453,7 +17453,7 @@
         <v>1263</v>
       </c>
       <c r="D894" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="895" spans="1:4">
@@ -17467,7 +17467,7 @@
         <v>1238</v>
       </c>
       <c r="D895" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="896" spans="1:4">
@@ -17481,7 +17481,7 @@
         <v>1186</v>
       </c>
       <c r="D896" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="897" spans="1:4">
@@ -17492,10 +17492,10 @@
         <v>888</v>
       </c>
       <c r="C897" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D897" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -17509,7 +17509,7 @@
         <v>1228</v>
       </c>
       <c r="D898" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="899" spans="1:4">
@@ -17523,7 +17523,7 @@
         <v>1186</v>
       </c>
       <c r="D899" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="900" spans="1:4">
@@ -17537,7 +17537,7 @@
         <v>1186</v>
       </c>
       <c r="D900" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="901" spans="1:4">
@@ -17551,7 +17551,7 @@
         <v>1243</v>
       </c>
       <c r="D901" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="902" spans="1:4">
@@ -17593,7 +17593,7 @@
         <v>1228</v>
       </c>
       <c r="D904" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="905" spans="1:4">
@@ -17607,7 +17607,7 @@
         <v>1238</v>
       </c>
       <c r="D905" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="906" spans="1:4">
@@ -17621,7 +17621,7 @@
         <v>1200</v>
       </c>
       <c r="D906" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -17635,7 +17635,7 @@
         <v>1238</v>
       </c>
       <c r="D907" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="908" spans="1:4">
@@ -17649,7 +17649,7 @@
         <v>1200</v>
       </c>
       <c r="D908" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="909" spans="1:4">
@@ -17663,7 +17663,7 @@
         <v>1186</v>
       </c>
       <c r="D909" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="910" spans="1:4">
@@ -17691,7 +17691,7 @@
         <v>1200</v>
       </c>
       <c r="D911" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="912" spans="1:4">
@@ -17719,7 +17719,7 @@
         <v>1228</v>
       </c>
       <c r="D913" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -17744,10 +17744,10 @@
         <v>902</v>
       </c>
       <c r="C915" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D915" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -17803,7 +17803,7 @@
         <v>1200</v>
       </c>
       <c r="D919" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="920" spans="1:4">
@@ -17845,7 +17845,7 @@
         <v>1243</v>
       </c>
       <c r="D922" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="923" spans="1:4">
@@ -17859,7 +17859,7 @@
         <v>1239</v>
       </c>
       <c r="D923" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="924" spans="1:4">
@@ -17887,7 +17887,7 @@
         <v>1200</v>
       </c>
       <c r="D925" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="926" spans="1:4">
@@ -17901,7 +17901,7 @@
         <v>1198</v>
       </c>
       <c r="D926" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="927" spans="1:4">
@@ -17915,7 +17915,7 @@
         <v>1238</v>
       </c>
       <c r="D927" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="928" spans="1:4">
@@ -17943,7 +17943,7 @@
         <v>1186</v>
       </c>
       <c r="D929" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="930" spans="1:4">
@@ -17971,7 +17971,7 @@
         <v>1228</v>
       </c>
       <c r="D931" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="932" spans="1:4">
@@ -17999,7 +17999,7 @@
         <v>1186</v>
       </c>
       <c r="D933" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="934" spans="1:4">
@@ -18013,7 +18013,7 @@
         <v>1243</v>
       </c>
       <c r="D934" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="935" spans="1:4">
@@ -18027,7 +18027,7 @@
         <v>1243</v>
       </c>
       <c r="D935" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="936" spans="1:4">
@@ -18041,7 +18041,7 @@
         <v>1243</v>
       </c>
       <c r="D936" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="937" spans="1:4">
@@ -18069,7 +18069,7 @@
         <v>1183</v>
       </c>
       <c r="D938" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="939" spans="1:4">
@@ -18083,7 +18083,7 @@
         <v>1243</v>
       </c>
       <c r="D939" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="940" spans="1:4">
@@ -18111,7 +18111,7 @@
         <v>1228</v>
       </c>
       <c r="D941" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="942" spans="1:4">
@@ -18153,7 +18153,7 @@
         <v>1238</v>
       </c>
       <c r="D944" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="945" spans="1:4">
@@ -18167,7 +18167,7 @@
         <v>1243</v>
       </c>
       <c r="D945" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="946" spans="1:4">
@@ -18181,7 +18181,7 @@
         <v>1217</v>
       </c>
       <c r="D946" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="947" spans="1:4">
@@ -18195,7 +18195,7 @@
         <v>1200</v>
       </c>
       <c r="D947" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="948" spans="1:4">
@@ -18237,7 +18237,7 @@
         <v>1186</v>
       </c>
       <c r="D950" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="951" spans="1:4">
@@ -18265,7 +18265,7 @@
         <v>1243</v>
       </c>
       <c r="D952" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="953" spans="1:4">
@@ -18293,7 +18293,7 @@
         <v>1186</v>
       </c>
       <c r="D954" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="955" spans="1:4">
@@ -18321,7 +18321,7 @@
         <v>1238</v>
       </c>
       <c r="D956" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="957" spans="1:4">
@@ -18335,7 +18335,7 @@
         <v>1243</v>
       </c>
       <c r="D957" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="958" spans="1:4">
@@ -18349,7 +18349,7 @@
         <v>1243</v>
       </c>
       <c r="D958" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="959" spans="1:4">
@@ -18363,7 +18363,7 @@
         <v>1243</v>
       </c>
       <c r="D959" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="960" spans="1:4">
@@ -18377,7 +18377,7 @@
         <v>1200</v>
       </c>
       <c r="D960" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="961" spans="1:4">
@@ -18391,7 +18391,7 @@
         <v>1225</v>
       </c>
       <c r="D961" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="962" spans="1:4">
@@ -18405,7 +18405,7 @@
         <v>1186</v>
       </c>
       <c r="D962" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="963" spans="1:4">
@@ -18419,7 +18419,7 @@
         <v>1200</v>
       </c>
       <c r="D963" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="964" spans="1:4">
@@ -18433,7 +18433,7 @@
         <v>1186</v>
       </c>
       <c r="D964" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="965" spans="1:4">
@@ -18447,7 +18447,7 @@
         <v>1243</v>
       </c>
       <c r="D965" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="966" spans="1:4">
@@ -18461,7 +18461,7 @@
         <v>1243</v>
       </c>
       <c r="D966" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="967" spans="1:4">
@@ -18475,7 +18475,7 @@
         <v>1243</v>
       </c>
       <c r="D967" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="968" spans="1:4">
@@ -18489,7 +18489,7 @@
         <v>1228</v>
       </c>
       <c r="D968" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="969" spans="1:4">
@@ -18503,7 +18503,7 @@
         <v>1243</v>
       </c>
       <c r="D969" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="970" spans="1:4">
@@ -18517,7 +18517,7 @@
         <v>1243</v>
       </c>
       <c r="D970" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="971" spans="1:4">
@@ -18531,7 +18531,7 @@
         <v>1239</v>
       </c>
       <c r="D971" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="972" spans="1:4">
@@ -18559,7 +18559,7 @@
         <v>1243</v>
       </c>
       <c r="D973" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="974" spans="1:4">
@@ -18601,7 +18601,7 @@
         <v>1243</v>
       </c>
       <c r="D976" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="977" spans="1:4">
@@ -18615,7 +18615,7 @@
         <v>1243</v>
       </c>
       <c r="D977" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="978" spans="1:4">
@@ -18629,7 +18629,7 @@
         <v>1243</v>
       </c>
       <c r="D978" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="979" spans="1:4">
@@ -18643,7 +18643,7 @@
         <v>1243</v>
       </c>
       <c r="D979" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="980" spans="1:4">
@@ -18657,7 +18657,7 @@
         <v>1243</v>
       </c>
       <c r="D980" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="981" spans="1:4">
@@ -18671,7 +18671,7 @@
         <v>1238</v>
       </c>
       <c r="D981" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="982" spans="1:4">
@@ -18685,7 +18685,7 @@
         <v>1238</v>
       </c>
       <c r="D982" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="983" spans="1:4">
@@ -18713,7 +18713,7 @@
         <v>1214</v>
       </c>
       <c r="D984" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -18741,7 +18741,7 @@
         <v>1243</v>
       </c>
       <c r="D986" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="987" spans="1:4">
@@ -18755,7 +18755,7 @@
         <v>1243</v>
       </c>
       <c r="D987" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="988" spans="1:4">
@@ -18769,7 +18769,7 @@
         <v>1243</v>
       </c>
       <c r="D988" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="989" spans="1:4">
@@ -18783,7 +18783,7 @@
         <v>1228</v>
       </c>
       <c r="D989" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="990" spans="1:4">
@@ -18797,7 +18797,7 @@
         <v>1186</v>
       </c>
       <c r="D990" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="991" spans="1:4">
@@ -18811,7 +18811,7 @@
         <v>1228</v>
       </c>
       <c r="D991" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="992" spans="1:4">
@@ -18825,7 +18825,7 @@
         <v>1243</v>
       </c>
       <c r="D992" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="993" spans="1:4">
@@ -18839,7 +18839,7 @@
         <v>1186</v>
       </c>
       <c r="D993" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="994" spans="1:4">
@@ -18881,7 +18881,7 @@
         <v>1200</v>
       </c>
       <c r="D996" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="997" spans="1:4">
@@ -18909,7 +18909,7 @@
         <v>1243</v>
       </c>
       <c r="D998" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="999" spans="1:4">
@@ -18923,7 +18923,7 @@
         <v>1243</v>
       </c>
       <c r="D999" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1000" spans="1:4">
@@ -18951,7 +18951,7 @@
         <v>1243</v>
       </c>
       <c r="D1001" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1002" spans="1:4">
@@ -18965,7 +18965,7 @@
         <v>1238</v>
       </c>
       <c r="D1002" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1003" spans="1:4">
@@ -18979,7 +18979,7 @@
         <v>1198</v>
       </c>
       <c r="D1003" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1004" spans="1:4">
@@ -18993,7 +18993,7 @@
         <v>1243</v>
       </c>
       <c r="D1004" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1005" spans="1:4">
@@ -19004,7 +19004,7 @@
         <v>690</v>
       </c>
       <c r="C1005" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D1005" t="s">
         <v>1434</v>
@@ -19035,7 +19035,7 @@
         <v>1243</v>
       </c>
       <c r="D1007" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1008" spans="1:4">
@@ -19049,7 +19049,7 @@
         <v>1243</v>
       </c>
       <c r="D1008" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1009" spans="1:4">
@@ -19063,7 +19063,7 @@
         <v>1244</v>
       </c>
       <c r="D1009" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1010" spans="1:4">
@@ -19077,7 +19077,7 @@
         <v>1228</v>
       </c>
       <c r="D1010" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1011" spans="1:4">
@@ -19091,7 +19091,7 @@
         <v>1243</v>
       </c>
       <c r="D1011" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1012" spans="1:4">
@@ -19105,7 +19105,7 @@
         <v>1243</v>
       </c>
       <c r="D1012" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1013" spans="1:4">
@@ -19175,7 +19175,7 @@
         <v>1238</v>
       </c>
       <c r="D1017" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1018" spans="1:4">
@@ -19189,7 +19189,7 @@
         <v>1238</v>
       </c>
       <c r="D1018" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1019" spans="1:4">
@@ -19203,7 +19203,7 @@
         <v>1186</v>
       </c>
       <c r="D1019" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1020" spans="1:4">
@@ -19228,10 +19228,10 @@
         <v>998</v>
       </c>
       <c r="C1021" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D1021" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1022" spans="1:4">
@@ -19256,7 +19256,7 @@
         <v>1000</v>
       </c>
       <c r="C1023" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D1023" t="s">
         <v>1458</v>
@@ -19329,7 +19329,7 @@
         <v>1238</v>
       </c>
       <c r="D1028" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1029" spans="1:4">
@@ -19343,7 +19343,7 @@
         <v>1186</v>
       </c>
       <c r="D1029" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1030" spans="1:4">
@@ -19357,7 +19357,7 @@
         <v>1233</v>
       </c>
       <c r="D1030" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1031" spans="1:4">
@@ -19382,10 +19382,10 @@
         <v>1007</v>
       </c>
       <c r="C1032" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D1032" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1033" spans="1:4">
@@ -19399,7 +19399,7 @@
         <v>1188</v>
       </c>
       <c r="D1033" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1034" spans="1:4">
@@ -19410,7 +19410,7 @@
         <v>1009</v>
       </c>
       <c r="C1034" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D1034" t="s">
         <v>1464</v>
@@ -19427,7 +19427,7 @@
         <v>1236</v>
       </c>
       <c r="D1035" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1036" spans="1:4">
@@ -19441,7 +19441,7 @@
         <v>1233</v>
       </c>
       <c r="D1036" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1037" spans="1:4">
@@ -19455,7 +19455,7 @@
         <v>1188</v>
       </c>
       <c r="D1037" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1038" spans="1:4">
@@ -19466,10 +19466,10 @@
         <v>1013</v>
       </c>
       <c r="C1038" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D1038" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1039" spans="1:4">
@@ -19494,10 +19494,10 @@
         <v>1014</v>
       </c>
       <c r="C1040" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D1040" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1041" spans="1:4">
@@ -19511,7 +19511,7 @@
         <v>1271</v>
       </c>
       <c r="D1041" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1042" spans="1:4">
@@ -19525,7 +19525,7 @@
         <v>1225</v>
       </c>
       <c r="D1042" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1043" spans="1:4">
@@ -19553,7 +19553,7 @@
         <v>1194</v>
       </c>
       <c r="D1044" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1045" spans="1:4">
@@ -19567,7 +19567,7 @@
         <v>1240</v>
       </c>
       <c r="D1045" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -19592,10 +19592,10 @@
         <v>1020</v>
       </c>
       <c r="C1047" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D1047" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
@@ -19609,7 +19609,7 @@
         <v>1233</v>
       </c>
       <c r="D1048" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1049" spans="1:4">
@@ -19662,10 +19662,10 @@
         <v>1024</v>
       </c>
       <c r="C1052" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D1052" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1053" spans="1:4">
@@ -19679,7 +19679,7 @@
         <v>1186</v>
       </c>
       <c r="D1053" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1054" spans="1:4">
@@ -19693,7 +19693,7 @@
         <v>1186</v>
       </c>
       <c r="D1054" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1055" spans="1:4">
@@ -19707,7 +19707,7 @@
         <v>1186</v>
       </c>
       <c r="D1055" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1056" spans="1:4">
@@ -19718,10 +19718,10 @@
         <v>1028</v>
       </c>
       <c r="C1056" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D1056" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1057" spans="1:4">
@@ -19735,7 +19735,7 @@
         <v>1226</v>
       </c>
       <c r="D1057" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1058" spans="1:4">
@@ -19749,7 +19749,7 @@
         <v>1180</v>
       </c>
       <c r="D1058" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1059" spans="1:4">
@@ -19791,7 +19791,7 @@
         <v>1188</v>
       </c>
       <c r="D1061" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1062" spans="1:4">
@@ -19802,10 +19802,10 @@
         <v>1033</v>
       </c>
       <c r="C1062" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D1062" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1063" spans="1:4">
@@ -19819,7 +19819,7 @@
         <v>1190</v>
       </c>
       <c r="D1063" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1064" spans="1:4">
@@ -19830,10 +19830,10 @@
         <v>1035</v>
       </c>
       <c r="C1064" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D1064" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1065" spans="1:4">
@@ -19861,7 +19861,7 @@
         <v>1242</v>
       </c>
       <c r="D1066" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1067" spans="1:4">
@@ -19875,7 +19875,7 @@
         <v>1266</v>
       </c>
       <c r="D1067" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1068" spans="1:4">
@@ -19903,7 +19903,7 @@
         <v>1232</v>
       </c>
       <c r="D1069" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -19914,10 +19914,10 @@
         <v>1041</v>
       </c>
       <c r="C1070" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D1070" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1071" spans="1:4">
@@ -19942,10 +19942,10 @@
         <v>1043</v>
       </c>
       <c r="C1072" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D1072" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1073" spans="1:4">
@@ -19959,7 +19959,7 @@
         <v>1235</v>
       </c>
       <c r="D1073" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1074" spans="1:4">
@@ -19973,7 +19973,7 @@
         <v>1225</v>
       </c>
       <c r="D1074" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1075" spans="1:4">
@@ -19987,7 +19987,7 @@
         <v>1239</v>
       </c>
       <c r="D1075" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1076" spans="1:4">
@@ -20015,7 +20015,7 @@
         <v>1280</v>
       </c>
       <c r="D1077" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1078" spans="1:4">
@@ -20029,7 +20029,7 @@
         <v>1181</v>
       </c>
       <c r="D1078" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1079" spans="1:4">
@@ -20043,7 +20043,7 @@
         <v>1226</v>
       </c>
       <c r="D1079" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1080" spans="1:4">
@@ -20071,7 +20071,7 @@
         <v>1231</v>
       </c>
       <c r="D1081" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1082" spans="1:4">
@@ -20082,7 +20082,7 @@
         <v>694</v>
       </c>
       <c r="C1082" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D1082" t="s">
         <v>1478</v>
@@ -20099,7 +20099,7 @@
         <v>1231</v>
       </c>
       <c r="D1083" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1084" spans="1:4">
@@ -20113,7 +20113,7 @@
         <v>1226</v>
       </c>
       <c r="D1084" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1085" spans="1:4">
@@ -20127,7 +20127,7 @@
         <v>1181</v>
       </c>
       <c r="D1085" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1086" spans="1:4">
@@ -20141,7 +20141,7 @@
         <v>1277</v>
       </c>
       <c r="D1086" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1087" spans="1:4">
@@ -20155,7 +20155,7 @@
         <v>1212</v>
       </c>
       <c r="D1087" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -20169,7 +20169,7 @@
         <v>1233</v>
       </c>
       <c r="D1088" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1089" spans="1:4">
@@ -20183,7 +20183,7 @@
         <v>1181</v>
       </c>
       <c r="D1089" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1090" spans="1:4">
@@ -20197,7 +20197,7 @@
         <v>1232</v>
       </c>
       <c r="D1090" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1091" spans="1:4">
@@ -20239,7 +20239,7 @@
         <v>1242</v>
       </c>
       <c r="D1093" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1094" spans="1:4">
@@ -20253,7 +20253,7 @@
         <v>1231</v>
       </c>
       <c r="D1094" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1095" spans="1:4">
@@ -20264,7 +20264,7 @@
         <v>1063</v>
       </c>
       <c r="C1095" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D1095" t="s">
         <v>1481</v>
@@ -20281,7 +20281,7 @@
         <v>1195</v>
       </c>
       <c r="D1096" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1097" spans="1:4">
@@ -20295,7 +20295,7 @@
         <v>1191</v>
       </c>
       <c r="D1097" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1098" spans="1:4">
@@ -20309,7 +20309,7 @@
         <v>1231</v>
       </c>
       <c r="D1098" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1099" spans="1:4">
@@ -20323,7 +20323,7 @@
         <v>1280</v>
       </c>
       <c r="D1099" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1100" spans="1:4">
@@ -20337,7 +20337,7 @@
         <v>1211</v>
       </c>
       <c r="D1100" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1101" spans="1:4">
@@ -20365,7 +20365,7 @@
         <v>1211</v>
       </c>
       <c r="D1102" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1103" spans="1:4">
@@ -20379,7 +20379,7 @@
         <v>1180</v>
       </c>
       <c r="D1103" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1104" spans="1:4">
@@ -20393,7 +20393,7 @@
         <v>1188</v>
       </c>
       <c r="D1104" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1105" spans="1:4">
@@ -20404,10 +20404,10 @@
         <v>1072</v>
       </c>
       <c r="C1105" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D1105" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1106" spans="1:4">
@@ -20421,7 +20421,7 @@
         <v>1258</v>
       </c>
       <c r="D1106" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1107" spans="1:4">
@@ -20435,7 +20435,7 @@
         <v>1189</v>
       </c>
       <c r="D1107" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1108" spans="1:4">
@@ -20449,7 +20449,7 @@
         <v>1244</v>
       </c>
       <c r="D1108" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1109" spans="1:4">
@@ -20463,7 +20463,7 @@
         <v>1180</v>
       </c>
       <c r="D1109" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1110" spans="1:4">
@@ -20477,7 +20477,7 @@
         <v>1231</v>
       </c>
       <c r="D1110" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1111" spans="1:4">
@@ -20491,7 +20491,7 @@
         <v>1191</v>
       </c>
       <c r="D1111" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1112" spans="1:4">
@@ -20505,7 +20505,7 @@
         <v>1190</v>
       </c>
       <c r="D1112" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1113" spans="1:4">
@@ -20516,10 +20516,10 @@
         <v>1080</v>
       </c>
       <c r="C1113" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D1113" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1114" spans="1:4">
@@ -20533,7 +20533,7 @@
         <v>1226</v>
       </c>
       <c r="D1114" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1115" spans="1:4">
@@ -20589,7 +20589,7 @@
         <v>1211</v>
       </c>
       <c r="D1118" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1119" spans="1:4">
@@ -20603,7 +20603,7 @@
         <v>1226</v>
       </c>
       <c r="D1119" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1120" spans="1:4">
@@ -20617,7 +20617,7 @@
         <v>1242</v>
       </c>
       <c r="D1120" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1121" spans="1:4">
@@ -20645,7 +20645,7 @@
         <v>1225</v>
       </c>
       <c r="D1122" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1123" spans="1:4">
@@ -20659,7 +20659,7 @@
         <v>1231</v>
       </c>
       <c r="D1123" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1124" spans="1:4">
@@ -20673,7 +20673,7 @@
         <v>1267</v>
       </c>
       <c r="D1124" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1125" spans="1:4">
@@ -20701,7 +20701,7 @@
         <v>1188</v>
       </c>
       <c r="D1126" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1127" spans="1:4">
@@ -20740,10 +20740,10 @@
         <v>1093</v>
       </c>
       <c r="C1129" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D1129" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1130" spans="1:4">
@@ -20771,7 +20771,7 @@
         <v>1191</v>
       </c>
       <c r="D1131" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1132" spans="1:4">
@@ -20785,7 +20785,7 @@
         <v>1190</v>
       </c>
       <c r="D1132" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1133" spans="1:4">
@@ -20799,7 +20799,7 @@
         <v>1188</v>
       </c>
       <c r="D1133" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1134" spans="1:4">
@@ -20855,7 +20855,7 @@
         <v>1251</v>
       </c>
       <c r="D1137" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1138" spans="1:4">
@@ -20869,7 +20869,7 @@
         <v>1195</v>
       </c>
       <c r="D1138" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1139" spans="1:4">
@@ -20883,7 +20883,7 @@
         <v>1226</v>
       </c>
       <c r="D1139" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1140" spans="1:4">
@@ -20897,7 +20897,7 @@
         <v>1234</v>
       </c>
       <c r="D1140" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1141" spans="1:4">
@@ -20939,7 +20939,7 @@
         <v>1181</v>
       </c>
       <c r="D1143" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1144" spans="1:4">
@@ -20950,10 +20950,10 @@
         <v>1107</v>
       </c>
       <c r="C1144" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D1144" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1145" spans="1:4">
@@ -21006,7 +21006,7 @@
         <v>997</v>
       </c>
       <c r="C1148" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D1148" t="s">
         <v>1495</v>
@@ -21023,7 +21023,7 @@
         <v>1181</v>
       </c>
       <c r="D1149" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1150" spans="1:4">
@@ -21037,7 +21037,7 @@
         <v>1242</v>
       </c>
       <c r="D1150" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1151" spans="1:4">
@@ -21051,7 +21051,7 @@
         <v>1247</v>
       </c>
       <c r="D1151" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1152" spans="1:4">
@@ -21065,7 +21065,7 @@
         <v>1243</v>
       </c>
       <c r="D1152" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1153" spans="1:4">
@@ -21090,10 +21090,10 @@
         <v>1114</v>
       </c>
       <c r="C1154" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D1154" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1155" spans="1:4">
@@ -21107,7 +21107,7 @@
         <v>1204</v>
       </c>
       <c r="D1155" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1156" spans="1:4">
@@ -21149,7 +21149,7 @@
         <v>1194</v>
       </c>
       <c r="D1158" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1159" spans="1:4">
@@ -21191,7 +21191,7 @@
         <v>1195</v>
       </c>
       <c r="D1161" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1162" spans="1:4">
@@ -21205,7 +21205,7 @@
         <v>1226</v>
       </c>
       <c r="D1162" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1163" spans="1:4">
@@ -21219,7 +21219,7 @@
         <v>1191</v>
       </c>
       <c r="D1163" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1164" spans="1:4">
@@ -21289,7 +21289,7 @@
         <v>1236</v>
       </c>
       <c r="D1168" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1169" spans="1:4">
@@ -21303,7 +21303,7 @@
         <v>1188</v>
       </c>
       <c r="D1169" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1170" spans="1:4">
@@ -21314,10 +21314,10 @@
         <v>1127</v>
       </c>
       <c r="C1170" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D1170" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1171" spans="1:4">
@@ -21331,7 +21331,7 @@
         <v>1211</v>
       </c>
       <c r="D1171" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1172" spans="1:4">
@@ -21345,7 +21345,7 @@
         <v>1231</v>
       </c>
       <c r="D1172" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1173" spans="1:4">
@@ -21359,7 +21359,7 @@
         <v>1196</v>
       </c>
       <c r="D1173" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1174" spans="1:4">
@@ -21373,7 +21373,7 @@
         <v>1233</v>
       </c>
       <c r="D1174" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1175" spans="1:4">
@@ -21387,7 +21387,7 @@
         <v>1190</v>
       </c>
       <c r="D1175" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1176" spans="1:4">
@@ -21401,7 +21401,7 @@
         <v>1195</v>
       </c>
       <c r="D1176" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1177" spans="1:4">
@@ -21415,7 +21415,7 @@
         <v>1195</v>
       </c>
       <c r="D1177" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1178" spans="1:4">
@@ -21457,7 +21457,7 @@
         <v>1242</v>
       </c>
       <c r="D1180" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1181" spans="1:4">
@@ -21471,7 +21471,7 @@
         <v>1180</v>
       </c>
       <c r="D1181" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1182" spans="1:4">
@@ -21499,7 +21499,7 @@
         <v>1190</v>
       </c>
       <c r="D1183" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1184" spans="1:4">
@@ -21513,7 +21513,7 @@
         <v>1204</v>
       </c>
       <c r="D1184" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1185" spans="1:4">
@@ -21524,10 +21524,10 @@
         <v>1139</v>
       </c>
       <c r="C1185" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D1185" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1186" spans="1:4">
@@ -21541,7 +21541,7 @@
         <v>1219</v>
       </c>
       <c r="D1186" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1187" spans="1:4">
@@ -21555,7 +21555,7 @@
         <v>1188</v>
       </c>
       <c r="D1187" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1188" spans="1:4">
@@ -21569,7 +21569,7 @@
         <v>1235</v>
       </c>
       <c r="D1188" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1189" spans="1:4">
@@ -21653,7 +21653,7 @@
         <v>1191</v>
       </c>
       <c r="D1194" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1195" spans="1:4">
@@ -21664,7 +21664,7 @@
         <v>1148</v>
       </c>
       <c r="C1195" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D1195" t="s">
         <v>1512</v>
@@ -21681,7 +21681,7 @@
         <v>1203</v>
       </c>
       <c r="D1196" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1197" spans="1:4">
@@ -21695,7 +21695,7 @@
         <v>1202</v>
       </c>
       <c r="D1197" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1198" spans="1:4">
@@ -21709,7 +21709,7 @@
         <v>1191</v>
       </c>
       <c r="D1198" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1199" spans="1:4">
@@ -21723,7 +21723,7 @@
         <v>1239</v>
       </c>
       <c r="D1199" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1200" spans="1:4">
@@ -21737,7 +21737,7 @@
         <v>1232</v>
       </c>
       <c r="D1200" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1201" spans="1:4">
@@ -21751,7 +21751,7 @@
         <v>1180</v>
       </c>
       <c r="D1201" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1202" spans="1:4">
@@ -21790,10 +21790,10 @@
         <v>1157</v>
       </c>
       <c r="C1204" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D1204" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1205" spans="1:4">
@@ -21807,7 +21807,7 @@
         <v>1180</v>
       </c>
       <c r="D1205" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1206" spans="1:4">
@@ -21821,7 +21821,7 @@
         <v>1239</v>
       </c>
       <c r="D1206" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1207" spans="1:4">
@@ -21835,7 +21835,7 @@
         <v>1191</v>
       </c>
       <c r="D1207" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1208" spans="1:4">
@@ -21849,7 +21849,7 @@
         <v>1191</v>
       </c>
       <c r="D1208" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1209" spans="1:4">
@@ -21863,7 +21863,7 @@
         <v>1180</v>
       </c>
       <c r="D1209" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1210" spans="1:4">
@@ -21905,7 +21905,7 @@
         <v>1232</v>
       </c>
       <c r="D1212" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1213" spans="1:4">
@@ -21919,7 +21919,7 @@
         <v>1211</v>
       </c>
       <c r="D1213" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1214" spans="1:4">
@@ -21947,7 +21947,7 @@
         <v>1191</v>
       </c>
       <c r="D1215" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1216" spans="1:4">
@@ -21961,7 +21961,7 @@
         <v>1191</v>
       </c>
       <c r="D1216" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1217" spans="1:4">
@@ -21975,7 +21975,7 @@
         <v>1232</v>
       </c>
       <c r="D1217" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1218" spans="1:4">
@@ -22003,7 +22003,7 @@
         <v>1281</v>
       </c>
       <c r="D1219" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1220" spans="1:4">
@@ -22014,10 +22014,10 @@
         <v>1172</v>
       </c>
       <c r="C1220" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D1220" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1221" spans="1:4">
@@ -22045,7 +22045,7 @@
         <v>1191</v>
       </c>
       <c r="D1222" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1223" spans="1:4">
@@ -22059,7 +22059,7 @@
         <v>1180</v>
       </c>
       <c r="D1223" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1224" spans="1:4">
@@ -22073,7 +22073,7 @@
         <v>1191</v>
       </c>
       <c r="D1224" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1225" spans="1:4">
@@ -22084,10 +22084,10 @@
         <v>1177</v>
       </c>
       <c r="C1225" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D1225" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1226" spans="1:4">
@@ -22101,7 +22101,7 @@
         <v>1191</v>
       </c>
       <c r="D1226" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1227" spans="1:4">
@@ -22115,7 +22115,7 @@
         <v>1191</v>
       </c>
       <c r="D1227" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
   </sheetData>

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -7968,7 +7968,7 @@
         <v>203</v>
       </c>
       <c r="C203" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="D203" t="s">
         <v>1275</v>
@@ -11454,7 +11454,7 @@
         <v>437</v>
       </c>
       <c r="C452" t="s">
-        <v>1103</v>
+        <v>1148</v>
       </c>
       <c r="D452" t="s">
         <v>1247</v>
@@ -15066,7 +15066,7 @@
         <v>662</v>
       </c>
       <c r="C710" t="s">
-        <v>1101</v>
+        <v>1137</v>
       </c>
       <c r="D710" t="s">
         <v>1233</v>

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -7047,7 +7047,7 @@
         <v>1099</v>
       </c>
       <c r="D137" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -15251,7 +15251,7 @@
         <v>1094</v>
       </c>
       <c r="D723" t="s">
-        <v>1234</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="724" spans="1:4">

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="1581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="1580">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -727,7 +727,7 @@
     <t>German Marquez</t>
   </si>
   <si>
-    <t>Jeimer</t>
+    <t>Jeimer Candelario</t>
   </si>
   <si>
     <t>Tyler Stephenson</t>
@@ -3872,9 +3872,6 @@
   </si>
   <si>
     <t>Syndergaard</t>
-  </si>
-  <si>
-    <t>Candelario</t>
   </si>
   <si>
     <t>Myers</t>
@@ -8441,7 +8438,7 @@
         <v>1099</v>
       </c>
       <c r="D237" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -8469,7 +8466,7 @@
         <v>1153</v>
       </c>
       <c r="D239" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -8609,7 +8606,7 @@
         <v>1105</v>
       </c>
       <c r="D249" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -8679,7 +8676,7 @@
         <v>1109</v>
       </c>
       <c r="D254" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -8693,7 +8690,7 @@
         <v>1146</v>
       </c>
       <c r="D255" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -8805,7 +8802,7 @@
         <v>1154</v>
       </c>
       <c r="D263" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -8861,7 +8858,7 @@
         <v>1095</v>
       </c>
       <c r="D267" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -8931,7 +8928,7 @@
         <v>1136</v>
       </c>
       <c r="D272" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -8959,7 +8956,7 @@
         <v>1109</v>
       </c>
       <c r="D274" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -9057,7 +9054,7 @@
         <v>1095</v>
       </c>
       <c r="D281" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -9141,7 +9138,7 @@
         <v>1095</v>
       </c>
       <c r="D287" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -9211,7 +9208,7 @@
         <v>1155</v>
       </c>
       <c r="D292" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -9323,7 +9320,7 @@
         <v>1095</v>
       </c>
       <c r="D300" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -9351,7 +9348,7 @@
         <v>1152</v>
       </c>
       <c r="D302" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -9379,7 +9376,7 @@
         <v>1107</v>
       </c>
       <c r="D304" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -9393,7 +9390,7 @@
         <v>1160</v>
       </c>
       <c r="D305" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -9449,7 +9446,7 @@
         <v>1125</v>
       </c>
       <c r="D309" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -9491,7 +9488,7 @@
         <v>1091</v>
       </c>
       <c r="D312" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -9505,7 +9502,7 @@
         <v>1143</v>
       </c>
       <c r="D313" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -9547,7 +9544,7 @@
         <v>1114</v>
       </c>
       <c r="D316" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -9575,7 +9572,7 @@
         <v>1148</v>
       </c>
       <c r="D318" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -9603,7 +9600,7 @@
         <v>1162</v>
       </c>
       <c r="D320" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -9617,7 +9614,7 @@
         <v>1109</v>
       </c>
       <c r="D321" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -9743,7 +9740,7 @@
         <v>1104</v>
       </c>
       <c r="D330" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -9855,7 +9852,7 @@
         <v>1138</v>
       </c>
       <c r="D338" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -9911,7 +9908,7 @@
         <v>1152</v>
       </c>
       <c r="D342" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -9925,7 +9922,7 @@
         <v>1109</v>
       </c>
       <c r="D343" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -9939,7 +9936,7 @@
         <v>1109</v>
       </c>
       <c r="D344" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -9995,7 +9992,7 @@
         <v>1143</v>
       </c>
       <c r="D348" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -10079,7 +10076,7 @@
         <v>1095</v>
       </c>
       <c r="D354" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -10261,7 +10258,7 @@
         <v>1168</v>
       </c>
       <c r="D367" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -10289,7 +10286,7 @@
         <v>1152</v>
       </c>
       <c r="D369" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -10345,7 +10342,7 @@
         <v>1109</v>
       </c>
       <c r="D373" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -10373,7 +10370,7 @@
         <v>1138</v>
       </c>
       <c r="D375" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -10387,7 +10384,7 @@
         <v>1101</v>
       </c>
       <c r="D376" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -10499,7 +10496,7 @@
         <v>1095</v>
       </c>
       <c r="D384" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -10597,7 +10594,7 @@
         <v>1109</v>
       </c>
       <c r="D391" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -10737,7 +10734,7 @@
         <v>1089</v>
       </c>
       <c r="D401" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -10849,7 +10846,7 @@
         <v>1105</v>
       </c>
       <c r="D409" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -10905,7 +10902,7 @@
         <v>1095</v>
       </c>
       <c r="D413" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -10947,7 +10944,7 @@
         <v>1173</v>
       </c>
       <c r="D416" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -11003,7 +11000,7 @@
         <v>1109</v>
       </c>
       <c r="D420" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -11073,7 +11070,7 @@
         <v>1109</v>
       </c>
       <c r="D425" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -11087,7 +11084,7 @@
         <v>1109</v>
       </c>
       <c r="D426" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -11129,7 +11126,7 @@
         <v>1103</v>
       </c>
       <c r="D429" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -11185,7 +11182,7 @@
         <v>1109</v>
       </c>
       <c r="D433" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -11199,7 +11196,7 @@
         <v>1095</v>
       </c>
       <c r="D434" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -11227,7 +11224,7 @@
         <v>1109</v>
       </c>
       <c r="D436" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -11297,7 +11294,7 @@
         <v>1152</v>
       </c>
       <c r="D441" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -11325,7 +11322,7 @@
         <v>1095</v>
       </c>
       <c r="D443" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -11353,7 +11350,7 @@
         <v>1109</v>
       </c>
       <c r="D445" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -11423,7 +11420,7 @@
         <v>1179</v>
       </c>
       <c r="D450" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -11465,7 +11462,7 @@
         <v>1166</v>
       </c>
       <c r="D453" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -11493,7 +11490,7 @@
         <v>1100</v>
       </c>
       <c r="D455" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -11507,7 +11504,7 @@
         <v>1109</v>
       </c>
       <c r="D456" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -11549,7 +11546,7 @@
         <v>1138</v>
       </c>
       <c r="D459" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -11675,7 +11672,7 @@
         <v>1148</v>
       </c>
       <c r="D468" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -11731,7 +11728,7 @@
         <v>1141</v>
       </c>
       <c r="D472" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -11829,7 +11826,7 @@
         <v>1095</v>
       </c>
       <c r="D479" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -11955,7 +11952,7 @@
         <v>1181</v>
       </c>
       <c r="D488" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -11983,7 +11980,7 @@
         <v>1182</v>
       </c>
       <c r="D490" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -12025,7 +12022,7 @@
         <v>1109</v>
       </c>
       <c r="D493" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -12039,7 +12036,7 @@
         <v>1138</v>
       </c>
       <c r="D494" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -12151,7 +12148,7 @@
         <v>1148</v>
       </c>
       <c r="D502" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -12305,7 +12302,7 @@
         <v>1142</v>
       </c>
       <c r="D513" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -12319,7 +12316,7 @@
         <v>1148</v>
       </c>
       <c r="D514" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -12515,7 +12512,7 @@
         <v>1109</v>
       </c>
       <c r="D528" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -12599,7 +12596,7 @@
         <v>1152</v>
       </c>
       <c r="D534" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -12613,7 +12610,7 @@
         <v>1138</v>
       </c>
       <c r="D535" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -12669,7 +12666,7 @@
         <v>1148</v>
       </c>
       <c r="D539" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -12683,7 +12680,7 @@
         <v>1109</v>
       </c>
       <c r="D540" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -12753,7 +12750,7 @@
         <v>1109</v>
       </c>
       <c r="D545" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -12767,7 +12764,7 @@
         <v>1109</v>
       </c>
       <c r="D546" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -12781,7 +12778,7 @@
         <v>1152</v>
       </c>
       <c r="D547" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -12809,7 +12806,7 @@
         <v>1152</v>
       </c>
       <c r="D549" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -12865,7 +12862,7 @@
         <v>1095</v>
       </c>
       <c r="D553" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -12921,7 +12918,7 @@
         <v>1119</v>
       </c>
       <c r="D557" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -12935,7 +12932,7 @@
         <v>1109</v>
       </c>
       <c r="D558" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -13005,7 +13002,7 @@
         <v>1109</v>
       </c>
       <c r="D563" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -13019,7 +13016,7 @@
         <v>1146</v>
       </c>
       <c r="D564" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -13033,7 +13030,7 @@
         <v>1113</v>
       </c>
       <c r="D565" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -13103,7 +13100,7 @@
         <v>1109</v>
       </c>
       <c r="D570" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -13117,7 +13114,7 @@
         <v>1109</v>
       </c>
       <c r="D571" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -13145,7 +13142,7 @@
         <v>1109</v>
       </c>
       <c r="D573" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -13201,7 +13198,7 @@
         <v>1109</v>
       </c>
       <c r="D577" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -13215,7 +13212,7 @@
         <v>1104</v>
       </c>
       <c r="D578" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -13243,7 +13240,7 @@
         <v>1114</v>
       </c>
       <c r="D580" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -13299,7 +13296,7 @@
         <v>1135</v>
       </c>
       <c r="D584" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -13355,7 +13352,7 @@
         <v>1097</v>
       </c>
       <c r="D588" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -13411,7 +13408,7 @@
         <v>1109</v>
       </c>
       <c r="D592" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -13481,7 +13478,7 @@
         <v>1092</v>
       </c>
       <c r="D597" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -13593,7 +13590,7 @@
         <v>1138</v>
       </c>
       <c r="D605" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -13733,7 +13730,7 @@
         <v>1138</v>
       </c>
       <c r="D615" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -13761,7 +13758,7 @@
         <v>1109</v>
       </c>
       <c r="D617" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -13803,7 +13800,7 @@
         <v>1109</v>
       </c>
       <c r="D620" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -13859,7 +13856,7 @@
         <v>1111</v>
       </c>
       <c r="D624" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -13873,7 +13870,7 @@
         <v>1109</v>
       </c>
       <c r="D625" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -13943,7 +13940,7 @@
         <v>1135</v>
       </c>
       <c r="D630" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -13985,7 +13982,7 @@
         <v>1145</v>
       </c>
       <c r="D633" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -14069,7 +14066,7 @@
         <v>1148</v>
       </c>
       <c r="D639" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -14083,7 +14080,7 @@
         <v>1109</v>
       </c>
       <c r="D640" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="641" spans="1:4">
@@ -14097,7 +14094,7 @@
         <v>1109</v>
       </c>
       <c r="D641" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -14139,7 +14136,7 @@
         <v>1109</v>
       </c>
       <c r="D644" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -14153,7 +14150,7 @@
         <v>1138</v>
       </c>
       <c r="D645" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -14167,7 +14164,7 @@
         <v>1138</v>
       </c>
       <c r="D646" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="647" spans="1:4">
@@ -14195,7 +14192,7 @@
         <v>1109</v>
       </c>
       <c r="D648" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="649" spans="1:4">
@@ -14237,7 +14234,7 @@
         <v>1138</v>
       </c>
       <c r="D651" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -14335,7 +14332,7 @@
         <v>1109</v>
       </c>
       <c r="D658" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -14363,7 +14360,7 @@
         <v>1109</v>
       </c>
       <c r="D660" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -14377,7 +14374,7 @@
         <v>1136</v>
       </c>
       <c r="D661" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -14391,7 +14388,7 @@
         <v>1143</v>
       </c>
       <c r="D662" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -14405,7 +14402,7 @@
         <v>1109</v>
       </c>
       <c r="D663" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -14419,7 +14416,7 @@
         <v>1138</v>
       </c>
       <c r="D664" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -14517,7 +14514,7 @@
         <v>1109</v>
       </c>
       <c r="D671" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -14615,7 +14612,7 @@
         <v>1138</v>
       </c>
       <c r="D678" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -14657,7 +14654,7 @@
         <v>1099</v>
       </c>
       <c r="D681" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -14685,7 +14682,7 @@
         <v>1122</v>
       </c>
       <c r="D683" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -14769,7 +14766,7 @@
         <v>1138</v>
       </c>
       <c r="D689" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -14811,7 +14808,7 @@
         <v>1095</v>
       </c>
       <c r="D692" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -14825,7 +14822,7 @@
         <v>1109</v>
       </c>
       <c r="D693" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -14839,7 +14836,7 @@
         <v>1109</v>
       </c>
       <c r="D694" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -14881,7 +14878,7 @@
         <v>1186</v>
       </c>
       <c r="D697" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -14895,7 +14892,7 @@
         <v>1152</v>
       </c>
       <c r="D698" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -14937,7 +14934,7 @@
         <v>1135</v>
       </c>
       <c r="D701" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -14993,7 +14990,7 @@
         <v>1109</v>
       </c>
       <c r="D705" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -15021,7 +15018,7 @@
         <v>1109</v>
       </c>
       <c r="D707" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -15077,7 +15074,7 @@
         <v>1109</v>
       </c>
       <c r="D711" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -15161,7 +15158,7 @@
         <v>1153</v>
       </c>
       <c r="D717" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -15231,7 +15228,7 @@
         <v>1089</v>
       </c>
       <c r="D722" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -15259,7 +15256,7 @@
         <v>1129</v>
       </c>
       <c r="D724" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -15301,7 +15298,7 @@
         <v>1109</v>
       </c>
       <c r="D727" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -15357,7 +15354,7 @@
         <v>1089</v>
       </c>
       <c r="D731" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -15399,7 +15396,7 @@
         <v>1188</v>
       </c>
       <c r="D734" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -15469,7 +15466,7 @@
         <v>1109</v>
       </c>
       <c r="D739" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -15567,7 +15564,7 @@
         <v>1138</v>
       </c>
       <c r="D746" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -15637,7 +15634,7 @@
         <v>1103</v>
       </c>
       <c r="D751" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -15665,7 +15662,7 @@
         <v>1109</v>
       </c>
       <c r="D753" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -15679,7 +15676,7 @@
         <v>1109</v>
       </c>
       <c r="D754" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -15735,7 +15732,7 @@
         <v>1109</v>
       </c>
       <c r="D758" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -15749,7 +15746,7 @@
         <v>1161</v>
       </c>
       <c r="D759" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -15777,7 +15774,7 @@
         <v>1109</v>
       </c>
       <c r="D761" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -15819,7 +15816,7 @@
         <v>1138</v>
       </c>
       <c r="D764" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -15833,7 +15830,7 @@
         <v>1190</v>
       </c>
       <c r="D765" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -15861,7 +15858,7 @@
         <v>1095</v>
       </c>
       <c r="D767" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -15931,7 +15928,7 @@
         <v>1152</v>
       </c>
       <c r="D772" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -15945,7 +15942,7 @@
         <v>1191</v>
       </c>
       <c r="D773" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -15959,7 +15956,7 @@
         <v>1103</v>
       </c>
       <c r="D774" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -15987,7 +15984,7 @@
         <v>1095</v>
       </c>
       <c r="D776" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -16043,7 +16040,7 @@
         <v>1113</v>
       </c>
       <c r="D780" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -16057,7 +16054,7 @@
         <v>1099</v>
       </c>
       <c r="D781" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -16127,7 +16124,7 @@
         <v>1095</v>
       </c>
       <c r="D786" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -16141,7 +16138,7 @@
         <v>1152</v>
       </c>
       <c r="D787" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -16239,7 +16236,7 @@
         <v>1103</v>
       </c>
       <c r="D794" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -16351,7 +16348,7 @@
         <v>1114</v>
       </c>
       <c r="D802" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -16365,7 +16362,7 @@
         <v>1109</v>
       </c>
       <c r="D803" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -16421,7 +16418,7 @@
         <v>1095</v>
       </c>
       <c r="D807" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -16435,7 +16432,7 @@
         <v>1109</v>
       </c>
       <c r="D808" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -16449,7 +16446,7 @@
         <v>1109</v>
       </c>
       <c r="D809" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -16491,7 +16488,7 @@
         <v>1109</v>
       </c>
       <c r="D812" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -16547,7 +16544,7 @@
         <v>1193</v>
       </c>
       <c r="D816" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -16603,7 +16600,7 @@
         <v>1152</v>
       </c>
       <c r="D820" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -16617,7 +16614,7 @@
         <v>1109</v>
       </c>
       <c r="D821" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -16645,7 +16642,7 @@
         <v>1109</v>
       </c>
       <c r="D823" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -16673,7 +16670,7 @@
         <v>1109</v>
       </c>
       <c r="D825" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -16701,7 +16698,7 @@
         <v>1105</v>
       </c>
       <c r="D827" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -16715,7 +16712,7 @@
         <v>1109</v>
       </c>
       <c r="D828" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -16729,7 +16726,7 @@
         <v>1109</v>
       </c>
       <c r="D829" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -16799,7 +16796,7 @@
         <v>1152</v>
       </c>
       <c r="D834" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -16841,7 +16838,7 @@
         <v>1134</v>
       </c>
       <c r="D837" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -16855,7 +16852,7 @@
         <v>1109</v>
       </c>
       <c r="D838" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="839" spans="1:4">
@@ -16911,7 +16908,7 @@
         <v>1109</v>
       </c>
       <c r="D842" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -16925,7 +16922,7 @@
         <v>1090</v>
       </c>
       <c r="D843" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -17009,7 +17006,7 @@
         <v>1138</v>
       </c>
       <c r="D849" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -17037,7 +17034,7 @@
         <v>1152</v>
       </c>
       <c r="D851" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="852" spans="1:4">
@@ -17065,7 +17062,7 @@
         <v>1109</v>
       </c>
       <c r="D853" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -17079,7 +17076,7 @@
         <v>1109</v>
       </c>
       <c r="D854" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="855" spans="1:4">
@@ -17093,7 +17090,7 @@
         <v>1109</v>
       </c>
       <c r="D855" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="856" spans="1:4">
@@ -17107,7 +17104,7 @@
         <v>1109</v>
       </c>
       <c r="D856" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -17121,7 +17118,7 @@
         <v>1109</v>
       </c>
       <c r="D857" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="858" spans="1:4">
@@ -17163,7 +17160,7 @@
         <v>1109</v>
       </c>
       <c r="D860" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="861" spans="1:4">
@@ -17177,7 +17174,7 @@
         <v>1109</v>
       </c>
       <c r="D861" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -17191,7 +17188,7 @@
         <v>1109</v>
       </c>
       <c r="D862" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -17233,7 +17230,7 @@
         <v>1152</v>
       </c>
       <c r="D865" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -17331,7 +17328,7 @@
         <v>1109</v>
       </c>
       <c r="D872" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -17401,7 +17398,7 @@
         <v>1148</v>
       </c>
       <c r="D877" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="878" spans="1:4">
@@ -17415,7 +17412,7 @@
         <v>1109</v>
       </c>
       <c r="D878" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="879" spans="1:4">
@@ -17443,7 +17440,7 @@
         <v>1109</v>
       </c>
       <c r="D880" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="881" spans="1:4">
@@ -17471,7 +17468,7 @@
         <v>1109</v>
       </c>
       <c r="D882" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -17485,7 +17482,7 @@
         <v>1136</v>
       </c>
       <c r="D883" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="884" spans="1:4">
@@ -17569,7 +17566,7 @@
         <v>1196</v>
       </c>
       <c r="D889" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="890" spans="1:4">
@@ -17597,7 +17594,7 @@
         <v>1109</v>
       </c>
       <c r="D891" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="892" spans="1:4">
@@ -17751,7 +17748,7 @@
         <v>1095</v>
       </c>
       <c r="D902" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="903" spans="1:4">
@@ -17765,7 +17762,7 @@
         <v>1152</v>
       </c>
       <c r="D903" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="904" spans="1:4">
@@ -17793,7 +17790,7 @@
         <v>1148</v>
       </c>
       <c r="D905" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="906" spans="1:4">
@@ -17807,7 +17804,7 @@
         <v>1109</v>
       </c>
       <c r="D906" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -17863,7 +17860,7 @@
         <v>1109</v>
       </c>
       <c r="D910" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="911" spans="1:4">
@@ -17891,7 +17888,7 @@
         <v>1138</v>
       </c>
       <c r="D912" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -17919,7 +17916,7 @@
         <v>1138</v>
       </c>
       <c r="D914" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -17947,7 +17944,7 @@
         <v>1146</v>
       </c>
       <c r="D916" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="917" spans="1:4">
@@ -17961,7 +17958,7 @@
         <v>1109</v>
       </c>
       <c r="D917" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="918" spans="1:4">
@@ -17975,7 +17972,7 @@
         <v>1148</v>
       </c>
       <c r="D918" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="919" spans="1:4">
@@ -18003,7 +18000,7 @@
         <v>1148</v>
       </c>
       <c r="D920" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="921" spans="1:4">
@@ -18017,7 +18014,7 @@
         <v>1095</v>
       </c>
       <c r="D921" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="922" spans="1:4">
@@ -18031,7 +18028,7 @@
         <v>1152</v>
       </c>
       <c r="D922" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="923" spans="1:4">
@@ -18059,7 +18056,7 @@
         <v>1137</v>
       </c>
       <c r="D924" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="925" spans="1:4">
@@ -18115,7 +18112,7 @@
         <v>1109</v>
       </c>
       <c r="D928" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="929" spans="1:4">
@@ -18143,7 +18140,7 @@
         <v>1109</v>
       </c>
       <c r="D930" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="931" spans="1:4">
@@ -18171,7 +18168,7 @@
         <v>1148</v>
       </c>
       <c r="D932" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="933" spans="1:4">
@@ -18241,7 +18238,7 @@
         <v>1095</v>
       </c>
       <c r="D937" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="938" spans="1:4">
@@ -18269,7 +18266,7 @@
         <v>1152</v>
       </c>
       <c r="D939" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="940" spans="1:4">
@@ -18311,7 +18308,7 @@
         <v>1095</v>
       </c>
       <c r="D942" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="943" spans="1:4">
@@ -18325,7 +18322,7 @@
         <v>1092</v>
       </c>
       <c r="D943" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="944" spans="1:4">
@@ -18367,7 +18364,7 @@
         <v>1126</v>
       </c>
       <c r="D946" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="947" spans="1:4">
@@ -18395,7 +18392,7 @@
         <v>1095</v>
       </c>
       <c r="D948" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="949" spans="1:4">
@@ -18409,7 +18406,7 @@
         <v>1095</v>
       </c>
       <c r="D949" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="950" spans="1:4">
@@ -18437,7 +18434,7 @@
         <v>1109</v>
       </c>
       <c r="D951" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="952" spans="1:4">
@@ -18465,7 +18462,7 @@
         <v>1090</v>
       </c>
       <c r="D953" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="954" spans="1:4">
@@ -18493,7 +18490,7 @@
         <v>1095</v>
       </c>
       <c r="D955" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="956" spans="1:4">
@@ -18535,7 +18532,7 @@
         <v>1152</v>
       </c>
       <c r="D958" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="959" spans="1:4">
@@ -18633,7 +18630,7 @@
         <v>1152</v>
       </c>
       <c r="D965" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="966" spans="1:4">
@@ -18731,7 +18728,7 @@
         <v>1152</v>
       </c>
       <c r="D972" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="973" spans="1:4">
@@ -18759,7 +18756,7 @@
         <v>1152</v>
       </c>
       <c r="D974" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="975" spans="1:4">
@@ -18773,7 +18770,7 @@
         <v>1090</v>
       </c>
       <c r="D975" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="976" spans="1:4">
@@ -18871,7 +18868,7 @@
         <v>1148</v>
       </c>
       <c r="D982" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="983" spans="1:4">
@@ -18885,7 +18882,7 @@
         <v>1152</v>
       </c>
       <c r="D983" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="984" spans="1:4">
@@ -18913,7 +18910,7 @@
         <v>1111</v>
       </c>
       <c r="D985" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="986" spans="1:4">
@@ -18927,7 +18924,7 @@
         <v>1152</v>
       </c>
       <c r="D986" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="987" spans="1:4">
@@ -19025,7 +19022,7 @@
         <v>1095</v>
       </c>
       <c r="D993" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="994" spans="1:4">
@@ -19039,7 +19036,7 @@
         <v>1152</v>
       </c>
       <c r="D994" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="995" spans="1:4">
@@ -19053,7 +19050,7 @@
         <v>1152</v>
       </c>
       <c r="D995" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="996" spans="1:4">
@@ -19081,7 +19078,7 @@
         <v>1109</v>
       </c>
       <c r="D997" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="998" spans="1:4">
@@ -19123,7 +19120,7 @@
         <v>1099</v>
       </c>
       <c r="D1000" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1001" spans="1:4">
@@ -19193,7 +19190,7 @@
         <v>1199</v>
       </c>
       <c r="D1005" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1006" spans="1:4">
@@ -19207,7 +19204,7 @@
         <v>1109</v>
       </c>
       <c r="D1006" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1007" spans="1:4">
@@ -19263,7 +19260,7 @@
         <v>1138</v>
       </c>
       <c r="D1010" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="1011" spans="1:4">
@@ -19305,7 +19302,7 @@
         <v>1135</v>
       </c>
       <c r="D1013" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1014" spans="1:4">
@@ -19319,7 +19316,7 @@
         <v>1152</v>
       </c>
       <c r="D1014" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="1015" spans="1:4">
@@ -19333,7 +19330,7 @@
         <v>1128</v>
       </c>
       <c r="D1015" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1016" spans="1:4">
@@ -19347,7 +19344,7 @@
         <v>1155</v>
       </c>
       <c r="D1016" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -19389,7 +19386,7 @@
         <v>1095</v>
       </c>
       <c r="D1019" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1020" spans="1:4">
@@ -19403,7 +19400,7 @@
         <v>1111</v>
       </c>
       <c r="D1020" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1021" spans="1:4">
@@ -19417,7 +19414,7 @@
         <v>1200</v>
       </c>
       <c r="D1021" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1022" spans="1:4">
@@ -19431,7 +19428,7 @@
         <v>1138</v>
       </c>
       <c r="D1022" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1023" spans="1:4">
@@ -19445,7 +19442,7 @@
         <v>1201</v>
       </c>
       <c r="D1023" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1024" spans="1:4">
@@ -19459,7 +19456,7 @@
         <v>1135</v>
       </c>
       <c r="D1024" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1025" spans="1:4">
@@ -19473,7 +19470,7 @@
         <v>1103</v>
       </c>
       <c r="D1025" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1026" spans="1:4">
@@ -19487,7 +19484,7 @@
         <v>1135</v>
       </c>
       <c r="D1026" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1027" spans="1:4">
@@ -19501,7 +19498,7 @@
         <v>1097</v>
       </c>
       <c r="D1027" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1028" spans="1:4">
@@ -19543,7 +19540,7 @@
         <v>1136</v>
       </c>
       <c r="D1030" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1031" spans="1:4">
@@ -19571,7 +19568,7 @@
         <v>1202</v>
       </c>
       <c r="D1032" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1033" spans="1:4">
@@ -19599,7 +19596,7 @@
         <v>1200</v>
       </c>
       <c r="D1034" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1035" spans="1:4">
@@ -19613,7 +19610,7 @@
         <v>1146</v>
       </c>
       <c r="D1035" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1036" spans="1:4">
@@ -19627,7 +19624,7 @@
         <v>1113</v>
       </c>
       <c r="D1036" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="1037" spans="1:4">
@@ -19655,7 +19652,7 @@
         <v>1203</v>
       </c>
       <c r="D1038" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1039" spans="1:4">
@@ -19669,7 +19666,7 @@
         <v>1090</v>
       </c>
       <c r="D1039" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1040" spans="1:4">
@@ -19683,7 +19680,7 @@
         <v>1162</v>
       </c>
       <c r="D1040" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="1041" spans="1:4">
@@ -19725,7 +19722,7 @@
         <v>1177</v>
       </c>
       <c r="D1043" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1044" spans="1:4">
@@ -19767,7 +19764,7 @@
         <v>1146</v>
       </c>
       <c r="D1046" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -19781,7 +19778,7 @@
         <v>1204</v>
       </c>
       <c r="D1047" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
@@ -19809,7 +19806,7 @@
         <v>1113</v>
       </c>
       <c r="D1049" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1050" spans="1:4">
@@ -19823,7 +19820,7 @@
         <v>1134</v>
       </c>
       <c r="D1050" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1051" spans="1:4">
@@ -19837,7 +19834,7 @@
         <v>1099</v>
       </c>
       <c r="D1051" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="1052" spans="1:4">
@@ -19851,7 +19848,7 @@
         <v>1200</v>
       </c>
       <c r="D1052" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1053" spans="1:4">
@@ -19893,7 +19890,7 @@
         <v>1095</v>
       </c>
       <c r="D1055" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1056" spans="1:4">
@@ -19907,7 +19904,7 @@
         <v>1205</v>
       </c>
       <c r="D1056" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1057" spans="1:4">
@@ -19949,7 +19946,7 @@
         <v>1141</v>
       </c>
       <c r="D1059" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1060" spans="1:4">
@@ -19963,7 +19960,7 @@
         <v>1141</v>
       </c>
       <c r="D1060" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="1061" spans="1:4">
@@ -20033,7 +20030,7 @@
         <v>1135</v>
       </c>
       <c r="D1065" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1066" spans="1:4">
@@ -20075,7 +20072,7 @@
         <v>1146</v>
       </c>
       <c r="D1068" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1069" spans="1:4">
@@ -20103,7 +20100,7 @@
         <v>1208</v>
       </c>
       <c r="D1070" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1071" spans="1:4">
@@ -20117,7 +20114,7 @@
         <v>1151</v>
       </c>
       <c r="D1071" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1072" spans="1:4">
@@ -20131,7 +20128,7 @@
         <v>1151</v>
       </c>
       <c r="D1072" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1073" spans="1:4">
@@ -20145,7 +20142,7 @@
         <v>1145</v>
       </c>
       <c r="D1073" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1074" spans="1:4">
@@ -20187,7 +20184,7 @@
         <v>1111</v>
       </c>
       <c r="D1076" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1077" spans="1:4">
@@ -20243,7 +20240,7 @@
         <v>1103</v>
       </c>
       <c r="D1080" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
@@ -20271,7 +20268,7 @@
         <v>1209</v>
       </c>
       <c r="D1082" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1083" spans="1:4">
@@ -20299,7 +20296,7 @@
         <v>1113</v>
       </c>
       <c r="D1084" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1085" spans="1:4">
@@ -20327,7 +20324,7 @@
         <v>1183</v>
       </c>
       <c r="D1086" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1087" spans="1:4">
@@ -20341,7 +20338,7 @@
         <v>1113</v>
       </c>
       <c r="D1087" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -20397,7 +20394,7 @@
         <v>1141</v>
       </c>
       <c r="D1091" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1092" spans="1:4">
@@ -20411,7 +20408,7 @@
         <v>1210</v>
       </c>
       <c r="D1092" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1093" spans="1:4">
@@ -20453,7 +20450,7 @@
         <v>1180</v>
       </c>
       <c r="D1095" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1096" spans="1:4">
@@ -20537,7 +20534,7 @@
         <v>1142</v>
       </c>
       <c r="D1101" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="1102" spans="1:4">
@@ -20565,7 +20562,7 @@
         <v>1089</v>
       </c>
       <c r="D1103" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1104" spans="1:4">
@@ -20579,7 +20576,7 @@
         <v>1097</v>
       </c>
       <c r="D1104" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1105" spans="1:4">
@@ -20733,7 +20730,7 @@
         <v>1144</v>
       </c>
       <c r="D1115" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1116" spans="1:4">
@@ -20747,7 +20744,7 @@
         <v>1113</v>
       </c>
       <c r="D1116" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1117" spans="1:4">
@@ -20761,7 +20758,7 @@
         <v>1136</v>
       </c>
       <c r="D1117" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1118" spans="1:4">
@@ -20817,7 +20814,7 @@
         <v>1146</v>
       </c>
       <c r="D1121" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1122" spans="1:4">
@@ -20873,7 +20870,7 @@
         <v>1098</v>
       </c>
       <c r="D1125" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1126" spans="1:4">
@@ -20901,7 +20898,7 @@
         <v>1098</v>
       </c>
       <c r="D1127" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="1128" spans="1:4">
@@ -20915,7 +20912,7 @@
         <v>1170</v>
       </c>
       <c r="D1128" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="1129" spans="1:4">
@@ -20943,7 +20940,7 @@
         <v>1097</v>
       </c>
       <c r="D1130" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="1131" spans="1:4">
@@ -20999,7 +20996,7 @@
         <v>1089</v>
       </c>
       <c r="D1134" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1135" spans="1:4">
@@ -21013,7 +21010,7 @@
         <v>1142</v>
       </c>
       <c r="D1135" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1136" spans="1:4">
@@ -21027,7 +21024,7 @@
         <v>1128</v>
       </c>
       <c r="D1136" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1137" spans="1:4">
@@ -21097,7 +21094,7 @@
         <v>1090</v>
       </c>
       <c r="D1141" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1142" spans="1:4">
@@ -21111,7 +21108,7 @@
         <v>1113</v>
       </c>
       <c r="D1142" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1143" spans="1:4">
@@ -21153,7 +21150,7 @@
         <v>1103</v>
       </c>
       <c r="D1145" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1146" spans="1:4">
@@ -21167,7 +21164,7 @@
         <v>1090</v>
       </c>
       <c r="D1146" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1147" spans="1:4">
@@ -21181,7 +21178,7 @@
         <v>1097</v>
       </c>
       <c r="D1147" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1148" spans="1:4">
@@ -21195,7 +21192,7 @@
         <v>1212</v>
       </c>
       <c r="D1148" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1149" spans="1:4">
@@ -21265,7 +21262,7 @@
         <v>1090</v>
       </c>
       <c r="D1153" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1154" spans="1:4">
@@ -21307,7 +21304,7 @@
         <v>1097</v>
       </c>
       <c r="D1156" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1157" spans="1:4">
@@ -21321,7 +21318,7 @@
         <v>1090</v>
       </c>
       <c r="D1157" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1158" spans="1:4">
@@ -21349,7 +21346,7 @@
         <v>1144</v>
       </c>
       <c r="D1159" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1160" spans="1:4">
@@ -21363,7 +21360,7 @@
         <v>1090</v>
       </c>
       <c r="D1160" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1161" spans="1:4">
@@ -21419,7 +21416,7 @@
         <v>1144</v>
       </c>
       <c r="D1164" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1165" spans="1:4">
@@ -21433,7 +21430,7 @@
         <v>1141</v>
       </c>
       <c r="D1165" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1166" spans="1:4">
@@ -21447,7 +21444,7 @@
         <v>1144</v>
       </c>
       <c r="D1166" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1167" spans="1:4">
@@ -21461,7 +21458,7 @@
         <v>1097</v>
       </c>
       <c r="D1167" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1168" spans="1:4">
@@ -21615,7 +21612,7 @@
         <v>1098</v>
       </c>
       <c r="D1178" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1179" spans="1:4">
@@ -21629,7 +21626,7 @@
         <v>1090</v>
       </c>
       <c r="D1179" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1180" spans="1:4">
@@ -21657,7 +21654,7 @@
         <v>1089</v>
       </c>
       <c r="D1181" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1182" spans="1:4">
@@ -21671,7 +21668,7 @@
         <v>1135</v>
       </c>
       <c r="D1182" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1183" spans="1:4">
@@ -21685,7 +21682,7 @@
         <v>1099</v>
       </c>
       <c r="D1183" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1184" spans="1:4">
@@ -21713,7 +21710,7 @@
         <v>1192</v>
       </c>
       <c r="D1185" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1186" spans="1:4">
@@ -21769,7 +21766,7 @@
         <v>1100</v>
       </c>
       <c r="D1189" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1190" spans="1:4">
@@ -21783,7 +21780,7 @@
         <v>1097</v>
       </c>
       <c r="D1190" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="1191" spans="1:4">
@@ -21797,7 +21794,7 @@
         <v>1134</v>
       </c>
       <c r="D1191" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1192" spans="1:4">
@@ -21811,7 +21808,7 @@
         <v>1142</v>
       </c>
       <c r="D1192" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1193" spans="1:4">
@@ -21825,7 +21822,7 @@
         <v>1111</v>
       </c>
       <c r="D1193" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1194" spans="1:4">
@@ -21853,7 +21850,7 @@
         <v>1213</v>
       </c>
       <c r="D1195" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1196" spans="1:4">
@@ -21923,7 +21920,7 @@
         <v>1142</v>
       </c>
       <c r="D1200" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1201" spans="1:4">
@@ -21951,7 +21948,7 @@
         <v>1151</v>
       </c>
       <c r="D1202" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1203" spans="1:4">
@@ -21965,7 +21962,7 @@
         <v>1099</v>
       </c>
       <c r="D1203" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1204" spans="1:4">
@@ -22063,7 +22060,7 @@
         <v>1092</v>
       </c>
       <c r="D1210" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1211" spans="1:4">
@@ -22077,7 +22074,7 @@
         <v>1089</v>
       </c>
       <c r="D1211" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1212" spans="1:4">
@@ -22119,7 +22116,7 @@
         <v>1104</v>
       </c>
       <c r="D1214" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1215" spans="1:4">
@@ -22175,7 +22172,7 @@
         <v>1104</v>
       </c>
       <c r="D1218" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1219" spans="1:4">
@@ -22217,7 +22214,7 @@
         <v>1152</v>
       </c>
       <c r="D1221" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1222" spans="1:4">
@@ -22231,7 +22228,7 @@
         <v>1100</v>
       </c>
       <c r="D1222" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1223" spans="1:4">
@@ -22287,7 +22284,7 @@
         <v>1100</v>
       </c>
       <c r="D1226" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1227" spans="1:4">

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -6415,7 +6415,7 @@
         <v>1148</v>
       </c>
       <c r="D94" t="s">
-        <v>1242</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="95" spans="1:4">

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -157,10 +157,10 @@
     <t>Matt Olson</t>
   </si>
   <si>
+    <t>Jacob deGrom</t>
+  </si>
+  <si>
     <t>Kyle Schwarber</t>
-  </si>
-  <si>
-    <t>Jacob deGrom</t>
   </si>
   <si>
     <t>Cedric Mullins II</t>
@@ -2487,10 +2487,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="D44" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2501,10 +2501,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="D45" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46" spans="1:4">

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -175,12 +175,12 @@
     <t>Shane Bieber</t>
   </si>
   <si>
+    <t>Shane McClanahan</t>
+  </si>
+  <si>
     <t>Zack Wheeler</t>
   </si>
   <si>
-    <t>Shane McClanahan</t>
-  </si>
-  <si>
     <t>Jordan Romano</t>
   </si>
   <si>
@@ -199,22 +199,22 @@
     <t>Alex Bregman</t>
   </si>
   <si>
+    <t>Devin Williams</t>
+  </si>
+  <si>
     <t>Kevin Gausman</t>
   </si>
   <si>
     <t>Luis Castillo</t>
   </si>
   <si>
-    <t>Devin Williams</t>
-  </si>
-  <si>
     <t>Liam Hendriks</t>
   </si>
   <si>
+    <t>Starling Marte</t>
+  </si>
+  <si>
     <t>Alek Manoah</t>
-  </si>
-  <si>
-    <t>Starling Marte</t>
   </si>
   <si>
     <t>Ryan Pressly</t>
@@ -2574,7 +2574,7 @@
         <v>391</v>
       </c>
       <c r="D50" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2588,7 +2588,7 @@
         <v>391</v>
       </c>
       <c r="D51" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2683,10 +2683,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="D58" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2700,7 +2700,7 @@
         <v>391</v>
       </c>
       <c r="D59" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2711,10 +2711,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D60" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2739,10 +2739,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D62" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2753,10 +2753,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D63" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="64" spans="1:4">

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -10,14 +10,14 @@
     <sheet name="draft" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$380</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$382</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="503">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -34,331 +34,355 @@
     <t>Trea Turner</t>
   </si>
   <si>
+    <t>Jose Ramirez</t>
+  </si>
+  <si>
     <t>Aaron Judge</t>
   </si>
   <si>
-    <t>Jose Ramirez</t>
+    <t>Julio Rodriguez</t>
   </si>
   <si>
     <t>Ronald Acuna Jr.</t>
   </si>
   <si>
-    <t>Julio Rodriguez</t>
-  </si>
-  <si>
     <t>Kyle Tucker</t>
   </si>
   <si>
+    <t>Shohei Ohtani</t>
+  </si>
+  <si>
     <t>Yordan Alvarez</t>
   </si>
   <si>
+    <t>Juan Soto</t>
+  </si>
+  <si>
     <t>Mookie Betts</t>
   </si>
   <si>
     <t>Vladimir Guerrero Jr.</t>
   </si>
   <si>
-    <t>Juan Soto</t>
+    <t>Bobby Witt Jr.</t>
+  </si>
+  <si>
+    <t>Freddie Freeman</t>
+  </si>
+  <si>
+    <t>Mike Trout</t>
   </si>
   <si>
     <t>Corbin Burnes</t>
   </si>
   <si>
+    <t>Gerrit Cole</t>
+  </si>
+  <si>
     <t>Bo Bichette</t>
   </si>
   <si>
-    <t>Freddie Freeman</t>
-  </si>
-  <si>
-    <t>Shohei Ohtani</t>
+    <t>Sandy Alcantara</t>
   </si>
   <si>
     <t>Manny Machado</t>
   </si>
   <si>
-    <t>Mike Trout</t>
-  </si>
-  <si>
-    <t>Sandy Alcantara</t>
-  </si>
-  <si>
-    <t>Gerrit Cole</t>
+    <t>Rafael Devers</t>
   </si>
   <si>
     <t>Pete Alonso</t>
   </si>
   <si>
-    <t>Bobby Witt Jr.</t>
+    <t>Austin Riley</t>
+  </si>
+  <si>
+    <t>Edwin Diaz</t>
+  </si>
+  <si>
+    <t>Fernando Tatis Jr.</t>
   </si>
   <si>
     <t>Paul Goldschmidt</t>
   </si>
   <si>
-    <t>Rafael Devers</t>
-  </si>
-  <si>
-    <t>Austin Riley</t>
-  </si>
-  <si>
-    <t>Edwin Diaz</t>
+    <t>Jose Altuve</t>
+  </si>
+  <si>
+    <t>Dylan Cease</t>
+  </si>
+  <si>
+    <t>Michael Harris II</t>
+  </si>
+  <si>
+    <t>Emmanuel Clase</t>
+  </si>
+  <si>
+    <t>Spencer Strider</t>
   </si>
   <si>
     <t>Francisco Lindor</t>
   </si>
   <si>
-    <t>Jose Altuve</t>
-  </si>
-  <si>
-    <t>Fernando Tatis Jr.</t>
+    <t>Jacob deGrom</t>
   </si>
   <si>
     <t>Randy Arozarena</t>
   </si>
   <si>
+    <t>Josh Hader</t>
+  </si>
+  <si>
     <t>Nolan Arenado</t>
   </si>
   <si>
-    <t>Dylan Cease</t>
-  </si>
-  <si>
-    <t>Michael Harris II</t>
-  </si>
-  <si>
-    <t>Emmanuel Clase</t>
+    <t>Aaron Nola</t>
+  </si>
+  <si>
+    <t>Max Scherzer</t>
   </si>
   <si>
     <t>Marcus Semien</t>
   </si>
   <si>
-    <t>Spencer Strider</t>
+    <t>Luis Robert</t>
+  </si>
+  <si>
+    <t>Shane McClanahan</t>
+  </si>
+  <si>
+    <t>Liam Hendriks</t>
   </si>
   <si>
     <t>Brandon Woodruff</t>
   </si>
   <si>
-    <t>Aaron Nola</t>
-  </si>
-  <si>
-    <t>Josh Hader</t>
-  </si>
-  <si>
-    <t>Luis Robert</t>
-  </si>
-  <si>
-    <t>Max Scherzer</t>
+    <t>Cedric Mullins II</t>
   </si>
   <si>
     <t>Justin Verlander</t>
   </si>
   <si>
+    <t>Matt Olson</t>
+  </si>
+  <si>
     <t>J.T. Realmuto</t>
   </si>
   <si>
-    <t>Matt Olson</t>
-  </si>
-  <si>
-    <t>Jacob deGrom</t>
+    <t>Jordan Romano</t>
   </si>
   <si>
     <t>Kyle Schwarber</t>
   </si>
   <si>
-    <t>Cedric Mullins II</t>
+    <t>Carlos Rodon</t>
+  </si>
+  <si>
+    <t>Zack Wheeler</t>
   </si>
   <si>
     <t>Adolis Garcia</t>
   </si>
   <si>
-    <t>Carlos Rodon</t>
+    <t>Jazz Chisholm Jr.</t>
+  </si>
+  <si>
+    <t>Corey Seager</t>
+  </si>
+  <si>
+    <t>Julio Urias</t>
+  </si>
+  <si>
+    <t>Alex Bregman</t>
   </si>
   <si>
     <t>Shane Bieber</t>
   </si>
   <si>
-    <t>Shane McClanahan</t>
-  </si>
-  <si>
-    <t>Zack Wheeler</t>
-  </si>
-  <si>
-    <t>Jordan Romano</t>
-  </si>
-  <si>
-    <t>Jazz Chisholm Jr.</t>
+    <t>Ryan Pressly</t>
+  </si>
+  <si>
+    <t>Luis Castillo</t>
+  </si>
+  <si>
+    <t>Kevin Gausman</t>
   </si>
   <si>
     <t>Ozzie Albies</t>
   </si>
   <si>
-    <t>Corey Seager</t>
-  </si>
-  <si>
-    <t>Julio Urias</t>
-  </si>
-  <si>
-    <t>Alex Bregman</t>
+    <t>Alek Manoah</t>
+  </si>
+  <si>
+    <t>George Springer</t>
+  </si>
+  <si>
+    <t>Eloy Jimenez</t>
   </si>
   <si>
     <t>Devin Williams</t>
   </si>
   <si>
-    <t>Kevin Gausman</t>
-  </si>
-  <si>
-    <t>Luis Castillo</t>
-  </si>
-  <si>
-    <t>Liam Hendriks</t>
+    <t>Felix Bautista</t>
   </si>
   <si>
     <t>Starling Marte</t>
   </si>
   <si>
-    <t>Alek Manoah</t>
-  </si>
-  <si>
-    <t>Ryan Pressly</t>
-  </si>
-  <si>
-    <t>Eloy Jimenez</t>
-  </si>
-  <si>
-    <t>George Springer</t>
+    <t>Dansby Swanson</t>
+  </si>
+  <si>
+    <t>Ryan Helsley</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
+    <t>Max Fried</t>
+  </si>
+  <si>
+    <t>Daulton Varsho</t>
+  </si>
+  <si>
+    <t>Salvador Perez</t>
+  </si>
+  <si>
+    <t>Tommy Edman</t>
+  </si>
+  <si>
+    <t>Trevor Story</t>
   </si>
   <si>
     <t>Yu Darvish</t>
   </si>
   <si>
-    <t>Tommy Edman</t>
-  </si>
-  <si>
-    <t>Max Fried</t>
-  </si>
-  <si>
-    <t>Felix Bautista</t>
-  </si>
-  <si>
-    <t>Dansby Swanson</t>
+    <t>Cristian Javier</t>
+  </si>
+  <si>
+    <t>Adley Rutschman</t>
+  </si>
+  <si>
+    <t>Zac Gallen</t>
+  </si>
+  <si>
+    <t>Xander Bogaerts</t>
+  </si>
+  <si>
+    <t>Tim Anderson</t>
   </si>
   <si>
     <t>Teoscar Hernandez</t>
   </si>
   <si>
-    <t>Xander Bogaerts</t>
-  </si>
-  <si>
-    <t>Salvador Perez</t>
-  </si>
-  <si>
-    <t>Trevor Story</t>
-  </si>
-  <si>
-    <t>Zac Gallen</t>
-  </si>
-  <si>
-    <t>Will Smith</t>
-  </si>
-  <si>
-    <t>Daulton Varsho</t>
-  </si>
-  <si>
-    <t>Adley Rutschman</t>
-  </si>
-  <si>
-    <t>Cristian Javier</t>
-  </si>
-  <si>
     <t>Joe Musgrove</t>
   </si>
   <si>
-    <t>Tim Anderson</t>
+    <t>Raisel Iglesias</t>
+  </si>
+  <si>
+    <t>Wander Franco</t>
+  </si>
+  <si>
+    <t>Oneil Cruz</t>
+  </si>
+  <si>
+    <t>Camilo Doval</t>
   </si>
   <si>
     <t>Bryan Reynolds</t>
   </si>
   <si>
-    <t>Ryan Helsley</t>
+    <t>Framber Valdez</t>
   </si>
   <si>
     <t>Andres Gimenez</t>
   </si>
   <si>
-    <t>Framber Valdez</t>
-  </si>
-  <si>
-    <t>Wander Franco</t>
-  </si>
-  <si>
-    <t>Raisel Iglesias</t>
-  </si>
-  <si>
     <t>Willy Adames</t>
   </si>
   <si>
+    <t>Corbin Carroll</t>
+  </si>
+  <si>
+    <t>Vinnie Pasquantino</t>
+  </si>
+  <si>
+    <t>Triston McKenzie</t>
+  </si>
+  <si>
     <t>Robbie Ray</t>
   </si>
   <si>
-    <t>Triston McKenzie</t>
+    <t>Tyler Glasnow</t>
+  </si>
+  <si>
+    <t>Christian Yelich</t>
+  </si>
+  <si>
+    <t>Alejandro Kirk</t>
+  </si>
+  <si>
+    <t>Gunnar Henderson</t>
+  </si>
+  <si>
+    <t>Steven Kwan</t>
+  </si>
+  <si>
+    <t>Amed Rosario</t>
+  </si>
+  <si>
+    <t>Jose Abreu</t>
+  </si>
+  <si>
+    <t>Nathaniel Lowe</t>
   </si>
   <si>
     <t>Byron Buxton</t>
   </si>
   <si>
-    <t>Oneil Cruz</t>
-  </si>
-  <si>
-    <t>Vinnie Pasquantino</t>
-  </si>
-  <si>
-    <t>Corbin Carroll</t>
-  </si>
-  <si>
-    <t>Camilo Doval</t>
-  </si>
-  <si>
-    <t>Christian Yelich</t>
-  </si>
-  <si>
-    <t>Nathaniel Lowe</t>
+    <t>Nestor Cortes Jr.</t>
+  </si>
+  <si>
+    <t>Logan Gilbert</t>
+  </si>
+  <si>
+    <t>C.J. Cron</t>
   </si>
   <si>
     <t>Kyle Wright</t>
   </si>
   <si>
-    <t>Tyler Glasnow</t>
-  </si>
-  <si>
-    <t>Steven Kwan</t>
-  </si>
-  <si>
-    <t>Jose Abreu</t>
-  </si>
-  <si>
-    <t>Amed Rosario</t>
-  </si>
-  <si>
-    <t>Nestor Cortes Jr.</t>
-  </si>
-  <si>
-    <t>Logan Gilbert</t>
+    <t>David Bednar</t>
+  </si>
+  <si>
+    <t>Gleyber Torres</t>
+  </si>
+  <si>
+    <t>Giancarlo Stanton</t>
+  </si>
+  <si>
+    <t>Seiya Suzuki</t>
+  </si>
+  <si>
+    <t>George Kirby</t>
+  </si>
+  <si>
+    <t>Rhys Hoskins</t>
+  </si>
+  <si>
+    <t>Carlos Correa</t>
   </si>
   <si>
     <t>Anthony Santander</t>
   </si>
   <si>
-    <t>Rhys Hoskins</t>
+    <t>Hunter Greene</t>
   </si>
   <si>
     <t>Tyler O'Neill</t>
   </si>
   <si>
-    <t>Gunnar Henderson</t>
-  </si>
-  <si>
-    <t>Alejandro Kirk</t>
-  </si>
-  <si>
-    <t>C.J. Cron</t>
+    <t>Logan Webb</t>
   </si>
   <si>
     <t>Luis Severino</t>
@@ -367,82 +391,76 @@
     <t>Kris Bryant</t>
   </si>
   <si>
-    <t>Logan Webb</t>
+    <t>Scott Barlow</t>
+  </si>
+  <si>
+    <t>Clayton Kershaw</t>
   </si>
   <si>
     <t>Blake Snell</t>
   </si>
   <si>
-    <t>Giancarlo Stanton</t>
-  </si>
-  <si>
-    <t>Seiya Suzuki</t>
-  </si>
-  <si>
-    <t>Gleyber Torres</t>
-  </si>
-  <si>
-    <t>George Kirby</t>
-  </si>
-  <si>
-    <t>Carlos Correa</t>
-  </si>
-  <si>
-    <t>David Bednar</t>
+    <t>Jake McCarthy</t>
+  </si>
+  <si>
+    <t>Willson Contreras</t>
   </si>
   <si>
     <t>Jeremy Pena</t>
   </si>
   <si>
+    <t>MJ Melendez</t>
+  </si>
+  <si>
+    <t>Nick Lodolo</t>
+  </si>
+  <si>
     <t>Christian Walker</t>
   </si>
   <si>
-    <t>Clayton Kershaw</t>
+    <t>Nico Hoerner</t>
+  </si>
+  <si>
+    <t>Nick Castellanos</t>
   </si>
   <si>
     <t>Taylor Ward</t>
   </si>
   <si>
-    <t>Nick Castellanos</t>
+    <t>Lance Lynn</t>
+  </si>
+  <si>
+    <t>Daniel Bard</t>
   </si>
   <si>
     <t>Joe Ryan</t>
   </si>
   <si>
+    <t>Clay Holmes</t>
+  </si>
+  <si>
+    <t>Freddy Peralta</t>
+  </si>
+  <si>
+    <t>Ty France</t>
+  </si>
+  <si>
+    <t>Ryan Mountcastle</t>
+  </si>
+  <si>
+    <t>Andrew Vaughn</t>
+  </si>
+  <si>
+    <t>Chris Bassitt</t>
+  </si>
+  <si>
     <t>Pablo Lopez</t>
   </si>
   <si>
-    <t>Freddy Peralta</t>
-  </si>
-  <si>
-    <t>Willson Contreras</t>
-  </si>
-  <si>
-    <t>Scott Barlow</t>
-  </si>
-  <si>
-    <t>Jake McCarthy</t>
-  </si>
-  <si>
-    <t>Nico Hoerner</t>
-  </si>
-  <si>
-    <t>Nick Lodolo</t>
-  </si>
-  <si>
-    <t>Hunter Greene</t>
-  </si>
-  <si>
-    <t>Chris Bassitt</t>
-  </si>
-  <si>
-    <t>Andrew Vaughn</t>
-  </si>
-  <si>
-    <t>MJ Melendez</t>
-  </si>
-  <si>
-    <t>Lance Lynn</t>
+    <t>Ian Happ</t>
+  </si>
+  <si>
+    <t>Jesus Luzardo</t>
   </si>
   <si>
     <t>Jorge Polanco</t>
@@ -451,516 +469,495 @@
     <t>Lucas Giolito</t>
   </si>
   <si>
-    <t>Ryan Mountcastle</t>
-  </si>
-  <si>
-    <t>Ian Happ</t>
-  </si>
-  <si>
-    <t>Ty France</t>
+    <t>Jose Miranda</t>
+  </si>
+  <si>
+    <t>Chris Sale</t>
+  </si>
+  <si>
+    <t>Jhoan Duran</t>
+  </si>
+  <si>
+    <t>Ke'Bryan Hayes</t>
   </si>
   <si>
     <t>Max Muncy</t>
   </si>
   <si>
+    <t>Alexis Diaz</t>
+  </si>
+  <si>
+    <t>Jon Gray</t>
+  </si>
+  <si>
+    <t>Charlie Morton</t>
+  </si>
+  <si>
+    <t>Hunter Renfroe</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
+    <t>Oscar Gonzalez</t>
+  </si>
+  <si>
+    <t>Brady Singer</t>
+  </si>
+  <si>
+    <t>Matt Chapman</t>
+  </si>
+  <si>
+    <t>Brandon Nimmo</t>
+  </si>
+  <si>
+    <t>Jordan Montgomery</t>
+  </si>
+  <si>
+    <t>Andres Munoz</t>
+  </si>
+  <si>
     <t>Kenley Jansen</t>
   </si>
   <si>
-    <t>Daniel Bard</t>
-  </si>
-  <si>
-    <t>Anthony Rizzo</t>
-  </si>
-  <si>
-    <t>Charlie Morton</t>
-  </si>
-  <si>
-    <t>Jose Miranda</t>
-  </si>
-  <si>
-    <t>Clay Holmes</t>
-  </si>
-  <si>
-    <t>Chris Sale</t>
-  </si>
-  <si>
-    <t>Hunter Renfroe</t>
-  </si>
-  <si>
-    <t>Matt Chapman</t>
-  </si>
-  <si>
-    <t>Brandon Nimmo</t>
+    <t>Luis Garcia</t>
+  </si>
+  <si>
+    <t>William Contreras</t>
+  </si>
+  <si>
+    <t>Bryce Harper</t>
   </si>
   <si>
     <t>Dustin May</t>
   </si>
   <si>
-    <t>Jesus Luzardo</t>
-  </si>
-  <si>
-    <t>Jon Gray</t>
-  </si>
-  <si>
-    <t>Jordan Montgomery</t>
+    <t>Luis Arraez</t>
+  </si>
+  <si>
+    <t>Brandon Lowe</t>
+  </si>
+  <si>
+    <t>Tyler Stephenson</t>
+  </si>
+  <si>
+    <t>Mitch Haniger</t>
+  </si>
+  <si>
+    <t>Alex Verdugo</t>
+  </si>
+  <si>
+    <t>Rowdy Tellez</t>
+  </si>
+  <si>
+    <t>Sean Murphy</t>
+  </si>
+  <si>
+    <t>Jeffrey Springs</t>
   </si>
   <si>
     <t>Jake Cronenworth</t>
   </si>
   <si>
+    <t>Javier Baez</t>
+  </si>
+  <si>
+    <t>Jeff McNeil</t>
+  </si>
+  <si>
+    <t>Alec Bohm</t>
+  </si>
+  <si>
+    <t>Paul Sewald</t>
+  </si>
+  <si>
+    <t>Jonathan India</t>
+  </si>
+  <si>
+    <t>Eugenio Suarez</t>
+  </si>
+  <si>
+    <t>Josh Bell</t>
+  </si>
+  <si>
+    <t>Lance McCullers Jr.</t>
+  </si>
+  <si>
+    <t>Drew Rasmussen</t>
+  </si>
+  <si>
+    <t>Frankie Montas</t>
+  </si>
+  <si>
     <t>Tony Gonsolin</t>
   </si>
   <si>
-    <t>Sean Murphy</t>
-  </si>
-  <si>
-    <t>Mitch Haniger</t>
-  </si>
-  <si>
-    <t>Alexis Diaz</t>
-  </si>
-  <si>
-    <t>Rowdy Tellez</t>
-  </si>
-  <si>
-    <t>Jeff McNeil</t>
-  </si>
-  <si>
-    <t>Oscar Gonzalez</t>
-  </si>
-  <si>
-    <t>Bryce Harper</t>
-  </si>
-  <si>
-    <t>Brady Singer</t>
-  </si>
-  <si>
-    <t>Ke'Bryan Hayes</t>
-  </si>
-  <si>
-    <t>Brandon Lowe</t>
-  </si>
-  <si>
-    <t>Luis Arraez</t>
-  </si>
-  <si>
-    <t>Josh Bell</t>
-  </si>
-  <si>
-    <t>Eugenio Suarez</t>
-  </si>
-  <si>
-    <t>Paul Sewald</t>
-  </si>
-  <si>
-    <t>William Contreras</t>
-  </si>
-  <si>
-    <t>Alex Verdugo</t>
-  </si>
-  <si>
-    <t>Lance McCullers Jr.</t>
-  </si>
-  <si>
-    <t>Frankie Montas</t>
-  </si>
-  <si>
-    <t>Luis Garcia</t>
-  </si>
-  <si>
-    <t>Andres Munoz</t>
-  </si>
-  <si>
-    <t>Alec Bohm</t>
+    <t>Riley Greene</t>
+  </si>
+  <si>
+    <t>Harrison Bader</t>
+  </si>
+  <si>
+    <t>Joey Meneses</t>
   </si>
   <si>
     <t>Thairo Estrada</t>
   </si>
   <si>
+    <t>Cal Raleigh</t>
+  </si>
+  <si>
+    <t>Jorge Mateo</t>
+  </si>
+  <si>
     <t>Brandon Drury</t>
   </si>
   <si>
-    <t>Javier Baez</t>
-  </si>
-  <si>
-    <t>Jhoan Duran</t>
-  </si>
-  <si>
-    <t>Harrison Bader</t>
-  </si>
-  <si>
-    <t>Jeffrey Springs</t>
-  </si>
-  <si>
-    <t>Joey Meneses</t>
-  </si>
-  <si>
-    <t>Riley Greene</t>
-  </si>
-  <si>
-    <t>Tyler Stephenson</t>
-  </si>
-  <si>
-    <t>Cal Raleigh</t>
-  </si>
-  <si>
-    <t>Jonathan India</t>
+    <t>Ketel Marte</t>
+  </si>
+  <si>
+    <t>Patrick Sandoval</t>
+  </si>
+  <si>
+    <t>Ryan McMahon</t>
+  </si>
+  <si>
+    <t>Pete Fairbanks</t>
+  </si>
+  <si>
+    <t>Alex Cobb</t>
   </si>
   <si>
     <t>Josh Naylor</t>
   </si>
   <si>
-    <t>Jorge Mateo</t>
+    <t>Grayson Rodriguez</t>
+  </si>
+  <si>
+    <t>Whit Merrifield</t>
+  </si>
+  <si>
+    <t>Vaughn Grissom</t>
+  </si>
+  <si>
+    <t>Ramon Laureano</t>
+  </si>
+  <si>
+    <t>Reid Detmers</t>
+  </si>
+  <si>
+    <t>Josh Rojas</t>
+  </si>
+  <si>
+    <t>Seranthony Dominguez</t>
+  </si>
+  <si>
+    <t>Seth Brown</t>
   </si>
   <si>
     <t>Andrew Heaney</t>
   </si>
   <si>
-    <t>Pete Fairbanks</t>
-  </si>
-  <si>
-    <t>Grayson Rodriguez</t>
-  </si>
-  <si>
-    <t>Reid Detmers</t>
+    <t>Lourdes Gurriel Jr.</t>
+  </si>
+  <si>
+    <t>Jose Leclerc</t>
+  </si>
+  <si>
+    <t>Aaron Ashby</t>
   </si>
   <si>
     <t>Gregory Soto</t>
   </si>
   <si>
-    <t>Drew Rasmussen</t>
-  </si>
-  <si>
     <t>Jean Segura</t>
   </si>
   <si>
-    <t>Ryan McMahon</t>
+    <t>Danny Jansen</t>
+  </si>
+  <si>
+    <t>CJ Abrams</t>
   </si>
   <si>
     <t>Jack Flaherty</t>
   </si>
   <si>
-    <t>Aaron Ashby</t>
-  </si>
-  <si>
-    <t>CJ Abrams</t>
+    <t>Edward Cabrera</t>
+  </si>
+  <si>
+    <t>Brendan Rodgers</t>
   </si>
   <si>
     <t>Jose Berrios</t>
   </si>
   <si>
+    <t>Lars Nootbaar</t>
+  </si>
+  <si>
+    <t>Keibert Ruiz</t>
+  </si>
+  <si>
+    <t>Anthony Rendon</t>
+  </si>
+  <si>
+    <t>Andrew Benintendi</t>
+  </si>
+  <si>
+    <t>Miles Mikolas</t>
+  </si>
+  <si>
     <t>Sonny Gray</t>
   </si>
   <si>
-    <t>Ketel Marte</t>
-  </si>
-  <si>
-    <t>Josh Rojas</t>
-  </si>
-  <si>
-    <t>Anthony Rendon</t>
-  </si>
-  <si>
-    <t>Lars Nootbaar</t>
-  </si>
-  <si>
-    <t>Alex Cobb</t>
+    <t>Merrill Kelly</t>
+  </si>
+  <si>
+    <t>Trevor Rogers</t>
+  </si>
+  <si>
+    <t>Bryson Stott</t>
+  </si>
+  <si>
+    <t>Kolten Wong</t>
   </si>
   <si>
     <t>J.D. Martinez</t>
   </si>
   <si>
-    <t>Whit Merrifield</t>
-  </si>
-  <si>
-    <t>Edward Cabrera</t>
-  </si>
-  <si>
-    <t>Kolten Wong</t>
-  </si>
-  <si>
-    <t>Seranthony Dominguez</t>
-  </si>
-  <si>
-    <t>Ramon Laureano</t>
-  </si>
-  <si>
-    <t>Vaughn Grissom</t>
-  </si>
-  <si>
-    <t>Bryson Stott</t>
-  </si>
-  <si>
-    <t>Seth Brown</t>
+    <t>Jon Berti</t>
   </si>
   <si>
     <t>Joc Pederson</t>
   </si>
   <si>
-    <t>Lourdes Gurriel Jr.</t>
-  </si>
-  <si>
-    <t>Patrick Sandoval</t>
-  </si>
-  <si>
-    <t>Miles Mikolas</t>
-  </si>
-  <si>
-    <t>Merrill Kelly</t>
-  </si>
-  <si>
-    <t>Brendan Rodgers</t>
+    <t>Josh Jung</t>
+  </si>
+  <si>
+    <t>Triston Casas</t>
+  </si>
+  <si>
+    <t>DJ LeMahieu</t>
+  </si>
+  <si>
+    <t>Jameson Taillon</t>
+  </si>
+  <si>
+    <t>Nathan Eovaldi</t>
+  </si>
+  <si>
+    <t>Ezequiel Tovar</t>
   </si>
   <si>
     <t>Austin Hays</t>
   </si>
   <si>
-    <t>Josh Jung</t>
-  </si>
-  <si>
-    <t>Keibert Ruiz</t>
-  </si>
-  <si>
-    <t>Andrew Benintendi</t>
-  </si>
-  <si>
-    <t>Trevor Rogers</t>
-  </si>
-  <si>
-    <t>Triston Casas</t>
-  </si>
-  <si>
-    <t>Jon Berti</t>
-  </si>
-  <si>
-    <t>Jose Leclerc</t>
+    <t>Michael Conforto</t>
+  </si>
+  <si>
+    <t>Gavin Lux</t>
+  </si>
+  <si>
+    <t>Bailey Ober</t>
+  </si>
+  <si>
+    <t>Cody Bellinger</t>
+  </si>
+  <si>
+    <t>Eric Lauer</t>
+  </si>
+  <si>
+    <t>Marcus Stroman</t>
+  </si>
+  <si>
+    <t>Christopher Morel</t>
+  </si>
+  <si>
+    <t>Luis Urias</t>
+  </si>
+  <si>
+    <t>Tyler Anderson</t>
+  </si>
+  <si>
+    <t>HaSeong Kim</t>
+  </si>
+  <si>
+    <t>Adalberto Mondesi</t>
+  </si>
+  <si>
+    <t>Bryan De La Cruz</t>
   </si>
   <si>
     <t>Yandy Diaz</t>
   </si>
   <si>
-    <t>Cody Bellinger</t>
-  </si>
-  <si>
-    <t>Danny Jansen</t>
-  </si>
-  <si>
-    <t>Nathan Eovaldi</t>
-  </si>
-  <si>
-    <t>Tyler Anderson</t>
-  </si>
-  <si>
-    <t>Luis Urias</t>
-  </si>
-  <si>
-    <t>Gavin Lux</t>
+    <t>Hunter Brown</t>
+  </si>
+  <si>
+    <t>Jorge Lopez</t>
+  </si>
+  <si>
+    <t>Jose Urquidy</t>
+  </si>
+  <si>
+    <t>Trey Mancini</t>
+  </si>
+  <si>
+    <t>Ranger Suarez</t>
+  </si>
+  <si>
+    <t>Luis Rengifo</t>
+  </si>
+  <si>
+    <t>Charlie Blackmon</t>
+  </si>
+  <si>
+    <t>Travis d'Arnaud</t>
   </si>
   <si>
     <t>Tyler Mahle</t>
   </si>
   <si>
-    <t>HaSeong Kim</t>
-  </si>
-  <si>
-    <t>DJ LeMahieu</t>
-  </si>
-  <si>
-    <t>Bryan De La Cruz</t>
+    <t>Manuel Margot</t>
+  </si>
+  <si>
+    <t>Lane Thomas</t>
+  </si>
+  <si>
+    <t>Roansy Contreras</t>
   </si>
   <si>
     <t>Justin Turner</t>
   </si>
   <si>
-    <t>Jorge Lopez</t>
-  </si>
-  <si>
-    <t>Luis Rengifo</t>
-  </si>
-  <si>
-    <t>Christopher Morel</t>
-  </si>
-  <si>
-    <t>Marcus Stroman</t>
-  </si>
-  <si>
-    <t>Bailey Ober</t>
-  </si>
-  <si>
-    <t>Lane Thomas</t>
-  </si>
-  <si>
-    <t>Travis d'Arnaud</t>
+    <t>Randal Grichuk</t>
+  </si>
+  <si>
+    <t>Justin Steele</t>
+  </si>
+  <si>
+    <t>Yoan Moncada</t>
   </si>
   <si>
     <t>Michael Kopech</t>
   </si>
   <si>
-    <t>Charlie Blackmon</t>
-  </si>
-  <si>
-    <t>Ezequiel Tovar</t>
-  </si>
-  <si>
-    <t>Adalberto Mondesi</t>
-  </si>
-  <si>
-    <t>Michael Conforto</t>
-  </si>
-  <si>
-    <t>Jameson Taillon</t>
-  </si>
-  <si>
-    <t>Trey Mancini</t>
-  </si>
-  <si>
-    <t>Eric Lauer</t>
-  </si>
-  <si>
-    <t>Randal Grichuk</t>
+    <t>Jarred Kelenic</t>
+  </si>
+  <si>
+    <t>Jordan Walker</t>
+  </si>
+  <si>
+    <t>Miguel Vargas</t>
+  </si>
+  <si>
+    <t>Kyle Finnegan</t>
+  </si>
+  <si>
+    <t>Tylor Megill</t>
+  </si>
+  <si>
+    <t>Giovanny Gallegos</t>
+  </si>
+  <si>
+    <t>Garrett Whitlock</t>
+  </si>
+  <si>
+    <t>Martin Perez</t>
+  </si>
+  <si>
+    <t>Brandon Marsh</t>
+  </si>
+  <si>
+    <t>Jonah Heim</t>
+  </si>
+  <si>
+    <t>Jake Fraley</t>
+  </si>
+  <si>
+    <t>Austin Meadows</t>
+  </si>
+  <si>
+    <t>Matt Mervis</t>
+  </si>
+  <si>
+    <t>Tommy</t>
+  </si>
+  <si>
+    <t>Dylan Carlson</t>
+  </si>
+  <si>
+    <t>Jorge Soler</t>
   </si>
   <si>
     <t>Jose Siri</t>
   </si>
   <si>
-    <t>Jake Fraley</t>
-  </si>
-  <si>
-    <t>Manuel Margot</t>
-  </si>
-  <si>
-    <t>Giovanny Gallegos</t>
-  </si>
-  <si>
-    <t>Roansy Contreras</t>
+    <t>Carlos Carrasco</t>
+  </si>
+  <si>
+    <t>Jesse Winker</t>
+  </si>
+  <si>
+    <t>Logan O'Hoppe</t>
   </si>
   <si>
     <t>Oswaldo Cabrera</t>
   </si>
   <si>
-    <t>Kyle Finnegan</t>
-  </si>
-  <si>
-    <t>Austin Meadows</t>
-  </si>
-  <si>
-    <t>Jose Urquidy</t>
-  </si>
-  <si>
-    <t>Ranger Suarez</t>
-  </si>
-  <si>
-    <t>Kodai Senga</t>
-  </si>
-  <si>
-    <t>Hunter Brown</t>
+    <t>Jared Walsh</t>
   </si>
   <si>
     <t>Sean Manaea</t>
   </si>
   <si>
-    <t>Tylor Megill</t>
-  </si>
-  <si>
-    <t>Jarred Kelenic</t>
-  </si>
-  <si>
-    <t>Justin Steele</t>
-  </si>
-  <si>
-    <t>Jordan Walker</t>
-  </si>
-  <si>
-    <t>Yoan Moncada</t>
-  </si>
-  <si>
-    <t>Martin Perez</t>
-  </si>
-  <si>
-    <t>Brandon Marsh</t>
-  </si>
-  <si>
-    <t>Miguel Vargas</t>
-  </si>
-  <si>
-    <t>Garrett Whitlock</t>
-  </si>
-  <si>
-    <t>Dylan Carlson</t>
-  </si>
-  <si>
-    <t>Jonah Heim</t>
-  </si>
-  <si>
-    <t>Matt Mervis</t>
-  </si>
-  <si>
-    <t>Tommy</t>
-  </si>
-  <si>
-    <t>Jesse Winker</t>
+    <t>Brayan Bello</t>
+  </si>
+  <si>
+    <t>Chris Martin</t>
+  </si>
+  <si>
+    <t>Eduardo Rodriguez</t>
+  </si>
+  <si>
+    <t>Taijuan Walker</t>
+  </si>
+  <si>
+    <t>Cal Quantrill</t>
   </si>
   <si>
     <t>Dylan Floro</t>
   </si>
   <si>
-    <t>Carlos Carrasco</t>
-  </si>
-  <si>
-    <t>Jorge Soler</t>
-  </si>
-  <si>
-    <t>Jared Walsh</t>
+    <t>Juan Yepez</t>
   </si>
   <si>
     <t>Kenta Maeda</t>
   </si>
   <si>
-    <t>Logan O'Hoppe</t>
-  </si>
-  <si>
-    <t>Chris Martin</t>
-  </si>
-  <si>
-    <t>Juan Yepez</t>
-  </si>
-  <si>
-    <t>Brayan Bello</t>
-  </si>
-  <si>
-    <t>Taijuan Walker</t>
-  </si>
-  <si>
-    <t>Eduardo Rodriguez</t>
+    <t>Tanner Houck</t>
+  </si>
+  <si>
+    <t>Hayden Wesneski</t>
   </si>
   <si>
     <t>Masataka Yoshida</t>
   </si>
   <si>
-    <t>Cal Quantrill</t>
-  </si>
-  <si>
-    <t>Hayden Wesneski</t>
-  </si>
-  <si>
     <t>Taylor Rogers</t>
   </si>
   <si>
     <t>Ross Stripling</t>
   </si>
   <si>
-    <t>Tanner Houck</t>
+    <t>Isaac Paredes</t>
+  </si>
+  <si>
+    <t>Spencer Torkelson</t>
   </si>
   <si>
     <t>Mike Soroka</t>
   </si>
   <si>
-    <t>Isaac Paredes</t>
-  </si>
-  <si>
-    <t>Spencer Torkelson</t>
-  </si>
-  <si>
     <t>Bubba Thompson</t>
   </si>
   <si>
@@ -976,79 +973,109 @@
     <t>MacKenzie Gore</t>
   </si>
   <si>
+    <t>Christian Vazquez</t>
+  </si>
+  <si>
+    <t>Evan Phillips</t>
+  </si>
+  <si>
+    <t>Jason Adam</t>
+  </si>
+  <si>
     <t>Alex Kirilloff</t>
   </si>
   <si>
-    <t>Evan Phillips</t>
+    <t>Yasmani Grandal</t>
+  </si>
+  <si>
+    <t>Avisail Garcia</t>
+  </si>
+  <si>
+    <t>Eric Haase</t>
   </si>
   <si>
     <t>Tarik Skubal</t>
   </si>
   <si>
+    <t>Eduardo Escobar</t>
+  </si>
+  <si>
+    <t>Nick Gordon</t>
+  </si>
+  <si>
     <t>Akil Baddoo</t>
   </si>
   <si>
     <t>Luis Ortiz</t>
   </si>
   <si>
-    <t>Jason Adam</t>
+    <t>Zach Eflin</t>
+  </si>
+  <si>
+    <t>Daniel Hudson</t>
   </si>
   <si>
     <t>Connor Joe</t>
   </si>
   <si>
+    <t>Esteury Ruiz</t>
+  </si>
+  <si>
     <t>Alek Thomas</t>
   </si>
   <si>
-    <t>Eduardo Escobar</t>
-  </si>
-  <si>
-    <t>Esteury Ruiz</t>
-  </si>
-  <si>
-    <t>Avisail Garcia</t>
-  </si>
-  <si>
-    <t>Daniel Hudson</t>
+    <t>Brendan Donovan</t>
+  </si>
+  <si>
+    <t>Garrett Mitchell</t>
   </si>
   <si>
     <t>Domingo German</t>
   </si>
   <si>
+    <t>Jose Quintana</t>
+  </si>
+  <si>
     <t>David Fletcher</t>
   </si>
   <si>
+    <t>Adam Wainwright</t>
+  </si>
+  <si>
     <t>Jo Adell</t>
   </si>
   <si>
-    <t>Rafael Montero</t>
-  </si>
-  <si>
-    <t>Jose Quintana</t>
-  </si>
-  <si>
-    <t>Adam Wainwright</t>
+    <t>Bo Naylor</t>
+  </si>
+  <si>
+    <t>Joey Bart</t>
   </si>
   <si>
     <t>J.P. Crawford</t>
   </si>
   <si>
-    <t>Zach Eflin</t>
+    <t>Christian Bethancourt</t>
+  </si>
+  <si>
+    <t>Mark Canha</t>
+  </si>
+  <si>
+    <t>Chris Taylor</t>
   </si>
   <si>
     <t>DL Hall</t>
   </si>
   <si>
-    <t>Brendan Donovan</t>
-  </si>
-  <si>
     <t>David Peterson</t>
   </si>
   <si>
     <t>J.D. Davis</t>
   </si>
   <si>
-    <t>Garrett Mitchell</t>
+    <t>Steven Matz</t>
+  </si>
+  <si>
+    <t>Alex Wood</t>
   </si>
   <si>
     <t>Nick Madrigal</t>
@@ -1057,48 +1084,39 @@
     <t>Ryne Nelson</t>
   </si>
   <si>
+    <t>Jurickson</t>
+  </si>
+  <si>
     <t>Josh Lowe</t>
   </si>
   <si>
-    <t>Steven Matz</t>
+    <t>Carlos Estevez</t>
   </si>
   <si>
     <t>Tyrone Taylor</t>
   </si>
   <si>
-    <t>Jurickson</t>
-  </si>
-  <si>
-    <t>Alex Wood</t>
-  </si>
-  <si>
-    <t>Mark Canha</t>
-  </si>
-  <si>
-    <t>Chris Taylor</t>
+    <t>Marcell Ozuna</t>
   </si>
   <si>
     <t>Trayce Thompson</t>
   </si>
   <si>
+    <t>Wilmer Flores</t>
+  </si>
+  <si>
+    <t>Josiah Gray</t>
+  </si>
+  <si>
     <t>Kyle Bradish</t>
   </si>
   <si>
-    <t>Wilmer Flores</t>
-  </si>
-  <si>
-    <t>Marcell Ozuna</t>
-  </si>
-  <si>
-    <t>Josiah Gray</t>
+    <t>Alex Lange</t>
   </si>
   <si>
     <t>Aaron Civale</t>
   </si>
   <si>
-    <t>Alex Lange</t>
-  </si>
-  <si>
     <t>Ken Waldichuk</t>
   </si>
   <si>
@@ -1108,37 +1126,40 @@
     <t>Kerry Carpenter</t>
   </si>
   <si>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
     <t>Gio Urshela</t>
   </si>
   <si>
+    <t>Brandon Hughes</t>
+  </si>
+  <si>
     <t>Nick Pivetta</t>
   </si>
   <si>
-    <t>Jose Alvarado</t>
-  </si>
-  <si>
     <t>Kike Hernandez</t>
   </si>
   <si>
     <t>Mitch Keller</t>
   </si>
   <si>
+    <t>Mike Yastrzemski</t>
+  </si>
+  <si>
     <t>Braxton Garrett</t>
   </si>
   <si>
-    <t>Brandon Hughes</t>
-  </si>
-  <si>
-    <t>Mike Yastrzemski</t>
-  </si>
-  <si>
     <t>Luke</t>
   </si>
   <si>
-    <t>Jimmy Herget</t>
-  </si>
-  <si>
-    <t>Aroldis</t>
+    <t>Corey Kluber</t>
+  </si>
+  <si>
+    <t>German Marquez</t>
+  </si>
+  <si>
+    <t>Patrick Wisdom</t>
   </si>
   <si>
     <t>Elvis</t>
@@ -1147,42 +1168,30 @@
     <t>Michael Brantley</t>
   </si>
   <si>
-    <t>Corey Kluber</t>
-  </si>
-  <si>
-    <t>Bailey Falter</t>
-  </si>
-  <si>
-    <t>German Marquez</t>
-  </si>
-  <si>
-    <t>Jose Suarez</t>
-  </si>
-  <si>
     <t>Oscar Colas</t>
   </si>
   <si>
-    <t>A.J. Puk</t>
-  </si>
-  <si>
     <t>2B,SS</t>
   </si>
   <si>
+    <t>3B,DH</t>
+  </si>
+  <si>
     <t>CF,RF,DH</t>
   </si>
   <si>
-    <t>3B,DH</t>
+    <t>CF,RF</t>
   </si>
   <si>
     <t>DH,RF</t>
   </si>
   <si>
-    <t>CF,RF</t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
+    <t>SP,DH</t>
+  </si>
+  <si>
     <t>LF,DH</t>
   </si>
   <si>
@@ -1192,24 +1201,21 @@
     <t>1B,DH</t>
   </si>
   <si>
+    <t>3B,SS</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
     <t>SP</t>
   </si>
   <si>
     <t>DH,SS</t>
   </si>
   <si>
-    <t>1B</t>
-  </si>
-  <si>
-    <t>SP,DH</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>3B,SS</t>
-  </si>
-  <si>
     <t>3B</t>
   </si>
   <si>
@@ -1219,21 +1225,21 @@
     <t>RP</t>
   </si>
   <si>
+    <t>SS,CF,RF</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>RP,SP</t>
+  </si>
+  <si>
     <t>SS</t>
   </si>
   <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>SS,CF,RF</t>
-  </si>
-  <si>
     <t>DH,LF,RF</t>
   </si>
   <si>
-    <t>RP,SP</t>
-  </si>
-  <si>
     <t>C,1B</t>
   </si>
   <si>
@@ -1243,114 +1249,114 @@
     <t>CF,DH,LF,RF</t>
   </si>
   <si>
+    <t>CF,DH,RF</t>
+  </si>
+  <si>
     <t>DH,LF</t>
   </si>
   <si>
-    <t>CF,DH,RF</t>
+    <t>C,DH</t>
+  </si>
+  <si>
+    <t>C,CF,DH,LF,RF</t>
   </si>
   <si>
     <t>2B,RF,SS</t>
   </si>
   <si>
-    <t>C,DH</t>
-  </si>
-  <si>
-    <t>C,CF,DH,LF,RF</t>
-  </si>
-  <si>
     <t>SP,RP</t>
   </si>
   <si>
+    <t>3B,DH,SS</t>
+  </si>
+  <si>
     <t>CF,DH,LF</t>
   </si>
   <si>
-    <t>3B,DH,SS</t>
+    <t>CF,LF</t>
+  </si>
+  <si>
+    <t>CF,DH,LF,SS</t>
   </si>
   <si>
     <t>CF,DH</t>
   </si>
   <si>
-    <t>CF,LF</t>
-  </si>
-  <si>
-    <t>CF,DH,LF,SS</t>
+    <t>LF,RF,DH</t>
+  </si>
+  <si>
+    <t>LF,RF</t>
   </si>
   <si>
     <t>1B,3B,CF,DH,LF,RF</t>
   </si>
   <si>
-    <t>LF,RF,DH</t>
-  </si>
-  <si>
-    <t>LF,RF</t>
+    <t>C,DH,LF,RF</t>
   </si>
   <si>
     <t>LF,CF,RF</t>
   </si>
   <si>
+    <t>1B,2B,3B,DH</t>
+  </si>
+  <si>
+    <t>1B,LF,DH</t>
+  </si>
+  <si>
     <t>1B,DH,LF,RF</t>
   </si>
   <si>
-    <t>C,DH,LF,RF</t>
-  </si>
-  <si>
-    <t>1B,LF,DH</t>
-  </si>
-  <si>
-    <t>1B,2B,3B,DH</t>
-  </si>
-  <si>
     <t>1B,3B,DH</t>
   </si>
   <si>
     <t>LF,CF</t>
   </si>
   <si>
+    <t>1B,2B,3B,DH,LF</t>
+  </si>
+  <si>
+    <t>2B,DH,LF,RF</t>
+  </si>
+  <si>
+    <t>RF,DH</t>
+  </si>
+  <si>
     <t>1B,2B,SS</t>
   </si>
   <si>
-    <t>RF,DH</t>
+    <t>2B,DH,SS</t>
   </si>
   <si>
     <t>2B,LF,RF</t>
   </si>
   <si>
-    <t>2B,DH,LF,RF</t>
-  </si>
-  <si>
-    <t>1B,2B,3B,DH,LF</t>
+    <t>2B,DH</t>
+  </si>
+  <si>
+    <t>1B,RF</t>
   </si>
   <si>
     <t>2B,LF,SS</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>2B,SS,CF</t>
+  </si>
+  <si>
     <t>1B,2B,3B,DH,LF,RF</t>
   </si>
   <si>
-    <t>2B,DH,SS</t>
-  </si>
-  <si>
-    <t>1B,RF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>2B,DH</t>
+    <t>2B,CF,DH</t>
+  </si>
+  <si>
+    <t>2B,3B</t>
   </si>
   <si>
     <t>1B,DH,RF</t>
   </si>
   <si>
-    <t>2B,SS,CF</t>
-  </si>
-  <si>
-    <t>2B,3B</t>
-  </si>
-  <si>
-    <t>2B,CF,DH</t>
-  </si>
-  <si>
     <t>2B,3B,SS,LF,RF</t>
   </si>
   <si>
@@ -1363,108 +1369,120 @@
     <t>2B,3B,LF,SS</t>
   </si>
   <si>
+    <t>1B,2B,3B</t>
+  </si>
+  <si>
+    <t>2B,SS,LF,CF</t>
+  </si>
+  <si>
+    <t>2B,3B,CF,SS</t>
+  </si>
+  <si>
     <t>2B,3B,SS</t>
   </si>
   <si>
-    <t>2B,SS,LF,CF</t>
-  </si>
-  <si>
-    <t>1B,2B,3B</t>
-  </si>
-  <si>
     <t>CF,LF,RF</t>
   </si>
   <si>
     <t>2B,3B,RF,SS</t>
   </si>
   <si>
-    <t>2B,3B,CF,SS</t>
-  </si>
-  <si>
     <t>2B,LF,RF,SS</t>
   </si>
   <si>
     <t>1B,3B,DH,LF,RF</t>
   </si>
   <si>
+    <t>1B,C</t>
+  </si>
+  <si>
     <t>1B,LF,RF</t>
   </si>
   <si>
+    <t>1B,C,DH</t>
+  </si>
+  <si>
+    <t>C,DH,LF</t>
+  </si>
+  <si>
     <t>2B,CF,LF,RF</t>
   </si>
   <si>
     <t>1B,2B,3B,DH,LF,RF,SS</t>
   </si>
   <si>
+    <t>2B,3B,CF,LF,RF,SS</t>
+  </si>
+  <si>
     <t>1B,2B,CF,LF,RF</t>
   </si>
   <si>
-    <t>2B,3B,CF,LF,RF,SS</t>
-  </si>
-  <si>
     <t>2B,CF,SS</t>
   </si>
   <si>
+    <t>1B,3B,LF,RF</t>
+  </si>
+  <si>
     <t>1B,CF</t>
   </si>
   <si>
     <t>PHI</t>
   </si>
   <si>
+    <t>CLE</t>
+  </si>
+  <si>
     <t>NYY</t>
   </si>
   <si>
-    <t>CLE</t>
+    <t>SEA</t>
   </si>
   <si>
     <t>ATL</t>
   </si>
   <si>
-    <t>SEA</t>
-  </si>
-  <si>
     <t>HOU</t>
   </si>
   <si>
+    <t>LAA</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
     <t>LAD</t>
   </si>
   <si>
     <t>TOR</t>
   </si>
   <si>
-    <t>SD</t>
+    <t>KC</t>
   </si>
   <si>
     <t>MIL</t>
   </si>
   <si>
-    <t>LAA</t>
-  </si>
-  <si>
     <t>MIA</t>
   </si>
   <si>
+    <t>BOS</t>
+  </si>
+  <si>
     <t>NYM</t>
   </si>
   <si>
-    <t>KC</t>
-  </si>
-  <si>
     <t>STL</t>
   </si>
   <si>
-    <t>BOS</t>
+    <t>CWS</t>
+  </si>
+  <si>
+    <t>TEX</t>
   </si>
   <si>
     <t>TB</t>
   </si>
   <si>
-    <t>CWS</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
     <t>BAL</t>
   </si>
   <si>
@@ -1477,12 +1495,12 @@
     <t>PIT</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>MIN</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>COL</t>
   </si>
   <si>
@@ -1505,9 +1523,6 @@
   </si>
   <si>
     <t>Voit</t>
-  </si>
-  <si>
-    <t>Chapman</t>
   </si>
   <si>
     <t>Andrus</t>
@@ -1868,7 +1883,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D380"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1899,10 +1914,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1913,10 +1928,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D3" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1927,10 +1942,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D4" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1941,10 +1956,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D5" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1955,10 +1970,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D6" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1969,10 +1984,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1983,10 +1998,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D8" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1997,10 +2012,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D9" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2011,10 +2026,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D10" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2025,10 +2040,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D11" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2039,10 +2054,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D12" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2053,10 +2068,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D13" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2067,10 +2082,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D14" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2081,10 +2096,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D15" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2095,10 +2110,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="D16" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2109,10 +2124,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2123,10 +2138,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="D18" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2137,10 +2152,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D19" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2151,10 +2166,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D20" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2165,10 +2180,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D21" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2179,10 +2194,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D22" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2193,10 +2208,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D23" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2207,10 +2222,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D24" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2221,10 +2236,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D25" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2235,10 +2250,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D26" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2249,10 +2264,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D27" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2263,10 +2278,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D28" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2277,10 +2292,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D29" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2291,10 +2306,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="D30" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2305,10 +2320,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="D31" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2319,10 +2334,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D32" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2333,10 +2348,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D33" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2347,10 +2362,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="D34" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2361,10 +2376,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D35" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2375,10 +2390,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D36" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2389,10 +2404,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D37" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2403,10 +2418,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D38" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2417,10 +2432,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D39" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2431,10 +2446,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D40" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2445,10 +2460,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D41" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2459,10 +2474,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D42" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2473,10 +2488,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D43" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2487,10 +2502,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D44" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2501,10 +2516,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D45" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2518,7 +2533,7 @@
         <v>395</v>
       </c>
       <c r="D46" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2532,7 +2547,7 @@
         <v>407</v>
       </c>
       <c r="D47" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2543,10 +2558,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D48" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2557,10 +2572,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="D49" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2571,10 +2586,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D50" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2585,10 +2600,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D51" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2599,10 +2614,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D52" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2613,10 +2628,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D53" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2627,10 +2642,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D54" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2641,10 +2656,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D55" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2655,10 +2670,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="D56" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2672,7 +2687,7 @@
         <v>397</v>
       </c>
       <c r="D57" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2683,10 +2698,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D58" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2697,10 +2712,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D59" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2711,10 +2726,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D60" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2725,10 +2740,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D61" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2739,10 +2754,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D62" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2753,10 +2768,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="D63" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2767,10 +2782,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="D64" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2781,7 +2796,7 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D65" t="s">
         <v>480</v>
@@ -2795,10 +2810,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D66" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2809,10 +2824,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D67" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2823,10 +2838,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D68" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2837,10 +2852,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D69" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2851,10 +2866,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="D70" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2865,10 +2880,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D71" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2879,10 +2894,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="D72" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2893,10 +2908,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="D73" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2907,10 +2922,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D74" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2921,10 +2936,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D75" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2935,10 +2950,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D76" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2949,10 +2964,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D77" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2966,7 +2981,7 @@
         <v>412</v>
       </c>
       <c r="D78" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2977,10 +2992,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="D79" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2991,10 +3006,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D80" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3005,10 +3020,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="D81" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3019,10 +3034,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D82" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3033,10 +3048,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="D83" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3047,10 +3062,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D84" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3061,10 +3076,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="D85" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3075,10 +3090,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="D86" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3089,10 +3104,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D87" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3103,10 +3118,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="D88" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3117,10 +3132,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D89" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3131,10 +3146,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D90" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3145,10 +3160,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="D91" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3159,10 +3174,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D92" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3173,10 +3188,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D93" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3187,10 +3202,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D94" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3201,10 +3216,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="D95" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3215,7 +3230,7 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D96" t="s">
         <v>487</v>
@@ -3229,10 +3244,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D97" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3243,10 +3258,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="D98" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3257,10 +3272,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D99" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3271,10 +3286,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="D100" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3285,10 +3300,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="D101" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3299,10 +3314,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D102" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3313,10 +3328,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="D103" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3327,10 +3342,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="D104" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3341,10 +3356,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="D105" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3355,10 +3370,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D106" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3372,7 +3387,7 @@
         <v>393</v>
       </c>
       <c r="D107" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3383,10 +3398,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="D108" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3397,10 +3412,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D109" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3411,10 +3426,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="D110" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3425,10 +3440,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="D111" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3439,10 +3454,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="D112" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3453,10 +3468,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="D113" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3467,10 +3482,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D114" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3481,10 +3496,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="D115" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3495,10 +3510,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D116" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3509,10 +3524,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="D117" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3523,10 +3538,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="D118" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3537,10 +3552,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D119" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3551,10 +3566,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D120" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3565,10 +3580,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="D121" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3579,10 +3594,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D122" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3593,10 +3608,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D123" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3607,10 +3622,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D124" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3621,10 +3636,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="D125" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3635,10 +3650,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="D126" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3649,10 +3664,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="D127" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3663,10 +3678,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="D128" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3677,10 +3692,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D129" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3691,10 +3706,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="D130" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3705,10 +3720,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="D131" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3719,10 +3734,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="D132" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3733,10 +3748,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D133" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3747,10 +3762,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D134" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3761,10 +3776,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D135" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3775,10 +3790,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D136" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3789,10 +3804,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="D137" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3803,10 +3818,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="D138" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3817,10 +3832,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="D139" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3831,10 +3846,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="D140" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3845,10 +3860,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="D141" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3859,10 +3874,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="D142" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3873,10 +3888,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D143" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3887,10 +3902,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="D144" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3901,10 +3916,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="D145" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3915,10 +3930,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="D146" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3929,10 +3944,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D147" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3943,10 +3958,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="D148" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3957,10 +3972,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D149" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3971,10 +3986,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="D150" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3988,7 +4003,7 @@
         <v>399</v>
       </c>
       <c r="D151" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3999,10 +4014,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="D152" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4013,10 +4028,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="D153" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4030,7 +4045,7 @@
         <v>397</v>
       </c>
       <c r="D154" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4041,10 +4056,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
       <c r="D155" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4055,10 +4070,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D156" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4069,10 +4084,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="D157" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4083,10 +4098,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D158" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4097,10 +4112,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D159" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4111,10 +4126,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="D160" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4125,10 +4140,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="D161" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4139,10 +4154,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="D162" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4153,10 +4168,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="D163" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4167,10 +4182,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D164" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4181,10 +4196,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D165" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4195,10 +4210,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="D166" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4209,10 +4224,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D167" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4223,10 +4238,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="D168" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4237,10 +4252,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="D169" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4251,10 +4266,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D170" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4265,10 +4280,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="D171" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4282,7 +4297,7 @@
         <v>433</v>
       </c>
       <c r="D172" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4293,10 +4308,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="D173" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4307,10 +4322,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="D174" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4321,10 +4336,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="D175" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4335,10 +4350,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D176" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4349,10 +4364,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="D177" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4363,10 +4378,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="D178" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4377,10 +4392,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="D179" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4391,10 +4406,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="D180" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4405,10 +4420,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D181" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4419,10 +4434,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="D182" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4433,10 +4448,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="D183" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4447,10 +4462,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="D184" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4461,10 +4476,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="D185" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4475,10 +4490,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="D186" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4489,10 +4504,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D187" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4503,10 +4518,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D188" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4517,10 +4532,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>437</v>
+        <v>396</v>
       </c>
       <c r="D189" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4531,10 +4546,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D190" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4545,10 +4560,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="D191" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4559,10 +4574,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D192" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4573,10 +4588,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D193" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4587,10 +4602,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D194" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4601,10 +4616,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D195" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4615,10 +4630,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="D196" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4629,10 +4644,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D197" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4643,10 +4658,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="D198" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4657,10 +4672,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D199" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4671,10 +4686,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D200" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4685,10 +4700,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="D201" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4699,10 +4714,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D202" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4713,10 +4728,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>442</v>
+        <v>392</v>
       </c>
       <c r="D203" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4727,10 +4742,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D204" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4741,10 +4756,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="D205" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4755,10 +4770,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="D206" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4769,10 +4784,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="D207" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4783,10 +4798,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D208" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4797,10 +4812,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D209" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4811,10 +4826,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="D210" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4825,10 +4840,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="D211" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4839,10 +4854,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D212" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4853,10 +4868,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="D213" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4867,10 +4882,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="D214" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4881,10 +4896,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="D215" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4895,10 +4910,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="D216" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4909,10 +4924,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="D217" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4923,10 +4938,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D218" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4937,10 +4952,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D219" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4951,10 +4966,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D220" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4965,10 +4980,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="D221" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4979,10 +4994,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="D222" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4993,10 +5008,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="D223" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5007,10 +5022,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D224" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5021,10 +5036,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="D225" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5035,10 +5050,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D226" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5049,10 +5064,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D227" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5063,10 +5078,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="D228" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5077,10 +5092,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="D229" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5091,10 +5106,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D230" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5105,10 +5120,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="D231" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5119,10 +5134,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="D232" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5133,10 +5148,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="D233" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5147,10 +5162,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="D234" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5161,10 +5176,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="D235" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5175,10 +5190,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D236" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5189,10 +5204,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="D237" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5203,10 +5218,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D238" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5217,10 +5232,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>438</v>
+        <v>397</v>
       </c>
       <c r="D239" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5231,10 +5246,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="D240" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5245,10 +5260,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="D241" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5259,10 +5274,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="D242" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5273,10 +5288,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D243" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5287,10 +5302,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D244" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5301,10 +5316,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="D245" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5315,10 +5330,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="D246" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5329,10 +5344,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>451</v>
+        <v>397</v>
       </c>
       <c r="D247" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5343,10 +5358,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>384</v>
+        <v>452</v>
       </c>
       <c r="D248" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5357,10 +5372,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="D249" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5371,10 +5386,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>452</v>
+        <v>397</v>
       </c>
       <c r="D250" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5388,7 +5403,7 @@
         <v>453</v>
       </c>
       <c r="D251" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5399,10 +5414,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D252" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5413,10 +5428,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="D253" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5427,10 +5442,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D254" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5441,10 +5456,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="D255" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5455,10 +5470,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D256" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5469,10 +5484,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="D257" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5483,10 +5498,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="D258" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5497,10 +5512,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="D259" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5511,10 +5526,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>387</v>
+        <v>455</v>
       </c>
       <c r="D260" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5525,10 +5540,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D261" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5539,10 +5554,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="D262" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5553,10 +5568,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D263" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5570,7 +5585,7 @@
         <v>409</v>
       </c>
       <c r="D264" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5581,10 +5596,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="D265" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5595,10 +5610,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D266" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5609,10 +5624,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="D267" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5623,10 +5638,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="D268" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5637,10 +5652,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="D269" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5651,10 +5666,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="D270" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5665,10 +5680,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="D271" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5679,10 +5694,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="D272" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5693,10 +5708,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="D273" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5707,10 +5722,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="D274" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5721,10 +5736,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D275" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5735,10 +5750,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D276" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5749,10 +5764,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D277" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5766,7 +5781,7 @@
         <v>404</v>
       </c>
       <c r="D278" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5777,10 +5792,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="D279" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5791,10 +5806,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D280" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5805,10 +5820,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="D281" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5819,10 +5834,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D282" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5833,10 +5848,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D283" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5847,10 +5862,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="D284" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5861,10 +5876,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="D285" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5875,10 +5890,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="D286" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5889,10 +5904,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="D287" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5903,10 +5918,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="D288" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5917,7 +5932,7 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D289" t="s">
         <v>483</v>
@@ -5931,10 +5946,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D290" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5945,10 +5960,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="D291" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5959,10 +5974,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="D292" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5973,7 +5988,7 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="D293" t="s">
         <v>475</v>
@@ -5987,10 +6002,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D294" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6001,10 +6016,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="D295" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6015,10 +6030,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D296" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6029,10 +6044,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>438</v>
+        <v>397</v>
       </c>
       <c r="D297" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6043,10 +6058,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D298" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6057,10 +6072,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="D299" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6071,10 +6086,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D300" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6085,10 +6100,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>391</v>
+        <v>457</v>
       </c>
       <c r="D301" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6099,10 +6114,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D302" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6113,10 +6128,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="D303" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6127,10 +6142,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D304" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6141,10 +6156,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="D305" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6155,10 +6170,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D306" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6169,10 +6184,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D307" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6183,10 +6198,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="D308" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6197,10 +6212,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="D309" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6211,10 +6226,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="D310" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6225,10 +6240,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="D311" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6239,10 +6254,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>451</v>
+        <v>397</v>
       </c>
       <c r="D312" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6253,10 +6268,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D313" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6267,10 +6282,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D314" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6281,10 +6296,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D315" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6295,10 +6310,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>391</v>
+        <v>458</v>
       </c>
       <c r="D316" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6309,10 +6324,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>456</v>
+        <v>401</v>
       </c>
       <c r="D317" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6323,10 +6338,10 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D318" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6337,10 +6352,10 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>391</v>
+        <v>459</v>
       </c>
       <c r="D319" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6351,10 +6366,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="D320" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6365,10 +6380,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D321" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6379,10 +6394,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>399</v>
+        <v>461</v>
       </c>
       <c r="D322" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6393,10 +6408,10 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="D323" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6407,10 +6422,10 @@
         <v>326</v>
       </c>
       <c r="C324" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="D324" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6421,10 +6436,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D325" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6435,10 +6450,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="D326" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6449,10 +6464,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="D327" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6463,10 +6478,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D328" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6477,10 +6492,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D329" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6491,10 +6506,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="D330" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6505,10 +6520,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="D331" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6519,10 +6534,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D332" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6533,10 +6548,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="D333" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6547,10 +6562,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="D334" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6561,10 +6576,10 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D335" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6575,10 +6590,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="D336" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6589,10 +6604,10 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="D337" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6600,13 +6615,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>182</v>
+        <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="D338" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6614,13 +6629,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="D339" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6628,13 +6643,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="D340" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6642,13 +6657,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="D341" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6656,13 +6671,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>343</v>
+        <v>167</v>
       </c>
       <c r="C342" t="s">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="D342" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6673,10 +6688,10 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D343" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6687,10 +6702,10 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>391</v>
+        <v>460</v>
       </c>
       <c r="D344" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6701,10 +6716,10 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="D345" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6715,7 +6730,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>404</v>
+        <v>464</v>
       </c>
       <c r="D346" t="s">
         <v>477</v>
@@ -6729,10 +6744,10 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="D347" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6743,10 +6758,10 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>459</v>
+        <v>404</v>
       </c>
       <c r="D348" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6757,10 +6772,10 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="D349" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6771,10 +6786,10 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="D350" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6785,10 +6800,10 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>460</v>
+        <v>397</v>
       </c>
       <c r="D351" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6799,10 +6814,10 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="D352" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6813,10 +6828,10 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D353" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6827,10 +6842,10 @@
         <v>355</v>
       </c>
       <c r="C354" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="D354" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6841,10 +6856,10 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="D355" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6855,10 +6870,10 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D356" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6869,10 +6884,10 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="D357" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6883,10 +6898,10 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="D358" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6897,10 +6912,10 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="D359" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6911,10 +6926,10 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="D360" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6925,10 +6940,10 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D361" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6939,10 +6954,10 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D362" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6953,10 +6968,10 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D363" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6967,10 +6982,10 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D364" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6981,10 +6996,10 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>461</v>
+        <v>397</v>
       </c>
       <c r="D365" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6995,10 +7010,10 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="D366" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7009,10 +7024,10 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="D367" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7023,10 +7038,10 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D368" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7037,10 +7052,10 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D369" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7051,10 +7066,10 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="D370" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7065,10 +7080,10 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D371" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7079,10 +7094,10 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="D372" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7093,10 +7108,10 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D373" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7107,10 +7122,10 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="D374" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7121,10 +7136,10 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D375" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7135,10 +7150,10 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D376" t="s">
-        <v>463</v>
+        <v>501</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7149,10 +7164,10 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D377" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7163,10 +7178,10 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="D378" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7177,10 +7192,10 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D379" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7191,14 +7206,42 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D380" t="s">
-        <v>492</v>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>382</v>
+      </c>
+      <c r="C381" t="s">
+        <v>421</v>
+      </c>
+      <c r="D381" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>383</v>
+      </c>
+      <c r="C382" t="s">
+        <v>468</v>
+      </c>
+      <c r="D382" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D380"/>
+  <autoFilter ref="A1:D382"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -67,12 +67,12 @@
     <t>Freddie Freeman</t>
   </si>
   <si>
+    <t>Mike Trout</t>
+  </si>
+  <si>
     <t>Corbin Burnes</t>
   </si>
   <si>
-    <t>Mike Trout</t>
-  </si>
-  <si>
     <t>Gerrit Cole</t>
   </si>
   <si>
@@ -85,24 +85,24 @@
     <t>Manny Machado</t>
   </si>
   <si>
+    <t>Rafael Devers</t>
+  </si>
+  <si>
     <t>Pete Alonso</t>
   </si>
   <si>
-    <t>Rafael Devers</t>
-  </si>
-  <si>
     <t>Sandy Alcantara</t>
   </si>
   <si>
+    <t>Paul Goldschmidt</t>
+  </si>
+  <si>
     <t>Austin Riley</t>
   </si>
   <si>
     <t>Fernando Tatis Jr.</t>
   </si>
   <si>
-    <t>Paul Goldschmidt</t>
-  </si>
-  <si>
     <t>Jacob deGrom</t>
   </si>
   <si>
@@ -118,21 +118,21 @@
     <t>Francisco Lindor</t>
   </si>
   <si>
+    <t>Michael Harris II</t>
+  </si>
+  <si>
+    <t>Nolan Arenado</t>
+  </si>
+  <si>
     <t>Randy Arozarena</t>
   </si>
   <si>
-    <t>Nolan Arenado</t>
-  </si>
-  <si>
-    <t>Michael Harris II</t>
+    <t>Spencer Strider</t>
   </si>
   <si>
     <t>Aaron Nola</t>
   </si>
   <si>
-    <t>Spencer Strider</t>
-  </si>
-  <si>
     <t>Shane McClanahan</t>
   </si>
   <si>
@@ -154,21 +154,21 @@
     <t>Matt Olson</t>
   </si>
   <si>
+    <t>Marcus Semien</t>
+  </si>
+  <si>
     <t>Josh Hader</t>
   </si>
   <si>
-    <t>Marcus Semien</t>
-  </si>
-  <si>
     <t>Cedric Mullins II</t>
   </si>
   <si>
+    <t>Kyle Schwarber</t>
+  </si>
+  <si>
     <t>Carlos Rodon</t>
   </si>
   <si>
-    <t>Kyle Schwarber</t>
-  </si>
-  <si>
     <t>Shane Bieber</t>
   </si>
   <si>
@@ -178,36 +178,36 @@
     <t>Zack Wheeler</t>
   </si>
   <si>
+    <t>Adolis Garcia</t>
+  </si>
+  <si>
     <t>Corey Seager</t>
   </si>
   <si>
-    <t>Adolis Garcia</t>
-  </si>
-  <si>
     <t>Julio Urias</t>
   </si>
   <si>
+    <t>Jazz Chisholm Jr.</t>
+  </si>
+  <si>
+    <t>Alex Bregman</t>
+  </si>
+  <si>
+    <t>J.T. Realmuto</t>
+  </si>
+  <si>
     <t>Jordan Romano</t>
   </si>
   <si>
-    <t>Jazz Chisholm Jr.</t>
-  </si>
-  <si>
-    <t>Alex Bregman</t>
-  </si>
-  <si>
-    <t>J.T. Realmuto</t>
-  </si>
-  <si>
     <t>Ozzie Albies</t>
   </si>
   <si>
+    <t>Starling Marte</t>
+  </si>
+  <si>
     <t>Kevin Gausman</t>
   </si>
   <si>
-    <t>Starling Marte</t>
-  </si>
-  <si>
     <t>Luis Castillo</t>
   </si>
   <si>
@@ -217,105 +217,105 @@
     <t>Alek Manoah</t>
   </si>
   <si>
+    <t>Devin Williams</t>
+  </si>
+  <si>
     <t>Eloy Jimenez</t>
   </si>
   <si>
-    <t>Devin Williams</t>
+    <t>Max Fried</t>
   </si>
   <si>
     <t>Teoscar Hernandez</t>
   </si>
   <si>
-    <t>Max Fried</t>
+    <t>Yu Darvish</t>
+  </si>
+  <si>
+    <t>Trevor Story</t>
+  </si>
+  <si>
+    <t>Zac Gallen</t>
   </si>
   <si>
     <t>Ryan Pressly</t>
   </si>
   <si>
-    <t>Trevor Story</t>
-  </si>
-  <si>
-    <t>Yu Darvish</t>
-  </si>
-  <si>
-    <t>Zac Gallen</t>
-  </si>
-  <si>
     <t>Tommy Edman</t>
   </si>
   <si>
     <t>Daulton Varsho</t>
   </si>
   <si>
+    <t>Xander Bogaerts</t>
+  </si>
+  <si>
     <t>Cristian Javier</t>
   </si>
   <si>
-    <t>Xander Bogaerts</t>
+    <t>Tim Anderson</t>
+  </si>
+  <si>
+    <t>Dansby Swanson</t>
   </si>
   <si>
     <t>Framber Valdez</t>
   </si>
   <si>
-    <t>Dansby Swanson</t>
-  </si>
-  <si>
     <t>Joe Musgrove</t>
   </si>
   <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
     <t>Bryan Reynolds</t>
   </si>
   <si>
-    <t>Tim Anderson</t>
-  </si>
-  <si>
-    <t>Will Smith</t>
+    <t>Salvador Perez</t>
+  </si>
+  <si>
+    <t>Ryan Helsley</t>
   </si>
   <si>
     <t>Felix Bautista</t>
   </si>
   <si>
-    <t>Salvador Perez</t>
-  </si>
-  <si>
-    <t>Ryan Helsley</t>
+    <t>Oneil Cruz</t>
   </si>
   <si>
     <t>Robbie Ray</t>
   </si>
   <si>
-    <t>Oneil Cruz</t>
-  </si>
-  <si>
     <t>Wander Franco</t>
   </si>
   <si>
     <t>Andres Gimenez</t>
   </si>
   <si>
+    <t>Raisel Iglesias</t>
+  </si>
+  <si>
+    <t>Willy Adames</t>
+  </si>
+  <si>
     <t>Adley Rutschman</t>
   </si>
   <si>
-    <t>Willy Adames</t>
-  </si>
-  <si>
-    <t>Raisel Iglesias</t>
+    <t>Byron Buxton</t>
+  </si>
+  <si>
+    <t>Nathaniel Lowe</t>
+  </si>
+  <si>
+    <t>Vinnie Pasquantino</t>
   </si>
   <si>
     <t>Triston McKenzie</t>
   </si>
   <si>
-    <t>Byron Buxton</t>
-  </si>
-  <si>
-    <t>Vinnie Pasquantino</t>
-  </si>
-  <si>
     <t>Tyler Glasnow</t>
   </si>
   <si>
-    <t>Nathaniel Lowe</t>
-  </si>
-  <si>
     <t>Corbin Carroll</t>
   </si>
   <si>
@@ -325,33 +325,36 @@
     <t>Christian Yelich</t>
   </si>
   <si>
+    <t>C.J. Cron</t>
+  </si>
+  <si>
     <t>Camilo Doval</t>
   </si>
   <si>
-    <t>C.J. Cron</t>
-  </si>
-  <si>
     <t>Rhys Hoskins</t>
   </si>
   <si>
+    <t>Steven Kwan</t>
+  </si>
+  <si>
+    <t>Kyle Wright</t>
+  </si>
+  <si>
     <t>Carlos</t>
   </si>
   <si>
-    <t>Steven Kwan</t>
-  </si>
-  <si>
-    <t>Kyle Wright</t>
+    <t>Logan Gilbert</t>
   </si>
   <si>
     <t>Nestor Cortes Jr.</t>
   </si>
   <si>
-    <t>Logan Gilbert</t>
-  </si>
-  <si>
     <t>Logan Webb</t>
   </si>
   <si>
+    <t>Anthony Santander</t>
+  </si>
+  <si>
     <t>Seiya Suzuki</t>
   </si>
   <si>
@@ -364,16 +367,19 @@
     <t>Gleyber Torres</t>
   </si>
   <si>
-    <t>Anthony Santander</t>
-  </si>
-  <si>
     <t>Giancarlo Stanton</t>
   </si>
   <si>
+    <t>Blake Snell</t>
+  </si>
+  <si>
     <t>Alejandro Kirk</t>
   </si>
   <si>
-    <t>Blake Snell</t>
+    <t>Luis Severino</t>
+  </si>
+  <si>
+    <t>Kris Bryant</t>
   </si>
   <si>
     <t>Clayton Kershaw</t>
@@ -382,12 +388,6 @@
     <t>Christian Walker</t>
   </si>
   <si>
-    <t>Luis Severino</t>
-  </si>
-  <si>
-    <t>Kris Bryant</t>
-  </si>
-  <si>
     <t>Tyler O'Neill</t>
   </si>
   <si>
@@ -406,18 +406,18 @@
     <t>Taylor Ward</t>
   </si>
   <si>
+    <t>Nick Castellanos</t>
+  </si>
+  <si>
     <t>Nick Lodolo</t>
   </si>
   <si>
-    <t>Nick Castellanos</t>
+    <t>Jeremy Pena</t>
   </si>
   <si>
     <t>Ryan Mountcastle</t>
   </si>
   <si>
-    <t>Jeremy Pena</t>
-  </si>
-  <si>
     <t>Willson Contreras</t>
   </si>
   <si>
@@ -427,12 +427,12 @@
     <t>Joe Ryan</t>
   </si>
   <si>
+    <t>Nico Hoerner</t>
+  </si>
+  <si>
     <t>Ian Happ</t>
   </si>
   <si>
-    <t>Nico Hoerner</t>
-  </si>
-  <si>
     <t>Lance Lynn</t>
   </si>
   <si>
@@ -445,30 +445,30 @@
     <t>Freddy Peralta</t>
   </si>
   <si>
+    <t>Pablo Lopez</t>
+  </si>
+  <si>
+    <t>Ty France</t>
+  </si>
+  <si>
     <t>Clay Holmes</t>
   </si>
   <si>
     <t>Anthony Rizzo</t>
   </si>
   <si>
-    <t>Ty France</t>
-  </si>
-  <si>
-    <t>Pablo Lopez</t>
+    <t>Chris Bassitt</t>
   </si>
   <si>
     <t>Kenley Jansen</t>
   </si>
   <si>
-    <t>Chris Bassitt</t>
+    <t>Lucas Giolito</t>
   </si>
   <si>
     <t>Daniel Bard</t>
   </si>
   <si>
-    <t>Lucas Giolito</t>
-  </si>
-  <si>
     <t>Chris Sale</t>
   </si>
   <si>
@@ -478,30 +478,30 @@
     <t>Max Muncy</t>
   </si>
   <si>
+    <t>MJ Melendez</t>
+  </si>
+  <si>
+    <t>Hunter Renfroe</t>
+  </si>
+  <si>
+    <t>Charlie Morton</t>
+  </si>
+  <si>
     <t>Ke'Bryan Hayes</t>
   </si>
   <si>
-    <t>MJ Melendez</t>
-  </si>
-  <si>
-    <t>Hunter Renfroe</t>
-  </si>
-  <si>
-    <t>Charlie Morton</t>
-  </si>
-  <si>
     <t>Brandon Nimmo</t>
   </si>
   <si>
     <t>Rowdy Tellez</t>
   </si>
   <si>
+    <t>Jordan Montgomery</t>
+  </si>
+  <si>
     <t>Brandon Lowe</t>
   </si>
   <si>
-    <t>Jordan Montgomery</t>
-  </si>
-  <si>
     <t>Dustin May</t>
   </si>
   <si>
@@ -526,28 +526,31 @@
     <t>Jeff McNeil</t>
   </si>
   <si>
+    <t>Oscar Gonzalez</t>
+  </si>
+  <si>
+    <t>Jake Cronenworth</t>
+  </si>
+  <si>
     <t>Jhoan Duran</t>
   </si>
   <si>
-    <t>Oscar Gonzalez</t>
+    <t>Brady Singer</t>
   </si>
   <si>
     <t>Alex Verdugo</t>
   </si>
   <si>
-    <t>Brady Singer</t>
-  </si>
-  <si>
-    <t>Jake Cronenworth</t>
-  </si>
-  <si>
     <t>Luis Arraez</t>
   </si>
   <si>
+    <t>Sean Murphy</t>
+  </si>
+  <si>
     <t>Eugenio Suarez</t>
   </si>
   <si>
-    <t>Sean Murphy</t>
+    <t>Alexis Diaz</t>
   </si>
   <si>
     <t>Javier Baez</t>
@@ -556,9 +559,6 @@
     <t>Luis Garcia</t>
   </si>
   <si>
-    <t>Alexis Diaz</t>
-  </si>
-  <si>
     <t>Andres Munoz</t>
   </si>
   <si>
@@ -580,12 +580,12 @@
     <t>Frankie Montas</t>
   </si>
   <si>
+    <t>Riley Greene</t>
+  </si>
+  <si>
     <t>Ketel Marte</t>
   </si>
   <si>
-    <t>Riley Greene</t>
-  </si>
-  <si>
     <t>Lance McCullers Jr.</t>
   </si>
   <si>
@@ -598,12 +598,12 @@
     <t>Drew Rasmussen</t>
   </si>
   <si>
+    <t>Brandon Drury</t>
+  </si>
+  <si>
     <t>Ryan McMahon</t>
   </si>
   <si>
-    <t>Brandon Drury</t>
-  </si>
-  <si>
     <t>Tyler Stephenson</t>
   </si>
   <si>
@@ -625,12 +625,12 @@
     <t>Whit Merrifield</t>
   </si>
   <si>
+    <t>Pete Fairbanks</t>
+  </si>
+  <si>
     <t>Patrick Sandoval</t>
   </si>
   <si>
-    <t>Pete Fairbanks</t>
-  </si>
-  <si>
     <t>Andrew Heaney</t>
   </si>
   <si>
@@ -646,12 +646,12 @@
     <t>Ramon Laureano</t>
   </si>
   <si>
+    <t>Jean Segura</t>
+  </si>
+  <si>
     <t>Miles Mikolas</t>
   </si>
   <si>
-    <t>Jean Segura</t>
-  </si>
-  <si>
     <t>Seth Brown</t>
   </si>
   <si>
@@ -661,27 +661,27 @@
     <t>Jose Berrios</t>
   </si>
   <si>
+    <t>Reid Detmers</t>
+  </si>
+  <si>
+    <t>CJ Abrams</t>
+  </si>
+  <si>
+    <t>Anthony Rendon</t>
+  </si>
+  <si>
     <t>Jose Leclerc</t>
   </si>
   <si>
-    <t>CJ Abrams</t>
-  </si>
-  <si>
-    <t>Reid Detmers</t>
-  </si>
-  <si>
     <t>Merrill Kelly</t>
   </si>
   <si>
-    <t>Anthony Rendon</t>
+    <t>Seranthony Dominguez</t>
   </si>
   <si>
     <t>Brendan Rodgers</t>
   </si>
   <si>
-    <t>Seranthony Dominguez</t>
-  </si>
-  <si>
     <t>Lourdes Gurriel Jr.</t>
   </si>
   <si>
@@ -691,42 +691,45 @@
     <t>Cody Bellinger</t>
   </si>
   <si>
+    <t>Joc Pederson</t>
+  </si>
+  <si>
     <t>Andrew Benintendi</t>
   </si>
   <si>
-    <t>Joc Pederson</t>
+    <t>Lars Nootbaar</t>
   </si>
   <si>
     <t>Danny Jansen</t>
   </si>
   <si>
-    <t>Lars Nootbaar</t>
-  </si>
-  <si>
     <t>Edward Cabrera</t>
   </si>
   <si>
+    <t>Sonny Gray</t>
+  </si>
+  <si>
     <t>Kolten Wong</t>
   </si>
   <si>
-    <t>Sonny Gray</t>
-  </si>
-  <si>
     <t>Austin Hays</t>
   </si>
   <si>
+    <t>Aaron Ashby</t>
+  </si>
+  <si>
+    <t>Josh Jung</t>
+  </si>
+  <si>
     <t>Nathan Eovaldi</t>
   </si>
   <si>
-    <t>Josh Jung</t>
-  </si>
-  <si>
-    <t>Aaron Ashby</t>
-  </si>
-  <si>
     <t>Yandy Diaz</t>
   </si>
   <si>
+    <t>Jorge Mateo</t>
+  </si>
+  <si>
     <t>Justin Turner</t>
   </si>
   <si>
@@ -736,61 +739,61 @@
     <t>Jorge Lopez</t>
   </si>
   <si>
+    <t>Jon Berti</t>
+  </si>
+  <si>
+    <t>Tyler Mahle</t>
+  </si>
+  <si>
     <t>Michael Conforto</t>
   </si>
   <si>
+    <t>Triston Casas</t>
+  </si>
+  <si>
     <t>Jameson Taillon</t>
   </si>
   <si>
     <t>Trey Mancini</t>
   </si>
   <si>
-    <t>Tyler Mahle</t>
-  </si>
-  <si>
-    <t>Jon Berti</t>
-  </si>
-  <si>
     <t>Ezequiel Tovar</t>
   </si>
   <si>
     <t>Adalberto Mondesi</t>
   </si>
   <si>
-    <t>Jorge Mateo</t>
-  </si>
-  <si>
-    <t>Triston Casas</t>
-  </si>
-  <si>
     <t>Tyler Anderson</t>
   </si>
   <si>
     <t>Luis Urias</t>
   </si>
   <si>
+    <t>Jack Flaherty</t>
+  </si>
+  <si>
+    <t>Bryson Stott</t>
+  </si>
+  <si>
+    <t>Keibert Ruiz</t>
+  </si>
+  <si>
     <t>Gavin Lux</t>
   </si>
   <si>
-    <t>Keibert Ruiz</t>
-  </si>
-  <si>
-    <t>Bryson Stott</t>
-  </si>
-  <si>
     <t>Charlie Blackmon</t>
   </si>
   <si>
-    <t>Jack Flaherty</t>
-  </si>
-  <si>
     <t>HaSeong Kim</t>
   </si>
   <si>
+    <t>Marcus Stroman</t>
+  </si>
+  <si>
     <t>Eric Lauer</t>
   </si>
   <si>
-    <t>Marcus Stroman</t>
+    <t>Christopher Morel</t>
   </si>
   <si>
     <t>Randal Grichuk</t>
@@ -799,19 +802,22 @@
     <t>Jose Urquidy</t>
   </si>
   <si>
-    <t>Christopher Morel</t>
+    <t>Lane Thomas</t>
+  </si>
+  <si>
+    <t>Trevor Rogers</t>
   </si>
   <si>
     <t>Kyle Finnegan</t>
   </si>
   <si>
-    <t>Lane Thomas</t>
+    <t>Bryan De La Cruz</t>
   </si>
   <si>
     <t>Ranger Suarez</t>
   </si>
   <si>
-    <t>Bryan De La Cruz</t>
+    <t>Austin Meadows</t>
   </si>
   <si>
     <t>Martin Perez</t>
@@ -820,15 +826,12 @@
     <t>Yoan Moncada</t>
   </si>
   <si>
-    <t>Austin Meadows</t>
-  </si>
-  <si>
-    <t>Trevor Rogers</t>
-  </si>
-  <si>
     <t>Luis Rengifo</t>
   </si>
   <si>
+    <t>Travis d'Arnaud</t>
+  </si>
+  <si>
     <t>Miguel Vargas</t>
   </si>
   <si>
@@ -841,16 +844,19 @@
     <t>Manuel Margot</t>
   </si>
   <si>
-    <t>Travis d'Arnaud</t>
-  </si>
-  <si>
     <t>Sean Manaea</t>
   </si>
   <si>
+    <t>Bailey Ober</t>
+  </si>
+  <si>
     <t>Carlos Carrasco</t>
   </si>
   <si>
-    <t>Bailey Ober</t>
+    <t>Michael Kopech</t>
+  </si>
+  <si>
+    <t>Jake Fraley</t>
   </si>
   <si>
     <t>Jorge Soler</t>
@@ -859,72 +865,66 @@
     <t>Dylan Floro</t>
   </si>
   <si>
-    <t>Jake Fraley</t>
-  </si>
-  <si>
-    <t>Michael Kopech</t>
-  </si>
-  <si>
     <t>Dylan Carlson</t>
   </si>
   <si>
+    <t>Justin Steele</t>
+  </si>
+  <si>
     <t>Jared Walsh</t>
   </si>
   <si>
-    <t>Justin Steele</t>
+    <t>Jarred Kelenic</t>
+  </si>
+  <si>
+    <t>Jose Siri</t>
+  </si>
+  <si>
+    <t>Matt Mervis</t>
   </si>
   <si>
     <t>Cal Quantrill</t>
   </si>
   <si>
-    <t>Jarred Kelenic</t>
-  </si>
-  <si>
-    <t>Jose Siri</t>
-  </si>
-  <si>
-    <t>Matt Mervis</t>
+    <t>Jordan Walker</t>
+  </si>
+  <si>
+    <t>Jesse Winker</t>
+  </si>
+  <si>
+    <t>Tommy</t>
   </si>
   <si>
     <t>Eduardo Rodriguez</t>
   </si>
   <si>
-    <t>Jordan Walker</t>
-  </si>
-  <si>
-    <t>Jesse Winker</t>
-  </si>
-  <si>
-    <t>Tommy</t>
+    <t>Tylor Megill</t>
+  </si>
+  <si>
+    <t>Oswaldo Cabrera</t>
+  </si>
+  <si>
+    <t>Garrett Whitlock</t>
+  </si>
+  <si>
+    <t>Brandon Marsh</t>
+  </si>
+  <si>
+    <t>Jonah Heim</t>
+  </si>
+  <si>
+    <t>Taijuan Walker</t>
+  </si>
+  <si>
+    <t>Hunter Brown</t>
   </si>
   <si>
     <t>Taylor Rogers</t>
   </si>
   <si>
-    <t>Tylor Megill</t>
-  </si>
-  <si>
-    <t>Garrett Whitlock</t>
-  </si>
-  <si>
-    <t>Oswaldo Cabrera</t>
-  </si>
-  <si>
     <t>Jose Quintana</t>
   </si>
   <si>
-    <t>Brandon Marsh</t>
-  </si>
-  <si>
-    <t>Taijuan Walker</t>
-  </si>
-  <si>
-    <t>Jonah Heim</t>
-  </si>
-  <si>
-    <t>Hunter Brown</t>
-  </si>
-  <si>
     <t>Chris Taylor</t>
   </si>
   <si>
@@ -934,97 +934,103 @@
     <t>Logan O'Hoppe</t>
   </si>
   <si>
+    <t>Brayan Bello</t>
+  </si>
+  <si>
     <t>Trent Grisham</t>
   </si>
   <si>
-    <t>Brayan Bello</t>
-  </si>
-  <si>
     <t>Ross Stripling</t>
   </si>
   <si>
+    <t>Juan Yepez</t>
+  </si>
+  <si>
     <t>Tanner Houck</t>
   </si>
   <si>
     <t>TJ Friedl</t>
   </si>
   <si>
+    <t>Kodai Senga</t>
+  </si>
+  <si>
     <t>Daniel Hudson</t>
   </si>
   <si>
+    <t>Adam Wainwright</t>
+  </si>
+  <si>
+    <t>Yasmani Grandal</t>
+  </si>
+  <si>
+    <t>Evan Phillips</t>
+  </si>
+  <si>
+    <t>Chris Martin</t>
+  </si>
+  <si>
     <t>Mark Canha</t>
   </si>
   <si>
-    <t>Adam Wainwright</t>
-  </si>
-  <si>
-    <t>Yasmani Grandal</t>
-  </si>
-  <si>
-    <t>Evan Phillips</t>
+    <t>Hayden Wesneski</t>
   </si>
   <si>
     <t>Marcell Ozuna</t>
   </si>
   <si>
-    <t>Hayden Wesneski</t>
+    <t>Craig Kimbrel</t>
   </si>
   <si>
     <t>Mike Yastrzemski</t>
   </si>
   <si>
+    <t>Jason Adam</t>
+  </si>
+  <si>
+    <t>Spencer Torkelson</t>
+  </si>
+  <si>
+    <t>Steven Matz</t>
+  </si>
+  <si>
+    <t>Mike Clevinger</t>
+  </si>
+  <si>
+    <t>Jurickson</t>
+  </si>
+  <si>
+    <t>MacKenzie Gore</t>
+  </si>
+  <si>
+    <t>Michael Brantley</t>
+  </si>
+  <si>
+    <t>Isaac Paredes</t>
+  </si>
+  <si>
+    <t>Brendan Donovan</t>
+  </si>
+  <si>
+    <t>Esteury Ruiz</t>
+  </si>
+  <si>
     <t>Kenta Maeda</t>
   </si>
   <si>
-    <t>Craig Kimbrel</t>
-  </si>
-  <si>
-    <t>Jason Adam</t>
-  </si>
-  <si>
-    <t>Spencer Torkelson</t>
-  </si>
-  <si>
-    <t>Juan Yepez</t>
-  </si>
-  <si>
-    <t>Steven Matz</t>
-  </si>
-  <si>
-    <t>Michael Brantley</t>
-  </si>
-  <si>
-    <t>Mike Clevinger</t>
-  </si>
-  <si>
-    <t>Jurickson</t>
-  </si>
-  <si>
-    <t>MacKenzie Gore</t>
-  </si>
-  <si>
-    <t>Isaac Paredes</t>
-  </si>
-  <si>
-    <t>Brendan Donovan</t>
-  </si>
-  <si>
-    <t>Esteury Ruiz</t>
-  </si>
-  <si>
     <t>Nick Pivetta</t>
   </si>
   <si>
-    <t>Chris Martin</t>
-  </si>
-  <si>
     <t>Bubba Thompson</t>
   </si>
   <si>
+    <t>Carlos Estevez</t>
+  </si>
+  <si>
     <t>Luke</t>
   </si>
   <si>
-    <t>Kodai Senga</t>
+    <t>Christian Vazquez</t>
   </si>
   <si>
     <t>Alex Wood</t>
@@ -1033,18 +1039,12 @@
     <t>Zach Eflin</t>
   </si>
   <si>
-    <t>Carlos Estevez</t>
-  </si>
-  <si>
-    <t>Christian Vazquez</t>
+    <t>Mike Soroka</t>
   </si>
   <si>
     <t>Elvis</t>
   </si>
   <si>
-    <t>Mike Soroka</t>
-  </si>
-  <si>
     <t>Alex Lange</t>
   </si>
   <si>
@@ -1057,6 +1057,9 @@
     <t>Andrew</t>
   </si>
   <si>
+    <t>Masataka Yoshida</t>
+  </si>
+  <si>
     <t>Eduardo Escobar</t>
   </si>
   <si>
@@ -1066,9 +1069,6 @@
     <t>Braxton Garrett</t>
   </si>
   <si>
-    <t>Masataka Yoshida</t>
-  </si>
-  <si>
     <t>Brandon Hughes</t>
   </si>
   <si>
@@ -1081,10 +1081,16 @@
     <t>Gio Urshela</t>
   </si>
   <si>
+    <t>Kerry Carpenter</t>
+  </si>
+  <si>
     <t>German Marquez</t>
   </si>
   <si>
-    <t>Kerry Carpenter</t>
+    <t>Eric Haase</t>
+  </si>
+  <si>
+    <t>Nick Gordon</t>
   </si>
   <si>
     <t>Harold Ramirez</t>
@@ -1096,81 +1102,75 @@
     <t>Max Kepler</t>
   </si>
   <si>
+    <t>Rafael Montero</t>
+  </si>
+  <si>
     <t>DL Hall</t>
   </si>
   <si>
-    <t>Eric Haase</t>
-  </si>
-  <si>
-    <t>Nick Gordon</t>
-  </si>
-  <si>
     <t>Tarik Skubal</t>
   </si>
   <si>
     <t>Josiah Gray</t>
   </si>
   <si>
-    <t>Rafael Montero</t>
+    <t>Alex Kirilloff</t>
+  </si>
+  <si>
+    <t>Bo Naylor</t>
   </si>
   <si>
     <t>AJ Pollock</t>
   </si>
   <si>
-    <t>Alex Kirilloff</t>
-  </si>
-  <si>
-    <t>Bo Naylor</t>
+    <t>Francisco Alvarez</t>
+  </si>
+  <si>
+    <t>Joey Bart</t>
   </si>
   <si>
     <t>Tony Kemp</t>
   </si>
   <si>
-    <t>Francisco Alvarez</t>
-  </si>
-  <si>
-    <t>Joey Bart</t>
+    <t>Wilmer Flores</t>
   </si>
   <si>
     <t>Trayce Thompson</t>
   </si>
   <si>
-    <t>Wilmer Flores</t>
+    <t>Alek Thomas</t>
+  </si>
+  <si>
+    <t>James Karinchak</t>
+  </si>
+  <si>
+    <t>Christian Bethancourt</t>
+  </si>
+  <si>
+    <t>Noah Syndergaard</t>
+  </si>
+  <si>
+    <t>Matt Carpenter</t>
   </si>
   <si>
     <t>Corey Kluber</t>
   </si>
   <si>
-    <t>Alek Thomas</t>
-  </si>
-  <si>
-    <t>James Karinchak</t>
-  </si>
-  <si>
-    <t>Christian Bethancourt</t>
-  </si>
-  <si>
-    <t>Noah Syndergaard</t>
-  </si>
-  <si>
-    <t>Matt Carpenter</t>
-  </si>
-  <si>
     <t>Ramon Urias</t>
   </si>
   <si>
+    <t>Oswald Peraza</t>
+  </si>
+  <si>
+    <t>Aaron Civale</t>
+  </si>
+  <si>
+    <t>A.J. Puk</t>
+  </si>
+  <si>
     <t>Oscar Colas</t>
   </si>
   <si>
-    <t>Oswald Peraza</t>
-  </si>
-  <si>
-    <t>Aaron Civale</t>
-  </si>
-  <si>
-    <t>A.J. Puk</t>
-  </si>
-  <si>
     <t>Luis Ortiz</t>
   </si>
   <si>
@@ -1183,6 +1183,9 @@
     <t>Kike Hernandez</t>
   </si>
   <si>
+    <t>Connor Joe</t>
+  </si>
+  <si>
     <t>Jose Suarez</t>
   </si>
   <si>
@@ -1201,9 +1204,6 @@
     <t>Adbert Alzolay</t>
   </si>
   <si>
-    <t>Connor Joe</t>
-  </si>
-  <si>
     <t>Robert Suarez</t>
   </si>
   <si>
@@ -1222,6 +1222,9 @@
     <t>Tyrone Taylor</t>
   </si>
   <si>
+    <t>Gabriel Moreno</t>
+  </si>
+  <si>
     <t>Jo Adell</t>
   </si>
   <si>
@@ -1243,112 +1246,124 @@
     <t>Josh Lowe</t>
   </si>
   <si>
-    <t>Gabriel Moreno</t>
-  </si>
-  <si>
     <t>JT Brubaker</t>
   </si>
   <si>
     <t>Garrett Cooper</t>
   </si>
   <si>
+    <t>Gary</t>
+  </si>
+  <si>
     <t>Domingo German</t>
   </si>
   <si>
+    <t>Elias Diaz</t>
+  </si>
+  <si>
     <t>Ryne Nelson</t>
   </si>
   <si>
-    <t>Gary</t>
-  </si>
-  <si>
     <t>Bryan Abreu</t>
   </si>
   <si>
-    <t>Elias Diaz</t>
+    <t>Jose Trevino</t>
+  </si>
+  <si>
+    <t>Carson Kelly</t>
   </si>
   <si>
     <t>Matt Brash</t>
   </si>
   <si>
+    <t>Nick Fortes</t>
+  </si>
+  <si>
+    <t>Edward Olivares</t>
+  </si>
+  <si>
     <t>Brusdar Graterol</t>
   </si>
   <si>
-    <t>Jose Trevino</t>
-  </si>
-  <si>
-    <t>Carson Kelly</t>
+    <t>Tanner Scott</t>
   </si>
   <si>
     <t>Domingo Acevedo</t>
   </si>
   <si>
-    <t>Nick Fortes</t>
-  </si>
-  <si>
-    <t>Edward Olivares</t>
-  </si>
-  <si>
-    <t>Tanner Scott</t>
+    <t>Leody Taveras</t>
+  </si>
+  <si>
+    <t>Erik Swanson</t>
   </si>
   <si>
     <t>John Schreiber</t>
   </si>
   <si>
+    <t>Trevor May</t>
+  </si>
+  <si>
     <t>David Fletcher</t>
   </si>
   <si>
-    <t>Leody Taveras</t>
-  </si>
-  <si>
-    <t>Erik Swanson</t>
-  </si>
-  <si>
     <t>Franmil Reyes</t>
   </si>
   <si>
+    <t>Jalen Beeks</t>
+  </si>
+  <si>
+    <t>Shea Langeliers</t>
+  </si>
+  <si>
+    <t>Austin Nola</t>
+  </si>
+  <si>
+    <t>Nolan Gorman</t>
+  </si>
+  <si>
+    <t>Garrett Cleavinger</t>
+  </si>
+  <si>
+    <t>Hunter Harvey</t>
+  </si>
+  <si>
+    <t>Brock Burke</t>
+  </si>
+  <si>
+    <t>Kendall Graveman</t>
+  </si>
+  <si>
+    <t>Aaron Bummer</t>
+  </si>
+  <si>
     <t>Wil Myers</t>
   </si>
   <si>
-    <t>Shea Langeliers</t>
-  </si>
-  <si>
-    <t>Austin Nola</t>
-  </si>
-  <si>
-    <t>Nolan Gorman</t>
+    <t>Michael King</t>
+  </si>
+  <si>
+    <t>Anthony Volpe</t>
+  </si>
+  <si>
+    <t>Elieser Hernandez</t>
+  </si>
+  <si>
+    <t>Rodolfo Castro</t>
+  </si>
+  <si>
+    <t>Trevor Stephan</t>
+  </si>
+  <si>
+    <t>Alex Vesia</t>
+  </si>
+  <si>
+    <t>Joey Votto</t>
   </si>
   <si>
     <t>Cole Irvin</t>
   </si>
   <si>
-    <t>Trevor May</t>
-  </si>
-  <si>
-    <t>Hunter Harvey</t>
-  </si>
-  <si>
-    <t>Kendall Graveman</t>
-  </si>
-  <si>
-    <t>Jalen Beeks</t>
-  </si>
-  <si>
-    <t>Anthony Volpe</t>
-  </si>
-  <si>
-    <t>Rodolfo Castro</t>
-  </si>
-  <si>
-    <t>Trevor Stephan</t>
-  </si>
-  <si>
-    <t>Joey Votto</t>
-  </si>
-  <si>
-    <t>Garrett Cleavinger</t>
-  </si>
-  <si>
-    <t>Brock Burke</t>
+    <t>Matt Bush</t>
   </si>
   <si>
     <t>Mitch Garver</t>
@@ -1357,97 +1372,100 @@
     <t>Chas McCormick</t>
   </si>
   <si>
-    <t>Aaron Bummer</t>
-  </si>
-  <si>
-    <t>Michael King</t>
+    <t>Joe Jimenez</t>
+  </si>
+  <si>
+    <t>Sam Hentges</t>
+  </si>
+  <si>
+    <t>Kevin Ginkel</t>
+  </si>
+  <si>
+    <t>Santiago Espinal</t>
+  </si>
+  <si>
+    <t>Nick Madrigal</t>
+  </si>
+  <si>
+    <t>Reynaldo Lopez</t>
+  </si>
+  <si>
+    <t>Collin McHugh</t>
   </si>
   <si>
     <t>Jonathan Schoop</t>
   </si>
   <si>
-    <t>Elieser Hernandez</t>
-  </si>
-  <si>
-    <t>Alex Vesia</t>
-  </si>
-  <si>
-    <t>Santiago Espinal</t>
-  </si>
-  <si>
-    <t>Matt Bush</t>
-  </si>
-  <si>
-    <t>Joe Jimenez</t>
-  </si>
-  <si>
-    <t>Nick Madrigal</t>
-  </si>
-  <si>
-    <t>Sam Hentges</t>
+    <t>Jordan Hicks</t>
   </si>
   <si>
     <t>Tejay Antone</t>
   </si>
   <si>
-    <t>Kevin Ginkel</t>
+    <t>James Paxton</t>
+  </si>
+  <si>
+    <t>Diego Castillo</t>
+  </si>
+  <si>
+    <t>Trevor Bauer</t>
+  </si>
+  <si>
+    <t>Hector Neris</t>
+  </si>
+  <si>
+    <t>Joe Mantiply</t>
+  </si>
+  <si>
+    <t>Brandon Pfaadt</t>
+  </si>
+  <si>
+    <t>Tommy Kahnle</t>
+  </si>
+  <si>
+    <t>Gavin Sheets</t>
+  </si>
+  <si>
+    <t>Jonathan Loaisiga</t>
+  </si>
+  <si>
+    <t>Jakob Junis</t>
   </si>
   <si>
     <t>Keegan Thompson</t>
   </si>
   <si>
-    <t>Joe Mantiply</t>
-  </si>
-  <si>
-    <t>Brandon Pfaadt</t>
-  </si>
-  <si>
-    <t>Gavin Sheets</t>
-  </si>
-  <si>
-    <t>Jonathan Loaisiga</t>
-  </si>
-  <si>
     <t>Ryan Jeffers</t>
   </si>
   <si>
-    <t>Reynaldo Lopez</t>
-  </si>
-  <si>
-    <t>Collin McHugh</t>
+    <t>Zach Jackson</t>
+  </si>
+  <si>
+    <t>Adam Ottavino</t>
+  </si>
+  <si>
+    <t>Chris Flexen</t>
   </si>
   <si>
     <t>Kyle Farmer</t>
   </si>
   <si>
-    <t>Jordan Hicks</t>
-  </si>
-  <si>
     <t>Nate Pearson</t>
   </si>
   <si>
     <t>Yan Gomes</t>
   </si>
   <si>
-    <t>James Paxton</t>
-  </si>
-  <si>
-    <t>Diego Castillo</t>
-  </si>
-  <si>
     <t>Drew Waters</t>
   </si>
   <si>
-    <t>Trevor Bauer</t>
-  </si>
-  <si>
-    <t>Hector Neris</t>
+    <t>Brooks Raley</t>
   </si>
   <si>
     <t>Brett Baty</t>
   </si>
   <si>
-    <t>Tommy Kahnle</t>
+    <t>Keegan Akin</t>
   </si>
   <si>
     <t>Jack Suwinski</t>
@@ -1459,25 +1477,25 @@
     <t>Luis Campusano</t>
   </si>
   <si>
-    <t>Jakob Junis</t>
+    <t>Andrew Bellatti</t>
   </si>
   <si>
     <t>Isiah KinerFalefa</t>
   </si>
   <si>
-    <t>Zach Jackson</t>
-  </si>
-  <si>
-    <t>Adam Ottavino</t>
-  </si>
-  <si>
-    <t>Chris Flexen</t>
+    <t>Bryan Baker</t>
+  </si>
+  <si>
+    <t>Dylan Lee</t>
+  </si>
+  <si>
+    <t>Garrett Crochet</t>
   </si>
   <si>
     <t>Francisco Mejia</t>
   </si>
   <si>
-    <t>Brooks Raley</t>
+    <t>Jovani Moran</t>
   </si>
   <si>
     <t>Nick Martinez</t>
@@ -1486,34 +1504,40 @@
     <t>Josh Donaldson</t>
   </si>
   <si>
-    <t>Keegan Akin</t>
+    <t>Mark Leiter Jr.</t>
   </si>
   <si>
     <t>Endy Rodriguez</t>
   </si>
   <si>
-    <t>Andrew Bellatti</t>
-  </si>
-  <si>
-    <t>Bryan Baker</t>
+    <t>Emilio Pagan</t>
+  </si>
+  <si>
+    <t>Steven Okert</t>
   </si>
   <si>
     <t>Jesus Sanchez</t>
   </si>
   <si>
-    <t>Dylan Lee</t>
-  </si>
-  <si>
-    <t>Garrett Crochet</t>
+    <t>Wandy Peralta</t>
+  </si>
+  <si>
+    <t>Cionel Perez</t>
+  </si>
+  <si>
+    <t>Dylan Coleman</t>
   </si>
   <si>
     <t>Matthew Boyd</t>
   </si>
   <si>
+    <t>Matt Strahm</t>
+  </si>
+  <si>
     <t>Brandon</t>
   </si>
   <si>
-    <t>Jovani Moran</t>
+    <t>Drew Pomeranz</t>
   </si>
   <si>
     <t>Michael</t>
@@ -1522,31 +1546,37 @@
     <t>Michael Massey</t>
   </si>
   <si>
+    <t>Enyel De Los Santos</t>
+  </si>
+  <si>
+    <t>Colin Poche</t>
+  </si>
+  <si>
     <t>Will Brennan</t>
   </si>
   <si>
-    <t>Mark Leiter Jr.</t>
-  </si>
-  <si>
-    <t>Emilio Pagan</t>
-  </si>
-  <si>
-    <t>Steven Okert</t>
+    <t>Yimi Garcia</t>
+  </si>
+  <si>
+    <t>Connor Brogdon</t>
+  </si>
+  <si>
+    <t>Tim Mayza</t>
+  </si>
+  <si>
+    <t>Clarke Schmidt</t>
   </si>
   <si>
     <t>Spencer Turnbull</t>
   </si>
   <si>
-    <t>Wandy Peralta</t>
-  </si>
-  <si>
     <t>JiMan Choi</t>
   </si>
   <si>
     <t>Nolan Jones</t>
   </si>
   <si>
-    <t>Cionel Perez</t>
+    <t>Penn Murfee</t>
   </si>
   <si>
     <t>Royce Lewis</t>
@@ -1555,40 +1585,37 @@
     <t>Elly De La Cruz</t>
   </si>
   <si>
-    <t>Dylan Coleman</t>
-  </si>
-  <si>
-    <t>Matt Strahm</t>
-  </si>
-  <si>
-    <t>Drew Pomeranz</t>
-  </si>
-  <si>
-    <t>Enyel De Los Santos</t>
-  </si>
-  <si>
-    <t>Colin Poche</t>
-  </si>
-  <si>
-    <t>Yimi Garcia</t>
+    <t>Eli Morgan</t>
+  </si>
+  <si>
+    <t>Caleb Ferguson</t>
+  </si>
+  <si>
+    <t>A.J.</t>
+  </si>
+  <si>
+    <t>Dillon Tate</t>
+  </si>
+  <si>
+    <t>Jonathan Hernandez</t>
+  </si>
+  <si>
+    <t>Matt Festa</t>
+  </si>
+  <si>
+    <t>Jake Cousins</t>
   </si>
   <si>
     <t>Sal Frelick</t>
   </si>
   <si>
-    <t>Connor Brogdon</t>
-  </si>
-  <si>
     <t>Bailey Falter</t>
   </si>
   <si>
-    <t>Tim Mayza</t>
-  </si>
-  <si>
-    <t>Clarke Schmidt</t>
-  </si>
-  <si>
-    <t>Penn Murfee</t>
+    <t>Anthony Bass</t>
+  </si>
+  <si>
+    <t>Kirby Yates</t>
   </si>
   <si>
     <t>Nick Pratto</t>
@@ -1597,28 +1624,13 @@
     <t>Matt Manning</t>
   </si>
   <si>
-    <t>Eli Morgan</t>
-  </si>
-  <si>
-    <t>Caleb Ferguson</t>
-  </si>
-  <si>
-    <t>A.J.</t>
-  </si>
-  <si>
-    <t>Dillon Tate</t>
-  </si>
-  <si>
     <t>Joey Wendle</t>
   </si>
   <si>
-    <t>Jonathan Hernandez</t>
-  </si>
-  <si>
-    <t>Matt Festa</t>
-  </si>
-  <si>
-    <t>Jake Cousins</t>
+    <t>James Outman</t>
+  </si>
+  <si>
+    <t>Aledmys Diaz</t>
   </si>
   <si>
     <t>Bryce Elder</t>
@@ -1627,19 +1639,16 @@
     <t>Brandon Crawford</t>
   </si>
   <si>
-    <t>Anthony Bass</t>
-  </si>
-  <si>
     <t>Omar Narvaez</t>
   </si>
   <si>
+    <t>Mike Zunino</t>
+  </si>
+  <si>
     <t>Anthony DeSclafani</t>
   </si>
   <si>
-    <t>Kirby Yates</t>
-  </si>
-  <si>
-    <t>James Outman</t>
+    <t>JP Sears</t>
   </si>
   <si>
     <t>Drew Smyly</t>
@@ -1648,7 +1657,7 @@
     <t>Keston Hiura</t>
   </si>
   <si>
-    <t>Aledmys Diaz</t>
+    <t>Reese McGuire</t>
   </si>
   <si>
     <t>Victor Robles</t>
@@ -1657,189 +1666,180 @@
     <t>Spencer Steer</t>
   </si>
   <si>
+    <t>Blake Treinen</t>
+  </si>
+  <si>
+    <t>Brice Turang</t>
+  </si>
+  <si>
     <t>Kyle Muller</t>
   </si>
   <si>
-    <t>Mike Zunino</t>
-  </si>
-  <si>
-    <t>JP Sears</t>
+    <t>Matt Barnes</t>
+  </si>
+  <si>
+    <t>Jonathan Aranda</t>
   </si>
   <si>
     <t>Kyle Harrison</t>
   </si>
   <si>
+    <t>Adrian Morejon</t>
+  </si>
+  <si>
     <t>Joey Wentz</t>
   </si>
   <si>
+    <t>Vidal Brujan</t>
+  </si>
+  <si>
     <t>Jarren Duran</t>
   </si>
   <si>
+    <t>Joe Barlow</t>
+  </si>
+  <si>
     <t>Bobby Miller</t>
   </si>
   <si>
+    <t>Stone Garrett</t>
+  </si>
+  <si>
+    <t>Tyler Wells</t>
+  </si>
+  <si>
     <t>Cade Cavalli</t>
   </si>
   <si>
-    <t>Reese McGuire</t>
-  </si>
-  <si>
-    <t>Blake Treinen</t>
-  </si>
-  <si>
-    <t>Brice Turang</t>
-  </si>
-  <si>
-    <t>Jonathan Aranda</t>
+    <t>Kyle Stowers</t>
+  </si>
+  <si>
+    <t>Taj Bradley</t>
+  </si>
+  <si>
+    <t>Eddie Rosario</t>
+  </si>
+  <si>
+    <t>Ian Anderson</t>
   </si>
   <si>
     <t>Dylan Moore</t>
   </si>
   <si>
-    <t>Matt Barnes</t>
-  </si>
-  <si>
-    <t>Kyle Stowers</t>
-  </si>
-  <si>
-    <t>Joe Barlow</t>
-  </si>
-  <si>
-    <t>Adrian Morejon</t>
-  </si>
-  <si>
-    <t>Vidal Brujan</t>
+    <t>Dean Kremer</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>James Kaprielian</t>
+  </si>
+  <si>
+    <t>Dany Jimenez</t>
+  </si>
+  <si>
+    <t>Max Stassi</t>
   </si>
   <si>
     <t>Michael Toglia</t>
   </si>
   <si>
-    <t>Stone Garrett</t>
-  </si>
-  <si>
-    <t>Tyler Wells</t>
-  </si>
-  <si>
-    <t>Ian Anderson</t>
-  </si>
-  <si>
-    <t>Taj Bradley</t>
+    <t>Bobby Dalbec</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Trevor Larnach</t>
   </si>
   <si>
     <t>David Villar</t>
   </si>
   <si>
-    <t>Eddie Rosario</t>
-  </si>
-  <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t>Bobby Dalbec</t>
-  </si>
-  <si>
-    <t>Dean Kremer</t>
+    <t>Michael Lorenzen</t>
+  </si>
+  <si>
+    <t>Kevin Newman</t>
   </si>
   <si>
     <t>Sixto Sanchez</t>
   </si>
   <si>
+    <t>Carlos Santana</t>
+  </si>
+  <si>
     <t>Ryan Pepiot</t>
   </si>
   <si>
-    <t>James Kaprielian</t>
-  </si>
-  <si>
-    <t>Dany Jimenez</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Max Stassi</t>
+    <t>Jace Peterson</t>
   </si>
   <si>
     <t>Gavin Stone</t>
   </si>
   <si>
+    <t>John Means</t>
+  </si>
+  <si>
+    <t>JJ Bleday</t>
+  </si>
+  <si>
+    <t>Kutter Crawford</t>
+  </si>
+  <si>
     <t>Elehuris Montero</t>
   </si>
   <si>
-    <t>Michael Lorenzen</t>
-  </si>
-  <si>
-    <t>Trevor Larnach</t>
-  </si>
-  <si>
-    <t>Kevin Newman</t>
-  </si>
-  <si>
-    <t>Carlos Santana</t>
-  </si>
-  <si>
-    <t>Jace Peterson</t>
-  </si>
-  <si>
-    <t>John Means</t>
-  </si>
-  <si>
-    <t>JJ Bleday</t>
-  </si>
-  <si>
     <t>Marco Gonzales</t>
   </si>
   <si>
-    <t>Kutter Crawford</t>
+    <t>Adam Frazier</t>
+  </si>
+  <si>
+    <t>Miguel Andujar</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
+    <t>Ryan Tepera</t>
+  </si>
+  <si>
+    <t>Christian Arroyo</t>
+  </si>
+  <si>
+    <t>Zach Plesac</t>
   </si>
   <si>
     <t>Hunter Dozier</t>
   </si>
   <si>
-    <t>Adam Frazier</t>
+    <t>Johnny</t>
+  </si>
+  <si>
+    <t>Kyle Lewis</t>
   </si>
   <si>
     <t>Nicky Lopez</t>
   </si>
   <si>
-    <t>Zach Plesac</t>
-  </si>
-  <si>
-    <t>Miguel Andujar</t>
-  </si>
-  <si>
-    <t>Kyle Hendricks</t>
-  </si>
-  <si>
-    <t>Ryan Tepera</t>
-  </si>
-  <si>
-    <t>Christian Arroyo</t>
+    <t>Glenn Otto</t>
+  </si>
+  <si>
+    <t>Eric Hosmer</t>
+  </si>
+  <si>
+    <t>Nick Senzel</t>
   </si>
   <si>
     <t>Graham Ashcraft</t>
   </si>
   <si>
-    <t>Johnny</t>
-  </si>
-  <si>
-    <t>Kyle Lewis</t>
-  </si>
-  <si>
-    <t>Glenn Otto</t>
-  </si>
-  <si>
-    <t>Eric Hosmer</t>
-  </si>
-  <si>
-    <t>Nick Senzel</t>
+    <t>Mike</t>
   </si>
   <si>
     <t>Kyle Manzardo</t>
   </si>
   <si>
-    <t>Mike</t>
-  </si>
-  <si>
     <t>Nate Eaton</t>
   </si>
   <si>
@@ -2494,12 +2494,12 @@
     <t>1B</t>
   </si>
   <si>
+    <t>CF</t>
+  </si>
+  <si>
     <t>SP</t>
   </si>
   <si>
-    <t>CF</t>
-  </si>
-  <si>
     <t>3B,SS</t>
   </si>
   <si>
@@ -2554,12 +2554,12 @@
     <t>SP,RP</t>
   </si>
   <si>
+    <t>C,DH</t>
+  </si>
+  <si>
     <t>CF,DH,LF</t>
   </si>
   <si>
-    <t>C,DH</t>
-  </si>
-  <si>
     <t>3B,DH,SS</t>
   </si>
   <si>
@@ -2629,12 +2629,12 @@
     <t>1B,RF</t>
   </si>
   <si>
+    <t>1B,2B,3B,DH,LF,RF</t>
+  </si>
+  <si>
     <t>2B,3B</t>
   </si>
   <si>
-    <t>1B,2B,3B,DH,LF,RF</t>
-  </si>
-  <si>
     <t>1B,DH,RF</t>
   </si>
   <si>
@@ -2653,15 +2653,15 @@
     <t>LF</t>
   </si>
   <si>
+    <t>2B,SS,CF</t>
+  </si>
+  <si>
     <t>1B,2B,3B</t>
   </si>
   <si>
     <t>2B,3B,LF,SS</t>
   </si>
   <si>
-    <t>2B,SS,CF</t>
-  </si>
-  <si>
     <t>2B,3B,SS</t>
   </si>
   <si>
@@ -2683,12 +2683,12 @@
     <t>2B,3B,CF,LF,RF,SS</t>
   </si>
   <si>
+    <t>1B,3B,DH,LF,RF</t>
+  </si>
+  <si>
     <t>1B,C,DH</t>
   </si>
   <si>
-    <t>1B,3B,DH,LF,RF</t>
-  </si>
-  <si>
     <t>1B,2B,CF,LF,RF</t>
   </si>
   <si>
@@ -2701,12 +2701,12 @@
     <t>1B,C</t>
   </si>
   <si>
+    <t>C,DH,LF</t>
+  </si>
+  <si>
     <t>1B,CF,DH,LF,RF</t>
   </si>
   <si>
-    <t>C,DH,LF</t>
-  </si>
-  <si>
     <t>1B,LF,RF</t>
   </si>
   <si>
@@ -2851,12 +2851,12 @@
     <t>KC</t>
   </si>
   <si>
+    <t>BOS</t>
+  </si>
+  <si>
     <t>NYM</t>
   </si>
   <si>
-    <t>BOS</t>
-  </si>
-  <si>
     <t>MIA</t>
   </si>
   <si>
@@ -2887,12 +2887,12 @@
     <t>MIN</t>
   </si>
   <si>
+    <t>COL</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
-    <t>COL</t>
-  </si>
-  <si>
     <t>Correa</t>
   </si>
   <si>
@@ -2932,13 +2932,13 @@
     <t>Gurriel</t>
   </si>
   <si>
+    <t>Chafin</t>
+  </si>
+  <si>
     <t>Belt</t>
   </si>
   <si>
     <t>Wacha</t>
-  </si>
-  <si>
-    <t>Chafin</t>
   </si>
   <si>
     <t>Griffin</t>
@@ -3579,7 +3579,7 @@
         <v>825</v>
       </c>
       <c r="D14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3593,7 +3593,7 @@
         <v>826</v>
       </c>
       <c r="D15" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3604,7 +3604,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D16" t="s">
         <v>932</v>
@@ -3660,7 +3660,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="D20" t="s">
         <v>944</v>
@@ -3674,7 +3674,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="D21" t="s">
         <v>945</v>
@@ -3688,7 +3688,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D22" t="s">
         <v>946</v>
@@ -3702,10 +3702,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="D23" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3716,10 +3716,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D24" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3730,10 +3730,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D25" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3744,7 +3744,7 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D26" t="s">
         <v>948</v>
@@ -3761,7 +3761,7 @@
         <v>832</v>
       </c>
       <c r="D27" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3786,7 +3786,7 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D29" t="s">
         <v>949</v>
@@ -3803,7 +3803,7 @@
         <v>834</v>
       </c>
       <c r="D30" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3814,10 +3814,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="D31" t="s">
-        <v>950</v>
+        <v>933</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3842,10 +3842,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="D33" t="s">
-        <v>933</v>
+        <v>950</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3856,10 +3856,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="D34" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3870,10 +3870,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="D35" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3884,7 +3884,7 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D36" t="s">
         <v>950</v>
@@ -3898,7 +3898,7 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D37" t="s">
         <v>949</v>
@@ -3912,7 +3912,7 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D38" t="s">
         <v>942</v>
@@ -3940,10 +3940,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D40" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3954,10 +3954,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D41" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3982,10 +3982,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="D43" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3996,10 +3996,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>816</v>
+        <v>832</v>
       </c>
       <c r="D44" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4010,7 +4010,7 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D45" t="s">
         <v>951</v>
@@ -4024,10 +4024,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="D46" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4038,10 +4038,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="D47" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4052,7 +4052,7 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D48" t="s">
         <v>936</v>
@@ -4080,7 +4080,7 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D50" t="s">
         <v>934</v>
@@ -4094,7 +4094,7 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="D51" t="s">
         <v>948</v>
@@ -4108,7 +4108,7 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="D52" t="s">
         <v>948</v>
@@ -4122,7 +4122,7 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D53" t="s">
         <v>939</v>
@@ -4136,10 +4136,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="D54" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4150,10 +4150,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
       <c r="D55" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4164,10 +4164,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="D56" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4178,10 +4178,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="D57" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4206,10 +4206,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="D59" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4220,10 +4220,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="D60" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4234,7 +4234,7 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D61" t="s">
         <v>935</v>
@@ -4262,7 +4262,7 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D63" t="s">
         <v>940</v>
@@ -4276,10 +4276,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="D64" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4290,10 +4290,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="D65" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4304,10 +4304,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="D66" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4318,10 +4318,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="D67" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4332,10 +4332,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D68" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4349,7 +4349,7 @@
         <v>816</v>
       </c>
       <c r="D69" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4360,10 +4360,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D70" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4374,10 +4374,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D71" t="s">
-        <v>952</v>
+        <v>937</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4416,10 +4416,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="D74" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4430,10 +4430,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="D75" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4444,10 +4444,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="D76" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4472,10 +4472,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D78" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4486,10 +4486,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
       <c r="D79" t="s">
-        <v>954</v>
+        <v>938</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4500,10 +4500,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>834</v>
+        <v>845</v>
       </c>
       <c r="D80" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4517,7 +4517,7 @@
         <v>846</v>
       </c>
       <c r="D81" t="s">
-        <v>939</v>
+        <v>954</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4528,10 +4528,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="D82" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4542,10 +4542,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="D83" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4559,7 +4559,7 @@
         <v>832</v>
       </c>
       <c r="D84" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4570,10 +4570,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="D85" t="s">
-        <v>935</v>
+        <v>954</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4584,10 +4584,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="D86" t="s">
-        <v>954</v>
+        <v>935</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4626,10 +4626,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="D89" t="s">
-        <v>951</v>
+        <v>933</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4654,10 +4654,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="D91" t="s">
-        <v>933</v>
+        <v>951</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4668,10 +4668,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>825</v>
+        <v>848</v>
       </c>
       <c r="D92" t="s">
-        <v>936</v>
+        <v>955</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4682,10 +4682,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>848</v>
+        <v>824</v>
       </c>
       <c r="D93" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4710,10 +4710,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D95" t="s">
-        <v>950</v>
+        <v>936</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4724,10 +4724,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D96" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4780,7 +4780,7 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="D100" t="s">
         <v>956</v>
@@ -4794,7 +4794,7 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="D101" t="s">
         <v>957</v>
@@ -4822,10 +4822,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="D103" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4836,10 +4836,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="D104" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4850,10 +4850,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="D105" t="s">
-        <v>933</v>
+        <v>958</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4864,10 +4864,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
       <c r="D106" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4878,10 +4878,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="D107" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4892,10 +4892,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D108" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4906,10 +4906,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
       <c r="D109" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4920,10 +4920,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D110" t="s">
-        <v>936</v>
+        <v>953</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4934,10 +4934,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="D111" t="s">
-        <v>951</v>
+        <v>936</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4948,10 +4948,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="D112" t="s">
-        <v>932</v>
+        <v>951</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4962,10 +4962,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
       <c r="D113" t="s">
-        <v>951</v>
+        <v>932</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4990,10 +4990,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>846</v>
+        <v>826</v>
       </c>
       <c r="D115" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -5004,10 +5004,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>825</v>
+        <v>845</v>
       </c>
       <c r="D116" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -5018,10 +5018,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="D117" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -5032,10 +5032,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>822</v>
+        <v>853</v>
       </c>
       <c r="D118" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5046,10 +5046,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="D119" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5060,10 +5060,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>853</v>
+        <v>822</v>
       </c>
       <c r="D120" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5088,7 +5088,7 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D122" t="s">
         <v>935</v>
@@ -5130,7 +5130,7 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D125" t="s">
         <v>959</v>
@@ -5158,10 +5158,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="D127" t="s">
-        <v>959</v>
+        <v>934</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5172,10 +5172,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="D128" t="s">
-        <v>934</v>
+        <v>959</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5186,10 +5186,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="D129" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -5200,10 +5200,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>834</v>
+        <v>855</v>
       </c>
       <c r="D130" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -5214,7 +5214,7 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D131" t="s">
         <v>947</v>
@@ -5242,7 +5242,7 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D133" t="s">
         <v>955</v>
@@ -5256,7 +5256,7 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>838</v>
+        <v>816</v>
       </c>
       <c r="D134" t="s">
         <v>953</v>
@@ -5270,7 +5270,7 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>816</v>
+        <v>838</v>
       </c>
       <c r="D135" t="s">
         <v>953</v>
@@ -5284,7 +5284,7 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D136" t="s">
         <v>949</v>
@@ -5326,7 +5326,7 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D139" t="s">
         <v>942</v>
@@ -5340,10 +5340,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D140" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5354,10 +5354,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>824</v>
+        <v>857</v>
       </c>
       <c r="D141" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5368,10 +5368,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>857</v>
+        <v>832</v>
       </c>
       <c r="D142" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5382,10 +5382,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D143" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5396,10 +5396,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D144" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5410,10 +5410,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D145" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5424,10 +5424,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D146" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5438,10 +5438,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D147" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5452,10 +5452,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D148" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5494,10 +5494,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>829</v>
+        <v>859</v>
       </c>
       <c r="D151" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5508,10 +5508,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>859</v>
+        <v>817</v>
       </c>
       <c r="D152" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5522,10 +5522,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="D153" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5536,10 +5536,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="D154" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5553,7 +5553,7 @@
         <v>860</v>
       </c>
       <c r="D155" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5578,10 +5578,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>861</v>
+        <v>826</v>
       </c>
       <c r="D157" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5592,10 +5592,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>825</v>
+        <v>861</v>
       </c>
       <c r="D158" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5606,7 +5606,7 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D159" t="s">
         <v>939</v>
@@ -5637,7 +5637,7 @@
         <v>862</v>
       </c>
       <c r="D161" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5690,7 +5690,7 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D165" t="s">
         <v>948</v>
@@ -5707,7 +5707,7 @@
         <v>863</v>
       </c>
       <c r="D166" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5718,10 +5718,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="D167" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5732,10 +5732,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>819</v>
+        <v>864</v>
       </c>
       <c r="D168" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5746,10 +5746,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>854</v>
+        <v>836</v>
       </c>
       <c r="D169" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5760,7 +5760,7 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D170" t="s">
         <v>943</v>
@@ -5774,10 +5774,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="D171" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5802,10 +5802,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D173" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5816,10 +5816,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D174" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5830,10 +5830,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>866</v>
+        <v>832</v>
       </c>
       <c r="D175" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5844,10 +5844,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>825</v>
+        <v>866</v>
       </c>
       <c r="D176" t="s">
-        <v>937</v>
+        <v>960</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5858,10 +5858,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D177" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5886,7 +5886,7 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D179" t="s">
         <v>942</v>
@@ -5942,7 +5942,7 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D183" t="s">
         <v>939</v>
@@ -5956,7 +5956,7 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D184" t="s">
         <v>932</v>
@@ -5970,10 +5970,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>868</v>
+        <v>825</v>
       </c>
       <c r="D185" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5984,10 +5984,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>826</v>
+        <v>868</v>
       </c>
       <c r="D186" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5998,7 +5998,7 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D187" t="s">
         <v>937</v>
@@ -6057,7 +6057,7 @@
         <v>870</v>
       </c>
       <c r="D191" t="s">
-        <v>957</v>
+        <v>941</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -6071,7 +6071,7 @@
         <v>871</v>
       </c>
       <c r="D192" t="s">
-        <v>941</v>
+        <v>956</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -6110,7 +6110,7 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D195" t="s">
         <v>932</v>
@@ -6127,7 +6127,7 @@
         <v>873</v>
       </c>
       <c r="D196" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -6180,10 +6180,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D200" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -6194,10 +6194,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D201" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -6222,7 +6222,7 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D203" t="s">
         <v>951</v>
@@ -6236,10 +6236,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D204" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6278,10 +6278,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="D207" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6292,10 +6292,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="D208" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6334,7 +6334,7 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D211" t="s">
         <v>940</v>
@@ -6348,10 +6348,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D212" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6376,7 +6376,7 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="D214" t="s">
         <v>941</v>
@@ -6390,10 +6390,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D215" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6404,10 +6404,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D216" t="s">
-        <v>941</v>
+        <v>952</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6418,10 +6418,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>816</v>
+        <v>832</v>
       </c>
       <c r="D217" t="s">
-        <v>957</v>
+        <v>934</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6432,10 +6432,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="D218" t="s">
-        <v>934</v>
+        <v>956</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6474,7 +6474,7 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D221" t="s">
         <v>953</v>
@@ -6488,10 +6488,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>877</v>
+        <v>838</v>
       </c>
       <c r="D222" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6502,10 +6502,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>838</v>
+        <v>877</v>
       </c>
       <c r="D223" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6516,10 +6516,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>874</v>
+        <v>838</v>
       </c>
       <c r="D224" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6530,10 +6530,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>838</v>
+        <v>874</v>
       </c>
       <c r="D225" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6544,7 +6544,7 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D226" t="s">
         <v>946</v>
@@ -6558,10 +6558,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="D227" t="s">
-        <v>935</v>
+        <v>955</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6572,10 +6572,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="D228" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6600,10 +6600,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="D230" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6628,10 +6628,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
       <c r="D232" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6656,10 +6656,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>818</v>
+        <v>878</v>
       </c>
       <c r="D234" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6670,10 +6670,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>878</v>
+        <v>818</v>
       </c>
       <c r="D235" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6684,10 +6684,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>844</v>
+        <v>879</v>
       </c>
       <c r="D236" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6698,10 +6698,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>819</v>
+        <v>844</v>
       </c>
       <c r="D237" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6712,10 +6712,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>825</v>
+        <v>880</v>
       </c>
       <c r="D238" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6726,10 +6726,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>856</v>
+        <v>826</v>
       </c>
       <c r="D239" t="s">
-        <v>937</v>
+        <v>955</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6740,10 +6740,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="D240" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6754,10 +6754,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>879</v>
+        <v>830</v>
       </c>
       <c r="D241" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6768,10 +6768,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="D242" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6782,10 +6782,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>827</v>
+        <v>856</v>
       </c>
       <c r="D243" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6796,10 +6796,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>880</v>
+        <v>834</v>
       </c>
       <c r="D244" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6810,10 +6810,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D245" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6824,7 +6824,7 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D246" t="s">
         <v>941</v>
@@ -6852,10 +6852,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>882</v>
+        <v>826</v>
       </c>
       <c r="D248" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6866,10 +6866,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>874</v>
+        <v>816</v>
       </c>
       <c r="D249" t="s">
-        <v>961</v>
+        <v>934</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6880,10 +6880,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>816</v>
+        <v>874</v>
       </c>
       <c r="D250" t="s">
-        <v>934</v>
+        <v>961</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6894,10 +6894,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>815</v>
+        <v>882</v>
       </c>
       <c r="D251" t="s">
-        <v>957</v>
+        <v>939</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6908,10 +6908,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="D252" t="s">
-        <v>947</v>
+        <v>956</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6936,10 +6936,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D254" t="s">
-        <v>942</v>
+        <v>953</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6950,10 +6950,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D255" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6964,10 +6964,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>840</v>
+        <v>883</v>
       </c>
       <c r="D256" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6978,10 +6978,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="D257" t="s">
-        <v>937</v>
+        <v>956</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6992,10 +6992,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>883</v>
+        <v>826</v>
       </c>
       <c r="D258" t="s">
-        <v>953</v>
+        <v>937</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -7006,7 +7006,7 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>832</v>
+        <v>854</v>
       </c>
       <c r="D259" t="s">
         <v>961</v>
@@ -7020,10 +7020,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
       <c r="D260" t="s">
-        <v>961</v>
+        <v>946</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -7034,10 +7034,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="D261" t="s">
-        <v>934</v>
+        <v>961</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -7065,7 +7065,7 @@
         <v>844</v>
       </c>
       <c r="D263" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -7076,10 +7076,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="D264" t="s">
-        <v>949</v>
+        <v>960</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -7090,10 +7090,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="D265" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -7104,10 +7104,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="D266" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -7132,10 +7132,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>829</v>
+        <v>874</v>
       </c>
       <c r="D268" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -7146,10 +7146,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D269" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -7160,10 +7160,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D270" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -7174,10 +7174,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="D271" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -7188,10 +7188,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>874</v>
+        <v>838</v>
       </c>
       <c r="D272" t="s">
-        <v>933</v>
+        <v>950</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -7202,10 +7202,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D273" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -7216,10 +7216,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D274" t="s">
-        <v>944</v>
+        <v>955</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -7230,10 +7230,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D275" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7244,10 +7244,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="D276" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -7258,10 +7258,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="D277" t="s">
-        <v>946</v>
+        <v>959</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7272,10 +7272,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D278" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -7286,10 +7286,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="D279" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -7314,10 +7314,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>869</v>
+        <v>844</v>
       </c>
       <c r="D281" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7328,10 +7328,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>844</v>
+        <v>869</v>
       </c>
       <c r="D282" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -7342,10 +7342,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>844</v>
+        <v>884</v>
       </c>
       <c r="D283" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7356,10 +7356,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>884</v>
+        <v>817</v>
       </c>
       <c r="D284" t="s">
-        <v>935</v>
+        <v>950</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7370,10 +7370,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="D285" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7384,10 +7384,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>824</v>
+        <v>844</v>
       </c>
       <c r="D286" t="s">
-        <v>953</v>
+        <v>936</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7398,10 +7398,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="D287" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7412,10 +7412,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="D288" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -7426,10 +7426,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="D289" t="s">
-        <v>942</v>
+        <v>963</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -7440,10 +7440,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
       <c r="D290" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7454,10 +7454,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D291" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -7468,10 +7468,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>836</v>
+        <v>886</v>
       </c>
       <c r="D292" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7485,7 +7485,7 @@
         <v>836</v>
       </c>
       <c r="D293" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -7496,10 +7496,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>886</v>
+        <v>849</v>
       </c>
       <c r="D294" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -7510,10 +7510,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>844</v>
+        <v>874</v>
       </c>
       <c r="D295" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7524,7 +7524,7 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
       <c r="D296" t="s">
         <v>934</v>
@@ -7538,10 +7538,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="D297" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -7552,10 +7552,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>874</v>
+        <v>832</v>
       </c>
       <c r="D298" t="s">
-        <v>948</v>
+        <v>957</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7569,7 +7569,7 @@
         <v>844</v>
       </c>
       <c r="D299" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -7625,7 +7625,7 @@
         <v>826</v>
       </c>
       <c r="D303" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7639,7 +7639,7 @@
         <v>825</v>
       </c>
       <c r="D304" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -7653,7 +7653,7 @@
         <v>844</v>
       </c>
       <c r="D305" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7664,10 +7664,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>844</v>
+        <v>888</v>
       </c>
       <c r="D306" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -7678,10 +7678,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>884</v>
+        <v>844</v>
       </c>
       <c r="D307" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7692,10 +7692,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>832</v>
+        <v>884</v>
       </c>
       <c r="D308" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7706,10 +7706,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
       <c r="D309" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -7720,10 +7720,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D310" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7734,10 +7734,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>888</v>
+        <v>826</v>
       </c>
       <c r="D311" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7748,10 +7748,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>832</v>
+        <v>889</v>
       </c>
       <c r="D312" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7762,10 +7762,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="D313" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7776,10 +7776,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D314" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7790,10 +7790,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>817</v>
+        <v>854</v>
       </c>
       <c r="D315" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7804,10 +7804,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="D316" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7818,10 +7818,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="D317" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7835,7 +7835,7 @@
         <v>832</v>
       </c>
       <c r="D318" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7846,10 +7846,10 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="D319" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7860,10 +7860,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>889</v>
+        <v>832</v>
       </c>
       <c r="D320" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7874,10 +7874,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="D321" t="s">
-        <v>947</v>
+        <v>960</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7888,10 +7888,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="D322" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7902,7 +7902,7 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D323" t="s">
         <v>949</v>
@@ -7930,7 +7930,7 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D325" t="s">
         <v>961</v>
@@ -7944,10 +7944,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>878</v>
+        <v>852</v>
       </c>
       <c r="D326" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7958,10 +7958,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="D327" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7972,10 +7972,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D328" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7986,10 +7986,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>825</v>
+        <v>892</v>
       </c>
       <c r="D329" t="s">
-        <v>945</v>
+        <v>962</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -8000,10 +8000,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D330" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -8014,10 +8014,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>884</v>
+        <v>826</v>
       </c>
       <c r="D331" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -8028,10 +8028,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>822</v>
+        <v>884</v>
       </c>
       <c r="D332" t="s">
-        <v>965</v>
+        <v>948</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -8042,10 +8042,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D333" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -8056,10 +8056,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D334" t="s">
-        <v>956</v>
+        <v>965</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -8070,10 +8070,10 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>836</v>
+        <v>893</v>
       </c>
       <c r="D335" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -8084,10 +8084,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D336" t="s">
-        <v>941</v>
+        <v>957</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -8098,10 +8098,10 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>893</v>
+        <v>836</v>
       </c>
       <c r="D337" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -8109,7 +8109,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C338" t="s">
         <v>816</v>
@@ -8126,10 +8126,10 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="D339" t="s">
-        <v>966</v>
+        <v>933</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -8140,10 +8140,10 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="D340" t="s">
-        <v>933</v>
+        <v>966</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -8168,7 +8168,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D342" t="s">
         <v>952</v>
@@ -8210,7 +8210,7 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D345" t="s">
         <v>944</v>
@@ -8224,10 +8224,10 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>832</v>
+        <v>879</v>
       </c>
       <c r="D346" t="s">
-        <v>968</v>
+        <v>945</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -8238,10 +8238,10 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D347" t="s">
-        <v>946</v>
+        <v>968</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8252,10 +8252,10 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>877</v>
+        <v>826</v>
       </c>
       <c r="D348" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -8283,7 +8283,7 @@
         <v>836</v>
       </c>
       <c r="D350" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -8322,10 +8322,10 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
       <c r="D353" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -8336,10 +8336,10 @@
         <v>355</v>
       </c>
       <c r="C354" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="D354" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -8353,7 +8353,7 @@
         <v>894</v>
       </c>
       <c r="D355" t="s">
-        <v>950</v>
+        <v>960</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8364,10 +8364,10 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>825</v>
+        <v>882</v>
       </c>
       <c r="D356" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8378,10 +8378,10 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>817</v>
+        <v>895</v>
       </c>
       <c r="D357" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8392,7 +8392,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="D358" t="s">
         <v>951</v>
@@ -8406,10 +8406,10 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>895</v>
+        <v>817</v>
       </c>
       <c r="D359" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8420,10 +8420,10 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>882</v>
+        <v>832</v>
       </c>
       <c r="D360" t="s">
-        <v>955</v>
+        <v>937</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8434,10 +8434,10 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="D361" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8448,10 +8448,10 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D362" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8462,10 +8462,10 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D363" t="s">
-        <v>937</v>
+        <v>961</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -8476,10 +8476,10 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="D364" t="s">
-        <v>935</v>
+        <v>955</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8490,10 +8490,10 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>896</v>
+        <v>874</v>
       </c>
       <c r="D365" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8504,10 +8504,10 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="D366" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8518,10 +8518,10 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>897</v>
+        <v>874</v>
       </c>
       <c r="D367" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8535,7 +8535,7 @@
         <v>874</v>
       </c>
       <c r="D368" t="s">
-        <v>944</v>
+        <v>957</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8546,10 +8546,10 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>874</v>
+        <v>897</v>
       </c>
       <c r="D369" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8560,10 +8560,10 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>884</v>
+        <v>857</v>
       </c>
       <c r="D370" t="s">
-        <v>939</v>
+        <v>957</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8574,10 +8574,10 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>857</v>
+        <v>884</v>
       </c>
       <c r="D371" t="s">
-        <v>956</v>
+        <v>939</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8591,7 +8591,7 @@
         <v>825</v>
       </c>
       <c r="D372" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8602,10 +8602,10 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D373" t="s">
-        <v>952</v>
+        <v>936</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8616,10 +8616,10 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>832</v>
+        <v>889</v>
       </c>
       <c r="D374" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8630,10 +8630,10 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>888</v>
+        <v>826</v>
       </c>
       <c r="D375" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8644,10 +8644,10 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>825</v>
+        <v>898</v>
       </c>
       <c r="D376" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8658,10 +8658,10 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>898</v>
+        <v>826</v>
       </c>
       <c r="D377" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -8686,10 +8686,10 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>899</v>
+        <v>834</v>
       </c>
       <c r="D379" t="s">
-        <v>949</v>
+        <v>932</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -8700,10 +8700,10 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="D380" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -8714,10 +8714,10 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D381" t="s">
-        <v>936</v>
+        <v>962</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -8728,10 +8728,10 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>832</v>
+        <v>899</v>
       </c>
       <c r="D382" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8742,7 +8742,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D383" t="s">
         <v>954</v>
@@ -8770,7 +8770,7 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D385" t="s">
         <v>936</v>
@@ -8787,7 +8787,7 @@
         <v>900</v>
       </c>
       <c r="D386" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -8798,10 +8798,10 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="D387" t="s">
-        <v>941</v>
+        <v>954</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -8812,10 +8812,10 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="D388" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -8826,10 +8826,10 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="D389" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -8840,10 +8840,10 @@
         <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>901</v>
+        <v>835</v>
       </c>
       <c r="D390" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8854,10 +8854,10 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>832</v>
+        <v>901</v>
       </c>
       <c r="D391" t="s">
-        <v>944</v>
+        <v>953</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -8868,10 +8868,10 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="D392" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -8882,10 +8882,10 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="D393" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -8910,7 +8910,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D395" t="s">
         <v>934</v>
@@ -8924,7 +8924,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D396" t="s">
         <v>936</v>
@@ -8938,7 +8938,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D397" t="s">
         <v>951</v>
@@ -8980,10 +8980,10 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>850</v>
+        <v>874</v>
       </c>
       <c r="D400" t="s">
-        <v>941</v>
+        <v>952</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -8994,10 +8994,10 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>834</v>
+        <v>850</v>
       </c>
       <c r="D401" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -9008,10 +9008,10 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D402" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -9022,10 +9022,10 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D403" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -9036,10 +9036,10 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D404" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -9050,10 +9050,10 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>858</v>
+        <v>829</v>
       </c>
       <c r="D405" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -9064,10 +9064,10 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>884</v>
+        <v>858</v>
       </c>
       <c r="D406" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -9078,10 +9078,10 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="D407" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -9092,7 +9092,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D408" t="s">
         <v>954</v>
@@ -9120,10 +9120,10 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>825</v>
+        <v>845</v>
       </c>
       <c r="D410" t="s">
-        <v>932</v>
+        <v>969</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -9134,10 +9134,10 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D411" t="s">
-        <v>952</v>
+        <v>932</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -9148,10 +9148,10 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>846</v>
+        <v>874</v>
       </c>
       <c r="D412" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -9162,10 +9162,10 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D413" t="s">
-        <v>937</v>
+        <v>952</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -9176,10 +9176,10 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>874</v>
+        <v>832</v>
       </c>
       <c r="D414" t="s">
-        <v>957</v>
+        <v>937</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -9190,10 +9190,10 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>844</v>
+        <v>874</v>
       </c>
       <c r="D415" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -9204,10 +9204,10 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>832</v>
+        <v>874</v>
       </c>
       <c r="D416" t="s">
-        <v>939</v>
+        <v>952</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -9218,10 +9218,10 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>874</v>
+        <v>844</v>
       </c>
       <c r="D417" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -9232,10 +9232,10 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>874</v>
+        <v>845</v>
       </c>
       <c r="D418" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9246,10 +9246,10 @@
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
       <c r="D419" t="s">
-        <v>962</v>
+        <v>943</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -9260,10 +9260,10 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="D420" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -9274,10 +9274,10 @@
         <v>422</v>
       </c>
       <c r="C421" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
       <c r="D421" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9291,7 +9291,7 @@
         <v>832</v>
       </c>
       <c r="D422" t="s">
-        <v>946</v>
+        <v>962</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -9302,10 +9302,10 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="D423" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9316,10 +9316,10 @@
         <v>425</v>
       </c>
       <c r="C424" t="s">
-        <v>816</v>
+        <v>832</v>
       </c>
       <c r="D424" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -9330,10 +9330,10 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D425" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -9347,7 +9347,7 @@
         <v>832</v>
       </c>
       <c r="D426" t="s">
-        <v>940</v>
+        <v>962</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9358,10 +9358,10 @@
         <v>428</v>
       </c>
       <c r="C427" t="s">
-        <v>862</v>
+        <v>816</v>
       </c>
       <c r="D427" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -9372,10 +9372,10 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="D428" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9386,10 +9386,10 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="D429" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9400,10 +9400,10 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D430" t="s">
-        <v>938</v>
+        <v>962</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9414,10 +9414,10 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>902</v>
+        <v>845</v>
       </c>
       <c r="D431" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -9428,10 +9428,10 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>825</v>
+        <v>902</v>
       </c>
       <c r="D432" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -9445,7 +9445,7 @@
         <v>832</v>
       </c>
       <c r="D433" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9470,10 +9470,10 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D435" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -9484,10 +9484,10 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D436" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9498,10 +9498,10 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D437" t="s">
-        <v>932</v>
+        <v>949</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -9512,10 +9512,10 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="D438" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -9526,10 +9526,10 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="D439" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -9540,10 +9540,10 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="D440" t="s">
-        <v>959</v>
+        <v>932</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -9554,10 +9554,10 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D441" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -9568,10 +9568,10 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>836</v>
+        <v>881</v>
       </c>
       <c r="D442" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -9582,10 +9582,10 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="D443" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -9596,10 +9596,10 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>854</v>
+        <v>832</v>
       </c>
       <c r="D444" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -9610,10 +9610,10 @@
         <v>446</v>
       </c>
       <c r="C445" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="D445" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -9624,10 +9624,10 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
       <c r="D446" t="s">
-        <v>932</v>
+        <v>962</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9638,10 +9638,10 @@
         <v>448</v>
       </c>
       <c r="C447" t="s">
-        <v>903</v>
+        <v>836</v>
       </c>
       <c r="D447" t="s">
-        <v>960</v>
+        <v>942</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -9652,10 +9652,10 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="D448" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -9666,10 +9666,10 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>832</v>
+        <v>854</v>
       </c>
       <c r="D449" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -9680,10 +9680,10 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>881</v>
+        <v>832</v>
       </c>
       <c r="D450" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -9694,10 +9694,10 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="D451" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -9711,7 +9711,7 @@
         <v>832</v>
       </c>
       <c r="D452" t="s">
-        <v>933</v>
+        <v>952</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9719,13 +9719,13 @@
         <v>452</v>
       </c>
       <c r="B453" t="s">
-        <v>454</v>
+        <v>179</v>
       </c>
       <c r="C453" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D453" t="s">
-        <v>953</v>
+        <v>938</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -9733,13 +9733,13 @@
         <v>453</v>
       </c>
       <c r="B454" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C454" t="s">
-        <v>844</v>
+        <v>881</v>
       </c>
       <c r="D454" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9747,13 +9747,13 @@
         <v>454</v>
       </c>
       <c r="B455" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C455" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D455" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -9761,13 +9761,13 @@
         <v>455</v>
       </c>
       <c r="B456" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C456" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="D456" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -9775,13 +9775,13 @@
         <v>456</v>
       </c>
       <c r="B457" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C457" t="s">
         <v>844</v>
       </c>
       <c r="D457" t="s">
-        <v>953</v>
+        <v>933</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -9789,13 +9789,13 @@
         <v>457</v>
       </c>
       <c r="B458" t="s">
-        <v>178</v>
+        <v>458</v>
       </c>
       <c r="C458" t="s">
-        <v>832</v>
+        <v>903</v>
       </c>
       <c r="D458" t="s">
-        <v>938</v>
+        <v>960</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -9806,10 +9806,10 @@
         <v>459</v>
       </c>
       <c r="C459" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D459" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -9820,10 +9820,10 @@
         <v>460</v>
       </c>
       <c r="C460" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D460" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -9834,10 +9834,10 @@
         <v>461</v>
       </c>
       <c r="C461" t="s">
-        <v>904</v>
+        <v>826</v>
       </c>
       <c r="D461" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -9851,7 +9851,7 @@
         <v>832</v>
       </c>
       <c r="D462" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9862,10 +9862,10 @@
         <v>463</v>
       </c>
       <c r="C463" t="s">
-        <v>874</v>
+        <v>826</v>
       </c>
       <c r="D463" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -9876,10 +9876,10 @@
         <v>464</v>
       </c>
       <c r="C464" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="D464" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -9890,10 +9890,10 @@
         <v>465</v>
       </c>
       <c r="C465" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="D465" t="s">
-        <v>933</v>
+        <v>952</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -9904,10 +9904,10 @@
         <v>466</v>
       </c>
       <c r="C466" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="D466" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -9918,10 +9918,10 @@
         <v>467</v>
       </c>
       <c r="C467" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D467" t="s">
-        <v>947</v>
+        <v>932</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -9932,10 +9932,10 @@
         <v>468</v>
       </c>
       <c r="C468" t="s">
-        <v>832</v>
+        <v>904</v>
       </c>
       <c r="D468" t="s">
-        <v>940</v>
+        <v>949</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -9946,10 +9946,10 @@
         <v>469</v>
       </c>
       <c r="C469" t="s">
-        <v>874</v>
+        <v>832</v>
       </c>
       <c r="D469" t="s">
-        <v>953</v>
+        <v>932</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -9960,10 +9960,10 @@
         <v>470</v>
       </c>
       <c r="C470" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="D470" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -9974,10 +9974,10 @@
         <v>471</v>
       </c>
       <c r="C471" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="D471" t="s">
-        <v>935</v>
+        <v>953</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -9988,10 +9988,10 @@
         <v>472</v>
       </c>
       <c r="C472" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="D472" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -10002,10 +10002,10 @@
         <v>473</v>
       </c>
       <c r="C473" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D473" t="s">
-        <v>939</v>
+        <v>962</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -10019,7 +10019,7 @@
         <v>832</v>
       </c>
       <c r="D474" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -10030,10 +10030,10 @@
         <v>475</v>
       </c>
       <c r="C475" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="D475" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -10044,10 +10044,10 @@
         <v>476</v>
       </c>
       <c r="C476" t="s">
-        <v>832</v>
+        <v>847</v>
       </c>
       <c r="D476" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -10058,10 +10058,10 @@
         <v>477</v>
       </c>
       <c r="C477" t="s">
-        <v>884</v>
+        <v>832</v>
       </c>
       <c r="D477" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -10072,10 +10072,10 @@
         <v>478</v>
       </c>
       <c r="C478" t="s">
-        <v>824</v>
+        <v>874</v>
       </c>
       <c r="D478" t="s">
-        <v>970</v>
+        <v>953</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -10086,10 +10086,10 @@
         <v>479</v>
       </c>
       <c r="C479" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="D479" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -10100,10 +10100,10 @@
         <v>480</v>
       </c>
       <c r="C480" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="D480" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -10114,10 +10114,10 @@
         <v>481</v>
       </c>
       <c r="C481" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="D481" t="s">
-        <v>932</v>
+        <v>945</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -10128,10 +10128,10 @@
         <v>482</v>
       </c>
       <c r="C482" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="D482" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -10142,10 +10142,10 @@
         <v>483</v>
       </c>
       <c r="C483" t="s">
-        <v>832</v>
+        <v>884</v>
       </c>
       <c r="D483" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -10156,10 +10156,10 @@
         <v>484</v>
       </c>
       <c r="C484" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="D484" t="s">
-        <v>935</v>
+        <v>970</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -10173,7 +10173,7 @@
         <v>874</v>
       </c>
       <c r="D485" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -10187,7 +10187,7 @@
         <v>832</v>
       </c>
       <c r="D486" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -10198,10 +10198,10 @@
         <v>487</v>
       </c>
       <c r="C487" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D487" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -10212,10 +10212,10 @@
         <v>488</v>
       </c>
       <c r="C488" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="D488" t="s">
-        <v>932</v>
+        <v>951</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -10226,10 +10226,10 @@
         <v>489</v>
       </c>
       <c r="C489" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="D489" t="s">
-        <v>951</v>
+        <v>933</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -10240,10 +10240,10 @@
         <v>490</v>
       </c>
       <c r="C490" t="s">
-        <v>874</v>
+        <v>832</v>
       </c>
       <c r="D490" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -10254,10 +10254,10 @@
         <v>491</v>
       </c>
       <c r="C491" t="s">
-        <v>832</v>
+        <v>874</v>
       </c>
       <c r="D491" t="s">
-        <v>934</v>
+        <v>950</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -10271,7 +10271,7 @@
         <v>832</v>
       </c>
       <c r="D492" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -10282,10 +10282,10 @@
         <v>493</v>
       </c>
       <c r="C493" t="s">
-        <v>884</v>
+        <v>836</v>
       </c>
       <c r="D493" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -10296,10 +10296,10 @@
         <v>494</v>
       </c>
       <c r="C494" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="D494" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -10310,10 +10310,10 @@
         <v>495</v>
       </c>
       <c r="C495" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D495" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -10324,10 +10324,10 @@
         <v>496</v>
       </c>
       <c r="C496" t="s">
-        <v>836</v>
+        <v>874</v>
       </c>
       <c r="D496" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -10338,10 +10338,10 @@
         <v>497</v>
       </c>
       <c r="C497" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="D497" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -10355,7 +10355,7 @@
         <v>832</v>
       </c>
       <c r="D498" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -10366,10 +10366,10 @@
         <v>499</v>
       </c>
       <c r="C499" t="s">
-        <v>844</v>
+        <v>884</v>
       </c>
       <c r="D499" t="s">
-        <v>972</v>
+        <v>946</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -10380,10 +10380,10 @@
         <v>500</v>
       </c>
       <c r="C500" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D500" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -10394,10 +10394,10 @@
         <v>501</v>
       </c>
       <c r="C501" t="s">
-        <v>884</v>
+        <v>832</v>
       </c>
       <c r="D501" t="s">
-        <v>936</v>
+        <v>951</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10405,13 +10405,13 @@
         <v>501</v>
       </c>
       <c r="B502" t="s">
-        <v>502</v>
+        <v>345</v>
       </c>
       <c r="C502" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D502" t="s">
-        <v>953</v>
+        <v>971</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -10419,13 +10419,13 @@
         <v>502</v>
       </c>
       <c r="B503" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C503" t="s">
         <v>832</v>
       </c>
       <c r="D503" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10433,13 +10433,13 @@
         <v>503</v>
       </c>
       <c r="B504" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C504" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D504" t="s">
-        <v>946</v>
+        <v>960</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -10447,13 +10447,13 @@
         <v>504</v>
       </c>
       <c r="B505" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C505" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D505" t="s">
-        <v>960</v>
+        <v>934</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10461,13 +10461,13 @@
         <v>505</v>
       </c>
       <c r="B506" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C506" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="D506" t="s">
-        <v>932</v>
+        <v>972</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -10475,13 +10475,13 @@
         <v>506</v>
       </c>
       <c r="B507" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C507" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="D507" t="s">
-        <v>954</v>
+        <v>938</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10489,13 +10489,13 @@
         <v>507</v>
       </c>
       <c r="B508" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C508" t="s">
-        <v>905</v>
+        <v>844</v>
       </c>
       <c r="D508" t="s">
-        <v>957</v>
+        <v>973</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10503,13 +10503,13 @@
         <v>508</v>
       </c>
       <c r="B509" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C509" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D509" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10517,13 +10517,13 @@
         <v>509</v>
       </c>
       <c r="B510" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C510" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D510" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10531,13 +10531,13 @@
         <v>510</v>
       </c>
       <c r="B511" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C511" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="D511" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10545,13 +10545,13 @@
         <v>511</v>
       </c>
       <c r="B512" t="s">
-        <v>345</v>
+        <v>511</v>
       </c>
       <c r="C512" t="s">
-        <v>832</v>
+        <v>884</v>
       </c>
       <c r="D512" t="s">
-        <v>973</v>
+        <v>936</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10565,7 +10565,7 @@
         <v>832</v>
       </c>
       <c r="D513" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10593,7 +10593,7 @@
         <v>832</v>
       </c>
       <c r="D515" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -10604,10 +10604,10 @@
         <v>515</v>
       </c>
       <c r="C516" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D516" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10618,10 +10618,10 @@
         <v>516</v>
       </c>
       <c r="C517" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D517" t="s">
-        <v>950</v>
+        <v>960</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10632,10 +10632,10 @@
         <v>517</v>
       </c>
       <c r="C518" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="D518" t="s">
-        <v>940</v>
+        <v>954</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10646,10 +10646,10 @@
         <v>518</v>
       </c>
       <c r="C519" t="s">
-        <v>826</v>
+        <v>905</v>
       </c>
       <c r="D519" t="s">
-        <v>942</v>
+        <v>956</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10660,10 +10660,10 @@
         <v>519</v>
       </c>
       <c r="C520" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D520" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10674,10 +10674,10 @@
         <v>520</v>
       </c>
       <c r="C521" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D521" t="s">
-        <v>934</v>
+        <v>955</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10688,10 +10688,10 @@
         <v>521</v>
       </c>
       <c r="C522" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="D522" t="s">
-        <v>940</v>
+        <v>959</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10705,7 +10705,7 @@
         <v>836</v>
       </c>
       <c r="D523" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10716,10 +10716,10 @@
         <v>523</v>
       </c>
       <c r="C524" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D524" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10730,10 +10730,10 @@
         <v>524</v>
       </c>
       <c r="C525" t="s">
-        <v>906</v>
+        <v>826</v>
       </c>
       <c r="D525" t="s">
-        <v>943</v>
+        <v>974</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10744,10 +10744,10 @@
         <v>525</v>
       </c>
       <c r="C526" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D526" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10758,10 +10758,10 @@
         <v>526</v>
       </c>
       <c r="C527" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D527" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10775,7 +10775,7 @@
         <v>832</v>
       </c>
       <c r="D528" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10786,10 +10786,10 @@
         <v>528</v>
       </c>
       <c r="C529" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D529" t="s">
-        <v>974</v>
+        <v>942</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -10800,10 +10800,10 @@
         <v>529</v>
       </c>
       <c r="C530" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="D530" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -10814,10 +10814,10 @@
         <v>530</v>
       </c>
       <c r="C531" t="s">
-        <v>881</v>
+        <v>836</v>
       </c>
       <c r="D531" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10831,7 +10831,7 @@
         <v>832</v>
       </c>
       <c r="D532" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10845,7 +10845,7 @@
         <v>832</v>
       </c>
       <c r="D533" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10856,10 +10856,10 @@
         <v>533</v>
       </c>
       <c r="C534" t="s">
-        <v>832</v>
+        <v>906</v>
       </c>
       <c r="D534" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -10870,10 +10870,10 @@
         <v>534</v>
       </c>
       <c r="C535" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
       <c r="D535" t="s">
-        <v>933</v>
+        <v>960</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10884,10 +10884,10 @@
         <v>535</v>
       </c>
       <c r="C536" t="s">
-        <v>834</v>
+        <v>881</v>
       </c>
       <c r="D536" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -10898,10 +10898,10 @@
         <v>536</v>
       </c>
       <c r="C537" t="s">
-        <v>832</v>
+        <v>849</v>
       </c>
       <c r="D537" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10912,10 +10912,10 @@
         <v>537</v>
       </c>
       <c r="C538" t="s">
-        <v>874</v>
+        <v>907</v>
       </c>
       <c r="D538" t="s">
-        <v>944</v>
+        <v>962</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10926,10 +10926,10 @@
         <v>538</v>
       </c>
       <c r="C539" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="D539" t="s">
-        <v>956</v>
+        <v>933</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10940,10 +10940,10 @@
         <v>539</v>
       </c>
       <c r="C540" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D540" t="s">
-        <v>933</v>
+        <v>957</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -10954,10 +10954,10 @@
         <v>540</v>
       </c>
       <c r="C541" t="s">
-        <v>849</v>
+        <v>874</v>
       </c>
       <c r="D541" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10968,10 +10968,10 @@
         <v>541</v>
       </c>
       <c r="C542" t="s">
-        <v>844</v>
+        <v>874</v>
       </c>
       <c r="D542" t="s">
-        <v>953</v>
+        <v>936</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -10982,10 +10982,10 @@
         <v>542</v>
       </c>
       <c r="C543" t="s">
-        <v>903</v>
+        <v>826</v>
       </c>
       <c r="D543" t="s">
-        <v>942</v>
+        <v>957</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -10996,7 +10996,7 @@
         <v>543</v>
       </c>
       <c r="C544" t="s">
-        <v>907</v>
+        <v>836</v>
       </c>
       <c r="D544" t="s">
         <v>962</v>
@@ -11010,10 +11010,10 @@
         <v>544</v>
       </c>
       <c r="C545" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="D545" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -11024,10 +11024,10 @@
         <v>545</v>
       </c>
       <c r="C546" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="D546" t="s">
-        <v>959</v>
+        <v>942</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -11038,10 +11038,10 @@
         <v>546</v>
       </c>
       <c r="C547" t="s">
-        <v>825</v>
+        <v>874</v>
       </c>
       <c r="D547" t="s">
-        <v>962</v>
+        <v>944</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -11052,10 +11052,10 @@
         <v>547</v>
       </c>
       <c r="C548" t="s">
-        <v>874</v>
+        <v>825</v>
       </c>
       <c r="D548" t="s">
-        <v>936</v>
+        <v>961</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -11066,10 +11066,10 @@
         <v>548</v>
       </c>
       <c r="C549" t="s">
-        <v>836</v>
+        <v>908</v>
       </c>
       <c r="D549" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -11080,10 +11080,10 @@
         <v>549</v>
       </c>
       <c r="C550" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D550" t="s">
-        <v>956</v>
+        <v>939</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -11094,10 +11094,10 @@
         <v>550</v>
       </c>
       <c r="C551" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="D551" t="s">
-        <v>960</v>
+        <v>942</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -11108,10 +11108,10 @@
         <v>551</v>
       </c>
       <c r="C552" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="D552" t="s">
-        <v>945</v>
+        <v>962</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -11122,10 +11122,10 @@
         <v>552</v>
       </c>
       <c r="C553" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="D553" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -11136,10 +11136,10 @@
         <v>553</v>
       </c>
       <c r="C554" t="s">
-        <v>825</v>
+        <v>879</v>
       </c>
       <c r="D554" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -11150,10 +11150,10 @@
         <v>554</v>
       </c>
       <c r="C555" t="s">
-        <v>874</v>
+        <v>826</v>
       </c>
       <c r="D555" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -11164,10 +11164,10 @@
         <v>555</v>
       </c>
       <c r="C556" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D556" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -11178,10 +11178,10 @@
         <v>556</v>
       </c>
       <c r="C557" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="D557" t="s">
-        <v>942</v>
+        <v>960</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -11192,7 +11192,7 @@
         <v>557</v>
       </c>
       <c r="C558" t="s">
-        <v>878</v>
+        <v>909</v>
       </c>
       <c r="D558" t="s">
         <v>950</v>
@@ -11206,10 +11206,10 @@
         <v>558</v>
       </c>
       <c r="C559" t="s">
-        <v>887</v>
+        <v>817</v>
       </c>
       <c r="D559" t="s">
-        <v>935</v>
+        <v>944</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -11223,7 +11223,7 @@
         <v>832</v>
       </c>
       <c r="D560" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -11234,10 +11234,10 @@
         <v>560</v>
       </c>
       <c r="C561" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D561" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -11248,10 +11248,10 @@
         <v>561</v>
       </c>
       <c r="C562" t="s">
-        <v>832</v>
+        <v>849</v>
       </c>
       <c r="D562" t="s">
-        <v>948</v>
+        <v>961</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -11265,7 +11265,7 @@
         <v>836</v>
       </c>
       <c r="D563" t="s">
-        <v>938</v>
+        <v>951</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11276,10 +11276,10 @@
         <v>563</v>
       </c>
       <c r="C564" t="s">
-        <v>909</v>
+        <v>826</v>
       </c>
       <c r="D564" t="s">
-        <v>950</v>
+        <v>961</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -11290,10 +11290,10 @@
         <v>564</v>
       </c>
       <c r="C565" t="s">
-        <v>869</v>
+        <v>850</v>
       </c>
       <c r="D565" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11304,10 +11304,10 @@
         <v>565</v>
       </c>
       <c r="C566" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
       <c r="D566" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11318,10 +11318,10 @@
         <v>566</v>
       </c>
       <c r="C567" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D567" t="s">
-        <v>951</v>
+        <v>933</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -11332,7 +11332,7 @@
         <v>567</v>
       </c>
       <c r="C568" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D568" t="s">
         <v>933</v>
@@ -11346,10 +11346,10 @@
         <v>568</v>
       </c>
       <c r="C569" t="s">
-        <v>825</v>
+        <v>887</v>
       </c>
       <c r="D569" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -11360,10 +11360,10 @@
         <v>569</v>
       </c>
       <c r="C570" t="s">
-        <v>910</v>
+        <v>826</v>
       </c>
       <c r="D570" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11374,10 +11374,10 @@
         <v>570</v>
       </c>
       <c r="C571" t="s">
-        <v>835</v>
+        <v>894</v>
       </c>
       <c r="D571" t="s">
-        <v>933</v>
+        <v>975</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11388,10 +11388,10 @@
         <v>571</v>
       </c>
       <c r="C572" t="s">
-        <v>895</v>
+        <v>826</v>
       </c>
       <c r="D572" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -11402,10 +11402,10 @@
         <v>572</v>
       </c>
       <c r="C573" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D573" t="s">
-        <v>945</v>
+        <v>962</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -11416,10 +11416,10 @@
         <v>573</v>
       </c>
       <c r="C574" t="s">
-        <v>825</v>
+        <v>874</v>
       </c>
       <c r="D574" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11430,10 +11430,10 @@
         <v>574</v>
       </c>
       <c r="C575" t="s">
-        <v>825</v>
+        <v>869</v>
       </c>
       <c r="D575" t="s">
-        <v>946</v>
+        <v>956</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -11444,10 +11444,10 @@
         <v>575</v>
       </c>
       <c r="C576" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="D576" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -11458,10 +11458,10 @@
         <v>576</v>
       </c>
       <c r="C577" t="s">
-        <v>825</v>
+        <v>854</v>
       </c>
       <c r="D577" t="s">
-        <v>962</v>
+        <v>976</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11472,10 +11472,10 @@
         <v>577</v>
       </c>
       <c r="C578" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
       <c r="D578" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11486,10 +11486,10 @@
         <v>578</v>
       </c>
       <c r="C579" t="s">
-        <v>854</v>
+        <v>910</v>
       </c>
       <c r="D579" t="s">
-        <v>976</v>
+        <v>957</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -11500,10 +11500,10 @@
         <v>579</v>
       </c>
       <c r="C580" t="s">
-        <v>874</v>
+        <v>911</v>
       </c>
       <c r="D580" t="s">
-        <v>941</v>
+        <v>960</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -11514,10 +11514,10 @@
         <v>580</v>
       </c>
       <c r="C581" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="D581" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -11528,10 +11528,10 @@
         <v>581</v>
       </c>
       <c r="C582" t="s">
-        <v>858</v>
+        <v>826</v>
       </c>
       <c r="D582" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -11542,10 +11542,10 @@
         <v>582</v>
       </c>
       <c r="C583" t="s">
-        <v>911</v>
+        <v>822</v>
       </c>
       <c r="D583" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -11556,10 +11556,10 @@
         <v>583</v>
       </c>
       <c r="C584" t="s">
-        <v>850</v>
+        <v>826</v>
       </c>
       <c r="D584" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -11570,10 +11570,10 @@
         <v>584</v>
       </c>
       <c r="C585" t="s">
-        <v>816</v>
+        <v>912</v>
       </c>
       <c r="D585" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -11584,10 +11584,10 @@
         <v>585</v>
       </c>
       <c r="C586" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="D586" t="s">
-        <v>954</v>
+        <v>939</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -11598,10 +11598,10 @@
         <v>586</v>
       </c>
       <c r="C587" t="s">
-        <v>912</v>
+        <v>826</v>
       </c>
       <c r="D587" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -11612,10 +11612,10 @@
         <v>587</v>
       </c>
       <c r="C588" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
       <c r="D588" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -11626,10 +11626,10 @@
         <v>588</v>
       </c>
       <c r="C589" t="s">
-        <v>884</v>
+        <v>836</v>
       </c>
       <c r="D589" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -11640,10 +11640,10 @@
         <v>589</v>
       </c>
       <c r="C590" t="s">
-        <v>825</v>
+        <v>858</v>
       </c>
       <c r="D590" t="s">
-        <v>935</v>
+        <v>956</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -11654,10 +11654,10 @@
         <v>590</v>
       </c>
       <c r="C591" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="D591" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -11668,10 +11668,10 @@
         <v>591</v>
       </c>
       <c r="C592" t="s">
-        <v>889</v>
+        <v>863</v>
       </c>
       <c r="D592" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -11682,10 +11682,10 @@
         <v>592</v>
       </c>
       <c r="C593" t="s">
-        <v>863</v>
+        <v>841</v>
       </c>
       <c r="D593" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -11696,10 +11696,10 @@
         <v>593</v>
       </c>
       <c r="C594" t="s">
-        <v>881</v>
+        <v>826</v>
       </c>
       <c r="D594" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -11710,10 +11710,10 @@
         <v>594</v>
       </c>
       <c r="C595" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D595" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -11724,10 +11724,10 @@
         <v>595</v>
       </c>
       <c r="C596" t="s">
-        <v>841</v>
+        <v>913</v>
       </c>
       <c r="D596" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11738,10 +11738,10 @@
         <v>596</v>
       </c>
       <c r="C597" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D597" t="s">
-        <v>953</v>
+        <v>936</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -11752,10 +11752,10 @@
         <v>597</v>
       </c>
       <c r="C598" t="s">
-        <v>832</v>
+        <v>888</v>
       </c>
       <c r="D598" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -11766,10 +11766,10 @@
         <v>598</v>
       </c>
       <c r="C599" t="s">
-        <v>913</v>
+        <v>826</v>
       </c>
       <c r="D599" t="s">
-        <v>945</v>
+        <v>977</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -11780,10 +11780,10 @@
         <v>599</v>
       </c>
       <c r="C600" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="D600" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -11794,10 +11794,10 @@
         <v>600</v>
       </c>
       <c r="C601" t="s">
-        <v>825</v>
+        <v>881</v>
       </c>
       <c r="D601" t="s">
-        <v>977</v>
+        <v>943</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -11808,10 +11808,10 @@
         <v>601</v>
       </c>
       <c r="C602" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="D602" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -11822,10 +11822,10 @@
         <v>602</v>
       </c>
       <c r="C603" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D603" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -11836,10 +11836,10 @@
         <v>603</v>
       </c>
       <c r="C604" t="s">
-        <v>824</v>
+        <v>914</v>
       </c>
       <c r="D604" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -11850,7 +11850,7 @@
         <v>604</v>
       </c>
       <c r="C605" t="s">
-        <v>914</v>
+        <v>826</v>
       </c>
       <c r="D605" t="s">
         <v>959</v>
@@ -11864,10 +11864,10 @@
         <v>605</v>
       </c>
       <c r="C606" t="s">
-        <v>824</v>
+        <v>858</v>
       </c>
       <c r="D606" t="s">
-        <v>950</v>
+        <v>978</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -11878,10 +11878,10 @@
         <v>606</v>
       </c>
       <c r="C607" t="s">
-        <v>858</v>
+        <v>824</v>
       </c>
       <c r="D607" t="s">
-        <v>978</v>
+        <v>950</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -11931,7 +11931,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C611" t="s">
         <v>885</v>
@@ -11962,7 +11962,7 @@
         <v>611</v>
       </c>
       <c r="C613" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D613" t="s">
         <v>950</v>
@@ -11976,7 +11976,7 @@
         <v>612</v>
       </c>
       <c r="C614" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D614" t="s">
         <v>953</v>
@@ -12018,7 +12018,7 @@
         <v>615</v>
       </c>
       <c r="C617" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D617" t="s">
         <v>946</v>
@@ -12035,7 +12035,7 @@
         <v>816</v>
       </c>
       <c r="D618" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -12091,7 +12091,7 @@
         <v>856</v>
       </c>
       <c r="D622" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -12130,7 +12130,7 @@
         <v>623</v>
       </c>
       <c r="C625" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D625" t="s">
         <v>943</v>
@@ -12158,7 +12158,7 @@
         <v>625</v>
       </c>
       <c r="C627" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D627" t="s">
         <v>948</v>
@@ -12186,7 +12186,7 @@
         <v>627</v>
       </c>
       <c r="C629" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D629" t="s">
         <v>948</v>
@@ -12270,7 +12270,7 @@
         <v>633</v>
       </c>
       <c r="C635" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D635" t="s">
         <v>936</v>
@@ -12340,7 +12340,7 @@
         <v>638</v>
       </c>
       <c r="C640" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D640" t="s">
         <v>950</v>
@@ -12368,7 +12368,7 @@
         <v>640</v>
       </c>
       <c r="C642" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D642" t="s">
         <v>940</v>
@@ -12382,7 +12382,7 @@
         <v>641</v>
       </c>
       <c r="C643" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D643" t="s">
         <v>943</v>
@@ -12399,7 +12399,7 @@
         <v>822</v>
       </c>
       <c r="D644" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -12452,7 +12452,7 @@
         <v>646</v>
       </c>
       <c r="C648" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D648" t="s">
         <v>955</v>
@@ -12466,7 +12466,7 @@
         <v>647</v>
       </c>
       <c r="C649" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D649" t="s">
         <v>940</v>
@@ -12522,7 +12522,7 @@
         <v>651</v>
       </c>
       <c r="C653" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D653" t="s">
         <v>955</v>
@@ -12536,7 +12536,7 @@
         <v>652</v>
       </c>
       <c r="C654" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D654" t="s">
         <v>962</v>
@@ -12606,7 +12606,7 @@
         <v>657</v>
       </c>
       <c r="C659" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D659" t="s">
         <v>955</v>
@@ -12718,7 +12718,7 @@
         <v>665</v>
       </c>
       <c r="C667" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D667" t="s">
         <v>941</v>
@@ -12805,7 +12805,7 @@
         <v>850</v>
       </c>
       <c r="D673" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -12816,7 +12816,7 @@
         <v>672</v>
       </c>
       <c r="C674" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D674" t="s">
         <v>947</v>
@@ -12914,10 +12914,10 @@
         <v>679</v>
       </c>
       <c r="C681" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D681" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -12959,7 +12959,7 @@
         <v>854</v>
       </c>
       <c r="D684" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -12973,7 +12973,7 @@
         <v>906</v>
       </c>
       <c r="D685" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -12998,7 +12998,7 @@
         <v>685</v>
       </c>
       <c r="C687" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D687" t="s">
         <v>943</v>
@@ -13029,7 +13029,7 @@
         <v>854</v>
       </c>
       <c r="D689" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -13068,7 +13068,7 @@
         <v>690</v>
       </c>
       <c r="C692" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D692" t="s">
         <v>942</v>
@@ -13113,7 +13113,7 @@
         <v>874</v>
       </c>
       <c r="D695" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -13208,7 +13208,7 @@
         <v>700</v>
       </c>
       <c r="C702" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D702" t="s">
         <v>953</v>
@@ -13222,7 +13222,7 @@
         <v>701</v>
       </c>
       <c r="C703" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D703" t="s">
         <v>951</v>
@@ -13236,7 +13236,7 @@
         <v>702</v>
       </c>
       <c r="C704" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D704" t="s">
         <v>961</v>
@@ -13334,7 +13334,7 @@
         <v>709</v>
       </c>
       <c r="C711" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D711" t="s">
         <v>948</v>
@@ -13348,7 +13348,7 @@
         <v>710</v>
       </c>
       <c r="C712" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D712" t="s">
         <v>954</v>
@@ -13418,7 +13418,7 @@
         <v>715</v>
       </c>
       <c r="C717" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D717" t="s">
         <v>950</v>
@@ -13488,7 +13488,7 @@
         <v>720</v>
       </c>
       <c r="C722" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D722" t="s">
         <v>936</v>
@@ -13502,7 +13502,7 @@
         <v>721</v>
       </c>
       <c r="C723" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D723" t="s">
         <v>954</v>
@@ -13530,7 +13530,7 @@
         <v>723</v>
       </c>
       <c r="C725" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D725" t="s">
         <v>994</v>
@@ -13572,7 +13572,7 @@
         <v>726</v>
       </c>
       <c r="C728" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D728" t="s">
         <v>995</v>
@@ -13586,7 +13586,7 @@
         <v>727</v>
       </c>
       <c r="C729" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D729" t="s">
         <v>962</v>
@@ -13600,7 +13600,7 @@
         <v>728</v>
       </c>
       <c r="C730" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D730" t="s">
         <v>948</v>
@@ -13681,7 +13681,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C736" t="s">
         <v>844</v>
@@ -13712,7 +13712,7 @@
         <v>735</v>
       </c>
       <c r="C738" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D738" t="s">
         <v>952</v>
@@ -13726,7 +13726,7 @@
         <v>736</v>
       </c>
       <c r="C739" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D739" t="s">
         <v>953</v>
@@ -13866,7 +13866,7 @@
         <v>746</v>
       </c>
       <c r="C749" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D749" t="s">
         <v>935</v>
@@ -13883,7 +13883,7 @@
         <v>844</v>
       </c>
       <c r="D750" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -13989,7 +13989,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C758" t="s">
         <v>925</v>
@@ -14006,7 +14006,7 @@
         <v>755</v>
       </c>
       <c r="C759" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D759" t="s">
         <v>935</v>
@@ -14076,7 +14076,7 @@
         <v>760</v>
       </c>
       <c r="C764" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D764" t="s">
         <v>960</v>
@@ -14121,7 +14121,7 @@
         <v>927</v>
       </c>
       <c r="D767" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -14160,7 +14160,7 @@
         <v>765</v>
       </c>
       <c r="C770" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D770" t="s">
         <v>937</v>
@@ -14247,7 +14247,7 @@
         <v>816</v>
       </c>
       <c r="D776" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -14300,7 +14300,7 @@
         <v>775</v>
       </c>
       <c r="C780" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D780" t="s">
         <v>1000</v>
@@ -14345,7 +14345,7 @@
         <v>874</v>
       </c>
       <c r="D783" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -14387,7 +14387,7 @@
         <v>856</v>
       </c>
       <c r="D786" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -14412,7 +14412,7 @@
         <v>782</v>
       </c>
       <c r="C788" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D788" t="s">
         <v>948</v>
@@ -14440,7 +14440,7 @@
         <v>784</v>
       </c>
       <c r="C790" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D790" t="s">
         <v>942</v>
@@ -14457,7 +14457,7 @@
         <v>829</v>
       </c>
       <c r="D791" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="792" spans="1:4">
@@ -14471,7 +14471,7 @@
         <v>874</v>
       </c>
       <c r="D792" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="793" spans="1:4">
@@ -14482,7 +14482,7 @@
         <v>787</v>
       </c>
       <c r="C793" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D793" t="s">
         <v>962</v>
@@ -14499,7 +14499,7 @@
         <v>832</v>
       </c>
       <c r="D794" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -14524,7 +14524,7 @@
         <v>790</v>
       </c>
       <c r="C796" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D796" t="s">
         <v>947</v>
@@ -14538,7 +14538,7 @@
         <v>791</v>
       </c>
       <c r="C797" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D797" t="s">
         <v>933</v>
@@ -14566,7 +14566,7 @@
         <v>793</v>
       </c>
       <c r="C799" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D799" t="s">
         <v>948</v>
@@ -14678,10 +14678,10 @@
         <v>801</v>
       </c>
       <c r="C807" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D807" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -14734,7 +14734,7 @@
         <v>805</v>
       </c>
       <c r="C811" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D811" t="s">
         <v>942</v>
@@ -14762,7 +14762,7 @@
         <v>807</v>
       </c>
       <c r="C813" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D813" t="s">
         <v>932</v>
@@ -14790,7 +14790,7 @@
         <v>809</v>
       </c>
       <c r="C815" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D815" t="s">
         <v>948</v>
@@ -14804,7 +14804,7 @@
         <v>810</v>
       </c>
       <c r="C816" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D816" t="s">
         <v>934</v>
@@ -14818,7 +14818,7 @@
         <v>811</v>
       </c>
       <c r="C817" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D817" t="s">
         <v>950</v>
@@ -14835,7 +14835,7 @@
         <v>931</v>
       </c>
       <c r="D818" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="819" spans="1:4">

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -112,12 +112,12 @@
     <t>Jose Altuve</t>
   </si>
   <si>
+    <t>Francisco Lindor</t>
+  </si>
+  <si>
     <t>Dylan Cease</t>
   </si>
   <si>
-    <t>Francisco Lindor</t>
-  </si>
-  <si>
     <t>Michael Harris II</t>
   </si>
   <si>
@@ -172,45 +172,45 @@
     <t>Shane Bieber</t>
   </si>
   <si>
+    <t>Zack Wheeler</t>
+  </si>
+  <si>
+    <t>Adolis Garcia</t>
+  </si>
+  <si>
+    <t>Corey Seager</t>
+  </si>
+  <si>
+    <t>Julio Urias</t>
+  </si>
+  <si>
     <t>Liam Hendriks</t>
   </si>
   <si>
-    <t>Zack Wheeler</t>
-  </si>
-  <si>
-    <t>Adolis Garcia</t>
-  </si>
-  <si>
-    <t>Corey Seager</t>
-  </si>
-  <si>
-    <t>Julio Urias</t>
-  </si>
-  <si>
     <t>Jazz Chisholm Jr.</t>
   </si>
   <si>
     <t>Alex Bregman</t>
   </si>
   <si>
+    <t>Jordan Romano</t>
+  </si>
+  <si>
     <t>J.T. Realmuto</t>
   </si>
   <si>
-    <t>Jordan Romano</t>
-  </si>
-  <si>
     <t>Ozzie Albies</t>
   </si>
   <si>
     <t>Starling Marte</t>
   </si>
   <si>
+    <t>Luis Castillo</t>
+  </si>
+  <si>
     <t>Kevin Gausman</t>
   </si>
   <si>
-    <t>Luis Castillo</t>
-  </si>
-  <si>
     <t>George Springer</t>
   </si>
   <si>
@@ -247,12 +247,12 @@
     <t>Daulton Varsho</t>
   </si>
   <si>
+    <t>Cristian Javier</t>
+  </si>
+  <si>
     <t>Xander Bogaerts</t>
   </si>
   <si>
-    <t>Cristian Javier</t>
-  </si>
-  <si>
     <t>Tim Anderson</t>
   </si>
   <si>
@@ -271,30 +271,30 @@
     <t>Bryan Reynolds</t>
   </si>
   <si>
+    <t>Ryan Helsley</t>
+  </si>
+  <si>
+    <t>Felix Bautista</t>
+  </si>
+  <si>
     <t>Salvador Perez</t>
   </si>
   <si>
-    <t>Ryan Helsley</t>
-  </si>
-  <si>
-    <t>Felix Bautista</t>
-  </si>
-  <si>
     <t>Oneil Cruz</t>
   </si>
   <si>
     <t>Robbie Ray</t>
   </si>
   <si>
+    <t>Raisel Iglesias</t>
+  </si>
+  <si>
     <t>Wander Franco</t>
   </si>
   <si>
     <t>Andres Gimenez</t>
   </si>
   <si>
-    <t>Raisel Iglesias</t>
-  </si>
-  <si>
     <t>Willy Adames</t>
   </si>
   <si>
@@ -307,30 +307,30 @@
     <t>Nathaniel Lowe</t>
   </si>
   <si>
+    <t>Triston McKenzie</t>
+  </si>
+  <si>
     <t>Vinnie Pasquantino</t>
   </si>
   <si>
-    <t>Triston McKenzie</t>
-  </si>
-  <si>
     <t>Tyler Glasnow</t>
   </si>
   <si>
+    <t>Jose Abreu</t>
+  </si>
+  <si>
     <t>Corbin Carroll</t>
   </si>
   <si>
-    <t>Jose Abreu</t>
-  </si>
-  <si>
     <t>Christian Yelich</t>
   </si>
   <si>
+    <t>Camilo Doval</t>
+  </si>
+  <si>
     <t>C.J. Cron</t>
   </si>
   <si>
-    <t>Camilo Doval</t>
-  </si>
-  <si>
     <t>Rhys Hoskins</t>
   </si>
   <si>
@@ -343,15 +343,15 @@
     <t>Carlos</t>
   </si>
   <si>
+    <t>Nestor Cortes Jr.</t>
+  </si>
+  <si>
+    <t>Logan Webb</t>
+  </si>
+  <si>
     <t>Logan Gilbert</t>
   </si>
   <si>
-    <t>Nestor Cortes Jr.</t>
-  </si>
-  <si>
-    <t>Logan Webb</t>
-  </si>
-  <si>
     <t>Anthony Santander</t>
   </si>
   <si>
@@ -367,12 +367,12 @@
     <t>Gleyber Torres</t>
   </si>
   <si>
+    <t>Blake Snell</t>
+  </si>
+  <si>
     <t>Giancarlo Stanton</t>
   </si>
   <si>
-    <t>Blake Snell</t>
-  </si>
-  <si>
     <t>Alejandro Kirk</t>
   </si>
   <si>
@@ -445,6 +445,9 @@
     <t>Freddy Peralta</t>
   </si>
   <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
     <t>Pablo Lopez</t>
   </si>
   <si>
@@ -454,15 +457,12 @@
     <t>Clay Holmes</t>
   </si>
   <si>
-    <t>Anthony Rizzo</t>
+    <t>Kenley Jansen</t>
   </si>
   <si>
     <t>Chris Bassitt</t>
   </si>
   <si>
-    <t>Kenley Jansen</t>
-  </si>
-  <si>
     <t>Lucas Giolito</t>
   </si>
   <si>
@@ -484,12 +484,12 @@
     <t>Hunter Renfroe</t>
   </si>
   <si>
+    <t>Ke'Bryan Hayes</t>
+  </si>
+  <si>
     <t>Charlie Morton</t>
   </si>
   <si>
-    <t>Ke'Bryan Hayes</t>
-  </si>
-  <si>
     <t>Brandon Nimmo</t>
   </si>
   <si>
@@ -544,12 +544,12 @@
     <t>Luis Arraez</t>
   </si>
   <si>
+    <t>Eugenio Suarez</t>
+  </si>
+  <si>
     <t>Sean Murphy</t>
   </si>
   <si>
-    <t>Eugenio Suarez</t>
-  </si>
-  <si>
     <t>Alexis Diaz</t>
   </si>
   <si>
@@ -565,12 +565,12 @@
     <t>William Contreras</t>
   </si>
   <si>
+    <t>Paul Sewald</t>
+  </si>
+  <si>
     <t>Jonathan India</t>
   </si>
   <si>
-    <t>Paul Sewald</t>
-  </si>
-  <si>
     <t>Alec Bohm</t>
   </si>
   <si>
@@ -619,39 +619,39 @@
     <t>Cal Raleigh</t>
   </si>
   <si>
+    <t>Whit Merrifield</t>
+  </si>
+  <si>
+    <t>Pete Fairbanks</t>
+  </si>
+  <si>
+    <t>Patrick Sandoval</t>
+  </si>
+  <si>
+    <t>Andrew Heaney</t>
+  </si>
+  <si>
+    <t>Grayson Rodriguez</t>
+  </si>
+  <si>
+    <t>Alex Cobb</t>
+  </si>
+  <si>
+    <t>J.D. Martinez</t>
+  </si>
+  <si>
+    <t>Ramon Laureano</t>
+  </si>
+  <si>
+    <t>Jean Segura</t>
+  </si>
+  <si>
+    <t>Miles Mikolas</t>
+  </si>
+  <si>
     <t>Gregory Soto</t>
   </si>
   <si>
-    <t>Whit Merrifield</t>
-  </si>
-  <si>
-    <t>Pete Fairbanks</t>
-  </si>
-  <si>
-    <t>Patrick Sandoval</t>
-  </si>
-  <si>
-    <t>Andrew Heaney</t>
-  </si>
-  <si>
-    <t>Grayson Rodriguez</t>
-  </si>
-  <si>
-    <t>Alex Cobb</t>
-  </si>
-  <si>
-    <t>J.D. Martinez</t>
-  </si>
-  <si>
-    <t>Ramon Laureano</t>
-  </si>
-  <si>
-    <t>Jean Segura</t>
-  </si>
-  <si>
-    <t>Miles Mikolas</t>
-  </si>
-  <si>
     <t>Seth Brown</t>
   </si>
   <si>
@@ -667,36 +667,36 @@
     <t>CJ Abrams</t>
   </si>
   <si>
+    <t>Jose Leclerc</t>
+  </si>
+  <si>
     <t>Anthony Rendon</t>
   </si>
   <si>
-    <t>Jose Leclerc</t>
-  </si>
-  <si>
     <t>Merrill Kelly</t>
   </si>
   <si>
+    <t>Brendan Rodgers</t>
+  </si>
+  <si>
+    <t>Lourdes Gurriel Jr.</t>
+  </si>
+  <si>
+    <t>Vaughn Grissom</t>
+  </si>
+  <si>
+    <t>Cody Bellinger</t>
+  </si>
+  <si>
+    <t>Joc Pederson</t>
+  </si>
+  <si>
+    <t>Andrew Benintendi</t>
+  </si>
+  <si>
     <t>Seranthony Dominguez</t>
   </si>
   <si>
-    <t>Brendan Rodgers</t>
-  </si>
-  <si>
-    <t>Lourdes Gurriel Jr.</t>
-  </si>
-  <si>
-    <t>Vaughn Grissom</t>
-  </si>
-  <si>
-    <t>Cody Bellinger</t>
-  </si>
-  <si>
-    <t>Joc Pederson</t>
-  </si>
-  <si>
-    <t>Andrew Benintendi</t>
-  </si>
-  <si>
     <t>Lars Nootbaar</t>
   </si>
   <si>
@@ -730,15 +730,15 @@
     <t>Jorge Mateo</t>
   </si>
   <si>
+    <t>Jorge Lopez</t>
+  </si>
+  <si>
     <t>Justin Turner</t>
   </si>
   <si>
     <t>DJ LeMahieu</t>
   </si>
   <si>
-    <t>Jorge Lopez</t>
-  </si>
-  <si>
     <t>Jon Berti</t>
   </si>
   <si>
@@ -829,15 +829,15 @@
     <t>Luis Rengifo</t>
   </si>
   <si>
+    <t>Giovanny Gallegos</t>
+  </si>
+  <si>
     <t>Travis d'Arnaud</t>
   </si>
   <si>
     <t>Miguel Vargas</t>
   </si>
   <si>
-    <t>Giovanny Gallegos</t>
-  </si>
-  <si>
     <t>Roansy Contreras</t>
   </si>
   <si>
@@ -946,31 +946,37 @@
     <t>Juan Yepez</t>
   </si>
   <si>
+    <t>TJ Friedl</t>
+  </si>
+  <si>
+    <t>Kodai Senga</t>
+  </si>
+  <si>
+    <t>Daniel Hudson</t>
+  </si>
+  <si>
     <t>Tanner Houck</t>
   </si>
   <si>
-    <t>TJ Friedl</t>
-  </si>
-  <si>
-    <t>Kodai Senga</t>
-  </si>
-  <si>
-    <t>Daniel Hudson</t>
-  </si>
-  <si>
     <t>Adam Wainwright</t>
   </si>
   <si>
     <t>Yasmani Grandal</t>
   </si>
   <si>
+    <t>Alex Lange</t>
+  </si>
+  <si>
     <t>Evan Phillips</t>
   </si>
   <si>
+    <t>Mark Canha</t>
+  </si>
+  <si>
     <t>Chris Martin</t>
   </si>
   <si>
-    <t>Mark Canha</t>
+    <t>Craig Kimbrel</t>
   </si>
   <si>
     <t>Hayden Wesneski</t>
@@ -979,18 +985,15 @@
     <t>Marcell Ozuna</t>
   </si>
   <si>
-    <t>Craig Kimbrel</t>
-  </si>
-  <si>
     <t>Mike Yastrzemski</t>
   </si>
   <si>
+    <t>Spencer Torkelson</t>
+  </si>
+  <si>
     <t>Jason Adam</t>
   </si>
   <si>
-    <t>Spencer Torkelson</t>
-  </si>
-  <si>
     <t>Steven Matz</t>
   </si>
   <si>
@@ -1045,9 +1048,6 @@
     <t>Elvis</t>
   </si>
   <si>
-    <t>Alex Lange</t>
-  </si>
-  <si>
     <t>Drey Jameson</t>
   </si>
   <si>
@@ -1063,18 +1063,18 @@
     <t>Eduardo Escobar</t>
   </si>
   <si>
+    <t>Braxton Garrett</t>
+  </si>
+  <si>
     <t>Aroldis</t>
   </si>
   <si>
-    <t>Braxton Garrett</t>
+    <t>David Peterson</t>
   </si>
   <si>
     <t>Brandon Hughes</t>
   </si>
   <si>
-    <t>David Peterson</t>
-  </si>
-  <si>
     <t>Jose Alvarado</t>
   </si>
   <si>
@@ -1102,18 +1102,18 @@
     <t>Max Kepler</t>
   </si>
   <si>
+    <t>DL Hall</t>
+  </si>
+  <si>
+    <t>Tarik Skubal</t>
+  </si>
+  <si>
+    <t>Josiah Gray</t>
+  </si>
+  <si>
     <t>Rafael Montero</t>
   </si>
   <si>
-    <t>DL Hall</t>
-  </si>
-  <si>
-    <t>Tarik Skubal</t>
-  </si>
-  <si>
-    <t>Josiah Gray</t>
-  </si>
-  <si>
     <t>Alex Kirilloff</t>
   </si>
   <si>
@@ -1141,12 +1141,12 @@
     <t>Alek Thomas</t>
   </si>
   <si>
+    <t>Christian Bethancourt</t>
+  </si>
+  <si>
     <t>James Karinchak</t>
   </si>
   <si>
-    <t>Christian Bethancourt</t>
-  </si>
-  <si>
     <t>Noah Syndergaard</t>
   </si>
   <si>
@@ -1165,21 +1165,24 @@
     <t>Aaron Civale</t>
   </si>
   <si>
+    <t>Oscar Colas</t>
+  </si>
+  <si>
+    <t>Luis Ortiz</t>
+  </si>
+  <si>
+    <t>Kendall Graveman</t>
+  </si>
+  <si>
     <t>A.J. Puk</t>
   </si>
   <si>
-    <t>Oscar Colas</t>
-  </si>
-  <si>
-    <t>Luis Ortiz</t>
+    <t>Cody Morris</t>
   </si>
   <si>
     <t>A.J. Minter</t>
   </si>
   <si>
-    <t>Cody Morris</t>
-  </si>
-  <si>
     <t>Kike Hernandez</t>
   </si>
   <si>
@@ -1198,21 +1201,21 @@
     <t>Patrick Wisdom</t>
   </si>
   <si>
+    <t>Adbert Alzolay</t>
+  </si>
+  <si>
     <t>David Robertson</t>
   </si>
   <si>
-    <t>Adbert Alzolay</t>
+    <t>Andrew Painter</t>
+  </si>
+  <si>
+    <t>Myles Straw</t>
   </si>
   <si>
     <t>Robert Suarez</t>
   </si>
   <si>
-    <t>Andrew Painter</t>
-  </si>
-  <si>
-    <t>Myles Straw</t>
-  </si>
-  <si>
     <t>Kyle Gibson</t>
   </si>
   <si>
@@ -1231,12 +1234,12 @@
     <t>J.P. Crawford</t>
   </si>
   <si>
+    <t>Mitch Keller</t>
+  </si>
+  <si>
     <t>Jimmy Herget</t>
   </si>
   <si>
-    <t>Mitch Keller</t>
-  </si>
-  <si>
     <t>Jeimer Candelario</t>
   </si>
   <si>
@@ -1264,48 +1267,48 @@
     <t>Ryne Nelson</t>
   </si>
   <si>
+    <t>Jose Trevino</t>
+  </si>
+  <si>
     <t>Bryan Abreu</t>
   </si>
   <si>
-    <t>Jose Trevino</t>
-  </si>
-  <si>
     <t>Carson Kelly</t>
   </si>
   <si>
+    <t>Nick Fortes</t>
+  </si>
+  <si>
     <t>Matt Brash</t>
   </si>
   <si>
-    <t>Nick Fortes</t>
-  </si>
-  <si>
     <t>Edward Olivares</t>
   </si>
   <si>
+    <t>Tanner Scott</t>
+  </si>
+  <si>
     <t>Brusdar Graterol</t>
   </si>
   <si>
-    <t>Tanner Scott</t>
+    <t>Leody Taveras</t>
+  </si>
+  <si>
+    <t>Erik Swanson</t>
+  </si>
+  <si>
+    <t>Trevor May</t>
   </si>
   <si>
     <t>Domingo Acevedo</t>
   </si>
   <si>
-    <t>Leody Taveras</t>
-  </si>
-  <si>
-    <t>Erik Swanson</t>
+    <t>David Fletcher</t>
   </si>
   <si>
     <t>John Schreiber</t>
   </si>
   <si>
-    <t>Trevor May</t>
-  </si>
-  <si>
-    <t>David Fletcher</t>
-  </si>
-  <si>
     <t>Franmil Reyes</t>
   </si>
   <si>
@@ -1330,9 +1333,6 @@
     <t>Brock Burke</t>
   </si>
   <si>
-    <t>Kendall Graveman</t>
-  </si>
-  <si>
     <t>Aaron Bummer</t>
   </si>
   <si>
@@ -1432,30 +1432,30 @@
     <t>Jakob Junis</t>
   </si>
   <si>
+    <t>Ryan Jeffers</t>
+  </si>
+  <si>
+    <t>Zach Jackson</t>
+  </si>
+  <si>
+    <t>Adam Ottavino</t>
+  </si>
+  <si>
     <t>Keegan Thompson</t>
   </si>
   <si>
-    <t>Ryan Jeffers</t>
-  </si>
-  <si>
-    <t>Zach Jackson</t>
-  </si>
-  <si>
-    <t>Adam Ottavino</t>
-  </si>
-  <si>
     <t>Chris Flexen</t>
   </si>
   <si>
     <t>Kyle Farmer</t>
   </si>
   <si>
+    <t>Yan Gomes</t>
+  </si>
+  <si>
     <t>Nate Pearson</t>
   </si>
   <si>
-    <t>Yan Gomes</t>
-  </si>
-  <si>
     <t>Drew Waters</t>
   </si>
   <si>
@@ -1498,21 +1498,21 @@
     <t>Jovani Moran</t>
   </si>
   <si>
+    <t>Josh Donaldson</t>
+  </si>
+  <si>
+    <t>Mark Leiter Jr.</t>
+  </si>
+  <si>
+    <t>Endy Rodriguez</t>
+  </si>
+  <si>
+    <t>Emilio Pagan</t>
+  </si>
+  <si>
     <t>Nick Martinez</t>
   </si>
   <si>
-    <t>Josh Donaldson</t>
-  </si>
-  <si>
-    <t>Mark Leiter Jr.</t>
-  </si>
-  <si>
-    <t>Endy Rodriguez</t>
-  </si>
-  <si>
-    <t>Emilio Pagan</t>
-  </si>
-  <si>
     <t>Steven Okert</t>
   </si>
   <si>
@@ -1534,7 +1534,7 @@
     <t>Matt Strahm</t>
   </si>
   <si>
-    <t>Brandon</t>
+    <t>Brandon Belt</t>
   </si>
   <si>
     <t>Drew Pomeranz</t>
@@ -1648,147 +1648,147 @@
     <t>Anthony DeSclafani</t>
   </si>
   <si>
+    <t>Drew Smyly</t>
+  </si>
+  <si>
+    <t>Keston Hiura</t>
+  </si>
+  <si>
+    <t>Reese McGuire</t>
+  </si>
+  <si>
+    <t>Victor Robles</t>
+  </si>
+  <si>
+    <t>Spencer Steer</t>
+  </si>
+  <si>
+    <t>Brice Turang</t>
+  </si>
+  <si>
     <t>JP Sears</t>
   </si>
   <si>
-    <t>Drew Smyly</t>
-  </si>
-  <si>
-    <t>Keston Hiura</t>
-  </si>
-  <si>
-    <t>Reese McGuire</t>
-  </si>
-  <si>
-    <t>Victor Robles</t>
-  </si>
-  <si>
-    <t>Spencer Steer</t>
+    <t>Kyle Muller</t>
+  </si>
+  <si>
+    <t>Jonathan Aranda</t>
   </si>
   <si>
     <t>Blake Treinen</t>
   </si>
   <si>
-    <t>Brice Turang</t>
-  </si>
-  <si>
-    <t>Kyle Muller</t>
+    <t>Kyle Harrison</t>
+  </si>
+  <si>
+    <t>Adrian Morejon</t>
+  </si>
+  <si>
+    <t>Joey Wentz</t>
+  </si>
+  <si>
+    <t>Vidal Brujan</t>
+  </si>
+  <si>
+    <t>Jarren Duran</t>
+  </si>
+  <si>
+    <t>Joe Barlow</t>
   </si>
   <si>
     <t>Matt Barnes</t>
   </si>
   <si>
-    <t>Jonathan Aranda</t>
-  </si>
-  <si>
-    <t>Kyle Harrison</t>
-  </si>
-  <si>
-    <t>Adrian Morejon</t>
-  </si>
-  <si>
-    <t>Joey Wentz</t>
-  </si>
-  <si>
-    <t>Vidal Brujan</t>
-  </si>
-  <si>
-    <t>Jarren Duran</t>
-  </si>
-  <si>
-    <t>Joe Barlow</t>
+    <t>Stone Garrett</t>
+  </si>
+  <si>
+    <t>Tyler Wells</t>
+  </si>
+  <si>
+    <t>Cade Cavalli</t>
+  </si>
+  <si>
+    <t>Kyle Stowers</t>
+  </si>
+  <si>
+    <t>Taj Bradley</t>
+  </si>
+  <si>
+    <t>Eddie Rosario</t>
+  </si>
+  <si>
+    <t>Ian Anderson</t>
+  </si>
+  <si>
+    <t>Dylan Moore</t>
+  </si>
+  <si>
+    <t>Dean Kremer</t>
+  </si>
+  <si>
+    <t>Jorge</t>
   </si>
   <si>
     <t>Bobby Miller</t>
   </si>
   <si>
-    <t>Stone Garrett</t>
-  </si>
-  <si>
-    <t>Tyler Wells</t>
-  </si>
-  <si>
-    <t>Cade Cavalli</t>
-  </si>
-  <si>
-    <t>Kyle Stowers</t>
-  </si>
-  <si>
-    <t>Taj Bradley</t>
-  </si>
-  <si>
-    <t>Eddie Rosario</t>
-  </si>
-  <si>
-    <t>Ian Anderson</t>
-  </si>
-  <si>
-    <t>Dylan Moore</t>
-  </si>
-  <si>
-    <t>Dean Kremer</t>
-  </si>
-  <si>
-    <t>Jorge</t>
-  </si>
-  <si>
     <t>James Kaprielian</t>
   </si>
   <si>
+    <t>Max Stassi</t>
+  </si>
+  <si>
+    <t>Michael Toglia</t>
+  </si>
+  <si>
+    <t>Bobby Dalbec</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Trevor Larnach</t>
+  </si>
+  <si>
+    <t>David Villar</t>
+  </si>
+  <si>
     <t>Dany Jimenez</t>
   </si>
   <si>
-    <t>Max Stassi</t>
-  </si>
-  <si>
-    <t>Michael Toglia</t>
-  </si>
-  <si>
-    <t>Bobby Dalbec</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Trevor Larnach</t>
-  </si>
-  <si>
-    <t>David Villar</t>
+    <t>Kevin Newman</t>
+  </si>
+  <si>
+    <t>Sixto Sanchez</t>
+  </si>
+  <si>
+    <t>Carlos Santana</t>
+  </si>
+  <si>
+    <t>Ryan Pepiot</t>
+  </si>
+  <si>
+    <t>Jace Peterson</t>
+  </si>
+  <si>
+    <t>Gavin Stone</t>
+  </si>
+  <si>
+    <t>John Means</t>
+  </si>
+  <si>
+    <t>JJ Bleday</t>
+  </si>
+  <si>
+    <t>Kutter Crawford</t>
+  </si>
+  <si>
+    <t>Elehuris Montero</t>
   </si>
   <si>
     <t>Michael Lorenzen</t>
   </si>
   <si>
-    <t>Kevin Newman</t>
-  </si>
-  <si>
-    <t>Sixto Sanchez</t>
-  </si>
-  <si>
-    <t>Carlos Santana</t>
-  </si>
-  <si>
-    <t>Ryan Pepiot</t>
-  </si>
-  <si>
-    <t>Jace Peterson</t>
-  </si>
-  <si>
-    <t>Gavin Stone</t>
-  </si>
-  <si>
-    <t>John Means</t>
-  </si>
-  <si>
-    <t>JJ Bleday</t>
-  </si>
-  <si>
-    <t>Kutter Crawford</t>
-  </si>
-  <si>
-    <t>Elehuris Montero</t>
-  </si>
-  <si>
     <t>Marco Gonzales</t>
   </si>
   <si>
@@ -1912,27 +1912,27 @@
     <t>Manuel Rodriguez</t>
   </si>
   <si>
+    <t>Miguel Rojas</t>
+  </si>
+  <si>
+    <t>Daniel Espino</t>
+  </si>
+  <si>
+    <t>Gabriel Arias</t>
+  </si>
+  <si>
+    <t>Taylor Walls</t>
+  </si>
+  <si>
+    <t>Sam Huff</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
     <t>Mark Melancon</t>
   </si>
   <si>
-    <t>Miguel Rojas</t>
-  </si>
-  <si>
-    <t>Daniel Espino</t>
-  </si>
-  <si>
-    <t>Gabriel Arias</t>
-  </si>
-  <si>
-    <t>Taylor Walls</t>
-  </si>
-  <si>
-    <t>Sam Huff</t>
-  </si>
-  <si>
-    <t>Edwin</t>
-  </si>
-  <si>
     <t>Curtis Mead</t>
   </si>
   <si>
@@ -1963,21 +1963,21 @@
     <t>Kevin Kiermaier</t>
   </si>
   <si>
+    <t>Cal Mitchell</t>
+  </si>
+  <si>
+    <t>Ezequiel Duran</t>
+  </si>
+  <si>
+    <t>Josh Winder</t>
+  </si>
+  <si>
+    <t>Paul Blackburn</t>
+  </si>
+  <si>
     <t>Jorge Alcala</t>
   </si>
   <si>
-    <t>Cal Mitchell</t>
-  </si>
-  <si>
-    <t>Ezequiel Duran</t>
-  </si>
-  <si>
-    <t>Josh Winder</t>
-  </si>
-  <si>
-    <t>Paul Blackburn</t>
-  </si>
-  <si>
     <t>Reyes</t>
   </si>
   <si>
@@ -2005,36 +2005,36 @@
     <t>Nelson</t>
   </si>
   <si>
+    <t>Nick Solak</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>Chase Silseth</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Rafael Ortega</t>
+  </si>
+  <si>
+    <t>Edouard Julien</t>
+  </si>
+  <si>
+    <t>Kyle Higashioka</t>
+  </si>
+  <si>
+    <t>Dominic Smith</t>
+  </si>
+  <si>
+    <t>Zac Veen</t>
+  </si>
+  <si>
     <t>Rowan Wick</t>
   </si>
   <si>
-    <t>Nick Solak</t>
-  </si>
-  <si>
-    <t>Tyler</t>
-  </si>
-  <si>
-    <t>Chase Silseth</t>
-  </si>
-  <si>
-    <t>Miguel</t>
-  </si>
-  <si>
-    <t>Rafael Ortega</t>
-  </si>
-  <si>
-    <t>Edouard Julien</t>
-  </si>
-  <si>
-    <t>Kyle Higashioka</t>
-  </si>
-  <si>
-    <t>Dominic Smith</t>
-  </si>
-  <si>
-    <t>Zac Veen</t>
-  </si>
-  <si>
     <t>Matthew Liberatore</t>
   </si>
   <si>
@@ -2044,45 +2044,45 @@
     <t>Jake Alu</t>
   </si>
   <si>
+    <t>Owen Miller</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>P.J.</t>
+  </si>
+  <si>
+    <t>Kyle Freeland</t>
+  </si>
+  <si>
     <t>Will</t>
   </si>
   <si>
-    <t>Owen Miller</t>
-  </si>
-  <si>
-    <t>Harold</t>
-  </si>
-  <si>
-    <t>P.J. Higgins</t>
-  </si>
-  <si>
-    <t>Kyle Freeland</t>
-  </si>
-  <si>
     <t>Abraham Toro</t>
   </si>
   <si>
+    <t>Austin Slater</t>
+  </si>
+  <si>
+    <t>Sean Bouchard</t>
+  </si>
+  <si>
+    <t>Robbie</t>
+  </si>
+  <si>
+    <t>Michael A. Taylor</t>
+  </si>
+  <si>
+    <t>Trevor Williams</t>
+  </si>
+  <si>
+    <t>Yonathan Daza</t>
+  </si>
+  <si>
     <t>Lucas Sims</t>
   </si>
   <si>
-    <t>Austin Slater</t>
-  </si>
-  <si>
-    <t>Sean Bouchard</t>
-  </si>
-  <si>
-    <t>Robbie</t>
-  </si>
-  <si>
-    <t>Michael A. Taylor</t>
-  </si>
-  <si>
-    <t>Trevor Williams</t>
-  </si>
-  <si>
-    <t>Yonathan Daza</t>
-  </si>
-  <si>
     <t>Joey Wiemer</t>
   </si>
   <si>
@@ -2752,12 +2752,12 @@
     <t>1B,2B,3B,DH,SS</t>
   </si>
   <si>
+    <t>1B,2B,3B,LF,RF</t>
+  </si>
+  <si>
     <t>CF,RF,RP,SP</t>
   </si>
   <si>
-    <t>1B,2B,3B,LF,RF</t>
-  </si>
-  <si>
     <t>1B,2B,3B,RF,SS</t>
   </si>
   <si>
@@ -2887,12 +2887,12 @@
     <t>MIN</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>COL</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>Correa</t>
   </si>
   <si>
@@ -2935,9 +2935,6 @@
     <t>Chafin</t>
   </si>
   <si>
-    <t>Belt</t>
-  </si>
-  <si>
     <t>Wacha</t>
   </si>
   <si>
@@ -2980,10 +2977,13 @@
     <t>Sano</t>
   </si>
   <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>Higgins</t>
+  </si>
+  <si>
     <t>Smith</t>
-  </si>
-  <si>
-    <t>Castro</t>
   </si>
   <si>
     <t>Grossman</t>
@@ -3786,10 +3786,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="D29" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3800,10 +3800,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="D30" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4066,10 +4066,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D49" t="s">
-        <v>949</v>
+        <v>934</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4080,10 +4080,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="D50" t="s">
-        <v>934</v>
+        <v>948</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4094,7 +4094,7 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="D51" t="s">
         <v>948</v>
@@ -4108,10 +4108,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="D52" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4122,10 +4122,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D53" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4164,10 +4164,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="D56" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4178,10 +4178,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="D57" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4223,7 +4223,7 @@
         <v>826</v>
       </c>
       <c r="D60" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4237,7 +4237,7 @@
         <v>826</v>
       </c>
       <c r="D61" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4416,10 +4416,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="D74" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4430,10 +4430,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="D75" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4528,10 +4528,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="D82" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4545,7 +4545,7 @@
         <v>832</v>
       </c>
       <c r="D83" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4556,10 +4556,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="D84" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4598,10 +4598,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
       <c r="D87" t="s">
-        <v>950</v>
+        <v>933</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4612,10 +4612,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>816</v>
+        <v>847</v>
       </c>
       <c r="D88" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4626,10 +4626,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="D89" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4696,10 +4696,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="D94" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4710,10 +4710,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="D95" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4738,10 +4738,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>849</v>
+        <v>822</v>
       </c>
       <c r="D97" t="s">
-        <v>952</v>
+        <v>937</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4752,10 +4752,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>822</v>
+        <v>849</v>
       </c>
       <c r="D98" t="s">
-        <v>937</v>
+        <v>952</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4780,7 +4780,7 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="D100" t="s">
         <v>956</v>
@@ -4794,7 +4794,7 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="D101" t="s">
         <v>957</v>
@@ -4864,10 +4864,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="D106" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4878,10 +4878,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
       <c r="D107" t="s">
-        <v>932</v>
+        <v>956</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4895,7 +4895,7 @@
         <v>826</v>
       </c>
       <c r="D108" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4976,10 +4976,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>852</v>
+        <v>826</v>
       </c>
       <c r="D114" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4990,10 +4990,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>826</v>
+        <v>852</v>
       </c>
       <c r="D115" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -5035,7 +5035,7 @@
         <v>853</v>
       </c>
       <c r="D118" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5340,10 +5340,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D140" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5354,10 +5354,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>857</v>
+        <v>826</v>
       </c>
       <c r="D141" t="s">
-        <v>935</v>
+        <v>946</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5368,10 +5368,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>832</v>
+        <v>857</v>
       </c>
       <c r="D142" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5382,7 +5382,7 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="D143" t="s">
         <v>932</v>
@@ -5396,10 +5396,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D144" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5410,10 +5410,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D145" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5441,7 +5441,7 @@
         <v>832</v>
       </c>
       <c r="D147" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5522,10 +5522,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="D153" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5536,10 +5536,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D154" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5637,7 +5637,7 @@
         <v>862</v>
       </c>
       <c r="D161" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5802,10 +5802,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="D173" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5816,10 +5816,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D174" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5900,10 +5900,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>867</v>
+        <v>832</v>
       </c>
       <c r="D180" t="s">
-        <v>959</v>
+        <v>935</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5914,10 +5914,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>832</v>
+        <v>867</v>
       </c>
       <c r="D181" t="s">
-        <v>935</v>
+        <v>959</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -6071,7 +6071,7 @@
         <v>871</v>
       </c>
       <c r="D192" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -6127,7 +6127,7 @@
         <v>873</v>
       </c>
       <c r="D196" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -6152,10 +6152,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="D198" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -6166,10 +6166,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="D199" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -6180,10 +6180,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D200" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -6194,10 +6194,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="D201" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -6208,10 +6208,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
       <c r="D202" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -6225,7 +6225,7 @@
         <v>826</v>
       </c>
       <c r="D203" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -6236,10 +6236,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>826</v>
+        <v>852</v>
       </c>
       <c r="D204" t="s">
-        <v>957</v>
+        <v>939</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6250,10 +6250,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>852</v>
+        <v>817</v>
       </c>
       <c r="D205" t="s">
-        <v>939</v>
+        <v>962</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -6264,10 +6264,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>817</v>
+        <v>833</v>
       </c>
       <c r="D206" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6278,10 +6278,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="D207" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6292,10 +6292,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D208" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6376,10 +6376,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="D214" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6390,10 +6390,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D215" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6418,10 +6418,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="D217" t="s">
-        <v>934</v>
+        <v>957</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6432,10 +6432,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>816</v>
+        <v>837</v>
       </c>
       <c r="D218" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6446,10 +6446,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="D219" t="s">
-        <v>952</v>
+        <v>933</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6460,10 +6460,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="D220" t="s">
-        <v>933</v>
+        <v>953</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6474,10 +6474,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
       <c r="D221" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6488,10 +6488,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>838</v>
+        <v>877</v>
       </c>
       <c r="D222" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6502,10 +6502,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>877</v>
+        <v>832</v>
       </c>
       <c r="D223" t="s">
-        <v>949</v>
+        <v>934</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6670,10 +6670,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>818</v>
+        <v>844</v>
       </c>
       <c r="D235" t="s">
-        <v>944</v>
+        <v>955</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6684,10 +6684,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>879</v>
+        <v>818</v>
       </c>
       <c r="D236" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6698,10 +6698,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>844</v>
+        <v>879</v>
       </c>
       <c r="D237" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6743,7 +6743,7 @@
         <v>819</v>
       </c>
       <c r="D240" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6799,7 +6799,7 @@
         <v>834</v>
       </c>
       <c r="D244" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6911,7 +6911,7 @@
         <v>815</v>
       </c>
       <c r="D252" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6981,7 +6981,7 @@
         <v>840</v>
       </c>
       <c r="D257" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -7132,10 +7132,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>874</v>
+        <v>832</v>
       </c>
       <c r="D268" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -7146,10 +7146,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>829</v>
+        <v>874</v>
       </c>
       <c r="D269" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -7160,10 +7160,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D270" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -7205,7 +7205,7 @@
         <v>826</v>
       </c>
       <c r="D273" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -7555,7 +7555,7 @@
         <v>832</v>
       </c>
       <c r="D298" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7653,7 +7653,7 @@
         <v>844</v>
       </c>
       <c r="D305" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7678,10 +7678,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>844</v>
+        <v>884</v>
       </c>
       <c r="D307" t="s">
-        <v>944</v>
+        <v>959</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7692,10 +7692,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>884</v>
+        <v>826</v>
       </c>
       <c r="D308" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7706,10 +7706,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D309" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -7720,10 +7720,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="D310" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7765,7 +7765,7 @@
         <v>832</v>
       </c>
       <c r="D313" t="s">
-        <v>939</v>
+        <v>960</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7779,7 +7779,7 @@
         <v>832</v>
       </c>
       <c r="D314" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7804,10 +7804,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D316" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7818,10 +7818,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="D317" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7832,10 +7832,10 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D318" t="s">
-        <v>934</v>
+        <v>953</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7846,10 +7846,10 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>817</v>
+        <v>841</v>
       </c>
       <c r="D319" t="s">
-        <v>957</v>
+        <v>933</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7860,10 +7860,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="D320" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7888,10 +7888,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D322" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7902,10 +7902,10 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
       <c r="D323" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7916,10 +7916,10 @@
         <v>326</v>
       </c>
       <c r="C324" t="s">
-        <v>890</v>
+        <v>826</v>
       </c>
       <c r="D324" t="s">
-        <v>964</v>
+        <v>949</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7930,10 +7930,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>826</v>
+        <v>890</v>
       </c>
       <c r="D325" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7944,10 +7944,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>852</v>
+        <v>826</v>
       </c>
       <c r="D326" t="s">
-        <v>937</v>
+        <v>961</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7958,10 +7958,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>879</v>
+        <v>852</v>
       </c>
       <c r="D327" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7972,10 +7972,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="D328" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7986,10 +7986,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D329" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -8000,10 +8000,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>826</v>
+        <v>892</v>
       </c>
       <c r="D330" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -8017,7 +8017,7 @@
         <v>826</v>
       </c>
       <c r="D331" t="s">
-        <v>944</v>
+        <v>955</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -8028,10 +8028,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>884</v>
+        <v>826</v>
       </c>
       <c r="D332" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -8042,10 +8042,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>832</v>
+        <v>884</v>
       </c>
       <c r="D333" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -8056,10 +8056,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="D334" t="s">
-        <v>965</v>
+        <v>941</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -8070,10 +8070,10 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>893</v>
+        <v>822</v>
       </c>
       <c r="D335" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -8084,10 +8084,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>826</v>
+        <v>893</v>
       </c>
       <c r="D336" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -8098,10 +8098,10 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="D337" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -8109,13 +8109,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>179</v>
+        <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>816</v>
+        <v>836</v>
       </c>
       <c r="D338" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -8123,13 +8123,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>340</v>
+        <v>179</v>
       </c>
       <c r="C339" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="D339" t="s">
-        <v>933</v>
+        <v>961</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -8140,10 +8140,10 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="D340" t="s">
-        <v>966</v>
+        <v>933</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -8154,10 +8154,10 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D341" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -8238,10 +8238,10 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D347" t="s">
-        <v>968</v>
+        <v>946</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8252,10 +8252,10 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D348" t="s">
-        <v>946</v>
+        <v>968</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -8266,10 +8266,10 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D349" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8280,10 +8280,10 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D350" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -8339,7 +8339,7 @@
         <v>826</v>
       </c>
       <c r="D354" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -8420,10 +8420,10 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D360" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8434,10 +8434,10 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="D361" t="s">
-        <v>951</v>
+        <v>960</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8451,7 +8451,7 @@
         <v>826</v>
       </c>
       <c r="D362" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8462,10 +8462,10 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D363" t="s">
-        <v>961</v>
+        <v>937</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -8535,7 +8535,7 @@
         <v>874</v>
       </c>
       <c r="D368" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8563,7 +8563,7 @@
         <v>857</v>
       </c>
       <c r="D370" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8602,10 +8602,10 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>832</v>
+        <v>889</v>
       </c>
       <c r="D373" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8616,10 +8616,10 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>889</v>
+        <v>832</v>
       </c>
       <c r="D374" t="s">
-        <v>950</v>
+        <v>936</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8714,10 +8714,10 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>832</v>
+        <v>899</v>
       </c>
       <c r="D381" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -8728,10 +8728,10 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>899</v>
+        <v>826</v>
       </c>
       <c r="D382" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8742,10 +8742,10 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D383" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -8759,7 +8759,7 @@
         <v>832</v>
       </c>
       <c r="D384" t="s">
-        <v>933</v>
+        <v>962</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -8784,10 +8784,10 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>900</v>
+        <v>832</v>
       </c>
       <c r="D386" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -8798,10 +8798,10 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>856</v>
+        <v>900</v>
       </c>
       <c r="D387" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -8812,10 +8812,10 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="D388" t="s">
-        <v>941</v>
+        <v>954</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -8826,10 +8826,10 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="D389" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -8840,10 +8840,10 @@
         <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="D390" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8854,10 +8854,10 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>901</v>
+        <v>835</v>
       </c>
       <c r="D391" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -8868,10 +8868,10 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>832</v>
+        <v>901</v>
       </c>
       <c r="D392" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -8899,7 +8899,7 @@
         <v>832</v>
       </c>
       <c r="D394" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8938,10 +8938,10 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D397" t="s">
-        <v>951</v>
+        <v>938</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -8952,10 +8952,10 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>860</v>
+        <v>826</v>
       </c>
       <c r="D398" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8966,10 +8966,10 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="D399" t="s">
-        <v>942</v>
+        <v>960</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -8980,10 +8980,10 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="D400" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -8994,10 +8994,10 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>850</v>
+        <v>874</v>
       </c>
       <c r="D401" t="s">
-        <v>941</v>
+        <v>952</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -9008,10 +9008,10 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>834</v>
+        <v>850</v>
       </c>
       <c r="D402" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -9022,10 +9022,10 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D403" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -9050,10 +9050,10 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="D405" t="s">
-        <v>961</v>
+        <v>941</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -9064,10 +9064,10 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>858</v>
+        <v>829</v>
       </c>
       <c r="D406" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -9078,10 +9078,10 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>884</v>
+        <v>858</v>
       </c>
       <c r="D407" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -9092,10 +9092,10 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>826</v>
+        <v>884</v>
       </c>
       <c r="D408" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -9106,10 +9106,10 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>872</v>
+        <v>826</v>
       </c>
       <c r="D409" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -9120,10 +9120,10 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="D410" t="s">
-        <v>969</v>
+        <v>946</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -9134,10 +9134,10 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>826</v>
+        <v>845</v>
       </c>
       <c r="D411" t="s">
-        <v>932</v>
+        <v>969</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -9148,10 +9148,10 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>874</v>
+        <v>826</v>
       </c>
       <c r="D412" t="s">
-        <v>956</v>
+        <v>932</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -9162,10 +9162,10 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>826</v>
+        <v>874</v>
       </c>
       <c r="D413" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -9176,10 +9176,10 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D414" t="s">
-        <v>937</v>
+        <v>952</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -9204,10 +9204,10 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>874</v>
+        <v>832</v>
       </c>
       <c r="D416" t="s">
-        <v>952</v>
+        <v>937</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -9218,10 +9218,10 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>844</v>
+        <v>874</v>
       </c>
       <c r="D417" t="s">
-        <v>935</v>
+        <v>952</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -9246,10 +9246,10 @@
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D419" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -9260,10 +9260,10 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
       <c r="D420" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -9291,7 +9291,7 @@
         <v>832</v>
       </c>
       <c r="D422" t="s">
-        <v>962</v>
+        <v>939</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -9333,7 +9333,7 @@
         <v>832</v>
       </c>
       <c r="D425" t="s">
-        <v>944</v>
+        <v>962</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -9372,10 +9372,10 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>862</v>
+        <v>832</v>
       </c>
       <c r="D428" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9386,10 +9386,10 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>836</v>
+        <v>862</v>
       </c>
       <c r="D429" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9400,10 +9400,10 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="D430" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9417,7 +9417,7 @@
         <v>845</v>
       </c>
       <c r="D431" t="s">
-        <v>938</v>
+        <v>962</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -9428,10 +9428,10 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>902</v>
+        <v>845</v>
       </c>
       <c r="D432" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -9442,10 +9442,10 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>832</v>
+        <v>902</v>
       </c>
       <c r="D433" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9459,7 +9459,7 @@
         <v>832</v>
       </c>
       <c r="D434" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -9470,10 +9470,10 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D435" t="s">
-        <v>948</v>
+        <v>961</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -9484,10 +9484,10 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D436" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9963,7 +9963,7 @@
         <v>844</v>
       </c>
       <c r="D470" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -9974,10 +9974,10 @@
         <v>471</v>
       </c>
       <c r="C471" t="s">
-        <v>844</v>
+        <v>874</v>
       </c>
       <c r="D471" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -9988,10 +9988,10 @@
         <v>472</v>
       </c>
       <c r="C472" t="s">
-        <v>874</v>
+        <v>832</v>
       </c>
       <c r="D472" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -10005,7 +10005,7 @@
         <v>832</v>
       </c>
       <c r="D473" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -10016,10 +10016,10 @@
         <v>474</v>
       </c>
       <c r="C474" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="D474" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -10058,10 +10058,10 @@
         <v>477</v>
       </c>
       <c r="C477" t="s">
-        <v>832</v>
+        <v>874</v>
       </c>
       <c r="D477" t="s">
-        <v>940</v>
+        <v>953</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -10072,10 +10072,10 @@
         <v>478</v>
       </c>
       <c r="C478" t="s">
-        <v>874</v>
+        <v>832</v>
       </c>
       <c r="D478" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -10282,10 +10282,10 @@
         <v>493</v>
       </c>
       <c r="C493" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="D493" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -10296,10 +10296,10 @@
         <v>494</v>
       </c>
       <c r="C494" t="s">
-        <v>818</v>
+        <v>836</v>
       </c>
       <c r="D494" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -10310,10 +10310,10 @@
         <v>495</v>
       </c>
       <c r="C495" t="s">
-        <v>836</v>
+        <v>874</v>
       </c>
       <c r="D495" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -10324,10 +10324,10 @@
         <v>496</v>
       </c>
       <c r="C496" t="s">
-        <v>874</v>
+        <v>832</v>
       </c>
       <c r="D496" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -10338,10 +10338,10 @@
         <v>497</v>
       </c>
       <c r="C497" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D497" t="s">
-        <v>955</v>
+        <v>938</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -10467,7 +10467,7 @@
         <v>822</v>
       </c>
       <c r="D506" t="s">
-        <v>972</v>
+        <v>940</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -10495,7 +10495,7 @@
         <v>844</v>
       </c>
       <c r="D508" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10649,7 +10649,7 @@
         <v>905</v>
       </c>
       <c r="D519" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10733,7 +10733,7 @@
         <v>826</v>
       </c>
       <c r="D525" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10943,7 +10943,7 @@
         <v>834</v>
       </c>
       <c r="D540" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -10985,7 +10985,7 @@
         <v>826</v>
       </c>
       <c r="D543" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -10996,10 +10996,10 @@
         <v>543</v>
       </c>
       <c r="C544" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="D544" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -11010,10 +11010,10 @@
         <v>544</v>
       </c>
       <c r="C545" t="s">
-        <v>844</v>
+        <v>903</v>
       </c>
       <c r="D545" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -11024,10 +11024,10 @@
         <v>545</v>
       </c>
       <c r="C546" t="s">
-        <v>903</v>
+        <v>874</v>
       </c>
       <c r="D546" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -11038,10 +11038,10 @@
         <v>546</v>
       </c>
       <c r="C547" t="s">
-        <v>874</v>
+        <v>825</v>
       </c>
       <c r="D547" t="s">
-        <v>944</v>
+        <v>961</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -11052,10 +11052,10 @@
         <v>547</v>
       </c>
       <c r="C548" t="s">
-        <v>825</v>
+        <v>908</v>
       </c>
       <c r="D548" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -11066,10 +11066,10 @@
         <v>548</v>
       </c>
       <c r="C549" t="s">
-        <v>908</v>
+        <v>834</v>
       </c>
       <c r="D549" t="s">
-        <v>959</v>
+        <v>942</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -11080,10 +11080,10 @@
         <v>549</v>
       </c>
       <c r="C550" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D550" t="s">
-        <v>939</v>
+        <v>962</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -11094,10 +11094,10 @@
         <v>550</v>
       </c>
       <c r="C551" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="D551" t="s">
-        <v>942</v>
+        <v>962</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -11108,10 +11108,10 @@
         <v>551</v>
       </c>
       <c r="C552" t="s">
-        <v>826</v>
+        <v>879</v>
       </c>
       <c r="D552" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -11125,7 +11125,7 @@
         <v>832</v>
       </c>
       <c r="D553" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -11136,10 +11136,10 @@
         <v>553</v>
       </c>
       <c r="C554" t="s">
-        <v>879</v>
+        <v>826</v>
       </c>
       <c r="D554" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -11150,10 +11150,10 @@
         <v>554</v>
       </c>
       <c r="C555" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
       <c r="D555" t="s">
-        <v>957</v>
+        <v>938</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -11164,10 +11164,10 @@
         <v>555</v>
       </c>
       <c r="C556" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="D556" t="s">
-        <v>938</v>
+        <v>960</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -11178,10 +11178,10 @@
         <v>556</v>
       </c>
       <c r="C557" t="s">
-        <v>826</v>
+        <v>909</v>
       </c>
       <c r="D557" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -11192,10 +11192,10 @@
         <v>557</v>
       </c>
       <c r="C558" t="s">
-        <v>909</v>
+        <v>817</v>
       </c>
       <c r="D558" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -11206,10 +11206,10 @@
         <v>558</v>
       </c>
       <c r="C559" t="s">
-        <v>817</v>
+        <v>832</v>
       </c>
       <c r="D559" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -11223,7 +11223,7 @@
         <v>832</v>
       </c>
       <c r="D560" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -11234,10 +11234,10 @@
         <v>560</v>
       </c>
       <c r="C561" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="D561" t="s">
-        <v>939</v>
+        <v>961</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -11248,10 +11248,10 @@
         <v>561</v>
       </c>
       <c r="C562" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="D562" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -11262,10 +11262,10 @@
         <v>562</v>
       </c>
       <c r="C563" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="D563" t="s">
-        <v>951</v>
+        <v>961</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11276,10 +11276,10 @@
         <v>563</v>
       </c>
       <c r="C564" t="s">
-        <v>826</v>
+        <v>850</v>
       </c>
       <c r="D564" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -11290,10 +11290,10 @@
         <v>564</v>
       </c>
       <c r="C565" t="s">
-        <v>850</v>
+        <v>826</v>
       </c>
       <c r="D565" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11304,10 +11304,10 @@
         <v>565</v>
       </c>
       <c r="C566" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="D566" t="s">
-        <v>950</v>
+        <v>933</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11318,7 +11318,7 @@
         <v>566</v>
       </c>
       <c r="C567" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="D567" t="s">
         <v>933</v>
@@ -11332,10 +11332,10 @@
         <v>567</v>
       </c>
       <c r="C568" t="s">
-        <v>826</v>
+        <v>887</v>
       </c>
       <c r="D568" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -11346,10 +11346,10 @@
         <v>568</v>
       </c>
       <c r="C569" t="s">
-        <v>887</v>
+        <v>826</v>
       </c>
       <c r="D569" t="s">
-        <v>935</v>
+        <v>951</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -11360,10 +11360,10 @@
         <v>569</v>
       </c>
       <c r="C570" t="s">
-        <v>826</v>
+        <v>894</v>
       </c>
       <c r="D570" t="s">
-        <v>951</v>
+        <v>974</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11374,10 +11374,10 @@
         <v>570</v>
       </c>
       <c r="C571" t="s">
-        <v>894</v>
+        <v>844</v>
       </c>
       <c r="D571" t="s">
-        <v>975</v>
+        <v>939</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11402,10 +11402,10 @@
         <v>572</v>
       </c>
       <c r="C573" t="s">
-        <v>832</v>
+        <v>874</v>
       </c>
       <c r="D573" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -11416,10 +11416,10 @@
         <v>573</v>
       </c>
       <c r="C574" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="D574" t="s">
-        <v>941</v>
+        <v>957</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11430,10 +11430,10 @@
         <v>574</v>
       </c>
       <c r="C575" t="s">
-        <v>869</v>
+        <v>830</v>
       </c>
       <c r="D575" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -11444,10 +11444,10 @@
         <v>575</v>
       </c>
       <c r="C576" t="s">
-        <v>830</v>
+        <v>854</v>
       </c>
       <c r="D576" t="s">
-        <v>944</v>
+        <v>975</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -11458,10 +11458,10 @@
         <v>576</v>
       </c>
       <c r="C577" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="D577" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11472,10 +11472,10 @@
         <v>577</v>
       </c>
       <c r="C578" t="s">
-        <v>850</v>
+        <v>910</v>
       </c>
       <c r="D578" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11486,10 +11486,10 @@
         <v>578</v>
       </c>
       <c r="C579" t="s">
-        <v>910</v>
+        <v>832</v>
       </c>
       <c r="D579" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -11500,10 +11500,10 @@
         <v>579</v>
       </c>
       <c r="C580" t="s">
-        <v>911</v>
+        <v>816</v>
       </c>
       <c r="D580" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -11514,10 +11514,10 @@
         <v>580</v>
       </c>
       <c r="C581" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="D581" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -11528,10 +11528,10 @@
         <v>581</v>
       </c>
       <c r="C582" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="D582" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -11542,10 +11542,10 @@
         <v>582</v>
       </c>
       <c r="C583" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="D583" t="s">
-        <v>954</v>
+        <v>939</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -11556,10 +11556,10 @@
         <v>583</v>
       </c>
       <c r="C584" t="s">
-        <v>826</v>
+        <v>911</v>
       </c>
       <c r="D584" t="s">
-        <v>939</v>
+        <v>962</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -11570,10 +11570,10 @@
         <v>584</v>
       </c>
       <c r="C585" t="s">
-        <v>912</v>
+        <v>826</v>
       </c>
       <c r="D585" t="s">
-        <v>962</v>
+        <v>939</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -11587,7 +11587,7 @@
         <v>826</v>
       </c>
       <c r="D586" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -11598,10 +11598,10 @@
         <v>586</v>
       </c>
       <c r="C587" t="s">
-        <v>826</v>
+        <v>884</v>
       </c>
       <c r="D587" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -11612,10 +11612,10 @@
         <v>587</v>
       </c>
       <c r="C588" t="s">
-        <v>884</v>
+        <v>836</v>
       </c>
       <c r="D588" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -11626,10 +11626,10 @@
         <v>588</v>
       </c>
       <c r="C589" t="s">
-        <v>836</v>
+        <v>858</v>
       </c>
       <c r="D589" t="s">
-        <v>944</v>
+        <v>957</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -11640,10 +11640,10 @@
         <v>589</v>
       </c>
       <c r="C590" t="s">
-        <v>858</v>
+        <v>912</v>
       </c>
       <c r="D590" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -11769,7 +11769,7 @@
         <v>826</v>
       </c>
       <c r="D599" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -11867,7 +11867,7 @@
         <v>858</v>
       </c>
       <c r="D606" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -12007,7 +12007,7 @@
         <v>884</v>
       </c>
       <c r="D616" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -12035,7 +12035,7 @@
         <v>816</v>
       </c>
       <c r="D618" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -12063,7 +12063,7 @@
         <v>917</v>
       </c>
       <c r="D620" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -12091,7 +12091,7 @@
         <v>856</v>
       </c>
       <c r="D622" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -12242,10 +12242,10 @@
         <v>631</v>
       </c>
       <c r="C633" t="s">
-        <v>832</v>
+        <v>920</v>
       </c>
       <c r="D633" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -12256,10 +12256,10 @@
         <v>632</v>
       </c>
       <c r="C634" t="s">
-        <v>920</v>
+        <v>826</v>
       </c>
       <c r="D634" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -12270,7 +12270,7 @@
         <v>633</v>
       </c>
       <c r="C635" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D635" t="s">
         <v>936</v>
@@ -12284,10 +12284,10 @@
         <v>634</v>
       </c>
       <c r="C636" t="s">
-        <v>827</v>
+        <v>881</v>
       </c>
       <c r="D636" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -12298,10 +12298,10 @@
         <v>635</v>
       </c>
       <c r="C637" t="s">
-        <v>881</v>
+        <v>839</v>
       </c>
       <c r="D637" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -12312,10 +12312,10 @@
         <v>636</v>
       </c>
       <c r="C638" t="s">
-        <v>839</v>
+        <v>858</v>
       </c>
       <c r="D638" t="s">
-        <v>948</v>
+        <v>980</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -12326,10 +12326,10 @@
         <v>637</v>
       </c>
       <c r="C639" t="s">
-        <v>858</v>
+        <v>832</v>
       </c>
       <c r="D639" t="s">
-        <v>981</v>
+        <v>952</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -12480,10 +12480,10 @@
         <v>648</v>
       </c>
       <c r="C650" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="D650" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -12494,10 +12494,10 @@
         <v>649</v>
       </c>
       <c r="C651" t="s">
-        <v>815</v>
+        <v>881</v>
       </c>
       <c r="D651" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -12508,10 +12508,10 @@
         <v>650</v>
       </c>
       <c r="C652" t="s">
-        <v>881</v>
+        <v>826</v>
       </c>
       <c r="D652" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -12525,7 +12525,7 @@
         <v>826</v>
       </c>
       <c r="D653" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -12536,10 +12536,10 @@
         <v>652</v>
       </c>
       <c r="C654" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D654" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -12553,7 +12553,7 @@
         <v>832</v>
       </c>
       <c r="D655" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -12637,7 +12637,7 @@
         <v>822</v>
       </c>
       <c r="D661" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -12665,7 +12665,7 @@
         <v>922</v>
       </c>
       <c r="D663" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -12676,10 +12676,10 @@
         <v>662</v>
       </c>
       <c r="C664" t="s">
-        <v>832</v>
+        <v>923</v>
       </c>
       <c r="D664" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -12690,10 +12690,10 @@
         <v>663</v>
       </c>
       <c r="C665" t="s">
-        <v>923</v>
+        <v>838</v>
       </c>
       <c r="D665" t="s">
-        <v>959</v>
+        <v>984</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -12704,10 +12704,10 @@
         <v>664</v>
       </c>
       <c r="C666" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="D666" t="s">
-        <v>985</v>
+        <v>941</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -12718,10 +12718,10 @@
         <v>665</v>
       </c>
       <c r="C667" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="D667" t="s">
-        <v>941</v>
+        <v>985</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -12732,10 +12732,10 @@
         <v>666</v>
       </c>
       <c r="C668" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="D668" t="s">
-        <v>986</v>
+        <v>932</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -12746,10 +12746,10 @@
         <v>667</v>
       </c>
       <c r="C669" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="D669" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -12760,10 +12760,10 @@
         <v>668</v>
       </c>
       <c r="C670" t="s">
-        <v>833</v>
+        <v>874</v>
       </c>
       <c r="D670" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -12774,10 +12774,10 @@
         <v>669</v>
       </c>
       <c r="C671" t="s">
-        <v>874</v>
+        <v>837</v>
       </c>
       <c r="D671" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -12788,10 +12788,10 @@
         <v>670</v>
       </c>
       <c r="C672" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
       <c r="D672" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -12802,10 +12802,10 @@
         <v>671</v>
       </c>
       <c r="C673" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
       <c r="D673" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -12858,10 +12858,10 @@
         <v>675</v>
       </c>
       <c r="C677" t="s">
-        <v>832</v>
+        <v>903</v>
       </c>
       <c r="D677" t="s">
-        <v>987</v>
+        <v>942</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12872,10 +12872,10 @@
         <v>676</v>
       </c>
       <c r="C678" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="D678" t="s">
-        <v>942</v>
+        <v>986</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -12886,10 +12886,10 @@
         <v>677</v>
       </c>
       <c r="C679" t="s">
-        <v>908</v>
+        <v>893</v>
       </c>
       <c r="D679" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -12900,10 +12900,10 @@
         <v>678</v>
       </c>
       <c r="C680" t="s">
-        <v>893</v>
+        <v>826</v>
       </c>
       <c r="D680" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -12914,10 +12914,10 @@
         <v>679</v>
       </c>
       <c r="C681" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D681" t="s">
-        <v>956</v>
+        <v>988</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -12942,10 +12942,10 @@
         <v>681</v>
       </c>
       <c r="C683" t="s">
-        <v>832</v>
+        <v>854</v>
       </c>
       <c r="D683" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -12956,7 +12956,7 @@
         <v>682</v>
       </c>
       <c r="C684" t="s">
-        <v>854</v>
+        <v>906</v>
       </c>
       <c r="D684" t="s">
         <v>957</v>
@@ -12970,10 +12970,10 @@
         <v>683</v>
       </c>
       <c r="C685" t="s">
-        <v>906</v>
+        <v>850</v>
       </c>
       <c r="D685" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -12984,10 +12984,10 @@
         <v>684</v>
       </c>
       <c r="C686" t="s">
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="D686" t="s">
-        <v>989</v>
+        <v>943</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -12998,10 +12998,10 @@
         <v>685</v>
       </c>
       <c r="C687" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="D687" t="s">
-        <v>943</v>
+        <v>961</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -13012,10 +13012,10 @@
         <v>686</v>
       </c>
       <c r="C688" t="s">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="D688" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -13026,10 +13026,10 @@
         <v>687</v>
       </c>
       <c r="C689" t="s">
-        <v>854</v>
+        <v>832</v>
       </c>
       <c r="D689" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -13883,7 +13883,7 @@
         <v>844</v>
       </c>
       <c r="D750" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -14121,7 +14121,7 @@
         <v>927</v>
       </c>
       <c r="D767" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -14367,7 +14367,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C785" t="s">
         <v>832</v>
@@ -14457,7 +14457,7 @@
         <v>829</v>
       </c>
       <c r="D791" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="792" spans="1:4">
@@ -14471,7 +14471,7 @@
         <v>874</v>
       </c>
       <c r="D792" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="793" spans="1:4">
@@ -14499,7 +14499,7 @@
         <v>832</v>
       </c>
       <c r="D794" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="795" spans="1:4">

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="999">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -64,21 +64,21 @@
     <t>Shohei Ohtani</t>
   </si>
   <si>
+    <t>Mike Trout</t>
+  </si>
+  <si>
     <t>Freddie Freeman</t>
   </si>
   <si>
-    <t>Mike Trout</t>
-  </si>
-  <si>
     <t>Corbin Burnes</t>
   </si>
   <si>
+    <t>Bobby Witt Jr.</t>
+  </si>
+  <si>
     <t>Gerrit Cole</t>
   </si>
   <si>
-    <t>Bobby Witt Jr.</t>
-  </si>
-  <si>
     <t>Bo Bichette</t>
   </si>
   <si>
@@ -112,15 +112,15 @@
     <t>Jose Altuve</t>
   </si>
   <si>
+    <t>Michael Harris II</t>
+  </si>
+  <si>
     <t>Francisco Lindor</t>
   </si>
   <si>
     <t>Dylan Cease</t>
   </si>
   <si>
-    <t>Michael Harris II</t>
-  </si>
-  <si>
     <t>Nolan Arenado</t>
   </si>
   <si>
@@ -175,12 +175,12 @@
     <t>Zack Wheeler</t>
   </si>
   <si>
+    <t>Corey Seager</t>
+  </si>
+  <si>
     <t>Adolis Garcia</t>
   </si>
   <si>
-    <t>Corey Seager</t>
-  </si>
-  <si>
     <t>Julio Urias</t>
   </si>
   <si>
@@ -358,15 +358,15 @@
     <t>Seiya Suzuki</t>
   </si>
   <si>
+    <t>Gleyber Torres</t>
+  </si>
+  <si>
+    <t>Gunnar Henderson</t>
+  </si>
+  <si>
     <t>Amed Rosario</t>
   </si>
   <si>
-    <t>Gunnar Henderson</t>
-  </si>
-  <si>
-    <t>Gleyber Torres</t>
-  </si>
-  <si>
     <t>Blake Snell</t>
   </si>
   <si>
@@ -445,15 +445,15 @@
     <t>Freddy Peralta</t>
   </si>
   <si>
+    <t>Ty France</t>
+  </si>
+  <si>
     <t>Anthony Rizzo</t>
   </si>
   <si>
     <t>Pablo Lopez</t>
   </si>
   <si>
-    <t>Ty France</t>
-  </si>
-  <si>
     <t>Clay Holmes</t>
   </si>
   <si>
@@ -472,12 +472,12 @@
     <t>Chris Sale</t>
   </si>
   <si>
+    <t>Max Muncy</t>
+  </si>
+  <si>
     <t>Jose Miranda</t>
   </si>
   <si>
-    <t>Max Muncy</t>
-  </si>
-  <si>
     <t>MJ Melendez</t>
   </si>
   <si>
@@ -496,12 +496,12 @@
     <t>Rowdy Tellez</t>
   </si>
   <si>
+    <t>Brandon Lowe</t>
+  </si>
+  <si>
     <t>Jordan Montgomery</t>
   </si>
   <si>
-    <t>Brandon Lowe</t>
-  </si>
-  <si>
     <t>Dustin May</t>
   </si>
   <si>
@@ -538,12 +538,12 @@
     <t>Brady Singer</t>
   </si>
   <si>
+    <t>Luis Arraez</t>
+  </si>
+  <si>
     <t>Alex Verdugo</t>
   </si>
   <si>
-    <t>Luis Arraez</t>
-  </si>
-  <si>
     <t>Eugenio Suarez</t>
   </si>
   <si>
@@ -565,12 +565,12 @@
     <t>William Contreras</t>
   </si>
   <si>
+    <t>Jonathan India</t>
+  </si>
+  <si>
     <t>Paul Sewald</t>
   </si>
   <si>
-    <t>Jonathan India</t>
-  </si>
-  <si>
     <t>Alec Bohm</t>
   </si>
   <si>
@@ -1813,7 +1813,7 @@
     <t>Hunter Dozier</t>
   </si>
   <si>
-    <t>Johnny</t>
+    <t>Johnny Cueto</t>
   </si>
   <si>
     <t>Kyle Lewis</t>
@@ -2491,12 +2491,12 @@
     <t>SP,DH</t>
   </si>
   <si>
+    <t>CF</t>
+  </si>
+  <si>
     <t>1B</t>
   </si>
   <si>
-    <t>CF</t>
-  </si>
-  <si>
     <t>SP</t>
   </si>
   <si>
@@ -2569,10 +2569,13 @@
     <t>CF,LF</t>
   </si>
   <si>
+    <t>CF,LF,RF</t>
+  </si>
+  <si>
     <t>LF,RF</t>
   </si>
   <si>
-    <t>CF,DH,LF,SS</t>
+    <t>CF,LF,SS</t>
   </si>
   <si>
     <t>LF,RF,DH</t>
@@ -2671,9 +2674,6 @@
     <t>2B,3B,CF,SS</t>
   </si>
   <si>
-    <t>CF,LF,RF</t>
-  </si>
-  <si>
     <t>2B,3B,RF,SS</t>
   </si>
   <si>
@@ -2695,7 +2695,7 @@
     <t>1B,2B,3B,DH,LF,RF,SS</t>
   </si>
   <si>
-    <t>2B,CF,LF,RF</t>
+    <t>2B,LF</t>
   </si>
   <si>
     <t>1B,C</t>
@@ -2710,9 +2710,6 @@
     <t>1B,LF,RF</t>
   </si>
   <si>
-    <t>2B,LF</t>
-  </si>
-  <si>
     <t>1B,2B,DH,RF</t>
   </si>
   <si>
@@ -2945,9 +2942,6 @@
   </si>
   <si>
     <t>Duvall</t>
-  </si>
-  <si>
-    <t>Cueto</t>
   </si>
   <si>
     <t>Moustakas</t>
@@ -3411,7 +3405,7 @@
         <v>814</v>
       </c>
       <c r="D2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3425,7 +3419,7 @@
         <v>815</v>
       </c>
       <c r="D3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3439,7 +3433,7 @@
         <v>816</v>
       </c>
       <c r="D4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3453,7 +3447,7 @@
         <v>817</v>
       </c>
       <c r="D5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3467,7 +3461,7 @@
         <v>818</v>
       </c>
       <c r="D6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3481,7 +3475,7 @@
         <v>819</v>
       </c>
       <c r="D7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3495,7 +3489,7 @@
         <v>819</v>
       </c>
       <c r="D8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3509,7 +3503,7 @@
         <v>820</v>
       </c>
       <c r="D9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3523,7 +3517,7 @@
         <v>821</v>
       </c>
       <c r="D10" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3537,7 +3531,7 @@
         <v>822</v>
       </c>
       <c r="D11" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3551,7 +3545,7 @@
         <v>823</v>
       </c>
       <c r="D12" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3565,7 +3559,7 @@
         <v>824</v>
       </c>
       <c r="D13" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3579,7 +3573,7 @@
         <v>825</v>
       </c>
       <c r="D14" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3593,7 +3587,7 @@
         <v>826</v>
       </c>
       <c r="D15" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3604,10 +3598,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D16" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3618,10 +3612,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D17" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3635,7 +3629,7 @@
         <v>828</v>
       </c>
       <c r="D18" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3649,7 +3643,7 @@
         <v>818</v>
       </c>
       <c r="D19" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3663,7 +3657,7 @@
         <v>829</v>
       </c>
       <c r="D20" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3677,7 +3671,7 @@
         <v>822</v>
       </c>
       <c r="D21" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3691,7 +3685,7 @@
         <v>826</v>
       </c>
       <c r="D22" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3705,7 +3699,7 @@
         <v>822</v>
       </c>
       <c r="D23" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3719,7 +3713,7 @@
         <v>830</v>
       </c>
       <c r="D24" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3733,7 +3727,7 @@
         <v>831</v>
       </c>
       <c r="D25" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3747,7 +3741,7 @@
         <v>826</v>
       </c>
       <c r="D26" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3761,7 +3755,7 @@
         <v>832</v>
       </c>
       <c r="D27" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3775,7 +3769,7 @@
         <v>833</v>
       </c>
       <c r="D28" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3786,10 +3780,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="D29" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3800,10 +3794,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="D30" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3814,10 +3808,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D31" t="s">
-        <v>933</v>
+        <v>948</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3831,7 +3825,7 @@
         <v>818</v>
       </c>
       <c r="D32" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3845,7 +3839,7 @@
         <v>835</v>
       </c>
       <c r="D33" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3859,7 +3853,7 @@
         <v>836</v>
       </c>
       <c r="D34" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3873,7 +3867,7 @@
         <v>826</v>
       </c>
       <c r="D35" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3887,7 +3881,7 @@
         <v>826</v>
       </c>
       <c r="D36" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3898,10 +3892,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D37" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3915,7 +3909,7 @@
         <v>826</v>
       </c>
       <c r="D38" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3929,7 +3923,7 @@
         <v>832</v>
       </c>
       <c r="D39" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3943,7 +3937,7 @@
         <v>826</v>
       </c>
       <c r="D40" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3957,7 +3951,7 @@
         <v>826</v>
       </c>
       <c r="D41" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3968,10 +3962,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D42" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3985,7 +3979,7 @@
         <v>816</v>
       </c>
       <c r="D43" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3999,7 +3993,7 @@
         <v>832</v>
       </c>
       <c r="D44" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4010,10 +4004,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D45" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4027,7 +4021,7 @@
         <v>837</v>
       </c>
       <c r="D46" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4041,7 +4035,7 @@
         <v>826</v>
       </c>
       <c r="D47" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4055,7 +4049,7 @@
         <v>826</v>
       </c>
       <c r="D48" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4069,7 +4063,7 @@
         <v>826</v>
       </c>
       <c r="D49" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4080,10 +4074,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="D50" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4094,10 +4088,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="D51" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4111,7 +4105,7 @@
         <v>826</v>
       </c>
       <c r="D52" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4125,7 +4119,7 @@
         <v>832</v>
       </c>
       <c r="D53" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4139,7 +4133,7 @@
         <v>816</v>
       </c>
       <c r="D54" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4153,7 +4147,7 @@
         <v>829</v>
       </c>
       <c r="D55" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4167,7 +4161,7 @@
         <v>832</v>
       </c>
       <c r="D56" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4181,7 +4175,7 @@
         <v>839</v>
       </c>
       <c r="D57" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4195,7 +4189,7 @@
         <v>833</v>
       </c>
       <c r="D58" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4209,7 +4203,7 @@
         <v>817</v>
       </c>
       <c r="D59" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4223,7 +4217,7 @@
         <v>826</v>
       </c>
       <c r="D60" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4237,7 +4231,7 @@
         <v>826</v>
       </c>
       <c r="D61" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4251,7 +4245,7 @@
         <v>840</v>
       </c>
       <c r="D62" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4265,7 +4259,7 @@
         <v>826</v>
       </c>
       <c r="D63" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4279,7 +4273,7 @@
         <v>832</v>
       </c>
       <c r="D64" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4293,7 +4287,7 @@
         <v>841</v>
       </c>
       <c r="D65" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4307,7 +4301,7 @@
         <v>826</v>
       </c>
       <c r="D66" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4321,7 +4315,7 @@
         <v>835</v>
       </c>
       <c r="D67" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4335,7 +4329,7 @@
         <v>826</v>
       </c>
       <c r="D68" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4349,7 +4343,7 @@
         <v>816</v>
       </c>
       <c r="D69" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4363,7 +4357,7 @@
         <v>826</v>
       </c>
       <c r="D70" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4377,7 +4371,7 @@
         <v>832</v>
       </c>
       <c r="D71" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4391,7 +4385,7 @@
         <v>842</v>
       </c>
       <c r="D72" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4405,7 +4399,7 @@
         <v>843</v>
       </c>
       <c r="D73" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4419,7 +4413,7 @@
         <v>844</v>
       </c>
       <c r="D74" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4433,7 +4427,7 @@
         <v>834</v>
       </c>
       <c r="D75" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4447,7 +4441,7 @@
         <v>834</v>
       </c>
       <c r="D76" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4461,7 +4455,7 @@
         <v>834</v>
       </c>
       <c r="D77" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4475,7 +4469,7 @@
         <v>826</v>
       </c>
       <c r="D78" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4489,7 +4483,7 @@
         <v>826</v>
       </c>
       <c r="D79" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4503,7 +4497,7 @@
         <v>845</v>
       </c>
       <c r="D80" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4517,7 +4511,7 @@
         <v>846</v>
       </c>
       <c r="D81" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4531,7 +4525,7 @@
         <v>832</v>
       </c>
       <c r="D82" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4545,7 +4539,7 @@
         <v>832</v>
       </c>
       <c r="D83" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4559,7 +4553,7 @@
         <v>845</v>
       </c>
       <c r="D84" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4573,7 +4567,7 @@
         <v>834</v>
       </c>
       <c r="D85" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4587,7 +4581,7 @@
         <v>826</v>
       </c>
       <c r="D86" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4601,7 +4595,7 @@
         <v>832</v>
       </c>
       <c r="D87" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4615,7 +4609,7 @@
         <v>847</v>
       </c>
       <c r="D88" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4629,7 +4623,7 @@
         <v>816</v>
       </c>
       <c r="D89" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4643,7 +4637,7 @@
         <v>834</v>
       </c>
       <c r="D90" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4657,7 +4651,7 @@
         <v>845</v>
       </c>
       <c r="D91" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4671,7 +4665,7 @@
         <v>848</v>
       </c>
       <c r="D92" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4682,10 +4676,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D93" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4699,7 +4693,7 @@
         <v>826</v>
       </c>
       <c r="D94" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4713,7 +4707,7 @@
         <v>822</v>
       </c>
       <c r="D95" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4727,7 +4721,7 @@
         <v>826</v>
       </c>
       <c r="D96" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4741,7 +4735,7 @@
         <v>822</v>
       </c>
       <c r="D97" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4755,7 +4749,7 @@
         <v>849</v>
       </c>
       <c r="D98" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4769,7 +4763,7 @@
         <v>841</v>
       </c>
       <c r="D99" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4783,7 +4777,7 @@
         <v>832</v>
       </c>
       <c r="D100" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4797,7 +4791,7 @@
         <v>822</v>
       </c>
       <c r="D101" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4808,10 +4802,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D102" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4822,10 +4816,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="D103" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4839,7 +4833,7 @@
         <v>826</v>
       </c>
       <c r="D104" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4853,7 +4847,7 @@
         <v>834</v>
       </c>
       <c r="D105" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4867,7 +4861,7 @@
         <v>844</v>
       </c>
       <c r="D106" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4881,7 +4875,7 @@
         <v>826</v>
       </c>
       <c r="D107" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4895,7 +4889,7 @@
         <v>826</v>
       </c>
       <c r="D108" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4909,7 +4903,7 @@
         <v>835</v>
       </c>
       <c r="D109" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4920,10 +4914,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D110" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4934,10 +4928,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>851</v>
+        <v>816</v>
       </c>
       <c r="D111" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4951,7 +4945,7 @@
         <v>827</v>
       </c>
       <c r="D112" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4962,10 +4956,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>816</v>
+        <v>852</v>
       </c>
       <c r="D113" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4979,7 +4973,7 @@
         <v>826</v>
       </c>
       <c r="D114" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4990,10 +4984,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D115" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -5007,7 +5001,7 @@
         <v>845</v>
       </c>
       <c r="D116" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -5021,7 +5015,7 @@
         <v>836</v>
       </c>
       <c r="D117" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -5032,10 +5026,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D118" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5049,7 +5043,7 @@
         <v>826</v>
       </c>
       <c r="D119" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5063,7 +5057,7 @@
         <v>822</v>
       </c>
       <c r="D120" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5077,7 +5071,7 @@
         <v>849</v>
       </c>
       <c r="D121" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5091,7 +5085,7 @@
         <v>826</v>
       </c>
       <c r="D122" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -5105,7 +5099,7 @@
         <v>832</v>
       </c>
       <c r="D123" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -5119,7 +5113,7 @@
         <v>838</v>
       </c>
       <c r="D124" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -5133,7 +5127,7 @@
         <v>826</v>
       </c>
       <c r="D125" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -5144,10 +5138,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D126" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5161,7 +5155,7 @@
         <v>815</v>
       </c>
       <c r="D127" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5175,7 +5169,7 @@
         <v>826</v>
       </c>
       <c r="D128" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5189,7 +5183,7 @@
         <v>834</v>
       </c>
       <c r="D129" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -5200,10 +5194,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D130" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -5217,7 +5211,7 @@
         <v>845</v>
       </c>
       <c r="D131" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5231,7 +5225,7 @@
         <v>832</v>
       </c>
       <c r="D132" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5245,7 +5239,7 @@
         <v>826</v>
       </c>
       <c r="D133" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5259,7 +5253,7 @@
         <v>816</v>
       </c>
       <c r="D134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5273,7 +5267,7 @@
         <v>838</v>
       </c>
       <c r="D135" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5287,7 +5281,7 @@
         <v>826</v>
       </c>
       <c r="D136" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5298,10 +5292,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D137" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5315,7 +5309,7 @@
         <v>816</v>
       </c>
       <c r="D138" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5329,7 +5323,7 @@
         <v>826</v>
       </c>
       <c r="D139" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5340,10 +5334,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>824</v>
+        <v>858</v>
       </c>
       <c r="D140" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5354,10 +5348,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D141" t="s">
-        <v>946</v>
+        <v>931</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5368,10 +5362,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>857</v>
+        <v>826</v>
       </c>
       <c r="D142" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5385,7 +5379,7 @@
         <v>832</v>
       </c>
       <c r="D143" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5399,7 +5393,7 @@
         <v>832</v>
       </c>
       <c r="D144" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5413,7 +5407,7 @@
         <v>826</v>
       </c>
       <c r="D145" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5427,7 +5421,7 @@
         <v>826</v>
       </c>
       <c r="D146" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5441,7 +5435,7 @@
         <v>832</v>
       </c>
       <c r="D147" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5455,7 +5449,7 @@
         <v>826</v>
       </c>
       <c r="D148" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5469,7 +5463,7 @@
         <v>858</v>
       </c>
       <c r="D149" t="s">
-        <v>955</v>
+        <v>938</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5480,10 +5474,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D150" t="s">
-        <v>939</v>
+        <v>954</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5494,10 +5488,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D151" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5511,7 +5505,7 @@
         <v>817</v>
       </c>
       <c r="D152" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5525,7 +5519,7 @@
         <v>829</v>
       </c>
       <c r="D153" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5539,7 +5533,7 @@
         <v>826</v>
       </c>
       <c r="D154" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5550,10 +5544,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D155" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5567,7 +5561,7 @@
         <v>822</v>
       </c>
       <c r="D156" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5578,10 +5572,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>826</v>
+        <v>862</v>
       </c>
       <c r="D157" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5592,10 +5586,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>861</v>
+        <v>826</v>
       </c>
       <c r="D158" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5609,7 +5603,7 @@
         <v>826</v>
       </c>
       <c r="D159" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5623,7 +5617,7 @@
         <v>829</v>
       </c>
       <c r="D160" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5634,10 +5628,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D161" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5651,7 +5645,7 @@
         <v>815</v>
       </c>
       <c r="D162" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5665,7 +5659,7 @@
         <v>837</v>
       </c>
       <c r="D163" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5679,7 +5673,7 @@
         <v>844</v>
       </c>
       <c r="D164" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5693,7 +5687,7 @@
         <v>826</v>
       </c>
       <c r="D165" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5704,10 +5698,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D166" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5721,7 +5715,7 @@
         <v>819</v>
       </c>
       <c r="D167" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5732,10 +5726,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D168" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5749,7 +5743,7 @@
         <v>836</v>
       </c>
       <c r="D169" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5763,7 +5757,7 @@
         <v>826</v>
       </c>
       <c r="D170" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5774,10 +5768,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="D171" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5788,10 +5782,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="D172" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5805,7 +5799,7 @@
         <v>847</v>
       </c>
       <c r="D173" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5819,7 +5813,7 @@
         <v>845</v>
       </c>
       <c r="D174" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5833,7 +5827,7 @@
         <v>832</v>
       </c>
       <c r="D175" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5844,10 +5838,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D176" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5861,7 +5855,7 @@
         <v>826</v>
       </c>
       <c r="D177" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5875,7 +5869,7 @@
         <v>832</v>
       </c>
       <c r="D178" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5889,7 +5883,7 @@
         <v>845</v>
       </c>
       <c r="D179" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5900,10 +5894,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>832</v>
+        <v>868</v>
       </c>
       <c r="D180" t="s">
-        <v>935</v>
+        <v>958</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5914,10 +5908,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>867</v>
+        <v>832</v>
       </c>
       <c r="D181" t="s">
-        <v>959</v>
+        <v>934</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5931,7 +5925,7 @@
         <v>830</v>
       </c>
       <c r="D182" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5945,7 +5939,7 @@
         <v>826</v>
       </c>
       <c r="D183" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5959,7 +5953,7 @@
         <v>826</v>
       </c>
       <c r="D184" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5970,10 +5964,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D185" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5984,10 +5978,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D186" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -6001,7 +5995,7 @@
         <v>826</v>
       </c>
       <c r="D187" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -6015,7 +6009,7 @@
         <v>836</v>
       </c>
       <c r="D188" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -6026,10 +6020,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D189" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -6043,7 +6037,7 @@
         <v>844</v>
       </c>
       <c r="D190" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -6054,10 +6048,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D191" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -6068,10 +6062,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D192" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -6085,7 +6079,7 @@
         <v>839</v>
       </c>
       <c r="D193" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -6096,10 +6090,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D194" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -6110,10 +6104,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D195" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -6124,10 +6118,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D196" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -6138,10 +6132,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D197" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -6155,7 +6149,7 @@
         <v>821</v>
       </c>
       <c r="D198" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -6169,7 +6163,7 @@
         <v>832</v>
       </c>
       <c r="D199" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -6183,7 +6177,7 @@
         <v>826</v>
       </c>
       <c r="D200" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -6197,7 +6191,7 @@
         <v>844</v>
       </c>
       <c r="D201" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -6211,7 +6205,7 @@
         <v>826</v>
       </c>
       <c r="D202" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -6225,7 +6219,7 @@
         <v>826</v>
       </c>
       <c r="D203" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -6236,10 +6230,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D204" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6253,7 +6247,7 @@
         <v>817</v>
       </c>
       <c r="D205" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -6267,7 +6261,7 @@
         <v>833</v>
       </c>
       <c r="D206" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6281,7 +6275,7 @@
         <v>826</v>
       </c>
       <c r="D207" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6295,7 +6289,7 @@
         <v>832</v>
       </c>
       <c r="D208" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6306,10 +6300,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D209" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6320,10 +6314,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D210" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -6337,7 +6331,7 @@
         <v>826</v>
       </c>
       <c r="D211" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -6351,7 +6345,7 @@
         <v>826</v>
       </c>
       <c r="D212" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6365,7 +6359,7 @@
         <v>816</v>
       </c>
       <c r="D213" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -6379,7 +6373,7 @@
         <v>832</v>
       </c>
       <c r="D214" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6393,7 +6387,7 @@
         <v>829</v>
       </c>
       <c r="D215" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6407,7 +6401,7 @@
         <v>826</v>
       </c>
       <c r="D216" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6421,7 +6415,7 @@
         <v>816</v>
       </c>
       <c r="D217" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6435,7 +6429,7 @@
         <v>837</v>
       </c>
       <c r="D218" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6449,7 +6443,7 @@
         <v>816</v>
       </c>
       <c r="D219" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6460,10 +6454,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D220" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6477,7 +6471,7 @@
         <v>838</v>
       </c>
       <c r="D221" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6488,10 +6482,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D222" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6505,7 +6499,7 @@
         <v>832</v>
       </c>
       <c r="D223" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6516,10 +6510,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="D224" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6530,10 +6524,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D225" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6547,7 +6541,7 @@
         <v>826</v>
       </c>
       <c r="D226" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6561,7 +6555,7 @@
         <v>826</v>
       </c>
       <c r="D227" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6575,7 +6569,7 @@
         <v>833</v>
       </c>
       <c r="D228" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6586,10 +6580,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D229" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -6603,7 +6597,7 @@
         <v>844</v>
       </c>
       <c r="D230" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6617,7 +6611,7 @@
         <v>829</v>
       </c>
       <c r="D231" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6631,7 +6625,7 @@
         <v>826</v>
       </c>
       <c r="D232" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6642,10 +6636,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D233" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6656,10 +6650,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D234" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6673,7 +6667,7 @@
         <v>844</v>
       </c>
       <c r="D235" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6687,7 +6681,7 @@
         <v>818</v>
       </c>
       <c r="D236" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6698,10 +6692,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D237" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6712,10 +6706,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D238" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6729,7 +6723,7 @@
         <v>826</v>
       </c>
       <c r="D239" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6743,7 +6737,7 @@
         <v>819</v>
       </c>
       <c r="D240" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6757,7 +6751,7 @@
         <v>830</v>
       </c>
       <c r="D241" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6771,7 +6765,7 @@
         <v>826</v>
       </c>
       <c r="D242" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6782,10 +6776,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D243" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6799,7 +6793,7 @@
         <v>834</v>
       </c>
       <c r="D244" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6813,7 +6807,7 @@
         <v>827</v>
       </c>
       <c r="D245" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6827,7 +6821,7 @@
         <v>826</v>
       </c>
       <c r="D246" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6838,10 +6832,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D247" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6855,7 +6849,7 @@
         <v>826</v>
       </c>
       <c r="D248" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6869,7 +6863,7 @@
         <v>816</v>
       </c>
       <c r="D249" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6880,10 +6874,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D250" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6894,10 +6888,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D251" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6911,7 +6905,7 @@
         <v>815</v>
       </c>
       <c r="D252" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6922,10 +6916,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D253" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6939,7 +6933,7 @@
         <v>826</v>
       </c>
       <c r="D254" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6953,7 +6947,7 @@
         <v>826</v>
       </c>
       <c r="D255" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6964,10 +6958,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D256" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6981,7 +6975,7 @@
         <v>840</v>
       </c>
       <c r="D257" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6995,7 +6989,7 @@
         <v>826</v>
       </c>
       <c r="D258" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -7006,10 +7000,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D259" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -7023,7 +7017,7 @@
         <v>826</v>
       </c>
       <c r="D260" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -7037,7 +7031,7 @@
         <v>832</v>
       </c>
       <c r="D261" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -7048,10 +7042,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="D262" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -7065,7 +7059,7 @@
         <v>844</v>
       </c>
       <c r="D263" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -7079,7 +7073,7 @@
         <v>835</v>
       </c>
       <c r="D264" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -7093,7 +7087,7 @@
         <v>844</v>
       </c>
       <c r="D265" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -7107,7 +7101,7 @@
         <v>829</v>
       </c>
       <c r="D266" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -7121,7 +7115,7 @@
         <v>885</v>
       </c>
       <c r="D267" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -7135,7 +7129,7 @@
         <v>832</v>
       </c>
       <c r="D268" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -7146,10 +7140,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D269" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -7160,10 +7154,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D270" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -7177,7 +7171,7 @@
         <v>826</v>
       </c>
       <c r="D271" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -7191,7 +7185,7 @@
         <v>838</v>
       </c>
       <c r="D272" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -7205,7 +7199,7 @@
         <v>826</v>
       </c>
       <c r="D273" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -7219,7 +7213,7 @@
         <v>826</v>
       </c>
       <c r="D274" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -7233,7 +7227,7 @@
         <v>826</v>
       </c>
       <c r="D275" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7247,7 +7241,7 @@
         <v>844</v>
       </c>
       <c r="D276" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -7261,7 +7255,7 @@
         <v>838</v>
       </c>
       <c r="D277" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7275,7 +7269,7 @@
         <v>835</v>
       </c>
       <c r="D278" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -7289,7 +7283,7 @@
         <v>832</v>
       </c>
       <c r="D279" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -7300,10 +7294,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D280" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7317,7 +7311,7 @@
         <v>844</v>
       </c>
       <c r="D281" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7328,10 +7322,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D282" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -7342,10 +7336,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="D283" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7359,7 +7353,7 @@
         <v>817</v>
       </c>
       <c r="D284" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7370,10 +7364,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D285" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7387,7 +7381,7 @@
         <v>844</v>
       </c>
       <c r="D286" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7401,7 +7395,7 @@
         <v>829</v>
       </c>
       <c r="D287" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7415,7 +7409,7 @@
         <v>841</v>
       </c>
       <c r="D288" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -7429,7 +7423,7 @@
         <v>846</v>
       </c>
       <c r="D289" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -7443,7 +7437,7 @@
         <v>826</v>
       </c>
       <c r="D290" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7457,7 +7451,7 @@
         <v>836</v>
       </c>
       <c r="D291" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -7471,7 +7465,7 @@
         <v>886</v>
       </c>
       <c r="D292" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7485,7 +7479,7 @@
         <v>836</v>
       </c>
       <c r="D293" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -7499,7 +7493,7 @@
         <v>849</v>
       </c>
       <c r="D294" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -7510,10 +7504,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D295" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7527,7 +7521,7 @@
         <v>826</v>
       </c>
       <c r="D296" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -7541,7 +7535,7 @@
         <v>844</v>
       </c>
       <c r="D297" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -7555,7 +7549,7 @@
         <v>832</v>
       </c>
       <c r="D298" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7569,7 +7563,7 @@
         <v>844</v>
       </c>
       <c r="D299" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -7583,7 +7577,7 @@
         <v>887</v>
       </c>
       <c r="D300" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7597,7 +7591,7 @@
         <v>815</v>
       </c>
       <c r="D301" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7608,10 +7602,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D302" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7625,7 +7619,7 @@
         <v>826</v>
       </c>
       <c r="D303" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7636,10 +7630,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D304" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -7653,7 +7647,7 @@
         <v>844</v>
       </c>
       <c r="D305" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7667,7 +7661,7 @@
         <v>888</v>
       </c>
       <c r="D306" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -7678,10 +7672,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="D307" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7695,7 +7689,7 @@
         <v>826</v>
       </c>
       <c r="D308" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7709,7 +7703,7 @@
         <v>832</v>
       </c>
       <c r="D309" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -7723,7 +7717,7 @@
         <v>844</v>
       </c>
       <c r="D310" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7737,7 +7731,7 @@
         <v>826</v>
       </c>
       <c r="D311" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7751,7 +7745,7 @@
         <v>889</v>
       </c>
       <c r="D312" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7765,7 +7759,7 @@
         <v>832</v>
       </c>
       <c r="D313" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7779,7 +7773,7 @@
         <v>832</v>
       </c>
       <c r="D314" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7790,10 +7784,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D315" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7807,7 +7801,7 @@
         <v>832</v>
       </c>
       <c r="D316" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7821,7 +7815,7 @@
         <v>832</v>
       </c>
       <c r="D317" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7835,7 +7829,7 @@
         <v>836</v>
       </c>
       <c r="D318" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7849,7 +7843,7 @@
         <v>841</v>
       </c>
       <c r="D319" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7863,7 +7857,7 @@
         <v>817</v>
       </c>
       <c r="D320" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7877,7 +7871,7 @@
         <v>830</v>
       </c>
       <c r="D321" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7891,7 +7885,7 @@
         <v>832</v>
       </c>
       <c r="D322" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7905,7 +7899,7 @@
         <v>836</v>
       </c>
       <c r="D323" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7919,7 +7913,7 @@
         <v>826</v>
       </c>
       <c r="D324" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7933,7 +7927,7 @@
         <v>890</v>
       </c>
       <c r="D325" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7947,7 +7941,7 @@
         <v>826</v>
       </c>
       <c r="D326" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7958,10 +7952,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D327" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7972,10 +7966,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D328" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7989,7 +7983,7 @@
         <v>891</v>
       </c>
       <c r="D329" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -8003,7 +7997,7 @@
         <v>892</v>
       </c>
       <c r="D330" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -8017,7 +8011,7 @@
         <v>826</v>
       </c>
       <c r="D331" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -8031,7 +8025,7 @@
         <v>826</v>
       </c>
       <c r="D332" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -8042,10 +8036,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="D333" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -8059,7 +8053,7 @@
         <v>832</v>
       </c>
       <c r="D334" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -8073,7 +8067,7 @@
         <v>822</v>
       </c>
       <c r="D335" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -8087,7 +8081,7 @@
         <v>893</v>
       </c>
       <c r="D336" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -8101,7 +8095,7 @@
         <v>826</v>
       </c>
       <c r="D337" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -8115,7 +8109,7 @@
         <v>836</v>
       </c>
       <c r="D338" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -8129,7 +8123,7 @@
         <v>816</v>
       </c>
       <c r="D339" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -8143,7 +8137,7 @@
         <v>826</v>
       </c>
       <c r="D340" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -8157,7 +8151,7 @@
         <v>834</v>
       </c>
       <c r="D341" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -8171,7 +8165,7 @@
         <v>826</v>
       </c>
       <c r="D342" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -8182,10 +8176,10 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D343" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -8199,7 +8193,7 @@
         <v>835</v>
       </c>
       <c r="D344" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -8210,10 +8204,10 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D345" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -8224,10 +8218,10 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D346" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -8241,7 +8235,7 @@
         <v>826</v>
       </c>
       <c r="D347" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8255,7 +8249,7 @@
         <v>832</v>
       </c>
       <c r="D348" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -8269,7 +8263,7 @@
         <v>836</v>
       </c>
       <c r="D349" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8283,7 +8277,7 @@
         <v>832</v>
       </c>
       <c r="D350" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -8297,7 +8291,7 @@
         <v>832</v>
       </c>
       <c r="D351" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -8311,7 +8305,7 @@
         <v>827</v>
       </c>
       <c r="D352" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -8325,7 +8319,7 @@
         <v>838</v>
       </c>
       <c r="D353" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -8339,7 +8333,7 @@
         <v>826</v>
       </c>
       <c r="D354" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -8353,7 +8347,7 @@
         <v>894</v>
       </c>
       <c r="D355" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8364,10 +8358,10 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D356" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8381,7 +8375,7 @@
         <v>895</v>
       </c>
       <c r="D357" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8395,7 +8389,7 @@
         <v>826</v>
       </c>
       <c r="D358" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8409,7 +8403,7 @@
         <v>817</v>
       </c>
       <c r="D359" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8423,7 +8417,7 @@
         <v>836</v>
       </c>
       <c r="D360" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8437,7 +8431,7 @@
         <v>826</v>
       </c>
       <c r="D361" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8451,7 +8445,7 @@
         <v>826</v>
       </c>
       <c r="D362" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8465,7 +8459,7 @@
         <v>832</v>
       </c>
       <c r="D363" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -8479,7 +8473,7 @@
         <v>896</v>
       </c>
       <c r="D364" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8490,10 +8484,10 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D365" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8504,10 +8498,10 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="D366" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8518,10 +8512,10 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D367" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8532,10 +8526,10 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D368" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8546,10 +8540,10 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D369" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8560,10 +8554,10 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D370" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8574,10 +8568,10 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="D371" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8588,10 +8582,10 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D372" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8605,7 +8599,7 @@
         <v>889</v>
       </c>
       <c r="D373" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8619,7 +8613,7 @@
         <v>832</v>
       </c>
       <c r="D374" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8633,7 +8627,7 @@
         <v>826</v>
       </c>
       <c r="D375" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8644,10 +8638,10 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D376" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8661,7 +8655,7 @@
         <v>826</v>
       </c>
       <c r="D377" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -8672,10 +8666,10 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D378" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -8689,7 +8683,7 @@
         <v>834</v>
       </c>
       <c r="D379" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -8703,7 +8697,7 @@
         <v>826</v>
       </c>
       <c r="D380" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -8714,10 +8708,10 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D381" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -8731,7 +8725,7 @@
         <v>826</v>
       </c>
       <c r="D382" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8745,7 +8739,7 @@
         <v>832</v>
       </c>
       <c r="D383" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -8759,7 +8753,7 @@
         <v>832</v>
       </c>
       <c r="D384" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -8773,7 +8767,7 @@
         <v>826</v>
       </c>
       <c r="D385" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -8787,7 +8781,7 @@
         <v>832</v>
       </c>
       <c r="D386" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -8798,10 +8792,10 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D387" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -8812,10 +8806,10 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D388" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -8829,7 +8823,7 @@
         <v>844</v>
       </c>
       <c r="D389" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -8843,7 +8837,7 @@
         <v>826</v>
       </c>
       <c r="D390" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8857,7 +8851,7 @@
         <v>835</v>
       </c>
       <c r="D391" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -8868,10 +8862,10 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D392" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -8885,7 +8879,7 @@
         <v>844</v>
       </c>
       <c r="D393" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -8899,7 +8893,7 @@
         <v>832</v>
       </c>
       <c r="D394" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8913,7 +8907,7 @@
         <v>826</v>
       </c>
       <c r="D395" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -8924,10 +8918,10 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D396" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -8941,7 +8935,7 @@
         <v>832</v>
       </c>
       <c r="D397" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -8955,7 +8949,7 @@
         <v>826</v>
       </c>
       <c r="D398" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8966,10 +8960,10 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D399" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -8980,10 +8974,10 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D400" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -8994,10 +8988,10 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D401" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -9008,10 +9002,10 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D402" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -9025,7 +9019,7 @@
         <v>834</v>
       </c>
       <c r="D403" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -9039,7 +9033,7 @@
         <v>826</v>
       </c>
       <c r="D404" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -9053,7 +9047,7 @@
         <v>832</v>
       </c>
       <c r="D405" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -9067,7 +9061,7 @@
         <v>829</v>
       </c>
       <c r="D406" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -9078,10 +9072,10 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D407" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -9092,10 +9086,10 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="D408" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -9109,7 +9103,7 @@
         <v>826</v>
       </c>
       <c r="D409" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -9120,10 +9114,10 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D410" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -9137,7 +9131,7 @@
         <v>845</v>
       </c>
       <c r="D411" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -9151,7 +9145,7 @@
         <v>826</v>
       </c>
       <c r="D412" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -9162,10 +9156,10 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D413" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -9179,7 +9173,7 @@
         <v>826</v>
       </c>
       <c r="D414" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -9190,10 +9184,10 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D415" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -9207,7 +9201,7 @@
         <v>832</v>
       </c>
       <c r="D416" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -9218,10 +9212,10 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D417" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -9235,7 +9229,7 @@
         <v>845</v>
       </c>
       <c r="D418" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9249,7 +9243,7 @@
         <v>844</v>
       </c>
       <c r="D419" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -9260,10 +9254,10 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D420" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -9277,7 +9271,7 @@
         <v>832</v>
       </c>
       <c r="D421" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9291,7 +9285,7 @@
         <v>832</v>
       </c>
       <c r="D422" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -9302,10 +9296,10 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D423" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9319,7 +9313,7 @@
         <v>832</v>
       </c>
       <c r="D424" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -9333,7 +9327,7 @@
         <v>832</v>
       </c>
       <c r="D425" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -9347,7 +9341,7 @@
         <v>832</v>
       </c>
       <c r="D426" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9361,7 +9355,7 @@
         <v>816</v>
       </c>
       <c r="D427" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -9375,7 +9369,7 @@
         <v>832</v>
       </c>
       <c r="D428" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9386,10 +9380,10 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D429" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9403,7 +9397,7 @@
         <v>836</v>
       </c>
       <c r="D430" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9417,7 +9411,7 @@
         <v>845</v>
       </c>
       <c r="D431" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -9431,7 +9425,7 @@
         <v>845</v>
       </c>
       <c r="D432" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -9442,10 +9436,10 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D433" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9459,7 +9453,7 @@
         <v>832</v>
       </c>
       <c r="D434" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -9473,7 +9467,7 @@
         <v>832</v>
       </c>
       <c r="D435" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -9487,7 +9481,7 @@
         <v>836</v>
       </c>
       <c r="D436" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9501,7 +9495,7 @@
         <v>832</v>
       </c>
       <c r="D437" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -9512,10 +9506,10 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>875</v>
+        <v>896</v>
       </c>
       <c r="D438" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -9529,7 +9523,7 @@
         <v>844</v>
       </c>
       <c r="D439" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -9543,7 +9537,7 @@
         <v>834</v>
       </c>
       <c r="D440" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -9557,7 +9551,7 @@
         <v>836</v>
       </c>
       <c r="D441" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -9568,10 +9562,10 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D442" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -9585,7 +9579,7 @@
         <v>832</v>
       </c>
       <c r="D443" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -9599,7 +9593,7 @@
         <v>832</v>
       </c>
       <c r="D444" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -9613,7 +9607,7 @@
         <v>822</v>
       </c>
       <c r="D445" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -9627,7 +9621,7 @@
         <v>826</v>
       </c>
       <c r="D446" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9641,7 +9635,7 @@
         <v>836</v>
       </c>
       <c r="D447" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -9655,7 +9649,7 @@
         <v>845</v>
       </c>
       <c r="D448" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -9666,10 +9660,10 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D449" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -9683,7 +9677,7 @@
         <v>832</v>
       </c>
       <c r="D450" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -9697,7 +9691,7 @@
         <v>844</v>
       </c>
       <c r="D451" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -9711,7 +9705,7 @@
         <v>832</v>
       </c>
       <c r="D452" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9725,7 +9719,7 @@
         <v>832</v>
       </c>
       <c r="D453" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -9736,10 +9730,10 @@
         <v>454</v>
       </c>
       <c r="C454" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D454" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9753,7 +9747,7 @@
         <v>833</v>
       </c>
       <c r="D455" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -9767,7 +9761,7 @@
         <v>844</v>
       </c>
       <c r="D456" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -9781,7 +9775,7 @@
         <v>844</v>
       </c>
       <c r="D457" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -9792,10 +9786,10 @@
         <v>458</v>
       </c>
       <c r="C458" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D458" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -9809,7 +9803,7 @@
         <v>836</v>
       </c>
       <c r="D459" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -9823,7 +9817,7 @@
         <v>832</v>
       </c>
       <c r="D460" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -9837,7 +9831,7 @@
         <v>826</v>
       </c>
       <c r="D461" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -9851,7 +9845,7 @@
         <v>832</v>
       </c>
       <c r="D462" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9865,7 +9859,7 @@
         <v>826</v>
       </c>
       <c r="D463" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -9879,7 +9873,7 @@
         <v>832</v>
       </c>
       <c r="D464" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -9893,7 +9887,7 @@
         <v>832</v>
       </c>
       <c r="D465" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -9907,7 +9901,7 @@
         <v>826</v>
       </c>
       <c r="D466" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -9921,7 +9915,7 @@
         <v>832</v>
       </c>
       <c r="D467" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -9932,10 +9926,10 @@
         <v>468</v>
       </c>
       <c r="C468" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D468" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -9949,7 +9943,7 @@
         <v>832</v>
       </c>
       <c r="D469" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -9963,7 +9957,7 @@
         <v>844</v>
       </c>
       <c r="D470" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -9974,10 +9968,10 @@
         <v>471</v>
       </c>
       <c r="C471" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D471" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -9991,7 +9985,7 @@
         <v>832</v>
       </c>
       <c r="D472" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -10005,7 +9999,7 @@
         <v>832</v>
       </c>
       <c r="D473" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -10019,7 +10013,7 @@
         <v>844</v>
       </c>
       <c r="D474" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -10033,7 +10027,7 @@
         <v>836</v>
       </c>
       <c r="D475" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -10047,7 +10041,7 @@
         <v>847</v>
       </c>
       <c r="D476" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -10058,10 +10052,10 @@
         <v>477</v>
       </c>
       <c r="C477" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D477" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -10075,7 +10069,7 @@
         <v>832</v>
       </c>
       <c r="D478" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -10086,10 +10080,10 @@
         <v>479</v>
       </c>
       <c r="C479" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="D479" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -10103,7 +10097,7 @@
         <v>832</v>
       </c>
       <c r="D480" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -10117,7 +10111,7 @@
         <v>829</v>
       </c>
       <c r="D481" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -10131,7 +10125,7 @@
         <v>844</v>
       </c>
       <c r="D482" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -10142,10 +10136,10 @@
         <v>483</v>
       </c>
       <c r="C483" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="D483" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -10156,10 +10150,10 @@
         <v>484</v>
       </c>
       <c r="C484" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D484" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -10170,10 +10164,10 @@
         <v>485</v>
       </c>
       <c r="C485" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D485" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -10187,7 +10181,7 @@
         <v>832</v>
       </c>
       <c r="D486" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -10201,7 +10195,7 @@
         <v>834</v>
       </c>
       <c r="D487" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -10215,7 +10209,7 @@
         <v>832</v>
       </c>
       <c r="D488" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -10229,7 +10223,7 @@
         <v>832</v>
       </c>
       <c r="D489" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -10243,7 +10237,7 @@
         <v>832</v>
       </c>
       <c r="D490" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -10254,10 +10248,10 @@
         <v>491</v>
       </c>
       <c r="C491" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D491" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -10271,7 +10265,7 @@
         <v>832</v>
       </c>
       <c r="D492" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -10285,7 +10279,7 @@
         <v>818</v>
       </c>
       <c r="D493" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -10299,7 +10293,7 @@
         <v>836</v>
       </c>
       <c r="D494" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -10310,10 +10304,10 @@
         <v>495</v>
       </c>
       <c r="C495" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D495" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -10327,7 +10321,7 @@
         <v>832</v>
       </c>
       <c r="D496" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -10341,7 +10335,7 @@
         <v>836</v>
       </c>
       <c r="D497" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -10355,7 +10349,7 @@
         <v>832</v>
       </c>
       <c r="D498" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -10366,10 +10360,10 @@
         <v>499</v>
       </c>
       <c r="C499" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="D499" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -10383,7 +10377,7 @@
         <v>832</v>
       </c>
       <c r="D500" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -10397,7 +10391,7 @@
         <v>832</v>
       </c>
       <c r="D501" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10411,7 +10405,7 @@
         <v>832</v>
       </c>
       <c r="D502" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -10425,7 +10419,7 @@
         <v>832</v>
       </c>
       <c r="D503" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10439,7 +10433,7 @@
         <v>836</v>
       </c>
       <c r="D504" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -10453,7 +10447,7 @@
         <v>832</v>
       </c>
       <c r="D505" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10467,7 +10461,7 @@
         <v>822</v>
       </c>
       <c r="D506" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -10481,7 +10475,7 @@
         <v>832</v>
       </c>
       <c r="D507" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10495,7 +10489,7 @@
         <v>844</v>
       </c>
       <c r="D508" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10509,7 +10503,7 @@
         <v>833</v>
       </c>
       <c r="D509" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10523,7 +10517,7 @@
         <v>832</v>
       </c>
       <c r="D510" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10537,7 +10531,7 @@
         <v>832</v>
       </c>
       <c r="D511" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10548,10 +10542,10 @@
         <v>511</v>
       </c>
       <c r="C512" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="D512" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10565,7 +10559,7 @@
         <v>832</v>
       </c>
       <c r="D513" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10579,7 +10573,7 @@
         <v>832</v>
       </c>
       <c r="D514" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10593,7 +10587,7 @@
         <v>832</v>
       </c>
       <c r="D515" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -10607,7 +10601,7 @@
         <v>836</v>
       </c>
       <c r="D516" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10621,7 +10615,7 @@
         <v>826</v>
       </c>
       <c r="D517" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10635,7 +10629,7 @@
         <v>822</v>
       </c>
       <c r="D518" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10646,10 +10640,10 @@
         <v>518</v>
       </c>
       <c r="C519" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D519" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10660,10 +10654,10 @@
         <v>519</v>
       </c>
       <c r="C520" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D520" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10677,7 +10671,7 @@
         <v>834</v>
       </c>
       <c r="D521" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10691,7 +10685,7 @@
         <v>827</v>
       </c>
       <c r="D522" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10705,7 +10699,7 @@
         <v>836</v>
       </c>
       <c r="D523" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10719,7 +10713,7 @@
         <v>832</v>
       </c>
       <c r="D524" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10733,7 +10727,7 @@
         <v>826</v>
       </c>
       <c r="D525" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10747,7 +10741,7 @@
         <v>832</v>
       </c>
       <c r="D526" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10761,7 +10755,7 @@
         <v>832</v>
       </c>
       <c r="D527" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10775,7 +10769,7 @@
         <v>832</v>
       </c>
       <c r="D528" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10789,7 +10783,7 @@
         <v>832</v>
       </c>
       <c r="D529" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -10800,10 +10794,10 @@
         <v>529</v>
       </c>
       <c r="C530" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D530" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -10817,7 +10811,7 @@
         <v>836</v>
       </c>
       <c r="D531" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10831,7 +10825,7 @@
         <v>832</v>
       </c>
       <c r="D532" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10845,7 +10839,7 @@
         <v>832</v>
       </c>
       <c r="D533" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10856,10 +10850,10 @@
         <v>533</v>
       </c>
       <c r="C534" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D534" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -10873,7 +10867,7 @@
         <v>826</v>
       </c>
       <c r="D535" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10884,10 +10878,10 @@
         <v>535</v>
       </c>
       <c r="C536" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D536" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -10901,7 +10895,7 @@
         <v>849</v>
       </c>
       <c r="D537" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10912,10 +10906,10 @@
         <v>537</v>
       </c>
       <c r="C538" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D538" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10929,7 +10923,7 @@
         <v>844</v>
       </c>
       <c r="D539" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10943,7 +10937,7 @@
         <v>834</v>
       </c>
       <c r="D540" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -10954,10 +10948,10 @@
         <v>540</v>
       </c>
       <c r="C541" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D541" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10968,10 +10962,10 @@
         <v>541</v>
       </c>
       <c r="C542" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D542" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -10985,7 +10979,7 @@
         <v>826</v>
       </c>
       <c r="D543" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -10999,7 +10993,7 @@
         <v>844</v>
       </c>
       <c r="D544" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -11010,10 +11004,10 @@
         <v>544</v>
       </c>
       <c r="C545" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D545" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -11024,10 +11018,10 @@
         <v>545</v>
       </c>
       <c r="C546" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D546" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -11038,10 +11032,10 @@
         <v>546</v>
       </c>
       <c r="C547" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D547" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -11052,10 +11046,10 @@
         <v>547</v>
       </c>
       <c r="C548" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D548" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -11069,7 +11063,7 @@
         <v>834</v>
       </c>
       <c r="D549" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -11083,7 +11077,7 @@
         <v>836</v>
       </c>
       <c r="D550" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -11097,7 +11091,7 @@
         <v>826</v>
       </c>
       <c r="D551" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -11108,10 +11102,10 @@
         <v>551</v>
       </c>
       <c r="C552" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D552" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -11125,7 +11119,7 @@
         <v>832</v>
       </c>
       <c r="D553" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -11139,7 +11133,7 @@
         <v>826</v>
       </c>
       <c r="D554" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -11153,7 +11147,7 @@
         <v>836</v>
       </c>
       <c r="D555" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -11167,7 +11161,7 @@
         <v>826</v>
       </c>
       <c r="D556" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -11178,10 +11172,10 @@
         <v>556</v>
       </c>
       <c r="C557" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D557" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -11195,7 +11189,7 @@
         <v>817</v>
       </c>
       <c r="D558" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -11209,7 +11203,7 @@
         <v>832</v>
       </c>
       <c r="D559" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -11223,7 +11217,7 @@
         <v>832</v>
       </c>
       <c r="D560" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -11237,7 +11231,7 @@
         <v>849</v>
       </c>
       <c r="D561" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -11251,7 +11245,7 @@
         <v>836</v>
       </c>
       <c r="D562" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -11265,7 +11259,7 @@
         <v>826</v>
       </c>
       <c r="D563" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11276,10 +11270,10 @@
         <v>563</v>
       </c>
       <c r="C564" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D564" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -11293,7 +11287,7 @@
         <v>826</v>
       </c>
       <c r="D565" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11304,10 +11298,10 @@
         <v>565</v>
       </c>
       <c r="C566" t="s">
-        <v>835</v>
+        <v>851</v>
       </c>
       <c r="D566" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11321,7 +11315,7 @@
         <v>826</v>
       </c>
       <c r="D567" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -11335,7 +11329,7 @@
         <v>887</v>
       </c>
       <c r="D568" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -11349,7 +11343,7 @@
         <v>826</v>
       </c>
       <c r="D569" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -11363,7 +11357,7 @@
         <v>894</v>
       </c>
       <c r="D570" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11377,7 +11371,7 @@
         <v>844</v>
       </c>
       <c r="D571" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11391,7 +11385,7 @@
         <v>826</v>
       </c>
       <c r="D572" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -11402,10 +11396,10 @@
         <v>572</v>
       </c>
       <c r="C573" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D573" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -11416,10 +11410,10 @@
         <v>573</v>
       </c>
       <c r="C574" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D574" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11433,7 +11427,7 @@
         <v>830</v>
       </c>
       <c r="D575" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -11444,10 +11438,10 @@
         <v>575</v>
       </c>
       <c r="C576" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D576" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -11458,10 +11452,10 @@
         <v>576</v>
       </c>
       <c r="C577" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D577" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11472,10 +11466,10 @@
         <v>577</v>
       </c>
       <c r="C578" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D578" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11489,7 +11483,7 @@
         <v>832</v>
       </c>
       <c r="D579" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -11503,7 +11497,7 @@
         <v>816</v>
       </c>
       <c r="D580" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -11517,7 +11511,7 @@
         <v>826</v>
       </c>
       <c r="D581" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -11531,7 +11525,7 @@
         <v>822</v>
       </c>
       <c r="D582" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -11545,7 +11539,7 @@
         <v>826</v>
       </c>
       <c r="D583" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -11556,10 +11550,10 @@
         <v>583</v>
       </c>
       <c r="C584" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D584" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -11573,7 +11567,7 @@
         <v>826</v>
       </c>
       <c r="D585" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -11587,7 +11581,7 @@
         <v>826</v>
       </c>
       <c r="D586" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -11598,10 +11592,10 @@
         <v>586</v>
       </c>
       <c r="C587" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="D587" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -11615,7 +11609,7 @@
         <v>836</v>
       </c>
       <c r="D588" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -11626,10 +11620,10 @@
         <v>588</v>
       </c>
       <c r="C589" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D589" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -11640,10 +11634,10 @@
         <v>589</v>
       </c>
       <c r="C590" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D590" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -11657,7 +11651,7 @@
         <v>826</v>
       </c>
       <c r="D591" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -11668,10 +11662,10 @@
         <v>591</v>
       </c>
       <c r="C592" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D592" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -11685,7 +11679,7 @@
         <v>841</v>
       </c>
       <c r="D593" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -11699,7 +11693,7 @@
         <v>826</v>
       </c>
       <c r="D594" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -11713,7 +11707,7 @@
         <v>832</v>
       </c>
       <c r="D595" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -11724,10 +11718,10 @@
         <v>595</v>
       </c>
       <c r="C596" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D596" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11741,7 +11735,7 @@
         <v>826</v>
       </c>
       <c r="D597" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -11755,7 +11749,7 @@
         <v>888</v>
       </c>
       <c r="D598" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -11769,7 +11763,7 @@
         <v>826</v>
       </c>
       <c r="D599" t="s">
-        <v>976</v>
+        <v>945</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -11783,7 +11777,7 @@
         <v>840</v>
       </c>
       <c r="D600" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -11794,10 +11788,10 @@
         <v>600</v>
       </c>
       <c r="C601" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D601" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -11811,7 +11805,7 @@
         <v>826</v>
       </c>
       <c r="D602" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -11822,10 +11816,10 @@
         <v>602</v>
       </c>
       <c r="C603" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D603" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -11836,10 +11830,10 @@
         <v>603</v>
       </c>
       <c r="C604" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D604" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -11853,7 +11847,7 @@
         <v>826</v>
       </c>
       <c r="D605" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -11864,10 +11858,10 @@
         <v>605</v>
       </c>
       <c r="C606" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D606" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -11878,10 +11872,10 @@
         <v>606</v>
       </c>
       <c r="C607" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D607" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -11892,10 +11886,10 @@
         <v>607</v>
       </c>
       <c r="C608" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D608" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -11906,10 +11900,10 @@
         <v>608</v>
       </c>
       <c r="C609" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D609" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -11923,7 +11917,7 @@
         <v>827</v>
       </c>
       <c r="D610" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -11937,7 +11931,7 @@
         <v>885</v>
       </c>
       <c r="D611" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -11948,10 +11942,10 @@
         <v>610</v>
       </c>
       <c r="C612" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D612" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -11965,7 +11959,7 @@
         <v>826</v>
       </c>
       <c r="D613" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -11976,10 +11970,10 @@
         <v>612</v>
       </c>
       <c r="C614" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D614" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -11993,7 +11987,7 @@
         <v>836</v>
       </c>
       <c r="D615" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -12004,10 +11998,10 @@
         <v>614</v>
       </c>
       <c r="C616" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="D616" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -12021,7 +12015,7 @@
         <v>826</v>
       </c>
       <c r="D617" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -12035,7 +12029,7 @@
         <v>816</v>
       </c>
       <c r="D618" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -12049,7 +12043,7 @@
         <v>833</v>
       </c>
       <c r="D619" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -12060,10 +12054,10 @@
         <v>618</v>
       </c>
       <c r="C620" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D620" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -12077,7 +12071,7 @@
         <v>829</v>
       </c>
       <c r="D621" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -12088,10 +12082,10 @@
         <v>620</v>
       </c>
       <c r="C622" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D622" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -12102,10 +12096,10 @@
         <v>621</v>
       </c>
       <c r="C623" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D623" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -12119,7 +12113,7 @@
         <v>836</v>
       </c>
       <c r="D624" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -12133,7 +12127,7 @@
         <v>826</v>
       </c>
       <c r="D625" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -12144,10 +12138,10 @@
         <v>624</v>
       </c>
       <c r="C626" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D626" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -12161,7 +12155,7 @@
         <v>826</v>
       </c>
       <c r="D627" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -12175,7 +12169,7 @@
         <v>818</v>
       </c>
       <c r="D628" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -12189,7 +12183,7 @@
         <v>826</v>
       </c>
       <c r="D629" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -12203,7 +12197,7 @@
         <v>822</v>
       </c>
       <c r="D630" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -12214,10 +12208,10 @@
         <v>629</v>
       </c>
       <c r="C631" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D631" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -12231,7 +12225,7 @@
         <v>832</v>
       </c>
       <c r="D632" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -12242,10 +12236,10 @@
         <v>631</v>
       </c>
       <c r="C633" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D633" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -12259,7 +12253,7 @@
         <v>826</v>
       </c>
       <c r="D634" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -12273,7 +12267,7 @@
         <v>827</v>
       </c>
       <c r="D635" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -12284,10 +12278,10 @@
         <v>634</v>
       </c>
       <c r="C636" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D636" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -12301,7 +12295,7 @@
         <v>839</v>
       </c>
       <c r="D637" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -12312,10 +12306,10 @@
         <v>636</v>
       </c>
       <c r="C638" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D638" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -12329,7 +12323,7 @@
         <v>832</v>
       </c>
       <c r="D639" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -12340,10 +12334,10 @@
         <v>638</v>
       </c>
       <c r="C640" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D640" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="641" spans="1:4">
@@ -12357,7 +12351,7 @@
         <v>832</v>
       </c>
       <c r="D641" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -12371,7 +12365,7 @@
         <v>826</v>
       </c>
       <c r="D642" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -12385,7 +12379,7 @@
         <v>826</v>
       </c>
       <c r="D643" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -12399,7 +12393,7 @@
         <v>822</v>
       </c>
       <c r="D644" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -12413,7 +12407,7 @@
         <v>833</v>
       </c>
       <c r="D645" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -12427,7 +12421,7 @@
         <v>839</v>
       </c>
       <c r="D646" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="647" spans="1:4">
@@ -12438,10 +12432,10 @@
         <v>645</v>
       </c>
       <c r="C647" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D647" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -12455,7 +12449,7 @@
         <v>826</v>
       </c>
       <c r="D648" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="649" spans="1:4">
@@ -12466,10 +12460,10 @@
         <v>647</v>
       </c>
       <c r="C649" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D649" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -12483,7 +12477,7 @@
         <v>815</v>
       </c>
       <c r="D650" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -12494,10 +12488,10 @@
         <v>649</v>
       </c>
       <c r="C651" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D651" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -12511,7 +12505,7 @@
         <v>826</v>
       </c>
       <c r="D652" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -12525,7 +12519,7 @@
         <v>826</v>
       </c>
       <c r="D653" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -12539,7 +12533,7 @@
         <v>832</v>
       </c>
       <c r="D654" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -12553,7 +12547,7 @@
         <v>832</v>
       </c>
       <c r="D655" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -12564,10 +12558,10 @@
         <v>654</v>
       </c>
       <c r="C656" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D656" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="657" spans="1:4">
@@ -12578,10 +12572,10 @@
         <v>655</v>
       </c>
       <c r="C657" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D657" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -12595,7 +12589,7 @@
         <v>836</v>
       </c>
       <c r="D658" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -12609,7 +12603,7 @@
         <v>826</v>
       </c>
       <c r="D659" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="660" spans="1:4">
@@ -12623,7 +12617,7 @@
         <v>819</v>
       </c>
       <c r="D660" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -12637,7 +12631,7 @@
         <v>822</v>
       </c>
       <c r="D661" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -12648,10 +12642,10 @@
         <v>660</v>
       </c>
       <c r="C662" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="D662" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -12662,10 +12656,10 @@
         <v>661</v>
       </c>
       <c r="C663" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D663" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -12676,10 +12670,10 @@
         <v>662</v>
       </c>
       <c r="C664" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D664" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -12693,7 +12687,7 @@
         <v>838</v>
       </c>
       <c r="D665" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -12707,7 +12701,7 @@
         <v>826</v>
       </c>
       <c r="D666" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -12721,7 +12715,7 @@
         <v>822</v>
       </c>
       <c r="D667" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -12735,7 +12729,7 @@
         <v>838</v>
       </c>
       <c r="D668" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -12749,7 +12743,7 @@
         <v>833</v>
       </c>
       <c r="D669" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -12760,10 +12754,10 @@
         <v>668</v>
       </c>
       <c r="C670" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D670" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -12777,7 +12771,7 @@
         <v>837</v>
       </c>
       <c r="D671" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -12788,10 +12782,10 @@
         <v>670</v>
       </c>
       <c r="C672" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D672" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -12805,7 +12799,7 @@
         <v>832</v>
       </c>
       <c r="D673" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -12819,7 +12813,7 @@
         <v>826</v>
       </c>
       <c r="D674" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -12830,10 +12824,10 @@
         <v>673</v>
       </c>
       <c r="C675" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="D675" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="676" spans="1:4">
@@ -12847,7 +12841,7 @@
         <v>829</v>
       </c>
       <c r="D676" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="677" spans="1:4">
@@ -12858,10 +12852,10 @@
         <v>675</v>
       </c>
       <c r="C677" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D677" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12872,10 +12866,10 @@
         <v>676</v>
       </c>
       <c r="C678" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D678" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -12889,7 +12883,7 @@
         <v>893</v>
       </c>
       <c r="D679" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -12903,7 +12897,7 @@
         <v>826</v>
       </c>
       <c r="D680" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -12917,7 +12911,7 @@
         <v>832</v>
       </c>
       <c r="D681" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -12928,10 +12922,10 @@
         <v>680</v>
       </c>
       <c r="C682" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D682" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -12942,10 +12936,10 @@
         <v>681</v>
       </c>
       <c r="C683" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D683" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -12956,10 +12950,10 @@
         <v>682</v>
       </c>
       <c r="C684" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D684" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -12970,10 +12964,10 @@
         <v>683</v>
       </c>
       <c r="C685" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D685" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -12984,10 +12978,10 @@
         <v>684</v>
       </c>
       <c r="C686" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D686" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -13001,7 +12995,7 @@
         <v>844</v>
       </c>
       <c r="D687" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -13012,10 +13006,10 @@
         <v>686</v>
       </c>
       <c r="C688" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D688" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -13029,7 +13023,7 @@
         <v>832</v>
       </c>
       <c r="D689" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -13043,7 +13037,7 @@
         <v>819</v>
       </c>
       <c r="D690" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -13057,7 +13051,7 @@
         <v>827</v>
       </c>
       <c r="D691" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -13071,7 +13065,7 @@
         <v>826</v>
       </c>
       <c r="D692" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -13082,10 +13076,10 @@
         <v>691</v>
       </c>
       <c r="C693" t="s">
-        <v>850</v>
+        <v>819</v>
       </c>
       <c r="D693" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -13096,10 +13090,10 @@
         <v>692</v>
       </c>
       <c r="C694" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D694" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -13110,10 +13104,10 @@
         <v>693</v>
       </c>
       <c r="C695" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D695" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -13124,10 +13118,10 @@
         <v>694</v>
       </c>
       <c r="C696" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D696" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -13141,7 +13135,7 @@
         <v>832</v>
       </c>
       <c r="D697" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -13155,7 +13149,7 @@
         <v>844</v>
       </c>
       <c r="D698" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -13169,7 +13163,7 @@
         <v>834</v>
       </c>
       <c r="D699" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -13183,7 +13177,7 @@
         <v>834</v>
       </c>
       <c r="D700" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -13197,7 +13191,7 @@
         <v>816</v>
       </c>
       <c r="D701" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -13211,7 +13205,7 @@
         <v>826</v>
       </c>
       <c r="D702" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -13222,10 +13216,10 @@
         <v>701</v>
       </c>
       <c r="C703" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D703" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -13239,7 +13233,7 @@
         <v>826</v>
       </c>
       <c r="D704" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -13253,7 +13247,7 @@
         <v>841</v>
       </c>
       <c r="D705" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -13267,7 +13261,7 @@
         <v>844</v>
       </c>
       <c r="D706" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -13278,10 +13272,10 @@
         <v>705</v>
       </c>
       <c r="C707" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D707" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -13295,7 +13289,7 @@
         <v>829</v>
       </c>
       <c r="D708" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -13309,7 +13303,7 @@
         <v>817</v>
       </c>
       <c r="D709" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -13323,7 +13317,7 @@
         <v>893</v>
       </c>
       <c r="D710" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -13337,7 +13331,7 @@
         <v>826</v>
       </c>
       <c r="D711" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -13351,7 +13345,7 @@
         <v>826</v>
       </c>
       <c r="D712" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -13365,7 +13359,7 @@
         <v>819</v>
       </c>
       <c r="D713" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -13379,7 +13373,7 @@
         <v>816</v>
       </c>
       <c r="D714" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -13393,7 +13387,7 @@
         <v>827</v>
       </c>
       <c r="D715" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -13404,10 +13398,10 @@
         <v>714</v>
       </c>
       <c r="C716" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D716" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -13421,7 +13415,7 @@
         <v>826</v>
       </c>
       <c r="D717" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -13432,10 +13426,10 @@
         <v>716</v>
       </c>
       <c r="C718" t="s">
-        <v>925</v>
+        <v>826</v>
       </c>
       <c r="D718" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -13449,7 +13443,7 @@
         <v>834</v>
       </c>
       <c r="D719" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -13463,7 +13457,7 @@
         <v>832</v>
       </c>
       <c r="D720" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -13474,10 +13468,10 @@
         <v>719</v>
       </c>
       <c r="C721" t="s">
-        <v>893</v>
+        <v>875</v>
       </c>
       <c r="D721" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -13491,7 +13485,7 @@
         <v>826</v>
       </c>
       <c r="D722" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -13505,7 +13499,7 @@
         <v>826</v>
       </c>
       <c r="D723" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -13519,7 +13513,7 @@
         <v>829</v>
       </c>
       <c r="D724" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -13533,7 +13527,7 @@
         <v>826</v>
       </c>
       <c r="D725" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -13544,10 +13538,10 @@
         <v>724</v>
       </c>
       <c r="C726" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D726" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -13558,10 +13552,10 @@
         <v>725</v>
       </c>
       <c r="C727" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D727" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -13575,7 +13569,7 @@
         <v>826</v>
       </c>
       <c r="D728" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -13586,10 +13580,10 @@
         <v>727</v>
       </c>
       <c r="C729" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D729" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -13603,7 +13597,7 @@
         <v>826</v>
       </c>
       <c r="D730" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -13617,7 +13611,7 @@
         <v>834</v>
       </c>
       <c r="D731" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -13645,7 +13639,7 @@
         <v>836</v>
       </c>
       <c r="D733" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -13659,7 +13653,7 @@
         <v>834</v>
       </c>
       <c r="D734" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -13670,10 +13664,10 @@
         <v>733</v>
       </c>
       <c r="C735" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D735" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -13687,7 +13681,7 @@
         <v>844</v>
       </c>
       <c r="D736" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -13701,7 +13695,7 @@
         <v>836</v>
       </c>
       <c r="D737" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -13715,7 +13709,7 @@
         <v>895</v>
       </c>
       <c r="D738" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -13729,7 +13723,7 @@
         <v>826</v>
       </c>
       <c r="D739" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -13740,10 +13734,10 @@
         <v>737</v>
       </c>
       <c r="C740" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D740" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -13757,7 +13751,7 @@
         <v>832</v>
       </c>
       <c r="D741" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -13768,10 +13762,10 @@
         <v>739</v>
       </c>
       <c r="C742" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="D742" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -13785,7 +13779,7 @@
         <v>819</v>
       </c>
       <c r="D743" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -13799,7 +13793,7 @@
         <v>844</v>
       </c>
       <c r="D744" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -13810,10 +13804,10 @@
         <v>742</v>
       </c>
       <c r="C745" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D745" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -13824,10 +13818,10 @@
         <v>743</v>
       </c>
       <c r="C746" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D746" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -13841,7 +13835,7 @@
         <v>834</v>
       </c>
       <c r="D747" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -13855,7 +13849,7 @@
         <v>834</v>
       </c>
       <c r="D748" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -13869,7 +13863,7 @@
         <v>894</v>
       </c>
       <c r="D749" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -13883,7 +13877,7 @@
         <v>844</v>
       </c>
       <c r="D750" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -13894,10 +13888,10 @@
         <v>748</v>
       </c>
       <c r="C751" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D751" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -13908,10 +13902,10 @@
         <v>749</v>
       </c>
       <c r="C752" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D752" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -13922,10 +13916,10 @@
         <v>750</v>
       </c>
       <c r="C753" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D753" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -13936,10 +13930,10 @@
         <v>751</v>
       </c>
       <c r="C754" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D754" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -13953,7 +13947,7 @@
         <v>816</v>
       </c>
       <c r="D755" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -13967,7 +13961,7 @@
         <v>836</v>
       </c>
       <c r="D756" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -13981,7 +13975,7 @@
         <v>832</v>
       </c>
       <c r="D757" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -13992,10 +13986,10 @@
         <v>371</v>
       </c>
       <c r="C758" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D758" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -14009,7 +14003,7 @@
         <v>826</v>
       </c>
       <c r="D759" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -14023,7 +14017,7 @@
         <v>836</v>
       </c>
       <c r="D760" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -14034,10 +14028,10 @@
         <v>757</v>
       </c>
       <c r="C761" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D761" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -14051,7 +14045,7 @@
         <v>849</v>
       </c>
       <c r="D762" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -14065,7 +14059,7 @@
         <v>844</v>
       </c>
       <c r="D763" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -14079,7 +14073,7 @@
         <v>826</v>
       </c>
       <c r="D764" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -14093,7 +14087,7 @@
         <v>835</v>
       </c>
       <c r="D765" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -14107,7 +14101,7 @@
         <v>832</v>
       </c>
       <c r="D766" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -14118,10 +14112,10 @@
         <v>762</v>
       </c>
       <c r="C767" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D767" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -14135,7 +14129,7 @@
         <v>834</v>
       </c>
       <c r="D768" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -14149,7 +14143,7 @@
         <v>844</v>
       </c>
       <c r="D769" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -14160,10 +14154,10 @@
         <v>765</v>
       </c>
       <c r="C770" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D770" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -14174,10 +14168,10 @@
         <v>766</v>
       </c>
       <c r="C771" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D771" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -14188,10 +14182,10 @@
         <v>767</v>
       </c>
       <c r="C772" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D772" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -14205,7 +14199,7 @@
         <v>832</v>
       </c>
       <c r="D773" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -14219,7 +14213,7 @@
         <v>849</v>
       </c>
       <c r="D774" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -14233,7 +14227,7 @@
         <v>896</v>
       </c>
       <c r="D775" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -14247,7 +14241,7 @@
         <v>816</v>
       </c>
       <c r="D776" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -14261,7 +14255,7 @@
         <v>822</v>
       </c>
       <c r="D777" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="778" spans="1:4">
@@ -14272,10 +14266,10 @@
         <v>773</v>
       </c>
       <c r="C778" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="D778" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -14286,10 +14280,10 @@
         <v>774</v>
       </c>
       <c r="C779" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D779" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -14300,10 +14294,10 @@
         <v>775</v>
       </c>
       <c r="C780" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D780" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -14317,7 +14311,7 @@
         <v>832</v>
       </c>
       <c r="D781" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14328,10 +14322,10 @@
         <v>777</v>
       </c>
       <c r="C782" t="s">
-        <v>884</v>
+        <v>851</v>
       </c>
       <c r="D782" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -14342,10 +14336,10 @@
         <v>778</v>
       </c>
       <c r="C783" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D783" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -14356,10 +14350,10 @@
         <v>779</v>
       </c>
       <c r="C784" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D784" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14373,7 +14367,7 @@
         <v>832</v>
       </c>
       <c r="D785" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -14384,10 +14378,10 @@
         <v>780</v>
       </c>
       <c r="C786" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D786" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -14398,10 +14392,10 @@
         <v>781</v>
       </c>
       <c r="C787" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D787" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -14415,7 +14409,7 @@
         <v>826</v>
       </c>
       <c r="D788" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -14426,10 +14420,10 @@
         <v>783</v>
       </c>
       <c r="C789" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D789" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -14443,7 +14437,7 @@
         <v>826</v>
       </c>
       <c r="D790" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -14457,7 +14451,7 @@
         <v>829</v>
       </c>
       <c r="D791" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="792" spans="1:4">
@@ -14468,10 +14462,10 @@
         <v>786</v>
       </c>
       <c r="C792" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D792" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="793" spans="1:4">
@@ -14482,10 +14476,10 @@
         <v>787</v>
       </c>
       <c r="C793" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D793" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="794" spans="1:4">
@@ -14499,7 +14493,7 @@
         <v>832</v>
       </c>
       <c r="D794" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -14513,7 +14507,7 @@
         <v>893</v>
       </c>
       <c r="D795" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -14527,7 +14521,7 @@
         <v>826</v>
       </c>
       <c r="D796" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="797" spans="1:4">
@@ -14541,7 +14535,7 @@
         <v>826</v>
       </c>
       <c r="D797" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="798" spans="1:4">
@@ -14555,7 +14549,7 @@
         <v>834</v>
       </c>
       <c r="D798" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -14569,7 +14563,7 @@
         <v>826</v>
       </c>
       <c r="D799" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="800" spans="1:4">
@@ -14583,7 +14577,7 @@
         <v>844</v>
       </c>
       <c r="D800" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="801" spans="1:4">
@@ -14597,7 +14591,7 @@
         <v>832</v>
       </c>
       <c r="D801" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -14608,10 +14602,10 @@
         <v>796</v>
       </c>
       <c r="C802" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="D802" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -14625,7 +14619,7 @@
         <v>836</v>
       </c>
       <c r="D803" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -14639,7 +14633,7 @@
         <v>834</v>
       </c>
       <c r="D804" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -14653,7 +14647,7 @@
         <v>836</v>
       </c>
       <c r="D805" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="806" spans="1:4">
@@ -14667,7 +14661,7 @@
         <v>836</v>
       </c>
       <c r="D806" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="807" spans="1:4">
@@ -14681,7 +14675,7 @@
         <v>826</v>
       </c>
       <c r="D807" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -14692,10 +14686,10 @@
         <v>802</v>
       </c>
       <c r="C808" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D808" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -14709,7 +14703,7 @@
         <v>849</v>
       </c>
       <c r="D809" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -14720,10 +14714,10 @@
         <v>804</v>
       </c>
       <c r="C810" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D810" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="811" spans="1:4">
@@ -14737,7 +14731,7 @@
         <v>826</v>
       </c>
       <c r="D811" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -14751,7 +14745,7 @@
         <v>849</v>
       </c>
       <c r="D812" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -14765,7 +14759,7 @@
         <v>826</v>
       </c>
       <c r="D813" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -14779,7 +14773,7 @@
         <v>834</v>
       </c>
       <c r="D814" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -14790,10 +14784,10 @@
         <v>809</v>
       </c>
       <c r="C815" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D815" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -14807,7 +14801,7 @@
         <v>826</v>
       </c>
       <c r="D816" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -14821,7 +14815,7 @@
         <v>826</v>
       </c>
       <c r="D817" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="818" spans="1:4">
@@ -14832,10 +14826,10 @@
         <v>812</v>
       </c>
       <c r="C818" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D818" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -14846,10 +14840,10 @@
         <v>813</v>
       </c>
       <c r="C819" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D819" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
   </sheetData>

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -70,12 +70,12 @@
     <t>Corbin Burnes</t>
   </si>
   <si>
+    <t>Gerrit Cole</t>
+  </si>
+  <si>
     <t>Mike Trout</t>
   </si>
   <si>
-    <t>Gerrit Cole</t>
-  </si>
-  <si>
     <t>Bobby Witt Jr.</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>Tim Anderson</t>
   </si>
   <si>
+    <t>Cristian Javier</t>
+  </si>
+  <si>
     <t>Xander Bogaerts</t>
   </si>
   <si>
-    <t>Cristian Javier</t>
-  </si>
-  <si>
     <t>Ryan Helsley</t>
   </si>
   <si>
@@ -373,13 +373,13 @@
     <t>Alejandro Kirk</t>
   </si>
   <si>
+    <t>Amed Rosario</t>
+  </si>
+  <si>
+    <t>Tyler O'Neill</t>
+  </si>
+  <si>
     <t>Liam Hendriks</t>
-  </si>
-  <si>
-    <t>Amed Rosario</t>
-  </si>
-  <si>
-    <t>Tyler O'Neill</t>
   </si>
   <si>
     <t>George Kirby</t>
@@ -3554,10 +3554,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D15" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3568,10 +3568,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D16" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4366,10 +4366,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="D73" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4380,10 +4380,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="D74" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4968,10 +4968,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>828</v>
+        <v>849</v>
       </c>
       <c r="D116" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4982,10 +4982,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D117" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4996,10 +4996,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
       <c r="D118" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
     </row>
     <row r="119" spans="1:4">

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="988">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -145,12 +145,12 @@
     <t>Justin Verlander</t>
   </si>
   <si>
+    <t>Max Scherzer</t>
+  </si>
+  <si>
     <t>Emmanuel Clase</t>
   </si>
   <si>
-    <t>Max Scherzer</t>
-  </si>
-  <si>
     <t>Marcus Semien</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>J.T. Realmuto</t>
   </si>
   <si>
+    <t>George Springer</t>
+  </si>
+  <si>
     <t>Starling Marte</t>
   </si>
   <si>
-    <t>George Springer</t>
-  </si>
-  <si>
     <t>Ozzie Albies</t>
   </si>
   <si>
@@ -277,24 +277,24 @@
     <t>Felix Bautista</t>
   </si>
   <si>
+    <t>Robbie Ray</t>
+  </si>
+  <si>
     <t>Wander Franco</t>
   </si>
   <si>
-    <t>Robbie Ray</t>
-  </si>
-  <si>
     <t>Raisel Iglesias</t>
   </si>
   <si>
     <t>Andres Gimenez</t>
   </si>
   <si>
+    <t>Adley Rutschman</t>
+  </si>
+  <si>
     <t>Tyler Glasnow</t>
   </si>
   <si>
-    <t>Adley Rutschman</t>
-  </si>
-  <si>
     <t>Byron Buxton</t>
   </si>
   <si>
@@ -379,15 +379,15 @@
     <t>Tyler O'Neill</t>
   </si>
   <si>
+    <t>George Kirby</t>
+  </si>
+  <si>
+    <t>Kris Bryant</t>
+  </si>
+  <si>
     <t>Liam Hendriks</t>
   </si>
   <si>
-    <t>George Kirby</t>
-  </si>
-  <si>
-    <t>Kris Bryant</t>
-  </si>
-  <si>
     <t>Jake McCarthy</t>
   </si>
   <si>
@@ -445,15 +445,15 @@
     <t>Freddy Peralta</t>
   </si>
   <si>
+    <t>Jorge Polanco</t>
+  </si>
+  <si>
+    <t>Pablo Lopez</t>
+  </si>
+  <si>
     <t>Nico Hoerner</t>
   </si>
   <si>
-    <t>Jorge Polanco</t>
-  </si>
-  <si>
-    <t>Pablo Lopez</t>
-  </si>
-  <si>
     <t>Ty France</t>
   </si>
   <si>
@@ -478,12 +478,12 @@
     <t>Brandon Nimmo</t>
   </si>
   <si>
+    <t>Max Muncy</t>
+  </si>
+  <si>
     <t>Hunter Renfroe</t>
   </si>
   <si>
-    <t>Max Muncy</t>
-  </si>
-  <si>
     <t>Charlie Morton</t>
   </si>
   <si>
@@ -526,15 +526,15 @@
     <t>Matt Chapman</t>
   </si>
   <si>
+    <t>Bryce Harper</t>
+  </si>
+  <si>
+    <t>Jeff McNeil</t>
+  </si>
+  <si>
     <t>Josh Bell</t>
   </si>
   <si>
-    <t>Jeff McNeil</t>
-  </si>
-  <si>
-    <t>Bryce Harper</t>
-  </si>
-  <si>
     <t>Jon Gray</t>
   </si>
   <si>
@@ -661,18 +661,18 @@
     <t>Josh Rojas</t>
   </si>
   <si>
+    <t>Andrew Benintendi</t>
+  </si>
+  <si>
     <t>CJ Abrams</t>
   </si>
   <si>
-    <t>Andrew Benintendi</t>
+    <t>Aaron Ashby</t>
   </si>
   <si>
     <t>Anthony Rendon</t>
   </si>
   <si>
-    <t>Aaron Ashby</t>
-  </si>
-  <si>
     <t>Brendan Rodgers</t>
   </si>
   <si>
@@ -733,21 +733,21 @@
     <t>Keibert Ruiz</t>
   </si>
   <si>
+    <t>Ezequiel Tovar</t>
+  </si>
+  <si>
     <t>Michael Conforto</t>
   </si>
   <si>
-    <t>Ezequiel Tovar</t>
-  </si>
-  <si>
     <t>Justin Turner</t>
   </si>
   <si>
+    <t>Jack Flaherty</t>
+  </si>
+  <si>
     <t>Triston Casas</t>
   </si>
   <si>
-    <t>Jack Flaherty</t>
-  </si>
-  <si>
     <t>Jameson Taillon</t>
   </si>
   <si>
@@ -988,6 +988,9 @@
     <t>Esteury Ruiz</t>
   </si>
   <si>
+    <t>Brendan Donovan</t>
+  </si>
+  <si>
     <t>Hayden Wesneski</t>
   </si>
   <si>
@@ -997,9 +1000,6 @@
     <t>Jason Adam</t>
   </si>
   <si>
-    <t>Brendan Donovan</t>
-  </si>
-  <si>
     <t>Alex Lange</t>
   </si>
   <si>
@@ -1099,15 +1099,15 @@
     <t>James Karinchak</t>
   </si>
   <si>
+    <t>Kyle Gibson</t>
+  </si>
+  <si>
     <t>Cody Morris</t>
   </si>
   <si>
     <t>Mike Soroka</t>
   </si>
   <si>
-    <t>Kyle Gibson</t>
-  </si>
-  <si>
     <t>Aaron Civale</t>
   </si>
   <si>
@@ -1117,10 +1117,13 @@
     <t>A.J. Puk</t>
   </si>
   <si>
+    <t>Aroldis</t>
+  </si>
+  <si>
     <t>Noah Syndergaard</t>
   </si>
   <si>
-    <t>Aroldis</t>
+    <t>Gabriel Moreno</t>
   </si>
   <si>
     <t>Gio Urshela</t>
@@ -1138,12 +1141,12 @@
     <t>Adbert Alzolay</t>
   </si>
   <si>
+    <t>Matt Carpenter</t>
+  </si>
+  <si>
     <t>Kerry Carpenter</t>
   </si>
   <si>
-    <t>Matt Carpenter</t>
-  </si>
-  <si>
     <t>Kike Hernandez</t>
   </si>
   <si>
@@ -1156,9 +1159,6 @@
     <t>Nick Pivetta</t>
   </si>
   <si>
-    <t>Gabriel Moreno</t>
-  </si>
-  <si>
     <t>Jimmy Herget</t>
   </si>
   <si>
@@ -1213,15 +1213,15 @@
     <t>Wilmer Flores</t>
   </si>
   <si>
+    <t>Alek Thomas</t>
+  </si>
+  <si>
     <t>Mitch Keller</t>
   </si>
   <si>
     <t>Christian Bethancourt</t>
   </si>
   <si>
-    <t>Alek Thomas</t>
-  </si>
-  <si>
     <t>Michael King</t>
   </si>
   <si>
@@ -1279,12 +1279,12 @@
     <t>Joe Jimenez</t>
   </si>
   <si>
+    <t>Myles Straw</t>
+  </si>
+  <si>
     <t>Leody Taveras</t>
   </si>
   <si>
-    <t>Myles Straw</t>
-  </si>
-  <si>
     <t>J.P. Crawford</t>
   </si>
   <si>
@@ -1303,6 +1303,9 @@
     <t>Josh Lowe</t>
   </si>
   <si>
+    <t>Royce Lewis</t>
+  </si>
+  <si>
     <t>Joey Votto</t>
   </si>
   <si>
@@ -1327,9 +1330,6 @@
     <t>Domingo German</t>
   </si>
   <si>
-    <t>Royce Lewis</t>
-  </si>
-  <si>
     <t>Jose Trevino</t>
   </si>
   <si>
@@ -1750,7 +1750,7 @@
     <t>Ian Anderson</t>
   </si>
   <si>
-    <t>Jorge</t>
+    <t>Jorge Alfaro</t>
   </si>
   <si>
     <t>Evan Longoria</t>
@@ -2924,9 +2924,6 @@
   </si>
   <si>
     <t>Wacha</t>
-  </si>
-  <si>
-    <t>Alfaro</t>
   </si>
   <si>
     <t>Duvall</t>
@@ -3904,10 +3901,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D40" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3918,10 +3915,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D41" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4156,10 +4153,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="D58" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4170,10 +4167,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="D59" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4520,10 +4517,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="D84" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4534,10 +4531,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>821</v>
+        <v>843</v>
       </c>
       <c r="D85" t="s">
-        <v>928</v>
+        <v>943</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4576,10 +4573,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>821</v>
+        <v>842</v>
       </c>
       <c r="D88" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4590,10 +4587,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
       <c r="D89" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4996,10 +4993,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D118" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5010,10 +5007,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="D119" t="s">
-        <v>928</v>
+        <v>951</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5024,10 +5021,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>850</v>
+        <v>828</v>
       </c>
       <c r="D120" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5307,7 +5304,7 @@
         <v>813</v>
       </c>
       <c r="D140" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5318,10 +5315,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="D141" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5332,10 +5329,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D142" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5458,10 +5455,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>812</v>
+        <v>854</v>
       </c>
       <c r="D151" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5472,10 +5469,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>854</v>
+        <v>812</v>
       </c>
       <c r="D152" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5682,10 +5679,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
       <c r="D167" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5710,10 +5707,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>810</v>
+        <v>833</v>
       </c>
       <c r="D169" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -6312,10 +6309,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>813</v>
+        <v>873</v>
       </c>
       <c r="D212" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6326,10 +6323,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>873</v>
+        <v>813</v>
       </c>
       <c r="D213" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -6340,10 +6337,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="D214" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6354,10 +6351,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="D215" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6648,10 +6645,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="D236" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6662,10 +6659,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="D237" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6690,10 +6687,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="D239" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6704,10 +6701,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="D240" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -7838,10 +7835,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>830</v>
+        <v>887</v>
       </c>
       <c r="D321" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7855,7 +7852,7 @@
         <v>830</v>
       </c>
       <c r="D322" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7866,10 +7863,10 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D323" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7880,10 +7877,10 @@
         <v>326</v>
       </c>
       <c r="C324" t="s">
-        <v>887</v>
+        <v>828</v>
       </c>
       <c r="D324" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -8373,7 +8370,7 @@
         <v>821</v>
       </c>
       <c r="D359" t="s">
-        <v>930</v>
+        <v>945</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8387,7 +8384,7 @@
         <v>821</v>
       </c>
       <c r="D360" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8401,7 +8398,7 @@
         <v>821</v>
       </c>
       <c r="D361" t="s">
-        <v>945</v>
+        <v>926</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8454,10 +8451,10 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D365" t="s">
-        <v>934</v>
+        <v>958</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8468,10 +8465,10 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D366" t="s">
-        <v>958</v>
+        <v>934</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8482,10 +8479,10 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>823</v>
+        <v>870</v>
       </c>
       <c r="D367" t="s">
-        <v>935</v>
+        <v>946</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8496,10 +8493,10 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="D368" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8510,10 +8507,10 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="D369" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8524,10 +8521,10 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="D370" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8538,10 +8535,10 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="D371" t="s">
-        <v>948</v>
+        <v>960</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8552,10 +8549,10 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="D372" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8580,10 +8577,10 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>892</v>
+        <v>834</v>
       </c>
       <c r="D374" t="s">
-        <v>938</v>
+        <v>953</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8594,10 +8591,10 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D375" t="s">
-        <v>953</v>
+        <v>938</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8608,10 +8605,10 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>821</v>
+        <v>893</v>
       </c>
       <c r="D376" t="s">
-        <v>938</v>
+        <v>953</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8636,10 +8633,10 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>870</v>
+        <v>821</v>
       </c>
       <c r="D378" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -8916,10 +8913,10 @@
         <v>398</v>
       </c>
       <c r="C398" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D398" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8930,10 +8927,10 @@
         <v>399</v>
       </c>
       <c r="C399" t="s">
-        <v>885</v>
+        <v>821</v>
       </c>
       <c r="D399" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -8944,10 +8941,10 @@
         <v>400</v>
       </c>
       <c r="C400" t="s">
-        <v>822</v>
+        <v>885</v>
       </c>
       <c r="D400" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -9227,7 +9224,7 @@
         <v>822</v>
       </c>
       <c r="D420" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -9241,7 +9238,7 @@
         <v>822</v>
       </c>
       <c r="D421" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9336,10 +9333,10 @@
         <v>428</v>
       </c>
       <c r="C428" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
       <c r="D428" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9350,10 +9347,10 @@
         <v>429</v>
       </c>
       <c r="C429" t="s">
-        <v>858</v>
+        <v>817</v>
       </c>
       <c r="D429" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9364,10 +9361,10 @@
         <v>430</v>
       </c>
       <c r="C430" t="s">
-        <v>828</v>
+        <v>858</v>
       </c>
       <c r="D430" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9378,10 +9375,10 @@
         <v>431</v>
       </c>
       <c r="C431" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D431" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -9392,10 +9389,10 @@
         <v>432</v>
       </c>
       <c r="C432" t="s">
-        <v>870</v>
+        <v>821</v>
       </c>
       <c r="D432" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -9406,10 +9403,10 @@
         <v>433</v>
       </c>
       <c r="C433" t="s">
-        <v>821</v>
+        <v>870</v>
       </c>
       <c r="D433" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9420,10 +9417,10 @@
         <v>434</v>
       </c>
       <c r="C434" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="D434" t="s">
-        <v>927</v>
+        <v>947</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -9434,7 +9431,7 @@
         <v>435</v>
       </c>
       <c r="C435" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="D435" t="s">
         <v>927</v>
@@ -9448,10 +9445,10 @@
         <v>436</v>
       </c>
       <c r="C436" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="D436" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -11425,7 +11422,7 @@
         <v>893</v>
       </c>
       <c r="D577" t="s">
-        <v>969</v>
+        <v>938</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11481,7 +11478,7 @@
         <v>851</v>
       </c>
       <c r="D581" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -12069,7 +12066,7 @@
         <v>847</v>
       </c>
       <c r="D623" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -12447,7 +12444,7 @@
         <v>858</v>
       </c>
       <c r="D650" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -12559,7 +12556,7 @@
         <v>837</v>
       </c>
       <c r="D658" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -12615,7 +12612,7 @@
         <v>858</v>
       </c>
       <c r="D662" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -12671,7 +12668,7 @@
         <v>828</v>
       </c>
       <c r="D666" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -12951,7 +12948,7 @@
         <v>817</v>
       </c>
       <c r="D686" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -12993,7 +12990,7 @@
         <v>834</v>
       </c>
       <c r="D689" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -13035,7 +13032,7 @@
         <v>817</v>
       </c>
       <c r="D692" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -13119,7 +13116,7 @@
         <v>840</v>
       </c>
       <c r="D698" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -13231,7 +13228,7 @@
         <v>846</v>
       </c>
       <c r="D706" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -13399,7 +13396,7 @@
         <v>813</v>
       </c>
       <c r="D718" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -13441,7 +13438,7 @@
         <v>828</v>
       </c>
       <c r="D721" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -13539,7 +13536,7 @@
         <v>821</v>
       </c>
       <c r="D728" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -13609,7 +13606,7 @@
         <v>821</v>
       </c>
       <c r="D733" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -13749,7 +13746,7 @@
         <v>857</v>
       </c>
       <c r="D743" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -13931,7 +13928,7 @@
         <v>828</v>
       </c>
       <c r="D756" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -14281,7 +14278,7 @@
         <v>840</v>
       </c>
       <c r="D781" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14323,7 +14320,7 @@
         <v>869</v>
       </c>
       <c r="D784" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="785" spans="1:4">

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -223,12 +223,12 @@
     <t>Max Fried</t>
   </si>
   <si>
+    <t>Teoscar Hernandez</t>
+  </si>
+  <si>
     <t>Yu Darvish</t>
   </si>
   <si>
-    <t>Teoscar Hernandez</t>
-  </si>
-  <si>
     <t>Zac Gallen</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>Tim Anderson</t>
   </si>
   <si>
+    <t>Xander Bogaerts</t>
+  </si>
+  <si>
     <t>Cristian Javier</t>
   </si>
   <si>
-    <t>Xander Bogaerts</t>
-  </si>
-  <si>
     <t>Ryan Helsley</t>
   </si>
   <si>
@@ -277,12 +277,12 @@
     <t>Felix Bautista</t>
   </si>
   <si>
+    <t>Wander Franco</t>
+  </si>
+  <si>
     <t>Robbie Ray</t>
   </si>
   <si>
-    <t>Wander Franco</t>
-  </si>
-  <si>
     <t>Raisel Iglesias</t>
   </si>
   <si>
@@ -433,45 +433,45 @@
     <t>Ian Happ</t>
   </si>
   <si>
+    <t>Kenley Jansen</t>
+  </si>
+  <si>
+    <t>Joe Ryan</t>
+  </si>
+  <si>
+    <t>Freddy Peralta</t>
+  </si>
+  <si>
+    <t>Jorge Polanco</t>
+  </si>
+  <si>
+    <t>Pablo Lopez</t>
+  </si>
+  <si>
+    <t>Nico Hoerner</t>
+  </si>
+  <si>
+    <t>Ty France</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
+    <t>MJ Melendez</t>
+  </si>
+  <si>
+    <t>Lucas Giolito</t>
+  </si>
+  <si>
+    <t>Chris Sale</t>
+  </si>
+  <si>
+    <t>Chris Bassitt</t>
+  </si>
+  <si>
     <t>Trevor Story</t>
   </si>
   <si>
-    <t>Kenley Jansen</t>
-  </si>
-  <si>
-    <t>Joe Ryan</t>
-  </si>
-  <si>
-    <t>Freddy Peralta</t>
-  </si>
-  <si>
-    <t>Jorge Polanco</t>
-  </si>
-  <si>
-    <t>Pablo Lopez</t>
-  </si>
-  <si>
-    <t>Nico Hoerner</t>
-  </si>
-  <si>
-    <t>Ty France</t>
-  </si>
-  <si>
-    <t>Anthony Rizzo</t>
-  </si>
-  <si>
-    <t>MJ Melendez</t>
-  </si>
-  <si>
-    <t>Lucas Giolito</t>
-  </si>
-  <si>
-    <t>Chris Sale</t>
-  </si>
-  <si>
-    <t>Chris Bassitt</t>
-  </si>
-  <si>
     <t>Daniel Bard</t>
   </si>
   <si>
@@ -1555,7 +1555,7 @@
     <t>Jovani Moran</t>
   </si>
   <si>
-    <t>Brian</t>
+    <t>Brian Anderson</t>
   </si>
   <si>
     <t>Clarke Schmidt</t>
@@ -1972,7 +1972,7 @@
     <t>Nate Eaton</t>
   </si>
   <si>
-    <t>Manuel Rodriguez</t>
+    <t>Manuel</t>
   </si>
   <si>
     <t>Conner Capel</t>
@@ -2914,9 +2914,6 @@
     <t>Gurriel</t>
   </si>
   <si>
-    <t>Anderson</t>
-  </si>
-  <si>
     <t>Chafin</t>
   </si>
   <si>
@@ -2933,6 +2930,9 @@
   </si>
   <si>
     <t>Moustakas</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
   </si>
   <si>
     <t>Peralta</t>
@@ -4265,10 +4265,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="D66" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4279,10 +4279,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="D67" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4363,10 +4363,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="D73" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4377,10 +4377,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="D74" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4517,10 +4517,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>821</v>
+        <v>843</v>
       </c>
       <c r="D84" t="s">
-        <v>928</v>
+        <v>943</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4531,10 +4531,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="D85" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -5245,7 +5245,7 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>813</v>
+        <v>828</v>
       </c>
       <c r="D136" t="s">
         <v>938</v>
@@ -5259,10 +5259,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D137" t="s">
-        <v>938</v>
+        <v>949</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5276,7 +5276,7 @@
         <v>821</v>
       </c>
       <c r="D138" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5287,10 +5287,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D139" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5301,10 +5301,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="D140" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5315,10 +5315,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D141" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5329,10 +5329,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>813</v>
+        <v>854</v>
       </c>
       <c r="D142" t="s">
-        <v>948</v>
+        <v>928</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5343,10 +5343,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>854</v>
+        <v>820</v>
       </c>
       <c r="D143" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5357,10 +5357,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>820</v>
+        <v>855</v>
       </c>
       <c r="D144" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5371,10 +5371,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>855</v>
+        <v>821</v>
       </c>
       <c r="D145" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5388,7 +5388,7 @@
         <v>821</v>
       </c>
       <c r="D146" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5402,7 +5402,7 @@
         <v>821</v>
       </c>
       <c r="D147" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5413,10 +5413,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D148" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -10512,7 +10512,7 @@
         <v>901</v>
       </c>
       <c r="D512" t="s">
-        <v>965</v>
+        <v>936</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10680,7 +10680,7 @@
         <v>828</v>
       </c>
       <c r="D524" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10890,7 +10890,7 @@
         <v>821</v>
       </c>
       <c r="D539" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10960,7 +10960,7 @@
         <v>840</v>
       </c>
       <c r="D544" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -11478,7 +11478,7 @@
         <v>851</v>
       </c>
       <c r="D581" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -12066,7 +12066,7 @@
         <v>847</v>
       </c>
       <c r="D623" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -12444,7 +12444,7 @@
         <v>858</v>
       </c>
       <c r="D650" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -12472,7 +12472,7 @@
         <v>828</v>
       </c>
       <c r="D652" t="s">
-        <v>948</v>
+        <v>971</v>
       </c>
     </row>
     <row r="653" spans="1:4">

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="985">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -70,12 +70,12 @@
     <t>Corbin Burnes</t>
   </si>
   <si>
+    <t>Mike Trout</t>
+  </si>
+  <si>
     <t>Gerrit Cole</t>
   </si>
   <si>
-    <t>Mike Trout</t>
-  </si>
-  <si>
     <t>Bobby Witt Jr.</t>
   </si>
   <si>
@@ -118,15 +118,15 @@
     <t>Spencer Strider</t>
   </si>
   <si>
+    <t>Francisco Lindor</t>
+  </si>
+  <si>
+    <t>Randy Arozarena</t>
+  </si>
+  <si>
     <t>Nolan Arenado</t>
   </si>
   <si>
-    <t>Francisco Lindor</t>
-  </si>
-  <si>
-    <t>Randy Arozarena</t>
-  </si>
-  <si>
     <t>Aaron Nola</t>
   </si>
   <si>
@@ -145,12 +145,12 @@
     <t>Justin Verlander</t>
   </si>
   <si>
+    <t>Emmanuel Clase</t>
+  </si>
+  <si>
     <t>Max Scherzer</t>
   </si>
   <si>
-    <t>Emmanuel Clase</t>
-  </si>
-  <si>
     <t>Marcus Semien</t>
   </si>
   <si>
@@ -181,75 +181,75 @@
     <t>Jazz Chisholm Jr.</t>
   </si>
   <si>
+    <t>Julio Urias</t>
+  </si>
+  <si>
     <t>Adolis Garcia</t>
   </si>
   <si>
-    <t>Julio Urias</t>
-  </si>
-  <si>
     <t>Jordan Romano</t>
   </si>
   <si>
     <t>Luis Castillo</t>
   </si>
   <si>
+    <t>J.T. Realmuto</t>
+  </si>
+  <si>
+    <t>George Springer</t>
+  </si>
+  <si>
     <t>Kevin Gausman</t>
   </si>
   <si>
-    <t>J.T. Realmuto</t>
-  </si>
-  <si>
-    <t>George Springer</t>
+    <t>Ozzie Albies</t>
   </si>
   <si>
     <t>Starling Marte</t>
   </si>
   <si>
-    <t>Ozzie Albies</t>
-  </si>
-  <si>
     <t>Alex Bregman</t>
   </si>
   <si>
+    <t>Devin Williams</t>
+  </si>
+  <si>
     <t>Eloy Jimenez</t>
   </si>
   <si>
-    <t>Devin Williams</t>
-  </si>
-  <si>
     <t>Alek Manoah</t>
   </si>
   <si>
     <t>Max Fried</t>
   </si>
   <si>
+    <t>Ryan Pressly</t>
+  </si>
+  <si>
+    <t>Yu Darvish</t>
+  </si>
+  <si>
     <t>Teoscar Hernandez</t>
   </si>
   <si>
-    <t>Yu Darvish</t>
-  </si>
-  <si>
     <t>Zac Gallen</t>
   </si>
   <si>
+    <t>Cristian Javier</t>
+  </si>
+  <si>
     <t>Daulton Varsho</t>
   </si>
   <si>
-    <t>Ryan Pressly</t>
-  </si>
-  <si>
     <t>Tommy Edman</t>
   </si>
   <si>
+    <t>Xander Bogaerts</t>
+  </si>
+  <si>
     <t>Tim Anderson</t>
   </si>
   <si>
-    <t>Xander Bogaerts</t>
-  </si>
-  <si>
-    <t>Cristian Javier</t>
-  </si>
-  <si>
     <t>Ryan Helsley</t>
   </si>
   <si>
@@ -262,51 +262,51 @@
     <t>Salvador Perez</t>
   </si>
   <si>
+    <t>Dansby Swanson</t>
+  </si>
+  <si>
     <t>Oneil Cruz</t>
   </si>
   <si>
-    <t>Dansby Swanson</t>
-  </si>
-  <si>
     <t>Joe Musgrove</t>
   </si>
   <si>
+    <t>Felix Bautista</t>
+  </si>
+  <si>
     <t>Will Smith</t>
   </si>
   <si>
-    <t>Felix Bautista</t>
-  </si>
-  <si>
     <t>Wander Franco</t>
   </si>
   <si>
+    <t>Raisel Iglesias</t>
+  </si>
+  <si>
     <t>Robbie Ray</t>
   </si>
   <si>
-    <t>Raisel Iglesias</t>
-  </si>
-  <si>
     <t>Andres Gimenez</t>
   </si>
   <si>
+    <t>Byron Buxton</t>
+  </si>
+  <si>
+    <t>Tyler Glasnow</t>
+  </si>
+  <si>
+    <t>Willy Adames</t>
+  </si>
+  <si>
     <t>Adley Rutschman</t>
   </si>
   <si>
-    <t>Tyler Glasnow</t>
-  </si>
-  <si>
-    <t>Byron Buxton</t>
-  </si>
-  <si>
-    <t>Willy Adames</t>
+    <t>Jose Abreu</t>
   </si>
   <si>
     <t>Nathaniel Lowe</t>
   </si>
   <si>
-    <t>Jose Abreu</t>
-  </si>
-  <si>
     <t>Vinnie Pasquantino</t>
   </si>
   <si>
@@ -322,54 +322,54 @@
     <t>Carlos Correa</t>
   </si>
   <si>
+    <t>Seiya Suzuki</t>
+  </si>
+  <si>
+    <t>C.J. Cron</t>
+  </si>
+  <si>
+    <t>Rhys Hoskins</t>
+  </si>
+  <si>
+    <t>Steven Kwan</t>
+  </si>
+  <si>
     <t>Camilo Doval</t>
   </si>
   <si>
-    <t>Seiya Suzuki</t>
-  </si>
-  <si>
-    <t>C.J. Cron</t>
-  </si>
-  <si>
-    <t>Rhys Hoskins</t>
-  </si>
-  <si>
-    <t>Steven Kwan</t>
-  </si>
-  <si>
     <t>Nestor Cortes Jr.</t>
   </si>
   <si>
     <t>Gunnar Henderson</t>
   </si>
   <si>
+    <t>Anthony Santander</t>
+  </si>
+  <si>
     <t>Gleyber Torres</t>
   </si>
   <si>
     <t>Kyle Wright</t>
   </si>
   <si>
-    <t>Anthony Santander</t>
-  </si>
-  <si>
     <t>Logan Webb</t>
   </si>
   <si>
+    <t>Luis Severino</t>
+  </si>
+  <si>
     <t>Logan Gilbert</t>
   </si>
   <si>
-    <t>Luis Severino</t>
+    <t>Giancarlo Stanton</t>
+  </si>
+  <si>
+    <t>Clayton Kershaw</t>
   </si>
   <si>
     <t>Blake Snell</t>
   </si>
   <si>
-    <t>Giancarlo Stanton</t>
-  </si>
-  <si>
-    <t>Clayton Kershaw</t>
-  </si>
-  <si>
     <t>Alejandro Kirk</t>
   </si>
   <si>
@@ -385,76 +385,82 @@
     <t>Kris Bryant</t>
   </si>
   <si>
+    <t>David Bednar</t>
+  </si>
+  <si>
     <t>Liam Hendriks</t>
   </si>
   <si>
+    <t>Christian Walker</t>
+  </si>
+  <si>
     <t>Jake McCarthy</t>
   </si>
   <si>
-    <t>David Bednar</t>
-  </si>
-  <si>
-    <t>Christian Walker</t>
-  </si>
-  <si>
     <t>Hunter Greene</t>
   </si>
   <si>
+    <t>Nick Castellanos</t>
+  </si>
+  <si>
     <t>Nick Lodolo</t>
   </si>
   <si>
-    <t>Nick Castellanos</t>
-  </si>
-  <si>
     <t>Jeremy Pena</t>
   </si>
   <si>
     <t>Taylor Ward</t>
   </si>
   <si>
+    <t>Scott Barlow</t>
+  </si>
+  <si>
     <t>Willson Contreras</t>
   </si>
   <si>
-    <t>Scott Barlow</t>
+    <t>Clay Holmes</t>
+  </si>
+  <si>
+    <t>Lance Lynn</t>
+  </si>
+  <si>
+    <t>Kenley Jansen</t>
   </si>
   <si>
     <t>Ryan Mountcastle</t>
   </si>
   <si>
-    <t>Lance Lynn</t>
-  </si>
-  <si>
-    <t>Clay Holmes</t>
+    <t>Joe Ryan</t>
   </si>
   <si>
     <t>Andrew Vaughn</t>
   </si>
   <si>
+    <t>Freddy Peralta</t>
+  </si>
+  <si>
+    <t>Jorge Polanco</t>
+  </si>
+  <si>
     <t>Ian Happ</t>
   </si>
   <si>
-    <t>Kenley Jansen</t>
-  </si>
-  <si>
-    <t>Joe Ryan</t>
-  </si>
-  <si>
-    <t>Freddy Peralta</t>
-  </si>
-  <si>
-    <t>Jorge Polanco</t>
+    <t>Nico Hoerner</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
+    <t>Ty France</t>
+  </si>
+  <si>
+    <t>Chris Sale</t>
   </si>
   <si>
     <t>Pablo Lopez</t>
   </si>
   <si>
-    <t>Nico Hoerner</t>
-  </si>
-  <si>
-    <t>Ty France</t>
-  </si>
-  <si>
-    <t>Anthony Rizzo</t>
+    <t>Trevor Story</t>
   </si>
   <si>
     <t>MJ Melendez</t>
@@ -463,195 +469,189 @@
     <t>Lucas Giolito</t>
   </si>
   <si>
-    <t>Chris Sale</t>
-  </si>
-  <si>
     <t>Chris Bassitt</t>
   </si>
   <si>
-    <t>Trevor Story</t>
+    <t>Brandon Nimmo</t>
   </si>
   <si>
     <t>Daniel Bard</t>
   </si>
   <si>
-    <t>Brandon Nimmo</t>
+    <t>Hunter Renfroe</t>
+  </si>
+  <si>
+    <t>Dustin May</t>
   </si>
   <si>
     <t>Max Muncy</t>
   </si>
   <si>
-    <t>Hunter Renfroe</t>
-  </si>
-  <si>
     <t>Charlie Morton</t>
   </si>
   <si>
+    <t>Ke'Bryan Hayes</t>
+  </si>
+  <si>
+    <t>Jose Miranda</t>
+  </si>
+  <si>
     <t>Brandon Lowe</t>
   </si>
   <si>
-    <t>Jose Miranda</t>
-  </si>
-  <si>
-    <t>Ke'Bryan Hayes</t>
-  </si>
-  <si>
-    <t>Dustin May</t>
+    <t>Jhoan Duran</t>
   </si>
   <si>
     <t>Rowdy Tellez</t>
   </si>
   <si>
-    <t>Jhoan Duran</t>
-  </si>
-  <si>
     <t>Jordan Montgomery</t>
   </si>
   <si>
+    <t>Matt Chapman</t>
+  </si>
+  <si>
     <t>Mitch Haniger</t>
   </si>
   <si>
+    <t>Oscar Gonzalez</t>
+  </si>
+  <si>
     <t>Sean Murphy</t>
   </si>
   <si>
-    <t>Oscar Gonzalez</t>
+    <t>Andres Munoz</t>
   </si>
   <si>
     <t>Jesus Luzardo</t>
   </si>
   <si>
-    <t>Andres Munoz</t>
-  </si>
-  <si>
-    <t>Matt Chapman</t>
+    <t>Jeff McNeil</t>
   </si>
   <si>
     <t>Bryce Harper</t>
   </si>
   <si>
-    <t>Jeff McNeil</t>
-  </si>
-  <si>
     <t>Josh Bell</t>
   </si>
   <si>
+    <t>Alex Verdugo</t>
+  </si>
+  <si>
     <t>Jon Gray</t>
   </si>
   <si>
-    <t>Alex Verdugo</t>
+    <t>Brady Singer</t>
+  </si>
+  <si>
+    <t>Javier Baez</t>
+  </si>
+  <si>
+    <t>Jake Cronenworth</t>
+  </si>
+  <si>
+    <t>Paul Sewald</t>
+  </si>
+  <si>
+    <t>Alexis Diaz</t>
   </si>
   <si>
     <t>Eugenio Suarez</t>
   </si>
   <si>
-    <t>Brady Singer</t>
+    <t>Luis Arraez</t>
   </si>
   <si>
     <t>William Contreras</t>
   </si>
   <si>
-    <t>Javier Baez</t>
-  </si>
-  <si>
-    <t>Alexis Diaz</t>
-  </si>
-  <si>
-    <t>Luis Arraez</t>
-  </si>
-  <si>
-    <t>Jake Cronenworth</t>
-  </si>
-  <si>
-    <t>Paul Sewald</t>
+    <t>Alec Bohm</t>
+  </si>
+  <si>
+    <t>Joey Meneses</t>
   </si>
   <si>
     <t>Jonathan India</t>
   </si>
   <si>
-    <t>Alec Bohm</t>
-  </si>
-  <si>
-    <t>Joey Meneses</t>
+    <t>Jeffrey Springs</t>
+  </si>
+  <si>
+    <t>Frankie Montas</t>
+  </si>
+  <si>
+    <t>Tony Gonsolin</t>
+  </si>
+  <si>
+    <t>Drew Rasmussen</t>
+  </si>
+  <si>
+    <t>Riley Greene</t>
   </si>
   <si>
     <t>Luis Garcia</t>
   </si>
   <si>
-    <t>Frankie Montas</t>
-  </si>
-  <si>
-    <t>Jeffrey Springs</t>
-  </si>
-  <si>
-    <t>Tony Gonsolin</t>
-  </si>
-  <si>
-    <t>Riley Greene</t>
-  </si>
-  <si>
-    <t>Drew Rasmussen</t>
+    <t>Lance McCullers Jr.</t>
+  </si>
+  <si>
+    <t>Tyler Stephenson</t>
   </si>
   <si>
     <t>Ketel Marte</t>
   </si>
   <si>
-    <t>Lance McCullers Jr.</t>
-  </si>
-  <si>
-    <t>Tyler Stephenson</t>
-  </si>
-  <si>
     <t>Thairo Estrada</t>
   </si>
   <si>
     <t>Pete Fairbanks</t>
   </si>
   <si>
+    <t>Grayson Rodriguez</t>
+  </si>
+  <si>
+    <t>Harrison Bader</t>
+  </si>
+  <si>
+    <t>Ryan McMahon</t>
+  </si>
+  <si>
     <t>Andrew Heaney</t>
   </si>
   <si>
     <t>Josh Naylor</t>
   </si>
   <si>
-    <t>Grayson Rodriguez</t>
-  </si>
-  <si>
-    <t>Ryan McMahon</t>
-  </si>
-  <si>
-    <t>Harrison Bader</t>
+    <t>Cal Raleigh</t>
   </si>
   <si>
     <t>Patrick Sandoval</t>
   </si>
   <si>
-    <t>Cal Raleigh</t>
+    <t>Whit Merrifield</t>
   </si>
   <si>
     <t>J.D. Martinez</t>
   </si>
   <si>
+    <t>Ramon Laureano</t>
+  </si>
+  <si>
+    <t>Miles Mikolas</t>
+  </si>
+  <si>
     <t>Alex Cobb</t>
   </si>
   <si>
-    <t>Whit Merrifield</t>
-  </si>
-  <si>
-    <t>Ramon Laureano</t>
+    <t>Jean Segura</t>
+  </si>
+  <si>
+    <t>Jose Leclerc</t>
   </si>
   <si>
     <t>Brandon Drury</t>
   </si>
   <si>
-    <t>Miles Mikolas</t>
-  </si>
-  <si>
-    <t>Jose Leclerc</t>
-  </si>
-  <si>
-    <t>Jean Segura</t>
-  </si>
-  <si>
     <t>Jose Berrios</t>
   </si>
   <si>
@@ -661,178 +661,196 @@
     <t>Josh Rojas</t>
   </si>
   <si>
+    <t>CJ Abrams</t>
+  </si>
+  <si>
+    <t>Anthony Rendon</t>
+  </si>
+  <si>
+    <t>Reid Detmers</t>
+  </si>
+  <si>
     <t>Andrew Benintendi</t>
   </si>
   <si>
-    <t>CJ Abrams</t>
+    <t>Brendan Rodgers</t>
+  </si>
+  <si>
+    <t>Seth Brown</t>
+  </si>
+  <si>
+    <t>Lars Nootbaar</t>
   </si>
   <si>
     <t>Aaron Ashby</t>
   </si>
   <si>
-    <t>Anthony Rendon</t>
-  </si>
-  <si>
-    <t>Brendan Rodgers</t>
-  </si>
-  <si>
-    <t>Seth Brown</t>
-  </si>
-  <si>
-    <t>Reid Detmers</t>
-  </si>
-  <si>
-    <t>Lars Nootbaar</t>
+    <t>Cody Bellinger</t>
   </si>
   <si>
     <t>Joc Pederson</t>
   </si>
   <si>
+    <t>Sonny Gray</t>
+  </si>
+  <si>
     <t>Lourdes Gurriel Jr.</t>
   </si>
   <si>
-    <t>Cody Bellinger</t>
+    <t>Merrill Kelly</t>
+  </si>
+  <si>
+    <t>Nathan Eovaldi</t>
+  </si>
+  <si>
+    <t>Edward Cabrera</t>
+  </si>
+  <si>
+    <t>Danny Jansen</t>
+  </si>
+  <si>
+    <t>Josh Jung</t>
+  </si>
+  <si>
+    <t>Jorge Lopez</t>
+  </si>
+  <si>
+    <t>Austin Hays</t>
+  </si>
+  <si>
+    <t>Kolten Wong</t>
+  </si>
+  <si>
+    <t>Keibert Ruiz</t>
+  </si>
+  <si>
+    <t>Jack Flaherty</t>
+  </si>
+  <si>
+    <t>Ezequiel Tovar</t>
+  </si>
+  <si>
+    <t>Michael Conforto</t>
+  </si>
+  <si>
+    <t>Triston Casas</t>
   </si>
   <si>
     <t>Seranthony Dominguez</t>
   </si>
   <si>
-    <t>Merrill Kelly</t>
-  </si>
-  <si>
-    <t>Edward Cabrera</t>
+    <t>Yandy Diaz</t>
+  </si>
+  <si>
+    <t>Jon Berti</t>
+  </si>
+  <si>
+    <t>Justin Turner</t>
+  </si>
+  <si>
+    <t>Gavin Lux</t>
+  </si>
+  <si>
+    <t>DJ LeMahieu</t>
   </si>
   <si>
     <t>Gregory Soto</t>
   </si>
   <si>
-    <t>Sonny Gray</t>
-  </si>
-  <si>
-    <t>Nathan Eovaldi</t>
-  </si>
-  <si>
-    <t>Danny Jansen</t>
-  </si>
-  <si>
-    <t>Josh Jung</t>
-  </si>
-  <si>
-    <t>Jorge Lopez</t>
-  </si>
-  <si>
-    <t>Austin Hays</t>
-  </si>
-  <si>
-    <t>Kolten Wong</t>
-  </si>
-  <si>
-    <t>Yandy Diaz</t>
-  </si>
-  <si>
-    <t>Keibert Ruiz</t>
-  </si>
-  <si>
-    <t>Ezequiel Tovar</t>
-  </si>
-  <si>
-    <t>Michael Conforto</t>
-  </si>
-  <si>
-    <t>Justin Turner</t>
-  </si>
-  <si>
-    <t>Jack Flaherty</t>
-  </si>
-  <si>
-    <t>Triston Casas</t>
-  </si>
-  <si>
     <t>Jameson Taillon</t>
   </si>
   <si>
-    <t>Jon Berti</t>
-  </si>
-  <si>
-    <t>Gavin Lux</t>
-  </si>
-  <si>
-    <t>DJ LeMahieu</t>
+    <t>Adalberto Mondesi</t>
+  </si>
+  <si>
+    <t>Luis Urias</t>
   </si>
   <si>
     <t>Tyler Mahle</t>
   </si>
   <si>
-    <t>Adalberto Mondesi</t>
-  </si>
-  <si>
-    <t>Luis Urias</t>
-  </si>
-  <si>
     <t>Tyler Anderson</t>
   </si>
   <si>
     <t>Trevor Rogers</t>
   </si>
   <si>
+    <t>Jorge Mateo</t>
+  </si>
+  <si>
+    <t>Marcus Stroman</t>
+  </si>
+  <si>
     <t>Charlie Blackmon</t>
   </si>
   <si>
+    <t>Bryson Stott</t>
+  </si>
+  <si>
     <t>Trey Mancini</t>
   </si>
   <si>
-    <t>Marcus Stroman</t>
+    <t>Christopher Morel</t>
   </si>
   <si>
     <t>Kyle Finnegan</t>
   </si>
   <si>
-    <t>Jorge Mateo</t>
-  </si>
-  <si>
-    <t>Christopher Morel</t>
-  </si>
-  <si>
-    <t>Bryson Stott</t>
-  </si>
-  <si>
     <t>HaSeong Kim</t>
   </si>
   <si>
+    <t>Jose Urquidy</t>
+  </si>
+  <si>
+    <t>Lane Thomas</t>
+  </si>
+  <si>
     <t>Randal Grichuk</t>
   </si>
   <si>
-    <t>Jose Urquidy</t>
-  </si>
-  <si>
-    <t>Lane Thomas</t>
-  </si>
-  <si>
     <t>Austin Meadows</t>
   </si>
   <si>
     <t>Ranger Suarez</t>
   </si>
   <si>
+    <t>Giovanny Gallegos</t>
+  </si>
+  <si>
+    <t>Yoan Moncada</t>
+  </si>
+  <si>
+    <t>Eric Lauer</t>
+  </si>
+  <si>
+    <t>Bailey Ober</t>
+  </si>
+  <si>
+    <t>Roansy Contreras</t>
+  </si>
+  <si>
+    <t>Carlos Carrasco</t>
+  </si>
+  <si>
+    <t>Bryan De La Cruz</t>
+  </si>
+  <si>
     <t>Sean Manaea</t>
   </si>
   <si>
-    <t>Yoan Moncada</t>
-  </si>
-  <si>
-    <t>Giovanny Gallegos</t>
-  </si>
-  <si>
-    <t>Roansy Contreras</t>
-  </si>
-  <si>
-    <t>Bailey Ober</t>
-  </si>
-  <si>
-    <t>Eric Lauer</t>
-  </si>
-  <si>
-    <t>Carlos Carrasco</t>
+    <t>Miguel Vargas</t>
+  </si>
+  <si>
+    <t>Travis d'Arnaud</t>
+  </si>
+  <si>
+    <t>Michael Kopech</t>
+  </si>
+  <si>
+    <t>Dylan Floro</t>
+  </si>
+  <si>
+    <t>Jorge Soler</t>
   </si>
   <si>
     <t>Manuel Margot</t>
@@ -841,87 +859,72 @@
     <t>Martin Perez</t>
   </si>
   <si>
-    <t>Bryan De La Cruz</t>
-  </si>
-  <si>
-    <t>Miguel Vargas</t>
-  </si>
-  <si>
-    <t>Michael Kopech</t>
-  </si>
-  <si>
-    <t>Travis d'Arnaud</t>
-  </si>
-  <si>
-    <t>Jorge Soler</t>
-  </si>
-  <si>
-    <t>Dylan Floro</t>
-  </si>
-  <si>
     <t>Dylan Carlson</t>
   </si>
   <si>
     <t>Jared Walsh</t>
   </si>
   <si>
+    <t>Jose Siri</t>
+  </si>
+  <si>
+    <t>Jarred Kelenic</t>
+  </si>
+  <si>
+    <t>Luis Rengifo</t>
+  </si>
+  <si>
+    <t>Justin Steele</t>
+  </si>
+  <si>
+    <t>Jordan Walker</t>
+  </si>
+  <si>
     <t>Jake Fraley</t>
   </si>
   <si>
-    <t>Jose Siri</t>
-  </si>
-  <si>
-    <t>Jarred Kelenic</t>
-  </si>
-  <si>
-    <t>Justin Steele</t>
-  </si>
-  <si>
-    <t>Luis Rengifo</t>
-  </si>
-  <si>
-    <t>Jordan Walker</t>
+    <t>Tylor Megill</t>
+  </si>
+  <si>
+    <t>Hunter Brown</t>
+  </si>
+  <si>
+    <t>Cal Quantrill</t>
+  </si>
+  <si>
+    <t>Brandon Marsh</t>
   </si>
   <si>
     <t>Jesse Winker</t>
   </si>
   <si>
-    <t>Tylor Megill</t>
-  </si>
-  <si>
-    <t>Hunter Brown</t>
-  </si>
-  <si>
-    <t>Cal Quantrill</t>
-  </si>
-  <si>
-    <t>Brandon Marsh</t>
+    <t>Matt Mervis</t>
+  </si>
+  <si>
+    <t>Taijuan Walker</t>
+  </si>
+  <si>
+    <t>Oswaldo Cabrera</t>
+  </si>
+  <si>
+    <t>Taylor Rogers</t>
   </si>
   <si>
     <t>Garrett Whitlock</t>
   </si>
   <si>
-    <t>Taijuan Walker</t>
-  </si>
-  <si>
-    <t>Matt Mervis</t>
-  </si>
-  <si>
     <t>Eduardo Rodriguez</t>
   </si>
   <si>
-    <t>Oswaldo Cabrera</t>
-  </si>
-  <si>
-    <t>Taylor Rogers</t>
-  </si>
-  <si>
-    <t>Tommy</t>
-  </si>
-  <si>
     <t>Jonah Heim</t>
   </si>
   <si>
+    <t>Tommy Pham</t>
+  </si>
+  <si>
+    <t>Kodai Senga</t>
+  </si>
+  <si>
     <t>Brayan Bello</t>
   </si>
   <si>
@@ -931,27 +934,33 @@
     <t>Jose Quintana</t>
   </si>
   <si>
+    <t>Logan O'Hoppe</t>
+  </si>
+  <si>
+    <t>Daniel Hudson</t>
+  </si>
+  <si>
     <t>Juan Yepez</t>
   </si>
   <si>
-    <t>Kodai Senga</t>
-  </si>
-  <si>
     <t>Avisail Garcia</t>
   </si>
   <si>
-    <t>Logan O'Hoppe</t>
-  </si>
-  <si>
     <t>Ross Stripling</t>
   </si>
   <si>
-    <t>Daniel Hudson</t>
-  </si>
-  <si>
     <t>Mike Clevinger</t>
   </si>
   <si>
+    <t>Evan Phillips</t>
+  </si>
+  <si>
+    <t>Zach Eflin</t>
+  </si>
+  <si>
+    <t>Tanner Houck</t>
+  </si>
+  <si>
     <t>Masataka Yoshida</t>
   </si>
   <si>
@@ -961,9 +970,6 @@
     <t>Kenta Maeda</t>
   </si>
   <si>
-    <t>Evan Phillips</t>
-  </si>
-  <si>
     <t>Spencer Torkelson</t>
   </si>
   <si>
@@ -973,12 +979,6 @@
     <t>Chris Martin</t>
   </si>
   <si>
-    <t>Tanner Houck</t>
-  </si>
-  <si>
-    <t>Zach Eflin</t>
-  </si>
-  <si>
     <t>Yasmani Grandal</t>
   </si>
   <si>
@@ -1012,24 +1012,24 @@
     <t>Nick Gordon</t>
   </si>
   <si>
+    <t>Adam Wainwright</t>
+  </si>
+  <si>
     <t>Marcell Ozuna</t>
   </si>
   <si>
-    <t>Adam Wainwright</t>
-  </si>
-  <si>
     <t>Craig Kimbrel</t>
   </si>
   <si>
     <t>Garrett Mitchell</t>
   </si>
   <si>
+    <t>Christian Vazquez</t>
+  </si>
+  <si>
     <t>TJ Friedl</t>
   </si>
   <si>
-    <t>Christian Vazquez</t>
-  </si>
-  <si>
     <t>Wil Myers</t>
   </si>
   <si>
@@ -1042,18 +1042,24 @@
     <t>MacKenzie Gore</t>
   </si>
   <si>
+    <t>Aaron Civale</t>
+  </si>
+  <si>
     <t>Alex Kirilloff</t>
   </si>
   <si>
+    <t>Noah Syndergaard</t>
+  </si>
+  <si>
     <t>Isaac Paredes</t>
   </si>
   <si>
+    <t>Bubba Thompson</t>
+  </si>
+  <si>
     <t>Brandon Hughes</t>
   </si>
   <si>
-    <t>Bubba Thompson</t>
-  </si>
-  <si>
     <t>Rafael Montero</t>
   </si>
   <si>
@@ -1063,27 +1069,27 @@
     <t>Andrew McCutchen</t>
   </si>
   <si>
+    <t>Jurickson</t>
+  </si>
+  <si>
     <t>Oswald Peraza</t>
   </si>
   <si>
     <t>Tarik Skubal</t>
   </si>
   <si>
-    <t>Jurickson</t>
-  </si>
-  <si>
     <t>Braxton Garrett</t>
   </si>
   <si>
     <t>AJ Pollock</t>
   </si>
   <si>
+    <t>Francisco Alvarez</t>
+  </si>
+  <si>
     <t>Trayce Thompson</t>
   </si>
   <si>
-    <t>Francisco Alvarez</t>
-  </si>
-  <si>
     <t>Eduardo Escobar</t>
   </si>
   <si>
@@ -1096,36 +1102,30 @@
     <t>Drey Jameson</t>
   </si>
   <si>
+    <t>Kyle Gibson</t>
+  </si>
+  <si>
     <t>James Karinchak</t>
   </si>
   <si>
-    <t>Kyle Gibson</t>
-  </si>
-  <si>
     <t>Cody Morris</t>
   </si>
   <si>
     <t>Mike Soroka</t>
   </si>
   <si>
-    <t>Aaron Civale</t>
-  </si>
-  <si>
     <t>Kyle Bradish</t>
   </si>
   <si>
+    <t>Gabriel Moreno</t>
+  </si>
+  <si>
     <t>A.J. Puk</t>
   </si>
   <si>
     <t>Aroldis</t>
   </si>
   <si>
-    <t>Noah Syndergaard</t>
-  </si>
-  <si>
-    <t>Gabriel Moreno</t>
-  </si>
-  <si>
     <t>Gio Urshela</t>
   </si>
   <si>
@@ -1180,60 +1180,60 @@
     <t>Tanner Scott</t>
   </si>
   <si>
+    <t>Bryan Abreu</t>
+  </si>
+  <si>
     <t>Oscar Colas</t>
   </si>
   <si>
     <t>Max Kepler</t>
   </si>
   <si>
-    <t>Bryan Abreu</t>
+    <t>Joey Bart</t>
   </si>
   <si>
     <t>Joey Gallo</t>
   </si>
   <si>
+    <t>Jalen Beeks</t>
+  </si>
+  <si>
     <t>Josiah Gray</t>
   </si>
   <si>
-    <t>Joey Bart</t>
-  </si>
-  <si>
     <t>Matt Brash</t>
   </si>
   <si>
-    <t>Jalen Beeks</t>
+    <t>Patrick Wisdom</t>
+  </si>
+  <si>
+    <t>Wilmer Flores</t>
+  </si>
+  <si>
+    <t>Alek Thomas</t>
   </si>
   <si>
     <t>Tony Kemp</t>
   </si>
   <si>
-    <t>Patrick Wisdom</t>
-  </si>
-  <si>
-    <t>Wilmer Flores</t>
-  </si>
-  <si>
-    <t>Alek Thomas</t>
+    <t>Christian Bethancourt</t>
   </si>
   <si>
     <t>Mitch Keller</t>
   </si>
   <si>
-    <t>Christian Bethancourt</t>
-  </si>
-  <si>
     <t>Michael King</t>
   </si>
   <si>
+    <t>Brock Burke</t>
+  </si>
+  <si>
+    <t>Ramon Urias</t>
+  </si>
+  <si>
     <t>Brusdar Graterol</t>
   </si>
   <si>
-    <t>Ramon Urias</t>
-  </si>
-  <si>
-    <t>Brock Burke</t>
-  </si>
-  <si>
     <t>Alex Vesia</t>
   </si>
   <si>
@@ -1246,45 +1246,45 @@
     <t>Garrett Cleavinger</t>
   </si>
   <si>
+    <t>Aaron Bummer</t>
+  </si>
+  <si>
     <t>Connor Joe</t>
   </si>
   <si>
-    <t>Aaron Bummer</t>
-  </si>
-  <si>
     <t>Carson Kelly</t>
   </si>
   <si>
     <t>Luis Ortiz</t>
   </si>
   <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Nolan Gorman</t>
+  </si>
+  <si>
     <t>Shea Langeliers</t>
   </si>
   <si>
-    <t>Nolan Gorman</t>
-  </si>
-  <si>
     <t>Jose Suarez</t>
   </si>
   <si>
     <t>Ken Waldichuk</t>
   </si>
   <si>
-    <t>Will</t>
+    <t>Joe Jimenez</t>
   </si>
   <si>
     <t>David Robertson</t>
   </si>
   <si>
-    <t>Joe Jimenez</t>
+    <t>Leody Taveras</t>
   </si>
   <si>
     <t>Myles Straw</t>
   </si>
   <si>
-    <t>Leody Taveras</t>
-  </si>
-  <si>
     <t>J.P. Crawford</t>
   </si>
   <si>
@@ -1300,30 +1300,30 @@
     <t>Garrett Cooper</t>
   </si>
   <si>
+    <t>Royce Lewis</t>
+  </si>
+  <si>
     <t>Josh Lowe</t>
   </si>
   <si>
-    <t>Royce Lewis</t>
-  </si>
-  <si>
     <t>Joey Votto</t>
   </si>
   <si>
+    <t>Joe Kelly</t>
+  </si>
+  <si>
     <t>J.D. Davis</t>
   </si>
   <si>
-    <t>Joe Kelly</t>
+    <t>Elias Diaz</t>
+  </si>
+  <si>
+    <t>JT Brubaker</t>
   </si>
   <si>
     <t>Anthony DeSclafani</t>
   </si>
   <si>
-    <t>Elias Diaz</t>
-  </si>
-  <si>
-    <t>JT Brubaker</t>
-  </si>
-  <si>
     <t>Anthony Volpe</t>
   </si>
   <si>
@@ -1357,6 +1357,9 @@
     <t>Brandon Crawford</t>
   </si>
   <si>
+    <t>Kevin Ginkel</t>
+  </si>
+  <si>
     <t>Spencer Turnbull</t>
   </si>
   <si>
@@ -1366,7 +1369,10 @@
     <t>David Fletcher</t>
   </si>
   <si>
-    <t>Kevin Ginkel</t>
+    <t>Caleb Thielbar</t>
+  </si>
+  <si>
+    <t>Elieser Hernandez</t>
   </si>
   <si>
     <t>John Schreiber</t>
@@ -1375,12 +1381,6 @@
     <t>Josh Donaldson</t>
   </si>
   <si>
-    <t>Caleb Thielbar</t>
-  </si>
-  <si>
-    <t>Elieser Hernandez</t>
-  </si>
-  <si>
     <t>Rodolfo Castro</t>
   </si>
   <si>
@@ -1396,46 +1396,49 @@
     <t>Mitch Garver</t>
   </si>
   <si>
+    <t>Bobby Dalbec</t>
+  </si>
+  <si>
     <t>Chas McCormick</t>
   </si>
   <si>
+    <t>Nick Madrigal</t>
+  </si>
+  <si>
+    <t>Jordan Hicks</t>
+  </si>
+  <si>
     <t>Matt Manning</t>
   </si>
   <si>
-    <t>Bobby Dalbec</t>
+    <t>James Paxton</t>
+  </si>
+  <si>
+    <t>Hunter Harvey</t>
+  </si>
+  <si>
+    <t>Diego Castillo</t>
   </si>
   <si>
     <t>Cole Irvin</t>
   </si>
   <si>
-    <t>Nick Madrigal</t>
-  </si>
-  <si>
-    <t>Jordan Hicks</t>
-  </si>
-  <si>
     <t>Domingo Acevedo</t>
   </si>
   <si>
-    <t>James Paxton</t>
-  </si>
-  <si>
-    <t>Hunter Harvey</t>
-  </si>
-  <si>
-    <t>Diego Castillo</t>
-  </si>
-  <si>
     <t>Hector Neris</t>
   </si>
   <si>
+    <t>Trevor Stephan</t>
+  </si>
+  <si>
+    <t>Jonathan Loaisiga</t>
+  </si>
+  <si>
     <t>Tejay Antone</t>
   </si>
   <si>
-    <t>Trevor Stephan</t>
-  </si>
-  <si>
-    <t>Jonathan Loaisiga</t>
+    <t>Sam Hentges</t>
   </si>
   <si>
     <t>Santiago Espinal</t>
@@ -1444,154 +1447,178 @@
     <t>Chris Flexen</t>
   </si>
   <si>
-    <t>Sam Hentges</t>
-  </si>
-  <si>
     <t>Gavin Sheets</t>
   </si>
   <si>
     <t>Brooks Raley</t>
   </si>
   <si>
+    <t>Reynaldo Lopez</t>
+  </si>
+  <si>
+    <t>Collin McHugh</t>
+  </si>
+  <si>
     <t>Franmil Reyes</t>
   </si>
   <si>
+    <t>Brice Turang</t>
+  </si>
+  <si>
+    <t>Trevor</t>
+  </si>
+  <si>
     <t>Isiah KinerFalefa</t>
   </si>
   <si>
-    <t>Brice Turang</t>
-  </si>
-  <si>
-    <t>Reynaldo Lopez</t>
-  </si>
-  <si>
-    <t>Collin McHugh</t>
-  </si>
-  <si>
     <t>Nelson Cruz</t>
   </si>
   <si>
+    <t>Tommy Kahnle</t>
+  </si>
+  <si>
+    <t>Garrett Crochet</t>
+  </si>
+  <si>
+    <t>Jakob Junis</t>
+  </si>
+  <si>
     <t>Brett Baty</t>
   </si>
   <si>
-    <t>Garrett Crochet</t>
-  </si>
-  <si>
-    <t>Trevor</t>
+    <t>Zach Jackson</t>
+  </si>
+  <si>
+    <t>Adam Ottavino</t>
+  </si>
+  <si>
+    <t>Joe Mantiply</t>
   </si>
   <si>
     <t>Drew Waters</t>
   </si>
   <si>
-    <t>Tommy Kahnle</t>
-  </si>
-  <si>
     <t>Ryan Jeffers</t>
   </si>
   <si>
-    <t>Joe Mantiply</t>
-  </si>
-  <si>
-    <t>Jakob Junis</t>
+    <t>Nate Pearson</t>
+  </si>
+  <si>
+    <t>Mark Leiter Jr.</t>
   </si>
   <si>
     <t>Jack Suwinski</t>
   </si>
   <si>
-    <t>Zach Jackson</t>
-  </si>
-  <si>
-    <t>Adam Ottavino</t>
-  </si>
-  <si>
-    <t>Mark Leiter Jr.</t>
-  </si>
-  <si>
-    <t>Nate Pearson</t>
-  </si>
-  <si>
     <t>Keegan Akin</t>
   </si>
   <si>
+    <t>Shawn Armstrong</t>
+  </si>
+  <si>
+    <t>Andrew Bellatti</t>
+  </si>
+  <si>
+    <t>Bryan Baker</t>
+  </si>
+  <si>
     <t>Brandon Pfaadt</t>
   </si>
   <si>
-    <t>Shawn Armstrong</t>
-  </si>
-  <si>
-    <t>Andrew Bellatti</t>
-  </si>
-  <si>
-    <t>Bryan Baker</t>
+    <t>Dylan Lee</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks</t>
   </si>
   <si>
     <t>Yuli</t>
   </si>
   <si>
-    <t>Dylan Lee</t>
-  </si>
-  <si>
     <t>Kyle Farmer</t>
   </si>
   <si>
-    <t>Kyle Hendricks</t>
+    <t>Jovani Moran</t>
+  </si>
+  <si>
+    <t>Brian Anderson</t>
+  </si>
+  <si>
+    <t>Yan Gomes</t>
+  </si>
+  <si>
+    <t>Keegan Thompson</t>
+  </si>
+  <si>
+    <t>Endy Rodriguez</t>
+  </si>
+  <si>
+    <t>Emilio Pagan</t>
+  </si>
+  <si>
+    <t>Clarke Schmidt</t>
+  </si>
+  <si>
+    <t>Aledmys Diaz</t>
+  </si>
+  <si>
+    <t>Steven Okert</t>
   </si>
   <si>
     <t>Joey Wendle</t>
   </si>
   <si>
+    <t>Will Brennan</t>
+  </si>
+  <si>
+    <t>Wandy Peralta</t>
+  </si>
+  <si>
     <t>Nick Martinez</t>
   </si>
   <si>
-    <t>Yan Gomes</t>
-  </si>
-  <si>
-    <t>Keegan Thompson</t>
+    <t>Cionel Perez</t>
+  </si>
+  <si>
+    <t>Eli Morgan</t>
+  </si>
+  <si>
+    <t>Andrew</t>
   </si>
   <si>
     <t>Jesus Sanchez</t>
   </si>
   <si>
-    <t>Jovani Moran</t>
-  </si>
-  <si>
-    <t>Brian Anderson</t>
-  </si>
-  <si>
-    <t>Clarke Schmidt</t>
-  </si>
-  <si>
-    <t>Aledmys Diaz</t>
-  </si>
-  <si>
-    <t>Will Brennan</t>
-  </si>
-  <si>
-    <t>Eli Morgan</t>
-  </si>
-  <si>
-    <t>Endy Rodriguez</t>
+    <t>Dylan Coleman</t>
+  </si>
+  <si>
+    <t>Luis Campusano</t>
+  </si>
+  <si>
+    <t>Matt Strahm</t>
+  </si>
+  <si>
+    <t>Drew Pomeranz</t>
   </si>
   <si>
     <t>Jarren Duran</t>
   </si>
   <si>
-    <t>Emilio Pagan</t>
-  </si>
-  <si>
-    <t>Luis Campusano</t>
-  </si>
-  <si>
-    <t>Steven Okert</t>
-  </si>
-  <si>
-    <t>Wandy Peralta</t>
-  </si>
-  <si>
-    <t>Cionel Perez</t>
-  </si>
-  <si>
-    <t>Andrew</t>
+    <t>Enyel De Los Santos</t>
+  </si>
+  <si>
+    <t>Colin Poche</t>
+  </si>
+  <si>
+    <t>James Outman</t>
+  </si>
+  <si>
+    <t>Yimi Garcia</t>
+  </si>
+  <si>
+    <t>Francisco Mejia</t>
+  </si>
+  <si>
+    <t>Connor Brogdon</t>
   </si>
   <si>
     <t>Nolan Jones</t>
@@ -1600,33 +1627,6 @@
     <t>Michael Massey</t>
   </si>
   <si>
-    <t>Dylan Coleman</t>
-  </si>
-  <si>
-    <t>James Outman</t>
-  </si>
-  <si>
-    <t>Francisco Mejia</t>
-  </si>
-  <si>
-    <t>Matt Strahm</t>
-  </si>
-  <si>
-    <t>Drew Pomeranz</t>
-  </si>
-  <si>
-    <t>Enyel De Los Santos</t>
-  </si>
-  <si>
-    <t>Colin Poche</t>
-  </si>
-  <si>
-    <t>Yimi Garcia</t>
-  </si>
-  <si>
-    <t>Connor Brogdon</t>
-  </si>
-  <si>
     <t>Tim Mayza</t>
   </si>
   <si>
@@ -1651,162 +1651,162 @@
     <t>Jake Cousins</t>
   </si>
   <si>
+    <t>Michael Lorenzen</t>
+  </si>
+  <si>
     <t>Michael</t>
   </si>
   <si>
-    <t>Michael Lorenzen</t>
+    <t>Anthony Bass</t>
+  </si>
+  <si>
+    <t>Bailey Falter</t>
+  </si>
+  <si>
+    <t>Kirby Yates</t>
+  </si>
+  <si>
+    <t>Carlos Santana</t>
   </si>
   <si>
     <t>JiMan Choi</t>
   </si>
   <si>
-    <t>Bailey Falter</t>
-  </si>
-  <si>
-    <t>Carlos Santana</t>
-  </si>
-  <si>
-    <t>Anthony Bass</t>
-  </si>
-  <si>
-    <t>Kirby Yates</t>
-  </si>
-  <si>
     <t>Omar Narvaez</t>
   </si>
   <si>
+    <t>Sal Frelick</t>
+  </si>
+  <si>
+    <t>Mike Zunino</t>
+  </si>
+  <si>
+    <t>Nick Pratto</t>
+  </si>
+  <si>
+    <t>Elly De La Cruz</t>
+  </si>
+  <si>
+    <t>Jonathan Aranda</t>
+  </si>
+  <si>
+    <t>Drew Smyly</t>
+  </si>
+  <si>
     <t>Bryce Elder</t>
   </si>
   <si>
-    <t>Sal Frelick</t>
-  </si>
-  <si>
-    <t>Nick Pratto</t>
-  </si>
-  <si>
-    <t>Elly De La Cruz</t>
-  </si>
-  <si>
-    <t>Mike Zunino</t>
-  </si>
-  <si>
-    <t>Jonathan Aranda</t>
+    <t>Adrian Morejon</t>
   </si>
   <si>
     <t>Jace Peterson</t>
   </si>
   <si>
-    <t>Adrian Morejon</t>
-  </si>
-  <si>
-    <t>Drew Smyly</t>
+    <t>Reese McGuire</t>
+  </si>
+  <si>
+    <t>Victor Robles</t>
   </si>
   <si>
     <t>Joe Barlow</t>
   </si>
   <si>
-    <t>Reese McGuire</t>
+    <t>LaMonte Wade Jr.</t>
+  </si>
+  <si>
+    <t>Kyle Stowers</t>
+  </si>
+  <si>
+    <t>JP Sears</t>
   </si>
   <si>
     <t>Spencer Steer</t>
   </si>
   <si>
-    <t>Kyle Stowers</t>
-  </si>
-  <si>
-    <t>JP Sears</t>
-  </si>
-  <si>
-    <t>Victor Robles</t>
-  </si>
-  <si>
-    <t>LaMonte Wade Jr.</t>
+    <t>Keston Hiura</t>
+  </si>
+  <si>
+    <t>Stone Garrett</t>
   </si>
   <si>
     <t>Vidal Brujan</t>
   </si>
   <si>
-    <t>Keston Hiura</t>
-  </si>
-  <si>
-    <t>Stone Garrett</t>
+    <t>Rich Hill</t>
   </si>
   <si>
     <t>Eddie Rosario</t>
   </si>
   <si>
-    <t>Rich Hill</t>
-  </si>
-  <si>
     <t>Christian Arroyo</t>
   </si>
   <si>
     <t>Blake Treinen</t>
   </si>
   <si>
+    <t>Jorge Alfaro</t>
+  </si>
+  <si>
     <t>Cade Cavalli</t>
   </si>
   <si>
+    <t>Evan Longoria</t>
+  </si>
+  <si>
     <t>Ian Anderson</t>
   </si>
   <si>
-    <t>Jorge Alfaro</t>
-  </si>
-  <si>
-    <t>Evan Longoria</t>
-  </si>
-  <si>
     <t>Matt Barnes</t>
   </si>
   <si>
     <t>Tyler Wells</t>
   </si>
   <si>
-    <t>Adam</t>
+    <t>Adam Duvall</t>
   </si>
   <si>
     <t>Jake Alu</t>
   </si>
   <si>
+    <t>Taj Bradley</t>
+  </si>
+  <si>
+    <t>Dean Kremer</t>
+  </si>
+  <si>
+    <t>Bobby Miller</t>
+  </si>
+  <si>
+    <t>Kevin Newman</t>
+  </si>
+  <si>
+    <t>James Kaprielian</t>
+  </si>
+  <si>
+    <t>Miguel Rojas</t>
+  </si>
+  <si>
+    <t>Dany Jimenez</t>
+  </si>
+  <si>
+    <t>Sixto Sanchez</t>
+  </si>
+  <si>
     <t>Ryan Pepiot</t>
   </si>
   <si>
-    <t>Taj Bradley</t>
-  </si>
-  <si>
-    <t>Dean Kremer</t>
-  </si>
-  <si>
-    <t>Bobby Miller</t>
-  </si>
-  <si>
-    <t>Kevin Newman</t>
-  </si>
-  <si>
-    <t>James Kaprielian</t>
+    <t>JJ Bleday</t>
+  </si>
+  <si>
+    <t>Max Stassi</t>
+  </si>
+  <si>
+    <t>Dylan Moore</t>
   </si>
   <si>
     <t>Joey Wentz</t>
   </si>
   <si>
-    <t>Miguel Rojas</t>
-  </si>
-  <si>
-    <t>Dany Jimenez</t>
-  </si>
-  <si>
-    <t>Sixto Sanchez</t>
-  </si>
-  <si>
-    <t>Dylan Moore</t>
-  </si>
-  <si>
-    <t>JJ Bleday</t>
-  </si>
-  <si>
-    <t>Max Stassi</t>
-  </si>
-  <si>
     <t>Kyle Harrison</t>
   </si>
   <si>
@@ -1972,7 +1972,7 @@
     <t>Nate Eaton</t>
   </si>
   <si>
-    <t>Manuel</t>
+    <t>Manuel Rodriguez</t>
   </si>
   <si>
     <t>Conner Capel</t>
@@ -2533,15 +2533,15 @@
     <t>DH,LF</t>
   </si>
   <si>
+    <t>SP,RP</t>
+  </si>
+  <si>
     <t>C,CF,DH,LF,RF</t>
   </si>
   <si>
     <t>2B,RF,SS</t>
   </si>
   <si>
-    <t>SP,RP</t>
-  </si>
-  <si>
     <t>CF,DH,LF</t>
   </si>
   <si>
@@ -2590,12 +2590,12 @@
     <t>LF,CF</t>
   </si>
   <si>
+    <t>1B,3B,DH</t>
+  </si>
+  <si>
     <t>2B,DH,LF,RF</t>
   </si>
   <si>
-    <t>1B,3B,DH</t>
-  </si>
-  <si>
     <t>RF,DH</t>
   </si>
   <si>
@@ -2605,30 +2605,30 @@
     <t>2B,DH,SS</t>
   </si>
   <si>
+    <t>1B,2B,SS</t>
+  </si>
+  <si>
     <t>1B,2B,3B,DH,LF</t>
   </si>
   <si>
-    <t>1B,2B,SS</t>
+    <t>1B,RF</t>
   </si>
   <si>
     <t>2B,DH</t>
   </si>
   <si>
-    <t>1B,RF</t>
-  </si>
-  <si>
     <t>2B,CF,DH</t>
   </si>
   <si>
     <t>2B,LF,SS</t>
   </si>
   <si>
+    <t>2B,3B</t>
+  </si>
+  <si>
     <t>1B,DH,RF</t>
   </si>
   <si>
-    <t>2B,3B</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -2869,12 +2869,12 @@
     <t>MIN</t>
   </si>
   <si>
+    <t>COL</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
-    <t>COL</t>
-  </si>
-  <si>
     <t>CIN</t>
   </si>
   <si>
@@ -2887,9 +2887,6 @@
     <t>OAK</t>
   </si>
   <si>
-    <t>Pham</t>
-  </si>
-  <si>
     <t>Profar</t>
   </si>
   <si>
@@ -2923,16 +2920,10 @@
     <t>Wacha</t>
   </si>
   <si>
-    <t>Duvall</t>
-  </si>
-  <si>
     <t>Tapia</t>
   </si>
   <si>
     <t>Moustakas</t>
-  </si>
-  <si>
-    <t>Rodriguez</t>
   </si>
   <si>
     <t>Peralta</t>
@@ -3551,10 +3542,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D15" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3565,10 +3556,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D16" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3775,10 +3766,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>814</v>
+        <v>831</v>
       </c>
       <c r="D31" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3789,10 +3780,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D32" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3803,10 +3794,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="D33" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3901,10 +3892,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D40" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3915,10 +3906,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D41" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4069,10 +4060,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="D52" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4083,10 +4074,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
       <c r="D53" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4125,10 +4116,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>821</v>
+        <v>835</v>
       </c>
       <c r="D56" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4139,10 +4130,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D57" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4153,7 +4144,7 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="D58" t="s">
         <v>933</v>
@@ -4167,10 +4158,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>812</v>
+        <v>829</v>
       </c>
       <c r="D59" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4181,10 +4172,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="D60" t="s">
-        <v>926</v>
+        <v>939</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4209,10 +4200,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="D62" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4223,10 +4214,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="D63" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4265,10 +4256,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="D66" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4293,10 +4284,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="D68" t="s">
-        <v>946</v>
+        <v>928</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4307,10 +4298,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
       <c r="D69" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4321,7 +4312,7 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="D70" t="s">
         <v>931</v>
@@ -4338,7 +4329,7 @@
         <v>839</v>
       </c>
       <c r="D71" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4349,10 +4340,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="D72" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4377,10 +4368,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="D74" t="s">
-        <v>931</v>
+        <v>944</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4450,7 +4441,7 @@
         <v>831</v>
       </c>
       <c r="D79" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4464,7 +4455,7 @@
         <v>831</v>
       </c>
       <c r="D80" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4489,10 +4480,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="D82" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4503,10 +4494,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="D83" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4531,10 +4522,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D85" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4545,10 +4536,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D86" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4573,10 +4564,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D88" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4601,10 +4592,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="D90" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4615,10 +4606,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="D91" t="s">
-        <v>936</v>
+        <v>945</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4629,10 +4620,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D92" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4643,10 +4634,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D93" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4727,10 +4718,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>828</v>
+        <v>846</v>
       </c>
       <c r="D99" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4741,10 +4732,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>846</v>
+        <v>817</v>
       </c>
       <c r="D100" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4755,10 +4746,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D101" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4769,10 +4760,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>820</v>
+        <v>847</v>
       </c>
       <c r="D102" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4783,10 +4774,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="D103" t="s">
-        <v>930</v>
+        <v>951</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4797,7 +4788,7 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D104" t="s">
         <v>927</v>
@@ -4825,10 +4816,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>813</v>
+        <v>832</v>
       </c>
       <c r="D106" t="s">
-        <v>927</v>
+        <v>945</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4839,10 +4830,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D107" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4853,10 +4844,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="D108" t="s">
-        <v>945</v>
+        <v>926</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4870,7 +4861,7 @@
         <v>821</v>
       </c>
       <c r="D109" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4881,10 +4872,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="D110" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4895,10 +4886,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="D111" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4909,10 +4900,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>821</v>
+        <v>848</v>
       </c>
       <c r="D112" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4923,10 +4914,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>848</v>
+        <v>821</v>
       </c>
       <c r="D113" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4940,7 +4931,7 @@
         <v>821</v>
       </c>
       <c r="D114" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -5010,7 +5001,7 @@
         <v>850</v>
       </c>
       <c r="D119" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5024,7 +5015,7 @@
         <v>828</v>
       </c>
       <c r="D120" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5035,10 +5026,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="D121" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5049,10 +5040,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="D122" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -5063,7 +5054,7 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>817</v>
+        <v>834</v>
       </c>
       <c r="D123" t="s">
         <v>946</v>
@@ -5091,10 +5082,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D125" t="s">
-        <v>952</v>
+        <v>929</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -5105,10 +5096,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>810</v>
+        <v>821</v>
       </c>
       <c r="D126" t="s">
-        <v>929</v>
+        <v>952</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5147,10 +5138,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="D129" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -5161,10 +5152,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="D130" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -5175,10 +5166,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>852</v>
+        <v>828</v>
       </c>
       <c r="D131" t="s">
-        <v>945</v>
+        <v>927</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5206,7 +5197,7 @@
         <v>828</v>
       </c>
       <c r="D133" t="s">
-        <v>927</v>
+        <v>938</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5217,10 +5208,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D134" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5231,10 +5222,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="D135" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5245,10 +5236,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>828</v>
+        <v>853</v>
       </c>
       <c r="D136" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5262,7 +5253,7 @@
         <v>821</v>
       </c>
       <c r="D137" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5273,10 +5264,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D138" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5287,10 +5278,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>813</v>
+        <v>834</v>
       </c>
       <c r="D139" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5301,10 +5292,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D140" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5315,10 +5306,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="D141" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5343,10 +5334,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D143" t="s">
-        <v>927</v>
+        <v>938</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5357,10 +5348,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>855</v>
+        <v>821</v>
       </c>
       <c r="D144" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5371,10 +5362,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D145" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5385,10 +5376,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>821</v>
+        <v>855</v>
       </c>
       <c r="D146" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5402,7 +5393,7 @@
         <v>821</v>
       </c>
       <c r="D147" t="s">
-        <v>933</v>
+        <v>944</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5413,10 +5404,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="D148" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5427,10 +5418,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>828</v>
+        <v>856</v>
       </c>
       <c r="D149" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5441,10 +5432,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>856</v>
+        <v>828</v>
       </c>
       <c r="D150" t="s">
-        <v>939</v>
+        <v>950</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5455,10 +5446,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>854</v>
+        <v>812</v>
       </c>
       <c r="D151" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5469,10 +5460,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="D152" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5483,10 +5474,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>821</v>
+        <v>854</v>
       </c>
       <c r="D153" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5497,10 +5488,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>857</v>
+        <v>821</v>
       </c>
       <c r="D154" t="s">
-        <v>943</v>
+        <v>926</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5511,10 +5502,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>858</v>
+        <v>825</v>
       </c>
       <c r="D155" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5525,10 +5516,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>825</v>
+        <v>857</v>
       </c>
       <c r="D156" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5539,10 +5530,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>821</v>
+        <v>858</v>
       </c>
       <c r="D157" t="s">
-        <v>934</v>
+        <v>943</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5553,10 +5544,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="D158" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5567,10 +5558,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="D159" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5595,10 +5586,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>859</v>
+        <v>825</v>
       </c>
       <c r="D161" t="s">
-        <v>950</v>
+        <v>933</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5609,10 +5600,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>842</v>
+        <v>859</v>
       </c>
       <c r="D162" t="s">
-        <v>926</v>
+        <v>951</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5637,10 +5628,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D164" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5665,10 +5656,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
       <c r="D166" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5679,10 +5670,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>810</v>
+        <v>860</v>
       </c>
       <c r="D167" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5693,10 +5684,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>860</v>
+        <v>810</v>
       </c>
       <c r="D168" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5721,10 +5712,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="D170" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5735,10 +5726,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>851</v>
+        <v>821</v>
       </c>
       <c r="D171" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5749,10 +5740,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="D172" t="s">
-        <v>928</v>
+        <v>937</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5763,10 +5754,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>821</v>
+        <v>861</v>
       </c>
       <c r="D173" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5777,10 +5768,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>842</v>
+        <v>862</v>
       </c>
       <c r="D174" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5791,10 +5782,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>861</v>
+        <v>828</v>
       </c>
       <c r="D175" t="s">
-        <v>953</v>
+        <v>928</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5819,10 +5810,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="D177" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5836,7 +5827,7 @@
         <v>863</v>
       </c>
       <c r="D178" t="s">
-        <v>932</v>
+        <v>949</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5847,10 +5838,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="D179" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5861,10 +5852,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>864</v>
+        <v>827</v>
       </c>
       <c r="D180" t="s">
-        <v>952</v>
+        <v>929</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5875,10 +5866,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>827</v>
+        <v>864</v>
       </c>
       <c r="D181" t="s">
-        <v>929</v>
+        <v>954</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5892,7 +5883,7 @@
         <v>865</v>
       </c>
       <c r="D182" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5903,10 +5894,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="D183" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5931,10 +5922,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="D185" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5945,10 +5936,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>821</v>
+        <v>838</v>
       </c>
       <c r="D186" t="s">
-        <v>934</v>
+        <v>943</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5973,10 +5964,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="D188" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5987,10 +5978,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>866</v>
+        <v>821</v>
       </c>
       <c r="D189" t="s">
-        <v>946</v>
+        <v>931</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -6001,10 +5992,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>821</v>
+        <v>835</v>
       </c>
       <c r="D190" t="s">
-        <v>931</v>
+        <v>952</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -6015,10 +6006,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
       <c r="D191" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -6032,7 +6023,7 @@
         <v>867</v>
       </c>
       <c r="D192" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -6057,10 +6048,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="D194" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -6071,10 +6062,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>868</v>
+        <v>822</v>
       </c>
       <c r="D195" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -6085,10 +6076,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>821</v>
+        <v>868</v>
       </c>
       <c r="D196" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -6099,10 +6090,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>869</v>
+        <v>838</v>
       </c>
       <c r="D197" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -6113,10 +6104,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>822</v>
+        <v>869</v>
       </c>
       <c r="D198" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -6127,10 +6118,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>821</v>
+        <v>870</v>
       </c>
       <c r="D199" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -6141,10 +6132,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>870</v>
+        <v>821</v>
       </c>
       <c r="D200" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -6155,10 +6146,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>848</v>
+        <v>818</v>
       </c>
       <c r="D201" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -6169,10 +6160,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>821</v>
+        <v>848</v>
       </c>
       <c r="D202" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -6183,10 +6174,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D203" t="s">
-        <v>933</v>
+        <v>955</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -6197,10 +6188,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="D204" t="s">
-        <v>955</v>
+        <v>940</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6211,10 +6202,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>871</v>
+        <v>821</v>
       </c>
       <c r="D205" t="s">
-        <v>935</v>
+        <v>951</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -6225,10 +6216,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="D206" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6253,10 +6244,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>829</v>
+        <v>871</v>
       </c>
       <c r="D208" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6309,10 +6300,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>873</v>
+        <v>813</v>
       </c>
       <c r="D212" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6323,10 +6314,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="D213" t="s">
-        <v>954</v>
+        <v>935</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -6337,10 +6328,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="D214" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6351,10 +6342,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>825</v>
+        <v>873</v>
       </c>
       <c r="D215" t="s">
-        <v>935</v>
+        <v>944</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6368,7 +6359,7 @@
         <v>813</v>
       </c>
       <c r="D216" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6393,10 +6384,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>821</v>
+        <v>847</v>
       </c>
       <c r="D218" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6407,10 +6398,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="D219" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6421,10 +6412,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="D220" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6435,10 +6426,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D221" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6449,10 +6440,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D222" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6463,10 +6454,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="D223" t="s">
-        <v>929</v>
+        <v>946</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6494,7 +6485,7 @@
         <v>821</v>
       </c>
       <c r="D225" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6505,10 +6496,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D226" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6519,10 +6510,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>821</v>
+        <v>870</v>
       </c>
       <c r="D227" t="s">
-        <v>949</v>
+        <v>933</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6533,7 +6524,7 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="D228" t="s">
         <v>942</v>
@@ -6547,10 +6538,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>870</v>
+        <v>838</v>
       </c>
       <c r="D229" t="s">
-        <v>933</v>
+        <v>949</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -6561,10 +6552,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>825</v>
+        <v>846</v>
       </c>
       <c r="D230" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6575,10 +6566,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="D231" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6589,10 +6580,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>846</v>
+        <v>870</v>
       </c>
       <c r="D232" t="s">
-        <v>945</v>
+        <v>954</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6603,10 +6594,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="D233" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6617,10 +6608,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>858</v>
+        <v>831</v>
       </c>
       <c r="D234" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6631,10 +6622,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>870</v>
+        <v>815</v>
       </c>
       <c r="D235" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6645,10 +6636,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D236" t="s">
-        <v>951</v>
+        <v>938</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6659,10 +6650,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="D237" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6673,10 +6664,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>814</v>
+        <v>857</v>
       </c>
       <c r="D238" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6687,10 +6678,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>821</v>
+        <v>875</v>
       </c>
       <c r="D239" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6701,7 +6692,7 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="D240" t="s">
         <v>938</v>
@@ -6715,10 +6706,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>821</v>
+        <v>876</v>
       </c>
       <c r="D241" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6729,10 +6720,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D242" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6743,10 +6734,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>876</v>
+        <v>828</v>
       </c>
       <c r="D243" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6757,10 +6748,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>877</v>
+        <v>821</v>
       </c>
       <c r="D244" t="s">
-        <v>927</v>
+        <v>948</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6771,10 +6762,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D245" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6785,10 +6776,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>823</v>
+        <v>878</v>
       </c>
       <c r="D246" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6799,10 +6790,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>878</v>
+        <v>821</v>
       </c>
       <c r="D247" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6841,10 +6832,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>810</v>
+        <v>879</v>
       </c>
       <c r="D250" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6855,7 +6846,7 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>853</v>
+        <v>821</v>
       </c>
       <c r="D251" t="s">
         <v>948</v>
@@ -6869,10 +6860,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D252" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6883,10 +6874,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="D253" t="s">
-        <v>954</v>
+        <v>929</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6897,10 +6888,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>879</v>
+        <v>853</v>
       </c>
       <c r="D254" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6925,10 +6916,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>813</v>
+        <v>828</v>
       </c>
       <c r="D256" t="s">
-        <v>929</v>
+        <v>954</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6953,10 +6944,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="D258" t="s">
-        <v>951</v>
+        <v>931</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6967,10 +6958,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="D259" t="s">
-        <v>931</v>
+        <v>954</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6981,10 +6972,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
       <c r="D260" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -7009,7 +7000,7 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D262" t="s">
         <v>929</v>
@@ -7023,10 +7014,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D263" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -7051,10 +7042,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D265" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -7068,7 +7059,7 @@
         <v>821</v>
       </c>
       <c r="D266" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -7082,7 +7073,7 @@
         <v>821</v>
       </c>
       <c r="D267" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -7096,7 +7087,7 @@
         <v>821</v>
       </c>
       <c r="D268" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -7107,10 +7098,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>821</v>
+        <v>847</v>
       </c>
       <c r="D269" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -7121,10 +7112,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="D270" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -7135,10 +7126,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="D271" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -7149,10 +7140,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>847</v>
+        <v>870</v>
       </c>
       <c r="D272" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -7163,10 +7154,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="D273" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -7177,10 +7168,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="D274" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -7191,10 +7182,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>870</v>
+        <v>832</v>
       </c>
       <c r="D275" t="s">
-        <v>926</v>
+        <v>941</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7205,10 +7196,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D276" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -7219,10 +7210,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="D277" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7247,7 +7238,7 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D279" t="s">
         <v>935</v>
@@ -7261,10 +7252,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="D280" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7275,10 +7266,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>812</v>
+        <v>847</v>
       </c>
       <c r="D281" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7289,10 +7280,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>847</v>
+        <v>881</v>
       </c>
       <c r="D282" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -7303,7 +7294,7 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D283" t="s">
         <v>948</v>
@@ -7317,10 +7308,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>881</v>
+        <v>825</v>
       </c>
       <c r="D284" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7331,10 +7322,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="D285" t="s">
-        <v>940</v>
+        <v>952</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7345,10 +7336,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="D286" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7359,10 +7350,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="D287" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7373,10 +7364,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D288" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -7387,10 +7378,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="D289" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -7401,10 +7392,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="D290" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7415,10 +7406,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="D291" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -7443,10 +7434,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>820</v>
+        <v>882</v>
       </c>
       <c r="D293" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -7457,10 +7448,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D294" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -7471,10 +7462,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>882</v>
+        <v>830</v>
       </c>
       <c r="D295" t="s">
-        <v>927</v>
+        <v>938</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7485,10 +7476,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D296" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -7499,10 +7490,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>841</v>
+        <v>870</v>
       </c>
       <c r="D297" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -7513,10 +7504,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>870</v>
+        <v>841</v>
       </c>
       <c r="D298" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7530,7 +7521,7 @@
         <v>821</v>
       </c>
       <c r="D299" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -7541,10 +7532,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>883</v>
+        <v>821</v>
       </c>
       <c r="D300" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7555,10 +7546,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>840</v>
+        <v>883</v>
       </c>
       <c r="D301" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7569,10 +7560,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>884</v>
+        <v>838</v>
       </c>
       <c r="D302" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7583,10 +7574,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>821</v>
+        <v>870</v>
       </c>
       <c r="D303" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7597,10 +7588,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="D304" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -7611,10 +7602,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>870</v>
+        <v>884</v>
       </c>
       <c r="D305" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7625,10 +7616,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>840</v>
+        <v>810</v>
       </c>
       <c r="D306" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -7639,10 +7630,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="D307" t="s">
-        <v>934</v>
+        <v>951</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7667,10 +7658,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>873</v>
+        <v>828</v>
       </c>
       <c r="D309" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -7681,10 +7672,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
       <c r="D310" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7695,10 +7686,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>821</v>
+        <v>838</v>
       </c>
       <c r="D311" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7709,10 +7700,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>828</v>
+        <v>873</v>
       </c>
       <c r="D312" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7723,10 +7714,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="D313" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7737,10 +7728,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>848</v>
+        <v>821</v>
       </c>
       <c r="D314" t="s">
-        <v>931</v>
+        <v>949</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7751,10 +7742,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D315" t="s">
-        <v>938</v>
+        <v>953</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7765,10 +7756,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="D316" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7779,10 +7770,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D317" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7947,10 +7938,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D329" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7961,10 +7952,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="D330" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -8003,10 +7994,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>847</v>
+        <v>888</v>
       </c>
       <c r="D333" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -8017,10 +8008,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>888</v>
+        <v>847</v>
       </c>
       <c r="D334" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -8084,7 +8075,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C339" t="s">
         <v>813</v>
@@ -8101,10 +8092,10 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>889</v>
+        <v>821</v>
       </c>
       <c r="D340" t="s">
-        <v>949</v>
+        <v>930</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -8115,10 +8106,10 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="D341" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -8129,10 +8120,10 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D342" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -8143,10 +8134,10 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>847</v>
+        <v>877</v>
       </c>
       <c r="D343" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -8157,10 +8148,10 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="D344" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -8171,10 +8162,10 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D345" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -8185,10 +8176,10 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="D346" t="s">
-        <v>947</v>
+        <v>931</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -8199,10 +8190,10 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="D347" t="s">
-        <v>927</v>
+        <v>951</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8213,10 +8204,10 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="D348" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -8230,7 +8221,7 @@
         <v>890</v>
       </c>
       <c r="D349" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8241,10 +8232,10 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="D350" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -8255,10 +8246,10 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>847</v>
+        <v>821</v>
       </c>
       <c r="D351" t="s">
-        <v>928</v>
+        <v>953</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -8269,10 +8260,10 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>847</v>
+        <v>821</v>
       </c>
       <c r="D352" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -8283,10 +8274,10 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>870</v>
+        <v>847</v>
       </c>
       <c r="D353" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -8297,7 +8288,7 @@
         <v>355</v>
       </c>
       <c r="C354" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="D354" t="s">
         <v>939</v>
@@ -8311,10 +8302,10 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="D355" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8325,10 +8316,10 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>828</v>
+        <v>877</v>
       </c>
       <c r="D356" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8339,10 +8330,10 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D357" t="s">
-        <v>946</v>
+        <v>926</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8356,7 +8347,7 @@
         <v>828</v>
       </c>
       <c r="D358" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8370,7 +8361,7 @@
         <v>821</v>
       </c>
       <c r="D359" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8384,7 +8375,7 @@
         <v>821</v>
       </c>
       <c r="D360" t="s">
-        <v>930</v>
+        <v>945</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8395,10 +8386,10 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D361" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8426,7 +8417,7 @@
         <v>821</v>
       </c>
       <c r="D363" t="s">
-        <v>945</v>
+        <v>926</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -8437,10 +8428,10 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D364" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8451,10 +8442,10 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>828</v>
+        <v>870</v>
       </c>
       <c r="D365" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8465,10 +8456,10 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D366" t="s">
-        <v>934</v>
+        <v>955</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8479,10 +8470,10 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>870</v>
+        <v>828</v>
       </c>
       <c r="D367" t="s">
-        <v>946</v>
+        <v>957</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8524,7 +8515,7 @@
         <v>817</v>
       </c>
       <c r="D370" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8538,7 +8529,7 @@
         <v>831</v>
       </c>
       <c r="D371" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8549,7 +8540,7 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D372" t="s">
         <v>948</v>
@@ -8664,7 +8655,7 @@
         <v>821</v>
       </c>
       <c r="D380" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -8728,13 +8719,13 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>386</v>
+        <v>190</v>
       </c>
       <c r="C385" t="s">
         <v>828</v>
       </c>
       <c r="D385" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -8742,13 +8733,13 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C386" t="s">
-        <v>895</v>
+        <v>828</v>
       </c>
       <c r="D386" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -8756,13 +8747,13 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C387" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="D387" t="s">
-        <v>949</v>
+        <v>931</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -8770,13 +8761,13 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>185</v>
+        <v>388</v>
       </c>
       <c r="C388" t="s">
-        <v>828</v>
+        <v>895</v>
       </c>
       <c r="D388" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -8787,10 +8778,10 @@
         <v>389</v>
       </c>
       <c r="C389" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="D389" t="s">
-        <v>931</v>
+        <v>949</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -8801,10 +8792,10 @@
         <v>390</v>
       </c>
       <c r="C390" t="s">
-        <v>832</v>
+        <v>870</v>
       </c>
       <c r="D390" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8815,10 +8806,10 @@
         <v>391</v>
       </c>
       <c r="C391" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="D391" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -8829,10 +8820,10 @@
         <v>392</v>
       </c>
       <c r="C392" t="s">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="D392" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -8843,10 +8834,10 @@
         <v>393</v>
       </c>
       <c r="C393" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="D393" t="s">
-        <v>928</v>
+        <v>954</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -8857,10 +8848,10 @@
         <v>394</v>
       </c>
       <c r="C394" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="D394" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8871,10 +8862,10 @@
         <v>395</v>
       </c>
       <c r="C395" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="D395" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -8885,10 +8876,10 @@
         <v>396</v>
       </c>
       <c r="C396" t="s">
-        <v>896</v>
+        <v>854</v>
       </c>
       <c r="D396" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -8899,10 +8890,10 @@
         <v>397</v>
       </c>
       <c r="C397" t="s">
-        <v>854</v>
+        <v>822</v>
       </c>
       <c r="D397" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -8913,10 +8904,10 @@
         <v>398</v>
       </c>
       <c r="C398" t="s">
-        <v>822</v>
+        <v>886</v>
       </c>
       <c r="D398" t="s">
-        <v>946</v>
+        <v>955</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8927,10 +8918,10 @@
         <v>399</v>
       </c>
       <c r="C399" t="s">
-        <v>821</v>
+        <v>885</v>
       </c>
       <c r="D399" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -8941,10 +8932,10 @@
         <v>400</v>
       </c>
       <c r="C400" t="s">
-        <v>885</v>
+        <v>821</v>
       </c>
       <c r="D400" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -8955,7 +8946,7 @@
         <v>401</v>
       </c>
       <c r="C401" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D401" t="s">
         <v>927</v>
@@ -8969,10 +8960,10 @@
         <v>402</v>
       </c>
       <c r="C402" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D402" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -8997,10 +8988,10 @@
         <v>404</v>
       </c>
       <c r="C404" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D404" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -9067,10 +9058,10 @@
         <v>409</v>
       </c>
       <c r="C409" t="s">
-        <v>853</v>
+        <v>828</v>
       </c>
       <c r="D409" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -9081,10 +9072,10 @@
         <v>410</v>
       </c>
       <c r="C410" t="s">
-        <v>828</v>
+        <v>853</v>
       </c>
       <c r="D410" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -9123,10 +9114,10 @@
         <v>413</v>
       </c>
       <c r="C413" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="D413" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -9151,10 +9142,10 @@
         <v>415</v>
       </c>
       <c r="C415" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D415" t="s">
-        <v>935</v>
+        <v>955</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -9165,10 +9156,10 @@
         <v>416</v>
       </c>
       <c r="C416" t="s">
-        <v>821</v>
+        <v>838</v>
       </c>
       <c r="D416" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -9179,10 +9170,10 @@
         <v>417</v>
       </c>
       <c r="C417" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D417" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -9196,7 +9187,7 @@
         <v>828</v>
       </c>
       <c r="D418" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9210,7 +9201,7 @@
         <v>828</v>
       </c>
       <c r="D419" t="s">
-        <v>926</v>
+        <v>939</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -9224,7 +9215,7 @@
         <v>822</v>
       </c>
       <c r="D420" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -9238,7 +9229,7 @@
         <v>822</v>
       </c>
       <c r="D421" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9305,7 +9296,7 @@
         <v>426</v>
       </c>
       <c r="C426" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D426" t="s">
         <v>941</v>
@@ -9319,10 +9310,10 @@
         <v>427</v>
       </c>
       <c r="C427" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="D427" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -9333,10 +9324,10 @@
         <v>428</v>
       </c>
       <c r="C428" t="s">
-        <v>831</v>
+        <v>847</v>
       </c>
       <c r="D428" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9361,10 +9352,10 @@
         <v>430</v>
       </c>
       <c r="C430" t="s">
-        <v>858</v>
+        <v>828</v>
       </c>
       <c r="D430" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9375,10 +9366,10 @@
         <v>431</v>
       </c>
       <c r="C431" t="s">
-        <v>828</v>
+        <v>857</v>
       </c>
       <c r="D431" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -9389,7 +9380,7 @@
         <v>432</v>
       </c>
       <c r="C432" t="s">
-        <v>821</v>
+        <v>870</v>
       </c>
       <c r="D432" t="s">
         <v>950</v>
@@ -9403,10 +9394,10 @@
         <v>433</v>
       </c>
       <c r="C433" t="s">
-        <v>870</v>
+        <v>821</v>
       </c>
       <c r="D433" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9420,7 +9411,7 @@
         <v>821</v>
       </c>
       <c r="D434" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -9532,7 +9523,7 @@
         <v>842</v>
       </c>
       <c r="D442" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -9574,7 +9565,7 @@
         <v>831</v>
       </c>
       <c r="D445" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -9585,10 +9576,10 @@
         <v>446</v>
       </c>
       <c r="C446" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D446" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9602,7 +9593,7 @@
         <v>821</v>
       </c>
       <c r="D447" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -9613,10 +9604,10 @@
         <v>448</v>
       </c>
       <c r="C448" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="D448" t="s">
-        <v>935</v>
+        <v>946</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -9627,10 +9618,10 @@
         <v>449</v>
       </c>
       <c r="C449" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="D449" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -9644,7 +9635,7 @@
         <v>828</v>
       </c>
       <c r="D450" t="s">
-        <v>938</v>
+        <v>949</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -9655,10 +9646,10 @@
         <v>451</v>
       </c>
       <c r="C451" t="s">
-        <v>814</v>
+        <v>830</v>
       </c>
       <c r="D451" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -9672,7 +9663,7 @@
         <v>828</v>
       </c>
       <c r="D452" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9683,10 +9674,10 @@
         <v>453</v>
       </c>
       <c r="C453" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="D453" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -9767,10 +9758,10 @@
         <v>459</v>
       </c>
       <c r="C459" t="s">
-        <v>851</v>
+        <v>827</v>
       </c>
       <c r="D459" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -9781,10 +9772,10 @@
         <v>460</v>
       </c>
       <c r="C460" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="D460" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -9795,10 +9786,10 @@
         <v>461</v>
       </c>
       <c r="C461" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D461" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -9809,10 +9800,10 @@
         <v>462</v>
       </c>
       <c r="C462" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="D462" t="s">
-        <v>955</v>
+        <v>940</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9823,10 +9814,10 @@
         <v>463</v>
       </c>
       <c r="C463" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="D463" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -9837,10 +9828,10 @@
         <v>464</v>
       </c>
       <c r="C464" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="D464" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -9854,7 +9845,7 @@
         <v>828</v>
       </c>
       <c r="D465" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -9865,10 +9856,10 @@
         <v>466</v>
       </c>
       <c r="C466" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D466" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -9879,10 +9870,10 @@
         <v>467</v>
       </c>
       <c r="C467" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D467" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -9896,7 +9887,7 @@
         <v>828</v>
       </c>
       <c r="D468" t="s">
-        <v>928</v>
+        <v>955</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -9924,7 +9915,7 @@
         <v>828</v>
       </c>
       <c r="D470" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -9938,7 +9929,7 @@
         <v>828</v>
       </c>
       <c r="D471" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -9952,7 +9943,7 @@
         <v>828</v>
       </c>
       <c r="D472" t="s">
-        <v>927</v>
+        <v>952</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -9963,10 +9954,10 @@
         <v>473</v>
       </c>
       <c r="C473" t="s">
-        <v>878</v>
+        <v>838</v>
       </c>
       <c r="D473" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -9977,10 +9968,10 @@
         <v>474</v>
       </c>
       <c r="C474" t="s">
-        <v>830</v>
+        <v>878</v>
       </c>
       <c r="D474" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -9991,10 +9982,10 @@
         <v>475</v>
       </c>
       <c r="C475" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="D475" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -10033,10 +10024,10 @@
         <v>478</v>
       </c>
       <c r="C478" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
       <c r="D478" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -10047,10 +10038,10 @@
         <v>479</v>
       </c>
       <c r="C479" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="D479" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -10061,10 +10052,10 @@
         <v>480</v>
       </c>
       <c r="C480" t="s">
-        <v>831</v>
+        <v>859</v>
       </c>
       <c r="D480" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -10075,10 +10066,10 @@
         <v>481</v>
       </c>
       <c r="C481" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="D481" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -10089,10 +10080,10 @@
         <v>482</v>
       </c>
       <c r="C482" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="D482" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -10103,10 +10094,10 @@
         <v>483</v>
       </c>
       <c r="C483" t="s">
-        <v>900</v>
+        <v>831</v>
       </c>
       <c r="D483" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -10117,10 +10108,10 @@
         <v>484</v>
       </c>
       <c r="C484" t="s">
-        <v>825</v>
+        <v>900</v>
       </c>
       <c r="D484" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -10134,7 +10125,7 @@
         <v>828</v>
       </c>
       <c r="D485" t="s">
-        <v>944</v>
+        <v>927</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -10145,10 +10136,10 @@
         <v>486</v>
       </c>
       <c r="C486" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D486" t="s">
-        <v>963</v>
+        <v>944</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -10159,10 +10150,10 @@
         <v>487</v>
       </c>
       <c r="C487" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="D487" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -10173,10 +10164,10 @@
         <v>488</v>
       </c>
       <c r="C488" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D488" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -10187,10 +10178,10 @@
         <v>489</v>
       </c>
       <c r="C489" t="s">
-        <v>870</v>
+        <v>828</v>
       </c>
       <c r="D489" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -10204,7 +10195,7 @@
         <v>828</v>
       </c>
       <c r="D490" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -10215,10 +10206,10 @@
         <v>491</v>
       </c>
       <c r="C491" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="D491" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -10232,7 +10223,7 @@
         <v>847</v>
       </c>
       <c r="D492" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -10243,10 +10234,10 @@
         <v>493</v>
       </c>
       <c r="C493" t="s">
-        <v>828</v>
+        <v>870</v>
       </c>
       <c r="D493" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -10260,7 +10251,7 @@
         <v>828</v>
       </c>
       <c r="D494" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -10285,10 +10276,10 @@
         <v>496</v>
       </c>
       <c r="C496" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="D496" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -10299,7 +10290,7 @@
         <v>497</v>
       </c>
       <c r="C497" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D497" t="s">
         <v>945</v>
@@ -10313,10 +10304,10 @@
         <v>498</v>
       </c>
       <c r="C498" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="D498" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -10327,10 +10318,10 @@
         <v>499</v>
       </c>
       <c r="C499" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D499" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -10344,7 +10335,7 @@
         <v>828</v>
       </c>
       <c r="D500" t="s">
-        <v>929</v>
+        <v>945</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -10355,10 +10346,10 @@
         <v>501</v>
       </c>
       <c r="C501" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D501" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10369,10 +10360,10 @@
         <v>502</v>
       </c>
       <c r="C502" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="D502" t="s">
-        <v>964</v>
+        <v>926</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -10383,10 +10374,10 @@
         <v>503</v>
       </c>
       <c r="C503" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D503" t="s">
-        <v>926</v>
+        <v>948</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10397,10 +10388,10 @@
         <v>504</v>
       </c>
       <c r="C504" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
       <c r="D504" t="s">
-        <v>949</v>
+        <v>963</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -10411,10 +10402,10 @@
         <v>505</v>
       </c>
       <c r="C505" t="s">
-        <v>821</v>
+        <v>843</v>
       </c>
       <c r="D505" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10425,10 +10416,10 @@
         <v>506</v>
       </c>
       <c r="C506" t="s">
-        <v>878</v>
+        <v>828</v>
       </c>
       <c r="D506" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -10439,10 +10430,10 @@
         <v>507</v>
       </c>
       <c r="C507" t="s">
-        <v>830</v>
+        <v>901</v>
       </c>
       <c r="D507" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10467,7 +10458,7 @@
         <v>509</v>
       </c>
       <c r="C509" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D509" t="s">
         <v>948</v>
@@ -10481,10 +10472,10 @@
         <v>510</v>
       </c>
       <c r="C510" t="s">
-        <v>847</v>
+        <v>870</v>
       </c>
       <c r="D510" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10509,10 +10500,10 @@
         <v>512</v>
       </c>
       <c r="C512" t="s">
-        <v>901</v>
+        <v>830</v>
       </c>
       <c r="D512" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10523,10 +10514,10 @@
         <v>513</v>
       </c>
       <c r="C513" t="s">
-        <v>830</v>
+        <v>902</v>
       </c>
       <c r="D513" t="s">
-        <v>927</v>
+        <v>955</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10537,10 +10528,10 @@
         <v>514</v>
       </c>
       <c r="C514" t="s">
-        <v>902</v>
+        <v>828</v>
       </c>
       <c r="D514" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10551,10 +10542,10 @@
         <v>515</v>
       </c>
       <c r="C515" t="s">
-        <v>847</v>
+        <v>878</v>
       </c>
       <c r="D515" t="s">
-        <v>930</v>
+        <v>941</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -10565,7 +10556,7 @@
         <v>516</v>
       </c>
       <c r="C516" t="s">
-        <v>830</v>
+        <v>847</v>
       </c>
       <c r="D516" t="s">
         <v>930</v>
@@ -10579,10 +10570,10 @@
         <v>517</v>
       </c>
       <c r="C517" t="s">
-        <v>870</v>
+        <v>828</v>
       </c>
       <c r="D517" t="s">
-        <v>947</v>
+        <v>927</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10593,10 +10584,10 @@
         <v>518</v>
       </c>
       <c r="C518" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
       <c r="D518" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10610,7 +10601,7 @@
         <v>828</v>
       </c>
       <c r="D519" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10621,10 +10612,10 @@
         <v>520</v>
       </c>
       <c r="C520" t="s">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="D520" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10638,7 +10629,7 @@
         <v>828</v>
       </c>
       <c r="D521" t="s">
-        <v>941</v>
+        <v>964</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10649,10 +10640,10 @@
         <v>522</v>
       </c>
       <c r="C522" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="D522" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10666,7 +10657,7 @@
         <v>828</v>
       </c>
       <c r="D523" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10677,10 +10668,10 @@
         <v>524</v>
       </c>
       <c r="C524" t="s">
-        <v>828</v>
+        <v>870</v>
       </c>
       <c r="D524" t="s">
-        <v>965</v>
+        <v>932</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10691,10 +10682,10 @@
         <v>525</v>
       </c>
       <c r="C525" t="s">
-        <v>903</v>
+        <v>828</v>
       </c>
       <c r="D525" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10705,10 +10696,10 @@
         <v>526</v>
       </c>
       <c r="C526" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D526" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10719,10 +10710,10 @@
         <v>527</v>
       </c>
       <c r="C527" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="D527" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10733,10 +10724,10 @@
         <v>528</v>
       </c>
       <c r="C528" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
       <c r="D528" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10747,7 +10738,7 @@
         <v>529</v>
       </c>
       <c r="C529" t="s">
-        <v>870</v>
+        <v>828</v>
       </c>
       <c r="D529" t="s">
         <v>943</v>
@@ -10761,10 +10752,10 @@
         <v>530</v>
       </c>
       <c r="C530" t="s">
-        <v>828</v>
+        <v>845</v>
       </c>
       <c r="D530" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -10778,7 +10769,7 @@
         <v>828</v>
       </c>
       <c r="D531" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10789,10 +10780,10 @@
         <v>532</v>
       </c>
       <c r="C532" t="s">
-        <v>828</v>
+        <v>870</v>
       </c>
       <c r="D532" t="s">
-        <v>930</v>
+        <v>943</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10806,7 +10797,7 @@
         <v>828</v>
       </c>
       <c r="D533" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10817,10 +10808,10 @@
         <v>534</v>
       </c>
       <c r="C534" t="s">
-        <v>828</v>
+        <v>903</v>
       </c>
       <c r="D534" t="s">
-        <v>933</v>
+        <v>950</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -10831,10 +10822,10 @@
         <v>535</v>
       </c>
       <c r="C535" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D535" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10890,7 +10881,7 @@
         <v>821</v>
       </c>
       <c r="D539" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10957,10 +10948,10 @@
         <v>544</v>
       </c>
       <c r="C544" t="s">
-        <v>840</v>
+        <v>904</v>
       </c>
       <c r="D544" t="s">
-        <v>967</v>
+        <v>953</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -10971,10 +10962,10 @@
         <v>545</v>
       </c>
       <c r="C545" t="s">
-        <v>904</v>
+        <v>838</v>
       </c>
       <c r="D545" t="s">
-        <v>953</v>
+        <v>966</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -10985,10 +10976,10 @@
         <v>546</v>
       </c>
       <c r="C546" t="s">
-        <v>817</v>
+        <v>828</v>
       </c>
       <c r="D546" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -11013,10 +11004,10 @@
         <v>548</v>
       </c>
       <c r="C548" t="s">
-        <v>817</v>
+        <v>828</v>
       </c>
       <c r="D548" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -11027,10 +11018,10 @@
         <v>549</v>
       </c>
       <c r="C549" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="D549" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -11041,10 +11032,10 @@
         <v>550</v>
       </c>
       <c r="C550" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="D550" t="s">
-        <v>926</v>
+        <v>947</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -11069,10 +11060,10 @@
         <v>552</v>
       </c>
       <c r="C552" t="s">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="D552" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -11083,10 +11074,10 @@
         <v>553</v>
       </c>
       <c r="C553" t="s">
-        <v>822</v>
+        <v>870</v>
       </c>
       <c r="D553" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -11125,10 +11116,10 @@
         <v>556</v>
       </c>
       <c r="C556" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="D556" t="s">
-        <v>930</v>
+        <v>943</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -11139,10 +11130,10 @@
         <v>557</v>
       </c>
       <c r="C557" t="s">
-        <v>877</v>
+        <v>838</v>
       </c>
       <c r="D557" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -11153,10 +11144,10 @@
         <v>558</v>
       </c>
       <c r="C558" t="s">
-        <v>906</v>
+        <v>838</v>
       </c>
       <c r="D558" t="s">
-        <v>955</v>
+        <v>926</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -11181,10 +11172,10 @@
         <v>560</v>
       </c>
       <c r="C560" t="s">
-        <v>840</v>
+        <v>906</v>
       </c>
       <c r="D560" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -11195,10 +11186,10 @@
         <v>561</v>
       </c>
       <c r="C561" t="s">
-        <v>828</v>
+        <v>870</v>
       </c>
       <c r="D561" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -11209,10 +11200,10 @@
         <v>562</v>
       </c>
       <c r="C562" t="s">
-        <v>870</v>
+        <v>822</v>
       </c>
       <c r="D562" t="s">
-        <v>938</v>
+        <v>954</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -11223,10 +11214,10 @@
         <v>563</v>
       </c>
       <c r="C563" t="s">
-        <v>907</v>
+        <v>828</v>
       </c>
       <c r="D563" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11237,10 +11228,10 @@
         <v>564</v>
       </c>
       <c r="C564" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="D564" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -11251,10 +11242,10 @@
         <v>565</v>
       </c>
       <c r="C565" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
       <c r="D565" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11265,10 +11256,10 @@
         <v>566</v>
       </c>
       <c r="C566" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="D566" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11279,10 +11270,10 @@
         <v>567</v>
       </c>
       <c r="C567" t="s">
-        <v>853</v>
+        <v>907</v>
       </c>
       <c r="D567" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -11293,10 +11284,10 @@
         <v>568</v>
       </c>
       <c r="C568" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D568" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -11307,10 +11298,10 @@
         <v>569</v>
       </c>
       <c r="C569" t="s">
-        <v>898</v>
+        <v>845</v>
       </c>
       <c r="D569" t="s">
-        <v>936</v>
+        <v>954</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -11321,10 +11312,10 @@
         <v>570</v>
       </c>
       <c r="C570" t="s">
-        <v>845</v>
+        <v>908</v>
       </c>
       <c r="D570" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11335,10 +11326,10 @@
         <v>571</v>
       </c>
       <c r="C571" t="s">
-        <v>846</v>
+        <v>821</v>
       </c>
       <c r="D571" t="s">
-        <v>926</v>
+        <v>947</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11349,10 +11340,10 @@
         <v>572</v>
       </c>
       <c r="C572" t="s">
-        <v>821</v>
+        <v>846</v>
       </c>
       <c r="D572" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -11391,10 +11382,10 @@
         <v>575</v>
       </c>
       <c r="C575" t="s">
-        <v>821</v>
+        <v>893</v>
       </c>
       <c r="D575" t="s">
-        <v>954</v>
+        <v>938</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -11408,7 +11399,7 @@
         <v>821</v>
       </c>
       <c r="D576" t="s">
-        <v>926</v>
+        <v>954</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -11419,10 +11410,10 @@
         <v>577</v>
       </c>
       <c r="C577" t="s">
-        <v>893</v>
+        <v>814</v>
       </c>
       <c r="D577" t="s">
-        <v>938</v>
+        <v>946</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11433,10 +11424,10 @@
         <v>578</v>
       </c>
       <c r="C578" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="D578" t="s">
-        <v>946</v>
+        <v>926</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11478,7 +11469,7 @@
         <v>851</v>
       </c>
       <c r="D581" t="s">
-        <v>968</v>
+        <v>938</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -11506,7 +11497,7 @@
         <v>821</v>
       </c>
       <c r="D583" t="s">
-        <v>934</v>
+        <v>943</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -11520,7 +11511,7 @@
         <v>821</v>
       </c>
       <c r="D584" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -11531,10 +11522,10 @@
         <v>585</v>
       </c>
       <c r="C585" t="s">
-        <v>821</v>
+        <v>838</v>
       </c>
       <c r="D585" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -11545,10 +11536,10 @@
         <v>586</v>
       </c>
       <c r="C586" t="s">
-        <v>840</v>
+        <v>813</v>
       </c>
       <c r="D586" t="s">
-        <v>934</v>
+        <v>952</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -11559,10 +11550,10 @@
         <v>587</v>
       </c>
       <c r="C587" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="D587" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -11573,10 +11564,10 @@
         <v>588</v>
       </c>
       <c r="C588" t="s">
-        <v>821</v>
+        <v>910</v>
       </c>
       <c r="D588" t="s">
-        <v>955</v>
+        <v>934</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -11587,10 +11578,10 @@
         <v>589</v>
       </c>
       <c r="C589" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D589" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -11601,10 +11592,10 @@
         <v>590</v>
       </c>
       <c r="C590" t="s">
-        <v>910</v>
+        <v>821</v>
       </c>
       <c r="D590" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -11615,10 +11606,10 @@
         <v>591</v>
       </c>
       <c r="C591" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D591" t="s">
-        <v>955</v>
+        <v>934</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -11629,7 +11620,7 @@
         <v>592</v>
       </c>
       <c r="C592" t="s">
-        <v>821</v>
+        <v>847</v>
       </c>
       <c r="D592" t="s">
         <v>941</v>
@@ -11643,10 +11634,10 @@
         <v>593</v>
       </c>
       <c r="C593" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="D593" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -11657,10 +11648,10 @@
         <v>594</v>
       </c>
       <c r="C594" t="s">
-        <v>847</v>
+        <v>883</v>
       </c>
       <c r="D594" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -11671,10 +11662,10 @@
         <v>595</v>
       </c>
       <c r="C595" t="s">
-        <v>870</v>
+        <v>821</v>
       </c>
       <c r="D595" t="s">
-        <v>935</v>
+        <v>953</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -11688,7 +11679,7 @@
         <v>821</v>
       </c>
       <c r="D596" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11730,7 +11721,7 @@
         <v>912</v>
       </c>
       <c r="D599" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -11741,10 +11732,10 @@
         <v>600</v>
       </c>
       <c r="C600" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D600" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -11965,10 +11956,10 @@
         <v>616</v>
       </c>
       <c r="C616" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D616" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -12004,7 +11995,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C619" t="s">
         <v>881</v>
@@ -12066,7 +12057,7 @@
         <v>847</v>
       </c>
       <c r="D623" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -12343,7 +12334,7 @@
         <v>642</v>
       </c>
       <c r="C643" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D643" t="s">
         <v>955</v>
@@ -12430,7 +12421,7 @@
         <v>813</v>
       </c>
       <c r="D649" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -12441,10 +12432,10 @@
         <v>649</v>
       </c>
       <c r="C650" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D650" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -12472,7 +12463,7 @@
         <v>828</v>
       </c>
       <c r="D652" t="s">
-        <v>971</v>
+        <v>948</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -12539,7 +12530,7 @@
         <v>656</v>
       </c>
       <c r="C657" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D657" t="s">
         <v>943</v>
@@ -12556,7 +12547,7 @@
         <v>837</v>
       </c>
       <c r="D658" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -12609,10 +12600,10 @@
         <v>661</v>
       </c>
       <c r="C662" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D662" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -12668,7 +12659,7 @@
         <v>828</v>
       </c>
       <c r="D666" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -12682,7 +12673,7 @@
         <v>821</v>
       </c>
       <c r="D667" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -12822,7 +12813,7 @@
         <v>846</v>
       </c>
       <c r="D677" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12903,7 +12894,7 @@
         <v>682</v>
       </c>
       <c r="C683" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D683" t="s">
         <v>948</v>
@@ -12948,7 +12939,7 @@
         <v>817</v>
       </c>
       <c r="D686" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -12976,7 +12967,7 @@
         <v>905</v>
       </c>
       <c r="D688" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -12990,7 +12981,7 @@
         <v>834</v>
       </c>
       <c r="D689" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -13001,7 +12992,7 @@
         <v>689</v>
       </c>
       <c r="C690" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D690" t="s">
         <v>954</v>
@@ -13032,7 +13023,7 @@
         <v>817</v>
       </c>
       <c r="D692" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -13060,7 +13051,7 @@
         <v>851</v>
       </c>
       <c r="D694" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -13113,10 +13104,10 @@
         <v>697</v>
       </c>
       <c r="C698" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D698" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -13214,7 +13205,7 @@
         <v>851</v>
       </c>
       <c r="D705" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -13228,7 +13219,7 @@
         <v>846</v>
       </c>
       <c r="D706" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -13354,7 +13345,7 @@
         <v>907</v>
       </c>
       <c r="D715" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -13396,7 +13387,7 @@
         <v>813</v>
       </c>
       <c r="D718" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -13432,13 +13423,13 @@
         <v>720</v>
       </c>
       <c r="B721" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C721" t="s">
         <v>828</v>
       </c>
       <c r="D721" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -13536,7 +13527,7 @@
         <v>821</v>
       </c>
       <c r="D728" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -13606,7 +13597,7 @@
         <v>821</v>
       </c>
       <c r="D733" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -13729,10 +13720,10 @@
         <v>740</v>
       </c>
       <c r="C742" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D742" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -13743,10 +13734,10 @@
         <v>741</v>
       </c>
       <c r="C743" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D743" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -13824,7 +13815,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C749" t="s">
         <v>911</v>
@@ -13883,7 +13874,7 @@
         <v>750</v>
       </c>
       <c r="C753" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D753" t="s">
         <v>937</v>
@@ -13928,7 +13919,7 @@
         <v>828</v>
       </c>
       <c r="D756" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -14026,7 +14017,7 @@
         <v>922</v>
       </c>
       <c r="D763" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -14272,13 +14263,13 @@
         <v>780</v>
       </c>
       <c r="B781" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C781" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D781" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14317,10 +14308,10 @@
         <v>778</v>
       </c>
       <c r="C784" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D784" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14362,7 +14353,7 @@
         <v>870</v>
       </c>
       <c r="D787" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -14373,7 +14364,7 @@
         <v>782</v>
       </c>
       <c r="C788" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D788" t="s">
         <v>937</v>
@@ -14404,7 +14395,7 @@
         <v>828</v>
       </c>
       <c r="D790" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -14457,7 +14448,7 @@
         <v>788</v>
       </c>
       <c r="C794" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D794" t="s">
         <v>953</v>
@@ -14474,7 +14465,7 @@
         <v>825</v>
       </c>
       <c r="D795" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -14611,7 +14602,7 @@
         <v>799</v>
       </c>
       <c r="C805" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D805" t="s">
         <v>933</v>

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="983">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -64,21 +64,21 @@
     <t>Shohei Ohtani</t>
   </si>
   <si>
+    <t>Corbin Burnes</t>
+  </si>
+  <si>
     <t>Freddie Freeman</t>
   </si>
   <si>
-    <t>Corbin Burnes</t>
-  </si>
-  <si>
     <t>Mike Trout</t>
   </si>
   <si>
+    <t>Bobby Witt Jr.</t>
+  </si>
+  <si>
     <t>Gerrit Cole</t>
   </si>
   <si>
-    <t>Bobby Witt Jr.</t>
-  </si>
-  <si>
     <t>Bo Bichette</t>
   </si>
   <si>
@@ -109,24 +109,24 @@
     <t>Edwin Diaz</t>
   </si>
   <si>
+    <t>Michael Harris II</t>
+  </si>
+  <si>
     <t>Jose Altuve</t>
   </si>
   <si>
-    <t>Michael Harris II</t>
-  </si>
-  <si>
     <t>Spencer Strider</t>
   </si>
   <si>
     <t>Francisco Lindor</t>
   </si>
   <si>
+    <t>Nolan Arenado</t>
+  </si>
+  <si>
     <t>Randy Arozarena</t>
   </si>
   <si>
-    <t>Nolan Arenado</t>
-  </si>
-  <si>
     <t>Aaron Nola</t>
   </si>
   <si>
@@ -157,21 +157,21 @@
     <t>Matt Olson</t>
   </si>
   <si>
+    <t>Cedric Mullins II</t>
+  </si>
+  <si>
     <t>Josh Hader</t>
   </si>
   <si>
-    <t>Cedric Mullins II</t>
-  </si>
-  <si>
     <t>Carlos Rodon</t>
   </si>
   <si>
+    <t>Shane Bieber</t>
+  </si>
+  <si>
     <t>Kyle Schwarber</t>
   </si>
   <si>
-    <t>Shane Bieber</t>
-  </si>
-  <si>
     <t>Zack Wheeler</t>
   </si>
   <si>
@@ -193,24 +193,24 @@
     <t>Luis Castillo</t>
   </si>
   <si>
+    <t>George Springer</t>
+  </si>
+  <si>
+    <t>Kevin Gausman</t>
+  </si>
+  <si>
+    <t>Ozzie Albies</t>
+  </si>
+  <si>
+    <t>Starling Marte</t>
+  </si>
+  <si>
+    <t>Alex Bregman</t>
+  </si>
+  <si>
     <t>J.T. Realmuto</t>
   </si>
   <si>
-    <t>George Springer</t>
-  </si>
-  <si>
-    <t>Kevin Gausman</t>
-  </si>
-  <si>
-    <t>Ozzie Albies</t>
-  </si>
-  <si>
-    <t>Starling Marte</t>
-  </si>
-  <si>
-    <t>Alex Bregman</t>
-  </si>
-  <si>
     <t>Devin Williams</t>
   </si>
   <si>
@@ -238,18 +238,18 @@
     <t>Cristian Javier</t>
   </si>
   <si>
+    <t>Xander Bogaerts</t>
+  </si>
+  <si>
+    <t>Tommy Edman</t>
+  </si>
+  <si>
+    <t>Tim Anderson</t>
+  </si>
+  <si>
     <t>Daulton Varsho</t>
   </si>
   <si>
-    <t>Tommy Edman</t>
-  </si>
-  <si>
-    <t>Xander Bogaerts</t>
-  </si>
-  <si>
-    <t>Tim Anderson</t>
-  </si>
-  <si>
     <t>Ryan Helsley</t>
   </si>
   <si>
@@ -259,24 +259,24 @@
     <t>Bryan Reynolds</t>
   </si>
   <si>
+    <t>Dansby Swanson</t>
+  </si>
+  <si>
+    <t>Oneil Cruz</t>
+  </si>
+  <si>
     <t>Salvador Perez</t>
   </si>
   <si>
-    <t>Dansby Swanson</t>
-  </si>
-  <si>
-    <t>Oneil Cruz</t>
-  </si>
-  <si>
     <t>Joe Musgrove</t>
   </si>
   <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
     <t>Felix Bautista</t>
   </si>
   <si>
-    <t>Will Smith</t>
-  </si>
-  <si>
     <t>Wander Franco</t>
   </si>
   <si>
@@ -292,21 +292,21 @@
     <t>Byron Buxton</t>
   </si>
   <si>
+    <t>Willy Adames</t>
+  </si>
+  <si>
     <t>Tyler Glasnow</t>
   </si>
   <si>
-    <t>Willy Adames</t>
-  </si>
-  <si>
     <t>Adley Rutschman</t>
   </si>
   <si>
+    <t>Nathaniel Lowe</t>
+  </si>
+  <si>
     <t>Jose Abreu</t>
   </si>
   <si>
-    <t>Nathaniel Lowe</t>
-  </si>
-  <si>
     <t>Vinnie Pasquantino</t>
   </si>
   <si>
@@ -325,27 +325,27 @@
     <t>Seiya Suzuki</t>
   </si>
   <si>
+    <t>Rhys Hoskins</t>
+  </si>
+  <si>
+    <t>Steven Kwan</t>
+  </si>
+  <si>
+    <t>Camilo Doval</t>
+  </si>
+  <si>
     <t>C.J. Cron</t>
   </si>
   <si>
-    <t>Rhys Hoskins</t>
-  </si>
-  <si>
-    <t>Steven Kwan</t>
-  </si>
-  <si>
-    <t>Camilo Doval</t>
-  </si>
-  <si>
     <t>Nestor Cortes Jr.</t>
   </si>
   <si>
+    <t>Anthony Santander</t>
+  </si>
+  <si>
     <t>Gunnar Henderson</t>
   </si>
   <si>
-    <t>Anthony Santander</t>
-  </si>
-  <si>
     <t>Gleyber Torres</t>
   </si>
   <si>
@@ -358,30 +358,30 @@
     <t>Luis Severino</t>
   </si>
   <si>
+    <t>Giancarlo Stanton</t>
+  </si>
+  <si>
     <t>Logan Gilbert</t>
   </si>
   <si>
-    <t>Giancarlo Stanton</t>
-  </si>
-  <si>
     <t>Clayton Kershaw</t>
   </si>
   <si>
     <t>Blake Snell</t>
   </si>
   <si>
+    <t>George Kirby</t>
+  </si>
+  <si>
+    <t>Tyler O'Neill</t>
+  </si>
+  <si>
+    <t>Amed Rosario</t>
+  </si>
+  <si>
     <t>Alejandro Kirk</t>
   </si>
   <si>
-    <t>Amed Rosario</t>
-  </si>
-  <si>
-    <t>Tyler O'Neill</t>
-  </si>
-  <si>
-    <t>George Kirby</t>
-  </si>
-  <si>
     <t>Kris Bryant</t>
   </si>
   <si>
@@ -403,48 +403,48 @@
     <t>Nick Castellanos</t>
   </si>
   <si>
+    <t>Jeremy Pena</t>
+  </si>
+  <si>
     <t>Nick Lodolo</t>
   </si>
   <si>
-    <t>Jeremy Pena</t>
-  </si>
-  <si>
     <t>Taylor Ward</t>
   </si>
   <si>
+    <t>Willson Contreras</t>
+  </si>
+  <si>
     <t>Scott Barlow</t>
   </si>
   <si>
-    <t>Willson Contreras</t>
-  </si>
-  <si>
     <t>Clay Holmes</t>
   </si>
   <si>
     <t>Lance Lynn</t>
   </si>
   <si>
+    <t>Ryan Mountcastle</t>
+  </si>
+  <si>
     <t>Kenley Jansen</t>
   </si>
   <si>
-    <t>Ryan Mountcastle</t>
+    <t>Andrew Vaughn</t>
+  </si>
+  <si>
+    <t>Freddy Peralta</t>
+  </si>
+  <si>
+    <t>Ian Happ</t>
   </si>
   <si>
     <t>Joe Ryan</t>
   </si>
   <si>
-    <t>Andrew Vaughn</t>
-  </si>
-  <si>
-    <t>Freddy Peralta</t>
-  </si>
-  <si>
     <t>Jorge Polanco</t>
   </si>
   <si>
-    <t>Ian Happ</t>
-  </si>
-  <si>
     <t>Nico Hoerner</t>
   </si>
   <si>
@@ -460,36 +460,36 @@
     <t>Pablo Lopez</t>
   </si>
   <si>
+    <t>MJ Melendez</t>
+  </si>
+  <si>
+    <t>Lucas Giolito</t>
+  </si>
+  <si>
+    <t>Chris Bassitt</t>
+  </si>
+  <si>
+    <t>Brandon Nimmo</t>
+  </si>
+  <si>
+    <t>Daniel Bard</t>
+  </si>
+  <si>
     <t>Trevor Story</t>
   </si>
   <si>
-    <t>MJ Melendez</t>
-  </si>
-  <si>
-    <t>Lucas Giolito</t>
-  </si>
-  <si>
-    <t>Chris Bassitt</t>
-  </si>
-  <si>
-    <t>Brandon Nimmo</t>
-  </si>
-  <si>
-    <t>Daniel Bard</t>
+    <t>Dustin May</t>
+  </si>
+  <si>
+    <t>Charlie Morton</t>
   </si>
   <si>
     <t>Hunter Renfroe</t>
   </si>
   <si>
-    <t>Dustin May</t>
-  </si>
-  <si>
     <t>Max Muncy</t>
   </si>
   <si>
-    <t>Charlie Morton</t>
-  </si>
-  <si>
     <t>Ke'Bryan Hayes</t>
   </si>
   <si>
@@ -508,42 +508,42 @@
     <t>Jordan Montgomery</t>
   </si>
   <si>
+    <t>Mitch Haniger</t>
+  </si>
+  <si>
     <t>Matt Chapman</t>
   </si>
   <si>
-    <t>Mitch Haniger</t>
+    <t>Jeff McNeil</t>
   </si>
   <si>
     <t>Oscar Gonzalez</t>
   </si>
   <si>
+    <t>Andres Munoz</t>
+  </si>
+  <si>
     <t>Sean Murphy</t>
   </si>
   <si>
-    <t>Andres Munoz</t>
-  </si>
-  <si>
     <t>Jesus Luzardo</t>
   </si>
   <si>
-    <t>Jeff McNeil</t>
-  </si>
-  <si>
     <t>Bryce Harper</t>
   </si>
   <si>
     <t>Josh Bell</t>
   </si>
   <si>
+    <t>Brady Singer</t>
+  </si>
+  <si>
     <t>Alex Verdugo</t>
   </si>
   <si>
     <t>Jon Gray</t>
   </si>
   <si>
-    <t>Brady Singer</t>
-  </si>
-  <si>
     <t>Javier Baez</t>
   </si>
   <si>
@@ -559,10 +559,13 @@
     <t>Eugenio Suarez</t>
   </si>
   <si>
+    <t>William Contreras</t>
+  </si>
+  <si>
     <t>Luis Arraez</t>
   </si>
   <si>
-    <t>William Contreras</t>
+    <t>Jonathan India</t>
   </si>
   <si>
     <t>Alec Bohm</t>
@@ -571,7 +574,7 @@
     <t>Joey Meneses</t>
   </si>
   <si>
-    <t>Jonathan India</t>
+    <t>Tony Gonsolin</t>
   </si>
   <si>
     <t>Jeffrey Springs</t>
@@ -580,27 +583,24 @@
     <t>Frankie Montas</t>
   </si>
   <si>
-    <t>Tony Gonsolin</t>
-  </si>
-  <si>
     <t>Drew Rasmussen</t>
   </si>
   <si>
+    <t>Luis Garcia</t>
+  </si>
+  <si>
     <t>Riley Greene</t>
   </si>
   <si>
-    <t>Luis Garcia</t>
-  </si>
-  <si>
     <t>Lance McCullers Jr.</t>
   </si>
   <si>
+    <t>Ketel Marte</t>
+  </si>
+  <si>
     <t>Tyler Stephenson</t>
   </si>
   <si>
-    <t>Ketel Marte</t>
-  </si>
-  <si>
     <t>Thairo Estrada</t>
   </si>
   <si>
@@ -613,12 +613,12 @@
     <t>Harrison Bader</t>
   </si>
   <si>
+    <t>Andrew Heaney</t>
+  </si>
+  <si>
     <t>Ryan McMahon</t>
   </si>
   <si>
-    <t>Andrew Heaney</t>
-  </si>
-  <si>
     <t>Josh Naylor</t>
   </si>
   <si>
@@ -628,12 +628,12 @@
     <t>Patrick Sandoval</t>
   </si>
   <si>
+    <t>J.D. Martinez</t>
+  </si>
+  <si>
     <t>Whit Merrifield</t>
   </si>
   <si>
-    <t>J.D. Martinez</t>
-  </si>
-  <si>
     <t>Ramon Laureano</t>
   </si>
   <si>
@@ -643,45 +643,45 @@
     <t>Alex Cobb</t>
   </si>
   <si>
+    <t>Vaughn Grissom</t>
+  </si>
+  <si>
     <t>Jean Segura</t>
   </si>
   <si>
+    <t>Brandon Drury</t>
+  </si>
+  <si>
     <t>Jose Leclerc</t>
   </si>
   <si>
-    <t>Brandon Drury</t>
-  </si>
-  <si>
     <t>Jose Berrios</t>
   </si>
   <si>
-    <t>Vaughn Grissom</t>
-  </si>
-  <si>
     <t>Josh Rojas</t>
   </si>
   <si>
     <t>CJ Abrams</t>
   </si>
   <si>
+    <t>Reid Detmers</t>
+  </si>
+  <si>
+    <t>Andrew Benintendi</t>
+  </si>
+  <si>
     <t>Anthony Rendon</t>
   </si>
   <si>
-    <t>Reid Detmers</t>
-  </si>
-  <si>
-    <t>Andrew Benintendi</t>
+    <t>Seth Brown</t>
+  </si>
+  <si>
+    <t>Lars Nootbaar</t>
   </si>
   <si>
     <t>Brendan Rodgers</t>
   </si>
   <si>
-    <t>Seth Brown</t>
-  </si>
-  <si>
-    <t>Lars Nootbaar</t>
-  </si>
-  <si>
     <t>Aaron Ashby</t>
   </si>
   <si>
@@ -694,12 +694,12 @@
     <t>Sonny Gray</t>
   </si>
   <si>
+    <t>Merrill Kelly</t>
+  </si>
+  <si>
     <t>Lourdes Gurriel Jr.</t>
   </si>
   <si>
-    <t>Merrill Kelly</t>
-  </si>
-  <si>
     <t>Nathan Eovaldi</t>
   </si>
   <si>
@@ -715,36 +715,39 @@
     <t>Jorge Lopez</t>
   </si>
   <si>
+    <t>Kolten Wong</t>
+  </si>
+  <si>
     <t>Austin Hays</t>
   </si>
   <si>
-    <t>Kolten Wong</t>
-  </si>
-  <si>
     <t>Keibert Ruiz</t>
   </si>
   <si>
     <t>Jack Flaherty</t>
   </si>
   <si>
+    <t>Yandy Diaz</t>
+  </si>
+  <si>
     <t>Ezequiel Tovar</t>
   </si>
   <si>
     <t>Michael Conforto</t>
   </si>
   <si>
+    <t>Seranthony Dominguez</t>
+  </si>
+  <si>
     <t>Triston Casas</t>
   </si>
   <si>
-    <t>Seranthony Dominguez</t>
-  </si>
-  <si>
-    <t>Yandy Diaz</t>
-  </si>
-  <si>
     <t>Jon Berti</t>
   </si>
   <si>
+    <t>Gregory Soto</t>
+  </si>
+  <si>
     <t>Justin Turner</t>
   </si>
   <si>
@@ -754,9 +757,6 @@
     <t>DJ LeMahieu</t>
   </si>
   <si>
-    <t>Gregory Soto</t>
-  </si>
-  <si>
     <t>Jameson Taillon</t>
   </si>
   <si>
@@ -772,12 +772,12 @@
     <t>Tyler Anderson</t>
   </si>
   <si>
+    <t>Jorge Mateo</t>
+  </si>
+  <si>
     <t>Trevor Rogers</t>
   </si>
   <si>
-    <t>Jorge Mateo</t>
-  </si>
-  <si>
     <t>Marcus Stroman</t>
   </si>
   <si>
@@ -787,15 +787,15 @@
     <t>Bryson Stott</t>
   </si>
   <si>
+    <t>Christopher Morel</t>
+  </si>
+  <si>
+    <t>Kyle Finnegan</t>
+  </si>
+  <si>
     <t>Trey Mancini</t>
   </si>
   <si>
-    <t>Christopher Morel</t>
-  </si>
-  <si>
-    <t>Kyle Finnegan</t>
-  </si>
-  <si>
     <t>HaSeong Kim</t>
   </si>
   <si>
@@ -841,27 +841,27 @@
     <t>Miguel Vargas</t>
   </si>
   <si>
+    <t>Michael Kopech</t>
+  </si>
+  <si>
+    <t>Dylan Floro</t>
+  </si>
+  <si>
+    <t>Jorge Soler</t>
+  </si>
+  <si>
+    <t>Manuel Margot</t>
+  </si>
+  <si>
+    <t>Martin Perez</t>
+  </si>
+  <si>
+    <t>Dylan Carlson</t>
+  </si>
+  <si>
     <t>Travis d'Arnaud</t>
   </si>
   <si>
-    <t>Michael Kopech</t>
-  </si>
-  <si>
-    <t>Dylan Floro</t>
-  </si>
-  <si>
-    <t>Jorge Soler</t>
-  </si>
-  <si>
-    <t>Manuel Margot</t>
-  </si>
-  <si>
-    <t>Martin Perez</t>
-  </si>
-  <si>
-    <t>Dylan Carlson</t>
-  </si>
-  <si>
     <t>Jared Walsh</t>
   </si>
   <si>
@@ -883,18 +883,21 @@
     <t>Jake Fraley</t>
   </si>
   <si>
+    <t>Hunter Brown</t>
+  </si>
+  <si>
     <t>Tylor Megill</t>
   </si>
   <si>
-    <t>Hunter Brown</t>
-  </si>
-  <si>
     <t>Cal Quantrill</t>
   </si>
   <si>
     <t>Brandon Marsh</t>
   </si>
   <si>
+    <t>Oswaldo Cabrera</t>
+  </si>
+  <si>
     <t>Jesse Winker</t>
   </si>
   <si>
@@ -904,9 +907,6 @@
     <t>Taijuan Walker</t>
   </si>
   <si>
-    <t>Oswaldo Cabrera</t>
-  </si>
-  <si>
     <t>Taylor Rogers</t>
   </si>
   <si>
@@ -922,21 +922,21 @@
     <t>Tommy Pham</t>
   </si>
   <si>
+    <t>Brayan Bello</t>
+  </si>
+  <si>
+    <t>Chris Taylor</t>
+  </si>
+  <si>
     <t>Kodai Senga</t>
   </si>
   <si>
-    <t>Brayan Bello</t>
-  </si>
-  <si>
-    <t>Chris Taylor</t>
+    <t>Logan O'Hoppe</t>
   </si>
   <si>
     <t>Jose Quintana</t>
   </si>
   <si>
-    <t>Logan O'Hoppe</t>
-  </si>
-  <si>
     <t>Daniel Hudson</t>
   </si>
   <si>
@@ -949,10 +949,13 @@
     <t>Ross Stripling</t>
   </si>
   <si>
+    <t>Evan Phillips</t>
+  </si>
+  <si>
     <t>Mike Clevinger</t>
   </si>
   <si>
-    <t>Evan Phillips</t>
+    <t>Masataka Yoshida</t>
   </si>
   <si>
     <t>Zach Eflin</t>
@@ -961,7 +964,7 @@
     <t>Tanner Houck</t>
   </si>
   <si>
-    <t>Masataka Yoshida</t>
+    <t>Yasmani Grandal</t>
   </si>
   <si>
     <t>Mike Yastrzemski</t>
@@ -979,9 +982,6 @@
     <t>Chris Martin</t>
   </si>
   <si>
-    <t>Yasmani Grandal</t>
-  </si>
-  <si>
     <t>Trent Grisham</t>
   </si>
   <si>
@@ -1003,25 +1003,31 @@
     <t>Alex Lange</t>
   </si>
   <si>
+    <t>Nick Gordon</t>
+  </si>
+  <si>
+    <t>Carlos Estevez</t>
+  </si>
+  <si>
     <t>Mark Canha</t>
   </si>
   <si>
-    <t>Carlos Estevez</t>
-  </si>
-  <si>
-    <t>Nick Gordon</t>
-  </si>
-  <si>
     <t>Adam Wainwright</t>
   </si>
   <si>
+    <t>Craig Kimbrel</t>
+  </si>
+  <si>
+    <t>Garrett Mitchell</t>
+  </si>
+  <si>
     <t>Marcell Ozuna</t>
   </si>
   <si>
-    <t>Craig Kimbrel</t>
-  </si>
-  <si>
-    <t>Garrett Mitchell</t>
+    <t>Wil Myers</t>
+  </si>
+  <si>
+    <t>Trevor May</t>
   </si>
   <si>
     <t>Christian Vazquez</t>
@@ -1030,22 +1036,19 @@
     <t>TJ Friedl</t>
   </si>
   <si>
-    <t>Wil Myers</t>
-  </si>
-  <si>
-    <t>Trevor May</t>
-  </si>
-  <si>
     <t>Jose Alvarado</t>
   </si>
   <si>
     <t>MacKenzie Gore</t>
   </si>
   <si>
+    <t>Alex Kirilloff</t>
+  </si>
+  <si>
     <t>Aaron Civale</t>
   </si>
   <si>
-    <t>Alex Kirilloff</t>
+    <t>Bubba Thompson</t>
   </si>
   <si>
     <t>Noah Syndergaard</t>
@@ -1054,9 +1057,6 @@
     <t>Isaac Paredes</t>
   </si>
   <si>
-    <t>Bubba Thompson</t>
-  </si>
-  <si>
     <t>Brandon Hughes</t>
   </si>
   <si>
@@ -1072,39 +1072,39 @@
     <t>Jurickson</t>
   </si>
   <si>
+    <t>Braxton Garrett</t>
+  </si>
+  <si>
     <t>Oswald Peraza</t>
   </si>
   <si>
     <t>Tarik Skubal</t>
   </si>
   <si>
-    <t>Braxton Garrett</t>
-  </si>
-  <si>
     <t>AJ Pollock</t>
   </si>
   <si>
     <t>Francisco Alvarez</t>
   </si>
   <si>
+    <t>Eduardo Escobar</t>
+  </si>
+  <si>
+    <t>A.J. Minter</t>
+  </si>
+  <si>
     <t>Trayce Thompson</t>
   </si>
   <si>
-    <t>Eduardo Escobar</t>
-  </si>
-  <si>
-    <t>A.J. Minter</t>
-  </si>
-  <si>
     <t>Kendall Graveman</t>
   </si>
   <si>
+    <t>Kyle Gibson</t>
+  </si>
+  <si>
     <t>Drey Jameson</t>
   </si>
   <si>
-    <t>Kyle Gibson</t>
-  </si>
-  <si>
     <t>James Karinchak</t>
   </si>
   <si>
@@ -1114,16 +1114,16 @@
     <t>Mike Soroka</t>
   </si>
   <si>
+    <t>Gabriel Moreno</t>
+  </si>
+  <si>
     <t>Kyle Bradish</t>
   </si>
   <si>
-    <t>Gabriel Moreno</t>
-  </si>
-  <si>
     <t>A.J. Puk</t>
   </si>
   <si>
-    <t>Aroldis</t>
+    <t>Aroldis Chapman</t>
   </si>
   <si>
     <t>Gio Urshela</t>
@@ -1141,147 +1141,147 @@
     <t>Adbert Alzolay</t>
   </si>
   <si>
+    <t>Eric Haase</t>
+  </si>
+  <si>
+    <t>Kerry Carpenter</t>
+  </si>
+  <si>
     <t>Matt Carpenter</t>
   </si>
   <si>
-    <t>Kerry Carpenter</t>
-  </si>
-  <si>
     <t>Kike Hernandez</t>
   </si>
   <si>
-    <t>Eric Haase</t>
+    <t>Nick Pivetta</t>
   </si>
   <si>
     <t>Corey Kluber</t>
   </si>
   <si>
-    <t>Nick Pivetta</t>
-  </si>
-  <si>
     <t>Jimmy Herget</t>
   </si>
   <si>
+    <t>Bo Naylor</t>
+  </si>
+  <si>
+    <t>Harold Ramirez</t>
+  </si>
+  <si>
     <t>German Marquez</t>
   </si>
   <si>
-    <t>Harold Ramirez</t>
-  </si>
-  <si>
-    <t>Bo Naylor</t>
+    <t>Tanner Scott</t>
   </si>
   <si>
     <t>DL Hall</t>
   </si>
   <si>
+    <t>Bryan Abreu</t>
+  </si>
+  <si>
+    <t>Jalen Beeks</t>
+  </si>
+  <si>
     <t>Jeimer Candelario</t>
   </si>
   <si>
-    <t>Tanner Scott</t>
-  </si>
-  <si>
-    <t>Bryan Abreu</t>
+    <t>Joey Bart</t>
   </si>
   <si>
     <t>Oscar Colas</t>
   </si>
   <si>
+    <t>Matt Brash</t>
+  </si>
+  <si>
     <t>Max Kepler</t>
   </si>
   <si>
-    <t>Joey Bart</t>
-  </si>
-  <si>
     <t>Joey Gallo</t>
   </si>
   <si>
-    <t>Jalen Beeks</t>
-  </si>
-  <si>
     <t>Josiah Gray</t>
   </si>
   <si>
-    <t>Matt Brash</t>
+    <t>Wilmer Flores</t>
   </si>
   <si>
     <t>Patrick Wisdom</t>
   </si>
   <si>
-    <t>Wilmer Flores</t>
+    <t>Michael King</t>
   </si>
   <si>
     <t>Alek Thomas</t>
   </si>
   <si>
+    <t>Christian Bethancourt</t>
+  </si>
+  <si>
     <t>Tony Kemp</t>
   </si>
   <si>
-    <t>Christian Bethancourt</t>
+    <t>Brock Burke</t>
   </si>
   <si>
     <t>Mitch Keller</t>
   </si>
   <si>
-    <t>Michael King</t>
-  </si>
-  <si>
-    <t>Brock Burke</t>
-  </si>
-  <si>
     <t>Ramon Urias</t>
   </si>
   <si>
+    <t>Alex Vesia</t>
+  </si>
+  <si>
+    <t>Garrett Cleavinger</t>
+  </si>
+  <si>
+    <t>Aaron Bummer</t>
+  </si>
+  <si>
+    <t>Matt Bush</t>
+  </si>
+  <si>
     <t>Brusdar Graterol</t>
   </si>
   <si>
-    <t>Alex Vesia</t>
-  </si>
-  <si>
     <t>Jo Adell</t>
   </si>
   <si>
-    <t>Matt Bush</t>
-  </si>
-  <si>
-    <t>Garrett Cleavinger</t>
-  </si>
-  <si>
-    <t>Aaron Bummer</t>
-  </si>
-  <si>
     <t>Connor Joe</t>
   </si>
   <si>
+    <t>Will</t>
+  </si>
+  <si>
     <t>Carson Kelly</t>
   </si>
   <si>
+    <t>Nolan Gorman</t>
+  </si>
+  <si>
     <t>Luis Ortiz</t>
   </si>
   <si>
-    <t>Will</t>
-  </si>
-  <si>
-    <t>Nolan Gorman</t>
-  </si>
-  <si>
     <t>Shea Langeliers</t>
   </si>
   <si>
+    <t>Joe Jimenez</t>
+  </si>
+  <si>
     <t>Jose Suarez</t>
   </si>
   <si>
     <t>Ken Waldichuk</t>
   </si>
   <si>
-    <t>Joe Jimenez</t>
+    <t>Leody Taveras</t>
   </si>
   <si>
     <t>David Robertson</t>
   </si>
   <si>
-    <t>Leody Taveras</t>
-  </si>
-  <si>
     <t>Myles Straw</t>
   </si>
   <si>
@@ -1291,42 +1291,42 @@
     <t>Robert Suarez</t>
   </si>
   <si>
+    <t>Garrett Cooper</t>
+  </si>
+  <si>
+    <t>Royce Lewis</t>
+  </si>
+  <si>
     <t>Akil Baddoo</t>
   </si>
   <si>
     <t>Tyrone Taylor</t>
   </si>
   <si>
-    <t>Garrett Cooper</t>
-  </si>
-  <si>
-    <t>Royce Lewis</t>
+    <t>Joe Kelly</t>
+  </si>
+  <si>
+    <t>Elias Diaz</t>
+  </si>
+  <si>
+    <t>JT Brubaker</t>
+  </si>
+  <si>
+    <t>Joey Votto</t>
   </si>
   <si>
     <t>Josh Lowe</t>
   </si>
   <si>
-    <t>Joey Votto</t>
-  </si>
-  <si>
-    <t>Joe Kelly</t>
-  </si>
-  <si>
     <t>J.D. Davis</t>
   </si>
   <si>
-    <t>Elias Diaz</t>
-  </si>
-  <si>
-    <t>JT Brubaker</t>
+    <t>Anthony Volpe</t>
   </si>
   <si>
     <t>Anthony DeSclafani</t>
   </si>
   <si>
-    <t>Anthony Volpe</t>
-  </si>
-  <si>
     <t>Domingo German</t>
   </si>
   <si>
@@ -1339,12 +1339,12 @@
     <t>Nick Fortes</t>
   </si>
   <si>
+    <t>Jonathan Schoop</t>
+  </si>
+  <si>
     <t>Edward Olivares</t>
   </si>
   <si>
-    <t>Jonathan Schoop</t>
-  </si>
-  <si>
     <t>Gary</t>
   </si>
   <si>
@@ -1354,12 +1354,18 @@
     <t>Matthew Boyd</t>
   </si>
   <si>
+    <t>Kevin Ginkel</t>
+  </si>
+  <si>
+    <t>Caleb Thielbar</t>
+  </si>
+  <si>
+    <t>Elieser Hernandez</t>
+  </si>
+  <si>
     <t>Brandon Crawford</t>
   </si>
   <si>
-    <t>Kevin Ginkel</t>
-  </si>
-  <si>
     <t>Spencer Turnbull</t>
   </si>
   <si>
@@ -1369,10 +1375,13 @@
     <t>David Fletcher</t>
   </si>
   <si>
-    <t>Caleb Thielbar</t>
-  </si>
-  <si>
-    <t>Elieser Hernandez</t>
+    <t>Rodolfo Castro</t>
+  </si>
+  <si>
+    <t>Austin Nola</t>
+  </si>
+  <si>
+    <t>Bobby Dalbec</t>
   </si>
   <si>
     <t>John Schreiber</t>
@@ -1381,166 +1390,178 @@
     <t>Josh Donaldson</t>
   </si>
   <si>
-    <t>Rodolfo Castro</t>
-  </si>
-  <si>
-    <t>Austin Nola</t>
-  </si>
-  <si>
     <t>Brandon Belt</t>
   </si>
   <si>
     <t>Kyle Muller</t>
   </si>
   <si>
+    <t>Nick Madrigal</t>
+  </si>
+  <si>
     <t>Mitch Garver</t>
   </si>
   <si>
-    <t>Bobby Dalbec</t>
+    <t>Jordan Hicks</t>
   </si>
   <si>
     <t>Chas McCormick</t>
   </si>
   <si>
-    <t>Nick Madrigal</t>
-  </si>
-  <si>
-    <t>Jordan Hicks</t>
+    <t>James Paxton</t>
+  </si>
+  <si>
+    <t>Hunter Harvey</t>
+  </si>
+  <si>
+    <t>Diego Castillo</t>
+  </si>
+  <si>
+    <t>Hector Neris</t>
+  </si>
+  <si>
+    <t>Sam Hentges</t>
+  </si>
+  <si>
+    <t>Trevor Stephan</t>
+  </si>
+  <si>
+    <t>Jonathan Loaisiga</t>
+  </si>
+  <si>
+    <t>Domingo Acevedo</t>
   </si>
   <si>
     <t>Matt Manning</t>
   </si>
   <si>
-    <t>James Paxton</t>
-  </si>
-  <si>
-    <t>Hunter Harvey</t>
-  </si>
-  <si>
-    <t>Diego Castillo</t>
-  </si>
-  <si>
     <t>Cole Irvin</t>
   </si>
   <si>
-    <t>Domingo Acevedo</t>
-  </si>
-  <si>
-    <t>Hector Neris</t>
-  </si>
-  <si>
-    <t>Trevor Stephan</t>
-  </si>
-  <si>
-    <t>Jonathan Loaisiga</t>
+    <t>Reynaldo Lopez</t>
+  </si>
+  <si>
+    <t>Chris Flexen</t>
+  </si>
+  <si>
+    <t>Collin McHugh</t>
   </si>
   <si>
     <t>Tejay Antone</t>
   </si>
   <si>
-    <t>Sam Hentges</t>
+    <t>Brooks Raley</t>
   </si>
   <si>
     <t>Santiago Espinal</t>
   </si>
   <si>
-    <t>Chris Flexen</t>
+    <t>Trevor</t>
+  </si>
+  <si>
+    <t>Tommy Kahnle</t>
+  </si>
+  <si>
+    <t>Jakob Junis</t>
+  </si>
+  <si>
+    <t>Brice Turang</t>
+  </si>
+  <si>
+    <t>Zach Jackson</t>
   </si>
   <si>
     <t>Gavin Sheets</t>
   </si>
   <si>
-    <t>Brooks Raley</t>
-  </si>
-  <si>
-    <t>Reynaldo Lopez</t>
-  </si>
-  <si>
-    <t>Collin McHugh</t>
+    <t>Adam Ottavino</t>
+  </si>
+  <si>
+    <t>Nelson Cruz</t>
+  </si>
+  <si>
+    <t>Garrett Crochet</t>
+  </si>
+  <si>
+    <t>Nate Pearson</t>
   </si>
   <si>
     <t>Franmil Reyes</t>
   </si>
   <si>
-    <t>Brice Turang</t>
-  </si>
-  <si>
-    <t>Trevor</t>
+    <t>Keegan Akin</t>
   </si>
   <si>
     <t>Isiah KinerFalefa</t>
   </si>
   <si>
-    <t>Nelson Cruz</t>
-  </si>
-  <si>
-    <t>Tommy Kahnle</t>
-  </si>
-  <si>
-    <t>Garrett Crochet</t>
-  </si>
-  <si>
-    <t>Jakob Junis</t>
+    <t>Joe Mantiply</t>
+  </si>
+  <si>
+    <t>Shawn Armstrong</t>
+  </si>
+  <si>
+    <t>Andrew Bellatti</t>
+  </si>
+  <si>
+    <t>Bryan Baker</t>
+  </si>
+  <si>
+    <t>Mark Leiter Jr.</t>
+  </si>
+  <si>
+    <t>Dylan Lee</t>
   </si>
   <si>
     <t>Brett Baty</t>
   </si>
   <si>
-    <t>Zach Jackson</t>
-  </si>
-  <si>
-    <t>Adam Ottavino</t>
-  </si>
-  <si>
-    <t>Joe Mantiply</t>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
+    <t>Ryan Jeffers</t>
+  </si>
+  <si>
+    <t>Jovani Moran</t>
+  </si>
+  <si>
+    <t>Brandon Pfaadt</t>
   </si>
   <si>
     <t>Drew Waters</t>
   </si>
   <si>
-    <t>Ryan Jeffers</t>
-  </si>
-  <si>
-    <t>Nate Pearson</t>
-  </si>
-  <si>
-    <t>Mark Leiter Jr.</t>
+    <t>Brian Anderson</t>
+  </si>
+  <si>
+    <t>Yuli</t>
   </si>
   <si>
     <t>Jack Suwinski</t>
   </si>
   <si>
-    <t>Keegan Akin</t>
-  </si>
-  <si>
-    <t>Shawn Armstrong</t>
-  </si>
-  <si>
-    <t>Andrew Bellatti</t>
-  </si>
-  <si>
-    <t>Bryan Baker</t>
-  </si>
-  <si>
-    <t>Brandon Pfaadt</t>
-  </si>
-  <si>
-    <t>Dylan Lee</t>
-  </si>
-  <si>
-    <t>Kyle Hendricks</t>
-  </si>
-  <si>
-    <t>Yuli</t>
+    <t>Endy Rodriguez</t>
+  </si>
+  <si>
+    <t>Emilio Pagan</t>
   </si>
   <si>
     <t>Kyle Farmer</t>
   </si>
   <si>
-    <t>Jovani Moran</t>
-  </si>
-  <si>
-    <t>Brian Anderson</t>
+    <t>Steven Okert</t>
+  </si>
+  <si>
+    <t>Wandy Peralta</t>
+  </si>
+  <si>
+    <t>Cionel Perez</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Dylan Coleman</t>
   </si>
   <si>
     <t>Yan Gomes</t>
@@ -1549,222 +1570,201 @@
     <t>Keegan Thompson</t>
   </si>
   <si>
-    <t>Endy Rodriguez</t>
-  </si>
-  <si>
-    <t>Emilio Pagan</t>
+    <t>Matt Strahm</t>
   </si>
   <si>
     <t>Clarke Schmidt</t>
   </si>
   <si>
+    <t>Drew Pomeranz</t>
+  </si>
+  <si>
+    <t>Adam Duvall</t>
+  </si>
+  <si>
     <t>Aledmys Diaz</t>
   </si>
   <si>
-    <t>Steven Okert</t>
+    <t>Enyel De Los Santos</t>
+  </si>
+  <si>
+    <t>Eli Morgan</t>
+  </si>
+  <si>
+    <t>Colin Poche</t>
+  </si>
+  <si>
+    <t>Will Brennan</t>
+  </si>
+  <si>
+    <t>Yimi Garcia</t>
+  </si>
+  <si>
+    <t>Nick Martinez</t>
+  </si>
+  <si>
+    <t>Luis Campusano</t>
+  </si>
+  <si>
+    <t>Connor Brogdon</t>
+  </si>
+  <si>
+    <t>Tim Mayza</t>
+  </si>
+  <si>
+    <t>Penn Murfee</t>
   </si>
   <si>
     <t>Joey Wendle</t>
   </si>
   <si>
-    <t>Will Brennan</t>
-  </si>
-  <si>
-    <t>Wandy Peralta</t>
-  </si>
-  <si>
-    <t>Nick Martinez</t>
-  </si>
-  <si>
-    <t>Cionel Perez</t>
-  </si>
-  <si>
-    <t>Eli Morgan</t>
-  </si>
-  <si>
-    <t>Andrew</t>
+    <t>Caleb Ferguson</t>
+  </si>
+  <si>
+    <t>A.J.</t>
+  </si>
+  <si>
+    <t>Francisco Mejia</t>
+  </si>
+  <si>
+    <t>Dillon Tate</t>
+  </si>
+  <si>
+    <t>Jonathan Hernandez</t>
   </si>
   <si>
     <t>Jesus Sanchez</t>
   </si>
   <si>
-    <t>Dylan Coleman</t>
-  </si>
-  <si>
-    <t>Luis Campusano</t>
-  </si>
-  <si>
-    <t>Matt Strahm</t>
-  </si>
-  <si>
-    <t>Drew Pomeranz</t>
+    <t>Matt Festa</t>
+  </si>
+  <si>
+    <t>Jake Cousins</t>
+  </si>
+  <si>
+    <t>James Outman</t>
+  </si>
+  <si>
+    <t>Michael Lorenzen</t>
   </si>
   <si>
     <t>Jarren Duran</t>
   </si>
   <si>
-    <t>Enyel De Los Santos</t>
-  </si>
-  <si>
-    <t>Colin Poche</t>
-  </si>
-  <si>
-    <t>James Outman</t>
-  </si>
-  <si>
-    <t>Yimi Garcia</t>
-  </si>
-  <si>
-    <t>Francisco Mejia</t>
-  </si>
-  <si>
-    <t>Connor Brogdon</t>
+    <t>Anthony Bass</t>
+  </si>
+  <si>
+    <t>Michael Massey</t>
+  </si>
+  <si>
+    <t>Kirby Yates</t>
   </si>
   <si>
     <t>Nolan Jones</t>
   </si>
   <si>
-    <t>Michael Massey</t>
-  </si>
-  <si>
-    <t>Tim Mayza</t>
-  </si>
-  <si>
-    <t>Penn Murfee</t>
-  </si>
-  <si>
-    <t>Caleb Ferguson</t>
-  </si>
-  <si>
-    <t>A.J.</t>
-  </si>
-  <si>
-    <t>Dillon Tate</t>
-  </si>
-  <si>
-    <t>Jonathan Hernandez</t>
-  </si>
-  <si>
-    <t>Matt Festa</t>
-  </si>
-  <si>
-    <t>Jake Cousins</t>
-  </si>
-  <si>
-    <t>Michael Lorenzen</t>
+    <t>Carlos Santana</t>
   </si>
   <si>
     <t>Michael</t>
   </si>
   <si>
-    <t>Anthony Bass</t>
-  </si>
-  <si>
     <t>Bailey Falter</t>
   </si>
   <si>
-    <t>Kirby Yates</t>
-  </si>
-  <si>
-    <t>Carlos Santana</t>
-  </si>
-  <si>
     <t>JiMan Choi</t>
   </si>
   <si>
+    <t>Sal Frelick</t>
+  </si>
+  <si>
+    <t>Mike Zunino</t>
+  </si>
+  <si>
     <t>Omar Narvaez</t>
   </si>
   <si>
-    <t>Sal Frelick</t>
-  </si>
-  <si>
-    <t>Mike Zunino</t>
-  </si>
-  <si>
     <t>Nick Pratto</t>
   </si>
   <si>
+    <t>Drew Smyly</t>
+  </si>
+  <si>
+    <t>Jace Peterson</t>
+  </si>
+  <si>
+    <t>Reese McGuire</t>
+  </si>
+  <si>
     <t>Elly De La Cruz</t>
   </si>
   <si>
     <t>Jonathan Aranda</t>
   </si>
   <si>
-    <t>Drew Smyly</t>
+    <t>LaMonte Wade Jr.</t>
+  </si>
+  <si>
+    <t>Victor Robles</t>
+  </si>
+  <si>
+    <t>Adrian Morejon</t>
+  </si>
+  <si>
+    <t>Joe Barlow</t>
   </si>
   <si>
     <t>Bryce Elder</t>
   </si>
   <si>
-    <t>Adrian Morejon</t>
-  </si>
-  <si>
-    <t>Jace Peterson</t>
-  </si>
-  <si>
-    <t>Reese McGuire</t>
-  </si>
-  <si>
-    <t>Victor Robles</t>
-  </si>
-  <si>
-    <t>Joe Barlow</t>
-  </si>
-  <si>
-    <t>LaMonte Wade Jr.</t>
+    <t>Keston Hiura</t>
+  </si>
+  <si>
+    <t>Stone Garrett</t>
+  </si>
+  <si>
+    <t>JP Sears</t>
+  </si>
+  <si>
+    <t>Rich Hill</t>
   </si>
   <si>
     <t>Kyle Stowers</t>
   </si>
   <si>
-    <t>JP Sears</t>
+    <t>Christian Arroyo</t>
+  </si>
+  <si>
+    <t>Blake Treinen</t>
+  </si>
+  <si>
+    <t>Eddie Rosario</t>
   </si>
   <si>
     <t>Spencer Steer</t>
   </si>
   <si>
-    <t>Keston Hiura</t>
-  </si>
-  <si>
-    <t>Stone Garrett</t>
+    <t>Cade Cavalli</t>
+  </si>
+  <si>
+    <t>Evan Longoria</t>
+  </si>
+  <si>
+    <t>Jorge Alfaro</t>
   </si>
   <si>
     <t>Vidal Brujan</t>
   </si>
   <si>
-    <t>Rich Hill</t>
-  </si>
-  <si>
-    <t>Eddie Rosario</t>
-  </si>
-  <si>
-    <t>Christian Arroyo</t>
-  </si>
-  <si>
-    <t>Blake Treinen</t>
-  </si>
-  <si>
-    <t>Jorge Alfaro</t>
-  </si>
-  <si>
-    <t>Cade Cavalli</t>
-  </si>
-  <si>
-    <t>Evan Longoria</t>
+    <t>Matt Barnes</t>
+  </si>
+  <si>
+    <t>Tyler Wells</t>
   </si>
   <si>
     <t>Ian Anderson</t>
   </si>
   <si>
-    <t>Matt Barnes</t>
-  </si>
-  <si>
-    <t>Tyler Wells</t>
-  </si>
-  <si>
-    <t>Adam Duvall</t>
-  </si>
-  <si>
     <t>Jake Alu</t>
   </si>
   <si>
@@ -1885,7 +1885,7 @@
     <t>Yusei Kikuchi</t>
   </si>
   <si>
-    <t>Raimel</t>
+    <t>Raimel Tapia</t>
   </si>
   <si>
     <t>Adam Frazier</t>
@@ -2479,12 +2479,12 @@
     <t>SP,DH</t>
   </si>
   <si>
+    <t>SP</t>
+  </si>
+  <si>
     <t>1B</t>
   </si>
   <si>
-    <t>SP</t>
-  </si>
-  <si>
     <t>CF</t>
   </si>
   <si>
@@ -2524,24 +2524,24 @@
     <t>CF,DH,LF,RF</t>
   </si>
   <si>
+    <t>CF,DH,RF</t>
+  </si>
+  <si>
     <t>C,1B</t>
   </si>
   <si>
-    <t>CF,DH,RF</t>
-  </si>
-  <si>
     <t>DH,LF</t>
   </si>
   <si>
     <t>SP,RP</t>
   </si>
   <si>
+    <t>2B,RF,SS</t>
+  </si>
+  <si>
     <t>C,CF,DH,LF,RF</t>
   </si>
   <si>
-    <t>2B,RF,SS</t>
-  </si>
-  <si>
     <t>CF,DH,LF</t>
   </si>
   <si>
@@ -2611,12 +2611,12 @@
     <t>1B,2B,3B,DH,LF</t>
   </si>
   <si>
+    <t>2B,DH</t>
+  </si>
+  <si>
     <t>1B,RF</t>
   </si>
   <si>
-    <t>2B,DH</t>
-  </si>
-  <si>
     <t>2B,CF,DH</t>
   </si>
   <si>
@@ -2683,24 +2683,24 @@
     <t>1B,2B,3B,DH,LF,RF,SS</t>
   </si>
   <si>
+    <t>1B,LF,RF</t>
+  </si>
+  <si>
     <t>1B,C</t>
   </si>
   <si>
-    <t>1B,LF,RF</t>
-  </si>
-  <si>
     <t>1B,2B,CF,LF,RF</t>
   </si>
   <si>
+    <t>C,DH,LF</t>
+  </si>
+  <si>
     <t>1B,2B,DH,RF</t>
   </si>
   <si>
     <t>2B,CF,SS</t>
   </si>
   <si>
-    <t>C,DH,LF</t>
-  </si>
-  <si>
     <t>1B,CF,DH,LF,RF</t>
   </si>
   <si>
@@ -2728,60 +2728,60 @@
     <t>1B,2B,3B,LF,SS</t>
   </si>
   <si>
+    <t>CF,RF,RP,SP</t>
+  </si>
+  <si>
     <t>3B,RF</t>
   </si>
   <si>
-    <t>CF,RF,RP,SP</t>
-  </si>
-  <si>
     <t>1B,LF</t>
   </si>
   <si>
     <t>1B,2B,3B,LF,RF</t>
   </si>
   <si>
+    <t>1B,2B,3B,RF,SS</t>
+  </si>
+  <si>
     <t>1B,2B,3B,SS</t>
   </si>
   <si>
     <t>2B,RF</t>
   </si>
   <si>
-    <t>1B,2B,3B,RF,SS</t>
-  </si>
-  <si>
     <t>1B,SS</t>
   </si>
   <si>
+    <t>1B,2B,3B,DH,SS</t>
+  </si>
+  <si>
+    <t>2B,CF</t>
+  </si>
+  <si>
+    <t>SS,CF</t>
+  </si>
+  <si>
+    <t>2B,3B,LF,RF,SS</t>
+  </si>
+  <si>
+    <t>1B,2B,3B,RF</t>
+  </si>
+  <si>
+    <t>3B,CF,RF</t>
+  </si>
+  <si>
+    <t>3B,LF,RP,SS</t>
+  </si>
+  <si>
+    <t>2B,DH,LF</t>
+  </si>
+  <si>
+    <t>1B,3B,CF,LF,RF</t>
+  </si>
+  <si>
     <t>P</t>
   </si>
   <si>
-    <t>1B,2B,3B,DH,SS</t>
-  </si>
-  <si>
-    <t>2B,CF</t>
-  </si>
-  <si>
-    <t>SS,CF</t>
-  </si>
-  <si>
-    <t>2B,3B,LF,RF,SS</t>
-  </si>
-  <si>
-    <t>1B,2B,3B,RF</t>
-  </si>
-  <si>
-    <t>3B,CF,RF</t>
-  </si>
-  <si>
-    <t>3B,LF,RP,SS</t>
-  </si>
-  <si>
-    <t>2B,DH,LF</t>
-  </si>
-  <si>
-    <t>1B,3B,CF,LF,RF</t>
-  </si>
-  <si>
     <t>1B,3B,LF</t>
   </si>
   <si>
@@ -2869,12 +2869,12 @@
     <t>MIN</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>COL</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>CIN</t>
   </si>
   <si>
@@ -2890,9 +2890,6 @@
     <t>Profar</t>
   </si>
   <si>
-    <t>Chapman</t>
-  </si>
-  <si>
     <t>Voit</t>
   </si>
   <si>
@@ -2918,9 +2915,6 @@
   </si>
   <si>
     <t>Wacha</t>
-  </si>
-  <si>
-    <t>Tapia</t>
   </si>
   <si>
     <t>Moustakas</t>
@@ -3517,7 +3511,7 @@
         <v>820</v>
       </c>
       <c r="D13" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3531,7 +3525,7 @@
         <v>821</v>
       </c>
       <c r="D14" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3556,10 +3550,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D16" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3570,10 +3564,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D17" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3668,7 +3662,7 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D24" t="s">
         <v>941</v>
@@ -3696,7 +3690,7 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D26" t="s">
         <v>942</v>
@@ -3724,10 +3718,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="D28" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3738,10 +3732,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="D29" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3780,10 +3774,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="D32" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3794,10 +3788,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
       <c r="D33" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3808,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D34" t="s">
         <v>929</v>
@@ -3822,7 +3816,7 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D35" t="s">
         <v>944</v>
@@ -3836,7 +3830,7 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D36" t="s">
         <v>943</v>
@@ -3864,7 +3858,7 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D38" t="s">
         <v>936</v>
@@ -3878,7 +3872,7 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D39" t="s">
         <v>939</v>
@@ -3906,7 +3900,7 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D41" t="s">
         <v>939</v>
@@ -3934,7 +3928,7 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D43" t="s">
         <v>926</v>
@@ -3948,10 +3942,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="D44" t="s">
-        <v>932</v>
+        <v>945</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3962,10 +3956,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="D45" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3976,7 +3970,7 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D46" t="s">
         <v>927</v>
@@ -3990,10 +3984,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="D47" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4004,10 +3998,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="D48" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4018,7 +4012,7 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D49" t="s">
         <v>929</v>
@@ -4060,7 +4054,7 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D52" t="s">
         <v>934</v>
@@ -4102,7 +4096,7 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D55" t="s">
         <v>928</v>
@@ -4119,7 +4113,7 @@
         <v>835</v>
       </c>
       <c r="D56" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4130,7 +4124,7 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="D57" t="s">
         <v>933</v>
@@ -4144,10 +4138,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="D58" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4158,10 +4152,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="D59" t="s">
-        <v>926</v>
+        <v>939</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4172,10 +4166,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
       <c r="D60" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4186,10 +4180,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="D61" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4228,7 +4222,7 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D64" t="s">
         <v>933</v>
@@ -4242,7 +4236,7 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D65" t="s">
         <v>926</v>
@@ -4270,7 +4264,7 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D67" t="s">
         <v>932</v>
@@ -4298,7 +4292,7 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D69" t="s">
         <v>946</v>
@@ -4326,10 +4320,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="D71" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4340,7 +4334,7 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D72" t="s">
         <v>940</v>
@@ -4357,7 +4351,7 @@
         <v>831</v>
       </c>
       <c r="D73" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4368,10 +4362,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="D74" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4396,7 +4390,7 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D76" t="s">
         <v>931</v>
@@ -4424,10 +4418,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="D78" t="s">
-        <v>937</v>
+        <v>948</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4441,7 +4435,7 @@
         <v>831</v>
       </c>
       <c r="D79" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4452,10 +4446,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="D80" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4466,7 +4460,7 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D81" t="s">
         <v>932</v>
@@ -4480,10 +4474,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="D82" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4494,10 +4488,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="D83" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4536,7 +4530,7 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D86" t="s">
         <v>928</v>
@@ -4578,10 +4572,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="D89" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4592,10 +4586,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="D90" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4620,10 +4614,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="D92" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4634,10 +4628,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D93" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4662,7 +4656,7 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D95" t="s">
         <v>930</v>
@@ -4732,10 +4726,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="D100" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4746,10 +4740,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>820</v>
+        <v>847</v>
       </c>
       <c r="D101" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4760,10 +4754,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="D102" t="s">
-        <v>930</v>
+        <v>950</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4774,7 +4768,7 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="D103" t="s">
         <v>951</v>
@@ -4802,7 +4796,7 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="D105" t="s">
         <v>945</v>
@@ -4816,7 +4810,7 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D106" t="s">
         <v>945</v>
@@ -4844,7 +4838,7 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D108" t="s">
         <v>926</v>
@@ -4858,10 +4852,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D109" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4886,10 +4880,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>821</v>
+        <v>848</v>
       </c>
       <c r="D111" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4900,10 +4894,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>848</v>
+        <v>820</v>
       </c>
       <c r="D112" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4914,7 +4908,7 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D113" t="s">
         <v>934</v>
@@ -4928,7 +4922,7 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D114" t="s">
         <v>932</v>
@@ -4942,10 +4936,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>842</v>
+        <v>820</v>
       </c>
       <c r="D115" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4956,10 +4950,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D116" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4970,10 +4964,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="D117" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4984,10 +4978,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>821</v>
+        <v>842</v>
       </c>
       <c r="D118" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5001,7 +4995,7 @@
         <v>850</v>
       </c>
       <c r="D119" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5068,7 +5062,7 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D124" t="s">
         <v>952</v>
@@ -5096,10 +5090,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="D126" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5110,10 +5104,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="D127" t="s">
-        <v>931</v>
+        <v>952</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5138,10 +5132,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="D129" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -5152,10 +5146,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="D130" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -5180,7 +5174,7 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D132" t="s">
         <v>944</v>
@@ -5194,10 +5188,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>828</v>
+        <v>852</v>
       </c>
       <c r="D133" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5208,10 +5202,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>852</v>
+        <v>828</v>
       </c>
       <c r="D134" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5222,10 +5216,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="D135" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5236,10 +5230,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>853</v>
+        <v>820</v>
       </c>
       <c r="D136" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5250,10 +5244,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
       <c r="D137" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5264,7 +5258,7 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="D138" t="s">
         <v>949</v>
@@ -5278,10 +5272,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="D139" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5306,7 +5300,7 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D141" t="s">
         <v>927</v>
@@ -5334,7 +5328,7 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D143" t="s">
         <v>938</v>
@@ -5348,7 +5342,7 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D144" t="s">
         <v>941</v>
@@ -5362,10 +5356,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>813</v>
+        <v>855</v>
       </c>
       <c r="D145" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5376,10 +5370,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>855</v>
+        <v>820</v>
       </c>
       <c r="D146" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5390,10 +5384,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D147" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5404,10 +5398,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>821</v>
+        <v>856</v>
       </c>
       <c r="D148" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5418,10 +5412,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>856</v>
+        <v>828</v>
       </c>
       <c r="D149" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5432,10 +5426,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="D150" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5446,10 +5440,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="D151" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5460,10 +5454,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D152" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5474,10 +5468,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>854</v>
+        <v>812</v>
       </c>
       <c r="D153" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5488,10 +5482,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>821</v>
+        <v>854</v>
       </c>
       <c r="D154" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5572,7 +5566,7 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D160" t="s">
         <v>940</v>
@@ -5586,10 +5580,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>825</v>
+        <v>859</v>
       </c>
       <c r="D161" t="s">
-        <v>933</v>
+        <v>950</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5600,10 +5594,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>859</v>
+        <v>825</v>
       </c>
       <c r="D162" t="s">
-        <v>951</v>
+        <v>933</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5614,10 +5608,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>815</v>
+        <v>860</v>
       </c>
       <c r="D163" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5628,10 +5622,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>842</v>
+        <v>815</v>
       </c>
       <c r="D164" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5656,10 +5650,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="D166" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5670,10 +5664,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>860</v>
+        <v>838</v>
       </c>
       <c r="D167" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5712,10 +5706,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>851</v>
+        <v>820</v>
       </c>
       <c r="D170" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5726,10 +5720,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="D171" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5740,10 +5734,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D172" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5824,10 +5818,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="D178" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5838,10 +5832,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>842</v>
+        <v>863</v>
       </c>
       <c r="D179" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5852,10 +5846,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>827</v>
+        <v>864</v>
       </c>
       <c r="D180" t="s">
-        <v>929</v>
+        <v>952</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5866,10 +5860,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>864</v>
+        <v>827</v>
       </c>
       <c r="D181" t="s">
-        <v>954</v>
+        <v>929</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5883,7 +5877,7 @@
         <v>865</v>
       </c>
       <c r="D182" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5894,10 +5888,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="D183" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5908,10 +5902,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="D184" t="s">
-        <v>927</v>
+        <v>943</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5922,10 +5916,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D185" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5950,10 +5944,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D187" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5964,10 +5958,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D188" t="s">
-        <v>931</v>
+        <v>953</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5978,7 +5972,7 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D189" t="s">
         <v>931</v>
@@ -5992,10 +5986,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
       <c r="D190" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -6006,10 +6000,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>866</v>
+        <v>836</v>
       </c>
       <c r="D191" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -6023,7 +6017,7 @@
         <v>867</v>
       </c>
       <c r="D192" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -6048,7 +6042,7 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D194" t="s">
         <v>945</v>
@@ -6076,10 +6070,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>868</v>
+        <v>838</v>
       </c>
       <c r="D196" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -6090,10 +6084,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>838</v>
+        <v>868</v>
       </c>
       <c r="D197" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -6132,7 +6126,7 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D200" t="s">
         <v>935</v>
@@ -6146,10 +6140,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>818</v>
+        <v>848</v>
       </c>
       <c r="D201" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -6160,10 +6154,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>848</v>
+        <v>818</v>
       </c>
       <c r="D202" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -6188,7 +6182,7 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D204" t="s">
         <v>940</v>
@@ -6202,10 +6196,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D205" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -6216,10 +6210,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="D206" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6230,10 +6224,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D207" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6258,10 +6252,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D209" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6272,10 +6266,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="D210" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -6314,7 +6308,7 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="D213" t="s">
         <v>935</v>
@@ -6328,10 +6322,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>821</v>
+        <v>873</v>
       </c>
       <c r="D214" t="s">
-        <v>935</v>
+        <v>944</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6342,10 +6336,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>873</v>
+        <v>825</v>
       </c>
       <c r="D215" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6356,10 +6350,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>813</v>
+        <v>874</v>
       </c>
       <c r="D216" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6370,10 +6364,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>874</v>
+        <v>847</v>
       </c>
       <c r="D217" t="s">
-        <v>955</v>
+        <v>940</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6384,10 +6378,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>847</v>
+        <v>813</v>
       </c>
       <c r="D218" t="s">
-        <v>940</v>
+        <v>951</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6429,7 +6423,7 @@
         <v>834</v>
       </c>
       <c r="D221" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6440,7 +6434,7 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D222" t="s">
         <v>949</v>
@@ -6454,7 +6448,7 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="D223" t="s">
         <v>946</v>
@@ -6468,7 +6462,7 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="D224" t="s">
         <v>946</v>
@@ -6482,7 +6476,7 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D225" t="s">
         <v>942</v>
@@ -6496,7 +6490,7 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D226" t="s">
         <v>941</v>
@@ -6552,10 +6546,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
       <c r="D230" t="s">
-        <v>945</v>
+        <v>928</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6566,10 +6560,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>829</v>
+        <v>846</v>
       </c>
       <c r="D231" t="s">
-        <v>928</v>
+        <v>945</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6594,7 +6588,7 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D233" t="s">
         <v>940</v>
@@ -6608,10 +6602,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>831</v>
+        <v>857</v>
       </c>
       <c r="D234" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6622,7 +6616,7 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="D235" t="s">
         <v>951</v>
@@ -6636,10 +6630,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="D236" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6664,10 +6658,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>857</v>
+        <v>827</v>
       </c>
       <c r="D238" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6692,10 +6686,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="D240" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6706,10 +6700,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>876</v>
+        <v>814</v>
       </c>
       <c r="D241" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6720,10 +6714,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D242" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6734,10 +6728,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>828</v>
+        <v>877</v>
       </c>
       <c r="D243" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6748,7 +6742,7 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D244" t="s">
         <v>948</v>
@@ -6790,7 +6784,7 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D247" t="s">
         <v>949</v>
@@ -6804,7 +6798,7 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D248" t="s">
         <v>935</v>
@@ -6818,10 +6812,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>821</v>
+        <v>879</v>
       </c>
       <c r="D249" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6832,10 +6826,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>879</v>
+        <v>820</v>
       </c>
       <c r="D250" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6846,7 +6840,7 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D251" t="s">
         <v>948</v>
@@ -6863,7 +6857,7 @@
         <v>810</v>
       </c>
       <c r="D252" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6888,7 +6882,7 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>853</v>
+        <v>880</v>
       </c>
       <c r="D254" t="s">
         <v>948</v>
@@ -6902,10 +6896,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>880</v>
+        <v>828</v>
       </c>
       <c r="D255" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6916,10 +6910,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>828</v>
+        <v>853</v>
       </c>
       <c r="D256" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6944,7 +6938,7 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D258" t="s">
         <v>931</v>
@@ -6972,10 +6966,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D260" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -7042,7 +7036,7 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D265" t="s">
         <v>936</v>
@@ -7056,7 +7050,7 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D266" t="s">
         <v>949</v>
@@ -7070,7 +7064,7 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D267" t="s">
         <v>947</v>
@@ -7084,7 +7078,7 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D268" t="s">
         <v>939</v>
@@ -7112,10 +7106,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D270" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -7140,10 +7134,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>870</v>
+        <v>838</v>
       </c>
       <c r="D272" t="s">
-        <v>926</v>
+        <v>944</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -7154,10 +7148,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="D273" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -7168,7 +7162,7 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="D274" t="s">
         <v>941</v>
@@ -7182,10 +7176,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D275" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7196,10 +7190,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="D276" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -7210,10 +7204,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
       <c r="D277" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7224,10 +7218,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>851</v>
+        <v>870</v>
       </c>
       <c r="D278" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -7238,7 +7232,7 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D279" t="s">
         <v>935</v>
@@ -7336,10 +7330,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="D286" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7350,10 +7344,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="D287" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7392,10 +7386,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>837</v>
+        <v>882</v>
       </c>
       <c r="D290" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7406,10 +7400,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="D291" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -7423,7 +7417,7 @@
         <v>821</v>
       </c>
       <c r="D292" t="s">
-        <v>929</v>
+        <v>948</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7434,10 +7428,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>882</v>
+        <v>820</v>
       </c>
       <c r="D293" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -7451,7 +7445,7 @@
         <v>828</v>
       </c>
       <c r="D294" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -7476,7 +7470,7 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D296" t="s">
         <v>953</v>
@@ -7518,10 +7512,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D299" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -7532,10 +7526,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>821</v>
+        <v>883</v>
       </c>
       <c r="D300" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7546,10 +7540,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>883</v>
+        <v>820</v>
       </c>
       <c r="D301" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7560,10 +7554,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>838</v>
+        <v>870</v>
       </c>
       <c r="D302" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7574,10 +7568,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>870</v>
+        <v>838</v>
       </c>
       <c r="D303" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7633,7 +7627,7 @@
         <v>838</v>
       </c>
       <c r="D307" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7644,10 +7638,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D308" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7658,10 +7652,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="D309" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -7672,10 +7666,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>830</v>
+        <v>873</v>
       </c>
       <c r="D310" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7686,10 +7680,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="D311" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7700,7 +7694,7 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>873</v>
+        <v>838</v>
       </c>
       <c r="D312" t="s">
         <v>938</v>
@@ -7714,10 +7708,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>812</v>
+        <v>885</v>
       </c>
       <c r="D313" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7728,10 +7722,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="D314" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7742,10 +7736,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="D315" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7756,10 +7750,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="D316" t="s">
-        <v>931</v>
+        <v>953</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7770,10 +7764,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>828</v>
+        <v>848</v>
       </c>
       <c r="D317" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7784,10 +7778,10 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>885</v>
+        <v>828</v>
       </c>
       <c r="D318" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7896,10 +7890,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>851</v>
+        <v>876</v>
       </c>
       <c r="D326" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7924,10 +7918,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>876</v>
+        <v>851</v>
       </c>
       <c r="D328" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7938,7 +7932,7 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D329" t="s">
         <v>940</v>
@@ -7952,10 +7946,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="D330" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -7966,10 +7960,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>828</v>
+        <v>856</v>
       </c>
       <c r="D331" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -7980,10 +7974,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>856</v>
+        <v>837</v>
       </c>
       <c r="D332" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -7997,7 +7991,7 @@
         <v>888</v>
       </c>
       <c r="D333" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -8008,10 +8002,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="D334" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -8025,7 +8019,7 @@
         <v>889</v>
       </c>
       <c r="D335" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -8036,10 +8030,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="D336" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -8064,7 +8058,7 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D338" t="s">
         <v>954</v>
@@ -8075,7 +8069,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C339" t="s">
         <v>813</v>
@@ -8092,10 +8086,10 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>821</v>
+        <v>888</v>
       </c>
       <c r="D340" t="s">
-        <v>930</v>
+        <v>949</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -8106,10 +8100,10 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>889</v>
+        <v>820</v>
       </c>
       <c r="D341" t="s">
-        <v>949</v>
+        <v>930</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -8120,10 +8114,10 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>821</v>
+        <v>847</v>
       </c>
       <c r="D342" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -8134,10 +8128,10 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>877</v>
+        <v>820</v>
       </c>
       <c r="D343" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -8148,10 +8142,10 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>847</v>
+        <v>877</v>
       </c>
       <c r="D344" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -8190,10 +8184,10 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D347" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8232,10 +8226,10 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="D350" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -8246,10 +8240,10 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="D351" t="s">
-        <v>953</v>
+        <v>927</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -8260,10 +8254,10 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D352" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -8302,10 +8296,10 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>847</v>
+        <v>877</v>
       </c>
       <c r="D355" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8316,10 +8310,10 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>877</v>
+        <v>828</v>
       </c>
       <c r="D356" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8330,10 +8324,10 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="D357" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8358,10 +8352,10 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D359" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8372,10 +8366,10 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D360" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8400,7 +8394,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D362" t="s">
         <v>930</v>
@@ -8414,7 +8408,7 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D363" t="s">
         <v>926</v>
@@ -8428,10 +8422,10 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>821</v>
+        <v>870</v>
       </c>
       <c r="D364" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8442,10 +8436,10 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>870</v>
+        <v>820</v>
       </c>
       <c r="D365" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8473,7 +8467,7 @@
         <v>828</v>
       </c>
       <c r="D367" t="s">
-        <v>957</v>
+        <v>937</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8515,7 +8509,7 @@
         <v>817</v>
       </c>
       <c r="D370" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8529,7 +8523,7 @@
         <v>831</v>
       </c>
       <c r="D371" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8557,7 +8551,7 @@
         <v>891</v>
       </c>
       <c r="D373" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8585,7 +8579,7 @@
         <v>892</v>
       </c>
       <c r="D375" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8599,7 +8593,7 @@
         <v>893</v>
       </c>
       <c r="D376" t="s">
-        <v>953</v>
+        <v>938</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8610,7 +8604,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D377" t="s">
         <v>938</v>
@@ -8624,7 +8618,7 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D378" t="s">
         <v>938</v>
@@ -8652,10 +8646,10 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>821</v>
+        <v>870</v>
       </c>
       <c r="D380" t="s">
-        <v>950</v>
+        <v>930</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -8677,13 +8671,13 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>383</v>
+        <v>189</v>
       </c>
       <c r="C382" t="s">
-        <v>870</v>
+        <v>828</v>
       </c>
       <c r="D382" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8691,13 +8685,13 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C383" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="D383" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -8705,13 +8699,13 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C384" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="D384" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -8719,13 +8713,13 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>190</v>
+        <v>385</v>
       </c>
       <c r="C385" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D385" t="s">
-        <v>932</v>
+        <v>945</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -8739,7 +8733,7 @@
         <v>828</v>
       </c>
       <c r="D386" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -8750,10 +8744,10 @@
         <v>387</v>
       </c>
       <c r="C387" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D387" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -8764,10 +8758,10 @@
         <v>388</v>
       </c>
       <c r="C388" t="s">
-        <v>895</v>
+        <v>825</v>
       </c>
       <c r="D388" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -8778,10 +8772,10 @@
         <v>389</v>
       </c>
       <c r="C389" t="s">
-        <v>812</v>
+        <v>870</v>
       </c>
       <c r="D389" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -8792,10 +8786,10 @@
         <v>390</v>
       </c>
       <c r="C390" t="s">
-        <v>870</v>
+        <v>895</v>
       </c>
       <c r="D390" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8806,10 +8800,10 @@
         <v>391</v>
       </c>
       <c r="C391" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="D391" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -8820,10 +8814,10 @@
         <v>392</v>
       </c>
       <c r="C392" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="D392" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -8834,10 +8828,10 @@
         <v>393</v>
       </c>
       <c r="C393" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="D393" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -8848,10 +8842,10 @@
         <v>394</v>
       </c>
       <c r="C394" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="D394" t="s">
-        <v>928</v>
+        <v>954</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8862,10 +8856,10 @@
         <v>395</v>
       </c>
       <c r="C395" t="s">
-        <v>896</v>
+        <v>854</v>
       </c>
       <c r="D395" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -8876,10 +8870,10 @@
         <v>396</v>
       </c>
       <c r="C396" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="D396" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -8890,10 +8884,10 @@
         <v>397</v>
       </c>
       <c r="C397" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="D397" t="s">
-        <v>946</v>
+        <v>927</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -8904,10 +8898,10 @@
         <v>398</v>
       </c>
       <c r="C398" t="s">
-        <v>886</v>
+        <v>822</v>
       </c>
       <c r="D398" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8932,10 +8926,10 @@
         <v>400</v>
       </c>
       <c r="C400" t="s">
-        <v>821</v>
+        <v>886</v>
       </c>
       <c r="D400" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -8946,10 +8940,10 @@
         <v>401</v>
       </c>
       <c r="C401" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="D401" t="s">
-        <v>927</v>
+        <v>942</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -8960,10 +8954,10 @@
         <v>402</v>
       </c>
       <c r="C402" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="D402" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -9005,7 +8999,7 @@
         <v>828</v>
       </c>
       <c r="D405" t="s">
-        <v>934</v>
+        <v>943</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -9016,10 +9010,10 @@
         <v>406</v>
       </c>
       <c r="C406" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
       <c r="D406" t="s">
-        <v>935</v>
+        <v>944</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -9047,7 +9041,7 @@
         <v>828</v>
       </c>
       <c r="D408" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -9058,10 +9052,10 @@
         <v>409</v>
       </c>
       <c r="C409" t="s">
-        <v>828</v>
+        <v>846</v>
       </c>
       <c r="D409" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -9086,10 +9080,10 @@
         <v>411</v>
       </c>
       <c r="C411" t="s">
-        <v>870</v>
+        <v>828</v>
       </c>
       <c r="D411" t="s">
-        <v>946</v>
+        <v>959</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -9100,10 +9094,10 @@
         <v>412</v>
       </c>
       <c r="C412" t="s">
-        <v>821</v>
+        <v>870</v>
       </c>
       <c r="D412" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -9114,10 +9108,10 @@
         <v>413</v>
       </c>
       <c r="C413" t="s">
-        <v>828</v>
+        <v>897</v>
       </c>
       <c r="D413" t="s">
-        <v>960</v>
+        <v>940</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -9128,10 +9122,10 @@
         <v>414</v>
       </c>
       <c r="C414" t="s">
-        <v>897</v>
+        <v>820</v>
       </c>
       <c r="D414" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -9156,10 +9150,10 @@
         <v>416</v>
       </c>
       <c r="C416" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="D416" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -9170,10 +9164,10 @@
         <v>417</v>
       </c>
       <c r="C417" t="s">
-        <v>821</v>
+        <v>838</v>
       </c>
       <c r="D417" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -9184,10 +9178,10 @@
         <v>418</v>
       </c>
       <c r="C418" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="D418" t="s">
-        <v>926</v>
+        <v>955</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9198,10 +9192,10 @@
         <v>419</v>
       </c>
       <c r="C419" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="D419" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -9212,10 +9206,10 @@
         <v>420</v>
       </c>
       <c r="C420" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="D420" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -9268,10 +9262,10 @@
         <v>424</v>
       </c>
       <c r="C424" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
       <c r="D424" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -9282,10 +9276,10 @@
         <v>425</v>
       </c>
       <c r="C425" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
       <c r="D425" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -9296,10 +9290,10 @@
         <v>426</v>
       </c>
       <c r="C426" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="D426" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9310,10 +9304,10 @@
         <v>427</v>
       </c>
       <c r="C427" t="s">
-        <v>831</v>
+        <v>851</v>
       </c>
       <c r="D427" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -9324,10 +9318,10 @@
         <v>428</v>
       </c>
       <c r="C428" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="D428" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9338,10 +9332,10 @@
         <v>429</v>
       </c>
       <c r="C429" t="s">
-        <v>817</v>
+        <v>870</v>
       </c>
       <c r="D429" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9352,10 +9346,10 @@
         <v>430</v>
       </c>
       <c r="C430" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="D430" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9366,10 +9360,10 @@
         <v>431</v>
       </c>
       <c r="C431" t="s">
-        <v>857</v>
+        <v>817</v>
       </c>
       <c r="D431" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -9380,10 +9374,10 @@
         <v>432</v>
       </c>
       <c r="C432" t="s">
-        <v>870</v>
+        <v>847</v>
       </c>
       <c r="D432" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -9394,10 +9388,10 @@
         <v>433</v>
       </c>
       <c r="C433" t="s">
-        <v>821</v>
+        <v>857</v>
       </c>
       <c r="D433" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9408,10 +9402,10 @@
         <v>434</v>
       </c>
       <c r="C434" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="D434" t="s">
-        <v>951</v>
+        <v>927</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -9422,10 +9416,10 @@
         <v>435</v>
       </c>
       <c r="C435" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="D435" t="s">
-        <v>927</v>
+        <v>950</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -9436,7 +9430,7 @@
         <v>436</v>
       </c>
       <c r="C436" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D436" t="s">
         <v>927</v>
@@ -9464,7 +9458,7 @@
         <v>438</v>
       </c>
       <c r="C438" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D438" t="s">
         <v>929</v>
@@ -9492,10 +9486,10 @@
         <v>440</v>
       </c>
       <c r="C440" t="s">
-        <v>846</v>
+        <v>898</v>
       </c>
       <c r="D440" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -9506,10 +9500,10 @@
         <v>441</v>
       </c>
       <c r="C441" t="s">
-        <v>898</v>
+        <v>846</v>
       </c>
       <c r="D441" t="s">
-        <v>953</v>
+        <v>937</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -9523,7 +9517,7 @@
         <v>842</v>
       </c>
       <c r="D442" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -9562,10 +9556,10 @@
         <v>445</v>
       </c>
       <c r="C445" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D445" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -9579,7 +9573,7 @@
         <v>828</v>
       </c>
       <c r="D446" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9590,10 +9584,10 @@
         <v>447</v>
       </c>
       <c r="C447" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="D447" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -9604,10 +9598,10 @@
         <v>448</v>
       </c>
       <c r="C448" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="D448" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -9618,10 +9612,10 @@
         <v>449</v>
       </c>
       <c r="C449" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="D449" t="s">
-        <v>935</v>
+        <v>953</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -9632,10 +9626,10 @@
         <v>450</v>
       </c>
       <c r="C450" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="D450" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -9646,10 +9640,10 @@
         <v>451</v>
       </c>
       <c r="C451" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
       <c r="D451" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -9660,10 +9654,10 @@
         <v>452</v>
       </c>
       <c r="C452" t="s">
-        <v>828</v>
+        <v>878</v>
       </c>
       <c r="D452" t="s">
-        <v>938</v>
+        <v>947</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9674,10 +9668,10 @@
         <v>453</v>
       </c>
       <c r="C453" t="s">
-        <v>814</v>
+        <v>870</v>
       </c>
       <c r="D453" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -9688,10 +9682,10 @@
         <v>454</v>
       </c>
       <c r="C454" t="s">
-        <v>878</v>
+        <v>827</v>
       </c>
       <c r="D454" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9702,10 +9696,10 @@
         <v>455</v>
       </c>
       <c r="C455" t="s">
-        <v>870</v>
+        <v>828</v>
       </c>
       <c r="D455" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -9716,10 +9710,10 @@
         <v>456</v>
       </c>
       <c r="C456" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D456" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -9730,10 +9724,10 @@
         <v>457</v>
       </c>
       <c r="C457" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="D457" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -9744,10 +9738,10 @@
         <v>458</v>
       </c>
       <c r="C458" t="s">
-        <v>842</v>
+        <v>820</v>
       </c>
       <c r="D458" t="s">
-        <v>942</v>
+        <v>955</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -9758,10 +9752,10 @@
         <v>459</v>
       </c>
       <c r="C459" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D459" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -9772,10 +9766,10 @@
         <v>460</v>
       </c>
       <c r="C460" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="D460" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -9786,10 +9780,10 @@
         <v>461</v>
       </c>
       <c r="C461" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D461" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -9800,10 +9794,10 @@
         <v>462</v>
       </c>
       <c r="C462" t="s">
-        <v>830</v>
+        <v>851</v>
       </c>
       <c r="D462" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9814,10 +9808,10 @@
         <v>463</v>
       </c>
       <c r="C463" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D463" t="s">
-        <v>953</v>
+        <v>938</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -9828,10 +9822,10 @@
         <v>464</v>
       </c>
       <c r="C464" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D464" t="s">
-        <v>938</v>
+        <v>954</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -9845,7 +9839,7 @@
         <v>828</v>
       </c>
       <c r="D465" t="s">
-        <v>954</v>
+        <v>928</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -9859,7 +9853,7 @@
         <v>828</v>
       </c>
       <c r="D466" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -9870,10 +9864,10 @@
         <v>467</v>
       </c>
       <c r="C467" t="s">
-        <v>821</v>
+        <v>838</v>
       </c>
       <c r="D467" t="s">
-        <v>955</v>
+        <v>930</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -9887,7 +9881,7 @@
         <v>828</v>
       </c>
       <c r="D468" t="s">
-        <v>955</v>
+        <v>930</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -9901,7 +9895,7 @@
         <v>828</v>
       </c>
       <c r="D469" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -9915,7 +9909,7 @@
         <v>828</v>
       </c>
       <c r="D470" t="s">
-        <v>930</v>
+        <v>955</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -9926,10 +9920,10 @@
         <v>471</v>
       </c>
       <c r="C471" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="D471" t="s">
-        <v>927</v>
+        <v>953</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -9940,10 +9934,10 @@
         <v>472</v>
       </c>
       <c r="C472" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="D472" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -9957,7 +9951,7 @@
         <v>838</v>
       </c>
       <c r="D473" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -9968,10 +9962,10 @@
         <v>474</v>
       </c>
       <c r="C474" t="s">
-        <v>878</v>
+        <v>830</v>
       </c>
       <c r="D474" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -9982,10 +9976,10 @@
         <v>475</v>
       </c>
       <c r="C475" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="D475" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -9996,10 +9990,10 @@
         <v>476</v>
       </c>
       <c r="C476" t="s">
-        <v>899</v>
+        <v>828</v>
       </c>
       <c r="D476" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -10024,10 +10018,10 @@
         <v>478</v>
       </c>
       <c r="C478" t="s">
-        <v>838</v>
+        <v>878</v>
       </c>
       <c r="D478" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -10038,10 +10032,10 @@
         <v>479</v>
       </c>
       <c r="C479" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="D479" t="s">
-        <v>926</v>
+        <v>961</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -10052,10 +10046,10 @@
         <v>480</v>
       </c>
       <c r="C480" t="s">
-        <v>859</v>
+        <v>828</v>
       </c>
       <c r="D480" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -10066,10 +10060,10 @@
         <v>481</v>
       </c>
       <c r="C481" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="D481" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -10080,10 +10074,10 @@
         <v>482</v>
       </c>
       <c r="C482" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="D482" t="s">
-        <v>962</v>
+        <v>936</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -10094,10 +10088,10 @@
         <v>483</v>
       </c>
       <c r="C483" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D483" t="s">
-        <v>927</v>
+        <v>955</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -10108,10 +10102,10 @@
         <v>484</v>
       </c>
       <c r="C484" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D484" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -10125,7 +10119,7 @@
         <v>828</v>
       </c>
       <c r="D485" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -10136,10 +10130,10 @@
         <v>486</v>
       </c>
       <c r="C486" t="s">
-        <v>828</v>
+        <v>900</v>
       </c>
       <c r="D486" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -10150,10 +10144,10 @@
         <v>487</v>
       </c>
       <c r="C487" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="D487" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -10164,10 +10158,10 @@
         <v>488</v>
       </c>
       <c r="C488" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="D488" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -10178,10 +10172,10 @@
         <v>489</v>
       </c>
       <c r="C489" t="s">
-        <v>828</v>
+        <v>859</v>
       </c>
       <c r="D489" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -10192,10 +10186,10 @@
         <v>490</v>
       </c>
       <c r="C490" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="D490" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -10206,10 +10200,10 @@
         <v>491</v>
       </c>
       <c r="C491" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="D491" t="s">
-        <v>946</v>
+        <v>927</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -10220,10 +10214,10 @@
         <v>492</v>
       </c>
       <c r="C492" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="D492" t="s">
-        <v>937</v>
+        <v>946</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -10234,10 +10228,10 @@
         <v>493</v>
       </c>
       <c r="C493" t="s">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="D493" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -10251,7 +10245,7 @@
         <v>828</v>
       </c>
       <c r="D494" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -10262,10 +10256,10 @@
         <v>495</v>
       </c>
       <c r="C495" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D495" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -10276,10 +10270,10 @@
         <v>496</v>
       </c>
       <c r="C496" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
       <c r="D496" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -10290,10 +10284,10 @@
         <v>497</v>
       </c>
       <c r="C497" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="D497" t="s">
-        <v>945</v>
+        <v>926</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -10304,10 +10298,10 @@
         <v>498</v>
       </c>
       <c r="C498" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D498" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -10318,10 +10312,10 @@
         <v>499</v>
       </c>
       <c r="C499" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="D499" t="s">
-        <v>929</v>
+        <v>948</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -10332,10 +10326,10 @@
         <v>500</v>
       </c>
       <c r="C500" t="s">
-        <v>828</v>
+        <v>870</v>
       </c>
       <c r="D500" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -10346,10 +10340,10 @@
         <v>501</v>
       </c>
       <c r="C501" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D501" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10360,10 +10354,10 @@
         <v>502</v>
       </c>
       <c r="C502" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="D502" t="s">
-        <v>926</v>
+        <v>946</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -10374,10 +10368,10 @@
         <v>503</v>
       </c>
       <c r="C503" t="s">
-        <v>821</v>
+        <v>847</v>
       </c>
       <c r="D503" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10388,10 +10382,10 @@
         <v>504</v>
       </c>
       <c r="C504" t="s">
-        <v>820</v>
+        <v>901</v>
       </c>
       <c r="D504" t="s">
-        <v>963</v>
+        <v>936</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -10402,10 +10396,10 @@
         <v>505</v>
       </c>
       <c r="C505" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="D505" t="s">
-        <v>949</v>
+        <v>962</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10416,10 +10410,10 @@
         <v>506</v>
       </c>
       <c r="C506" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="D506" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -10430,10 +10424,10 @@
         <v>507</v>
       </c>
       <c r="C507" t="s">
-        <v>901</v>
+        <v>870</v>
       </c>
       <c r="D507" t="s">
-        <v>936</v>
+        <v>947</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10444,10 +10438,10 @@
         <v>508</v>
       </c>
       <c r="C508" t="s">
-        <v>870</v>
+        <v>828</v>
       </c>
       <c r="D508" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10458,10 +10452,10 @@
         <v>509</v>
       </c>
       <c r="C509" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="D509" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10472,10 +10466,10 @@
         <v>510</v>
       </c>
       <c r="C510" t="s">
-        <v>870</v>
+        <v>828</v>
       </c>
       <c r="D510" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10489,7 +10483,7 @@
         <v>828</v>
       </c>
       <c r="D511" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10500,10 +10494,10 @@
         <v>512</v>
       </c>
       <c r="C512" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D512" t="s">
-        <v>927</v>
+        <v>945</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10514,10 +10508,10 @@
         <v>513</v>
       </c>
       <c r="C513" t="s">
-        <v>902</v>
+        <v>828</v>
       </c>
       <c r="D513" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10531,7 +10525,7 @@
         <v>828</v>
       </c>
       <c r="D514" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10542,10 +10536,10 @@
         <v>515</v>
       </c>
       <c r="C515" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="D515" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -10556,10 +10550,10 @@
         <v>516</v>
       </c>
       <c r="C516" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="D516" t="s">
-        <v>930</v>
+        <v>948</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10573,7 +10567,7 @@
         <v>828</v>
       </c>
       <c r="D517" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10587,7 +10581,7 @@
         <v>830</v>
       </c>
       <c r="D518" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10601,7 +10595,7 @@
         <v>828</v>
       </c>
       <c r="D519" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10612,10 +10606,10 @@
         <v>520</v>
       </c>
       <c r="C520" t="s">
-        <v>830</v>
+        <v>851</v>
       </c>
       <c r="D520" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10626,10 +10620,10 @@
         <v>521</v>
       </c>
       <c r="C521" t="s">
-        <v>828</v>
+        <v>902</v>
       </c>
       <c r="D521" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10640,10 +10634,10 @@
         <v>522</v>
       </c>
       <c r="C522" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="D522" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10654,10 +10648,10 @@
         <v>523</v>
       </c>
       <c r="C523" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D523" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10668,10 +10662,10 @@
         <v>524</v>
       </c>
       <c r="C524" t="s">
-        <v>870</v>
+        <v>828</v>
       </c>
       <c r="D524" t="s">
-        <v>932</v>
+        <v>943</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10682,10 +10676,10 @@
         <v>525</v>
       </c>
       <c r="C525" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="D525" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10699,7 +10693,7 @@
         <v>828</v>
       </c>
       <c r="D526" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10710,10 +10704,10 @@
         <v>527</v>
       </c>
       <c r="C527" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
       <c r="D527" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10724,10 +10718,10 @@
         <v>528</v>
       </c>
       <c r="C528" t="s">
-        <v>828</v>
+        <v>870</v>
       </c>
       <c r="D528" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10741,7 +10735,7 @@
         <v>828</v>
       </c>
       <c r="D529" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -10752,10 +10746,10 @@
         <v>530</v>
       </c>
       <c r="C530" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
       <c r="D530" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -10769,7 +10763,7 @@
         <v>828</v>
       </c>
       <c r="D531" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10780,10 +10774,10 @@
         <v>532</v>
       </c>
       <c r="C532" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="D532" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10797,7 +10791,7 @@
         <v>828</v>
       </c>
       <c r="D533" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10808,10 +10802,10 @@
         <v>534</v>
       </c>
       <c r="C534" t="s">
-        <v>903</v>
+        <v>820</v>
       </c>
       <c r="D534" t="s">
-        <v>950</v>
+        <v>964</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -10822,10 +10816,10 @@
         <v>535</v>
       </c>
       <c r="C535" t="s">
-        <v>829</v>
+        <v>870</v>
       </c>
       <c r="D535" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10839,7 +10833,7 @@
         <v>828</v>
       </c>
       <c r="D536" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -10853,7 +10847,7 @@
         <v>828</v>
       </c>
       <c r="D537" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10864,10 +10858,10 @@
         <v>538</v>
       </c>
       <c r="C538" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="D538" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10878,10 +10872,10 @@
         <v>539</v>
       </c>
       <c r="C539" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D539" t="s">
-        <v>965</v>
+        <v>928</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10895,7 +10889,7 @@
         <v>828</v>
       </c>
       <c r="D540" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -10906,10 +10900,10 @@
         <v>541</v>
       </c>
       <c r="C541" t="s">
-        <v>828</v>
+        <v>845</v>
       </c>
       <c r="D541" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10920,10 +10914,10 @@
         <v>542</v>
       </c>
       <c r="C542" t="s">
-        <v>828</v>
+        <v>903</v>
       </c>
       <c r="D542" t="s">
-        <v>928</v>
+        <v>953</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -10934,10 +10928,10 @@
         <v>543</v>
       </c>
       <c r="C543" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="D543" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -10948,10 +10942,10 @@
         <v>544</v>
       </c>
       <c r="C544" t="s">
-        <v>904</v>
+        <v>828</v>
       </c>
       <c r="D544" t="s">
-        <v>953</v>
+        <v>933</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -10962,10 +10956,10 @@
         <v>545</v>
       </c>
       <c r="C545" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="D545" t="s">
-        <v>966</v>
+        <v>937</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -10979,7 +10973,7 @@
         <v>828</v>
       </c>
       <c r="D546" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -10990,10 +10984,10 @@
         <v>547</v>
       </c>
       <c r="C547" t="s">
-        <v>830</v>
+        <v>904</v>
       </c>
       <c r="D547" t="s">
-        <v>929</v>
+        <v>951</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -11004,10 +10998,10 @@
         <v>548</v>
       </c>
       <c r="C548" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="D548" t="s">
-        <v>926</v>
+        <v>947</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -11018,10 +11012,10 @@
         <v>549</v>
       </c>
       <c r="C549" t="s">
-        <v>817</v>
+        <v>838</v>
       </c>
       <c r="D549" t="s">
-        <v>947</v>
+        <v>965</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -11032,10 +11026,10 @@
         <v>550</v>
       </c>
       <c r="C550" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="D550" t="s">
-        <v>947</v>
+        <v>929</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -11046,10 +11040,10 @@
         <v>551</v>
       </c>
       <c r="C551" t="s">
-        <v>870</v>
+        <v>817</v>
       </c>
       <c r="D551" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -11088,10 +11082,10 @@
         <v>554</v>
       </c>
       <c r="C554" t="s">
-        <v>905</v>
+        <v>870</v>
       </c>
       <c r="D554" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -11102,10 +11096,10 @@
         <v>555</v>
       </c>
       <c r="C555" t="s">
-        <v>823</v>
+        <v>905</v>
       </c>
       <c r="D555" t="s">
-        <v>952</v>
+        <v>937</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -11116,10 +11110,10 @@
         <v>556</v>
       </c>
       <c r="C556" t="s">
-        <v>877</v>
+        <v>838</v>
       </c>
       <c r="D556" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -11130,10 +11124,10 @@
         <v>557</v>
       </c>
       <c r="C557" t="s">
-        <v>838</v>
+        <v>906</v>
       </c>
       <c r="D557" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -11144,10 +11138,10 @@
         <v>558</v>
       </c>
       <c r="C558" t="s">
-        <v>838</v>
+        <v>870</v>
       </c>
       <c r="D558" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -11158,10 +11152,10 @@
         <v>559</v>
       </c>
       <c r="C559" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="D559" t="s">
-        <v>932</v>
+        <v>952</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -11172,10 +11166,10 @@
         <v>560</v>
       </c>
       <c r="C560" t="s">
-        <v>906</v>
+        <v>877</v>
       </c>
       <c r="D560" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -11186,10 +11180,10 @@
         <v>561</v>
       </c>
       <c r="C561" t="s">
-        <v>870</v>
+        <v>853</v>
       </c>
       <c r="D561" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -11214,10 +11208,10 @@
         <v>563</v>
       </c>
       <c r="C563" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D563" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11228,10 +11222,10 @@
         <v>564</v>
       </c>
       <c r="C564" t="s">
-        <v>853</v>
+        <v>828</v>
       </c>
       <c r="D564" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -11242,10 +11236,10 @@
         <v>565</v>
       </c>
       <c r="C565" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="D565" t="s">
-        <v>945</v>
+        <v>926</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11256,10 +11250,10 @@
         <v>566</v>
       </c>
       <c r="C566" t="s">
-        <v>830</v>
+        <v>898</v>
       </c>
       <c r="D566" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11270,10 +11264,10 @@
         <v>567</v>
       </c>
       <c r="C567" t="s">
-        <v>907</v>
+        <v>845</v>
       </c>
       <c r="D567" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -11284,10 +11278,10 @@
         <v>568</v>
       </c>
       <c r="C568" t="s">
-        <v>898</v>
+        <v>830</v>
       </c>
       <c r="D568" t="s">
-        <v>936</v>
+        <v>955</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -11298,10 +11292,10 @@
         <v>569</v>
       </c>
       <c r="C569" t="s">
-        <v>845</v>
+        <v>820</v>
       </c>
       <c r="D569" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -11312,10 +11306,10 @@
         <v>570</v>
       </c>
       <c r="C570" t="s">
-        <v>908</v>
+        <v>846</v>
       </c>
       <c r="D570" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11326,10 +11320,10 @@
         <v>571</v>
       </c>
       <c r="C571" t="s">
-        <v>821</v>
+        <v>907</v>
       </c>
       <c r="D571" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11340,10 +11334,10 @@
         <v>572</v>
       </c>
       <c r="C572" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
       <c r="D572" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -11354,10 +11348,10 @@
         <v>573</v>
       </c>
       <c r="C573" t="s">
-        <v>909</v>
+        <v>846</v>
       </c>
       <c r="D573" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -11368,10 +11362,10 @@
         <v>574</v>
       </c>
       <c r="C574" t="s">
-        <v>828</v>
+        <v>908</v>
       </c>
       <c r="D574" t="s">
-        <v>934</v>
+        <v>952</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11382,10 +11376,10 @@
         <v>575</v>
       </c>
       <c r="C575" t="s">
-        <v>893</v>
+        <v>820</v>
       </c>
       <c r="D575" t="s">
-        <v>938</v>
+        <v>954</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -11396,10 +11390,10 @@
         <v>576</v>
       </c>
       <c r="C576" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="D576" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -11410,10 +11404,10 @@
         <v>577</v>
       </c>
       <c r="C577" t="s">
-        <v>814</v>
+        <v>891</v>
       </c>
       <c r="D577" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11424,10 +11418,10 @@
         <v>578</v>
       </c>
       <c r="C578" t="s">
-        <v>821</v>
+        <v>909</v>
       </c>
       <c r="D578" t="s">
-        <v>926</v>
+        <v>943</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11466,10 +11460,10 @@
         <v>581</v>
       </c>
       <c r="C581" t="s">
-        <v>851</v>
+        <v>820</v>
       </c>
       <c r="D581" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -11494,7 +11488,7 @@
         <v>583</v>
       </c>
       <c r="C583" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D583" t="s">
         <v>943</v>
@@ -11508,7 +11502,7 @@
         <v>584</v>
       </c>
       <c r="C584" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D584" t="s">
         <v>945</v>
@@ -11550,7 +11544,7 @@
         <v>587</v>
       </c>
       <c r="C587" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D587" t="s">
         <v>955</v>
@@ -11592,7 +11586,7 @@
         <v>590</v>
       </c>
       <c r="C590" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D590" t="s">
         <v>941</v>
@@ -11606,7 +11600,7 @@
         <v>591</v>
       </c>
       <c r="C591" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D591" t="s">
         <v>934</v>
@@ -11662,7 +11656,7 @@
         <v>595</v>
       </c>
       <c r="C595" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D595" t="s">
         <v>953</v>
@@ -11676,10 +11670,10 @@
         <v>596</v>
       </c>
       <c r="C596" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D596" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11690,7 +11684,7 @@
         <v>597</v>
       </c>
       <c r="C597" t="s">
-        <v>911</v>
+        <v>828</v>
       </c>
       <c r="D597" t="s">
         <v>955</v>
@@ -11718,10 +11712,10 @@
         <v>599</v>
       </c>
       <c r="C599" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D599" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -11732,10 +11726,10 @@
         <v>600</v>
       </c>
       <c r="C600" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D600" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -11760,7 +11754,7 @@
         <v>602</v>
       </c>
       <c r="C602" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D602" t="s">
         <v>928</v>
@@ -11774,7 +11768,7 @@
         <v>603</v>
       </c>
       <c r="C603" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D603" t="s">
         <v>930</v>
@@ -11802,7 +11796,7 @@
         <v>605</v>
       </c>
       <c r="C605" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D605" t="s">
         <v>941</v>
@@ -11816,7 +11810,7 @@
         <v>606</v>
       </c>
       <c r="C606" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D606" t="s">
         <v>946</v>
@@ -11844,7 +11838,7 @@
         <v>608</v>
       </c>
       <c r="C608" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D608" t="s">
         <v>942</v>
@@ -11872,7 +11866,7 @@
         <v>610</v>
       </c>
       <c r="C610" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D610" t="s">
         <v>948</v>
@@ -11886,7 +11880,7 @@
         <v>611</v>
       </c>
       <c r="C611" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D611" t="s">
         <v>934</v>
@@ -11900,7 +11894,7 @@
         <v>612</v>
       </c>
       <c r="C612" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D612" t="s">
         <v>952</v>
@@ -11914,7 +11908,7 @@
         <v>613</v>
       </c>
       <c r="C613" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D613" t="s">
         <v>945</v>
@@ -11928,7 +11922,7 @@
         <v>614</v>
       </c>
       <c r="C614" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D614" t="s">
         <v>952</v>
@@ -11942,7 +11936,7 @@
         <v>615</v>
       </c>
       <c r="C615" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D615" t="s">
         <v>952</v>
@@ -11959,7 +11953,7 @@
         <v>857</v>
       </c>
       <c r="D616" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -11995,7 +11989,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C619" t="s">
         <v>881</v>
@@ -12012,7 +12006,7 @@
         <v>619</v>
       </c>
       <c r="C620" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D620" t="s">
         <v>943</v>
@@ -12057,7 +12051,7 @@
         <v>847</v>
       </c>
       <c r="D623" t="s">
-        <v>967</v>
+        <v>938</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -12082,7 +12076,7 @@
         <v>624</v>
       </c>
       <c r="C625" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D625" t="s">
         <v>941</v>
@@ -12124,7 +12118,7 @@
         <v>627</v>
       </c>
       <c r="C628" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D628" t="s">
         <v>937</v>
@@ -12138,7 +12132,7 @@
         <v>628</v>
       </c>
       <c r="C629" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D629" t="s">
         <v>948</v>
@@ -12166,7 +12160,7 @@
         <v>630</v>
       </c>
       <c r="C631" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D631" t="s">
         <v>933</v>
@@ -12180,7 +12174,7 @@
         <v>631</v>
       </c>
       <c r="C632" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D632" t="s">
         <v>942</v>
@@ -12208,7 +12202,7 @@
         <v>633</v>
       </c>
       <c r="C634" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D634" t="s">
         <v>943</v>
@@ -12222,7 +12216,7 @@
         <v>634</v>
       </c>
       <c r="C635" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D635" t="s">
         <v>942</v>
@@ -12250,7 +12244,7 @@
         <v>636</v>
       </c>
       <c r="C637" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D637" t="s">
         <v>942</v>
@@ -12306,7 +12300,7 @@
         <v>640</v>
       </c>
       <c r="C641" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D641" t="s">
         <v>949</v>
@@ -12390,7 +12384,7 @@
         <v>646</v>
       </c>
       <c r="C647" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D647" t="s">
         <v>940</v>
@@ -12421,7 +12415,7 @@
         <v>813</v>
       </c>
       <c r="D649" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -12435,7 +12429,7 @@
         <v>857</v>
       </c>
       <c r="D650" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -12446,7 +12440,7 @@
         <v>650</v>
       </c>
       <c r="C651" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D651" t="s">
         <v>937</v>
@@ -12547,7 +12541,7 @@
         <v>837</v>
       </c>
       <c r="D658" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -12586,7 +12580,7 @@
         <v>660</v>
       </c>
       <c r="C661" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D661" t="s">
         <v>942</v>
@@ -12603,7 +12597,7 @@
         <v>857</v>
       </c>
       <c r="D662" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -12659,7 +12653,7 @@
         <v>828</v>
       </c>
       <c r="D666" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -12670,10 +12664,10 @@
         <v>666</v>
       </c>
       <c r="C667" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D667" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -12684,7 +12678,7 @@
         <v>667</v>
       </c>
       <c r="C668" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D668" t="s">
         <v>936</v>
@@ -12712,7 +12706,7 @@
         <v>669</v>
       </c>
       <c r="C670" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D670" t="s">
         <v>945</v>
@@ -12726,7 +12720,7 @@
         <v>670</v>
       </c>
       <c r="C671" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D671" t="s">
         <v>937</v>
@@ -12740,7 +12734,7 @@
         <v>671</v>
       </c>
       <c r="C672" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D672" t="s">
         <v>935</v>
@@ -12768,7 +12762,7 @@
         <v>673</v>
       </c>
       <c r="C674" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D674" t="s">
         <v>930</v>
@@ -12796,7 +12790,7 @@
         <v>675</v>
       </c>
       <c r="C676" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D676" t="s">
         <v>952</v>
@@ -12813,7 +12807,7 @@
         <v>846</v>
       </c>
       <c r="D677" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12866,7 +12860,7 @@
         <v>680</v>
       </c>
       <c r="C681" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D681" t="s">
         <v>946</v>
@@ -12939,7 +12933,7 @@
         <v>817</v>
       </c>
       <c r="D686" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -12950,7 +12944,7 @@
         <v>686</v>
       </c>
       <c r="C687" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D687" t="s">
         <v>949</v>
@@ -12967,7 +12961,7 @@
         <v>905</v>
       </c>
       <c r="D688" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -12981,7 +12975,7 @@
         <v>834</v>
       </c>
       <c r="D689" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -13023,7 +13017,7 @@
         <v>817</v>
       </c>
       <c r="D692" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -13051,7 +13045,7 @@
         <v>851</v>
       </c>
       <c r="D694" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -13090,7 +13084,7 @@
         <v>696</v>
       </c>
       <c r="C697" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D697" t="s">
         <v>953</v>
@@ -13107,7 +13101,7 @@
         <v>838</v>
       </c>
       <c r="D698" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -13118,7 +13112,7 @@
         <v>698</v>
       </c>
       <c r="C699" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D699" t="s">
         <v>955</v>
@@ -13174,7 +13168,7 @@
         <v>702</v>
       </c>
       <c r="C703" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D703" t="s">
         <v>933</v>
@@ -13205,7 +13199,7 @@
         <v>851</v>
       </c>
       <c r="D705" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -13219,7 +13213,7 @@
         <v>846</v>
       </c>
       <c r="D706" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -13272,7 +13266,7 @@
         <v>709</v>
       </c>
       <c r="C710" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D710" t="s">
         <v>935</v>
@@ -13300,7 +13294,7 @@
         <v>711</v>
       </c>
       <c r="C712" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D712" t="s">
         <v>948</v>
@@ -13342,10 +13336,10 @@
         <v>714</v>
       </c>
       <c r="C715" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D715" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -13387,7 +13381,7 @@
         <v>813</v>
       </c>
       <c r="D718" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -13398,7 +13392,7 @@
         <v>718</v>
       </c>
       <c r="C719" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D719" t="s">
         <v>954</v>
@@ -13412,7 +13406,7 @@
         <v>719</v>
       </c>
       <c r="C720" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D720" t="s">
         <v>930</v>
@@ -13423,13 +13417,13 @@
         <v>720</v>
       </c>
       <c r="B721" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C721" t="s">
         <v>828</v>
       </c>
       <c r="D721" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -13440,7 +13434,7 @@
         <v>720</v>
       </c>
       <c r="C722" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D722" t="s">
         <v>930</v>
@@ -13468,7 +13462,7 @@
         <v>722</v>
       </c>
       <c r="C724" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D724" t="s">
         <v>949</v>
@@ -13482,7 +13476,7 @@
         <v>723</v>
       </c>
       <c r="C725" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D725" t="s">
         <v>942</v>
@@ -13524,10 +13518,10 @@
         <v>726</v>
       </c>
       <c r="C728" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D728" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -13594,10 +13588,10 @@
         <v>731</v>
       </c>
       <c r="C733" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D733" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -13706,7 +13700,7 @@
         <v>739</v>
       </c>
       <c r="C741" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D741" t="s">
         <v>936</v>
@@ -13723,7 +13717,7 @@
         <v>838</v>
       </c>
       <c r="D742" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -13737,7 +13731,7 @@
         <v>858</v>
       </c>
       <c r="D743" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -13748,7 +13742,7 @@
         <v>742</v>
       </c>
       <c r="C744" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D744" t="s">
         <v>943</v>
@@ -13815,10 +13809,10 @@
         <v>748</v>
       </c>
       <c r="B749" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C749" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="D749" t="s">
         <v>953</v>
@@ -13888,7 +13882,7 @@
         <v>751</v>
       </c>
       <c r="C754" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D754" t="s">
         <v>947</v>
@@ -13919,7 +13913,7 @@
         <v>828</v>
       </c>
       <c r="D756" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -13930,7 +13924,7 @@
         <v>753</v>
       </c>
       <c r="C757" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D757" t="s">
         <v>928</v>
@@ -13986,7 +13980,7 @@
         <v>757</v>
       </c>
       <c r="C761" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D761" t="s">
         <v>931</v>
@@ -14017,7 +14011,7 @@
         <v>922</v>
       </c>
       <c r="D763" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -14042,7 +14036,7 @@
         <v>761</v>
       </c>
       <c r="C765" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D765" t="s">
         <v>948</v>
@@ -14056,7 +14050,7 @@
         <v>762</v>
       </c>
       <c r="C766" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D766" t="s">
         <v>942</v>
@@ -14084,7 +14078,7 @@
         <v>764</v>
       </c>
       <c r="C768" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D768" t="s">
         <v>948</v>
@@ -14112,7 +14106,7 @@
         <v>766</v>
       </c>
       <c r="C770" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D770" t="s">
         <v>945</v>
@@ -14207,7 +14201,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C777" t="s">
         <v>828</v>
@@ -14263,13 +14257,13 @@
         <v>780</v>
       </c>
       <c r="B781" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C781" t="s">
         <v>838</v>
       </c>
       <c r="D781" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14311,7 +14305,7 @@
         <v>868</v>
       </c>
       <c r="D784" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14322,7 +14316,7 @@
         <v>779</v>
       </c>
       <c r="C785" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D785" t="s">
         <v>942</v>
@@ -14336,7 +14330,7 @@
         <v>780</v>
       </c>
       <c r="C786" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D786" t="s">
         <v>953</v>
@@ -14353,7 +14347,7 @@
         <v>870</v>
       </c>
       <c r="D787" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -14395,7 +14389,7 @@
         <v>828</v>
       </c>
       <c r="D790" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -14406,7 +14400,7 @@
         <v>785</v>
       </c>
       <c r="C791" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D791" t="s">
         <v>928</v>
@@ -14420,7 +14414,7 @@
         <v>786</v>
       </c>
       <c r="C792" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D792" t="s">
         <v>926</v>
@@ -14434,7 +14428,7 @@
         <v>787</v>
       </c>
       <c r="C793" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D793" t="s">
         <v>942</v>
@@ -14465,7 +14459,7 @@
         <v>825</v>
       </c>
       <c r="D795" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -14504,7 +14498,7 @@
         <v>792</v>
       </c>
       <c r="C798" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D798" t="s">
         <v>955</v>
@@ -14574,7 +14568,7 @@
         <v>797</v>
       </c>
       <c r="C803" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D803" t="s">
         <v>938</v>
@@ -14630,7 +14624,7 @@
         <v>801</v>
       </c>
       <c r="C807" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D807" t="s">
         <v>945</v>
@@ -14658,7 +14652,7 @@
         <v>803</v>
       </c>
       <c r="C809" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D809" t="s">
         <v>927</v>
@@ -14672,7 +14666,7 @@
         <v>804</v>
       </c>
       <c r="C810" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D810" t="s">
         <v>936</v>
@@ -14714,7 +14708,7 @@
         <v>807</v>
       </c>
       <c r="C813" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D813" t="s">
         <v>943</v>
@@ -14742,7 +14736,7 @@
         <v>809</v>
       </c>
       <c r="C815" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D815" t="s">
         <v>936</v>

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="954">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -124,12 +124,12 @@
     <t>Dylan Cease</t>
   </si>
   <si>
+    <t>Nolan Arenado</t>
+  </si>
+  <si>
     <t>Aaron Nola</t>
   </si>
   <si>
-    <t>Nolan Arenado</t>
-  </si>
-  <si>
     <t>Randy Arozarena</t>
   </si>
   <si>
@@ -178,12 +178,12 @@
     <t>Corey Seager</t>
   </si>
   <si>
+    <t>Ozzie Albies</t>
+  </si>
+  <si>
     <t>Julio Urias</t>
   </si>
   <si>
-    <t>Ozzie Albies</t>
-  </si>
-  <si>
     <t>Jazz Chisholm Jr.</t>
   </si>
   <si>
@@ -340,15 +340,15 @@
     <t>Kyle Wright</t>
   </si>
   <si>
+    <t>Seiya Suzuki</t>
+  </si>
+  <si>
+    <t>Luis Severino</t>
+  </si>
+  <si>
     <t>Logan Webb</t>
   </si>
   <si>
-    <t>Seiya Suzuki</t>
-  </si>
-  <si>
-    <t>Luis Severino</t>
-  </si>
-  <si>
     <t>Logan Gilbert</t>
   </si>
   <si>
@@ -439,12 +439,12 @@
     <t>Lance Lynn</t>
   </si>
   <si>
+    <t>Ian Happ</t>
+  </si>
+  <si>
     <t>Andrew Vaughn</t>
   </si>
   <si>
-    <t>Ian Happ</t>
-  </si>
-  <si>
     <t>Chris Sale</t>
   </si>
   <si>
@@ -496,10 +496,13 @@
     <t>Bryce Harper</t>
   </si>
   <si>
+    <t>Jose Miranda</t>
+  </si>
+  <si>
     <t>Jordan Montgomery</t>
   </si>
   <si>
-    <t>Jose Miranda</t>
+    <t>Rowdy Tellez</t>
   </si>
   <si>
     <t>Sean Murphy</t>
@@ -511,9 +514,6 @@
     <t>Mitch Haniger</t>
   </si>
   <si>
-    <t>Rowdy Tellez</t>
-  </si>
-  <si>
     <t>Brandon Lowe</t>
   </si>
   <si>
@@ -565,12 +565,12 @@
     <t>Javier Baez</t>
   </si>
   <si>
+    <t>Jeffrey Springs</t>
+  </si>
+  <si>
     <t>Luis Arraez</t>
   </si>
   <si>
-    <t>Jeffrey Springs</t>
-  </si>
-  <si>
     <t>Luis Garcia</t>
   </si>
   <si>
@@ -643,12 +643,12 @@
     <t>Brandon Drury</t>
   </si>
   <si>
+    <t>Lars Nootbaar</t>
+  </si>
+  <si>
     <t>Reid Detmers</t>
   </si>
   <si>
-    <t>Lars Nootbaar</t>
-  </si>
-  <si>
     <t>Josh Rojas</t>
   </si>
   <si>
@@ -676,6 +676,9 @@
     <t>Sonny Gray</t>
   </si>
   <si>
+    <t>Seth Brown</t>
+  </si>
+  <si>
     <t>Brendan Rodgers</t>
   </si>
   <si>
@@ -685,9 +688,6 @@
     <t>CJ Abrams</t>
   </si>
   <si>
-    <t>Seth Brown</t>
-  </si>
-  <si>
     <t>Jack Flaherty</t>
   </si>
   <si>
@@ -733,27 +733,27 @@
     <t>Bryson Stott</t>
   </si>
   <si>
+    <t>Gavin Lux</t>
+  </si>
+  <si>
     <t>Triston Casas</t>
   </si>
   <si>
-    <t>Gavin Lux</t>
-  </si>
-  <si>
     <t>Keibert Ruiz</t>
   </si>
   <si>
     <t>Jameson Taillon</t>
   </si>
   <si>
+    <t>Justin Turner</t>
+  </si>
+  <si>
+    <t>Seranthony Dominguez</t>
+  </si>
+  <si>
     <t>Trevor Rogers</t>
   </si>
   <si>
-    <t>Seranthony Dominguez</t>
-  </si>
-  <si>
-    <t>Justin Turner</t>
-  </si>
-  <si>
     <t>DJ LeMahieu</t>
   </si>
   <si>
@@ -787,12 +787,12 @@
     <t>Jose Urquidy</t>
   </si>
   <si>
+    <t>Charlie Blackmon</t>
+  </si>
+  <si>
     <t>Marcus Stroman</t>
   </si>
   <si>
-    <t>Charlie Blackmon</t>
-  </si>
-  <si>
     <t>Eric Lauer</t>
   </si>
   <si>
@@ -832,6 +832,9 @@
     <t>Yoan Moncada</t>
   </si>
   <si>
+    <t>Carlos Carrasco</t>
+  </si>
+  <si>
     <t>Austin Meadows</t>
   </si>
   <si>
@@ -847,15 +850,12 @@
     <t>Martin Perez</t>
   </si>
   <si>
-    <t>Carlos Carrasco</t>
+    <t>Dylan Carlson</t>
   </si>
   <si>
     <t>Dylan Floro</t>
   </si>
   <si>
-    <t>Dylan Carlson</t>
-  </si>
-  <si>
     <t>Manuel Margot</t>
   </si>
   <si>
@@ -865,24 +865,24 @@
     <t>Justin Steele</t>
   </si>
   <si>
+    <t>Jorge Soler</t>
+  </si>
+  <si>
     <t>Jarred Kelenic</t>
   </si>
   <si>
+    <t>Jared Walsh</t>
+  </si>
+  <si>
     <t>Jose Siri</t>
   </si>
   <si>
-    <t>Jorge Soler</t>
-  </si>
-  <si>
     <t>Hunter Brown</t>
   </si>
   <si>
     <t>Jake Fraley</t>
   </si>
   <si>
-    <t>Jared Walsh</t>
-  </si>
-  <si>
     <t>Jordan Walker</t>
   </si>
   <si>
@@ -898,12 +898,12 @@
     <t>Jesse Winker</t>
   </si>
   <si>
+    <t>Taijuan Walker</t>
+  </si>
+  <si>
     <t>Garrett Whitlock</t>
   </si>
   <si>
-    <t>Taijuan Walker</t>
-  </si>
-  <si>
     <t>Tylor Megill</t>
   </si>
   <si>
@@ -916,6 +916,9 @@
     <t>Chris Taylor</t>
   </si>
   <si>
+    <t>Eduardo Rodriguez</t>
+  </si>
+  <si>
     <t>Kodai Senga</t>
   </si>
   <si>
@@ -928,9 +931,6 @@
     <t>Jonah Heim</t>
   </si>
   <si>
-    <t>Eduardo Rodriguez</t>
-  </si>
-  <si>
     <t>Logan O'Hoppe</t>
   </si>
   <si>
@@ -967,12 +967,12 @@
     <t>Avisail Garcia</t>
   </si>
   <si>
+    <t>Tanner Houck</t>
+  </si>
+  <si>
     <t>Trent Grisham</t>
   </si>
   <si>
-    <t>Tanner Houck</t>
-  </si>
-  <si>
     <t>Kenta Maeda</t>
   </si>
   <si>
@@ -994,24 +994,24 @@
     <t>Esteury Ruiz</t>
   </si>
   <si>
+    <t>Mark Canha</t>
+  </si>
+  <si>
+    <t>Steven Matz</t>
+  </si>
+  <si>
+    <t>Michael Brantley</t>
+  </si>
+  <si>
+    <t>Noah Syndergaard</t>
+  </si>
+  <si>
+    <t>Alex Lange</t>
+  </si>
+  <si>
     <t>Christian Vazquez</t>
   </si>
   <si>
-    <t>Steven Matz</t>
-  </si>
-  <si>
-    <t>Mark Canha</t>
-  </si>
-  <si>
-    <t>Michael Brantley</t>
-  </si>
-  <si>
-    <t>Noah Syndergaard</t>
-  </si>
-  <si>
-    <t>Alex Lange</t>
-  </si>
-  <si>
     <t>Garrett Mitchell</t>
   </si>
   <si>
@@ -1021,171 +1021,171 @@
     <t>Marcell Ozuna</t>
   </si>
   <si>
+    <t>Brendan Donovan</t>
+  </si>
+  <si>
+    <t>Bubba Thompson</t>
+  </si>
+  <si>
+    <t>Chris Martin</t>
+  </si>
+  <si>
+    <t>Alex Kirilloff</t>
+  </si>
+  <si>
+    <t>Gabriel Moreno</t>
+  </si>
+  <si>
+    <t>Carlos Estevez</t>
+  </si>
+  <si>
+    <t>Alex Wood</t>
+  </si>
+  <si>
+    <t>Drey Jameson</t>
+  </si>
+  <si>
+    <t>Tarik Skubal</t>
+  </si>
+  <si>
+    <t>Eduardo Escobar</t>
+  </si>
+  <si>
+    <t>Aroldis Chapman</t>
+  </si>
+  <si>
     <t>MacKenzie Gore</t>
   </si>
   <si>
-    <t>Brendan Donovan</t>
+    <t>Francisco Alvarez</t>
+  </si>
+  <si>
+    <t>A.J. Puk</t>
+  </si>
+  <si>
+    <t>Oswald Peraza</t>
+  </si>
+  <si>
+    <t>Brandon Hughes</t>
+  </si>
+  <si>
+    <t>Trayce Thompson</t>
+  </si>
+  <si>
+    <t>Mike Soroka</t>
+  </si>
+  <si>
+    <t>Rafael Montero</t>
+  </si>
+  <si>
+    <t>Joey Bart</t>
+  </si>
+  <si>
+    <t>Kyle Bradish</t>
+  </si>
+  <si>
+    <t>Trevor May</t>
+  </si>
+  <si>
+    <t>Jurickson</t>
+  </si>
+  <si>
+    <t>Isaac Paredes</t>
+  </si>
+  <si>
+    <t>Gio Urshela</t>
   </si>
   <si>
     <t>Aaron Civale</t>
   </si>
   <si>
-    <t>Bubba Thompson</t>
-  </si>
-  <si>
-    <t>Chris Martin</t>
-  </si>
-  <si>
-    <t>Alex Kirilloff</t>
-  </si>
-  <si>
-    <t>Gabriel Moreno</t>
-  </si>
-  <si>
-    <t>Alex Wood</t>
-  </si>
-  <si>
-    <t>Carlos Estevez</t>
-  </si>
-  <si>
-    <t>Drey Jameson</t>
-  </si>
-  <si>
-    <t>Eduardo Escobar</t>
-  </si>
-  <si>
-    <t>Tarik Skubal</t>
-  </si>
-  <si>
-    <t>Aroldis Chapman</t>
+    <t>Braxton Garrett</t>
+  </si>
+  <si>
+    <t>James Karinchak</t>
+  </si>
+  <si>
+    <t>Eric Haase</t>
+  </si>
+  <si>
+    <t>Kike Hernandez</t>
+  </si>
+  <si>
+    <t>Kyle Gibson</t>
+  </si>
+  <si>
+    <t>Andrew McCutchen</t>
   </si>
   <si>
     <t>Jason Adam</t>
   </si>
   <si>
-    <t>Francisco Alvarez</t>
-  </si>
-  <si>
-    <t>A.J. Puk</t>
-  </si>
-  <si>
-    <t>Oswald Peraza</t>
-  </si>
-  <si>
-    <t>Brandon Hughes</t>
-  </si>
-  <si>
-    <t>Trayce Thompson</t>
-  </si>
-  <si>
-    <t>Mike Soroka</t>
-  </si>
-  <si>
-    <t>Kyle Bradish</t>
-  </si>
-  <si>
-    <t>Rafael Montero</t>
-  </si>
-  <si>
-    <t>Joey Bart</t>
-  </si>
-  <si>
-    <t>Jurickson</t>
-  </si>
-  <si>
-    <t>Trevor May</t>
-  </si>
-  <si>
-    <t>Isaac Paredes</t>
-  </si>
-  <si>
-    <t>Gio Urshela</t>
+    <t>David Peterson</t>
+  </si>
+  <si>
+    <t>Jose Suarez</t>
+  </si>
+  <si>
+    <t>Matt Carpenter</t>
+  </si>
+  <si>
+    <t>Bo Naylor</t>
+  </si>
+  <si>
+    <t>Corey Kluber</t>
+  </si>
+  <si>
+    <t>Elvis</t>
+  </si>
+  <si>
+    <t>Max Kepler</t>
+  </si>
+  <si>
+    <t>TJ Friedl</t>
+  </si>
+  <si>
+    <t>Kendall Graveman</t>
+  </si>
+  <si>
+    <t>Nick Pivetta</t>
+  </si>
+  <si>
+    <t>AJ Pollock</t>
+  </si>
+  <si>
+    <t>Joey Gallo</t>
+  </si>
+  <si>
+    <t>Patrick Wisdom</t>
   </si>
   <si>
     <t>Luke</t>
   </si>
   <si>
-    <t>James Karinchak</t>
-  </si>
-  <si>
-    <t>Braxton Garrett</t>
-  </si>
-  <si>
-    <t>Kike Hernandez</t>
+    <t>Alek Thomas</t>
+  </si>
+  <si>
+    <t>Tony Kemp</t>
+  </si>
+  <si>
+    <t>Christian Bethancourt</t>
+  </si>
+  <si>
+    <t>Jimmy Herget</t>
   </si>
   <si>
     <t>Shea Langeliers</t>
   </si>
   <si>
-    <t>Eric Haase</t>
-  </si>
-  <si>
-    <t>Kyle Gibson</t>
-  </si>
-  <si>
-    <t>Andrew McCutchen</t>
-  </si>
-  <si>
-    <t>David Peterson</t>
-  </si>
-  <si>
-    <t>Jose Suarez</t>
-  </si>
-  <si>
-    <t>Matt Carpenter</t>
-  </si>
-  <si>
-    <t>Corey Kluber</t>
-  </si>
-  <si>
-    <t>Bo Naylor</t>
-  </si>
-  <si>
-    <t>Elvis</t>
-  </si>
-  <si>
-    <t>Max Kepler</t>
-  </si>
-  <si>
-    <t>TJ Friedl</t>
-  </si>
-  <si>
-    <t>Nick Pivetta</t>
-  </si>
-  <si>
-    <t>Kendall Graveman</t>
-  </si>
-  <si>
-    <t>AJ Pollock</t>
-  </si>
-  <si>
-    <t>Joey Gallo</t>
-  </si>
-  <si>
-    <t>Patrick Wisdom</t>
-  </si>
-  <si>
-    <t>Alek Thomas</t>
-  </si>
-  <si>
-    <t>Tony Kemp</t>
-  </si>
-  <si>
-    <t>Christian Bethancourt</t>
-  </si>
-  <si>
-    <t>Jimmy Herget</t>
-  </si>
-  <si>
     <t>J.P. Crawford</t>
   </si>
   <si>
+    <t>A.J. Minter</t>
+  </si>
+  <si>
     <t>German Marquez</t>
   </si>
   <si>
-    <t>A.J. Minter</t>
-  </si>
-  <si>
     <t>Domingo German</t>
   </si>
   <si>
@@ -1204,120 +1204,123 @@
     <t>Tyrone Taylor</t>
   </si>
   <si>
+    <t>Connor Joe</t>
+  </si>
+  <si>
+    <t>Jo Adell</t>
+  </si>
+  <si>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
+    <t>Oscar Colas</t>
+  </si>
+  <si>
     <t>Joey Votto</t>
   </si>
   <si>
     <t>Myles Straw</t>
   </si>
   <si>
-    <t>Connor Joe</t>
-  </si>
-  <si>
-    <t>Jo Adell</t>
-  </si>
-  <si>
-    <t>Jose Alvarado</t>
-  </si>
-  <si>
-    <t>Oscar Colas</t>
-  </si>
-  <si>
     <t>Will</t>
   </si>
   <si>
     <t>Cody Morris</t>
   </si>
   <si>
+    <t>Nolan Gorman</t>
+  </si>
+  <si>
+    <t>J.D. Davis</t>
+  </si>
+  <si>
+    <t>Royce Lewis</t>
+  </si>
+  <si>
     <t>Jeimer Candelario</t>
   </si>
   <si>
-    <t>Nolan Gorman</t>
-  </si>
-  <si>
-    <t>J.D. Davis</t>
-  </si>
-  <si>
-    <t>Royce Lewis</t>
+    <t>Luis Ortiz</t>
+  </si>
+  <si>
+    <t>Ken Waldichuk</t>
+  </si>
+  <si>
+    <t>Carson Kelly</t>
+  </si>
+  <si>
+    <t>Leody Taveras</t>
+  </si>
+  <si>
+    <t>DL Hall</t>
+  </si>
+  <si>
+    <t>Wilmer Flores</t>
+  </si>
+  <si>
+    <t>Bryan Abreu</t>
+  </si>
+  <si>
+    <t>Brandon Crawford</t>
+  </si>
+  <si>
+    <t>Adbert Alzolay</t>
+  </si>
+  <si>
+    <t>JT Brubaker</t>
+  </si>
+  <si>
+    <t>Spencer Turnbull</t>
+  </si>
+  <si>
+    <t>Harold Ramirez</t>
+  </si>
+  <si>
+    <t>Akil Baddoo</t>
+  </si>
+  <si>
+    <t>James Paxton</t>
+  </si>
+  <si>
+    <t>Elias Diaz</t>
+  </si>
+  <si>
+    <t>Josh Lowe</t>
+  </si>
+  <si>
+    <t>Brusdar Graterol</t>
+  </si>
+  <si>
+    <t>Cole Irvin</t>
+  </si>
+  <si>
+    <t>Brock Burke</t>
+  </si>
+  <si>
+    <t>Jose Trevino</t>
+  </si>
+  <si>
+    <t>Michael King</t>
   </si>
   <si>
     <t>Kerry Carpenter</t>
   </si>
   <si>
-    <t>Luis Ortiz</t>
-  </si>
-  <si>
-    <t>Ken Waldichuk</t>
-  </si>
-  <si>
-    <t>Carson Kelly</t>
-  </si>
-  <si>
-    <t>Leody Taveras</t>
-  </si>
-  <si>
-    <t>DL Hall</t>
-  </si>
-  <si>
-    <t>Wilmer Flores</t>
-  </si>
-  <si>
-    <t>Spencer Turnbull</t>
-  </si>
-  <si>
-    <t>Bryan Abreu</t>
-  </si>
-  <si>
-    <t>JT Brubaker</t>
-  </si>
-  <si>
-    <t>Adbert Alzolay</t>
-  </si>
-  <si>
-    <t>Harold Ramirez</t>
-  </si>
-  <si>
-    <t>Akil Baddoo</t>
-  </si>
-  <si>
-    <t>James Paxton</t>
-  </si>
-  <si>
-    <t>Elias Diaz</t>
-  </si>
-  <si>
-    <t>Josh Lowe</t>
-  </si>
-  <si>
-    <t>Brusdar Graterol</t>
-  </si>
-  <si>
-    <t>Cole Irvin</t>
-  </si>
-  <si>
-    <t>Brock Burke</t>
-  </si>
-  <si>
-    <t>Jose Trevino</t>
-  </si>
-  <si>
-    <t>Michael King</t>
-  </si>
-  <si>
     <t>Nick Fortes</t>
   </si>
   <si>
     <t>Alex Vesia</t>
   </si>
   <si>
+    <t>Edward Olivares</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
     <t>Robert Suarez</t>
   </si>
   <si>
-    <t>Edward Olivares</t>
-  </si>
-  <si>
-    <t>Gary</t>
-  </si>
-  <si>
     <t>Anthony DeSclafani</t>
   </si>
   <si>
@@ -1342,9 +1345,6 @@
     <t>Tejay Antone</t>
   </si>
   <si>
-    <t>Brandon Crawford</t>
-  </si>
-  <si>
     <t>Matt Bush</t>
   </si>
   <si>
@@ -1360,36 +1360,36 @@
     <t>Austin Nola</t>
   </si>
   <si>
+    <t>Bobby Dalbec</t>
+  </si>
+  <si>
+    <t>Brandon Belt</t>
+  </si>
+  <si>
     <t>Joey Wendle</t>
   </si>
   <si>
-    <t>Bobby Dalbec</t>
-  </si>
-  <si>
-    <t>Brandon Belt</t>
-  </si>
-  <si>
     <t>Joe Kelly</t>
   </si>
   <si>
     <t>Aaron Bummer</t>
   </si>
   <si>
+    <t>Joe Jimenez</t>
+  </si>
+  <si>
+    <t>Garrett Cleavinger</t>
+  </si>
+  <si>
+    <t>Nick Madrigal</t>
+  </si>
+  <si>
+    <t>Mitch Garver</t>
+  </si>
+  <si>
     <t>Michael</t>
   </si>
   <si>
-    <t>Joe Jimenez</t>
-  </si>
-  <si>
-    <t>Garrett Cleavinger</t>
-  </si>
-  <si>
-    <t>Nick Madrigal</t>
-  </si>
-  <si>
-    <t>Mitch Garver</t>
-  </si>
-  <si>
     <t>Brett Baty</t>
   </si>
   <si>
@@ -1444,27 +1444,27 @@
     <t>Spencer Steer</t>
   </si>
   <si>
+    <t>Santiago Espinal</t>
+  </si>
+  <si>
+    <t>Garrett Cooper</t>
+  </si>
+  <si>
+    <t>Ryan Jeffers</t>
+  </si>
+  <si>
     <t>Marco Gonzales</t>
   </si>
   <si>
-    <t>Santiago Espinal</t>
-  </si>
-  <si>
-    <t>Garrett Cooper</t>
+    <t>Ian Anderson</t>
+  </si>
+  <si>
+    <t>Drew Waters</t>
   </si>
   <si>
     <t>Eric Hosmer</t>
   </si>
   <si>
-    <t>Ryan Jeffers</t>
-  </si>
-  <si>
-    <t>Ian Anderson</t>
-  </si>
-  <si>
-    <t>Drew Waters</t>
-  </si>
-  <si>
     <t>Endy Rodriguez</t>
   </si>
   <si>
@@ -1648,7 +1648,7 @@
     <t>Rich Hill</t>
   </si>
   <si>
-    <t>Mark Leiter Jr.</t>
+    <t>Mark Leiter</t>
   </si>
   <si>
     <t>Kyle Stowers</t>
@@ -2572,12 +2572,12 @@
     <t>2B,3B,SS,LF,RF</t>
   </si>
   <si>
+    <t>1B,CF,LF,RF</t>
+  </si>
+  <si>
     <t>LF</t>
   </si>
   <si>
-    <t>1B,CF,LF,RF</t>
-  </si>
-  <si>
     <t>2B,3B,LF,SS</t>
   </si>
   <si>
@@ -2623,12 +2623,12 @@
     <t>1B,2B,CF,LF,RF</t>
   </si>
   <si>
+    <t>C,LF</t>
+  </si>
+  <si>
     <t>2B,CF,SS</t>
   </si>
   <si>
-    <t>C,LF</t>
-  </si>
-  <si>
     <t>1B,2B,DH,RF</t>
   </si>
   <si>
@@ -2803,12 +2803,12 @@
     <t>Profar</t>
   </si>
   <si>
+    <t>Andrus</t>
+  </si>
+  <si>
     <t>Voit</t>
   </si>
   <si>
-    <t>Andrus</t>
-  </si>
-  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -2819,6 +2819,9 @@
   </si>
   <si>
     <t>Bauer</t>
+  </si>
+  <si>
+    <t>Jr.</t>
   </si>
   <si>
     <t>Gurriel</t>
@@ -3698,10 +3701,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="D33" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3712,10 +3715,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D34" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3950,10 +3953,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="D51" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3964,10 +3967,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="D52" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4706,10 +4709,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="D105" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4720,10 +4723,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D106" t="s">
-        <v>918</v>
+        <v>898</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4734,10 +4737,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="D107" t="s">
-        <v>898</v>
+        <v>921</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -5168,10 +5171,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="D138" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5182,10 +5185,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="D139" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5434,10 +5437,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>803</v>
+        <v>838</v>
       </c>
       <c r="D157" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5448,10 +5451,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>838</v>
+        <v>803</v>
       </c>
       <c r="D158" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5462,10 +5465,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
       <c r="D159" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5476,10 +5479,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
       <c r="D160" t="s">
-        <v>919</v>
+        <v>899</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5490,10 +5493,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="D161" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5504,10 +5507,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D162" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5756,10 +5759,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>842</v>
+        <v>812</v>
       </c>
       <c r="D180" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5770,10 +5773,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>812</v>
+        <v>842</v>
       </c>
       <c r="D181" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -6120,10 +6123,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="D206" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6134,10 +6137,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>827</v>
+        <v>803</v>
       </c>
       <c r="D207" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6274,10 +6277,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>793</v>
+        <v>851</v>
       </c>
       <c r="D217" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6288,10 +6291,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>851</v>
+        <v>793</v>
       </c>
       <c r="D218" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6302,10 +6305,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>793</v>
+        <v>852</v>
       </c>
       <c r="D219" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6316,10 +6319,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>852</v>
+        <v>793</v>
       </c>
       <c r="D220" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6540,10 +6543,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>810</v>
+        <v>854</v>
       </c>
       <c r="D236" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6554,10 +6557,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>854</v>
+        <v>810</v>
       </c>
       <c r="D237" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6596,10 +6599,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="D240" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6624,10 +6627,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="D242" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6792,10 +6795,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="D254" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6806,10 +6809,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="D255" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -7002,10 +7005,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="D269" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -7016,10 +7019,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="D270" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -7030,10 +7033,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="D271" t="s">
-        <v>899</v>
+        <v>918</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -7044,10 +7047,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>810</v>
+        <v>847</v>
       </c>
       <c r="D272" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -7058,10 +7061,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D273" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -7072,10 +7075,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>803</v>
+        <v>821</v>
       </c>
       <c r="D274" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -7086,10 +7089,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>811</v>
+        <v>831</v>
       </c>
       <c r="D275" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7100,10 +7103,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
       <c r="D276" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -7156,10 +7159,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D280" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7170,10 +7173,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>805</v>
+        <v>827</v>
       </c>
       <c r="D281" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7184,10 +7187,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>819</v>
+        <v>843</v>
       </c>
       <c r="D282" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -7198,10 +7201,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="D283" t="s">
-        <v>902</v>
+        <v>915</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7212,10 +7215,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="D284" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7226,10 +7229,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="D285" t="s">
-        <v>906</v>
+        <v>923</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7296,7 +7299,7 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D290" t="s">
         <v>907</v>
@@ -7310,10 +7313,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="D291" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -7324,10 +7327,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="D292" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7397,7 +7400,7 @@
         <v>803</v>
       </c>
       <c r="D297" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -7411,7 +7414,7 @@
         <v>803</v>
       </c>
       <c r="D298" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7422,10 +7425,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>825</v>
+        <v>803</v>
       </c>
       <c r="D299" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -7436,10 +7439,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>847</v>
+        <v>825</v>
       </c>
       <c r="D300" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7450,10 +7453,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>803</v>
+        <v>847</v>
       </c>
       <c r="D301" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7478,7 +7481,7 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D303" t="s">
         <v>909</v>
@@ -7632,10 +7635,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="D314" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7646,10 +7649,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="D315" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7758,10 +7761,10 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>865</v>
+        <v>831</v>
       </c>
       <c r="D323" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7786,10 +7789,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D325" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7800,10 +7803,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>828</v>
+        <v>803</v>
       </c>
       <c r="D326" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7814,10 +7817,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="D327" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7828,10 +7831,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>811</v>
+        <v>865</v>
       </c>
       <c r="D328" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7884,10 +7887,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>803</v>
+        <v>866</v>
       </c>
       <c r="D332" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -7898,10 +7901,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>866</v>
+        <v>827</v>
       </c>
       <c r="D333" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -7912,10 +7915,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="D334" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -7926,10 +7929,10 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>827</v>
+        <v>863</v>
       </c>
       <c r="D335" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -7940,10 +7943,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>811</v>
+        <v>847</v>
       </c>
       <c r="D336" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -7954,10 +7957,10 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>863</v>
+        <v>811</v>
       </c>
       <c r="D337" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7968,10 +7971,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>847</v>
+        <v>803</v>
       </c>
       <c r="D338" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7985,7 +7988,7 @@
         <v>803</v>
       </c>
       <c r="D339" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -7996,10 +7999,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="D340" t="s">
-        <v>906</v>
+        <v>924</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -8010,10 +8013,10 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>803</v>
+        <v>836</v>
       </c>
       <c r="D341" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -8024,10 +8027,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>836</v>
+        <v>811</v>
       </c>
       <c r="D342" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -8041,7 +8044,7 @@
         <v>803</v>
       </c>
       <c r="D343" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -8052,10 +8055,10 @@
         <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="D344" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -8069,7 +8072,7 @@
         <v>811</v>
       </c>
       <c r="D345" t="s">
-        <v>915</v>
+        <v>926</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -8080,10 +8083,10 @@
         <v>348</v>
       </c>
       <c r="C346" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="D346" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -8097,7 +8100,7 @@
         <v>811</v>
       </c>
       <c r="D347" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8108,10 +8111,10 @@
         <v>350</v>
       </c>
       <c r="C348" t="s">
-        <v>807</v>
+        <v>827</v>
       </c>
       <c r="D348" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -8119,13 +8122,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>351</v>
+        <v>184</v>
       </c>
       <c r="C349" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="D349" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8133,13 +8136,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>827</v>
+        <v>803</v>
       </c>
       <c r="D350" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -8147,13 +8150,13 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>184</v>
+        <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>793</v>
+        <v>811</v>
       </c>
       <c r="D351" t="s">
-        <v>925</v>
+        <v>902</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -8164,10 +8167,10 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>803</v>
+        <v>847</v>
       </c>
       <c r="D352" t="s">
-        <v>899</v>
+        <v>921</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -8195,7 +8198,7 @@
         <v>811</v>
       </c>
       <c r="D354" t="s">
-        <v>902</v>
+        <v>926</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -8206,10 +8209,10 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="D355" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8220,10 +8223,10 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>867</v>
+        <v>836</v>
       </c>
       <c r="D356" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8234,10 +8237,10 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="D357" t="s">
-        <v>926</v>
+        <v>906</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8248,10 +8251,10 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>836</v>
+        <v>803</v>
       </c>
       <c r="D358" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8262,10 +8265,10 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D359" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8276,10 +8279,10 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="D360" t="s">
-        <v>928</v>
+        <v>900</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8290,10 +8293,10 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>811</v>
+        <v>868</v>
       </c>
       <c r="D361" t="s">
-        <v>900</v>
+        <v>924</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8304,10 +8307,10 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>803</v>
+        <v>869</v>
       </c>
       <c r="D362" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8318,10 +8321,10 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>868</v>
+        <v>803</v>
       </c>
       <c r="D363" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -8332,10 +8335,10 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="D364" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8346,10 +8349,10 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>869</v>
+        <v>811</v>
       </c>
       <c r="D365" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8360,10 +8363,10 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="D366" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8374,10 +8377,10 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="D367" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8388,10 +8391,10 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>812</v>
+        <v>870</v>
       </c>
       <c r="D368" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8402,10 +8405,10 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>821</v>
+        <v>847</v>
       </c>
       <c r="D369" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8416,10 +8419,10 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>870</v>
+        <v>803</v>
       </c>
       <c r="D370" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8430,10 +8433,10 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="D371" t="s">
-        <v>909</v>
+        <v>928</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8444,10 +8447,10 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>847</v>
+        <v>797</v>
       </c>
       <c r="D372" t="s">
-        <v>900</v>
+        <v>920</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8458,10 +8461,10 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>807</v>
+        <v>827</v>
       </c>
       <c r="D373" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8472,10 +8475,10 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="D374" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8486,10 +8489,10 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>827</v>
+        <v>803</v>
       </c>
       <c r="D375" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8500,10 +8503,10 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="D376" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8514,10 +8517,10 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="D377" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -8528,10 +8531,10 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>827</v>
+        <v>861</v>
       </c>
       <c r="D378" t="s">
-        <v>901</v>
+        <v>918</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -8542,10 +8545,10 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="D379" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -8556,10 +8559,10 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>861</v>
+        <v>805</v>
       </c>
       <c r="D380" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -8570,10 +8573,10 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>805</v>
+        <v>864</v>
       </c>
       <c r="D381" t="s">
-        <v>917</v>
+        <v>926</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -8584,10 +8587,10 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D382" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8598,10 +8601,10 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>865</v>
+        <v>811</v>
       </c>
       <c r="D383" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -8612,10 +8615,10 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="D384" t="s">
-        <v>906</v>
+        <v>926</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -8640,10 +8643,10 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="D386" t="s">
-        <v>922</v>
+        <v>899</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -8654,10 +8657,10 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="D387" t="s">
-        <v>899</v>
+        <v>922</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -8752,10 +8755,10 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>804</v>
+        <v>833</v>
       </c>
       <c r="D394" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8766,10 +8769,10 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="D395" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -8780,10 +8783,10 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="D396" t="s">
-        <v>919</v>
+        <v>897</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -8794,10 +8797,10 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="D397" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -8808,10 +8811,10 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D398" t="s">
-        <v>897</v>
+        <v>923</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8825,7 +8828,7 @@
         <v>805</v>
       </c>
       <c r="D399" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -8864,10 +8867,10 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>808</v>
+        <v>848</v>
       </c>
       <c r="D402" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -8878,10 +8881,10 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="D403" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -8892,10 +8895,10 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>838</v>
+        <v>807</v>
       </c>
       <c r="D404" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -8906,10 +8909,10 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D405" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -8920,10 +8923,10 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="D406" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -8937,7 +8940,7 @@
         <v>803</v>
       </c>
       <c r="D407" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -8948,10 +8951,10 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>803</v>
+        <v>847</v>
       </c>
       <c r="D408" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -8962,10 +8965,10 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>847</v>
+        <v>805</v>
       </c>
       <c r="D409" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -8976,10 +8979,10 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="D410" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -8987,13 +8990,13 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>412</v>
+        <v>184</v>
       </c>
       <c r="C411" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D411" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -9001,13 +9004,13 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>184</v>
+        <v>412</v>
       </c>
       <c r="C412" t="s">
-        <v>811</v>
+        <v>835</v>
       </c>
       <c r="D412" t="s">
-        <v>903</v>
+        <v>921</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -9018,10 +9021,10 @@
         <v>413</v>
       </c>
       <c r="C413" t="s">
-        <v>835</v>
+        <v>811</v>
       </c>
       <c r="D413" t="s">
-        <v>921</v>
+        <v>902</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -9032,10 +9035,10 @@
         <v>414</v>
       </c>
       <c r="C414" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="D414" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -9046,10 +9049,10 @@
         <v>415</v>
       </c>
       <c r="C415" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="D415" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -9074,10 +9077,10 @@
         <v>417</v>
       </c>
       <c r="C417" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
       <c r="D417" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -9228,10 +9231,10 @@
         <v>428</v>
       </c>
       <c r="C428" t="s">
-        <v>847</v>
+        <v>819</v>
       </c>
       <c r="D428" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9242,10 +9245,10 @@
         <v>429</v>
       </c>
       <c r="C429" t="s">
-        <v>811</v>
+        <v>847</v>
       </c>
       <c r="D429" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9259,7 +9262,7 @@
         <v>811</v>
       </c>
       <c r="D430" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9298,10 +9301,10 @@
         <v>433</v>
       </c>
       <c r="C433" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="D433" t="s">
-        <v>921</v>
+        <v>903</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9312,10 +9315,10 @@
         <v>434</v>
       </c>
       <c r="C434" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
       <c r="D434" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -9326,10 +9329,10 @@
         <v>435</v>
       </c>
       <c r="C435" t="s">
-        <v>803</v>
+        <v>821</v>
       </c>
       <c r="D435" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -9340,10 +9343,10 @@
         <v>436</v>
       </c>
       <c r="C436" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="D436" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9354,10 +9357,10 @@
         <v>437</v>
       </c>
       <c r="C437" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="D437" t="s">
-        <v>898</v>
+        <v>915</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -9368,10 +9371,10 @@
         <v>438</v>
       </c>
       <c r="C438" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D438" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -9385,7 +9388,7 @@
         <v>811</v>
       </c>
       <c r="D439" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -9399,7 +9402,7 @@
         <v>811</v>
       </c>
       <c r="D440" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -9410,10 +9413,10 @@
         <v>441</v>
       </c>
       <c r="C441" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="D441" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -9494,10 +9497,10 @@
         <v>447</v>
       </c>
       <c r="C447" t="s">
-        <v>856</v>
+        <v>810</v>
       </c>
       <c r="D447" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -9508,10 +9511,10 @@
         <v>448</v>
       </c>
       <c r="C448" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D448" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -9522,10 +9525,10 @@
         <v>449</v>
       </c>
       <c r="C449" t="s">
-        <v>804</v>
+        <v>856</v>
       </c>
       <c r="D449" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -9564,10 +9567,10 @@
         <v>452</v>
       </c>
       <c r="C452" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="D452" t="s">
-        <v>932</v>
+        <v>899</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9581,7 +9584,7 @@
         <v>811</v>
       </c>
       <c r="D453" t="s">
-        <v>899</v>
+        <v>915</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -9592,10 +9595,10 @@
         <v>454</v>
       </c>
       <c r="C454" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D454" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9606,10 +9609,10 @@
         <v>455</v>
       </c>
       <c r="C455" t="s">
-        <v>813</v>
+        <v>824</v>
       </c>
       <c r="D455" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -9620,10 +9623,10 @@
         <v>456</v>
       </c>
       <c r="C456" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D456" t="s">
-        <v>913</v>
+        <v>932</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -9886,10 +9889,10 @@
         <v>475</v>
       </c>
       <c r="C475" t="s">
-        <v>803</v>
+        <v>856</v>
       </c>
       <c r="D475" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -9900,10 +9903,10 @@
         <v>476</v>
       </c>
       <c r="C476" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="D476" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -9914,10 +9917,10 @@
         <v>477</v>
       </c>
       <c r="C477" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D477" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -9928,10 +9931,10 @@
         <v>478</v>
       </c>
       <c r="C478" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D478" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -9942,10 +9945,10 @@
         <v>479</v>
       </c>
       <c r="C479" t="s">
-        <v>847</v>
+        <v>803</v>
       </c>
       <c r="D479" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -9956,10 +9959,10 @@
         <v>480</v>
       </c>
       <c r="C480" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D480" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -9970,10 +9973,10 @@
         <v>481</v>
       </c>
       <c r="C481" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="D481" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -10796,7 +10799,7 @@
         <v>540</v>
       </c>
       <c r="C540" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D540" t="s">
         <v>925</v>
@@ -10841,7 +10844,7 @@
         <v>812</v>
       </c>
       <c r="D543" t="s">
-        <v>918</v>
+        <v>934</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -10964,7 +10967,7 @@
         <v>552</v>
       </c>
       <c r="C552" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D552" t="s">
         <v>909</v>
@@ -11051,7 +11054,7 @@
         <v>804</v>
       </c>
       <c r="D558" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -11636,7 +11639,7 @@
         <v>599</v>
       </c>
       <c r="C600" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D600" t="s">
         <v>919</v>
@@ -11877,7 +11880,7 @@
         <v>838</v>
       </c>
       <c r="D617" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -12028,10 +12031,10 @@
         <v>627</v>
       </c>
       <c r="C628" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D628" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -12101,7 +12104,7 @@
         <v>838</v>
       </c>
       <c r="D633" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -12185,7 +12188,7 @@
         <v>811</v>
       </c>
       <c r="D639" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -12465,7 +12468,7 @@
         <v>801</v>
       </c>
       <c r="D659" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="660" spans="1:4">
@@ -12535,7 +12538,7 @@
         <v>827</v>
       </c>
       <c r="D664" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -12563,7 +12566,7 @@
         <v>804</v>
       </c>
       <c r="D666" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -12647,7 +12650,7 @@
         <v>821</v>
       </c>
       <c r="D672" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -12759,7 +12762,7 @@
         <v>819</v>
       </c>
       <c r="D680" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -12773,7 +12776,7 @@
         <v>805</v>
       </c>
       <c r="D681" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -12927,7 +12930,7 @@
         <v>793</v>
       </c>
       <c r="D692" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -12969,7 +12972,7 @@
         <v>811</v>
       </c>
       <c r="D695" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -13081,7 +13084,7 @@
         <v>803</v>
       </c>
       <c r="D703" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -13151,7 +13154,7 @@
         <v>803</v>
       </c>
       <c r="D708" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -13263,7 +13266,7 @@
         <v>811</v>
       </c>
       <c r="D716" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -13291,7 +13294,7 @@
         <v>839</v>
       </c>
       <c r="D718" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -13397,7 +13400,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C726" t="s">
         <v>803</v>
@@ -13501,7 +13504,7 @@
         <v>811</v>
       </c>
       <c r="D733" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -13526,7 +13529,7 @@
         <v>731</v>
       </c>
       <c r="C735" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D735" t="s">
         <v>901</v>
@@ -13803,7 +13806,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C755" t="s">
         <v>811</v>
@@ -13845,13 +13848,13 @@
         <v>757</v>
       </c>
       <c r="B758" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C758" t="s">
         <v>821</v>
       </c>
       <c r="D758" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -13907,7 +13910,7 @@
         <v>848</v>
       </c>
       <c r="D762" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="763" spans="1:4">

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="953">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -250,12 +250,12 @@
     <t>Ryan Helsley</t>
   </si>
   <si>
+    <t>Tim Anderson</t>
+  </si>
+  <si>
     <t>Tommy Edman</t>
   </si>
   <si>
-    <t>Tim Anderson</t>
-  </si>
-  <si>
     <t>Joe Musgrove</t>
   </si>
   <si>
@@ -349,12 +349,12 @@
     <t>Logan Webb</t>
   </si>
   <si>
+    <t>Gleyber Torres</t>
+  </si>
+  <si>
     <t>Logan Gilbert</t>
   </si>
   <si>
-    <t>Gleyber Torres</t>
-  </si>
-  <si>
     <t>Tyler O'Neill</t>
   </si>
   <si>
@@ -460,6 +460,9 @@
     <t>Pablo Lopez</t>
   </si>
   <si>
+    <t>Max Muncy</t>
+  </si>
+  <si>
     <t>Daniel Bard</t>
   </si>
   <si>
@@ -469,9 +472,6 @@
     <t>Nico Hoerner</t>
   </si>
   <si>
-    <t>Max Muncy</t>
-  </si>
-  <si>
     <t>Ty France</t>
   </si>
   <si>
@@ -496,141 +496,141 @@
     <t>Bryce Harper</t>
   </si>
   <si>
+    <t>Jordan Montgomery</t>
+  </si>
+  <si>
+    <t>Rowdy Tellez</t>
+  </si>
+  <si>
+    <t>Sean Murphy</t>
+  </si>
+  <si>
+    <t>Brandon Lowe</t>
+  </si>
+  <si>
     <t>Jose Miranda</t>
   </si>
   <si>
-    <t>Jordan Montgomery</t>
-  </si>
-  <si>
-    <t>Rowdy Tellez</t>
-  </si>
-  <si>
-    <t>Sean Murphy</t>
+    <t>Mitch Haniger</t>
+  </si>
+  <si>
+    <t>Jhoan Duran</t>
+  </si>
+  <si>
+    <t>Josh Bell</t>
   </si>
   <si>
     <t>Ke'Bryan Hayes</t>
   </si>
   <si>
-    <t>Mitch Haniger</t>
-  </si>
-  <si>
-    <t>Brandon Lowe</t>
-  </si>
-  <si>
-    <t>Jhoan Duran</t>
-  </si>
-  <si>
-    <t>Josh Bell</t>
-  </si>
-  <si>
     <t>Jeff McNeil</t>
   </si>
   <si>
+    <t>Eugenio Suarez</t>
+  </si>
+  <si>
+    <t>Alexis Diaz</t>
+  </si>
+  <si>
+    <t>William Contreras</t>
+  </si>
+  <si>
+    <t>Oscar Gonzalez</t>
+  </si>
+  <si>
+    <t>Andres Munoz</t>
+  </si>
+  <si>
+    <t>Tony Gonsolin</t>
+  </si>
+  <si>
+    <t>Alex Verdugo</t>
+  </si>
+  <si>
+    <t>Jake Cronenworth</t>
+  </si>
+  <si>
+    <t>Brady Singer</t>
+  </si>
+  <si>
+    <t>Jon Gray</t>
+  </si>
+  <si>
+    <t>Paul Sewald</t>
+  </si>
+  <si>
+    <t>Javier Baez</t>
+  </si>
+  <si>
+    <t>Jeffrey Springs</t>
+  </si>
+  <si>
+    <t>Luis Arraez</t>
+  </si>
+  <si>
+    <t>Luis Garcia</t>
+  </si>
+  <si>
+    <t>Alec Bohm</t>
+  </si>
+  <si>
+    <t>Lance McCullers Jr.</t>
+  </si>
+  <si>
+    <t>Jonathan India</t>
+  </si>
+  <si>
+    <t>Tyler Stephenson</t>
+  </si>
+  <si>
+    <t>Drew Rasmussen</t>
+  </si>
+  <si>
     <t>Trevor Story</t>
   </si>
   <si>
-    <t>Alexis Diaz</t>
-  </si>
-  <si>
-    <t>William Contreras</t>
-  </si>
-  <si>
-    <t>Oscar Gonzalez</t>
-  </si>
-  <si>
-    <t>Andres Munoz</t>
-  </si>
-  <si>
-    <t>Eugenio Suarez</t>
-  </si>
-  <si>
-    <t>Tony Gonsolin</t>
-  </si>
-  <si>
-    <t>Alex Verdugo</t>
-  </si>
-  <si>
-    <t>Jake Cronenworth</t>
-  </si>
-  <si>
-    <t>Brady Singer</t>
-  </si>
-  <si>
-    <t>Jon Gray</t>
-  </si>
-  <si>
-    <t>Paul Sewald</t>
-  </si>
-  <si>
-    <t>Javier Baez</t>
-  </si>
-  <si>
-    <t>Jeffrey Springs</t>
-  </si>
-  <si>
-    <t>Luis Arraez</t>
-  </si>
-  <si>
-    <t>Luis Garcia</t>
-  </si>
-  <si>
-    <t>Alec Bohm</t>
-  </si>
-  <si>
-    <t>Lance McCullers Jr.</t>
-  </si>
-  <si>
-    <t>Tyler Stephenson</t>
-  </si>
-  <si>
-    <t>Drew Rasmussen</t>
-  </si>
-  <si>
-    <t>Jonathan India</t>
-  </si>
-  <si>
     <t>Frankie Montas</t>
   </si>
   <si>
     <t>Riley Greene</t>
   </si>
   <si>
+    <t>Ketel Marte</t>
+  </si>
+  <si>
     <t>Joey Meneses</t>
   </si>
   <si>
-    <t>Ketel Marte</t>
-  </si>
-  <si>
     <t>Harrison Bader</t>
   </si>
   <si>
+    <t>Grayson Rodriguez</t>
+  </si>
+  <si>
     <t>Thairo Estrada</t>
   </si>
   <si>
-    <t>Grayson Rodriguez</t>
-  </si>
-  <si>
     <t>Andrew Heaney</t>
   </si>
   <si>
+    <t>Whit Merrifield</t>
+  </si>
+  <si>
     <t>Josh Naylor</t>
   </si>
   <si>
+    <t>Vaughn Grissom</t>
+  </si>
+  <si>
     <t>Pete Fairbanks</t>
   </si>
   <si>
     <t>Cal Raleigh</t>
   </si>
   <si>
-    <t>Whit Merrifield</t>
-  </si>
-  <si>
     <t>Ryan McMahon</t>
   </si>
   <si>
-    <t>Vaughn Grissom</t>
-  </si>
-  <si>
     <t>J.D. Martinez</t>
   </si>
   <si>
@@ -649,12 +649,12 @@
     <t>Reid Detmers</t>
   </si>
   <si>
+    <t>Jose Berrios</t>
+  </si>
+  <si>
     <t>Josh Rojas</t>
   </si>
   <si>
-    <t>Jose Berrios</t>
-  </si>
-  <si>
     <t>Jean Segura</t>
   </si>
   <si>
@@ -697,15 +697,15 @@
     <t>Anthony Rendon</t>
   </si>
   <si>
+    <t>Edward Cabrera</t>
+  </si>
+  <si>
+    <t>Joc Pederson</t>
+  </si>
+  <si>
     <t>Josh Jung</t>
   </si>
   <si>
-    <t>Edward Cabrera</t>
-  </si>
-  <si>
-    <t>Joc Pederson</t>
-  </si>
-  <si>
     <t>Nathan Eovaldi</t>
   </si>
   <si>
@@ -724,51 +724,51 @@
     <t>Jorge Lopez</t>
   </si>
   <si>
+    <t>Justin Turner</t>
+  </si>
+  <si>
+    <t>Gavin Lux</t>
+  </si>
+  <si>
+    <t>Michael Conforto</t>
+  </si>
+  <si>
+    <t>Bryson Stott</t>
+  </si>
+  <si>
+    <t>Triston Casas</t>
+  </si>
+  <si>
+    <t>Keibert Ruiz</t>
+  </si>
+  <si>
+    <t>Yandy Diaz</t>
+  </si>
+  <si>
+    <t>Jameson Taillon</t>
+  </si>
+  <si>
+    <t>Seranthony Dominguez</t>
+  </si>
+  <si>
+    <t>Trevor Rogers</t>
+  </si>
+  <si>
+    <t>Jorge Mateo</t>
+  </si>
+  <si>
+    <t>Ezequiel Tovar</t>
+  </si>
+  <si>
     <t>Jon Berti</t>
   </si>
   <si>
-    <t>Michael Conforto</t>
-  </si>
-  <si>
-    <t>Bryson Stott</t>
-  </si>
-  <si>
-    <t>Gavin Lux</t>
-  </si>
-  <si>
-    <t>Triston Casas</t>
-  </si>
-  <si>
-    <t>Keibert Ruiz</t>
-  </si>
-  <si>
-    <t>Jameson Taillon</t>
-  </si>
-  <si>
-    <t>Justin Turner</t>
-  </si>
-  <si>
-    <t>Seranthony Dominguez</t>
-  </si>
-  <si>
-    <t>Trevor Rogers</t>
+    <t>Luis Urias</t>
   </si>
   <si>
     <t>DJ LeMahieu</t>
   </si>
   <si>
-    <t>Jorge Mateo</t>
-  </si>
-  <si>
-    <t>Yandy Diaz</t>
-  </si>
-  <si>
-    <t>Ezequiel Tovar</t>
-  </si>
-  <si>
-    <t>Luis Urias</t>
-  </si>
-  <si>
     <t>Tyler Mahle</t>
   </si>
   <si>
@@ -829,15 +829,15 @@
     <t>Sean Manaea</t>
   </si>
   <si>
+    <t>Carlos Carrasco</t>
+  </si>
+  <si>
+    <t>Austin Meadows</t>
+  </si>
+  <si>
     <t>Yoan Moncada</t>
   </si>
   <si>
-    <t>Carlos Carrasco</t>
-  </si>
-  <si>
-    <t>Austin Meadows</t>
-  </si>
-  <si>
     <t>Trey Mancini</t>
   </si>
   <si>
@@ -859,24 +859,24 @@
     <t>Manuel Margot</t>
   </si>
   <si>
+    <t>Justin Steele</t>
+  </si>
+  <si>
+    <t>Jorge Soler</t>
+  </si>
+  <si>
+    <t>Jarred Kelenic</t>
+  </si>
+  <si>
+    <t>Jared Walsh</t>
+  </si>
+  <si>
+    <t>Jose Siri</t>
+  </si>
+  <si>
     <t>Luis Rengifo</t>
   </si>
   <si>
-    <t>Justin Steele</t>
-  </si>
-  <si>
-    <t>Jorge Soler</t>
-  </si>
-  <si>
-    <t>Jarred Kelenic</t>
-  </si>
-  <si>
-    <t>Jared Walsh</t>
-  </si>
-  <si>
-    <t>Jose Siri</t>
-  </si>
-  <si>
     <t>Hunter Brown</t>
   </si>
   <si>
@@ -949,30 +949,30 @@
     <t>Yasmani Grandal</t>
   </si>
   <si>
+    <t>Wil Myers</t>
+  </si>
+  <si>
+    <t>Evan Phillips</t>
+  </si>
+  <si>
+    <t>Daniel Hudson</t>
+  </si>
+  <si>
+    <t>Zach Eflin</t>
+  </si>
+  <si>
+    <t>Avisail Garcia</t>
+  </si>
+  <si>
+    <t>Tanner Houck</t>
+  </si>
+  <si>
+    <t>Trent Grisham</t>
+  </si>
+  <si>
     <t>Mike Clevinger</t>
   </si>
   <si>
-    <t>Wil Myers</t>
-  </si>
-  <si>
-    <t>Evan Phillips</t>
-  </si>
-  <si>
-    <t>Daniel Hudson</t>
-  </si>
-  <si>
-    <t>Zach Eflin</t>
-  </si>
-  <si>
-    <t>Avisail Garcia</t>
-  </si>
-  <si>
-    <t>Tanner Houck</t>
-  </si>
-  <si>
-    <t>Trent Grisham</t>
-  </si>
-  <si>
     <t>Kenta Maeda</t>
   </si>
   <si>
@@ -1081,12 +1081,12 @@
     <t>Joey Bart</t>
   </si>
   <si>
+    <t>Trevor May</t>
+  </si>
+  <si>
     <t>Kyle Bradish</t>
   </si>
   <si>
-    <t>Trevor May</t>
-  </si>
-  <si>
     <t>Jurickson</t>
   </si>
   <si>
@@ -1213,6 +1213,9 @@
     <t>Jose Alvarado</t>
   </si>
   <si>
+    <t>Joey Wendle</t>
+  </si>
+  <si>
     <t>Oscar Colas</t>
   </si>
   <si>
@@ -1366,15 +1369,15 @@
     <t>Brandon Belt</t>
   </si>
   <si>
-    <t>Joey Wendle</t>
-  </si>
-  <si>
     <t>Joe Kelly</t>
   </si>
   <si>
     <t>Aaron Bummer</t>
   </si>
   <si>
+    <t>Christian Arroyo</t>
+  </si>
+  <si>
     <t>Joe Jimenez</t>
   </si>
   <si>
@@ -1654,9 +1657,6 @@
     <t>Kyle Stowers</t>
   </si>
   <si>
-    <t>Christian Arroyo</t>
-  </si>
-  <si>
     <t>Blake Treinen</t>
   </si>
   <si>
@@ -1993,7 +1993,7 @@
     <t>Alec Burleson</t>
   </si>
   <si>
-    <t>Jesus</t>
+    <t>Jesus Aguilar</t>
   </si>
   <si>
     <t>Simeon Woods Richardson</t>
@@ -2521,24 +2521,24 @@
     <t>1B,DH,LF,RF</t>
   </si>
   <si>
+    <t>1B,2B,3B,DH</t>
+  </si>
+  <si>
     <t>C,DH,LF,RF</t>
   </si>
   <si>
-    <t>1B,2B,3B,DH</t>
-  </si>
-  <si>
     <t>1B,2B,3B</t>
   </si>
   <si>
     <t>LF,CF</t>
   </si>
   <si>
+    <t>2B,LF,RF</t>
+  </si>
+  <si>
     <t>1B,3B,DH</t>
   </si>
   <si>
-    <t>2B,LF,RF</t>
-  </si>
-  <si>
     <t>1B,DH,LF</t>
   </si>
   <si>
@@ -2548,12 +2548,12 @@
     <t>1B,2B,3B,DH,LF</t>
   </si>
   <si>
+    <t>2B,CF,DH</t>
+  </si>
+  <si>
     <t>1B,RF</t>
   </si>
   <si>
-    <t>2B,CF,DH</t>
-  </si>
-  <si>
     <t>2B,LF,SS</t>
   </si>
   <si>
@@ -2578,15 +2578,15 @@
     <t>LF</t>
   </si>
   <si>
+    <t>2B,SS,LF,CF</t>
+  </si>
+  <si>
+    <t>2B,SS,CF</t>
+  </si>
+  <si>
     <t>2B,3B,LF,SS</t>
   </si>
   <si>
-    <t>2B,SS,LF,CF</t>
-  </si>
-  <si>
-    <t>2B,SS,CF</t>
-  </si>
-  <si>
     <t>2B,3B,SS</t>
   </si>
   <si>
@@ -2635,6 +2635,9 @@
     <t>1B,CF,DH,LF,RF</t>
   </si>
   <si>
+    <t>1B,2B,3B,RF,SS</t>
+  </si>
+  <si>
     <t>CF,RF,SP</t>
   </si>
   <si>
@@ -2668,9 +2671,6 @@
     <t>1B,2B,DH</t>
   </si>
   <si>
-    <t>1B,2B,3B,RF,SS</t>
-  </si>
-  <si>
     <t>2B,RF</t>
   </si>
   <si>
@@ -2837,9 +2837,6 @@
   </si>
   <si>
     <t>Moronta</t>
-  </si>
-  <si>
-    <t>Aguilar</t>
   </si>
   <si>
     <t>Naquin</t>
@@ -4289,10 +4286,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="D75" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4303,10 +4300,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="D76" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4751,10 +4748,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="D108" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4765,10 +4762,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="D109" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -5269,10 +5266,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>811</v>
+        <v>834</v>
       </c>
       <c r="D145" t="s">
-        <v>922</v>
+        <v>904</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5283,10 +5280,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="D146" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5297,10 +5294,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>793</v>
+        <v>835</v>
       </c>
       <c r="D147" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5311,10 +5308,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>835</v>
+        <v>793</v>
       </c>
       <c r="D148" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5437,10 +5434,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>838</v>
+        <v>803</v>
       </c>
       <c r="D157" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5451,10 +5448,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D158" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5465,10 +5462,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>804</v>
+        <v>824</v>
       </c>
       <c r="D159" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5479,10 +5476,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>824</v>
+        <v>838</v>
       </c>
       <c r="D160" t="s">
-        <v>899</v>
+        <v>915</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5493,10 +5490,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>808</v>
+        <v>839</v>
       </c>
       <c r="D161" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5521,10 +5518,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>839</v>
+        <v>812</v>
       </c>
       <c r="D163" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5535,10 +5532,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>812</v>
+        <v>840</v>
       </c>
       <c r="D164" t="s">
-        <v>920</v>
+        <v>900</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5549,10 +5546,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>840</v>
+        <v>808</v>
       </c>
       <c r="D165" t="s">
-        <v>900</v>
+        <v>919</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5563,7 +5560,7 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D166" t="s">
         <v>910</v>
@@ -5577,10 +5574,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
       <c r="D167" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5647,10 +5644,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D172" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5661,10 +5658,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>803</v>
+        <v>831</v>
       </c>
       <c r="D173" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5675,10 +5672,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="D174" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5689,10 +5686,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>841</v>
+        <v>803</v>
       </c>
       <c r="D175" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5706,7 +5703,7 @@
         <v>803</v>
       </c>
       <c r="D176" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5717,10 +5714,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="D177" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5731,10 +5728,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="D178" t="s">
-        <v>901</v>
+        <v>924</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5745,10 +5742,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>793</v>
+        <v>812</v>
       </c>
       <c r="D179" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5759,10 +5756,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>812</v>
+        <v>842</v>
       </c>
       <c r="D180" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5773,10 +5770,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>842</v>
+        <v>803</v>
       </c>
       <c r="D181" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5787,10 +5784,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="D182" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5801,10 +5798,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="D183" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5815,10 +5812,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="D184" t="s">
-        <v>902</v>
+        <v>923</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5857,10 +5854,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>813</v>
+        <v>793</v>
       </c>
       <c r="D187" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5902,7 +5899,7 @@
         <v>843</v>
       </c>
       <c r="D190" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5916,7 +5913,7 @@
         <v>844</v>
       </c>
       <c r="D191" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5941,10 +5938,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>845</v>
+        <v>803</v>
       </c>
       <c r="D193" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5955,10 +5952,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>803</v>
+        <v>845</v>
       </c>
       <c r="D194" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5983,10 +5980,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>846</v>
+        <v>800</v>
       </c>
       <c r="D196" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5997,10 +5994,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>811</v>
+        <v>846</v>
       </c>
       <c r="D197" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -6011,10 +6008,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>847</v>
+        <v>793</v>
       </c>
       <c r="D198" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -6025,10 +6022,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="D199" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -6039,10 +6036,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D200" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -6053,10 +6050,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>793</v>
+        <v>848</v>
       </c>
       <c r="D201" t="s">
-        <v>899</v>
+        <v>922</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -6151,10 +6148,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>850</v>
+        <v>803</v>
       </c>
       <c r="D208" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6165,10 +6162,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>803</v>
+        <v>850</v>
       </c>
       <c r="D209" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6375,10 +6372,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D224" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6389,10 +6386,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="D225" t="s">
-        <v>912</v>
+        <v>921</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6403,10 +6400,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="D226" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6501,10 +6498,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>853</v>
+        <v>796</v>
       </c>
       <c r="D233" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6515,10 +6512,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>798</v>
+        <v>853</v>
       </c>
       <c r="D234" t="s">
-        <v>921</v>
+        <v>904</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6529,10 +6526,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="D235" t="s">
-        <v>897</v>
+        <v>921</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6543,10 +6540,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>854</v>
+        <v>793</v>
       </c>
       <c r="D236" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6585,10 +6582,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="D239" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6599,10 +6596,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="D240" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6641,10 +6638,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>836</v>
+        <v>854</v>
       </c>
       <c r="D243" t="s">
-        <v>898</v>
+        <v>916</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6655,10 +6652,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>855</v>
+        <v>807</v>
       </c>
       <c r="D244" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6669,10 +6666,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>810</v>
+        <v>855</v>
       </c>
       <c r="D245" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6683,10 +6680,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>807</v>
+        <v>856</v>
       </c>
       <c r="D246" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6697,10 +6694,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="D247" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6756,7 +6753,7 @@
         <v>806</v>
       </c>
       <c r="D251" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6991,10 +6988,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D268" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -7005,10 +7002,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="D269" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -7019,10 +7016,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="D270" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -7131,10 +7128,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>858</v>
+        <v>821</v>
       </c>
       <c r="D278" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -7145,10 +7142,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D279" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -7159,10 +7156,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="D280" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7173,10 +7170,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>827</v>
+        <v>844</v>
       </c>
       <c r="D281" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7187,10 +7184,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>843</v>
+        <v>805</v>
       </c>
       <c r="D282" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -7201,10 +7198,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>805</v>
+        <v>858</v>
       </c>
       <c r="D283" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7551,10 +7548,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>803</v>
+        <v>863</v>
       </c>
       <c r="D308" t="s">
-        <v>914</v>
+        <v>923</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7565,10 +7562,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>863</v>
+        <v>811</v>
       </c>
       <c r="D309" t="s">
-        <v>923</v>
+        <v>904</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -7593,10 +7590,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D311" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7607,10 +7604,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D312" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7621,10 +7618,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>798</v>
+        <v>821</v>
       </c>
       <c r="D313" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7635,10 +7632,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="D314" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7649,10 +7646,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D315" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7733,7 +7730,7 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D321" t="s">
         <v>920</v>
@@ -7870,13 +7867,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>333</v>
+        <v>183</v>
       </c>
       <c r="C331" t="s">
-        <v>820</v>
+        <v>793</v>
       </c>
       <c r="D331" t="s">
-        <v>899</v>
+        <v>925</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -7884,13 +7881,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>866</v>
+        <v>820</v>
       </c>
       <c r="D332" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -7898,13 +7895,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>827</v>
+        <v>866</v>
       </c>
       <c r="D333" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -7912,13 +7909,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>811</v>
+        <v>827</v>
       </c>
       <c r="D334" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -7926,13 +7923,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>863</v>
+        <v>811</v>
       </c>
       <c r="D335" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -7940,13 +7937,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>847</v>
+        <v>863</v>
       </c>
       <c r="D336" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -7954,13 +7951,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>811</v>
+        <v>847</v>
       </c>
       <c r="D337" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7968,13 +7965,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="D338" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7982,13 +7979,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C339" t="s">
         <v>803</v>
       </c>
       <c r="D339" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -7996,13 +7993,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C340" t="s">
         <v>803</v>
       </c>
       <c r="D340" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -8010,13 +8007,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>836</v>
+        <v>803</v>
       </c>
       <c r="D341" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -8024,13 +8021,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>811</v>
+        <v>836</v>
       </c>
       <c r="D342" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -8038,13 +8035,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="D343" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -8052,13 +8049,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
       <c r="D344" t="s">
-        <v>910</v>
+        <v>925</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -8066,13 +8063,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="D345" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -8080,13 +8077,13 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="D346" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -8094,13 +8091,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D347" t="s">
-        <v>918</v>
+        <v>898</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8108,13 +8105,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="D348" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -8122,13 +8119,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>184</v>
+        <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>793</v>
+        <v>827</v>
       </c>
       <c r="D349" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8181,10 +8178,10 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="D353" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -8195,10 +8192,10 @@
         <v>355</v>
       </c>
       <c r="C354" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="D354" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -8797,10 +8794,10 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>805</v>
+        <v>856</v>
       </c>
       <c r="D397" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -8811,10 +8808,10 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D398" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8825,10 +8822,10 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D399" t="s">
-        <v>900</v>
+        <v>923</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -8839,10 +8836,10 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="D400" t="s">
-        <v>930</v>
+        <v>900</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -8853,10 +8850,10 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="D401" t="s">
-        <v>900</v>
+        <v>930</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -8867,10 +8864,10 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>848</v>
+        <v>803</v>
       </c>
       <c r="D402" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -8881,10 +8878,10 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="D403" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -8895,10 +8892,10 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>807</v>
+        <v>839</v>
       </c>
       <c r="D404" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -8909,10 +8906,10 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D405" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -8923,10 +8920,10 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="D406" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -8940,7 +8937,7 @@
         <v>803</v>
       </c>
       <c r="D407" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -8951,10 +8948,10 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>847</v>
+        <v>803</v>
       </c>
       <c r="D408" t="s">
-        <v>917</v>
+        <v>926</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -8965,10 +8962,10 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>805</v>
+        <v>847</v>
       </c>
       <c r="D409" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -8979,10 +8976,10 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="D410" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -8990,13 +8987,13 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>184</v>
+        <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D411" t="s">
-        <v>903</v>
+        <v>916</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -9004,13 +9001,13 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>412</v>
+        <v>183</v>
       </c>
       <c r="C412" t="s">
-        <v>835</v>
+        <v>811</v>
       </c>
       <c r="D412" t="s">
-        <v>921</v>
+        <v>903</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -9021,10 +9018,10 @@
         <v>413</v>
       </c>
       <c r="C413" t="s">
-        <v>811</v>
+        <v>834</v>
       </c>
       <c r="D413" t="s">
-        <v>902</v>
+        <v>921</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -9035,10 +9032,10 @@
         <v>414</v>
       </c>
       <c r="C414" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="D414" t="s">
-        <v>921</v>
+        <v>902</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -9049,10 +9046,10 @@
         <v>415</v>
       </c>
       <c r="C415" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="D415" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -9063,10 +9060,10 @@
         <v>416</v>
       </c>
       <c r="C416" t="s">
-        <v>803</v>
+        <v>821</v>
       </c>
       <c r="D416" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -9080,7 +9077,7 @@
         <v>803</v>
       </c>
       <c r="D417" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -9091,10 +9088,10 @@
         <v>418</v>
       </c>
       <c r="C418" t="s">
-        <v>871</v>
+        <v>803</v>
       </c>
       <c r="D418" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9105,10 +9102,10 @@
         <v>419</v>
       </c>
       <c r="C419" t="s">
-        <v>837</v>
+        <v>871</v>
       </c>
       <c r="D419" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -9119,10 +9116,10 @@
         <v>420</v>
       </c>
       <c r="C420" t="s">
-        <v>803</v>
+        <v>837</v>
       </c>
       <c r="D420" t="s">
-        <v>909</v>
+        <v>924</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -9133,10 +9130,10 @@
         <v>421</v>
       </c>
       <c r="C421" t="s">
-        <v>847</v>
+        <v>803</v>
       </c>
       <c r="D421" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9147,10 +9144,10 @@
         <v>422</v>
       </c>
       <c r="C422" t="s">
-        <v>827</v>
+        <v>847</v>
       </c>
       <c r="D422" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -9161,10 +9158,10 @@
         <v>423</v>
       </c>
       <c r="C423" t="s">
-        <v>811</v>
+        <v>827</v>
       </c>
       <c r="D423" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9175,10 +9172,10 @@
         <v>424</v>
       </c>
       <c r="C424" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="D424" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -9189,10 +9186,10 @@
         <v>425</v>
       </c>
       <c r="C425" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="D425" t="s">
-        <v>913</v>
+        <v>926</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -9203,10 +9200,10 @@
         <v>426</v>
       </c>
       <c r="C426" t="s">
-        <v>847</v>
+        <v>812</v>
       </c>
       <c r="D426" t="s">
-        <v>898</v>
+        <v>913</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9217,7 +9214,7 @@
         <v>427</v>
       </c>
       <c r="C427" t="s">
-        <v>821</v>
+        <v>847</v>
       </c>
       <c r="D427" t="s">
         <v>898</v>
@@ -9231,10 +9228,10 @@
         <v>428</v>
       </c>
       <c r="C428" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="D428" t="s">
-        <v>924</v>
+        <v>898</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9245,10 +9242,10 @@
         <v>429</v>
       </c>
       <c r="C429" t="s">
-        <v>847</v>
+        <v>819</v>
       </c>
       <c r="D429" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9259,10 +9256,10 @@
         <v>430</v>
       </c>
       <c r="C430" t="s">
-        <v>811</v>
+        <v>847</v>
       </c>
       <c r="D430" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9273,10 +9270,10 @@
         <v>431</v>
       </c>
       <c r="C431" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="D431" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -9287,10 +9284,10 @@
         <v>432</v>
       </c>
       <c r="C432" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D432" t="s">
-        <v>931</v>
+        <v>908</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -9301,10 +9298,10 @@
         <v>433</v>
       </c>
       <c r="C433" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="D433" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9315,10 +9312,10 @@
         <v>434</v>
       </c>
       <c r="C434" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="D434" t="s">
-        <v>921</v>
+        <v>903</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -9329,10 +9326,10 @@
         <v>435</v>
       </c>
       <c r="C435" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
       <c r="D435" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -9343,10 +9340,10 @@
         <v>436</v>
       </c>
       <c r="C436" t="s">
-        <v>803</v>
+        <v>821</v>
       </c>
       <c r="D436" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9357,10 +9354,10 @@
         <v>437</v>
       </c>
       <c r="C437" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="D437" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -9371,10 +9368,10 @@
         <v>438</v>
       </c>
       <c r="C438" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="D438" t="s">
-        <v>898</v>
+        <v>915</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -9385,10 +9382,10 @@
         <v>439</v>
       </c>
       <c r="C439" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D439" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -9402,7 +9399,7 @@
         <v>811</v>
       </c>
       <c r="D440" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -9416,7 +9413,7 @@
         <v>811</v>
       </c>
       <c r="D441" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -9427,10 +9424,10 @@
         <v>442</v>
       </c>
       <c r="C442" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D442" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -9441,10 +9438,10 @@
         <v>443</v>
       </c>
       <c r="C443" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="D443" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -9455,10 +9452,10 @@
         <v>444</v>
       </c>
       <c r="C444" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="D444" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -9469,10 +9466,10 @@
         <v>445</v>
       </c>
       <c r="C445" t="s">
-        <v>856</v>
+        <v>793</v>
       </c>
       <c r="D445" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -9483,10 +9480,10 @@
         <v>446</v>
       </c>
       <c r="C446" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="D446" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9497,10 +9494,10 @@
         <v>447</v>
       </c>
       <c r="C447" t="s">
-        <v>810</v>
+        <v>847</v>
       </c>
       <c r="D447" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -9511,10 +9508,10 @@
         <v>448</v>
       </c>
       <c r="C448" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="D448" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -9525,10 +9522,10 @@
         <v>449</v>
       </c>
       <c r="C449" t="s">
-        <v>856</v>
+        <v>804</v>
       </c>
       <c r="D449" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -9567,10 +9564,10 @@
         <v>452</v>
       </c>
       <c r="C452" t="s">
-        <v>811</v>
+        <v>872</v>
       </c>
       <c r="D452" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9584,7 +9581,7 @@
         <v>811</v>
       </c>
       <c r="D453" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -9595,10 +9592,10 @@
         <v>454</v>
       </c>
       <c r="C454" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D454" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9609,10 +9606,10 @@
         <v>455</v>
       </c>
       <c r="C455" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="D455" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -9623,10 +9620,10 @@
         <v>456</v>
       </c>
       <c r="C456" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="D456" t="s">
-        <v>932</v>
+        <v>913</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -9637,10 +9634,10 @@
         <v>457</v>
       </c>
       <c r="C457" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="D457" t="s">
-        <v>910</v>
+        <v>932</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -9651,10 +9648,10 @@
         <v>458</v>
       </c>
       <c r="C458" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="D458" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -9665,10 +9662,10 @@
         <v>459</v>
       </c>
       <c r="C459" t="s">
-        <v>796</v>
+        <v>831</v>
       </c>
       <c r="D459" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -9679,10 +9676,10 @@
         <v>460</v>
       </c>
       <c r="C460" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="D460" t="s">
-        <v>926</v>
+        <v>898</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -9696,7 +9693,7 @@
         <v>812</v>
       </c>
       <c r="D461" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -9707,10 +9704,10 @@
         <v>462</v>
       </c>
       <c r="C462" t="s">
-        <v>872</v>
+        <v>812</v>
       </c>
       <c r="D462" t="s">
-        <v>924</v>
+        <v>898</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9721,10 +9718,10 @@
         <v>463</v>
       </c>
       <c r="C463" t="s">
-        <v>811</v>
+        <v>873</v>
       </c>
       <c r="D463" t="s">
-        <v>905</v>
+        <v>924</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -9735,10 +9732,10 @@
         <v>464</v>
       </c>
       <c r="C464" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="D464" t="s">
-        <v>933</v>
+        <v>905</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -9752,7 +9749,7 @@
         <v>803</v>
       </c>
       <c r="D465" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -9763,10 +9760,10 @@
         <v>466</v>
       </c>
       <c r="C466" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D466" t="s">
-        <v>907</v>
+        <v>926</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -9777,10 +9774,10 @@
         <v>467</v>
       </c>
       <c r="C467" t="s">
-        <v>843</v>
+        <v>807</v>
       </c>
       <c r="D467" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -9791,10 +9788,10 @@
         <v>468</v>
       </c>
       <c r="C468" t="s">
-        <v>873</v>
+        <v>844</v>
       </c>
       <c r="D468" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -9808,7 +9805,7 @@
         <v>874</v>
       </c>
       <c r="D469" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -9819,7 +9816,7 @@
         <v>470</v>
       </c>
       <c r="C470" t="s">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="D470" t="s">
         <v>924</v>
@@ -9833,10 +9830,10 @@
         <v>471</v>
       </c>
       <c r="C471" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="D471" t="s">
-        <v>898</v>
+        <v>924</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -9847,10 +9844,10 @@
         <v>472</v>
       </c>
       <c r="C472" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="D472" t="s">
-        <v>924</v>
+        <v>898</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -9864,7 +9861,7 @@
         <v>803</v>
       </c>
       <c r="D473" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -9875,10 +9872,10 @@
         <v>474</v>
       </c>
       <c r="C474" t="s">
-        <v>875</v>
+        <v>803</v>
       </c>
       <c r="D474" t="s">
-        <v>923</v>
+        <v>904</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -9889,10 +9886,10 @@
         <v>475</v>
       </c>
       <c r="C475" t="s">
-        <v>856</v>
+        <v>876</v>
       </c>
       <c r="D475" t="s">
-        <v>905</v>
+        <v>923</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -9903,10 +9900,10 @@
         <v>476</v>
       </c>
       <c r="C476" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="D476" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -9917,10 +9914,10 @@
         <v>477</v>
       </c>
       <c r="C477" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D477" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -9931,10 +9928,10 @@
         <v>478</v>
       </c>
       <c r="C478" t="s">
-        <v>803</v>
+        <v>847</v>
       </c>
       <c r="D478" t="s">
-        <v>901</v>
+        <v>920</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -9948,7 +9945,7 @@
         <v>803</v>
       </c>
       <c r="D479" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -9959,10 +9956,10 @@
         <v>480</v>
       </c>
       <c r="C480" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="D480" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -9973,10 +9970,10 @@
         <v>481</v>
       </c>
       <c r="C481" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="D481" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -9987,10 +9984,10 @@
         <v>482</v>
       </c>
       <c r="C482" t="s">
-        <v>847</v>
+        <v>804</v>
       </c>
       <c r="D482" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -10001,7 +9998,7 @@
         <v>483</v>
       </c>
       <c r="C483" t="s">
-        <v>827</v>
+        <v>847</v>
       </c>
       <c r="D483" t="s">
         <v>919</v>
@@ -10015,10 +10012,10 @@
         <v>484</v>
       </c>
       <c r="C484" t="s">
-        <v>806</v>
+        <v>827</v>
       </c>
       <c r="D484" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -10029,10 +10026,10 @@
         <v>485</v>
       </c>
       <c r="C485" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D485" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -10043,10 +10040,10 @@
         <v>486</v>
       </c>
       <c r="C486" t="s">
-        <v>876</v>
+        <v>805</v>
       </c>
       <c r="D486" t="s">
-        <v>903</v>
+        <v>925</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -10057,10 +10054,10 @@
         <v>487</v>
       </c>
       <c r="C487" t="s">
-        <v>811</v>
+        <v>877</v>
       </c>
       <c r="D487" t="s">
-        <v>926</v>
+        <v>903</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -10071,10 +10068,10 @@
         <v>488</v>
       </c>
       <c r="C488" t="s">
-        <v>847</v>
+        <v>811</v>
       </c>
       <c r="D488" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -10085,10 +10082,10 @@
         <v>489</v>
       </c>
       <c r="C489" t="s">
-        <v>831</v>
+        <v>847</v>
       </c>
       <c r="D489" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -10099,10 +10096,10 @@
         <v>490</v>
       </c>
       <c r="C490" t="s">
-        <v>877</v>
+        <v>831</v>
       </c>
       <c r="D490" t="s">
-        <v>926</v>
+        <v>909</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -10113,10 +10110,10 @@
         <v>491</v>
       </c>
       <c r="C491" t="s">
-        <v>811</v>
+        <v>878</v>
       </c>
       <c r="D491" t="s">
-        <v>905</v>
+        <v>926</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -10127,10 +10124,10 @@
         <v>492</v>
       </c>
       <c r="C492" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="D492" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -10141,10 +10138,10 @@
         <v>493</v>
       </c>
       <c r="C493" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="D493" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -10155,7 +10152,7 @@
         <v>494</v>
       </c>
       <c r="C494" t="s">
-        <v>847</v>
+        <v>812</v>
       </c>
       <c r="D494" t="s">
         <v>903</v>
@@ -10169,10 +10166,10 @@
         <v>495</v>
       </c>
       <c r="C495" t="s">
-        <v>803</v>
+        <v>847</v>
       </c>
       <c r="D495" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -10186,7 +10183,7 @@
         <v>803</v>
       </c>
       <c r="D496" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -10200,7 +10197,7 @@
         <v>803</v>
       </c>
       <c r="D497" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -10211,10 +10208,10 @@
         <v>498</v>
       </c>
       <c r="C498" t="s">
-        <v>847</v>
+        <v>803</v>
       </c>
       <c r="D498" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -10225,10 +10222,10 @@
         <v>499</v>
       </c>
       <c r="C499" t="s">
-        <v>878</v>
+        <v>847</v>
       </c>
       <c r="D499" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -10239,10 +10236,10 @@
         <v>500</v>
       </c>
       <c r="C500" t="s">
-        <v>805</v>
+        <v>879</v>
       </c>
       <c r="D500" t="s">
-        <v>905</v>
+        <v>923</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -10253,10 +10250,10 @@
         <v>501</v>
       </c>
       <c r="C501" t="s">
-        <v>827</v>
+        <v>805</v>
       </c>
       <c r="D501" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10267,10 +10264,10 @@
         <v>502</v>
       </c>
       <c r="C502" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="D502" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -10281,10 +10278,10 @@
         <v>503</v>
       </c>
       <c r="C503" t="s">
-        <v>825</v>
+        <v>803</v>
       </c>
       <c r="D503" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10295,10 +10292,10 @@
         <v>504</v>
       </c>
       <c r="C504" t="s">
-        <v>803</v>
+        <v>825</v>
       </c>
       <c r="D504" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -10309,10 +10306,10 @@
         <v>505</v>
       </c>
       <c r="C505" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="D505" t="s">
-        <v>909</v>
+        <v>926</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10323,10 +10320,10 @@
         <v>506</v>
       </c>
       <c r="C506" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D506" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -10337,7 +10334,7 @@
         <v>507</v>
       </c>
       <c r="C507" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
       <c r="D507" t="s">
         <v>908</v>
@@ -10351,10 +10348,10 @@
         <v>508</v>
       </c>
       <c r="C508" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="D508" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10365,10 +10362,10 @@
         <v>509</v>
       </c>
       <c r="C509" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="D509" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10379,10 +10376,10 @@
         <v>510</v>
       </c>
       <c r="C510" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="D510" t="s">
-        <v>908</v>
+        <v>917</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10393,10 +10390,10 @@
         <v>511</v>
       </c>
       <c r="C511" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D511" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10407,10 +10404,10 @@
         <v>512</v>
       </c>
       <c r="C512" t="s">
-        <v>879</v>
+        <v>811</v>
       </c>
       <c r="D512" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10421,10 +10418,10 @@
         <v>513</v>
       </c>
       <c r="C513" t="s">
-        <v>801</v>
+        <v>880</v>
       </c>
       <c r="D513" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10435,10 +10432,10 @@
         <v>514</v>
       </c>
       <c r="C514" t="s">
-        <v>880</v>
+        <v>801</v>
       </c>
       <c r="D514" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10449,10 +10446,10 @@
         <v>515</v>
       </c>
       <c r="C515" t="s">
-        <v>803</v>
+        <v>881</v>
       </c>
       <c r="D515" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -10463,10 +10460,10 @@
         <v>516</v>
       </c>
       <c r="C516" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="D516" t="s">
-        <v>897</v>
+        <v>912</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10477,10 +10474,10 @@
         <v>517</v>
       </c>
       <c r="C517" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="D517" t="s">
-        <v>919</v>
+        <v>897</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10491,10 +10488,10 @@
         <v>518</v>
       </c>
       <c r="C518" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D518" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10505,10 +10502,10 @@
         <v>519</v>
       </c>
       <c r="C519" t="s">
-        <v>847</v>
+        <v>805</v>
       </c>
       <c r="D519" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10522,7 +10519,7 @@
         <v>847</v>
       </c>
       <c r="D520" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10533,10 +10530,10 @@
         <v>521</v>
       </c>
       <c r="C521" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
       <c r="D521" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10547,10 +10544,10 @@
         <v>522</v>
       </c>
       <c r="C522" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="D522" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10561,10 +10558,10 @@
         <v>523</v>
       </c>
       <c r="C523" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="D523" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10575,10 +10572,10 @@
         <v>524</v>
       </c>
       <c r="C524" t="s">
-        <v>881</v>
+        <v>812</v>
       </c>
       <c r="D524" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10589,10 +10586,10 @@
         <v>525</v>
       </c>
       <c r="C525" t="s">
-        <v>847</v>
+        <v>882</v>
       </c>
       <c r="D525" t="s">
-        <v>909</v>
+        <v>926</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10603,10 +10600,10 @@
         <v>526</v>
       </c>
       <c r="C526" t="s">
-        <v>806</v>
+        <v>847</v>
       </c>
       <c r="D526" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10617,10 +10614,10 @@
         <v>527</v>
       </c>
       <c r="C527" t="s">
-        <v>836</v>
+        <v>806</v>
       </c>
       <c r="D527" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10631,10 +10628,10 @@
         <v>528</v>
       </c>
       <c r="C528" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="D528" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10645,10 +10642,10 @@
         <v>529</v>
       </c>
       <c r="C529" t="s">
-        <v>863</v>
+        <v>812</v>
       </c>
       <c r="D529" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -10659,10 +10656,10 @@
         <v>530</v>
       </c>
       <c r="C530" t="s">
-        <v>812</v>
+        <v>863</v>
       </c>
       <c r="D530" t="s">
-        <v>903</v>
+        <v>921</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -10673,10 +10670,10 @@
         <v>531</v>
       </c>
       <c r="C531" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D531" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10690,7 +10687,7 @@
         <v>811</v>
       </c>
       <c r="D532" t="s">
-        <v>925</v>
+        <v>901</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10704,7 +10701,7 @@
         <v>811</v>
       </c>
       <c r="D533" t="s">
-        <v>902</v>
+        <v>925</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10718,7 +10715,7 @@
         <v>811</v>
       </c>
       <c r="D534" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -10729,10 +10726,10 @@
         <v>535</v>
       </c>
       <c r="C535" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D535" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10743,10 +10740,10 @@
         <v>536</v>
       </c>
       <c r="C536" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D536" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -10757,10 +10754,10 @@
         <v>537</v>
       </c>
       <c r="C537" t="s">
-        <v>882</v>
+        <v>811</v>
       </c>
       <c r="D537" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10771,10 +10768,10 @@
         <v>538</v>
       </c>
       <c r="C538" t="s">
-        <v>821</v>
+        <v>883</v>
       </c>
       <c r="D538" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10785,10 +10782,10 @@
         <v>539</v>
       </c>
       <c r="C539" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="D539" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10799,10 +10796,10 @@
         <v>540</v>
       </c>
       <c r="C540" t="s">
-        <v>852</v>
+        <v>811</v>
       </c>
       <c r="D540" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -10813,10 +10810,10 @@
         <v>541</v>
       </c>
       <c r="C541" t="s">
-        <v>811</v>
+        <v>852</v>
       </c>
       <c r="D541" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10827,10 +10824,10 @@
         <v>542</v>
       </c>
       <c r="C542" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="D542" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -10841,10 +10838,10 @@
         <v>543</v>
       </c>
       <c r="C543" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="D543" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -10855,10 +10852,10 @@
         <v>544</v>
       </c>
       <c r="C544" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D544" t="s">
-        <v>916</v>
+        <v>934</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -10869,10 +10866,10 @@
         <v>545</v>
       </c>
       <c r="C545" t="s">
-        <v>883</v>
+        <v>819</v>
       </c>
       <c r="D545" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -11275,7 +11272,7 @@
         <v>574</v>
       </c>
       <c r="C574" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D574" t="s">
         <v>922</v>
@@ -11454,7 +11451,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C587" t="s">
         <v>858</v>
@@ -11527,7 +11524,7 @@
         <v>591</v>
       </c>
       <c r="C592" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D592" t="s">
         <v>916</v>
@@ -11597,7 +11594,7 @@
         <v>596</v>
       </c>
       <c r="C597" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D597" t="s">
         <v>897</v>
@@ -11877,7 +11874,7 @@
         <v>616</v>
       </c>
       <c r="C617" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D617" t="s">
         <v>936</v>
@@ -12101,7 +12098,7 @@
         <v>632</v>
       </c>
       <c r="C633" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D633" t="s">
         <v>938</v>
@@ -12423,7 +12420,7 @@
         <v>655</v>
       </c>
       <c r="C656" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D656" t="s">
         <v>907</v>
@@ -12468,7 +12465,7 @@
         <v>801</v>
       </c>
       <c r="D659" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
     </row>
     <row r="660" spans="1:4">
@@ -12538,7 +12535,7 @@
         <v>827</v>
       </c>
       <c r="D664" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -12566,7 +12563,7 @@
         <v>804</v>
       </c>
       <c r="D666" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -12650,7 +12647,7 @@
         <v>821</v>
       </c>
       <c r="D672" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -12762,7 +12759,7 @@
         <v>819</v>
       </c>
       <c r="D680" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -12930,7 +12927,7 @@
         <v>793</v>
       </c>
       <c r="D692" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -12966,13 +12963,13 @@
         <v>694</v>
       </c>
       <c r="B695" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C695" t="s">
         <v>811</v>
       </c>
       <c r="D695" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -13084,7 +13081,7 @@
         <v>803</v>
       </c>
       <c r="D703" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -13154,7 +13151,7 @@
         <v>803</v>
       </c>
       <c r="D708" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -13266,7 +13263,7 @@
         <v>811</v>
       </c>
       <c r="D716" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -13291,10 +13288,10 @@
         <v>716</v>
       </c>
       <c r="C718" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D718" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -13400,7 +13397,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C726" t="s">
         <v>803</v>
@@ -13504,7 +13501,7 @@
         <v>811</v>
       </c>
       <c r="D733" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -13806,7 +13803,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C755" t="s">
         <v>811</v>
@@ -13837,7 +13834,7 @@
         <v>752</v>
       </c>
       <c r="C757" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D757" t="s">
         <v>902</v>
@@ -13848,13 +13845,13 @@
         <v>757</v>
       </c>
       <c r="B758" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C758" t="s">
         <v>821</v>
       </c>
       <c r="D758" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -13910,7 +13907,7 @@
         <v>848</v>
       </c>
       <c r="D762" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="763" spans="1:4">

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -76,12 +76,12 @@
     <t>Gerrit Cole</t>
   </si>
   <si>
+    <t>Manny Machado</t>
+  </si>
+  <si>
     <t>Bobby Witt Jr.</t>
   </si>
   <si>
-    <t>Manny Machado</t>
-  </si>
-  <si>
     <t>Bo Bichette</t>
   </si>
   <si>
@@ -190,12 +190,12 @@
     <t>Jordan Romano</t>
   </si>
   <si>
+    <t>Adolis Garcia</t>
+  </si>
+  <si>
     <t>J.T. Realmuto</t>
   </si>
   <si>
-    <t>Adolis Garcia</t>
-  </si>
-  <si>
     <t>Kevin Gausman</t>
   </si>
   <si>
@@ -226,12 +226,12 @@
     <t>Teoscar Hernandez</t>
   </si>
   <si>
+    <t>Yu Darvish</t>
+  </si>
+  <si>
     <t>Cristian Javier</t>
   </si>
   <si>
-    <t>Yu Darvish</t>
-  </si>
-  <si>
     <t>Ryan Pressly</t>
   </si>
   <si>
@@ -244,15 +244,15 @@
     <t>Dansby Swanson</t>
   </si>
   <si>
+    <t>Framber Valdez</t>
+  </si>
+  <si>
+    <t>Tim Anderson</t>
+  </si>
+  <si>
     <t>Daulton Varsho</t>
   </si>
   <si>
-    <t>Framber Valdez</t>
-  </si>
-  <si>
-    <t>Tim Anderson</t>
-  </si>
-  <si>
     <t>Bryan Reynolds</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>Ryan Helsley</t>
   </si>
   <si>
+    <t>Tommy Edman</t>
+  </si>
+  <si>
     <t>Salvador Perez</t>
   </si>
   <si>
-    <t>Tommy Edman</t>
-  </si>
-  <si>
     <t>Will Smith</t>
   </si>
   <si>
@@ -358,12 +358,12 @@
     <t>Logan Gilbert</t>
   </si>
   <si>
+    <t>Anthony Santander</t>
+  </si>
+  <si>
     <t>Gunnar Henderson</t>
   </si>
   <si>
-    <t>Anthony Santander</t>
-  </si>
-  <si>
     <t>George Kirby</t>
   </si>
   <si>
@@ -463,12 +463,12 @@
     <t>Chris Sale</t>
   </si>
   <si>
+    <t>Ty France</t>
+  </si>
+  <si>
     <t>Nico Hoerner</t>
   </si>
   <si>
-    <t>Ty France</t>
-  </si>
-  <si>
     <t>Daniel Bard</t>
   </si>
   <si>
@@ -481,12 +481,12 @@
     <t>Charlie Morton</t>
   </si>
   <si>
+    <t>Dustin May</t>
+  </si>
+  <si>
     <t>Hunter Renfroe</t>
   </si>
   <si>
-    <t>Dustin May</t>
-  </si>
-  <si>
     <t>Bryce Harper</t>
   </si>
   <si>
@@ -526,12 +526,12 @@
     <t>Ke'Bryan Hayes</t>
   </si>
   <si>
+    <t>Andres Munoz</t>
+  </si>
+  <si>
     <t>Eugenio Suarez</t>
   </si>
   <si>
-    <t>Andres Munoz</t>
-  </si>
-  <si>
     <t>Alexis Diaz</t>
   </si>
   <si>
@@ -619,12 +619,12 @@
     <t>Ryan McMahon</t>
   </si>
   <si>
+    <t>Trevor Story</t>
+  </si>
+  <si>
     <t>Grayson Rodriguez</t>
   </si>
   <si>
-    <t>Trevor Story</t>
-  </si>
-  <si>
     <t>J.D. Martinez</t>
   </si>
   <si>
@@ -805,15 +805,15 @@
     <t>Christopher Morel</t>
   </si>
   <si>
+    <t>Ranger Suarez</t>
+  </si>
+  <si>
     <t>Sean Manaea</t>
   </si>
   <si>
     <t>Giovanny Gallegos</t>
   </si>
   <si>
-    <t>Ranger Suarez</t>
-  </si>
-  <si>
     <t>HaSeong Kim</t>
   </si>
   <si>
@@ -874,12 +874,12 @@
     <t>Jared Walsh</t>
   </si>
   <si>
+    <t>Hunter Brown</t>
+  </si>
+  <si>
     <t>Cal Quantrill</t>
   </si>
   <si>
-    <t>Hunter Brown</t>
-  </si>
-  <si>
     <t>Jesse Winker</t>
   </si>
   <si>
@@ -922,12 +922,12 @@
     <t>Matt Mervis</t>
   </si>
   <si>
+    <t>Tommy Pham</t>
+  </si>
+  <si>
     <t>Brayan Bello</t>
   </si>
   <si>
-    <t>Tommy Pham</t>
-  </si>
-  <si>
     <t>Masataka Yoshida</t>
   </si>
   <si>
@@ -961,12 +961,12 @@
     <t>Tanner Houck</t>
   </si>
   <si>
+    <t>Trent Grisham</t>
+  </si>
+  <si>
     <t>Zach Eflin</t>
   </si>
   <si>
-    <t>Trent Grisham</t>
-  </si>
-  <si>
     <t>Yasmani Grandal</t>
   </si>
   <si>
@@ -1072,33 +1072,33 @@
     <t>Drey Jameson</t>
   </si>
   <si>
+    <t>A.J. Minter</t>
+  </si>
+  <si>
     <t>Tarik Skubal</t>
   </si>
   <si>
     <t>Eduardo Escobar</t>
   </si>
   <si>
-    <t>A.J. Minter</t>
-  </si>
-  <si>
     <t>Kendall Graveman</t>
   </si>
   <si>
     <t>MacKenzie Gore</t>
   </si>
   <si>
+    <t>Francisco Alvarez</t>
+  </si>
+  <si>
     <t>Nick Pivetta</t>
   </si>
   <si>
-    <t>Francisco Alvarez</t>
+    <t>Alex Kirilloff</t>
   </si>
   <si>
     <t>Oswald Peraza</t>
   </si>
   <si>
-    <t>Alex Kirilloff</t>
-  </si>
-  <si>
     <t>Max Kepler</t>
   </si>
   <si>
@@ -1189,27 +1189,27 @@
     <t>Patrick Wisdom</t>
   </si>
   <si>
+    <t>Alek Thomas</t>
+  </si>
+  <si>
+    <t>Alex Vesia</t>
+  </si>
+  <si>
     <t>Joey Gallo</t>
   </si>
   <si>
-    <t>Alek Thomas</t>
+    <t>Christian Bethancourt</t>
   </si>
   <si>
     <t>Tony Kemp</t>
   </si>
   <si>
-    <t>Alex Vesia</t>
-  </si>
-  <si>
-    <t>Christian Bethancourt</t>
+    <t>Michael King</t>
   </si>
   <si>
     <t>JT Brubaker</t>
   </si>
   <si>
-    <t>Michael King</t>
-  </si>
-  <si>
     <t>Jimmy Herget</t>
   </si>
   <si>
@@ -1225,34 +1225,37 @@
     <t>J.P. Crawford</t>
   </si>
   <si>
+    <t>Ramon Urias</t>
+  </si>
+  <si>
     <t>Domingo German</t>
   </si>
   <si>
+    <t>Andrew Painter</t>
+  </si>
+  <si>
     <t>Cole Irvin</t>
   </si>
   <si>
-    <t>Ramon Urias</t>
-  </si>
-  <si>
-    <t>Andrew Painter</t>
-  </si>
-  <si>
     <t>Spencer Turnbull</t>
   </si>
   <si>
     <t>Connor Joe</t>
   </si>
   <si>
+    <t>Will</t>
+  </si>
+  <si>
     <t>Jo Adell</t>
   </si>
   <si>
+    <t>Oscar Colas</t>
+  </si>
+  <si>
     <t>Tyrone Taylor</t>
   </si>
   <si>
-    <t>Will</t>
-  </si>
-  <si>
-    <t>Oscar Colas</t>
+    <t>Jalen Beeks</t>
   </si>
   <si>
     <t>Joey Votto</t>
@@ -1264,21 +1267,18 @@
     <t>Mitch Keller</t>
   </si>
   <si>
-    <t>Jalen Beeks</t>
+    <t>Nolan Gorman</t>
   </si>
   <si>
     <t>Cody Morris</t>
   </si>
   <si>
-    <t>Nolan Gorman</t>
+    <t>Royce Lewis</t>
   </si>
   <si>
     <t>Joey Wendle</t>
   </si>
   <si>
-    <t>Royce Lewis</t>
-  </si>
-  <si>
     <t>Luis Ortiz</t>
   </si>
   <si>
@@ -1291,12 +1291,12 @@
     <t>Carson Kelly</t>
   </si>
   <si>
+    <t>Leody Taveras</t>
+  </si>
+  <si>
     <t>J.D. Davis</t>
   </si>
   <si>
-    <t>Leody Taveras</t>
-  </si>
-  <si>
     <t>DL Hall</t>
   </si>
   <si>
@@ -1306,27 +1306,27 @@
     <t>Brandon Crawford</t>
   </si>
   <si>
+    <t>James Paxton</t>
+  </si>
+  <si>
     <t>Akil Baddoo</t>
   </si>
   <si>
-    <t>James Paxton</t>
-  </si>
-  <si>
     <t>Elias Diaz</t>
   </si>
   <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t>Josh Lowe</t>
   </si>
   <si>
-    <t>Michael</t>
+    <t>Eric Hosmer</t>
   </si>
   <si>
     <t>Jose Trevino</t>
   </si>
   <si>
-    <t>Eric Hosmer</t>
-  </si>
-  <si>
     <t>Kerry Carpenter</t>
   </si>
   <si>
@@ -1336,51 +1336,51 @@
     <t>Gary</t>
   </si>
   <si>
+    <t>Marco Gonzales</t>
+  </si>
+  <si>
     <t>Edward Olivares</t>
   </si>
   <si>
-    <t>Marco Gonzales</t>
-  </si>
-  <si>
     <t>Erik Swanson</t>
   </si>
   <si>
+    <t>Matt Brash</t>
+  </si>
+  <si>
     <t>Anthony DeSclafani</t>
   </si>
   <si>
-    <t>Matt Brash</t>
-  </si>
-  <si>
     <t>Brandon Pfaadt</t>
   </si>
   <si>
     <t>Anthony Volpe</t>
   </si>
   <si>
+    <t>Adam Duvall</t>
+  </si>
+  <si>
     <t>Tanner Scott</t>
   </si>
   <si>
     <t>David Robertson</t>
   </si>
   <si>
-    <t>Adam Duvall</t>
+    <t>Matt Bush</t>
+  </si>
+  <si>
+    <t>Tejay Antone</t>
   </si>
   <si>
     <t>John Schreiber</t>
   </si>
   <si>
-    <t>Tejay Antone</t>
-  </si>
-  <si>
-    <t>Matt Bush</t>
+    <t>Christian Arroyo</t>
   </si>
   <si>
     <t>Ryne Nelson</t>
   </si>
   <si>
-    <t>Christian Arroyo</t>
-  </si>
-  <si>
     <t>David Fletcher</t>
   </si>
   <si>
@@ -1390,21 +1390,21 @@
     <t>Rodolfo Castro</t>
   </si>
   <si>
+    <t>Graham Ashcraft</t>
+  </si>
+  <si>
     <t>Austin Nola</t>
   </si>
   <si>
-    <t>Graham Ashcraft</t>
-  </si>
-  <si>
     <t>Brandon Belt</t>
   </si>
   <si>
+    <t>Aaron Bummer</t>
+  </si>
+  <si>
     <t>Joe Kelly</t>
   </si>
   <si>
-    <t>Aaron Bummer</t>
-  </si>
-  <si>
     <t>Joe Jimenez</t>
   </si>
   <si>
@@ -1417,39 +1417,39 @@
     <t>Hector Neris</t>
   </si>
   <si>
+    <t>Diego Castillo</t>
+  </si>
+  <si>
     <t>Mitch Garver</t>
   </si>
   <si>
-    <t>Diego Castillo</t>
+    <t>Collin McHugh</t>
+  </si>
+  <si>
+    <t>Clarke Schmidt</t>
+  </si>
+  <si>
+    <t>JP Sears</t>
+  </si>
+  <si>
+    <t>Andrew</t>
   </si>
   <si>
     <t>Chas McCormick</t>
   </si>
   <si>
-    <t>Clarke Schmidt</t>
-  </si>
-  <si>
-    <t>JP Sears</t>
+    <t>Trevor Stephan</t>
   </si>
   <si>
     <t>Brett Baty</t>
   </si>
   <si>
+    <t>Michael Lorenzen</t>
+  </si>
+  <si>
     <t>Josh Donaldson</t>
   </si>
   <si>
-    <t>Collin McHugh</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Michael Lorenzen</t>
-  </si>
-  <si>
-    <t>Trevor Stephan</t>
-  </si>
-  <si>
     <t>Nate Pearson</t>
   </si>
   <si>
@@ -1474,88 +1474,91 @@
     <t>Brice Turang</t>
   </si>
   <si>
+    <t>Jonathan Schoop</t>
+  </si>
+  <si>
+    <t>Matthew Boyd</t>
+  </si>
+  <si>
     <t>Gavin Sheets</t>
   </si>
   <si>
-    <t>Jonathan Schoop</t>
-  </si>
-  <si>
-    <t>Matthew Boyd</t>
+    <t>Kyle Freeland</t>
+  </si>
+  <si>
+    <t>Ryan Pepiot</t>
+  </si>
+  <si>
+    <t>Jordan Lyles</t>
+  </si>
+  <si>
+    <t>Paul Blackburn</t>
+  </si>
+  <si>
+    <t>Spencer Steer</t>
+  </si>
+  <si>
+    <t>Matt Manning</t>
   </si>
   <si>
     <t>Franmil Reyes</t>
   </si>
   <si>
-    <t>Kyle Freeland</t>
-  </si>
-  <si>
-    <t>Matt Manning</t>
-  </si>
-  <si>
     <t>Isiah KinerFalefa</t>
   </si>
   <si>
-    <t>Ryan Pepiot</t>
-  </si>
-  <si>
-    <t>Jordan Lyles</t>
-  </si>
-  <si>
-    <t>Spencer Steer</t>
-  </si>
-  <si>
-    <t>Paul Blackburn</t>
+    <t>Ian Anderson</t>
+  </si>
+  <si>
+    <t>Dean Kremer</t>
+  </si>
+  <si>
+    <t>Patrick Corbin</t>
+  </si>
+  <si>
+    <t>Zach Plesac</t>
+  </si>
+  <si>
+    <t>Endy Rodriguez</t>
   </si>
   <si>
     <t>Santiago Espinal</t>
   </si>
   <si>
-    <t>Ian Anderson</t>
-  </si>
-  <si>
-    <t>Dean Kremer</t>
-  </si>
-  <si>
-    <t>Patrick Corbin</t>
-  </si>
-  <si>
     <t>Ryan Jeffers</t>
   </si>
   <si>
-    <t>Zach Plesac</t>
-  </si>
-  <si>
-    <t>Endy Rodriguez</t>
+    <t>Kyle Farmer</t>
+  </si>
+  <si>
+    <t>Victor Robles</t>
   </si>
   <si>
     <t>Drew Waters</t>
   </si>
   <si>
-    <t>Kyle Farmer</t>
-  </si>
-  <si>
-    <t>Victor Robles</t>
+    <t>Nelson Cruz</t>
+  </si>
+  <si>
+    <t>Domingo Acevedo</t>
   </si>
   <si>
     <t>Jack Suwinski</t>
   </si>
   <si>
-    <t>Nelson Cruz</t>
-  </si>
-  <si>
-    <t>Domingo Acevedo</t>
-  </si>
-  <si>
     <t>Yan Gomes</t>
   </si>
   <si>
+    <t>Adrian Houser</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
     <t>Aledmys Diaz</t>
   </si>
   <si>
-    <t>Adrian Houser</t>
-  </si>
-  <si>
-    <t>Kyle Hendricks</t>
+    <t>Luis Campusano</t>
   </si>
   <si>
     <t>Will Brennan</t>
@@ -1564,72 +1567,69 @@
     <t>Nick Martinez</t>
   </si>
   <si>
-    <t>Luis Campusano</t>
-  </si>
-  <si>
     <t>Nick Senzel</t>
   </si>
   <si>
     <t>Kevin Kiermaier</t>
   </si>
   <si>
+    <t>James Kaprielian</t>
+  </si>
+  <si>
+    <t>Jarren Duran</t>
+  </si>
+  <si>
     <t>Francisco Mejia</t>
   </si>
   <si>
-    <t>James Kaprielian</t>
-  </si>
-  <si>
-    <t>Jarren Duran</t>
-  </si>
-  <si>
     <t>Daniel Lynch</t>
   </si>
   <si>
     <t>Kris Bubic</t>
   </si>
   <si>
+    <t>Kyle Lewis</t>
+  </si>
+  <si>
     <t>James Outman</t>
   </si>
   <si>
+    <t>Kevin Ginkel</t>
+  </si>
+  <si>
+    <t>Brian Anderson</t>
+  </si>
+  <si>
     <t>Jesus Sanchez</t>
   </si>
   <si>
-    <t>Kyle Lewis</t>
-  </si>
-  <si>
-    <t>Kevin Ginkel</t>
-  </si>
-  <si>
-    <t>Brian Anderson</t>
+    <t>Carlos Santana</t>
+  </si>
+  <si>
+    <t>Sixto Sanchez</t>
+  </si>
+  <si>
+    <t>Bailey Falter</t>
   </si>
   <si>
     <t>Michael Massey</t>
   </si>
   <si>
-    <t>Carlos Santana</t>
-  </si>
-  <si>
-    <t>Sixto Sanchez</t>
-  </si>
-  <si>
-    <t>Bailey Falter</t>
+    <t>Sal Frelick</t>
+  </si>
+  <si>
+    <t>Mike Zunino</t>
   </si>
   <si>
     <t>Nolan Jones</t>
   </si>
   <si>
+    <t>Nick Pratto</t>
+  </si>
+  <si>
     <t>JiMan Choi</t>
   </si>
   <si>
-    <t>Sal Frelick</t>
-  </si>
-  <si>
-    <t>Mike Zunino</t>
-  </si>
-  <si>
-    <t>Nick Pratto</t>
-  </si>
-  <si>
     <t>Omar Narvaez</t>
   </si>
   <si>
@@ -1645,21 +1645,21 @@
     <t>Reese McGuire</t>
   </si>
   <si>
+    <t>Jonathan Aranda</t>
+  </si>
+  <si>
+    <t>Jordan Hicks</t>
+  </si>
+  <si>
+    <t>LaMonte Wade Jr.</t>
+  </si>
+  <si>
+    <t>Adrian Morejon</t>
+  </si>
+  <si>
     <t>Elly De La Cruz</t>
   </si>
   <si>
-    <t>Jonathan Aranda</t>
-  </si>
-  <si>
-    <t>Jordan Hicks</t>
-  </si>
-  <si>
-    <t>LaMonte Wade Jr.</t>
-  </si>
-  <si>
-    <t>Adrian Morejon</t>
-  </si>
-  <si>
     <t>Hunter Harvey</t>
   </si>
   <si>
@@ -1681,12 +1681,12 @@
     <t>Stone Garrett</t>
   </si>
   <si>
+    <t>Garrett Crochet</t>
+  </si>
+  <si>
     <t>Bryce Elder</t>
   </si>
   <si>
-    <t>Garrett Crochet</t>
-  </si>
-  <si>
     <t>Rich Hill</t>
   </si>
   <si>
@@ -2440,12 +2440,12 @@
     <t>CF</t>
   </si>
   <si>
+    <t>3B</t>
+  </si>
+  <si>
     <t>3B,SS</t>
   </si>
   <si>
-    <t>3B</t>
-  </si>
-  <si>
     <t>SS</t>
   </si>
   <si>
@@ -2470,12 +2470,12 @@
     <t>1B,LF</t>
   </si>
   <si>
+    <t>CF,DH,LF,RF</t>
+  </si>
+  <si>
     <t>C,1B</t>
   </si>
   <si>
-    <t>CF,DH,LF,RF</t>
-  </si>
-  <si>
     <t>CF,DH,RF</t>
   </si>
   <si>
@@ -2494,12 +2494,12 @@
     <t>CF,LF</t>
   </si>
   <si>
+    <t>2B,RF,SS</t>
+  </si>
+  <si>
     <t>C,DH</t>
   </si>
   <si>
-    <t>2B,RF,SS</t>
-  </si>
-  <si>
     <t>CF,DH</t>
   </si>
   <si>
@@ -2647,10 +2647,10 @@
     <t>1B,2B</t>
   </si>
   <si>
+    <t>1B,3B,SS</t>
+  </si>
+  <si>
     <t>RF,DH</t>
-  </si>
-  <si>
-    <t>1B,3B,SS</t>
   </si>
   <si>
     <t>DH</t>
@@ -3480,7 +3480,7 @@
         <v>807</v>
       </c>
       <c r="D17" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3494,7 +3494,7 @@
         <v>808</v>
       </c>
       <c r="D18" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3519,7 +3519,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D20" t="s">
         <v>910</v>
@@ -3715,7 +3715,7 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D34" t="s">
         <v>912</v>
@@ -4012,7 +4012,7 @@
         <v>817</v>
       </c>
       <c r="D55" t="s">
-        <v>899</v>
+        <v>914</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4026,7 +4026,7 @@
         <v>818</v>
       </c>
       <c r="D56" t="s">
-        <v>914</v>
+        <v>899</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4093,7 +4093,7 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D61" t="s">
         <v>903</v>
@@ -4177,10 +4177,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
       <c r="D67" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4191,10 +4191,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="D68" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4261,10 +4261,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="D73" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4275,10 +4275,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="D74" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4289,10 +4289,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="D75" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4348,7 +4348,7 @@
         <v>825</v>
       </c>
       <c r="D79" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4362,7 +4362,7 @@
         <v>826</v>
       </c>
       <c r="D80" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4373,7 +4373,7 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D81" t="s">
         <v>906</v>
@@ -4429,7 +4429,7 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D85" t="s">
         <v>916</v>
@@ -4471,7 +4471,7 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D88" t="s">
         <v>917</v>
@@ -4793,7 +4793,7 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="D111" t="s">
         <v>917</v>
@@ -4807,7 +4807,7 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D112" t="s">
         <v>917</v>
@@ -4905,7 +4905,7 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D119" t="s">
         <v>905</v>
@@ -5003,7 +5003,7 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D126" t="s">
         <v>912</v>
@@ -5283,10 +5283,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>795</v>
+        <v>836</v>
       </c>
       <c r="D146" t="s">
-        <v>919</v>
+        <v>902</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5297,10 +5297,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>836</v>
+        <v>795</v>
       </c>
       <c r="D147" t="s">
-        <v>902</v>
+        <v>919</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5367,10 +5367,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="D152" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5381,10 +5381,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="D153" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5423,7 +5423,7 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D156" t="s">
         <v>905</v>
@@ -5507,7 +5507,7 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D162" t="s">
         <v>900</v>
@@ -5563,7 +5563,7 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D166" t="s">
         <v>920</v>
@@ -5577,7 +5577,7 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="D167" t="s">
         <v>902</v>
@@ -5591,7 +5591,7 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D168" t="s">
         <v>902</v>
@@ -5619,7 +5619,7 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D170" t="s">
         <v>908</v>
@@ -5815,7 +5815,7 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D184" t="s">
         <v>924</v>
@@ -6011,10 +6011,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="D198" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -6025,10 +6025,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="D199" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -6333,7 +6333,7 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D221" t="s">
         <v>907</v>
@@ -6543,7 +6543,7 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D236" t="s">
         <v>914</v>
@@ -6739,7 +6739,7 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D250" t="s">
         <v>910</v>
@@ -6879,10 +6879,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="D260" t="s">
-        <v>923</v>
+        <v>899</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6893,10 +6893,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="D261" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6907,10 +6907,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="D262" t="s">
-        <v>899</v>
+        <v>912</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -7005,7 +7005,7 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D269" t="s">
         <v>915</v>
@@ -7204,7 +7204,7 @@
         <v>822</v>
       </c>
       <c r="D283" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7218,7 +7218,7 @@
         <v>822</v>
       </c>
       <c r="D284" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7271,7 +7271,7 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D288" t="s">
         <v>912</v>
@@ -7425,10 +7425,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>805</v>
+        <v>824</v>
       </c>
       <c r="D299" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -7439,10 +7439,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="D300" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7607,10 +7607,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="D312" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7621,10 +7621,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="D313" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -8139,10 +8139,10 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="D350" t="s">
-        <v>925</v>
+        <v>900</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -8153,10 +8153,10 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>836</v>
+        <v>805</v>
       </c>
       <c r="D351" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -8167,10 +8167,10 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="D352" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -8209,10 +8209,10 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>805</v>
+        <v>826</v>
       </c>
       <c r="D355" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8223,10 +8223,10 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="D356" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8237,10 +8237,10 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>809</v>
+        <v>862</v>
       </c>
       <c r="D357" t="s">
-        <v>898</v>
+        <v>921</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8251,10 +8251,10 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>862</v>
+        <v>809</v>
       </c>
       <c r="D358" t="s">
-        <v>921</v>
+        <v>898</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8391,7 +8391,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D368" t="s">
         <v>907</v>
@@ -8685,10 +8685,10 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="D389" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -8699,10 +8699,10 @@
         <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="D390" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8713,10 +8713,10 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>865</v>
+        <v>821</v>
       </c>
       <c r="D391" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -8727,10 +8727,10 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>812</v>
+        <v>867</v>
       </c>
       <c r="D392" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -8741,10 +8741,10 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D393" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -8755,10 +8755,10 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="D394" t="s">
-        <v>920</v>
+        <v>898</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8769,10 +8769,10 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
       <c r="D395" t="s">
-        <v>898</v>
+        <v>920</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -8811,7 +8811,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D398" t="s">
         <v>927</v>
@@ -8853,10 +8853,10 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>805</v>
+        <v>855</v>
       </c>
       <c r="D401" t="s">
-        <v>898</v>
+        <v>917</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -8870,7 +8870,7 @@
         <v>805</v>
       </c>
       <c r="D402" t="s">
-        <v>927</v>
+        <v>898</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -8881,10 +8881,10 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>855</v>
+        <v>805</v>
       </c>
       <c r="D403" t="s">
-        <v>917</v>
+        <v>899</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -8898,7 +8898,7 @@
         <v>805</v>
       </c>
       <c r="D404" t="s">
-        <v>899</v>
+        <v>917</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -8937,10 +8937,10 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="D407" t="s">
-        <v>907</v>
+        <v>931</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -8951,10 +8951,10 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="D408" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -8965,10 +8965,10 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D409" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -8979,10 +8979,10 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>806</v>
+        <v>832</v>
       </c>
       <c r="D410" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -8993,10 +8993,10 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="D411" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -9007,10 +9007,10 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D412" t="s">
-        <v>901</v>
+        <v>924</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -9021,10 +9021,10 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D413" t="s">
-        <v>920</v>
+        <v>901</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -9035,10 +9035,10 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="D414" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -9049,10 +9049,10 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>805</v>
+        <v>848</v>
       </c>
       <c r="D415" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -9063,10 +9063,10 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>848</v>
+        <v>805</v>
       </c>
       <c r="D416" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -9077,10 +9077,10 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>855</v>
+        <v>809</v>
       </c>
       <c r="D417" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -9091,10 +9091,10 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>809</v>
+        <v>855</v>
       </c>
       <c r="D418" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9119,7 +9119,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D420" t="s">
         <v>926</v>
@@ -9161,10 +9161,10 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>841</v>
+        <v>806</v>
       </c>
       <c r="D423" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9175,10 +9175,10 @@
         <v>425</v>
       </c>
       <c r="C424" t="s">
-        <v>806</v>
+        <v>841</v>
       </c>
       <c r="D424" t="s">
-        <v>914</v>
+        <v>923</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -9245,10 +9245,10 @@
         <v>429</v>
       </c>
       <c r="C429" t="s">
-        <v>837</v>
+        <v>805</v>
       </c>
       <c r="D429" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9259,10 +9259,10 @@
         <v>430</v>
       </c>
       <c r="C430" t="s">
-        <v>805</v>
+        <v>837</v>
       </c>
       <c r="D430" t="s">
-        <v>910</v>
+        <v>925</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9287,10 +9287,10 @@
         <v>432</v>
       </c>
       <c r="C432" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="D432" t="s">
-        <v>916</v>
+        <v>932</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -9301,10 +9301,10 @@
         <v>433</v>
       </c>
       <c r="C433" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="D433" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9315,10 +9315,10 @@
         <v>434</v>
       </c>
       <c r="C434" t="s">
-        <v>851</v>
+        <v>804</v>
       </c>
       <c r="D434" t="s">
-        <v>898</v>
+        <v>919</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -9329,10 +9329,10 @@
         <v>435</v>
       </c>
       <c r="C435" t="s">
-        <v>804</v>
+        <v>851</v>
       </c>
       <c r="D435" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -9371,7 +9371,7 @@
         <v>438</v>
       </c>
       <c r="C438" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D438" t="s">
         <v>933</v>
@@ -9385,10 +9385,10 @@
         <v>439</v>
       </c>
       <c r="C439" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="D439" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -9399,10 +9399,10 @@
         <v>440</v>
       </c>
       <c r="C440" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="D440" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -9427,10 +9427,10 @@
         <v>442</v>
       </c>
       <c r="C442" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="D442" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -9441,10 +9441,10 @@
         <v>443</v>
       </c>
       <c r="C443" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
       <c r="D443" t="s">
-        <v>902</v>
+        <v>923</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -9483,10 +9483,10 @@
         <v>446</v>
       </c>
       <c r="C446" t="s">
-        <v>812</v>
+        <v>832</v>
       </c>
       <c r="D446" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9500,7 +9500,7 @@
         <v>812</v>
       </c>
       <c r="D447" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -9511,10 +9511,10 @@
         <v>448</v>
       </c>
       <c r="C448" t="s">
-        <v>832</v>
+        <v>812</v>
       </c>
       <c r="D448" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -9525,10 +9525,10 @@
         <v>449</v>
       </c>
       <c r="C449" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D449" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -9553,10 +9553,10 @@
         <v>451</v>
       </c>
       <c r="C451" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D451" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -9567,10 +9567,10 @@
         <v>452</v>
       </c>
       <c r="C452" t="s">
-        <v>805</v>
+        <v>873</v>
       </c>
       <c r="D452" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9581,10 +9581,10 @@
         <v>453</v>
       </c>
       <c r="C453" t="s">
-        <v>873</v>
+        <v>805</v>
       </c>
       <c r="D453" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -9637,10 +9637,10 @@
         <v>457</v>
       </c>
       <c r="C457" t="s">
-        <v>851</v>
+        <v>805</v>
       </c>
       <c r="D457" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -9651,10 +9651,10 @@
         <v>458</v>
       </c>
       <c r="C458" t="s">
-        <v>805</v>
+        <v>851</v>
       </c>
       <c r="D458" t="s">
-        <v>924</v>
+        <v>904</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -9763,10 +9763,10 @@
         <v>466</v>
       </c>
       <c r="C466" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="D466" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -9777,10 +9777,10 @@
         <v>467</v>
       </c>
       <c r="C467" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
       <c r="D467" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -9791,10 +9791,10 @@
         <v>468</v>
       </c>
       <c r="C468" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="D468" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -9833,10 +9833,10 @@
         <v>471</v>
       </c>
       <c r="C471" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="D471" t="s">
-        <v>911</v>
+        <v>934</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -9847,10 +9847,10 @@
         <v>472</v>
       </c>
       <c r="C472" t="s">
-        <v>797</v>
+        <v>832</v>
       </c>
       <c r="D472" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -9861,10 +9861,10 @@
         <v>473</v>
       </c>
       <c r="C473" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="D473" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -9875,10 +9875,10 @@
         <v>474</v>
       </c>
       <c r="C474" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="D474" t="s">
-        <v>934</v>
+        <v>911</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -9903,10 +9903,10 @@
         <v>476</v>
       </c>
       <c r="C476" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="D476" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -10029,10 +10029,10 @@
         <v>485</v>
       </c>
       <c r="C485" t="s">
-        <v>845</v>
+        <v>875</v>
       </c>
       <c r="D485" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -10043,7 +10043,7 @@
         <v>486</v>
       </c>
       <c r="C486" t="s">
-        <v>875</v>
+        <v>814</v>
       </c>
       <c r="D486" t="s">
         <v>925</v>
@@ -10057,10 +10057,10 @@
         <v>487</v>
       </c>
       <c r="C487" t="s">
-        <v>814</v>
+        <v>845</v>
       </c>
       <c r="D487" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -10071,10 +10071,10 @@
         <v>488</v>
       </c>
       <c r="C488" t="s">
-        <v>876</v>
+        <v>805</v>
       </c>
       <c r="D488" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -10088,7 +10088,7 @@
         <v>805</v>
       </c>
       <c r="D489" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -10102,7 +10102,7 @@
         <v>805</v>
       </c>
       <c r="D490" t="s">
-        <v>925</v>
+        <v>909</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -10113,10 +10113,10 @@
         <v>491</v>
       </c>
       <c r="C491" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D491" t="s">
-        <v>898</v>
+        <v>927</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -10127,10 +10127,10 @@
         <v>492</v>
       </c>
       <c r="C492" t="s">
-        <v>805</v>
+        <v>876</v>
       </c>
       <c r="D492" t="s">
-        <v>906</v>
+        <v>924</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -10144,7 +10144,7 @@
         <v>805</v>
       </c>
       <c r="D493" t="s">
-        <v>909</v>
+        <v>925</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -10158,7 +10158,7 @@
         <v>877</v>
       </c>
       <c r="D494" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -10169,10 +10169,10 @@
         <v>495</v>
       </c>
       <c r="C495" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="D495" t="s">
-        <v>927</v>
+        <v>898</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -10183,10 +10183,10 @@
         <v>496</v>
       </c>
       <c r="C496" t="s">
-        <v>855</v>
+        <v>805</v>
       </c>
       <c r="D496" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -10200,7 +10200,7 @@
         <v>805</v>
       </c>
       <c r="D497" t="s">
-        <v>900</v>
+        <v>917</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -10214,7 +10214,7 @@
         <v>805</v>
       </c>
       <c r="D498" t="s">
-        <v>917</v>
+        <v>926</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -10228,7 +10228,7 @@
         <v>805</v>
       </c>
       <c r="D499" t="s">
-        <v>926</v>
+        <v>901</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -10242,7 +10242,7 @@
         <v>851</v>
       </c>
       <c r="D500" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -10253,10 +10253,10 @@
         <v>501</v>
       </c>
       <c r="C501" t="s">
-        <v>805</v>
+        <v>855</v>
       </c>
       <c r="D501" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10270,7 +10270,7 @@
         <v>851</v>
       </c>
       <c r="D502" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -10281,10 +10281,10 @@
         <v>503</v>
       </c>
       <c r="C503" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="D503" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10295,10 +10295,10 @@
         <v>504</v>
       </c>
       <c r="C504" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D504" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -10309,10 +10309,10 @@
         <v>505</v>
       </c>
       <c r="C505" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="D505" t="s">
-        <v>926</v>
+        <v>909</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10323,10 +10323,10 @@
         <v>506</v>
       </c>
       <c r="C506" t="s">
-        <v>828</v>
+        <v>878</v>
       </c>
       <c r="D506" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -10337,10 +10337,10 @@
         <v>507</v>
       </c>
       <c r="C507" t="s">
-        <v>878</v>
+        <v>812</v>
       </c>
       <c r="D507" t="s">
-        <v>904</v>
+        <v>927</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10351,10 +10351,10 @@
         <v>508</v>
       </c>
       <c r="C508" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="D508" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10379,10 +10379,10 @@
         <v>510</v>
       </c>
       <c r="C510" t="s">
-        <v>879</v>
+        <v>805</v>
       </c>
       <c r="D510" t="s">
-        <v>927</v>
+        <v>908</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10396,7 +10396,7 @@
         <v>805</v>
       </c>
       <c r="D511" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10407,10 +10407,10 @@
         <v>512</v>
       </c>
       <c r="C512" t="s">
-        <v>805</v>
+        <v>879</v>
       </c>
       <c r="D512" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10421,10 +10421,10 @@
         <v>513</v>
       </c>
       <c r="C513" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="D513" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10435,10 +10435,10 @@
         <v>514</v>
       </c>
       <c r="C514" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="D514" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10449,7 +10449,7 @@
         <v>515</v>
       </c>
       <c r="C515" t="s">
-        <v>851</v>
+        <v>814</v>
       </c>
       <c r="D515" t="s">
         <v>904</v>
@@ -10491,10 +10491,10 @@
         <v>518</v>
       </c>
       <c r="C518" t="s">
-        <v>851</v>
+        <v>805</v>
       </c>
       <c r="D518" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10505,10 +10505,10 @@
         <v>519</v>
       </c>
       <c r="C519" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="D519" t="s">
-        <v>927</v>
+        <v>910</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10519,10 +10519,10 @@
         <v>520</v>
       </c>
       <c r="C520" t="s">
-        <v>798</v>
+        <v>851</v>
       </c>
       <c r="D520" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10561,10 +10561,10 @@
         <v>523</v>
       </c>
       <c r="C523" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D523" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10575,10 +10575,10 @@
         <v>524</v>
       </c>
       <c r="C524" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D524" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10589,7 +10589,7 @@
         <v>525</v>
       </c>
       <c r="C525" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D525" t="s">
         <v>918</v>
@@ -10603,10 +10603,10 @@
         <v>526</v>
       </c>
       <c r="C526" t="s">
-        <v>812</v>
+        <v>881</v>
       </c>
       <c r="D526" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10617,10 +10617,10 @@
         <v>527</v>
       </c>
       <c r="C527" t="s">
-        <v>881</v>
+        <v>828</v>
       </c>
       <c r="D527" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10631,10 +10631,10 @@
         <v>528</v>
       </c>
       <c r="C528" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="D528" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10645,10 +10645,10 @@
         <v>529</v>
       </c>
       <c r="C529" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="D529" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -10659,10 +10659,10 @@
         <v>530</v>
       </c>
       <c r="C530" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="D530" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -10673,10 +10673,10 @@
         <v>531</v>
       </c>
       <c r="C531" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D531" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10687,10 +10687,10 @@
         <v>532</v>
       </c>
       <c r="C532" t="s">
-        <v>882</v>
+        <v>806</v>
       </c>
       <c r="D532" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10701,10 +10701,10 @@
         <v>533</v>
       </c>
       <c r="C533" t="s">
-        <v>804</v>
+        <v>851</v>
       </c>
       <c r="D533" t="s">
-        <v>920</v>
+        <v>901</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10715,10 +10715,10 @@
         <v>534</v>
       </c>
       <c r="C534" t="s">
-        <v>806</v>
+        <v>882</v>
       </c>
       <c r="D534" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -10729,10 +10729,10 @@
         <v>535</v>
       </c>
       <c r="C535" t="s">
-        <v>851</v>
+        <v>816</v>
       </c>
       <c r="D535" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10743,10 +10743,10 @@
         <v>536</v>
       </c>
       <c r="C536" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="D536" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -10827,10 +10827,10 @@
         <v>542</v>
       </c>
       <c r="C542" t="s">
-        <v>807</v>
+        <v>836</v>
       </c>
       <c r="D542" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -10841,10 +10841,10 @@
         <v>543</v>
       </c>
       <c r="C543" t="s">
-        <v>836</v>
+        <v>814</v>
       </c>
       <c r="D543" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -10855,10 +10855,10 @@
         <v>544</v>
       </c>
       <c r="C544" t="s">
-        <v>814</v>
+        <v>862</v>
       </c>
       <c r="D544" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -10869,10 +10869,10 @@
         <v>545</v>
       </c>
       <c r="C545" t="s">
-        <v>862</v>
+        <v>814</v>
       </c>
       <c r="D545" t="s">
-        <v>923</v>
+        <v>904</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -10883,10 +10883,10 @@
         <v>546</v>
       </c>
       <c r="C546" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="D546" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -10995,10 +10995,10 @@
         <v>554</v>
       </c>
       <c r="C554" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="D554" t="s">
-        <v>900</v>
+        <v>915</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -11009,10 +11009,10 @@
         <v>555</v>
       </c>
       <c r="C555" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="D555" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -11121,7 +11121,7 @@
         <v>563</v>
       </c>
       <c r="C563" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D563" t="s">
         <v>918</v>
@@ -11205,7 +11205,7 @@
         <v>569</v>
       </c>
       <c r="C569" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D569" t="s">
         <v>926</v>
@@ -11555,7 +11555,7 @@
         <v>594</v>
       </c>
       <c r="C594" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D594" t="s">
         <v>913</v>
@@ -11566,7 +11566,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C595" t="s">
         <v>859</v>
@@ -11681,7 +11681,7 @@
         <v>602</v>
       </c>
       <c r="C603" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D603" t="s">
         <v>915</v>
@@ -12255,7 +12255,7 @@
         <v>643</v>
       </c>
       <c r="C644" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D644" t="s">
         <v>901</v>
@@ -12311,7 +12311,7 @@
         <v>647</v>
       </c>
       <c r="C648" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D648" t="s">
         <v>917</v>
@@ -12423,7 +12423,7 @@
         <v>655</v>
       </c>
       <c r="C656" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D656" t="s">
         <v>904</v>
@@ -12647,7 +12647,7 @@
         <v>671</v>
       </c>
       <c r="C672" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D672" t="s">
         <v>898</v>
@@ -12731,7 +12731,7 @@
         <v>677</v>
       </c>
       <c r="C678" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D678" t="s">
         <v>925</v>
@@ -12815,7 +12815,7 @@
         <v>683</v>
       </c>
       <c r="C684" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D684" t="s">
         <v>918</v>
@@ -12857,7 +12857,7 @@
         <v>686</v>
       </c>
       <c r="C687" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D687" t="s">
         <v>918</v>
@@ -13235,7 +13235,7 @@
         <v>712</v>
       </c>
       <c r="C714" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D714" t="s">
         <v>926</v>
@@ -13862,7 +13862,7 @@
         <v>758</v>
       </c>
       <c r="B759" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C759" t="s">
         <v>822</v>
@@ -14075,7 +14075,7 @@
         <v>768</v>
       </c>
       <c r="C774" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D774" t="s">
         <v>923</v>

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="929">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -223,12 +223,12 @@
     <t>Teoscar Hernandez</t>
   </si>
   <si>
+    <t>Yu Darvish</t>
+  </si>
+  <si>
     <t>Cristian Javier</t>
   </si>
   <si>
-    <t>Yu Darvish</t>
-  </si>
-  <si>
     <t>Eloy Jimenez</t>
   </si>
   <si>
@@ -286,15 +286,15 @@
     <t>Wander Franco</t>
   </si>
   <si>
+    <t>Willy Adames</t>
+  </si>
+  <si>
     <t>Jose Abreu</t>
   </si>
   <si>
     <t>Robbie Ray</t>
   </si>
   <si>
-    <t>Willy Adames</t>
-  </si>
-  <si>
     <t>Andres Gimenez</t>
   </si>
   <si>
@@ -316,12 +316,12 @@
     <t>Corbin Carroll</t>
   </si>
   <si>
+    <t>Carlos Correa</t>
+  </si>
+  <si>
     <t>Rhys Hoskins</t>
   </si>
   <si>
-    <t>Carlos Correa</t>
-  </si>
-  <si>
     <t>Nestor Cortes Jr.</t>
   </si>
   <si>
@@ -334,6 +334,9 @@
     <t>Camilo Doval</t>
   </si>
   <si>
+    <t>Kyle Wright</t>
+  </si>
+  <si>
     <t>Logan Webb</t>
   </si>
   <si>
@@ -343,9 +346,6 @@
     <t>Steven Kwan</t>
   </si>
   <si>
-    <t>Kyle Wright</t>
-  </si>
-  <si>
     <t>Gunnar Henderson</t>
   </si>
   <si>
@@ -421,39 +421,39 @@
     <t>Jorge Polanco</t>
   </si>
   <si>
+    <t>Clay Holmes</t>
+  </si>
+  <si>
+    <t>Joe Ryan</t>
+  </si>
+  <si>
+    <t>Nick Lodolo</t>
+  </si>
+  <si>
+    <t>Lance Lynn</t>
+  </si>
+  <si>
+    <t>Scott Barlow</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
     <t>Liam Hendriks</t>
   </si>
   <si>
-    <t>Clay Holmes</t>
-  </si>
-  <si>
-    <t>Joe Ryan</t>
-  </si>
-  <si>
-    <t>Nick Lodolo</t>
-  </si>
-  <si>
-    <t>Lance Lynn</t>
-  </si>
-  <si>
-    <t>Scott Barlow</t>
-  </si>
-  <si>
-    <t>Anthony Rizzo</t>
-  </si>
-  <si>
     <t>Ian Happ</t>
   </si>
   <si>
     <t>Max Muncy</t>
   </si>
   <si>
+    <t>Lucas Giolito</t>
+  </si>
+  <si>
     <t>Andrew Vaughn</t>
   </si>
   <si>
-    <t>Lucas Giolito</t>
-  </si>
-  <si>
     <t>Chris Bassitt</t>
   </si>
   <si>
@@ -466,12 +466,12 @@
     <t>Pablo Lopez</t>
   </si>
   <si>
+    <t>Daniel Bard</t>
+  </si>
+  <si>
     <t>Nico Hoerner</t>
   </si>
   <si>
-    <t>Daniel Bard</t>
-  </si>
-  <si>
     <t>Brandon Nimmo</t>
   </si>
   <si>
@@ -541,24 +541,24 @@
     <t>Luis Arraez</t>
   </si>
   <si>
+    <t>Alex Verdugo</t>
+  </si>
+  <si>
     <t>Jake Cronenworth</t>
   </si>
   <si>
-    <t>Alex Verdugo</t>
-  </si>
-  <si>
     <t>Tony Gonsolin</t>
   </si>
   <si>
     <t>Paul Sewald</t>
   </si>
   <si>
+    <t>Brady Singer</t>
+  </si>
+  <si>
     <t>Oscar Gonzalez</t>
   </si>
   <si>
-    <t>Brady Singer</t>
-  </si>
-  <si>
     <t>Jonathan India</t>
   </si>
   <si>
@@ -601,15 +601,15 @@
     <t>Vaughn Grissom</t>
   </si>
   <si>
+    <t>Pete Fairbanks</t>
+  </si>
+  <si>
     <t>Riley Greene</t>
   </si>
   <si>
     <t>Josh Naylor</t>
   </si>
   <si>
-    <t>Pete Fairbanks</t>
-  </si>
-  <si>
     <t>Thairo Estrada</t>
   </si>
   <si>
@@ -664,15 +664,15 @@
     <t>Reid Detmers</t>
   </si>
   <si>
+    <t>Aaron Ashby</t>
+  </si>
+  <si>
     <t>Brendan Rodgers</t>
   </si>
   <si>
     <t>Ramon Laureano</t>
   </si>
   <si>
-    <t>Aaron Ashby</t>
-  </si>
-  <si>
     <t>Andrew Benintendi</t>
   </si>
   <si>
@@ -724,18 +724,18 @@
     <t>Austin Hays</t>
   </si>
   <si>
+    <t>Merrill Kelly</t>
+  </si>
+  <si>
+    <t>Jack Flaherty</t>
+  </si>
+  <si>
+    <t>Michael Conforto</t>
+  </si>
+  <si>
     <t>CJ Abrams</t>
   </si>
   <si>
-    <t>Merrill Kelly</t>
-  </si>
-  <si>
-    <t>Jack Flaherty</t>
-  </si>
-  <si>
-    <t>Michael Conforto</t>
-  </si>
-  <si>
     <t>Ezequiel Tovar</t>
   </si>
   <si>
@@ -757,6 +757,9 @@
     <t>Tyler Mahle</t>
   </si>
   <si>
+    <t>Adalberto Mondesi</t>
+  </si>
+  <si>
     <t>Charlie Blackmon</t>
   </si>
   <si>
@@ -766,18 +769,15 @@
     <t>Randal Grichuk</t>
   </si>
   <si>
-    <t>Adalberto Mondesi</t>
+    <t>Gavin Lux</t>
+  </si>
+  <si>
+    <t>Keibert Ruiz</t>
   </si>
   <si>
     <t>Jorge Mateo</t>
   </si>
   <si>
-    <t>Gavin Lux</t>
-  </si>
-  <si>
-    <t>Keibert Ruiz</t>
-  </si>
-  <si>
     <t>Trevor Rogers</t>
   </si>
   <si>
@@ -1000,18 +1000,21 @@
     <t>Alex Kirilloff</t>
   </si>
   <si>
+    <t>Brandon Hughes</t>
+  </si>
+  <si>
     <t>Nick Gordon</t>
   </si>
   <si>
     <t>Kenta Maeda</t>
   </si>
   <si>
+    <t>Aroldis Chapman</t>
+  </si>
+  <si>
     <t>Brendan Donovan</t>
   </si>
   <si>
-    <t>Brandon Hughes</t>
-  </si>
-  <si>
     <t>Steven Matz</t>
   </si>
   <si>
@@ -1021,108 +1024,105 @@
     <t>Garrett Mitchell</t>
   </si>
   <si>
+    <t>Kendall Graveman</t>
+  </si>
+  <si>
+    <t>Christian Vazquez</t>
+  </si>
+  <si>
+    <t>Carlos Estevez</t>
+  </si>
+  <si>
+    <t>Alex Wood</t>
+  </si>
+  <si>
+    <t>Hayden Wesneski</t>
+  </si>
+  <si>
+    <t>Noah Syndergaard</t>
+  </si>
+  <si>
+    <t>Marcell Ozuna</t>
+  </si>
+  <si>
+    <t>Bubba Thompson</t>
+  </si>
+  <si>
+    <t>Trevor May</t>
+  </si>
+  <si>
+    <t>TJ Friedl</t>
+  </si>
+  <si>
+    <t>Gabriel Moreno</t>
+  </si>
+  <si>
+    <t>Andrew McCutchen</t>
+  </si>
+  <si>
+    <t>James Karinchak</t>
+  </si>
+  <si>
+    <t>Isaac Paredes</t>
+  </si>
+  <si>
+    <t>Oscar Colas</t>
+  </si>
+  <si>
+    <t>A.J. Puk</t>
+  </si>
+  <si>
+    <t>Oswald Peraza</t>
+  </si>
+  <si>
+    <t>Trayce Thompson</t>
+  </si>
+  <si>
+    <t>Francisco Alvarez</t>
+  </si>
+  <si>
+    <t>Aaron Civale</t>
+  </si>
+  <si>
+    <t>Drey Jameson</t>
+  </si>
+  <si>
+    <t>Kike Hernandez</t>
+  </si>
+  <si>
+    <t>A.J. Minter</t>
+  </si>
+  <si>
+    <t>Tarik Skubal</t>
+  </si>
+  <si>
+    <t>Eduardo Escobar</t>
+  </si>
+  <si>
+    <t>MacKenzie Gore</t>
+  </si>
+  <si>
+    <t>Wilmer Flores</t>
+  </si>
+  <si>
     <t>Jason Adam</t>
   </si>
   <si>
-    <t>Christian Vazquez</t>
-  </si>
-  <si>
-    <t>Carlos Estevez</t>
+    <t>Max Kepler</t>
+  </si>
+  <si>
+    <t>Jose Suarez</t>
+  </si>
+  <si>
+    <t>Nick Pivetta</t>
+  </si>
+  <si>
+    <t>German Marquez</t>
   </si>
   <si>
     <t>Rafael Montero</t>
   </si>
   <si>
-    <t>Alex Wood</t>
-  </si>
-  <si>
-    <t>Hayden Wesneski</t>
-  </si>
-  <si>
-    <t>Noah Syndergaard</t>
-  </si>
-  <si>
-    <t>Marcell Ozuna</t>
-  </si>
-  <si>
-    <t>Bubba Thompson</t>
-  </si>
-  <si>
-    <t>Trevor May</t>
-  </si>
-  <si>
-    <t>TJ Friedl</t>
-  </si>
-  <si>
-    <t>Gabriel Moreno</t>
-  </si>
-  <si>
-    <t>Andrew McCutchen</t>
-  </si>
-  <si>
-    <t>James Karinchak</t>
-  </si>
-  <si>
-    <t>Isaac Paredes</t>
-  </si>
-  <si>
-    <t>Oscar Colas</t>
-  </si>
-  <si>
-    <t>Oswald Peraza</t>
-  </si>
-  <si>
-    <t>Trayce Thompson</t>
-  </si>
-  <si>
-    <t>Francisco Alvarez</t>
-  </si>
-  <si>
-    <t>Aroldis Chapman</t>
-  </si>
-  <si>
-    <t>Aaron Civale</t>
-  </si>
-  <si>
-    <t>Drey Jameson</t>
-  </si>
-  <si>
-    <t>A.J. Puk</t>
-  </si>
-  <si>
-    <t>Kike Hernandez</t>
-  </si>
-  <si>
-    <t>A.J. Minter</t>
-  </si>
-  <si>
-    <t>Tarik Skubal</t>
-  </si>
-  <si>
-    <t>Eduardo Escobar</t>
-  </si>
-  <si>
-    <t>Kendall Graveman</t>
-  </si>
-  <si>
-    <t>MacKenzie Gore</t>
-  </si>
-  <si>
-    <t>Wilmer Flores</t>
-  </si>
-  <si>
-    <t>Max Kepler</t>
-  </si>
-  <si>
-    <t>Jose Suarez</t>
-  </si>
-  <si>
-    <t>Nick Pivetta</t>
-  </si>
-  <si>
-    <t>German Marquez</t>
-  </si>
-  <si>
     <t>Eric Haase</t>
   </si>
   <si>
@@ -1159,12 +1159,12 @@
     <t>Kyle Bradish</t>
   </si>
   <si>
+    <t>Harold Ramirez</t>
+  </si>
+  <si>
     <t>Jimmy Herget</t>
   </si>
   <si>
-    <t>Harold Ramirez</t>
-  </si>
-  <si>
     <t>Elvis</t>
   </si>
   <si>
@@ -2582,6 +2582,9 @@
   </si>
   <si>
     <t>1B,2B,3B,SS,RF</t>
+  </si>
+  <si>
+    <t>CF,SP</t>
   </si>
   <si>
     <t>1B,2B,3B,SS,LF</t>
@@ -3192,7 +3195,7 @@
         <v>794</v>
       </c>
       <c r="D2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3206,7 +3209,7 @@
         <v>795</v>
       </c>
       <c r="D3" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3220,7 +3223,7 @@
         <v>796</v>
       </c>
       <c r="D4" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3234,7 +3237,7 @@
         <v>797</v>
       </c>
       <c r="D5" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3248,7 +3251,7 @@
         <v>798</v>
       </c>
       <c r="D6" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3262,7 +3265,7 @@
         <v>799</v>
       </c>
       <c r="D7" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3276,7 +3279,7 @@
         <v>800</v>
       </c>
       <c r="D8" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3290,7 +3293,7 @@
         <v>799</v>
       </c>
       <c r="D9" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3304,7 +3307,7 @@
         <v>801</v>
       </c>
       <c r="D10" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3318,7 +3321,7 @@
         <v>802</v>
       </c>
       <c r="D11" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3332,7 +3335,7 @@
         <v>803</v>
       </c>
       <c r="D12" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3346,7 +3349,7 @@
         <v>804</v>
       </c>
       <c r="D13" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3360,7 +3363,7 @@
         <v>805</v>
       </c>
       <c r="D14" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3374,7 +3377,7 @@
         <v>798</v>
       </c>
       <c r="D15" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3388,7 +3391,7 @@
         <v>804</v>
       </c>
       <c r="D16" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3402,7 +3405,7 @@
         <v>806</v>
       </c>
       <c r="D17" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3416,7 +3419,7 @@
         <v>807</v>
       </c>
       <c r="D18" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3430,7 +3433,7 @@
         <v>794</v>
       </c>
       <c r="D19" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3444,7 +3447,7 @@
         <v>806</v>
       </c>
       <c r="D20" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3458,7 +3461,7 @@
         <v>801</v>
       </c>
       <c r="D21" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3472,7 +3475,7 @@
         <v>801</v>
       </c>
       <c r="D22" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3486,7 +3489,7 @@
         <v>794</v>
       </c>
       <c r="D23" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3500,7 +3503,7 @@
         <v>804</v>
       </c>
       <c r="D24" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3514,7 +3517,7 @@
         <v>806</v>
       </c>
       <c r="D25" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3528,7 +3531,7 @@
         <v>804</v>
       </c>
       <c r="D26" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3542,7 +3545,7 @@
         <v>808</v>
       </c>
       <c r="D27" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3556,7 +3559,7 @@
         <v>809</v>
       </c>
       <c r="D28" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3570,7 +3573,7 @@
         <v>798</v>
       </c>
       <c r="D29" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3584,7 +3587,7 @@
         <v>810</v>
       </c>
       <c r="D30" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3598,7 +3601,7 @@
         <v>794</v>
       </c>
       <c r="D31" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3612,7 +3615,7 @@
         <v>804</v>
       </c>
       <c r="D32" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3626,7 +3629,7 @@
         <v>804</v>
       </c>
       <c r="D33" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3640,7 +3643,7 @@
         <v>806</v>
       </c>
       <c r="D34" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3654,7 +3657,7 @@
         <v>804</v>
       </c>
       <c r="D35" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3668,7 +3671,7 @@
         <v>811</v>
       </c>
       <c r="D36" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3682,7 +3685,7 @@
         <v>804</v>
       </c>
       <c r="D37" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3696,7 +3699,7 @@
         <v>798</v>
       </c>
       <c r="D38" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3710,7 +3713,7 @@
         <v>809</v>
       </c>
       <c r="D39" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3724,7 +3727,7 @@
         <v>805</v>
       </c>
       <c r="D40" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3738,7 +3741,7 @@
         <v>804</v>
       </c>
       <c r="D41" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3752,7 +3755,7 @@
         <v>804</v>
       </c>
       <c r="D42" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3766,7 +3769,7 @@
         <v>812</v>
       </c>
       <c r="D43" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3780,7 +3783,7 @@
         <v>804</v>
       </c>
       <c r="D44" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3794,7 +3797,7 @@
         <v>804</v>
       </c>
       <c r="D45" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3808,7 +3811,7 @@
         <v>798</v>
       </c>
       <c r="D46" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3822,7 +3825,7 @@
         <v>809</v>
       </c>
       <c r="D47" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3836,7 +3839,7 @@
         <v>804</v>
       </c>
       <c r="D48" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3850,7 +3853,7 @@
         <v>813</v>
       </c>
       <c r="D49" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3864,7 +3867,7 @@
         <v>794</v>
       </c>
       <c r="D50" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3878,7 +3881,7 @@
         <v>804</v>
       </c>
       <c r="D51" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3892,7 +3895,7 @@
         <v>810</v>
       </c>
       <c r="D52" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3906,7 +3909,7 @@
         <v>810</v>
       </c>
       <c r="D53" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3920,7 +3923,7 @@
         <v>814</v>
       </c>
       <c r="D54" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3934,7 +3937,7 @@
         <v>809</v>
       </c>
       <c r="D55" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3948,7 +3951,7 @@
         <v>804</v>
       </c>
       <c r="D56" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3962,7 +3965,7 @@
         <v>795</v>
       </c>
       <c r="D57" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3976,7 +3979,7 @@
         <v>804</v>
       </c>
       <c r="D58" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3990,7 +3993,7 @@
         <v>795</v>
       </c>
       <c r="D59" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4004,7 +4007,7 @@
         <v>799</v>
       </c>
       <c r="D60" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4018,7 +4021,7 @@
         <v>806</v>
       </c>
       <c r="D61" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4032,7 +4035,7 @@
         <v>809</v>
       </c>
       <c r="D62" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4046,7 +4049,7 @@
         <v>804</v>
       </c>
       <c r="D63" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4060,7 +4063,7 @@
         <v>804</v>
       </c>
       <c r="D64" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4074,7 +4077,7 @@
         <v>799</v>
       </c>
       <c r="D65" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4085,10 +4088,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="D66" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4099,7 +4102,7 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="D67" t="s">
         <v>877</v>
@@ -4116,7 +4119,7 @@
         <v>800</v>
       </c>
       <c r="D68" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4130,7 +4133,7 @@
         <v>809</v>
       </c>
       <c r="D69" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4144,7 +4147,7 @@
         <v>804</v>
       </c>
       <c r="D70" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4158,7 +4161,7 @@
         <v>794</v>
       </c>
       <c r="D71" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4172,7 +4175,7 @@
         <v>794</v>
       </c>
       <c r="D72" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4186,7 +4189,7 @@
         <v>794</v>
       </c>
       <c r="D73" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4200,7 +4203,7 @@
         <v>804</v>
       </c>
       <c r="D74" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4214,7 +4217,7 @@
         <v>804</v>
       </c>
       <c r="D75" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4228,7 +4231,7 @@
         <v>815</v>
       </c>
       <c r="D76" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4242,7 +4245,7 @@
         <v>798</v>
       </c>
       <c r="D77" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4256,7 +4259,7 @@
         <v>809</v>
       </c>
       <c r="D78" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4270,7 +4273,7 @@
         <v>812</v>
       </c>
       <c r="D79" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4284,7 +4287,7 @@
         <v>816</v>
       </c>
       <c r="D80" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4298,7 +4301,7 @@
         <v>809</v>
       </c>
       <c r="D81" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4312,7 +4315,7 @@
         <v>816</v>
       </c>
       <c r="D82" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4326,7 +4329,7 @@
         <v>794</v>
       </c>
       <c r="D83" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4340,7 +4343,7 @@
         <v>809</v>
       </c>
       <c r="D84" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4354,7 +4357,7 @@
         <v>816</v>
       </c>
       <c r="D85" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4368,7 +4371,7 @@
         <v>794</v>
       </c>
       <c r="D86" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4379,10 +4382,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="D87" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4393,10 +4396,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D88" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4407,10 +4410,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="D89" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4424,7 +4427,7 @@
         <v>812</v>
       </c>
       <c r="D90" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4438,7 +4441,7 @@
         <v>817</v>
       </c>
       <c r="D91" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4452,7 +4455,7 @@
         <v>804</v>
       </c>
       <c r="D92" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4466,7 +4469,7 @@
         <v>805</v>
       </c>
       <c r="D93" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4480,7 +4483,7 @@
         <v>804</v>
       </c>
       <c r="D94" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4494,7 +4497,7 @@
         <v>801</v>
       </c>
       <c r="D95" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4508,7 +4511,7 @@
         <v>813</v>
       </c>
       <c r="D96" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4519,10 +4522,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="D97" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4533,10 +4536,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="D98" t="s">
-        <v>894</v>
+        <v>872</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4550,7 +4553,7 @@
         <v>804</v>
       </c>
       <c r="D99" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4564,7 +4567,7 @@
         <v>800</v>
       </c>
       <c r="D100" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4578,7 +4581,7 @@
         <v>801</v>
       </c>
       <c r="D101" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4592,7 +4595,7 @@
         <v>809</v>
       </c>
       <c r="D102" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4606,7 +4609,7 @@
         <v>804</v>
       </c>
       <c r="D103" t="s">
-        <v>896</v>
+        <v>874</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4617,10 +4620,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D104" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4631,10 +4634,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="D105" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4645,10 +4648,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
       <c r="D106" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4662,7 +4665,7 @@
         <v>807</v>
       </c>
       <c r="D107" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4676,7 +4679,7 @@
         <v>810</v>
       </c>
       <c r="D108" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4690,7 +4693,7 @@
         <v>804</v>
       </c>
       <c r="D109" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4704,7 +4707,7 @@
         <v>819</v>
       </c>
       <c r="D110" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4718,7 +4721,7 @@
         <v>804</v>
       </c>
       <c r="D111" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4732,7 +4735,7 @@
         <v>811</v>
       </c>
       <c r="D112" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4746,7 +4749,7 @@
         <v>804</v>
       </c>
       <c r="D113" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4760,7 +4763,7 @@
         <v>804</v>
       </c>
       <c r="D114" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4774,7 +4777,7 @@
         <v>796</v>
       </c>
       <c r="D115" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4788,7 +4791,7 @@
         <v>804</v>
       </c>
       <c r="D116" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4802,7 +4805,7 @@
         <v>816</v>
       </c>
       <c r="D117" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4816,7 +4819,7 @@
         <v>805</v>
       </c>
       <c r="D118" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4830,7 +4833,7 @@
         <v>820</v>
       </c>
       <c r="D119" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4844,7 +4847,7 @@
         <v>809</v>
       </c>
       <c r="D120" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4858,7 +4861,7 @@
         <v>799</v>
       </c>
       <c r="D121" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4872,7 +4875,7 @@
         <v>821</v>
       </c>
       <c r="D122" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4886,7 +4889,7 @@
         <v>813</v>
       </c>
       <c r="D123" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4900,7 +4903,7 @@
         <v>804</v>
       </c>
       <c r="D124" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4914,7 +4917,7 @@
         <v>816</v>
       </c>
       <c r="D125" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4928,7 +4931,7 @@
         <v>794</v>
       </c>
       <c r="D126" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4942,7 +4945,7 @@
         <v>809</v>
       </c>
       <c r="D127" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4956,7 +4959,7 @@
         <v>801</v>
       </c>
       <c r="D128" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4970,7 +4973,7 @@
         <v>822</v>
       </c>
       <c r="D129" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4984,7 +4987,7 @@
         <v>804</v>
       </c>
       <c r="D130" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4998,7 +5001,7 @@
         <v>810</v>
       </c>
       <c r="D131" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5012,7 +5015,7 @@
         <v>809</v>
       </c>
       <c r="D132" t="s">
-        <v>888</v>
+        <v>873</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5023,10 +5026,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="D133" t="s">
-        <v>872</v>
+        <v>895</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5040,7 +5043,7 @@
         <v>804</v>
       </c>
       <c r="D134" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5054,7 +5057,7 @@
         <v>804</v>
       </c>
       <c r="D135" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5065,10 +5068,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D136" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5079,10 +5082,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D137" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5093,10 +5096,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="D138" t="s">
-        <v>872</v>
+        <v>889</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5110,7 +5113,7 @@
         <v>813</v>
       </c>
       <c r="D139" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5124,7 +5127,7 @@
         <v>823</v>
       </c>
       <c r="D140" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5135,10 +5138,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
       <c r="D141" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5149,10 +5152,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>804</v>
+        <v>824</v>
       </c>
       <c r="D142" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5166,7 +5169,7 @@
         <v>804</v>
       </c>
       <c r="D143" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5180,7 +5183,7 @@
         <v>825</v>
       </c>
       <c r="D144" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5194,7 +5197,7 @@
         <v>804</v>
       </c>
       <c r="D145" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5208,7 +5211,7 @@
         <v>804</v>
       </c>
       <c r="D146" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5219,10 +5222,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="D147" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5233,10 +5236,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="D148" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5250,7 +5253,7 @@
         <v>798</v>
       </c>
       <c r="D149" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5264,7 +5267,7 @@
         <v>804</v>
       </c>
       <c r="D150" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5278,7 +5281,7 @@
         <v>804</v>
       </c>
       <c r="D151" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5292,7 +5295,7 @@
         <v>799</v>
       </c>
       <c r="D152" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5306,7 +5309,7 @@
         <v>826</v>
       </c>
       <c r="D153" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5320,7 +5323,7 @@
         <v>796</v>
       </c>
       <c r="D154" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5334,7 +5337,7 @@
         <v>805</v>
       </c>
       <c r="D155" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5348,7 +5351,7 @@
         <v>810</v>
       </c>
       <c r="D156" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5362,7 +5365,7 @@
         <v>806</v>
       </c>
       <c r="D157" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5376,7 +5379,7 @@
         <v>816</v>
       </c>
       <c r="D158" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5390,7 +5393,7 @@
         <v>799</v>
       </c>
       <c r="D159" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5404,7 +5407,7 @@
         <v>801</v>
       </c>
       <c r="D160" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5418,7 +5421,7 @@
         <v>804</v>
       </c>
       <c r="D161" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5432,7 +5435,7 @@
         <v>804</v>
       </c>
       <c r="D162" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5446,7 +5449,7 @@
         <v>806</v>
       </c>
       <c r="D163" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5460,7 +5463,7 @@
         <v>827</v>
       </c>
       <c r="D164" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5474,7 +5477,7 @@
         <v>809</v>
       </c>
       <c r="D165" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5488,7 +5491,7 @@
         <v>828</v>
       </c>
       <c r="D166" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5502,7 +5505,7 @@
         <v>816</v>
       </c>
       <c r="D167" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5516,7 +5519,7 @@
         <v>809</v>
       </c>
       <c r="D168" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5530,7 +5533,7 @@
         <v>809</v>
       </c>
       <c r="D169" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5544,7 +5547,7 @@
         <v>806</v>
       </c>
       <c r="D170" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5558,7 +5561,7 @@
         <v>829</v>
       </c>
       <c r="D171" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5569,10 +5572,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="D172" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5583,10 +5586,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="D173" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5600,7 +5603,7 @@
         <v>804</v>
       </c>
       <c r="D174" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5614,7 +5617,7 @@
         <v>809</v>
       </c>
       <c r="D175" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5625,10 +5628,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D176" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5639,10 +5642,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D177" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5656,7 +5659,7 @@
         <v>810</v>
       </c>
       <c r="D178" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5670,7 +5673,7 @@
         <v>825</v>
       </c>
       <c r="D179" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5684,7 +5687,7 @@
         <v>804</v>
       </c>
       <c r="D180" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5698,7 +5701,7 @@
         <v>794</v>
       </c>
       <c r="D181" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5712,7 +5715,7 @@
         <v>831</v>
       </c>
       <c r="D182" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5726,7 +5729,7 @@
         <v>808</v>
       </c>
       <c r="D183" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5740,7 +5743,7 @@
         <v>814</v>
       </c>
       <c r="D184" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5754,7 +5757,7 @@
         <v>804</v>
       </c>
       <c r="D185" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5768,7 +5771,7 @@
         <v>804</v>
       </c>
       <c r="D186" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5782,7 +5785,7 @@
         <v>804</v>
       </c>
       <c r="D187" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5796,7 +5799,7 @@
         <v>832</v>
       </c>
       <c r="D188" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5810,7 +5813,7 @@
         <v>804</v>
       </c>
       <c r="D189" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5824,7 +5827,7 @@
         <v>833</v>
       </c>
       <c r="D190" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5838,7 +5841,7 @@
         <v>810</v>
       </c>
       <c r="D191" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5849,10 +5852,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="D192" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5863,10 +5866,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>834</v>
+        <v>798</v>
       </c>
       <c r="D193" t="s">
-        <v>874</v>
+        <v>899</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5877,10 +5880,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>809</v>
+        <v>834</v>
       </c>
       <c r="D194" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5894,7 +5897,7 @@
         <v>835</v>
       </c>
       <c r="D195" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5908,7 +5911,7 @@
         <v>836</v>
       </c>
       <c r="D196" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5922,7 +5925,7 @@
         <v>810</v>
       </c>
       <c r="D197" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5936,7 +5939,7 @@
         <v>804</v>
       </c>
       <c r="D198" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5950,7 +5953,7 @@
         <v>804</v>
       </c>
       <c r="D199" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5964,7 +5967,7 @@
         <v>798</v>
       </c>
       <c r="D200" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5978,7 +5981,7 @@
         <v>804</v>
       </c>
       <c r="D201" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5992,7 +5995,7 @@
         <v>837</v>
       </c>
       <c r="D202" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -6006,7 +6009,7 @@
         <v>838</v>
       </c>
       <c r="D203" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -6020,7 +6023,7 @@
         <v>810</v>
       </c>
       <c r="D204" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6034,7 +6037,7 @@
         <v>804</v>
       </c>
       <c r="D205" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -6048,7 +6051,7 @@
         <v>804</v>
       </c>
       <c r="D206" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6062,7 +6065,7 @@
         <v>814</v>
       </c>
       <c r="D207" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6076,7 +6079,7 @@
         <v>804</v>
       </c>
       <c r="D208" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6090,7 +6093,7 @@
         <v>821</v>
       </c>
       <c r="D209" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6104,7 +6107,7 @@
         <v>809</v>
       </c>
       <c r="D210" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -6118,7 +6121,7 @@
         <v>833</v>
       </c>
       <c r="D211" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -6132,7 +6135,7 @@
         <v>804</v>
       </c>
       <c r="D212" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6143,10 +6146,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D213" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -6157,10 +6160,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="D214" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6171,10 +6174,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="D215" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6188,7 +6191,7 @@
         <v>813</v>
       </c>
       <c r="D216" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6202,7 +6205,7 @@
         <v>806</v>
       </c>
       <c r="D217" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6216,7 +6219,7 @@
         <v>804</v>
       </c>
       <c r="D218" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6230,7 +6233,7 @@
         <v>818</v>
       </c>
       <c r="D219" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6244,7 +6247,7 @@
         <v>839</v>
       </c>
       <c r="D220" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6258,7 +6261,7 @@
         <v>813</v>
       </c>
       <c r="D221" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6272,7 +6275,7 @@
         <v>804</v>
       </c>
       <c r="D222" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6286,7 +6289,7 @@
         <v>810</v>
       </c>
       <c r="D223" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6300,7 +6303,7 @@
         <v>804</v>
       </c>
       <c r="D224" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6314,7 +6317,7 @@
         <v>798</v>
       </c>
       <c r="D225" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6328,7 +6331,7 @@
         <v>797</v>
       </c>
       <c r="D226" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6342,7 +6345,7 @@
         <v>814</v>
       </c>
       <c r="D227" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6356,7 +6359,7 @@
         <v>825</v>
       </c>
       <c r="D228" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6370,7 +6373,7 @@
         <v>805</v>
       </c>
       <c r="D229" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -6384,7 +6387,7 @@
         <v>809</v>
       </c>
       <c r="D230" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6398,7 +6401,7 @@
         <v>806</v>
       </c>
       <c r="D231" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6412,7 +6415,7 @@
         <v>818</v>
       </c>
       <c r="D232" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6423,10 +6426,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D233" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6440,7 +6443,7 @@
         <v>804</v>
       </c>
       <c r="D234" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6451,10 +6454,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
       <c r="D235" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6465,10 +6468,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D236" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6482,7 +6485,7 @@
         <v>794</v>
       </c>
       <c r="D237" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6496,7 +6499,7 @@
         <v>840</v>
       </c>
       <c r="D238" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6510,7 +6513,7 @@
         <v>812</v>
       </c>
       <c r="D239" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6524,7 +6527,7 @@
         <v>841</v>
       </c>
       <c r="D240" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6538,7 +6541,7 @@
         <v>804</v>
       </c>
       <c r="D241" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6552,7 +6555,7 @@
         <v>804</v>
       </c>
       <c r="D242" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6566,7 +6569,7 @@
         <v>804</v>
       </c>
       <c r="D243" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6577,10 +6580,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D244" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6591,10 +6594,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="D245" t="s">
-        <v>871</v>
+        <v>896</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6605,10 +6608,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="D246" t="s">
-        <v>895</v>
+        <v>872</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6619,10 +6622,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>794</v>
+        <v>822</v>
       </c>
       <c r="D247" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6633,10 +6636,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>794</v>
+        <v>842</v>
       </c>
       <c r="D248" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6647,10 +6650,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>842</v>
+        <v>814</v>
       </c>
       <c r="D249" t="s">
-        <v>879</v>
+        <v>900</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6661,10 +6664,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
       <c r="D250" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6678,7 +6681,7 @@
         <v>804</v>
       </c>
       <c r="D251" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6692,7 +6695,7 @@
         <v>809</v>
       </c>
       <c r="D252" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6706,7 +6709,7 @@
         <v>804</v>
       </c>
       <c r="D253" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6720,7 +6723,7 @@
         <v>809</v>
       </c>
       <c r="D254" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6734,7 +6737,7 @@
         <v>804</v>
       </c>
       <c r="D255" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6748,7 +6751,7 @@
         <v>804</v>
       </c>
       <c r="D256" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6762,7 +6765,7 @@
         <v>807</v>
       </c>
       <c r="D257" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6776,7 +6779,7 @@
         <v>809</v>
       </c>
       <c r="D258" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6790,7 +6793,7 @@
         <v>804</v>
       </c>
       <c r="D259" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6804,7 +6807,7 @@
         <v>843</v>
       </c>
       <c r="D260" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6818,7 +6821,7 @@
         <v>821</v>
       </c>
       <c r="D261" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6832,7 +6835,7 @@
         <v>804</v>
       </c>
       <c r="D262" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6846,7 +6849,7 @@
         <v>806</v>
       </c>
       <c r="D263" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6860,7 +6863,7 @@
         <v>821</v>
       </c>
       <c r="D264" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6874,7 +6877,7 @@
         <v>804</v>
       </c>
       <c r="D265" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6888,7 +6891,7 @@
         <v>824</v>
       </c>
       <c r="D266" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6902,7 +6905,7 @@
         <v>818</v>
       </c>
       <c r="D267" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6916,7 +6919,7 @@
         <v>804</v>
       </c>
       <c r="D268" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6930,7 +6933,7 @@
         <v>804</v>
       </c>
       <c r="D269" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6944,7 +6947,7 @@
         <v>844</v>
       </c>
       <c r="D270" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6958,7 +6961,7 @@
         <v>805</v>
       </c>
       <c r="D271" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6972,7 +6975,7 @@
         <v>822</v>
       </c>
       <c r="D272" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6986,7 +6989,7 @@
         <v>809</v>
       </c>
       <c r="D273" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -7000,7 +7003,7 @@
         <v>821</v>
       </c>
       <c r="D274" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -7014,7 +7017,7 @@
         <v>814</v>
       </c>
       <c r="D275" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7028,7 +7031,7 @@
         <v>804</v>
       </c>
       <c r="D276" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -7042,7 +7045,7 @@
         <v>804</v>
       </c>
       <c r="D277" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7056,7 +7059,7 @@
         <v>813</v>
       </c>
       <c r="D278" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -7070,7 +7073,7 @@
         <v>813</v>
       </c>
       <c r="D279" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -7084,7 +7087,7 @@
         <v>804</v>
       </c>
       <c r="D280" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7098,7 +7101,7 @@
         <v>821</v>
       </c>
       <c r="D281" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7112,7 +7115,7 @@
         <v>805</v>
       </c>
       <c r="D282" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -7126,7 +7129,7 @@
         <v>806</v>
       </c>
       <c r="D283" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7140,7 +7143,7 @@
         <v>808</v>
       </c>
       <c r="D284" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7154,7 +7157,7 @@
         <v>822</v>
       </c>
       <c r="D285" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7168,7 +7171,7 @@
         <v>804</v>
       </c>
       <c r="D286" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7182,7 +7185,7 @@
         <v>840</v>
       </c>
       <c r="D287" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7196,7 +7199,7 @@
         <v>798</v>
       </c>
       <c r="D288" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -7210,7 +7213,7 @@
         <v>804</v>
       </c>
       <c r="D289" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -7224,7 +7227,7 @@
         <v>818</v>
       </c>
       <c r="D290" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7238,7 +7241,7 @@
         <v>809</v>
       </c>
       <c r="D291" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -7252,7 +7255,7 @@
         <v>819</v>
       </c>
       <c r="D292" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7266,7 +7269,7 @@
         <v>808</v>
       </c>
       <c r="D293" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -7280,7 +7283,7 @@
         <v>845</v>
       </c>
       <c r="D294" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -7294,7 +7297,7 @@
         <v>808</v>
       </c>
       <c r="D295" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7308,7 +7311,7 @@
         <v>804</v>
       </c>
       <c r="D296" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -7322,7 +7325,7 @@
         <v>813</v>
       </c>
       <c r="D297" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -7336,7 +7339,7 @@
         <v>805</v>
       </c>
       <c r="D298" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7350,7 +7353,7 @@
         <v>804</v>
       </c>
       <c r="D299" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -7364,7 +7367,7 @@
         <v>813</v>
       </c>
       <c r="D300" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7378,7 +7381,7 @@
         <v>804</v>
       </c>
       <c r="D301" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7392,7 +7395,7 @@
         <v>814</v>
       </c>
       <c r="D302" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7406,7 +7409,7 @@
         <v>804</v>
       </c>
       <c r="D303" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7420,7 +7423,7 @@
         <v>814</v>
       </c>
       <c r="D304" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -7434,7 +7437,7 @@
         <v>846</v>
       </c>
       <c r="D305" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7448,7 +7451,7 @@
         <v>809</v>
       </c>
       <c r="D306" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -7462,7 +7465,7 @@
         <v>809</v>
       </c>
       <c r="D307" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7476,7 +7479,7 @@
         <v>808</v>
       </c>
       <c r="D308" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7490,7 +7493,7 @@
         <v>799</v>
       </c>
       <c r="D309" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -7504,7 +7507,7 @@
         <v>798</v>
       </c>
       <c r="D310" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7518,7 +7521,7 @@
         <v>809</v>
       </c>
       <c r="D311" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7532,7 +7535,7 @@
         <v>846</v>
       </c>
       <c r="D312" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7546,7 +7549,7 @@
         <v>805</v>
       </c>
       <c r="D313" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7560,7 +7563,7 @@
         <v>816</v>
       </c>
       <c r="D314" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7574,7 +7577,7 @@
         <v>822</v>
       </c>
       <c r="D315" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7588,7 +7591,7 @@
         <v>804</v>
       </c>
       <c r="D316" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7602,7 +7605,7 @@
         <v>804</v>
       </c>
       <c r="D317" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7616,7 +7619,7 @@
         <v>808</v>
       </c>
       <c r="D318" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7630,7 +7633,7 @@
         <v>819</v>
       </c>
       <c r="D319" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7644,7 +7647,7 @@
         <v>808</v>
       </c>
       <c r="D320" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7658,7 +7661,7 @@
         <v>800</v>
       </c>
       <c r="D321" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7672,7 +7675,7 @@
         <v>809</v>
       </c>
       <c r="D322" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7686,7 +7689,7 @@
         <v>813</v>
       </c>
       <c r="D323" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7700,7 +7703,7 @@
         <v>847</v>
       </c>
       <c r="D324" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7711,10 +7714,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>848</v>
+        <v>809</v>
       </c>
       <c r="D325" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7725,10 +7728,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>804</v>
+        <v>848</v>
       </c>
       <c r="D326" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7739,10 +7742,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>849</v>
+        <v>804</v>
       </c>
       <c r="D327" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7756,7 +7759,7 @@
         <v>809</v>
       </c>
       <c r="D328" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7767,10 +7770,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>808</v>
+        <v>849</v>
       </c>
       <c r="D329" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7781,10 +7784,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D330" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -7795,10 +7798,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="D331" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -7809,10 +7812,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="D332" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -7823,10 +7826,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>850</v>
+        <v>809</v>
       </c>
       <c r="D333" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -7837,10 +7840,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>809</v>
+        <v>850</v>
       </c>
       <c r="D334" t="s">
-        <v>880</v>
+        <v>895</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -7854,7 +7857,7 @@
         <v>809</v>
       </c>
       <c r="D335" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -7868,7 +7871,7 @@
         <v>804</v>
       </c>
       <c r="D336" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -7882,7 +7885,7 @@
         <v>804</v>
       </c>
       <c r="D337" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7896,7 +7899,7 @@
         <v>804</v>
       </c>
       <c r="D338" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7910,7 +7913,7 @@
         <v>800</v>
       </c>
       <c r="D339" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -7924,7 +7927,7 @@
         <v>821</v>
       </c>
       <c r="D340" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -7938,7 +7941,7 @@
         <v>809</v>
       </c>
       <c r="D341" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -7952,7 +7955,7 @@
         <v>821</v>
       </c>
       <c r="D342" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -7966,7 +7969,7 @@
         <v>812</v>
       </c>
       <c r="D343" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -7980,7 +7983,7 @@
         <v>814</v>
       </c>
       <c r="D344" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -7994,7 +7997,7 @@
         <v>811</v>
       </c>
       <c r="D345" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -8008,7 +8011,7 @@
         <v>809</v>
       </c>
       <c r="D346" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -8022,7 +8025,7 @@
         <v>841</v>
       </c>
       <c r="D347" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8036,7 +8039,7 @@
         <v>798</v>
       </c>
       <c r="D348" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -8047,10 +8050,10 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="D349" t="s">
-        <v>872</v>
+        <v>901</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8061,10 +8064,10 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>821</v>
+        <v>794</v>
       </c>
       <c r="D350" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -8075,10 +8078,10 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="D351" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -8089,10 +8092,10 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="D352" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -8106,7 +8109,7 @@
         <v>804</v>
       </c>
       <c r="D353" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -8120,7 +8123,7 @@
         <v>804</v>
       </c>
       <c r="D354" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -8131,10 +8134,10 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>809</v>
+        <v>851</v>
       </c>
       <c r="D355" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8145,10 +8148,10 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>851</v>
+        <v>809</v>
       </c>
       <c r="D356" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8159,10 +8162,10 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="D357" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8173,10 +8176,10 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D358" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8187,10 +8190,10 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D359" t="s">
-        <v>884</v>
+        <v>900</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8201,10 +8204,10 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>809</v>
+        <v>838</v>
       </c>
       <c r="D360" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8215,10 +8218,10 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D361" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8229,10 +8232,10 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>838</v>
+        <v>799</v>
       </c>
       <c r="D362" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8243,10 +8246,10 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D363" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -8260,7 +8263,7 @@
         <v>804</v>
       </c>
       <c r="D364" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8274,7 +8277,7 @@
         <v>804</v>
       </c>
       <c r="D365" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8285,10 +8288,10 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D366" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8302,7 +8305,7 @@
         <v>852</v>
       </c>
       <c r="D367" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8316,7 +8319,7 @@
         <v>804</v>
       </c>
       <c r="D368" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8330,7 +8333,7 @@
         <v>809</v>
       </c>
       <c r="D369" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8344,7 +8347,7 @@
         <v>806</v>
       </c>
       <c r="D370" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8358,7 +8361,7 @@
         <v>801</v>
       </c>
       <c r="D371" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8372,7 +8375,7 @@
         <v>804</v>
       </c>
       <c r="D372" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8386,7 +8389,7 @@
         <v>805</v>
       </c>
       <c r="D373" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8400,7 +8403,7 @@
         <v>804</v>
       </c>
       <c r="D374" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8414,7 +8417,7 @@
         <v>804</v>
       </c>
       <c r="D375" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8428,7 +8431,7 @@
         <v>813</v>
       </c>
       <c r="D376" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8442,7 +8445,7 @@
         <v>808</v>
       </c>
       <c r="D377" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -8456,7 +8459,7 @@
         <v>804</v>
       </c>
       <c r="D378" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -8467,10 +8470,10 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>809</v>
+        <v>834</v>
       </c>
       <c r="D379" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -8481,10 +8484,10 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="D380" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -8498,7 +8501,7 @@
         <v>794</v>
       </c>
       <c r="D381" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -8512,7 +8515,7 @@
         <v>809</v>
       </c>
       <c r="D382" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8526,7 +8529,7 @@
         <v>798</v>
       </c>
       <c r="D383" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -8540,7 +8543,7 @@
         <v>804</v>
       </c>
       <c r="D384" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -8554,7 +8557,7 @@
         <v>796</v>
       </c>
       <c r="D385" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -8568,7 +8571,7 @@
         <v>816</v>
       </c>
       <c r="D386" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -8582,7 +8585,7 @@
         <v>821</v>
       </c>
       <c r="D387" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -8596,7 +8599,7 @@
         <v>809</v>
       </c>
       <c r="D388" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -8610,7 +8613,7 @@
         <v>809</v>
       </c>
       <c r="D389" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -8624,7 +8627,7 @@
         <v>809</v>
       </c>
       <c r="D390" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8638,7 +8641,7 @@
         <v>814</v>
       </c>
       <c r="D391" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -8652,7 +8655,7 @@
         <v>804</v>
       </c>
       <c r="D392" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -8666,7 +8669,7 @@
         <v>801</v>
       </c>
       <c r="D393" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -8680,7 +8683,7 @@
         <v>809</v>
       </c>
       <c r="D394" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8694,7 +8697,7 @@
         <v>818</v>
       </c>
       <c r="D395" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -8708,7 +8711,7 @@
         <v>809</v>
       </c>
       <c r="D396" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -8722,7 +8725,7 @@
         <v>842</v>
       </c>
       <c r="D397" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -8736,7 +8739,7 @@
         <v>840</v>
       </c>
       <c r="D398" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8750,7 +8753,7 @@
         <v>804</v>
       </c>
       <c r="D399" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -8764,7 +8767,7 @@
         <v>809</v>
       </c>
       <c r="D400" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -8778,7 +8781,7 @@
         <v>804</v>
       </c>
       <c r="D401" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -8792,7 +8795,7 @@
         <v>833</v>
       </c>
       <c r="D402" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -8806,7 +8809,7 @@
         <v>804</v>
       </c>
       <c r="D403" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -8820,7 +8823,7 @@
         <v>818</v>
       </c>
       <c r="D404" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -8834,7 +8837,7 @@
         <v>804</v>
       </c>
       <c r="D405" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -8848,7 +8851,7 @@
         <v>824</v>
       </c>
       <c r="D406" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -8862,7 +8865,7 @@
         <v>809</v>
       </c>
       <c r="D407" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -8876,7 +8879,7 @@
         <v>814</v>
       </c>
       <c r="D408" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -8890,7 +8893,7 @@
         <v>821</v>
       </c>
       <c r="D409" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -8904,7 +8907,7 @@
         <v>810</v>
       </c>
       <c r="D410" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -8918,7 +8921,7 @@
         <v>798</v>
       </c>
       <c r="D411" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -8932,7 +8935,7 @@
         <v>804</v>
       </c>
       <c r="D412" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -8946,7 +8949,7 @@
         <v>804</v>
       </c>
       <c r="D413" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -8960,7 +8963,7 @@
         <v>794</v>
       </c>
       <c r="D414" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -8974,7 +8977,7 @@
         <v>794</v>
       </c>
       <c r="D415" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -8988,7 +8991,7 @@
         <v>804</v>
       </c>
       <c r="D416" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -9002,7 +9005,7 @@
         <v>806</v>
       </c>
       <c r="D417" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -9016,7 +9019,7 @@
         <v>814</v>
       </c>
       <c r="D418" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9030,7 +9033,7 @@
         <v>798</v>
       </c>
       <c r="D419" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -9044,7 +9047,7 @@
         <v>853</v>
       </c>
       <c r="D420" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -9058,7 +9061,7 @@
         <v>809</v>
       </c>
       <c r="D421" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9072,7 +9075,7 @@
         <v>819</v>
       </c>
       <c r="D422" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -9086,7 +9089,7 @@
         <v>827</v>
       </c>
       <c r="D423" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9100,7 +9103,7 @@
         <v>850</v>
       </c>
       <c r="D424" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -9114,7 +9117,7 @@
         <v>804</v>
       </c>
       <c r="D425" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -9128,7 +9131,7 @@
         <v>794</v>
       </c>
       <c r="D426" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9142,7 +9145,7 @@
         <v>821</v>
       </c>
       <c r="D427" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -9156,7 +9159,7 @@
         <v>805</v>
       </c>
       <c r="D428" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9170,7 +9173,7 @@
         <v>804</v>
       </c>
       <c r="D429" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9184,7 +9187,7 @@
         <v>814</v>
       </c>
       <c r="D430" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9198,7 +9201,7 @@
         <v>804</v>
       </c>
       <c r="D431" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -9212,7 +9215,7 @@
         <v>805</v>
       </c>
       <c r="D432" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -9226,7 +9229,7 @@
         <v>814</v>
       </c>
       <c r="D433" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9240,7 +9243,7 @@
         <v>854</v>
       </c>
       <c r="D434" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -9254,7 +9257,7 @@
         <v>814</v>
       </c>
       <c r="D435" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -9268,7 +9271,7 @@
         <v>816</v>
       </c>
       <c r="D436" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9282,7 +9285,7 @@
         <v>818</v>
       </c>
       <c r="D437" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -9296,7 +9299,7 @@
         <v>804</v>
       </c>
       <c r="D438" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -9310,7 +9313,7 @@
         <v>818</v>
       </c>
       <c r="D439" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -9324,7 +9327,7 @@
         <v>809</v>
       </c>
       <c r="D440" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -9338,7 +9341,7 @@
         <v>808</v>
       </c>
       <c r="D441" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -9352,7 +9355,7 @@
         <v>804</v>
       </c>
       <c r="D442" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -9366,7 +9369,7 @@
         <v>808</v>
       </c>
       <c r="D443" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -9380,7 +9383,7 @@
         <v>804</v>
       </c>
       <c r="D444" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -9394,7 +9397,7 @@
         <v>821</v>
       </c>
       <c r="D445" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -9408,7 +9411,7 @@
         <v>809</v>
       </c>
       <c r="D446" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9422,7 +9425,7 @@
         <v>794</v>
       </c>
       <c r="D447" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -9436,7 +9439,7 @@
         <v>809</v>
       </c>
       <c r="D448" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -9450,7 +9453,7 @@
         <v>808</v>
       </c>
       <c r="D449" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -9464,7 +9467,7 @@
         <v>808</v>
       </c>
       <c r="D450" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -9478,7 +9481,7 @@
         <v>804</v>
       </c>
       <c r="D451" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -9492,7 +9495,7 @@
         <v>809</v>
       </c>
       <c r="D452" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9506,7 +9509,7 @@
         <v>825</v>
       </c>
       <c r="D453" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -9520,7 +9523,7 @@
         <v>798</v>
       </c>
       <c r="D454" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9534,7 +9537,7 @@
         <v>822</v>
       </c>
       <c r="D455" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -9548,7 +9551,7 @@
         <v>840</v>
       </c>
       <c r="D456" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -9562,7 +9565,7 @@
         <v>809</v>
       </c>
       <c r="D457" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -9576,7 +9579,7 @@
         <v>809</v>
       </c>
       <c r="D458" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -9590,7 +9593,7 @@
         <v>814</v>
       </c>
       <c r="D459" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -9604,7 +9607,7 @@
         <v>809</v>
       </c>
       <c r="D460" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -9618,7 +9621,7 @@
         <v>804</v>
       </c>
       <c r="D461" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -9632,7 +9635,7 @@
         <v>809</v>
       </c>
       <c r="D462" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9646,7 +9649,7 @@
         <v>808</v>
       </c>
       <c r="D463" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -9660,7 +9663,7 @@
         <v>809</v>
       </c>
       <c r="D464" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -9674,7 +9677,7 @@
         <v>809</v>
       </c>
       <c r="D465" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -9688,7 +9691,7 @@
         <v>809</v>
       </c>
       <c r="D466" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -9702,7 +9705,7 @@
         <v>816</v>
       </c>
       <c r="D467" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -9716,7 +9719,7 @@
         <v>809</v>
       </c>
       <c r="D468" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -9730,7 +9733,7 @@
         <v>808</v>
       </c>
       <c r="D469" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -9744,7 +9747,7 @@
         <v>808</v>
       </c>
       <c r="D470" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -9758,7 +9761,7 @@
         <v>809</v>
       </c>
       <c r="D471" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -9772,7 +9775,7 @@
         <v>821</v>
       </c>
       <c r="D472" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -9786,7 +9789,7 @@
         <v>809</v>
       </c>
       <c r="D473" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -9797,10 +9800,10 @@
         <v>474</v>
       </c>
       <c r="C474" t="s">
-        <v>808</v>
+        <v>855</v>
       </c>
       <c r="D474" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -9814,7 +9817,7 @@
         <v>806</v>
       </c>
       <c r="D475" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -9828,7 +9831,7 @@
         <v>812</v>
       </c>
       <c r="D476" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -9842,7 +9845,7 @@
         <v>797</v>
       </c>
       <c r="D477" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -9856,7 +9859,7 @@
         <v>808</v>
       </c>
       <c r="D478" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -9870,7 +9873,7 @@
         <v>809</v>
       </c>
       <c r="D479" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -9884,7 +9887,7 @@
         <v>804</v>
       </c>
       <c r="D480" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -9898,7 +9901,7 @@
         <v>809</v>
       </c>
       <c r="D481" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -9912,7 +9915,7 @@
         <v>818</v>
       </c>
       <c r="D482" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -9926,7 +9929,7 @@
         <v>804</v>
       </c>
       <c r="D483" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -9940,7 +9943,7 @@
         <v>810</v>
       </c>
       <c r="D484" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -9954,7 +9957,7 @@
         <v>804</v>
       </c>
       <c r="D485" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -9968,7 +9971,7 @@
         <v>810</v>
       </c>
       <c r="D486" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -9982,7 +9985,7 @@
         <v>794</v>
       </c>
       <c r="D487" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -9996,7 +9999,7 @@
         <v>809</v>
       </c>
       <c r="D488" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -10010,7 +10013,7 @@
         <v>832</v>
       </c>
       <c r="D489" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -10024,7 +10027,7 @@
         <v>804</v>
       </c>
       <c r="D490" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -10038,7 +10041,7 @@
         <v>804</v>
       </c>
       <c r="D491" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -10052,7 +10055,7 @@
         <v>804</v>
       </c>
       <c r="D492" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -10066,7 +10069,7 @@
         <v>804</v>
       </c>
       <c r="D493" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -10080,7 +10083,7 @@
         <v>825</v>
       </c>
       <c r="D494" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -10094,7 +10097,7 @@
         <v>804</v>
       </c>
       <c r="D495" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -10108,7 +10111,7 @@
         <v>804</v>
       </c>
       <c r="D496" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -10122,7 +10125,7 @@
         <v>804</v>
       </c>
       <c r="D497" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -10136,7 +10139,7 @@
         <v>794</v>
       </c>
       <c r="D498" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -10150,7 +10153,7 @@
         <v>796</v>
       </c>
       <c r="D499" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -10164,7 +10167,7 @@
         <v>804</v>
       </c>
       <c r="D500" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -10178,7 +10181,7 @@
         <v>814</v>
       </c>
       <c r="D501" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10192,7 +10195,7 @@
         <v>804</v>
       </c>
       <c r="D502" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -10206,7 +10209,7 @@
         <v>840</v>
       </c>
       <c r="D503" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10220,7 +10223,7 @@
         <v>798</v>
       </c>
       <c r="D504" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -10234,7 +10237,7 @@
         <v>814</v>
       </c>
       <c r="D505" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10248,7 +10251,7 @@
         <v>807</v>
       </c>
       <c r="D506" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -10262,7 +10265,7 @@
         <v>837</v>
       </c>
       <c r="D507" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10276,7 +10279,7 @@
         <v>822</v>
       </c>
       <c r="D508" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10290,7 +10293,7 @@
         <v>814</v>
       </c>
       <c r="D509" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10304,7 +10307,7 @@
         <v>809</v>
       </c>
       <c r="D510" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10318,7 +10321,7 @@
         <v>804</v>
       </c>
       <c r="D511" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10332,7 +10335,7 @@
         <v>804</v>
       </c>
       <c r="D512" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10346,7 +10349,7 @@
         <v>821</v>
       </c>
       <c r="D513" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10360,7 +10363,7 @@
         <v>814</v>
       </c>
       <c r="D514" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10371,10 +10374,10 @@
         <v>515</v>
       </c>
       <c r="C515" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D515" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -10388,7 +10391,7 @@
         <v>809</v>
       </c>
       <c r="D516" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10402,7 +10405,7 @@
         <v>813</v>
       </c>
       <c r="D517" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10416,7 +10419,7 @@
         <v>798</v>
       </c>
       <c r="D518" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10430,7 +10433,7 @@
         <v>804</v>
       </c>
       <c r="D519" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10444,7 +10447,7 @@
         <v>804</v>
       </c>
       <c r="D520" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10458,7 +10461,7 @@
         <v>804</v>
       </c>
       <c r="D521" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10472,7 +10475,7 @@
         <v>814</v>
       </c>
       <c r="D522" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10486,7 +10489,7 @@
         <v>796</v>
       </c>
       <c r="D523" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10500,7 +10503,7 @@
         <v>809</v>
       </c>
       <c r="D524" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10511,10 +10514,10 @@
         <v>525</v>
       </c>
       <c r="C525" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D525" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10528,7 +10531,7 @@
         <v>813</v>
       </c>
       <c r="D526" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10542,7 +10545,7 @@
         <v>804</v>
       </c>
       <c r="D527" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10556,7 +10559,7 @@
         <v>801</v>
       </c>
       <c r="D528" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10570,7 +10573,7 @@
         <v>819</v>
       </c>
       <c r="D529" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -10584,7 +10587,7 @@
         <v>804</v>
       </c>
       <c r="D530" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -10598,7 +10601,7 @@
         <v>810</v>
       </c>
       <c r="D531" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10612,7 +10615,7 @@
         <v>798</v>
       </c>
       <c r="D532" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10626,7 +10629,7 @@
         <v>814</v>
       </c>
       <c r="D533" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10640,7 +10643,7 @@
         <v>847</v>
       </c>
       <c r="D534" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -10654,7 +10657,7 @@
         <v>799</v>
       </c>
       <c r="D535" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10668,7 +10671,7 @@
         <v>814</v>
       </c>
       <c r="D536" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -10682,7 +10685,7 @@
         <v>805</v>
       </c>
       <c r="D537" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10696,7 +10699,7 @@
         <v>804</v>
       </c>
       <c r="D538" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10710,7 +10713,7 @@
         <v>808</v>
       </c>
       <c r="D539" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10721,10 +10724,10 @@
         <v>540</v>
       </c>
       <c r="C540" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D540" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -10738,7 +10741,7 @@
         <v>814</v>
       </c>
       <c r="D541" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10752,7 +10755,7 @@
         <v>841</v>
       </c>
       <c r="D542" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -10766,7 +10769,7 @@
         <v>808</v>
       </c>
       <c r="D543" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -10780,7 +10783,7 @@
         <v>846</v>
       </c>
       <c r="D544" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -10794,7 +10797,7 @@
         <v>809</v>
       </c>
       <c r="D545" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -10808,7 +10811,7 @@
         <v>809</v>
       </c>
       <c r="D546" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -10822,7 +10825,7 @@
         <v>807</v>
       </c>
       <c r="D547" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -10836,7 +10839,7 @@
         <v>809</v>
       </c>
       <c r="D548" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -10850,7 +10853,7 @@
         <v>808</v>
       </c>
       <c r="D549" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -10864,7 +10867,7 @@
         <v>809</v>
       </c>
       <c r="D550" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -10878,7 +10881,7 @@
         <v>829</v>
       </c>
       <c r="D551" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -10892,7 +10895,7 @@
         <v>809</v>
       </c>
       <c r="D552" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -10906,7 +10909,7 @@
         <v>813</v>
       </c>
       <c r="D553" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -10920,7 +10923,7 @@
         <v>809</v>
       </c>
       <c r="D554" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -10934,7 +10937,7 @@
         <v>804</v>
       </c>
       <c r="D555" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -10948,7 +10951,7 @@
         <v>808</v>
       </c>
       <c r="D556" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -10962,7 +10965,7 @@
         <v>804</v>
       </c>
       <c r="D557" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -10976,7 +10979,7 @@
         <v>818</v>
       </c>
       <c r="D558" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -10990,7 +10993,7 @@
         <v>809</v>
       </c>
       <c r="D559" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -11004,7 +11007,7 @@
         <v>809</v>
       </c>
       <c r="D560" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -11018,7 +11021,7 @@
         <v>808</v>
       </c>
       <c r="D561" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -11032,7 +11035,7 @@
         <v>804</v>
       </c>
       <c r="D562" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -11046,7 +11049,7 @@
         <v>814</v>
       </c>
       <c r="D563" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11060,7 +11063,7 @@
         <v>806</v>
       </c>
       <c r="D564" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -11074,7 +11077,7 @@
         <v>802</v>
       </c>
       <c r="D565" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11088,7 +11091,7 @@
         <v>809</v>
       </c>
       <c r="D566" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11102,7 +11105,7 @@
         <v>804</v>
       </c>
       <c r="D567" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -11116,7 +11119,7 @@
         <v>805</v>
       </c>
       <c r="D568" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -11130,7 +11133,7 @@
         <v>806</v>
       </c>
       <c r="D569" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -11144,7 +11147,7 @@
         <v>804</v>
       </c>
       <c r="D570" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11158,7 +11161,7 @@
         <v>808</v>
       </c>
       <c r="D571" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11172,7 +11175,7 @@
         <v>812</v>
       </c>
       <c r="D572" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -11183,10 +11186,10 @@
         <v>573</v>
       </c>
       <c r="C573" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D573" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -11200,7 +11203,7 @@
         <v>809</v>
       </c>
       <c r="D574" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11214,7 +11217,7 @@
         <v>819</v>
       </c>
       <c r="D575" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -11228,7 +11231,7 @@
         <v>814</v>
       </c>
       <c r="D576" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -11239,10 +11242,10 @@
         <v>577</v>
       </c>
       <c r="C577" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D577" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11256,7 +11259,7 @@
         <v>804</v>
       </c>
       <c r="D578" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11270,7 +11273,7 @@
         <v>804</v>
       </c>
       <c r="D579" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -11284,7 +11287,7 @@
         <v>808</v>
       </c>
       <c r="D580" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -11298,7 +11301,7 @@
         <v>818</v>
       </c>
       <c r="D581" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -11312,7 +11315,7 @@
         <v>825</v>
       </c>
       <c r="D582" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -11326,7 +11329,7 @@
         <v>808</v>
       </c>
       <c r="D583" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -11340,7 +11343,7 @@
         <v>832</v>
       </c>
       <c r="D584" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -11351,10 +11354,10 @@
         <v>585</v>
       </c>
       <c r="C585" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D585" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -11368,7 +11371,7 @@
         <v>840</v>
       </c>
       <c r="D586" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -11382,7 +11385,7 @@
         <v>804</v>
       </c>
       <c r="D587" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -11396,7 +11399,7 @@
         <v>809</v>
       </c>
       <c r="D588" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -11410,7 +11413,7 @@
         <v>804</v>
       </c>
       <c r="D589" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -11424,7 +11427,7 @@
         <v>804</v>
       </c>
       <c r="D590" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -11438,7 +11441,7 @@
         <v>794</v>
       </c>
       <c r="D591" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -11452,7 +11455,7 @@
         <v>825</v>
       </c>
       <c r="D592" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -11466,7 +11469,7 @@
         <v>806</v>
       </c>
       <c r="D593" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -11480,7 +11483,7 @@
         <v>813</v>
       </c>
       <c r="D594" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -11491,10 +11494,10 @@
         <v>465</v>
       </c>
       <c r="C595" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D595" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -11508,7 +11511,7 @@
         <v>804</v>
       </c>
       <c r="D596" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11522,7 +11525,7 @@
         <v>798</v>
       </c>
       <c r="D597" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -11536,7 +11539,7 @@
         <v>808</v>
       </c>
       <c r="D598" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -11550,7 +11553,7 @@
         <v>821</v>
       </c>
       <c r="D599" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -11564,7 +11567,7 @@
         <v>804</v>
       </c>
       <c r="D600" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -11578,7 +11581,7 @@
         <v>828</v>
       </c>
       <c r="D601" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -11592,7 +11595,7 @@
         <v>810</v>
       </c>
       <c r="D602" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -11606,7 +11609,7 @@
         <v>806</v>
       </c>
       <c r="D603" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -11620,7 +11623,7 @@
         <v>840</v>
       </c>
       <c r="D604" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -11631,10 +11634,10 @@
         <v>604</v>
       </c>
       <c r="C605" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D605" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -11648,7 +11651,7 @@
         <v>837</v>
       </c>
       <c r="D606" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -11662,7 +11665,7 @@
         <v>804</v>
       </c>
       <c r="D607" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -11676,7 +11679,7 @@
         <v>805</v>
       </c>
       <c r="D608" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -11690,7 +11693,7 @@
         <v>804</v>
       </c>
       <c r="D609" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -11704,7 +11707,7 @@
         <v>814</v>
       </c>
       <c r="D610" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -11718,7 +11721,7 @@
         <v>814</v>
       </c>
       <c r="D611" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -11732,7 +11735,7 @@
         <v>799</v>
       </c>
       <c r="D612" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -11746,7 +11749,7 @@
         <v>808</v>
       </c>
       <c r="D613" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -11760,7 +11763,7 @@
         <v>833</v>
       </c>
       <c r="D614" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -11774,7 +11777,7 @@
         <v>814</v>
       </c>
       <c r="D615" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -11788,7 +11791,7 @@
         <v>804</v>
       </c>
       <c r="D616" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -11802,7 +11805,7 @@
         <v>809</v>
       </c>
       <c r="D617" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -11816,7 +11819,7 @@
         <v>810</v>
       </c>
       <c r="D618" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -11830,7 +11833,7 @@
         <v>814</v>
       </c>
       <c r="D619" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -11844,7 +11847,7 @@
         <v>821</v>
       </c>
       <c r="D620" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -11858,7 +11861,7 @@
         <v>804</v>
       </c>
       <c r="D621" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -11872,7 +11875,7 @@
         <v>823</v>
       </c>
       <c r="D622" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -11886,7 +11889,7 @@
         <v>812</v>
       </c>
       <c r="D623" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -11900,7 +11903,7 @@
         <v>827</v>
       </c>
       <c r="D624" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -11911,10 +11914,10 @@
         <v>624</v>
       </c>
       <c r="C625" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D625" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -11928,7 +11931,7 @@
         <v>809</v>
       </c>
       <c r="D626" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -11942,7 +11945,7 @@
         <v>809</v>
       </c>
       <c r="D627" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -11956,7 +11959,7 @@
         <v>799</v>
       </c>
       <c r="D628" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -11970,7 +11973,7 @@
         <v>804</v>
       </c>
       <c r="D629" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -11984,7 +11987,7 @@
         <v>809</v>
       </c>
       <c r="D630" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -11998,7 +12001,7 @@
         <v>840</v>
       </c>
       <c r="D631" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -12012,7 +12015,7 @@
         <v>809</v>
       </c>
       <c r="D632" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -12026,7 +12029,7 @@
         <v>808</v>
       </c>
       <c r="D633" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -12040,7 +12043,7 @@
         <v>833</v>
       </c>
       <c r="D634" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -12054,7 +12057,7 @@
         <v>809</v>
       </c>
       <c r="D635" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -12068,7 +12071,7 @@
         <v>813</v>
       </c>
       <c r="D636" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -12082,7 +12085,7 @@
         <v>810</v>
       </c>
       <c r="D637" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -12093,10 +12096,10 @@
         <v>637</v>
       </c>
       <c r="C638" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D638" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -12110,7 +12113,7 @@
         <v>837</v>
       </c>
       <c r="D639" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -12124,7 +12127,7 @@
         <v>809</v>
       </c>
       <c r="D640" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="641" spans="1:4">
@@ -12138,7 +12141,7 @@
         <v>808</v>
       </c>
       <c r="D641" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -12152,7 +12155,7 @@
         <v>809</v>
       </c>
       <c r="D642" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -12166,7 +12169,7 @@
         <v>806</v>
       </c>
       <c r="D643" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -12180,7 +12183,7 @@
         <v>809</v>
       </c>
       <c r="D644" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -12194,7 +12197,7 @@
         <v>814</v>
       </c>
       <c r="D645" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -12208,7 +12211,7 @@
         <v>804</v>
       </c>
       <c r="D646" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="647" spans="1:4">
@@ -12222,7 +12225,7 @@
         <v>813</v>
       </c>
       <c r="D647" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -12236,7 +12239,7 @@
         <v>837</v>
       </c>
       <c r="D648" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="649" spans="1:4">
@@ -12250,7 +12253,7 @@
         <v>804</v>
       </c>
       <c r="D649" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -12264,7 +12267,7 @@
         <v>810</v>
       </c>
       <c r="D650" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -12278,7 +12281,7 @@
         <v>814</v>
       </c>
       <c r="D651" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -12292,7 +12295,7 @@
         <v>813</v>
       </c>
       <c r="D652" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -12306,7 +12309,7 @@
         <v>804</v>
       </c>
       <c r="D653" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -12320,7 +12323,7 @@
         <v>818</v>
       </c>
       <c r="D654" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -12334,7 +12337,7 @@
         <v>806</v>
       </c>
       <c r="D655" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -12348,7 +12351,7 @@
         <v>809</v>
       </c>
       <c r="D656" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="657" spans="1:4">
@@ -12362,7 +12365,7 @@
         <v>805</v>
       </c>
       <c r="D657" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -12376,7 +12379,7 @@
         <v>850</v>
       </c>
       <c r="D658" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -12390,7 +12393,7 @@
         <v>829</v>
       </c>
       <c r="D659" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="660" spans="1:4">
@@ -12404,7 +12407,7 @@
         <v>808</v>
       </c>
       <c r="D660" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -12418,7 +12421,7 @@
         <v>804</v>
       </c>
       <c r="D661" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -12432,7 +12435,7 @@
         <v>804</v>
       </c>
       <c r="D662" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -12446,7 +12449,7 @@
         <v>799</v>
       </c>
       <c r="D663" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -12460,7 +12463,7 @@
         <v>801</v>
       </c>
       <c r="D664" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -12474,7 +12477,7 @@
         <v>813</v>
       </c>
       <c r="D665" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -12488,7 +12491,7 @@
         <v>808</v>
       </c>
       <c r="D666" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -12502,7 +12505,7 @@
         <v>799</v>
       </c>
       <c r="D667" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -12516,7 +12519,7 @@
         <v>809</v>
       </c>
       <c r="D668" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -12530,7 +12533,7 @@
         <v>819</v>
       </c>
       <c r="D669" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -12544,7 +12547,7 @@
         <v>805</v>
       </c>
       <c r="D670" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -12558,7 +12561,7 @@
         <v>814</v>
       </c>
       <c r="D671" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -12572,7 +12575,7 @@
         <v>798</v>
       </c>
       <c r="D672" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -12586,7 +12589,7 @@
         <v>794</v>
       </c>
       <c r="D673" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -12597,10 +12600,10 @@
         <v>673</v>
       </c>
       <c r="C674" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D674" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -12614,7 +12617,7 @@
         <v>809</v>
       </c>
       <c r="D675" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="676" spans="1:4">
@@ -12628,7 +12631,7 @@
         <v>812</v>
       </c>
       <c r="D676" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="677" spans="1:4">
@@ -12642,7 +12645,7 @@
         <v>807</v>
       </c>
       <c r="D677" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12656,7 +12659,7 @@
         <v>808</v>
       </c>
       <c r="D678" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -12670,7 +12673,7 @@
         <v>798</v>
       </c>
       <c r="D679" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -12684,7 +12687,7 @@
         <v>821</v>
       </c>
       <c r="D680" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -12698,7 +12701,7 @@
         <v>806</v>
       </c>
       <c r="D681" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -12712,7 +12715,7 @@
         <v>809</v>
       </c>
       <c r="D682" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -12726,7 +12729,7 @@
         <v>807</v>
       </c>
       <c r="D683" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -12740,7 +12743,7 @@
         <v>850</v>
       </c>
       <c r="D684" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -12754,7 +12757,7 @@
         <v>804</v>
       </c>
       <c r="D685" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -12768,7 +12771,7 @@
         <v>814</v>
       </c>
       <c r="D686" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -12782,7 +12785,7 @@
         <v>799</v>
       </c>
       <c r="D687" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -12796,7 +12799,7 @@
         <v>794</v>
       </c>
       <c r="D688" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -12810,7 +12813,7 @@
         <v>814</v>
       </c>
       <c r="D689" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -12824,7 +12827,7 @@
         <v>804</v>
       </c>
       <c r="D690" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -12838,7 +12841,7 @@
         <v>794</v>
       </c>
       <c r="D691" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -12852,7 +12855,7 @@
         <v>804</v>
       </c>
       <c r="D692" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -12866,7 +12869,7 @@
         <v>804</v>
       </c>
       <c r="D693" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -12880,7 +12883,7 @@
         <v>809</v>
       </c>
       <c r="D694" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -12891,10 +12894,10 @@
         <v>693</v>
       </c>
       <c r="C695" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D695" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -12908,7 +12911,7 @@
         <v>804</v>
       </c>
       <c r="D696" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -12922,7 +12925,7 @@
         <v>818</v>
       </c>
       <c r="D697" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -12936,7 +12939,7 @@
         <v>818</v>
       </c>
       <c r="D698" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -12950,7 +12953,7 @@
         <v>809</v>
       </c>
       <c r="D699" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -12961,10 +12964,10 @@
         <v>698</v>
       </c>
       <c r="C700" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D700" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -12978,7 +12981,7 @@
         <v>804</v>
       </c>
       <c r="D701" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -12992,7 +12995,7 @@
         <v>807</v>
       </c>
       <c r="D702" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -13006,7 +13009,7 @@
         <v>822</v>
       </c>
       <c r="D703" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -13020,7 +13023,7 @@
         <v>794</v>
       </c>
       <c r="D704" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -13034,7 +13037,7 @@
         <v>804</v>
       </c>
       <c r="D705" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -13048,7 +13051,7 @@
         <v>794</v>
       </c>
       <c r="D706" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -13062,7 +13065,7 @@
         <v>808</v>
       </c>
       <c r="D707" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -13076,7 +13079,7 @@
         <v>794</v>
       </c>
       <c r="D708" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -13090,7 +13093,7 @@
         <v>804</v>
       </c>
       <c r="D709" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -13104,7 +13107,7 @@
         <v>814</v>
       </c>
       <c r="D710" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -13118,7 +13121,7 @@
         <v>808</v>
       </c>
       <c r="D711" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -13132,7 +13135,7 @@
         <v>834</v>
       </c>
       <c r="D712" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -13146,7 +13149,7 @@
         <v>814</v>
       </c>
       <c r="D713" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -13160,7 +13163,7 @@
         <v>807</v>
       </c>
       <c r="D714" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -13174,7 +13177,7 @@
         <v>809</v>
       </c>
       <c r="D715" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -13188,7 +13191,7 @@
         <v>799</v>
       </c>
       <c r="D716" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -13202,7 +13205,7 @@
         <v>818</v>
       </c>
       <c r="D717" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -13216,7 +13219,7 @@
         <v>809</v>
       </c>
       <c r="D718" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -13230,7 +13233,7 @@
         <v>818</v>
       </c>
       <c r="D719" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -13241,10 +13244,10 @@
         <v>718</v>
       </c>
       <c r="C720" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D720" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -13258,7 +13261,7 @@
         <v>809</v>
       </c>
       <c r="D721" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -13272,7 +13275,7 @@
         <v>812</v>
       </c>
       <c r="D722" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -13286,7 +13289,7 @@
         <v>807</v>
       </c>
       <c r="D723" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -13300,7 +13303,7 @@
         <v>809</v>
       </c>
       <c r="D724" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -13314,7 +13317,7 @@
         <v>809</v>
       </c>
       <c r="D725" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -13322,13 +13325,13 @@
         <v>725</v>
       </c>
       <c r="B726" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C726" t="s">
         <v>804</v>
       </c>
       <c r="D726" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -13342,7 +13345,7 @@
         <v>809</v>
       </c>
       <c r="D727" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -13356,7 +13359,7 @@
         <v>808</v>
       </c>
       <c r="D728" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -13370,7 +13373,7 @@
         <v>814</v>
       </c>
       <c r="D729" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -13384,7 +13387,7 @@
         <v>822</v>
       </c>
       <c r="D730" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -13398,7 +13401,7 @@
         <v>808</v>
       </c>
       <c r="D731" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -13412,7 +13415,7 @@
         <v>804</v>
       </c>
       <c r="D732" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -13426,7 +13429,7 @@
         <v>809</v>
       </c>
       <c r="D733" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -13437,10 +13440,10 @@
         <v>730</v>
       </c>
       <c r="C734" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D734" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -13454,7 +13457,7 @@
         <v>794</v>
       </c>
       <c r="D735" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -13468,7 +13471,7 @@
         <v>852</v>
       </c>
       <c r="D736" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -13482,7 +13485,7 @@
         <v>814</v>
       </c>
       <c r="D737" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -13496,7 +13499,7 @@
         <v>842</v>
       </c>
       <c r="D738" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -13510,7 +13513,7 @@
         <v>798</v>
       </c>
       <c r="D739" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -13524,7 +13527,7 @@
         <v>798</v>
       </c>
       <c r="D740" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -13538,7 +13541,7 @@
         <v>821</v>
       </c>
       <c r="D741" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -13552,7 +13555,7 @@
         <v>804</v>
       </c>
       <c r="D742" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -13566,7 +13569,7 @@
         <v>810</v>
       </c>
       <c r="D743" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -13580,7 +13583,7 @@
         <v>819</v>
       </c>
       <c r="D744" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -13594,7 +13597,7 @@
         <v>804</v>
       </c>
       <c r="D745" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -13608,7 +13611,7 @@
         <v>809</v>
       </c>
       <c r="D746" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -13622,7 +13625,7 @@
         <v>813</v>
       </c>
       <c r="D747" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -13636,7 +13639,7 @@
         <v>846</v>
       </c>
       <c r="D748" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -13650,7 +13653,7 @@
         <v>833</v>
       </c>
       <c r="D749" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -13664,7 +13667,7 @@
         <v>808</v>
       </c>
       <c r="D750" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -13678,7 +13681,7 @@
         <v>798</v>
       </c>
       <c r="D751" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -13692,7 +13695,7 @@
         <v>833</v>
       </c>
       <c r="D752" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -13706,7 +13709,7 @@
         <v>848</v>
       </c>
       <c r="D753" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -13720,7 +13723,7 @@
         <v>809</v>
       </c>
       <c r="D754" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -13734,7 +13737,7 @@
         <v>814</v>
       </c>
       <c r="D755" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -13748,7 +13751,7 @@
         <v>809</v>
       </c>
       <c r="D756" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -13762,7 +13765,7 @@
         <v>819</v>
       </c>
       <c r="D757" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -13773,10 +13776,10 @@
         <v>753</v>
       </c>
       <c r="C758" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D758" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -13790,7 +13793,7 @@
         <v>809</v>
       </c>
       <c r="D759" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -13804,7 +13807,7 @@
         <v>824</v>
       </c>
       <c r="D760" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -13818,7 +13821,7 @@
         <v>810</v>
       </c>
       <c r="D761" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -13832,7 +13835,7 @@
         <v>804</v>
       </c>
       <c r="D762" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -13846,7 +13849,7 @@
         <v>810</v>
       </c>
       <c r="D763" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -13860,7 +13863,7 @@
         <v>804</v>
       </c>
       <c r="D764" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -13874,7 +13877,7 @@
         <v>814</v>
       </c>
       <c r="D765" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -13888,7 +13891,7 @@
         <v>809</v>
       </c>
       <c r="D766" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -13902,7 +13905,7 @@
         <v>814</v>
       </c>
       <c r="D767" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -13916,7 +13919,7 @@
         <v>809</v>
       </c>
       <c r="D768" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -13930,7 +13933,7 @@
         <v>809</v>
       </c>
       <c r="D769" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -13944,7 +13947,7 @@
         <v>804</v>
       </c>
       <c r="D770" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -13958,7 +13961,7 @@
         <v>804</v>
       </c>
       <c r="D771" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -13972,7 +13975,7 @@
         <v>804</v>
       </c>
       <c r="D772" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -13986,7 +13989,7 @@
         <v>808</v>
       </c>
       <c r="D773" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -14000,7 +14003,7 @@
         <v>806</v>
       </c>
       <c r="D774" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -14014,7 +14017,7 @@
         <v>809</v>
       </c>
       <c r="D775" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -14028,7 +14031,7 @@
         <v>798</v>
       </c>
       <c r="D776" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -14042,7 +14045,7 @@
         <v>821</v>
       </c>
       <c r="D777" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="778" spans="1:4">
@@ -14056,7 +14059,7 @@
         <v>850</v>
       </c>
       <c r="D778" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -14070,7 +14073,7 @@
         <v>794</v>
       </c>
       <c r="D779" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -14084,7 +14087,7 @@
         <v>808</v>
       </c>
       <c r="D780" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -14098,7 +14101,7 @@
         <v>808</v>
       </c>
       <c r="D781" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14112,7 +14115,7 @@
         <v>804</v>
       </c>
       <c r="D782" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -14126,7 +14129,7 @@
         <v>794</v>
       </c>
       <c r="D783" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -14140,7 +14143,7 @@
         <v>808</v>
       </c>
       <c r="D784" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14154,7 +14157,7 @@
         <v>809</v>
       </c>
       <c r="D785" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -14168,7 +14171,7 @@
         <v>813</v>
       </c>
       <c r="D786" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -14182,7 +14185,7 @@
         <v>805</v>
       </c>
       <c r="D787" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -14196,7 +14199,7 @@
         <v>809</v>
       </c>
       <c r="D788" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -14210,7 +14213,7 @@
         <v>819</v>
       </c>
       <c r="D789" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -14224,7 +14227,7 @@
         <v>809</v>
       </c>
       <c r="D790" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -14238,7 +14241,7 @@
         <v>808</v>
       </c>
       <c r="D791" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="792" spans="1:4">
@@ -14252,7 +14255,7 @@
         <v>804</v>
       </c>
       <c r="D792" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="793" spans="1:4">
@@ -14266,7 +14269,7 @@
         <v>794</v>
       </c>
       <c r="D793" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="794" spans="1:4">
@@ -14277,10 +14280,10 @@
         <v>788</v>
       </c>
       <c r="C794" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D794" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -14294,7 +14297,7 @@
         <v>809</v>
       </c>
       <c r="D795" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -14308,7 +14311,7 @@
         <v>804</v>
       </c>
       <c r="D796" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="797" spans="1:4">
@@ -14319,10 +14322,10 @@
         <v>791</v>
       </c>
       <c r="C797" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D797" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="798" spans="1:4">
@@ -14336,7 +14339,7 @@
         <v>809</v>
       </c>
       <c r="D798" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -14350,7 +14353,7 @@
         <v>805</v>
       </c>
       <c r="D799" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
   </sheetData>

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -34,12 +34,12 @@
     <t>Trea Turner</t>
   </si>
   <si>
+    <t>Ronald Acuna Jr.</t>
+  </si>
+  <si>
     <t>Aaron Judge</t>
   </si>
   <si>
-    <t>Ronald Acuna Jr.</t>
-  </si>
-  <si>
     <t>Jose Ramirez</t>
   </si>
   <si>
@@ -64,24 +64,24 @@
     <t>Shohei Ohtani</t>
   </si>
   <si>
+    <t>Freddie Freeman</t>
+  </si>
+  <si>
     <t>Corbin Burnes</t>
   </si>
   <si>
-    <t>Freddie Freeman</t>
-  </si>
-  <si>
     <t>Mike Trout</t>
   </si>
   <si>
     <t>Gerrit Cole</t>
   </si>
   <si>
+    <t>Bobby Witt Jr.</t>
+  </si>
+  <si>
     <t>Manny Machado</t>
   </si>
   <si>
-    <t>Bobby Witt Jr.</t>
-  </si>
-  <si>
     <t>Bo Bichette</t>
   </si>
   <si>
@@ -124,21 +124,21 @@
     <t>Aaron Nola</t>
   </si>
   <si>
+    <t>Nolan Arenado</t>
+  </si>
+  <si>
+    <t>Brandon Woodruff</t>
+  </si>
+  <si>
+    <t>Shane McClanahan</t>
+  </si>
+  <si>
     <t>Dylan Cease</t>
   </si>
   <si>
-    <t>Nolan Arenado</t>
-  </si>
-  <si>
-    <t>Brandon Woodruff</t>
-  </si>
-  <si>
     <t>Randy Arozarena</t>
   </si>
   <si>
-    <t>Shane McClanahan</t>
-  </si>
-  <si>
     <t>Luis Robert</t>
   </si>
   <si>
@@ -148,24 +148,24 @@
     <t>Matt Olson</t>
   </si>
   <si>
+    <t>Justin Verlander</t>
+  </si>
+  <si>
     <t>Max Scherzer</t>
   </si>
   <si>
-    <t>Justin Verlander</t>
-  </si>
-  <si>
     <t>Marcus Semien</t>
   </si>
   <si>
     <t>Carlos Rodon</t>
   </si>
   <si>
+    <t>Cedric Mullins II</t>
+  </si>
+  <si>
     <t>Shane Bieber</t>
   </si>
   <si>
-    <t>Cedric Mullins II</t>
-  </si>
-  <si>
     <t>Josh Hader</t>
   </si>
   <si>
@@ -193,21 +193,21 @@
     <t>Jordan Romano</t>
   </si>
   <si>
+    <t>Adolis Garcia</t>
+  </si>
+  <si>
     <t>Kevin Gausman</t>
   </si>
   <si>
-    <t>Adolis Garcia</t>
-  </si>
-  <si>
     <t>Luis Castillo</t>
   </si>
   <si>
+    <t>Starling Marte</t>
+  </si>
+  <si>
     <t>George Springer</t>
   </si>
   <si>
-    <t>Starling Marte</t>
-  </si>
-  <si>
     <t>Alex Bregman</t>
   </si>
   <si>
@@ -223,18 +223,18 @@
     <t>Teoscar Hernandez</t>
   </si>
   <si>
+    <t>Cristian Javier</t>
+  </si>
+  <si>
+    <t>Ryan Pressly</t>
+  </si>
+  <si>
     <t>Yu Darvish</t>
   </si>
   <si>
-    <t>Cristian Javier</t>
-  </si>
-  <si>
     <t>Eloy Jimenez</t>
   </si>
   <si>
-    <t>Ryan Pressly</t>
-  </si>
-  <si>
     <t>Zac Gallen</t>
   </si>
   <si>
@@ -244,24 +244,24 @@
     <t>Dansby Swanson</t>
   </si>
   <si>
+    <t>Joe Musgrove</t>
+  </si>
+  <si>
+    <t>Daulton Varsho</t>
+  </si>
+  <si>
+    <t>Framber Valdez</t>
+  </si>
+  <si>
     <t>Tim Anderson</t>
   </si>
   <si>
-    <t>Framber Valdez</t>
-  </si>
-  <si>
-    <t>Joe Musgrove</t>
-  </si>
-  <si>
-    <t>Daulton Varsho</t>
+    <t>Ryan Helsley</t>
   </si>
   <si>
     <t>Bryan Reynolds</t>
   </si>
   <si>
-    <t>Ryan Helsley</t>
-  </si>
-  <si>
     <t>Tommy Edman</t>
   </si>
   <si>
@@ -280,12 +280,12 @@
     <t>Felix Bautista</t>
   </si>
   <si>
+    <t>Wander Franco</t>
+  </si>
+  <si>
     <t>Adley Rutschman</t>
   </si>
   <si>
-    <t>Wander Franco</t>
-  </si>
-  <si>
     <t>Willy Adames</t>
   </si>
   <si>
@@ -316,39 +316,39 @@
     <t>Corbin Carroll</t>
   </si>
   <si>
+    <t>Rhys Hoskins</t>
+  </si>
+  <si>
     <t>Carlos Correa</t>
   </si>
   <si>
-    <t>Rhys Hoskins</t>
+    <t>Christian Yelich</t>
   </si>
   <si>
     <t>Nestor Cortes Jr.</t>
   </si>
   <si>
-    <t>Christian Yelich</t>
-  </si>
-  <si>
     <t>C.J. Cron</t>
   </si>
   <si>
+    <t>Logan Webb</t>
+  </si>
+  <si>
+    <t>Kyle Wright</t>
+  </si>
+  <si>
     <t>Camilo Doval</t>
   </si>
   <si>
-    <t>Kyle Wright</t>
-  </si>
-  <si>
-    <t>Logan Webb</t>
+    <t>Gunnar Henderson</t>
+  </si>
+  <si>
+    <t>Steven Kwan</t>
   </si>
   <si>
     <t>Seiya Suzuki</t>
   </si>
   <si>
-    <t>Steven Kwan</t>
-  </si>
-  <si>
-    <t>Gunnar Henderson</t>
-  </si>
-  <si>
     <t>Gleyber Torres</t>
   </si>
   <si>
@@ -376,27 +376,27 @@
     <t>Clayton Kershaw</t>
   </si>
   <si>
+    <t>Christian Walker</t>
+  </si>
+  <si>
     <t>Alejandro Kirk</t>
   </si>
   <si>
-    <t>Christian Walker</t>
-  </si>
-  <si>
     <t>Amed Rosario</t>
   </si>
   <si>
+    <t>Nick Castellanos</t>
+  </si>
+  <si>
+    <t>Jake McCarthy</t>
+  </si>
+  <si>
+    <t>Kris Bryant</t>
+  </si>
+  <si>
     <t>David Bednar</t>
   </si>
   <si>
-    <t>Nick Castellanos</t>
-  </si>
-  <si>
-    <t>Jake McCarthy</t>
-  </si>
-  <si>
-    <t>Kris Bryant</t>
-  </si>
-  <si>
     <t>Hunter Greene</t>
   </si>
   <si>
@@ -409,40 +409,43 @@
     <t>Kenley Jansen</t>
   </si>
   <si>
+    <t>Taylor Ward</t>
+  </si>
+  <si>
     <t>Ryan Mountcastle</t>
   </si>
   <si>
-    <t>Taylor Ward</t>
+    <t>Nick Lodolo</t>
+  </si>
+  <si>
+    <t>Clay Holmes</t>
   </si>
   <si>
     <t>Freddy Peralta</t>
   </si>
   <si>
+    <t>Lance Lynn</t>
+  </si>
+  <si>
+    <t>Joe Ryan</t>
+  </si>
+  <si>
     <t>Jorge Polanco</t>
   </si>
   <si>
-    <t>Clay Holmes</t>
-  </si>
-  <si>
-    <t>Joe Ryan</t>
-  </si>
-  <si>
-    <t>Nick Lodolo</t>
-  </si>
-  <si>
-    <t>Lance Lynn</t>
-  </si>
-  <si>
     <t>Scott Barlow</t>
   </si>
   <si>
     <t>Anthony Rizzo</t>
   </si>
   <si>
+    <t>Ian Happ</t>
+  </si>
+  <si>
     <t>Liam Hendriks</t>
   </si>
   <si>
-    <t>Ian Happ</t>
+    <t>Andrew Vaughn</t>
   </si>
   <si>
     <t>Max Muncy</t>
@@ -451,7 +454,7 @@
     <t>Lucas Giolito</t>
   </si>
   <si>
-    <t>Andrew Vaughn</t>
+    <t>Pablo Lopez</t>
   </si>
   <si>
     <t>Chris Bassitt</t>
@@ -463,30 +466,27 @@
     <t>Chris Sale</t>
   </si>
   <si>
-    <t>Pablo Lopez</t>
+    <t>Nico Hoerner</t>
   </si>
   <si>
     <t>Daniel Bard</t>
   </si>
   <si>
-    <t>Nico Hoerner</t>
+    <t>Charlie Morton</t>
   </si>
   <si>
     <t>Brandon Nimmo</t>
   </si>
   <si>
-    <t>Charlie Morton</t>
-  </si>
-  <si>
     <t>Dustin May</t>
   </si>
   <si>
+    <t>MJ Melendez</t>
+  </si>
+  <si>
     <t>Hunter Renfroe</t>
   </si>
   <si>
-    <t>MJ Melendez</t>
-  </si>
-  <si>
     <t>Bryce Harper</t>
   </si>
   <si>
@@ -499,84 +499,84 @@
     <t>Matt Chapman</t>
   </si>
   <si>
+    <t>Mitch Haniger</t>
+  </si>
+  <si>
+    <t>Jesus Luzardo</t>
+  </si>
+  <si>
+    <t>Josh Bell</t>
+  </si>
+  <si>
     <t>Sean Murphy</t>
   </si>
   <si>
-    <t>Mitch Haniger</t>
-  </si>
-  <si>
-    <t>Josh Bell</t>
-  </si>
-  <si>
-    <t>Jesus Luzardo</t>
+    <t>Ke'Bryan Hayes</t>
   </si>
   <si>
     <t>Jordan Montgomery</t>
   </si>
   <si>
-    <t>Ke'Bryan Hayes</t>
+    <t>Jhoan Duran</t>
   </si>
   <si>
     <t>Jose Miranda</t>
   </si>
   <si>
-    <t>Jhoan Duran</t>
-  </si>
-  <si>
     <t>Jeff McNeil</t>
   </si>
   <si>
     <t>William Contreras</t>
   </si>
   <si>
+    <t>Eugenio Suarez</t>
+  </si>
+  <si>
+    <t>Alexis Diaz</t>
+  </si>
+  <si>
     <t>Andres Munoz</t>
   </si>
   <si>
-    <t>Alexis Diaz</t>
-  </si>
-  <si>
-    <t>Eugenio Suarez</t>
-  </si>
-  <si>
     <t>Luis Arraez</t>
   </si>
   <si>
+    <t>Jake Cronenworth</t>
+  </si>
+  <si>
     <t>Alex Verdugo</t>
   </si>
   <si>
-    <t>Jake Cronenworth</t>
+    <t>Oscar Gonzalez</t>
+  </si>
+  <si>
+    <t>Paul Sewald</t>
   </si>
   <si>
     <t>Tony Gonsolin</t>
   </si>
   <si>
-    <t>Paul Sewald</t>
-  </si>
-  <si>
     <t>Brady Singer</t>
   </si>
   <si>
-    <t>Oscar Gonzalez</t>
-  </si>
-  <si>
     <t>Jonathan India</t>
   </si>
   <si>
+    <t>Jon Gray</t>
+  </si>
+  <si>
     <t>Alec Bohm</t>
   </si>
   <si>
-    <t>Jon Gray</t>
-  </si>
-  <si>
     <t>Javier Baez</t>
   </si>
   <si>
+    <t>Jeffrey Springs</t>
+  </si>
+  <si>
     <t>Ketel Marte</t>
   </si>
   <si>
-    <t>Jeffrey Springs</t>
-  </si>
-  <si>
     <t>Tyler Stephenson</t>
   </si>
   <si>
@@ -589,30 +589,30 @@
     <t>Drew Rasmussen</t>
   </si>
   <si>
+    <t>Vaughn Grissom</t>
+  </si>
+  <si>
     <t>Joey Meneses</t>
   </si>
   <si>
+    <t>Ryan McMahon</t>
+  </si>
+  <si>
+    <t>Thairo Estrada</t>
+  </si>
+  <si>
+    <t>Riley Greene</t>
+  </si>
+  <si>
     <t>Frankie Montas</t>
   </si>
   <si>
-    <t>Ryan McMahon</t>
-  </si>
-  <si>
-    <t>Vaughn Grissom</t>
-  </si>
-  <si>
     <t>Pete Fairbanks</t>
   </si>
   <si>
-    <t>Riley Greene</t>
-  </si>
-  <si>
     <t>Josh Naylor</t>
   </si>
   <si>
-    <t>Thairo Estrada</t>
-  </si>
-  <si>
     <t>Whit Merrifield</t>
   </si>
   <si>
@@ -622,39 +622,39 @@
     <t>Andrew Heaney</t>
   </si>
   <si>
+    <t>Harrison Bader</t>
+  </si>
+  <si>
     <t>Grayson Rodriguez</t>
   </si>
   <si>
-    <t>Harrison Bader</t>
+    <t>J.D. Martinez</t>
+  </si>
+  <si>
+    <t>Jean Segura</t>
+  </si>
+  <si>
+    <t>Brandon Drury</t>
   </si>
   <si>
     <t>Miles Mikolas</t>
   </si>
   <si>
-    <t>J.D. Martinez</t>
-  </si>
-  <si>
-    <t>Brandon Drury</t>
-  </si>
-  <si>
-    <t>Jean Segura</t>
-  </si>
-  <si>
     <t>Patrick Sandoval</t>
   </si>
   <si>
+    <t>Cal Raleigh</t>
+  </si>
+  <si>
+    <t>Lars Nootbaar</t>
+  </si>
+  <si>
     <t>Jose Berrios</t>
   </si>
   <si>
-    <t>Cal Raleigh</t>
-  </si>
-  <si>
     <t>Alex Cobb</t>
   </si>
   <si>
-    <t>Lars Nootbaar</t>
-  </si>
-  <si>
     <t>Jose Leclerc</t>
   </si>
   <si>
@@ -664,246 +664,246 @@
     <t>Reid Detmers</t>
   </si>
   <si>
+    <t>Brendan Rodgers</t>
+  </si>
+  <si>
     <t>Aaron Ashby</t>
   </si>
   <si>
-    <t>Brendan Rodgers</t>
-  </si>
-  <si>
     <t>Ramon Laureano</t>
   </si>
   <si>
     <t>Andrew Benintendi</t>
   </si>
   <si>
+    <t>Sonny Gray</t>
+  </si>
+  <si>
+    <t>Joc Pederson</t>
+  </si>
+  <si>
     <t>Anthony Rendon</t>
   </si>
   <si>
-    <t>Sonny Gray</t>
-  </si>
-  <si>
-    <t>Joc Pederson</t>
-  </si>
-  <si>
     <t>Seth Brown</t>
   </si>
   <si>
+    <t>Cody Bellinger</t>
+  </si>
+  <si>
+    <t>Kolten Wong</t>
+  </si>
+  <si>
+    <t>Edward Cabrera</t>
+  </si>
+  <si>
+    <t>Nathan Eovaldi</t>
+  </si>
+  <si>
     <t>Lourdes Gurriel Jr.</t>
   </si>
   <si>
-    <t>Edward Cabrera</t>
-  </si>
-  <si>
-    <t>Kolten Wong</t>
-  </si>
-  <si>
-    <t>Nathan Eovaldi</t>
-  </si>
-  <si>
-    <t>Cody Bellinger</t>
-  </si>
-  <si>
     <t>Justin Turner</t>
   </si>
   <si>
+    <t>Jorge Lopez</t>
+  </si>
+  <si>
+    <t>Josh Jung</t>
+  </si>
+  <si>
+    <t>Merrill Kelly</t>
+  </si>
+  <si>
+    <t>Jack Flaherty</t>
+  </si>
+  <si>
+    <t>Austin Hays</t>
+  </si>
+  <si>
     <t>Danny Jansen</t>
   </si>
   <si>
+    <t>Michael Conforto</t>
+  </si>
+  <si>
+    <t>Triston Casas</t>
+  </si>
+  <si>
+    <t>CJ Abrams</t>
+  </si>
+  <si>
+    <t>Luis Urias</t>
+  </si>
+  <si>
+    <t>Bryson Stott</t>
+  </si>
+  <si>
+    <t>Ezequiel Tovar</t>
+  </si>
+  <si>
     <t>Yandy Diaz</t>
   </si>
   <si>
-    <t>Triston Casas</t>
-  </si>
-  <si>
-    <t>Jorge Lopez</t>
-  </si>
-  <si>
-    <t>Josh Jung</t>
-  </si>
-  <si>
-    <t>Austin Hays</t>
-  </si>
-  <si>
-    <t>Merrill Kelly</t>
-  </si>
-  <si>
-    <t>Jack Flaherty</t>
-  </si>
-  <si>
-    <t>Michael Conforto</t>
-  </si>
-  <si>
-    <t>CJ Abrams</t>
-  </si>
-  <si>
-    <t>Ezequiel Tovar</t>
-  </si>
-  <si>
-    <t>Luis Urias</t>
-  </si>
-  <si>
-    <t>Bryson Stott</t>
+    <t>Jameson Taillon</t>
+  </si>
+  <si>
+    <t>Tyler Mahle</t>
+  </si>
+  <si>
+    <t>Seranthony Dominguez</t>
+  </si>
+  <si>
+    <t>Adalberto Mondesi</t>
+  </si>
+  <si>
+    <t>Tyler Anderson</t>
+  </si>
+  <si>
+    <t>Charlie Blackmon</t>
+  </si>
+  <si>
+    <t>Randal Grichuk</t>
+  </si>
+  <si>
+    <t>Keibert Ruiz</t>
+  </si>
+  <si>
+    <t>Gavin Lux</t>
+  </si>
+  <si>
+    <t>Trevor Rogers</t>
   </si>
   <si>
     <t>DJ LeMahieu</t>
   </si>
   <si>
-    <t>Jameson Taillon</t>
-  </si>
-  <si>
-    <t>Tyler Anderson</t>
-  </si>
-  <si>
-    <t>Tyler Mahle</t>
-  </si>
-  <si>
-    <t>Adalberto Mondesi</t>
-  </si>
-  <si>
-    <t>Charlie Blackmon</t>
-  </si>
-  <si>
-    <t>Seranthony Dominguez</t>
-  </si>
-  <si>
-    <t>Randal Grichuk</t>
-  </si>
-  <si>
-    <t>Gavin Lux</t>
-  </si>
-  <si>
-    <t>Keibert Ruiz</t>
-  </si>
-  <si>
     <t>Jorge Mateo</t>
   </si>
   <si>
-    <t>Trevor Rogers</t>
-  </si>
-  <si>
     <t>Kyle Finnegan</t>
   </si>
   <si>
     <t>Eric Lauer</t>
   </si>
   <si>
+    <t>Marcus Stroman</t>
+  </si>
+  <si>
+    <t>Jose Urquidy</t>
+  </si>
+  <si>
+    <t>HaSeong Kim</t>
+  </si>
+  <si>
+    <t>Ranger Suarez</t>
+  </si>
+  <si>
+    <t>Jon Berti</t>
+  </si>
+  <si>
+    <t>Lane Thomas</t>
+  </si>
+  <si>
+    <t>Bryan De La Cruz</t>
+  </si>
+  <si>
     <t>Giovanny Gallegos</t>
   </si>
   <si>
-    <t>Jose Urquidy</t>
-  </si>
-  <si>
-    <t>Marcus Stroman</t>
-  </si>
-  <si>
-    <t>HaSeong Kim</t>
+    <t>Roansy Contreras</t>
+  </si>
+  <si>
+    <t>Trey Mancini</t>
+  </si>
+  <si>
+    <t>Carlos Carrasco</t>
   </si>
   <si>
     <t>Gregory Soto</t>
   </si>
   <si>
-    <t>Ranger Suarez</t>
-  </si>
-  <si>
-    <t>Jon Berti</t>
-  </si>
-  <si>
-    <t>Lane Thomas</t>
-  </si>
-  <si>
-    <t>Roansy Contreras</t>
+    <t>Austin Meadows</t>
+  </si>
+  <si>
+    <t>Sean Manaea</t>
+  </si>
+  <si>
+    <t>Christopher Morel</t>
+  </si>
+  <si>
+    <t>Michael Kopech</t>
+  </si>
+  <si>
+    <t>Miguel Vargas</t>
+  </si>
+  <si>
+    <t>Dylan Carlson</t>
   </si>
   <si>
     <t>Yoan Moncada</t>
   </si>
   <si>
-    <t>Bryan De La Cruz</t>
-  </si>
-  <si>
-    <t>Carlos Carrasco</t>
-  </si>
-  <si>
-    <t>Trey Mancini</t>
-  </si>
-  <si>
-    <t>Austin Meadows</t>
-  </si>
-  <si>
-    <t>Sean Manaea</t>
-  </si>
-  <si>
-    <t>Michael Kopech</t>
-  </si>
-  <si>
-    <t>Christopher Morel</t>
-  </si>
-  <si>
-    <t>Miguel Vargas</t>
-  </si>
-  <si>
-    <t>Dylan Carlson</t>
-  </si>
-  <si>
     <t>Dylan Floro</t>
   </si>
   <si>
     <t>Manuel Margot</t>
   </si>
   <si>
+    <t>Bailey Ober</t>
+  </si>
+  <si>
     <t>Travis d'Arnaud</t>
   </si>
   <si>
-    <t>Bailey Ober</t>
-  </si>
-  <si>
     <t>Martin Perez</t>
   </si>
   <si>
     <t>Jesse Winker</t>
   </si>
   <si>
+    <t>Jordan Walker</t>
+  </si>
+  <si>
     <t>Jorge Soler</t>
   </si>
   <si>
+    <t>Jake Fraley</t>
+  </si>
+  <si>
+    <t>Hunter Brown</t>
+  </si>
+  <si>
     <t>Justin Steele</t>
   </si>
   <si>
-    <t>Jake Fraley</t>
-  </si>
-  <si>
     <t>Jared Walsh</t>
   </si>
   <si>
-    <t>Jordan Walker</t>
-  </si>
-  <si>
-    <t>Hunter Brown</t>
-  </si>
-  <si>
     <t>Jarred Kelenic</t>
   </si>
   <si>
+    <t>Luis Rengifo</t>
+  </si>
+  <si>
+    <t>Taijuan Walker</t>
+  </si>
+  <si>
     <t>Cal Quantrill</t>
   </si>
   <si>
-    <t>Luis Rengifo</t>
+    <t>Brandon Marsh</t>
+  </si>
+  <si>
+    <t>Oswaldo Cabrera</t>
   </si>
   <si>
     <t>Jose Siri</t>
   </si>
   <si>
-    <t>Taijuan Walker</t>
-  </si>
-  <si>
-    <t>Oswaldo Cabrera</t>
-  </si>
-  <si>
     <t>Taylor Rogers</t>
   </si>
   <si>
-    <t>Brandon Marsh</t>
-  </si>
-  <si>
     <t>Garrett Whitlock</t>
   </si>
   <si>
@@ -913,6 +913,12 @@
     <t>Tylor Megill</t>
   </si>
   <si>
+    <t>Kodai Senga</t>
+  </si>
+  <si>
+    <t>Masataka Yoshida</t>
+  </si>
+  <si>
     <t>Eduardo Rodriguez</t>
   </si>
   <si>
@@ -922,49 +928,46 @@
     <t>Matt Mervis</t>
   </si>
   <si>
-    <t>Kodai Senga</t>
-  </si>
-  <si>
-    <t>Masataka Yoshida</t>
+    <t>Jonah Heim</t>
   </si>
   <si>
     <t>Brayan Bello</t>
   </si>
   <si>
-    <t>Jonah Heim</t>
+    <t>Evan Phillips</t>
   </si>
   <si>
     <t>Jose Quintana</t>
   </si>
   <si>
+    <t>Juan Yepez</t>
+  </si>
+  <si>
+    <t>Ross Stripling</t>
+  </si>
+  <si>
     <t>Logan O'Hoppe</t>
   </si>
   <si>
-    <t>Juan Yepez</t>
-  </si>
-  <si>
-    <t>Evan Phillips</t>
+    <t>Craig Kimbrel</t>
+  </si>
+  <si>
+    <t>Trent Grisham</t>
+  </si>
+  <si>
+    <t>Wil Myers</t>
   </si>
   <si>
     <t>Daniel Hudson</t>
   </si>
   <si>
-    <t>Ross Stripling</t>
+    <t>Spencer Torkelson</t>
   </si>
   <si>
     <t>Avisail Garcia</t>
   </si>
   <si>
-    <t>Trent Grisham</t>
-  </si>
-  <si>
-    <t>Craig Kimbrel</t>
-  </si>
-  <si>
-    <t>Wil Myers</t>
-  </si>
-  <si>
-    <t>Spencer Torkelson</t>
+    <t>Zach Eflin</t>
   </si>
   <si>
     <t>Yasmani Grandal</t>
@@ -979,7 +982,16 @@
     <t>Mike Clevinger</t>
   </si>
   <si>
-    <t>Zach Eflin</t>
+    <t>Michael Brantley</t>
+  </si>
+  <si>
+    <t>Esteury Ruiz</t>
+  </si>
+  <si>
+    <t>Alex Kirilloff</t>
+  </si>
+  <si>
+    <t>Kenta Maeda</t>
   </si>
   <si>
     <t>Mark Canha</t>
@@ -988,33 +1000,27 @@
     <t>Tanner Houck</t>
   </si>
   <si>
-    <t>Michael Brantley</t>
+    <t>Nick Gordon</t>
+  </si>
+  <si>
+    <t>Brendan Donovan</t>
   </si>
   <si>
     <t>Alex Lange</t>
   </si>
   <si>
-    <t>Esteury Ruiz</t>
-  </si>
-  <si>
-    <t>Alex Kirilloff</t>
+    <t>Christian Vazquez</t>
+  </si>
+  <si>
+    <t>Marcell Ozuna</t>
   </si>
   <si>
     <t>Brandon Hughes</t>
   </si>
   <si>
-    <t>Nick Gordon</t>
-  </si>
-  <si>
-    <t>Kenta Maeda</t>
-  </si>
-  <si>
     <t>Aroldis Chapman</t>
   </si>
   <si>
-    <t>Brendan Donovan</t>
-  </si>
-  <si>
     <t>Steven Matz</t>
   </si>
   <si>
@@ -1027,144 +1033,144 @@
     <t>Kendall Graveman</t>
   </si>
   <si>
-    <t>Christian Vazquez</t>
+    <t>Oswald Peraza</t>
+  </si>
+  <si>
+    <t>Alex Wood</t>
+  </si>
+  <si>
+    <t>Aaron Civale</t>
+  </si>
+  <si>
+    <t>Hayden Wesneski</t>
+  </si>
+  <si>
+    <t>Jason Adam</t>
+  </si>
+  <si>
+    <t>Bubba Thompson</t>
+  </si>
+  <si>
+    <t>Trevor May</t>
+  </si>
+  <si>
+    <t>TJ Friedl</t>
   </si>
   <si>
     <t>Carlos Estevez</t>
   </si>
   <si>
-    <t>Alex Wood</t>
-  </si>
-  <si>
-    <t>Hayden Wesneski</t>
+    <t>Gabriel Moreno</t>
+  </si>
+  <si>
+    <t>Andrew McCutchen</t>
+  </si>
+  <si>
+    <t>James Karinchak</t>
+  </si>
+  <si>
+    <t>Oscar Colas</t>
+  </si>
+  <si>
+    <t>Isaac Paredes</t>
+  </si>
+  <si>
+    <t>A.J. Puk</t>
+  </si>
+  <si>
+    <t>Francisco Alvarez</t>
+  </si>
+  <si>
+    <t>Drey Jameson</t>
+  </si>
+  <si>
+    <t>Trayce Thompson</t>
+  </si>
+  <si>
+    <t>A.J. Minter</t>
+  </si>
+  <si>
+    <t>Tarik Skubal</t>
+  </si>
+  <si>
+    <t>Kike Hernandez</t>
+  </si>
+  <si>
+    <t>Eduardo Escobar</t>
+  </si>
+  <si>
+    <t>MacKenzie Gore</t>
+  </si>
+  <si>
+    <t>Wilmer Flores</t>
   </si>
   <si>
     <t>Noah Syndergaard</t>
   </si>
   <si>
-    <t>Marcell Ozuna</t>
-  </si>
-  <si>
-    <t>Bubba Thompson</t>
-  </si>
-  <si>
-    <t>Trevor May</t>
-  </si>
-  <si>
-    <t>TJ Friedl</t>
-  </si>
-  <si>
-    <t>Gabriel Moreno</t>
-  </si>
-  <si>
-    <t>Andrew McCutchen</t>
-  </si>
-  <si>
-    <t>James Karinchak</t>
-  </si>
-  <si>
-    <t>Isaac Paredes</t>
-  </si>
-  <si>
-    <t>Oscar Colas</t>
-  </si>
-  <si>
-    <t>A.J. Puk</t>
-  </si>
-  <si>
-    <t>Oswald Peraza</t>
-  </si>
-  <si>
-    <t>Trayce Thompson</t>
-  </si>
-  <si>
-    <t>Francisco Alvarez</t>
-  </si>
-  <si>
-    <t>Aaron Civale</t>
-  </si>
-  <si>
-    <t>Drey Jameson</t>
-  </si>
-  <si>
-    <t>Kike Hernandez</t>
-  </si>
-  <si>
-    <t>A.J. Minter</t>
-  </si>
-  <si>
-    <t>Tarik Skubal</t>
-  </si>
-  <si>
-    <t>Eduardo Escobar</t>
-  </si>
-  <si>
-    <t>MacKenzie Gore</t>
-  </si>
-  <si>
-    <t>Wilmer Flores</t>
-  </si>
-  <si>
-    <t>Jason Adam</t>
+    <t>German Marquez</t>
   </si>
   <si>
     <t>Max Kepler</t>
   </si>
   <si>
+    <t>Rafael Montero</t>
+  </si>
+  <si>
     <t>Jose Suarez</t>
   </si>
   <si>
     <t>Nick Pivetta</t>
   </si>
   <si>
-    <t>German Marquez</t>
-  </si>
-  <si>
-    <t>Rafael Montero</t>
+    <t>Garrett Cooper</t>
   </si>
   <si>
     <t>Eric Haase</t>
   </si>
   <si>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
     <t>Mike Soroka</t>
   </si>
   <si>
-    <t>Jose Alvarado</t>
+    <t>Andrew Painter</t>
   </si>
   <si>
     <t>Gio Urshela</t>
   </si>
   <si>
+    <t>Braxton Garrett</t>
+  </si>
+  <si>
     <t>Luke</t>
   </si>
   <si>
-    <t>Braxton Garrett</t>
+    <t>Kyle Gibson</t>
   </si>
   <si>
     <t>Joey Votto</t>
   </si>
   <si>
-    <t>Kyle Gibson</t>
+    <t>Jurickson</t>
+  </si>
+  <si>
+    <t>David Peterson</t>
   </si>
   <si>
     <t>Josiah Gray</t>
   </si>
   <si>
-    <t>Jurickson</t>
-  </si>
-  <si>
-    <t>David Peterson</t>
-  </si>
-  <si>
     <t>Kyle Bradish</t>
   </si>
   <si>
+    <t>Jimmy Herget</t>
+  </si>
+  <si>
     <t>Harold Ramirez</t>
   </si>
   <si>
-    <t>Jimmy Herget</t>
-  </si>
-  <si>
     <t>Elvis</t>
   </si>
   <si>
@@ -1180,58 +1186,58 @@
     <t>Matt Carpenter</t>
   </si>
   <si>
+    <t>Brock Burke</t>
+  </si>
+  <si>
+    <t>AJ Pollock</t>
+  </si>
+  <si>
+    <t>Brusdar Graterol</t>
+  </si>
+  <si>
     <t>Shea Langeliers</t>
   </si>
   <si>
-    <t>AJ Pollock</t>
-  </si>
-  <si>
     <t>Adbert Alzolay</t>
   </si>
   <si>
-    <t>Brock Burke</t>
-  </si>
-  <si>
-    <t>Brusdar Graterol</t>
-  </si>
-  <si>
     <t>Joey Bart</t>
   </si>
   <si>
+    <t>Alex Vesia</t>
+  </si>
+  <si>
     <t>Ken Waldichuk</t>
   </si>
   <si>
-    <t>Garrett Cooper</t>
-  </si>
-  <si>
-    <t>Alex Vesia</t>
+    <t>Michael King</t>
   </si>
   <si>
     <t>Joey Gallo</t>
   </si>
   <si>
-    <t>Michael King</t>
+    <t>Joey Wendle</t>
+  </si>
+  <si>
+    <t>JT Brubaker</t>
   </si>
   <si>
     <t>Tony Kemp</t>
   </si>
   <si>
-    <t>Joey Wendle</t>
-  </si>
-  <si>
-    <t>JT Brubaker</t>
-  </si>
-  <si>
     <t>Robert Suarez</t>
   </si>
   <si>
+    <t>Ramon Urias</t>
+  </si>
+  <si>
     <t>Domingo German</t>
   </si>
   <si>
-    <t>Ramon Urias</t>
-  </si>
-  <si>
-    <t>Andrew Painter</t>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Connor Joe</t>
   </si>
   <si>
     <t>Jo Adell</t>
@@ -1240,25 +1246,22 @@
     <t>Spencer Turnbull</t>
   </si>
   <si>
-    <t>Connor Joe</t>
-  </si>
-  <si>
-    <t>Will</t>
-  </si>
-  <si>
     <t>Bo Naylor</t>
   </si>
   <si>
+    <t>Nolan Gorman</t>
+  </si>
+  <si>
     <t>Tyrone Taylor</t>
   </si>
   <si>
-    <t>Nolan Gorman</t>
+    <t>Cody Morris</t>
   </si>
   <si>
     <t>Myles Straw</t>
   </si>
   <si>
-    <t>Cody Morris</t>
+    <t>Royce Lewis</t>
   </si>
   <si>
     <t>Mitch Keller</t>
@@ -1267,48 +1270,45 @@
     <t>J.P. Crawford</t>
   </si>
   <si>
-    <t>Royce Lewis</t>
-  </si>
-  <si>
     <t>Luis Ortiz</t>
   </si>
   <si>
     <t>Jeimer Candelario</t>
   </si>
   <si>
+    <t>Leody Taveras</t>
+  </si>
+  <si>
     <t>Carson Kelly</t>
   </si>
   <si>
-    <t>Leody Taveras</t>
-  </si>
-  <si>
     <t>Patrick Wisdom</t>
   </si>
   <si>
     <t>Akil Baddoo</t>
   </si>
   <si>
+    <t>Christian Bethancourt</t>
+  </si>
+  <si>
     <t>J.D. Davis</t>
   </si>
   <si>
-    <t>Christian Bethancourt</t>
-  </si>
-  <si>
     <t>Johnny Cueto</t>
   </si>
   <si>
     <t>Brandon Crawford</t>
   </si>
   <si>
+    <t>Brandon Belt</t>
+  </si>
+  <si>
+    <t>James Paxton</t>
+  </si>
+  <si>
     <t>Josh Lowe</t>
   </si>
   <si>
-    <t>Brandon Belt</t>
-  </si>
-  <si>
-    <t>James Paxton</t>
-  </si>
-  <si>
     <t>Elias Diaz</t>
   </si>
   <si>
@@ -1318,27 +1318,27 @@
     <t>Eric Hosmer</t>
   </si>
   <si>
+    <t>Christian Arroyo</t>
+  </si>
+  <si>
     <t>Jose Trevino</t>
   </si>
   <si>
-    <t>Christian Arroyo</t>
+    <t>Gary</t>
   </si>
   <si>
     <t>Nick Fortes</t>
   </si>
   <si>
-    <t>Gary</t>
-  </si>
-  <si>
     <t>Kerry Carpenter</t>
   </si>
   <si>
+    <t>Edward Olivares</t>
+  </si>
+  <si>
     <t>Cole Irvin</t>
   </si>
   <si>
-    <t>Edward Olivares</t>
-  </si>
-  <si>
     <t>Erik Swanson</t>
   </si>
   <si>
@@ -1360,13 +1360,16 @@
     <t>Tanner Scott</t>
   </si>
   <si>
+    <t>Matt Bush</t>
+  </si>
+  <si>
+    <t>David Robertson</t>
+  </si>
+  <si>
     <t>Anthony Volpe</t>
   </si>
   <si>
-    <t>David Robertson</t>
-  </si>
-  <si>
-    <t>Matt Bush</t>
+    <t>Bobby Dalbec</t>
   </si>
   <si>
     <t>Tejay Antone</t>
@@ -1378,58 +1381,61 @@
     <t>John Schreiber</t>
   </si>
   <si>
-    <t>Bobby Dalbec</t>
-  </si>
-  <si>
     <t>Nick Senzel</t>
   </si>
   <si>
+    <t>Aaron Bummer</t>
+  </si>
+  <si>
+    <t>Joe Jimenez</t>
+  </si>
+  <si>
     <t>Jarren Duran</t>
   </si>
   <si>
+    <t>Garrett Cleavinger</t>
+  </si>
+  <si>
+    <t>Joe Kelly</t>
+  </si>
+  <si>
     <t>Rodolfo Castro</t>
   </si>
   <si>
-    <t>Aaron Bummer</t>
-  </si>
-  <si>
-    <t>Joe Kelly</t>
+    <t>Graham Ashcraft</t>
   </si>
   <si>
     <t>Austin Nola</t>
   </si>
   <si>
-    <t>Joe Jimenez</t>
-  </si>
-  <si>
-    <t>Graham Ashcraft</t>
-  </si>
-  <si>
-    <t>Garrett Cleavinger</t>
+    <t>Hector Neris</t>
   </si>
   <si>
     <t>Nick Martinez</t>
   </si>
   <si>
-    <t>Hector Neris</t>
+    <t>Collin McHugh</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Clarke Schmidt</t>
   </si>
   <si>
     <t>Diego Castillo</t>
   </si>
   <si>
-    <t>Collin McHugh</t>
+    <t>JP Sears</t>
+  </si>
+  <si>
+    <t>Trevor Stephan</t>
   </si>
   <si>
     <t>Mitch Garver</t>
   </si>
   <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Clarke Schmidt</t>
-  </si>
-  <si>
-    <t>JP Sears</t>
+    <t>Michael Lorenzen</t>
   </si>
   <si>
     <t>DL Hall</t>
@@ -1438,33 +1444,27 @@
     <t>Chas McCormick</t>
   </si>
   <si>
-    <t>Trevor Stephan</t>
-  </si>
-  <si>
-    <t>Michael Lorenzen</t>
+    <t>Nate Pearson</t>
+  </si>
+  <si>
+    <t>Dylan Coleman</t>
+  </si>
+  <si>
+    <t>Trevor</t>
+  </si>
+  <si>
+    <t>Joe Mantiply</t>
+  </si>
+  <si>
+    <t>David Fletcher</t>
   </si>
   <si>
     <t>Brett Baty</t>
   </si>
   <si>
-    <t>David Fletcher</t>
-  </si>
-  <si>
     <t>Josh Donaldson</t>
   </si>
   <si>
-    <t>Nate Pearson</t>
-  </si>
-  <si>
-    <t>Dylan Coleman</t>
-  </si>
-  <si>
-    <t>Trevor</t>
-  </si>
-  <si>
-    <t>Joe Mantiply</t>
-  </si>
-  <si>
     <t>Eddie Rosario</t>
   </si>
   <si>
@@ -1474,43 +1474,52 @@
     <t>Nick Madrigal</t>
   </si>
   <si>
+    <t>Jonathan Schoop</t>
+  </si>
+  <si>
+    <t>Matthew Boyd</t>
+  </si>
+  <si>
     <t>Anthony DeSclafani</t>
   </si>
   <si>
-    <t>Jonathan Schoop</t>
-  </si>
-  <si>
     <t>Brice Turang</t>
   </si>
   <si>
-    <t>Matthew Boyd</t>
+    <t>Ryan Pepiot</t>
+  </si>
+  <si>
+    <t>Paul Blackburn</t>
+  </si>
+  <si>
+    <t>Kyle Freeland</t>
+  </si>
+  <si>
+    <t>Jordan Lyles</t>
+  </si>
+  <si>
+    <t>Spencer Steer</t>
   </si>
   <si>
     <t>Gavin Sheets</t>
   </si>
   <si>
-    <t>Ryan Pepiot</t>
-  </si>
-  <si>
-    <t>Paul Blackburn</t>
-  </si>
-  <si>
-    <t>Kyle Freeland</t>
-  </si>
-  <si>
-    <t>Jordan Lyles</t>
-  </si>
-  <si>
-    <t>Spencer Steer</t>
-  </si>
-  <si>
     <t>Ian Anderson</t>
   </si>
   <si>
+    <t>Dean Kremer</t>
+  </si>
+  <si>
     <t>Matt Manning</t>
   </si>
   <si>
-    <t>Dean Kremer</t>
+    <t>Patrick Corbin</t>
+  </si>
+  <si>
+    <t>Endy Rodriguez</t>
+  </si>
+  <si>
+    <t>Zach Plesac</t>
   </si>
   <si>
     <t>Isiah KinerFalefa</t>
@@ -1519,63 +1528,54 @@
     <t>Franmil Reyes</t>
   </si>
   <si>
-    <t>Patrick Corbin</t>
-  </si>
-  <si>
-    <t>Endy Rodriguez</t>
-  </si>
-  <si>
-    <t>Zach Plesac</t>
-  </si>
-  <si>
     <t>Santiago Espinal</t>
   </si>
   <si>
+    <t>Yan Gomes</t>
+  </si>
+  <si>
     <t>Victor Robles</t>
   </si>
   <si>
+    <t>Kyle Farmer</t>
+  </si>
+  <si>
+    <t>Adrian Houser</t>
+  </si>
+  <si>
+    <t>Nelson Cruz</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
     <t>Ryan Jeffers</t>
   </si>
   <si>
-    <t>Kyle Farmer</t>
-  </si>
-  <si>
-    <t>Nelson Cruz</t>
+    <t>Luis Campusano</t>
+  </si>
+  <si>
+    <t>Domingo Acevedo</t>
   </si>
   <si>
     <t>Drew Waters</t>
   </si>
   <si>
-    <t>Yan Gomes</t>
-  </si>
-  <si>
-    <t>Domingo Acevedo</t>
-  </si>
-  <si>
-    <t>Adrian Houser</t>
-  </si>
-  <si>
-    <t>Kyle Hendricks</t>
+    <t>Reynaldo Lopez</t>
+  </si>
+  <si>
+    <t>Aledmys Diaz</t>
   </si>
   <si>
     <t>Jack Suwinski</t>
   </si>
   <si>
-    <t>Luis Campusano</t>
-  </si>
-  <si>
-    <t>Aledmys Diaz</t>
-  </si>
-  <si>
-    <t>Reynaldo Lopez</t>
+    <t>Kevin Kiermaier</t>
   </si>
   <si>
     <t>Will Brennan</t>
   </si>
   <si>
-    <t>Kevin Kiermaier</t>
-  </si>
-  <si>
     <t>James Kaprielian</t>
   </si>
   <si>
@@ -1585,57 +1585,57 @@
     <t>Kris Bubic</t>
   </si>
   <si>
+    <t>Kyle Lewis</t>
+  </si>
+  <si>
     <t>Francisco Mejia</t>
   </si>
   <si>
-    <t>Kyle Lewis</t>
-  </si>
-  <si>
     <t>Kevin Ginkel</t>
   </si>
   <si>
     <t>Brian Anderson</t>
   </si>
   <si>
+    <t>Sixto Sanchez</t>
+  </si>
+  <si>
+    <t>Carlos Santana</t>
+  </si>
+  <si>
     <t>James Outman</t>
   </si>
   <si>
-    <t>Sixto Sanchez</t>
-  </si>
-  <si>
-    <t>Carlos Santana</t>
-  </si>
-  <si>
     <t>Jesus Sanchez</t>
   </si>
   <si>
     <t>Bailey Falter</t>
   </si>
   <si>
+    <t>Sal Frelick</t>
+  </si>
+  <si>
+    <t>Mike Zunino</t>
+  </si>
+  <si>
     <t>Michael Massey</t>
   </si>
   <si>
-    <t>Sal Frelick</t>
-  </si>
-  <si>
-    <t>Mike Zunino</t>
-  </si>
-  <si>
     <t>Nick Pratto</t>
   </si>
   <si>
+    <t>Omar Narvaez</t>
+  </si>
+  <si>
+    <t>Drew Smyly</t>
+  </si>
+  <si>
     <t>Nolan Jones</t>
   </si>
   <si>
-    <t>Omar Narvaez</t>
-  </si>
-  <si>
     <t>JiMan Choi</t>
   </si>
   <si>
-    <t>Drew Smyly</t>
-  </si>
-  <si>
     <t>Elieser Hernandez</t>
   </si>
   <si>
@@ -1660,24 +1660,24 @@
     <t>Hunter Harvey</t>
   </si>
   <si>
+    <t>Jonathan Loaisiga</t>
+  </si>
+  <si>
+    <t>Chris Flexen</t>
+  </si>
+  <si>
+    <t>Joe Barlow</t>
+  </si>
+  <si>
+    <t>Keston Hiura</t>
+  </si>
+  <si>
+    <t>Brooks Raley</t>
+  </si>
+  <si>
     <t>Elly De La Cruz</t>
   </si>
   <si>
-    <t>Jonathan Loaisiga</t>
-  </si>
-  <si>
-    <t>Chris Flexen</t>
-  </si>
-  <si>
-    <t>Joe Barlow</t>
-  </si>
-  <si>
-    <t>Keston Hiura</t>
-  </si>
-  <si>
-    <t>Brooks Raley</t>
-  </si>
-  <si>
     <t>Stone Garrett</t>
   </si>
   <si>
@@ -2404,12 +2404,12 @@
     <t>SS</t>
   </si>
   <si>
+    <t>RF,DH</t>
+  </si>
+  <si>
     <t>CF,RF,DH</t>
   </si>
   <si>
-    <t>RF,DH</t>
-  </si>
-  <si>
     <t>3B,DH</t>
   </si>
   <si>
@@ -2431,18 +2431,18 @@
     <t>SP,DH</t>
   </si>
   <si>
+    <t>1B</t>
+  </si>
+  <si>
     <t>SP</t>
   </si>
   <si>
-    <t>1B</t>
+    <t>3B,SS</t>
   </si>
   <si>
     <t>3B</t>
   </si>
   <si>
-    <t>3B,SS</t>
-  </si>
-  <si>
     <t>SP,RP</t>
   </si>
   <si>
@@ -2488,12 +2488,12 @@
     <t>CF,RF</t>
   </si>
   <si>
+    <t>1B,LF,RF,DH</t>
+  </si>
+  <si>
     <t>2B,3B,DH</t>
   </si>
   <si>
-    <t>1B,LF,RF,DH</t>
-  </si>
-  <si>
     <t>1B,3B</t>
   </si>
   <si>
@@ -2521,12 +2521,12 @@
     <t>2B,3B</t>
   </si>
   <si>
+    <t>2B,SS,LF</t>
+  </si>
+  <si>
     <t>1B,RF,DH</t>
   </si>
   <si>
-    <t>2B,SS,LF</t>
-  </si>
-  <si>
     <t>2B,CF,RF</t>
   </si>
   <si>
@@ -2542,12 +2542,12 @@
     <t>2B,3B,SS</t>
   </si>
   <si>
+    <t>2B,LF</t>
+  </si>
+  <si>
     <t>1B,2B,3B</t>
   </si>
   <si>
-    <t>2B,LF</t>
-  </si>
-  <si>
     <t>2B,3B,SS,LF</t>
   </si>
   <si>
@@ -2584,7 +2584,7 @@
     <t>1B,2B,3B,SS,RF</t>
   </si>
   <si>
-    <t>CF,SP</t>
+    <t>RP,SP</t>
   </si>
   <si>
     <t>1B,2B,3B,SS,LF</t>
@@ -2638,12 +2638,12 @@
     <t>PHI</t>
   </si>
   <si>
+    <t>ATL</t>
+  </si>
+  <si>
     <t>NYY</t>
   </si>
   <si>
-    <t>ATL</t>
-  </si>
-  <si>
     <t>CLE</t>
   </si>
   <si>
@@ -2686,10 +2686,10 @@
     <t>TEX</t>
   </si>
   <si>
+    <t>TB</t>
+  </si>
+  <si>
     <t>CWS</t>
-  </si>
-  <si>
-    <t>TB</t>
   </si>
   <si>
     <t>BAL</t>
@@ -3349,7 +3349,7 @@
         <v>804</v>
       </c>
       <c r="D13" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3363,7 +3363,7 @@
         <v>805</v>
       </c>
       <c r="D14" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3388,10 +3388,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D16" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3405,7 +3405,7 @@
         <v>806</v>
       </c>
       <c r="D17" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3419,7 +3419,7 @@
         <v>807</v>
       </c>
       <c r="D18" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3444,7 +3444,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D20" t="s">
         <v>884</v>
@@ -3500,7 +3500,7 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D24" t="s">
         <v>887</v>
@@ -3514,10 +3514,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D25" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3528,7 +3528,7 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D26" t="s">
         <v>888</v>
@@ -3545,7 +3545,7 @@
         <v>808</v>
       </c>
       <c r="D27" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3573,7 +3573,7 @@
         <v>798</v>
       </c>
       <c r="D29" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3612,7 +3612,7 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D32" t="s">
         <v>872</v>
@@ -3626,10 +3626,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D33" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3640,10 +3640,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D34" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3654,10 +3654,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D35" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3668,7 +3668,7 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="D36" t="s">
         <v>890</v>
@@ -3682,10 +3682,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="D37" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3699,7 +3699,7 @@
         <v>798</v>
       </c>
       <c r="D38" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3724,10 +3724,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D40" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3738,7 +3738,7 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D41" t="s">
         <v>885</v>
@@ -3752,7 +3752,7 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D42" t="s">
         <v>885</v>
@@ -3780,10 +3780,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D44" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3794,10 +3794,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D45" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3808,10 +3808,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="D46" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3836,7 +3836,7 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D48" t="s">
         <v>872</v>
@@ -3878,7 +3878,7 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D51" t="s">
         <v>880</v>
@@ -3895,7 +3895,7 @@
         <v>810</v>
       </c>
       <c r="D52" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3948,10 +3948,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="D56" t="s">
-        <v>879</v>
+        <v>888</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3962,10 +3962,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="D57" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3976,7 +3976,7 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D58" t="s">
         <v>876</v>
@@ -3990,10 +3990,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="D59" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4004,10 +4004,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D60" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4018,7 +4018,7 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D61" t="s">
         <v>877</v>
@@ -4046,7 +4046,7 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D63" t="s">
         <v>879</v>
@@ -4060,10 +4060,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D64" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4088,10 +4088,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="D66" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4102,7 +4102,7 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D67" t="s">
         <v>877</v>
@@ -4116,10 +4116,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D68" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4130,10 +4130,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="D69" t="s">
-        <v>877</v>
+        <v>890</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4144,7 +4144,7 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D70" t="s">
         <v>892</v>
@@ -4186,10 +4186,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="D73" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4200,10 +4200,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>804</v>
+        <v>815</v>
       </c>
       <c r="D74" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4214,10 +4214,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D75" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4228,10 +4228,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
       <c r="D76" t="s">
-        <v>879</v>
+        <v>890</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4242,10 +4242,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="D77" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4256,10 +4256,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="D78" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4301,7 +4301,7 @@
         <v>809</v>
       </c>
       <c r="D81" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4354,10 +4354,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>816</v>
+        <v>794</v>
       </c>
       <c r="D85" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4368,10 +4368,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>794</v>
+        <v>816</v>
       </c>
       <c r="D86" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4410,7 +4410,7 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D89" t="s">
         <v>876</v>
@@ -4452,10 +4452,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D92" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4466,7 +4466,7 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D93" t="s">
         <v>888</v>
@@ -4480,7 +4480,7 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D94" t="s">
         <v>875</v>
@@ -4522,10 +4522,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="D97" t="s">
-        <v>895</v>
+        <v>872</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4536,10 +4536,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="D98" t="s">
-        <v>872</v>
+        <v>895</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4550,10 +4550,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D99" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4564,10 +4564,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D100" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4592,7 +4592,7 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D102" t="s">
         <v>897</v>
@@ -4606,10 +4606,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D103" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4620,7 +4620,7 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D104" t="s">
         <v>897</v>
@@ -4634,10 +4634,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="D105" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4662,10 +4662,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="D107" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4679,7 +4679,7 @@
         <v>810</v>
       </c>
       <c r="D108" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4690,10 +4690,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D109" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4718,7 +4718,7 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D111" t="s">
         <v>876</v>
@@ -4746,7 +4746,7 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D113" t="s">
         <v>876</v>
@@ -4760,7 +4760,7 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D114" t="s">
         <v>878</v>
@@ -4774,10 +4774,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D115" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4788,7 +4788,7 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D116" t="s">
         <v>880</v>
@@ -4802,10 +4802,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="D117" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4816,10 +4816,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>805</v>
+        <v>816</v>
       </c>
       <c r="D118" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4844,10 +4844,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="D120" t="s">
-        <v>894</v>
+        <v>872</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4858,10 +4858,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>799</v>
+        <v>821</v>
       </c>
       <c r="D121" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4872,10 +4872,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D122" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4886,10 +4886,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D123" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4900,7 +4900,7 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D124" t="s">
         <v>898</v>
@@ -4956,10 +4956,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>801</v>
+        <v>822</v>
       </c>
       <c r="D128" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4970,10 +4970,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
       <c r="D129" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4984,10 +4984,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D130" t="s">
-        <v>882</v>
+        <v>898</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4998,10 +4998,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D131" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5012,10 +5012,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D132" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5026,10 +5026,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D133" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5040,10 +5040,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D134" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5054,10 +5054,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="D135" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5082,10 +5082,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D137" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5096,10 +5096,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="D138" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5110,10 +5110,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D139" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5127,7 +5127,7 @@
         <v>823</v>
       </c>
       <c r="D140" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5138,10 +5138,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>804</v>
+        <v>824</v>
       </c>
       <c r="D141" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5152,10 +5152,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="D142" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5166,10 +5166,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D143" t="s">
-        <v>879</v>
+        <v>895</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5180,10 +5180,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="D144" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5194,10 +5194,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>804</v>
+        <v>825</v>
       </c>
       <c r="D145" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5208,10 +5208,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D146" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5222,10 +5222,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="D147" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5236,10 +5236,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="D148" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5250,10 +5250,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="D149" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5264,10 +5264,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D150" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5278,7 +5278,7 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D151" t="s">
         <v>880</v>
@@ -5292,10 +5292,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>799</v>
+        <v>826</v>
       </c>
       <c r="D152" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5306,10 +5306,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>826</v>
+        <v>799</v>
       </c>
       <c r="D153" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5320,7 +5320,7 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D154" t="s">
         <v>872</v>
@@ -5334,7 +5334,7 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D155" t="s">
         <v>882</v>
@@ -5351,7 +5351,7 @@
         <v>810</v>
       </c>
       <c r="D156" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5362,7 +5362,7 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D157" t="s">
         <v>879</v>
@@ -5376,10 +5376,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="D158" t="s">
-        <v>874</v>
+        <v>897</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5390,10 +5390,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="D159" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5418,10 +5418,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="D161" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5432,10 +5432,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D162" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5446,10 +5446,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D163" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5460,7 +5460,7 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="D164" t="s">
         <v>895</v>
@@ -5474,7 +5474,7 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>809</v>
+        <v>827</v>
       </c>
       <c r="D165" t="s">
         <v>895</v>
@@ -5516,7 +5516,7 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D168" t="s">
         <v>876</v>
@@ -5544,7 +5544,7 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D170" t="s">
         <v>876</v>
@@ -5572,10 +5572,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="D172" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5586,10 +5586,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="D173" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5600,10 +5600,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D174" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5628,10 +5628,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D176" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5642,10 +5642,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="D177" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5670,10 +5670,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="D179" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5684,10 +5684,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>804</v>
+        <v>825</v>
       </c>
       <c r="D180" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5712,10 +5712,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="D182" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5726,10 +5726,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>808</v>
+        <v>831</v>
       </c>
       <c r="D183" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5754,7 +5754,7 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D185" t="s">
         <v>877</v>
@@ -5768,7 +5768,7 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D186" t="s">
         <v>877</v>
@@ -5782,10 +5782,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D187" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5796,10 +5796,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>832</v>
+        <v>810</v>
       </c>
       <c r="D188" t="s">
-        <v>900</v>
+        <v>873</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5810,10 +5810,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>804</v>
+        <v>832</v>
       </c>
       <c r="D189" t="s">
-        <v>873</v>
+        <v>900</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5838,10 +5838,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>810</v>
+        <v>834</v>
       </c>
       <c r="D191" t="s">
-        <v>874</v>
+        <v>897</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5852,10 +5852,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="D192" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5866,10 +5866,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="D193" t="s">
-        <v>899</v>
+        <v>874</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5880,10 +5880,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="D194" t="s">
-        <v>875</v>
+        <v>889</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5897,7 +5897,7 @@
         <v>835</v>
       </c>
       <c r="D195" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5936,7 +5936,7 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D198" t="s">
         <v>888</v>
@@ -5950,10 +5950,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D199" t="s">
-        <v>891</v>
+        <v>874</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5964,10 +5964,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="D200" t="s">
-        <v>873</v>
+        <v>891</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5978,10 +5978,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>804</v>
+        <v>837</v>
       </c>
       <c r="D201" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5992,10 +5992,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>837</v>
+        <v>810</v>
       </c>
       <c r="D202" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -6020,10 +6020,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D204" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6034,7 +6034,7 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D205" t="s">
         <v>881</v>
@@ -6048,10 +6048,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="D206" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6062,10 +6062,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="D207" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6076,10 +6076,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D208" t="s">
-        <v>897</v>
+        <v>879</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6090,10 +6090,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="D209" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6132,7 +6132,7 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D212" t="s">
         <v>881</v>
@@ -6146,10 +6146,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D213" t="s">
-        <v>882</v>
+        <v>896</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -6160,10 +6160,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D214" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6191,7 +6191,7 @@
         <v>813</v>
       </c>
       <c r="D216" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6202,10 +6202,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D217" t="s">
-        <v>881</v>
+        <v>895</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6216,10 +6216,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
       <c r="D218" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6230,10 +6230,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="D219" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6258,10 +6258,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="D221" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6272,10 +6272,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="D222" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6286,10 +6286,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D223" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6300,7 +6300,7 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D224" t="s">
         <v>888</v>
@@ -6314,10 +6314,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="D225" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6342,10 +6342,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="D227" t="s">
-        <v>879</v>
+        <v>895</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6356,10 +6356,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="D228" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6373,7 +6373,7 @@
         <v>805</v>
       </c>
       <c r="D229" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -6384,10 +6384,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D230" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6398,10 +6398,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="D231" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6412,10 +6412,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="D232" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6426,10 +6426,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
       <c r="D233" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6443,7 +6443,7 @@
         <v>804</v>
       </c>
       <c r="D234" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6454,10 +6454,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D235" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6468,10 +6468,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>812</v>
+        <v>840</v>
       </c>
       <c r="D236" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6482,10 +6482,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
       <c r="D237" t="s">
-        <v>896</v>
+        <v>872</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6496,10 +6496,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>840</v>
+        <v>794</v>
       </c>
       <c r="D238" t="s">
-        <v>882</v>
+        <v>896</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6510,10 +6510,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
       <c r="D239" t="s">
-        <v>872</v>
+        <v>889</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6524,10 +6524,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>841</v>
+        <v>805</v>
       </c>
       <c r="D240" t="s">
-        <v>873</v>
+        <v>893</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6538,10 +6538,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D241" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6552,10 +6552,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D242" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6566,10 +6566,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="D243" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6580,10 +6580,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="D244" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6594,7 +6594,7 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D245" t="s">
         <v>896</v>
@@ -6608,10 +6608,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="D246" t="s">
-        <v>872</v>
+        <v>896</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6622,10 +6622,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="D247" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6636,7 +6636,7 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D248" t="s">
         <v>880</v>
@@ -6650,10 +6650,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="D249" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6664,10 +6664,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>794</v>
+        <v>842</v>
       </c>
       <c r="D250" t="s">
-        <v>891</v>
+        <v>874</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6678,10 +6678,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="D251" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6706,7 +6706,7 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D253" t="s">
         <v>882</v>
@@ -6720,10 +6720,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D254" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6734,7 +6734,7 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D255" t="s">
         <v>877</v>
@@ -6748,10 +6748,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D256" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6762,10 +6762,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D257" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6776,10 +6776,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>809</v>
+        <v>843</v>
       </c>
       <c r="D258" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6790,10 +6790,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>804</v>
+        <v>821</v>
       </c>
       <c r="D259" t="s">
-        <v>872</v>
+        <v>900</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6804,7 +6804,7 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="D260" t="s">
         <v>887</v>
@@ -6818,10 +6818,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="D261" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6832,7 +6832,7 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D262" t="s">
         <v>894</v>
@@ -6846,10 +6846,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="D263" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6860,10 +6860,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="D264" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6874,10 +6874,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D265" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6888,10 +6888,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D266" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6902,10 +6902,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="D267" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6916,10 +6916,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>804</v>
+        <v>844</v>
       </c>
       <c r="D268" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6930,10 +6930,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D269" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6944,10 +6944,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>844</v>
+        <v>804</v>
       </c>
       <c r="D270" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6958,10 +6958,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="D271" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6972,10 +6972,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="D272" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -7003,7 +7003,7 @@
         <v>821</v>
       </c>
       <c r="D274" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -7014,10 +7014,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="D275" t="s">
-        <v>874</v>
+        <v>895</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7028,10 +7028,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="D276" t="s">
-        <v>895</v>
+        <v>873</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -7042,7 +7042,7 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D277" t="s">
         <v>888</v>
@@ -7070,10 +7070,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D279" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -7084,10 +7084,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="D280" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7112,10 +7112,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="D282" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -7126,10 +7126,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D283" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7140,10 +7140,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="D284" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7168,10 +7168,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>804</v>
+        <v>840</v>
       </c>
       <c r="D286" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7182,10 +7182,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>840</v>
+        <v>805</v>
       </c>
       <c r="D287" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7196,10 +7196,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="D288" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -7210,7 +7210,7 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="D289" t="s">
         <v>872</v>
@@ -7227,7 +7227,7 @@
         <v>818</v>
       </c>
       <c r="D290" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7238,10 +7238,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="D291" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -7252,10 +7252,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="D292" t="s">
-        <v>872</v>
+        <v>897</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7308,10 +7308,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D296" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -7325,7 +7325,7 @@
         <v>813</v>
       </c>
       <c r="D297" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -7339,7 +7339,7 @@
         <v>805</v>
       </c>
       <c r="D298" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7350,7 +7350,7 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="D299" t="s">
         <v>885</v>
@@ -7364,10 +7364,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="D300" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7378,10 +7378,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="D301" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7392,10 +7392,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="D302" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7406,10 +7406,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D303" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7420,10 +7420,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="D304" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -7448,10 +7448,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D306" t="s">
-        <v>880</v>
+        <v>897</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -7462,10 +7462,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="D307" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7476,10 +7476,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D308" t="s">
-        <v>897</v>
+        <v>872</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7490,10 +7490,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D309" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -7504,10 +7504,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>798</v>
+        <v>846</v>
       </c>
       <c r="D310" t="s">
-        <v>878</v>
+        <v>898</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7521,7 +7521,7 @@
         <v>809</v>
       </c>
       <c r="D311" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7532,10 +7532,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>846</v>
+        <v>804</v>
       </c>
       <c r="D312" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7546,10 +7546,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D313" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7560,7 +7560,7 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="D314" t="s">
         <v>889</v>
@@ -7574,10 +7574,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="D315" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7588,10 +7588,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="D316" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7602,10 +7602,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D317" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7616,7 +7616,7 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D318" t="s">
         <v>890</v>
@@ -7630,10 +7630,10 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="D319" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7644,10 +7644,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="D320" t="s">
-        <v>884</v>
+        <v>901</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7658,10 +7658,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>800</v>
+        <v>847</v>
       </c>
       <c r="D321" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7672,10 +7672,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D322" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7686,10 +7686,10 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="D323" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7700,10 +7700,10 @@
         <v>326</v>
       </c>
       <c r="C324" t="s">
-        <v>847</v>
+        <v>808</v>
       </c>
       <c r="D324" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7714,10 +7714,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>809</v>
+        <v>848</v>
       </c>
       <c r="D325" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7728,10 +7728,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D326" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7742,10 +7742,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D327" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7756,10 +7756,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>809</v>
+        <v>850</v>
       </c>
       <c r="D328" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7770,10 +7770,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>849</v>
+        <v>800</v>
       </c>
       <c r="D329" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7784,10 +7784,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D330" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -7801,7 +7801,7 @@
         <v>809</v>
       </c>
       <c r="D331" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -7812,10 +7812,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="D332" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -7829,7 +7829,7 @@
         <v>809</v>
       </c>
       <c r="D333" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -7840,10 +7840,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>850</v>
+        <v>798</v>
       </c>
       <c r="D334" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -7857,7 +7857,7 @@
         <v>809</v>
       </c>
       <c r="D335" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -7868,10 +7868,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="D336" t="s">
-        <v>897</v>
+        <v>874</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -7882,10 +7882,10 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D337" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7896,10 +7896,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D338" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7910,10 +7910,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D339" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -7924,10 +7924,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="D340" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -7938,10 +7938,10 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="D341" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -7952,10 +7952,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="D342" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -7963,13 +7963,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>187</v>
+        <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="D343" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -7977,13 +7977,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>345</v>
+        <v>187</v>
       </c>
       <c r="C344" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D344" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -7994,10 +7994,10 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D345" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -8008,10 +8008,10 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="D346" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -8022,10 +8022,10 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>841</v>
+        <v>811</v>
       </c>
       <c r="D347" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8036,10 +8036,10 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="D348" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -8050,10 +8050,10 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="D349" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8064,10 +8064,10 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>794</v>
+        <v>842</v>
       </c>
       <c r="D350" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -8078,10 +8078,10 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="D351" t="s">
-        <v>880</v>
+        <v>901</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -8106,10 +8106,10 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D353" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -8120,10 +8120,10 @@
         <v>355</v>
       </c>
       <c r="C354" t="s">
-        <v>804</v>
+        <v>821</v>
       </c>
       <c r="D354" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -8134,10 +8134,10 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>851</v>
+        <v>809</v>
       </c>
       <c r="D355" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8148,10 +8148,10 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D356" t="s">
-        <v>874</v>
+        <v>899</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8162,10 +8162,10 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>804</v>
+        <v>851</v>
       </c>
       <c r="D357" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8176,7 +8176,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D358" t="s">
         <v>885</v>
@@ -8190,7 +8190,7 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D359" t="s">
         <v>900</v>
@@ -8218,10 +8218,10 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D361" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8232,10 +8232,10 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="D362" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8246,10 +8246,10 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D363" t="s">
-        <v>881</v>
+        <v>895</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -8260,10 +8260,10 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D364" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8274,10 +8274,10 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D365" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8288,10 +8288,10 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D366" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8302,10 +8302,10 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>852</v>
+        <v>801</v>
       </c>
       <c r="D367" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8316,10 +8316,10 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>804</v>
+        <v>852</v>
       </c>
       <c r="D368" t="s">
-        <v>874</v>
+        <v>899</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8344,10 +8344,10 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D370" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8358,10 +8358,10 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="D371" t="s">
-        <v>902</v>
+        <v>872</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8372,10 +8372,10 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D372" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8389,7 +8389,7 @@
         <v>805</v>
       </c>
       <c r="D373" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8400,10 +8400,10 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D374" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8414,10 +8414,10 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D375" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8428,10 +8428,10 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="D376" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8442,10 +8442,10 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="D377" t="s">
-        <v>885</v>
+        <v>903</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -8456,10 +8456,10 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="D378" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -8470,10 +8470,10 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>834</v>
+        <v>805</v>
       </c>
       <c r="D379" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -8484,10 +8484,10 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D380" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -8498,10 +8498,10 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="D381" t="s">
-        <v>904</v>
+        <v>881</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -8512,10 +8512,10 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>809</v>
+        <v>835</v>
       </c>
       <c r="D382" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8526,10 +8526,10 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D383" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -8540,10 +8540,10 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D384" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -8554,10 +8554,10 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D385" t="s">
-        <v>878</v>
+        <v>892</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -8568,10 +8568,10 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="D386" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -8582,10 +8582,10 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>821</v>
+        <v>795</v>
       </c>
       <c r="D387" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -8599,7 +8599,7 @@
         <v>809</v>
       </c>
       <c r="D388" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -8610,10 +8610,10 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="D389" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -8638,10 +8638,10 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D391" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -8652,10 +8652,10 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D392" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -8666,10 +8666,10 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
       <c r="D393" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -8694,10 +8694,10 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="D395" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -8711,7 +8711,7 @@
         <v>809</v>
       </c>
       <c r="D396" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -8722,10 +8722,10 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>842</v>
+        <v>818</v>
       </c>
       <c r="D397" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -8750,7 +8750,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D399" t="s">
         <v>894</v>
@@ -8764,10 +8764,10 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>809</v>
+        <v>841</v>
       </c>
       <c r="D400" t="s">
-        <v>878</v>
+        <v>901</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -8778,10 +8778,10 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D401" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -8806,10 +8806,10 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D403" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -8820,10 +8820,10 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="D404" t="s">
-        <v>881</v>
+        <v>905</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -8834,10 +8834,10 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>804</v>
+        <v>823</v>
       </c>
       <c r="D405" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -8848,10 +8848,10 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D406" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -8862,10 +8862,10 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D407" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -8890,10 +8890,10 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D409" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -8904,10 +8904,10 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>810</v>
+        <v>821</v>
       </c>
       <c r="D410" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -8918,7 +8918,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="D411" t="s">
         <v>875</v>
@@ -8932,7 +8932,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D412" t="s">
         <v>875</v>
@@ -8946,10 +8946,10 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="D413" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -8960,10 +8960,10 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="D414" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -8977,7 +8977,7 @@
         <v>794</v>
       </c>
       <c r="D415" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -8988,7 +8988,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D416" t="s">
         <v>894</v>
@@ -9002,7 +9002,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D417" t="s">
         <v>900</v>
@@ -9016,10 +9016,10 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="D418" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9030,10 +9030,10 @@
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="D419" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -9041,13 +9041,13 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>421</v>
+        <v>187</v>
       </c>
       <c r="C420" t="s">
-        <v>853</v>
+        <v>809</v>
       </c>
       <c r="D420" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -9055,13 +9055,13 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>187</v>
+        <v>421</v>
       </c>
       <c r="C421" t="s">
-        <v>809</v>
+        <v>853</v>
       </c>
       <c r="D421" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9086,10 +9086,10 @@
         <v>423</v>
       </c>
       <c r="C423" t="s">
-        <v>827</v>
+        <v>850</v>
       </c>
       <c r="D423" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9100,10 +9100,10 @@
         <v>424</v>
       </c>
       <c r="C424" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
       <c r="D424" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -9114,7 +9114,7 @@
         <v>425</v>
       </c>
       <c r="C425" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D425" t="s">
         <v>887</v>
@@ -9142,10 +9142,10 @@
         <v>427</v>
       </c>
       <c r="C427" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="D427" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -9159,7 +9159,7 @@
         <v>805</v>
       </c>
       <c r="D428" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9170,10 +9170,10 @@
         <v>429</v>
       </c>
       <c r="C429" t="s">
-        <v>804</v>
+        <v>821</v>
       </c>
       <c r="D429" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9198,7 +9198,7 @@
         <v>431</v>
       </c>
       <c r="C431" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D431" t="s">
         <v>906</v>
@@ -9212,7 +9212,7 @@
         <v>432</v>
       </c>
       <c r="C432" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D432" t="s">
         <v>893</v>
@@ -9226,10 +9226,10 @@
         <v>433</v>
       </c>
       <c r="C433" t="s">
-        <v>814</v>
+        <v>854</v>
       </c>
       <c r="D433" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9240,10 +9240,10 @@
         <v>434</v>
       </c>
       <c r="C434" t="s">
-        <v>854</v>
+        <v>814</v>
       </c>
       <c r="D434" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -9254,10 +9254,10 @@
         <v>435</v>
       </c>
       <c r="C435" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D435" t="s">
-        <v>887</v>
+        <v>907</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -9268,10 +9268,10 @@
         <v>436</v>
       </c>
       <c r="C436" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D436" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9296,10 +9296,10 @@
         <v>438</v>
       </c>
       <c r="C438" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
       <c r="D438" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -9310,10 +9310,10 @@
         <v>439</v>
       </c>
       <c r="C439" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="D439" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -9341,7 +9341,7 @@
         <v>808</v>
       </c>
       <c r="D441" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -9352,7 +9352,7 @@
         <v>442</v>
       </c>
       <c r="C442" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D442" t="s">
         <v>876</v>
@@ -9380,7 +9380,7 @@
         <v>444</v>
       </c>
       <c r="C444" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D444" t="s">
         <v>892</v>
@@ -9422,10 +9422,10 @@
         <v>447</v>
       </c>
       <c r="C447" t="s">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="D447" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -9450,10 +9450,10 @@
         <v>449</v>
       </c>
       <c r="C449" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="D449" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -9464,10 +9464,10 @@
         <v>450</v>
       </c>
       <c r="C450" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="D450" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -9478,10 +9478,10 @@
         <v>451</v>
       </c>
       <c r="C451" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="D451" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -9492,10 +9492,10 @@
         <v>452</v>
       </c>
       <c r="C452" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D452" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9506,7 +9506,7 @@
         <v>453</v>
       </c>
       <c r="C453" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="D453" t="s">
         <v>884</v>
@@ -9534,10 +9534,10 @@
         <v>455</v>
       </c>
       <c r="C455" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="D455" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -9548,10 +9548,10 @@
         <v>456</v>
       </c>
       <c r="C456" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D456" t="s">
-        <v>894</v>
+        <v>873</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -9562,10 +9562,10 @@
         <v>457</v>
       </c>
       <c r="C457" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="D457" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -9590,10 +9590,10 @@
         <v>459</v>
       </c>
       <c r="C459" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="D459" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -9604,10 +9604,10 @@
         <v>460</v>
       </c>
       <c r="C460" t="s">
-        <v>809</v>
+        <v>840</v>
       </c>
       <c r="D460" t="s">
-        <v>874</v>
+        <v>894</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -9618,7 +9618,7 @@
         <v>461</v>
       </c>
       <c r="C461" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D461" t="s">
         <v>898</v>
@@ -9632,10 +9632,10 @@
         <v>462</v>
       </c>
       <c r="C462" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="D462" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9646,10 +9646,10 @@
         <v>463</v>
       </c>
       <c r="C463" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D463" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -9660,10 +9660,10 @@
         <v>464</v>
       </c>
       <c r="C464" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D464" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -9677,7 +9677,7 @@
         <v>809</v>
       </c>
       <c r="D465" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -9691,7 +9691,7 @@
         <v>809</v>
       </c>
       <c r="D466" t="s">
-        <v>874</v>
+        <v>908</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -9702,10 +9702,10 @@
         <v>467</v>
       </c>
       <c r="C467" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="D467" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -9719,7 +9719,7 @@
         <v>809</v>
       </c>
       <c r="D468" t="s">
-        <v>908</v>
+        <v>876</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -9733,7 +9733,7 @@
         <v>808</v>
       </c>
       <c r="D469" t="s">
-        <v>873</v>
+        <v>901</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -9744,10 +9744,10 @@
         <v>470</v>
       </c>
       <c r="C470" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D470" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -9758,10 +9758,10 @@
         <v>471</v>
       </c>
       <c r="C471" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="D471" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -9772,10 +9772,10 @@
         <v>472</v>
       </c>
       <c r="C472" t="s">
-        <v>821</v>
+        <v>855</v>
       </c>
       <c r="D472" t="s">
-        <v>877</v>
+        <v>899</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -9789,7 +9789,7 @@
         <v>809</v>
       </c>
       <c r="D473" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -9800,10 +9800,10 @@
         <v>474</v>
       </c>
       <c r="C474" t="s">
-        <v>855</v>
+        <v>821</v>
       </c>
       <c r="D474" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -9814,10 +9814,10 @@
         <v>475</v>
       </c>
       <c r="C475" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D475" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -9828,10 +9828,10 @@
         <v>476</v>
       </c>
       <c r="C476" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D476" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -9842,10 +9842,10 @@
         <v>477</v>
       </c>
       <c r="C477" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="D477" t="s">
-        <v>873</v>
+        <v>909</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -9856,10 +9856,10 @@
         <v>478</v>
       </c>
       <c r="C478" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D478" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -9870,10 +9870,10 @@
         <v>479</v>
       </c>
       <c r="C479" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D479" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -9884,10 +9884,10 @@
         <v>480</v>
       </c>
       <c r="C480" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D480" t="s">
-        <v>909</v>
+        <v>885</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -9898,10 +9898,10 @@
         <v>481</v>
       </c>
       <c r="C481" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="D481" t="s">
-        <v>892</v>
+        <v>874</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -9915,7 +9915,7 @@
         <v>818</v>
       </c>
       <c r="D482" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -9926,7 +9926,7 @@
         <v>483</v>
       </c>
       <c r="C483" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D483" t="s">
         <v>901</v>
@@ -9954,10 +9954,10 @@
         <v>485</v>
       </c>
       <c r="C485" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="D485" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -9968,7 +9968,7 @@
         <v>486</v>
       </c>
       <c r="C486" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D486" t="s">
         <v>899</v>
@@ -9982,10 +9982,10 @@
         <v>487</v>
       </c>
       <c r="C487" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="D487" t="s">
-        <v>882</v>
+        <v>897</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -9996,10 +9996,10 @@
         <v>488</v>
       </c>
       <c r="C488" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="D488" t="s">
-        <v>899</v>
+        <v>882</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -10010,10 +10010,10 @@
         <v>489</v>
       </c>
       <c r="C489" t="s">
-        <v>832</v>
+        <v>805</v>
       </c>
       <c r="D489" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -10024,10 +10024,10 @@
         <v>490</v>
       </c>
       <c r="C490" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D490" t="s">
-        <v>880</v>
+        <v>901</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -10038,10 +10038,10 @@
         <v>491</v>
       </c>
       <c r="C491" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D491" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -10052,10 +10052,10 @@
         <v>492</v>
       </c>
       <c r="C492" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D492" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -10066,10 +10066,10 @@
         <v>493</v>
       </c>
       <c r="C493" t="s">
-        <v>804</v>
+        <v>825</v>
       </c>
       <c r="D493" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -10080,10 +10080,10 @@
         <v>494</v>
       </c>
       <c r="C494" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D494" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -10094,10 +10094,10 @@
         <v>495</v>
       </c>
       <c r="C495" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D495" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -10108,10 +10108,10 @@
         <v>496</v>
       </c>
       <c r="C496" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D496" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -10122,10 +10122,10 @@
         <v>497</v>
       </c>
       <c r="C497" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D497" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -10136,10 +10136,10 @@
         <v>498</v>
       </c>
       <c r="C498" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="D498" t="s">
-        <v>873</v>
+        <v>900</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -10150,10 +10150,10 @@
         <v>499</v>
       </c>
       <c r="C499" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
       <c r="D499" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -10164,10 +10164,10 @@
         <v>500</v>
       </c>
       <c r="C500" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D500" t="s">
-        <v>900</v>
+        <v>875</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -10178,10 +10178,10 @@
         <v>501</v>
       </c>
       <c r="C501" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
       <c r="D501" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10192,10 +10192,10 @@
         <v>502</v>
       </c>
       <c r="C502" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D502" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -10220,10 +10220,10 @@
         <v>504</v>
       </c>
       <c r="C504" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="D504" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -10234,10 +10234,10 @@
         <v>505</v>
       </c>
       <c r="C505" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="D505" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10248,7 +10248,7 @@
         <v>506</v>
       </c>
       <c r="C506" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D506" t="s">
         <v>895</v>
@@ -10262,10 +10262,10 @@
         <v>507</v>
       </c>
       <c r="C507" t="s">
-        <v>837</v>
+        <v>805</v>
       </c>
       <c r="D507" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10276,10 +10276,10 @@
         <v>508</v>
       </c>
       <c r="C508" t="s">
-        <v>822</v>
+        <v>837</v>
       </c>
       <c r="D508" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10290,7 +10290,7 @@
         <v>509</v>
       </c>
       <c r="C509" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="D509" t="s">
         <v>893</v>
@@ -10304,10 +10304,10 @@
         <v>510</v>
       </c>
       <c r="C510" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="D510" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10318,10 +10318,10 @@
         <v>511</v>
       </c>
       <c r="C511" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="D511" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10332,10 +10332,10 @@
         <v>512</v>
       </c>
       <c r="C512" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D512" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10346,10 +10346,10 @@
         <v>513</v>
       </c>
       <c r="C513" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D513" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10360,10 +10360,10 @@
         <v>514</v>
       </c>
       <c r="C514" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="D514" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10388,10 +10388,10 @@
         <v>516</v>
       </c>
       <c r="C516" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="D516" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10402,10 +10402,10 @@
         <v>517</v>
       </c>
       <c r="C517" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="D517" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10416,10 +10416,10 @@
         <v>518</v>
       </c>
       <c r="C518" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="D518" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10430,7 +10430,7 @@
         <v>519</v>
       </c>
       <c r="C519" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D519" t="s">
         <v>901</v>
@@ -10444,7 +10444,7 @@
         <v>520</v>
       </c>
       <c r="C520" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D520" t="s">
         <v>883</v>
@@ -10458,7 +10458,7 @@
         <v>521</v>
       </c>
       <c r="C521" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D521" t="s">
         <v>883</v>
@@ -10472,10 +10472,10 @@
         <v>522</v>
       </c>
       <c r="C522" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="D522" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10486,10 +10486,10 @@
         <v>523</v>
       </c>
       <c r="C523" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
       <c r="D523" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10528,10 +10528,10 @@
         <v>526</v>
       </c>
       <c r="C526" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="D526" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10542,10 +10542,10 @@
         <v>527</v>
       </c>
       <c r="C527" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D527" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10556,10 +10556,10 @@
         <v>528</v>
       </c>
       <c r="C528" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="D528" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10584,7 +10584,7 @@
         <v>530</v>
       </c>
       <c r="C530" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D530" t="s">
         <v>872</v>
@@ -10598,10 +10598,10 @@
         <v>531</v>
       </c>
       <c r="C531" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="D531" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10612,10 +10612,10 @@
         <v>532</v>
       </c>
       <c r="C532" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="D532" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10626,10 +10626,10 @@
         <v>533</v>
       </c>
       <c r="C533" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D533" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10654,10 +10654,10 @@
         <v>535</v>
       </c>
       <c r="C535" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="D535" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10668,10 +10668,10 @@
         <v>536</v>
       </c>
       <c r="C536" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="D536" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -10682,10 +10682,10 @@
         <v>537</v>
       </c>
       <c r="C537" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D537" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10699,7 +10699,7 @@
         <v>804</v>
       </c>
       <c r="D538" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10752,10 +10752,10 @@
         <v>542</v>
       </c>
       <c r="C542" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D542" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -10822,10 +10822,10 @@
         <v>547</v>
       </c>
       <c r="C547" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D547" t="s">
-        <v>898</v>
+        <v>874</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -10836,10 +10836,10 @@
         <v>548</v>
       </c>
       <c r="C548" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D548" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -10850,10 +10850,10 @@
         <v>549</v>
       </c>
       <c r="C549" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D549" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -10864,10 +10864,10 @@
         <v>550</v>
       </c>
       <c r="C550" t="s">
-        <v>809</v>
+        <v>829</v>
       </c>
       <c r="D550" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -10878,10 +10878,10 @@
         <v>551</v>
       </c>
       <c r="C551" t="s">
-        <v>829</v>
+        <v>809</v>
       </c>
       <c r="D551" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -10892,10 +10892,10 @@
         <v>552</v>
       </c>
       <c r="C552" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D552" t="s">
-        <v>885</v>
+        <v>898</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -10923,7 +10923,7 @@
         <v>809</v>
       </c>
       <c r="D554" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -10934,10 +10934,10 @@
         <v>555</v>
       </c>
       <c r="C555" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D555" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -10962,7 +10962,7 @@
         <v>557</v>
       </c>
       <c r="C557" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D557" t="s">
         <v>894</v>
@@ -11032,7 +11032,7 @@
         <v>562</v>
       </c>
       <c r="C562" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D562" t="s">
         <v>900</v>
@@ -11060,7 +11060,7 @@
         <v>564</v>
       </c>
       <c r="C564" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D564" t="s">
         <v>892</v>
@@ -11077,7 +11077,7 @@
         <v>802</v>
       </c>
       <c r="D565" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11102,7 +11102,7 @@
         <v>567</v>
       </c>
       <c r="C567" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D567" t="s">
         <v>891</v>
@@ -11116,7 +11116,7 @@
         <v>568</v>
       </c>
       <c r="C568" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D568" t="s">
         <v>911</v>
@@ -11130,7 +11130,7 @@
         <v>569</v>
       </c>
       <c r="C569" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D569" t="s">
         <v>900</v>
@@ -11144,10 +11144,10 @@
         <v>570</v>
       </c>
       <c r="C570" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D570" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11256,7 +11256,7 @@
         <v>578</v>
       </c>
       <c r="C578" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D578" t="s">
         <v>899</v>
@@ -11270,7 +11270,7 @@
         <v>579</v>
       </c>
       <c r="C579" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D579" t="s">
         <v>897</v>
@@ -11382,7 +11382,7 @@
         <v>587</v>
       </c>
       <c r="C587" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D587" t="s">
         <v>888</v>
@@ -11410,7 +11410,7 @@
         <v>589</v>
       </c>
       <c r="C589" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D589" t="s">
         <v>880</v>
@@ -11424,7 +11424,7 @@
         <v>590</v>
       </c>
       <c r="C590" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D590" t="s">
         <v>891</v>
@@ -11466,7 +11466,7 @@
         <v>593</v>
       </c>
       <c r="C593" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D593" t="s">
         <v>887</v>
@@ -11491,7 +11491,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C595" t="s">
         <v>862</v>
@@ -11508,10 +11508,10 @@
         <v>595</v>
       </c>
       <c r="C596" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D596" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11564,7 +11564,7 @@
         <v>599</v>
       </c>
       <c r="C600" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D600" t="s">
         <v>887</v>
@@ -11606,10 +11606,10 @@
         <v>602</v>
       </c>
       <c r="C603" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D603" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -11662,7 +11662,7 @@
         <v>606</v>
       </c>
       <c r="C607" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D607" t="s">
         <v>888</v>
@@ -11676,10 +11676,10 @@
         <v>607</v>
       </c>
       <c r="C608" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D608" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -11690,7 +11690,7 @@
         <v>608</v>
       </c>
       <c r="C609" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D609" t="s">
         <v>888</v>
@@ -11788,7 +11788,7 @@
         <v>615</v>
       </c>
       <c r="C616" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D616" t="s">
         <v>895</v>
@@ -11858,7 +11858,7 @@
         <v>620</v>
       </c>
       <c r="C621" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D621" t="s">
         <v>886</v>
@@ -11872,7 +11872,7 @@
         <v>621</v>
       </c>
       <c r="C622" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D622" t="s">
         <v>882</v>
@@ -11970,7 +11970,7 @@
         <v>628</v>
       </c>
       <c r="C629" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D629" t="s">
         <v>879</v>
@@ -12001,7 +12001,7 @@
         <v>840</v>
       </c>
       <c r="D631" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -12043,7 +12043,7 @@
         <v>833</v>
       </c>
       <c r="D634" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -12057,7 +12057,7 @@
         <v>809</v>
       </c>
       <c r="D635" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -12166,7 +12166,7 @@
         <v>642</v>
       </c>
       <c r="C643" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D643" t="s">
         <v>875</v>
@@ -12208,7 +12208,7 @@
         <v>645</v>
       </c>
       <c r="C646" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D646" t="s">
         <v>882</v>
@@ -12250,7 +12250,7 @@
         <v>648</v>
       </c>
       <c r="C649" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D649" t="s">
         <v>881</v>
@@ -12281,7 +12281,7 @@
         <v>814</v>
       </c>
       <c r="D651" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -12306,7 +12306,7 @@
         <v>652</v>
       </c>
       <c r="C653" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D653" t="s">
         <v>875</v>
@@ -12334,7 +12334,7 @@
         <v>654</v>
       </c>
       <c r="C655" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D655" t="s">
         <v>878</v>
@@ -12362,7 +12362,7 @@
         <v>656</v>
       </c>
       <c r="C657" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D657" t="s">
         <v>900</v>
@@ -12418,7 +12418,7 @@
         <v>660</v>
       </c>
       <c r="C661" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D661" t="s">
         <v>893</v>
@@ -12432,7 +12432,7 @@
         <v>661</v>
       </c>
       <c r="C662" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D662" t="s">
         <v>895</v>
@@ -12519,7 +12519,7 @@
         <v>809</v>
       </c>
       <c r="D668" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -12544,7 +12544,7 @@
         <v>669</v>
       </c>
       <c r="C670" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D670" t="s">
         <v>915</v>
@@ -12642,7 +12642,7 @@
         <v>676</v>
       </c>
       <c r="C677" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D677" t="s">
         <v>899</v>
@@ -12698,7 +12698,7 @@
         <v>680</v>
       </c>
       <c r="C681" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D681" t="s">
         <v>892</v>
@@ -12726,7 +12726,7 @@
         <v>682</v>
       </c>
       <c r="C683" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D683" t="s">
         <v>892</v>
@@ -12754,7 +12754,7 @@
         <v>684</v>
       </c>
       <c r="C685" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D685" t="s">
         <v>893</v>
@@ -12813,7 +12813,7 @@
         <v>814</v>
       </c>
       <c r="D689" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -12824,7 +12824,7 @@
         <v>689</v>
       </c>
       <c r="C690" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D690" t="s">
         <v>895</v>
@@ -12852,7 +12852,7 @@
         <v>691</v>
       </c>
       <c r="C692" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D692" t="s">
         <v>900</v>
@@ -12866,7 +12866,7 @@
         <v>692</v>
       </c>
       <c r="C693" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D693" t="s">
         <v>875</v>
@@ -12877,7 +12877,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C694" t="s">
         <v>809</v>
@@ -12897,7 +12897,7 @@
         <v>866</v>
       </c>
       <c r="D695" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -12908,7 +12908,7 @@
         <v>694</v>
       </c>
       <c r="C696" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D696" t="s">
         <v>875</v>
@@ -12978,7 +12978,7 @@
         <v>699</v>
       </c>
       <c r="C701" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D701" t="s">
         <v>888</v>
@@ -12992,7 +12992,7 @@
         <v>700</v>
       </c>
       <c r="C702" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D702" t="s">
         <v>872</v>
@@ -13034,7 +13034,7 @@
         <v>703</v>
       </c>
       <c r="C705" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D705" t="s">
         <v>921</v>
@@ -13090,7 +13090,7 @@
         <v>707</v>
       </c>
       <c r="C709" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D709" t="s">
         <v>923</v>
@@ -13132,7 +13132,7 @@
         <v>710</v>
       </c>
       <c r="C712" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D712" t="s">
         <v>892</v>
@@ -13160,7 +13160,7 @@
         <v>712</v>
       </c>
       <c r="C714" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D714" t="s">
         <v>900</v>
@@ -13247,7 +13247,7 @@
         <v>868</v>
       </c>
       <c r="D720" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -13261,7 +13261,7 @@
         <v>809</v>
       </c>
       <c r="D721" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -13275,7 +13275,7 @@
         <v>812</v>
       </c>
       <c r="D722" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -13286,7 +13286,7 @@
         <v>721</v>
       </c>
       <c r="C723" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D723" t="s">
         <v>879</v>
@@ -13328,7 +13328,7 @@
         <v>361</v>
       </c>
       <c r="C726" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D726" t="s">
         <v>899</v>
@@ -13412,7 +13412,7 @@
         <v>729</v>
       </c>
       <c r="C732" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D732" t="s">
         <v>894</v>
@@ -13496,10 +13496,10 @@
         <v>734</v>
       </c>
       <c r="C738" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D738" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -13552,7 +13552,7 @@
         <v>738</v>
       </c>
       <c r="C742" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D742" t="s">
         <v>893</v>
@@ -13583,7 +13583,7 @@
         <v>819</v>
       </c>
       <c r="D744" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -13594,7 +13594,7 @@
         <v>741</v>
       </c>
       <c r="C745" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D745" t="s">
         <v>888</v>
@@ -13667,7 +13667,7 @@
         <v>808</v>
       </c>
       <c r="D750" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -13804,7 +13804,7 @@
         <v>754</v>
       </c>
       <c r="C760" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D760" t="s">
         <v>885</v>
@@ -13821,7 +13821,7 @@
         <v>810</v>
       </c>
       <c r="D761" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -13832,7 +13832,7 @@
         <v>756</v>
       </c>
       <c r="C762" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D762" t="s">
         <v>888</v>
@@ -13860,7 +13860,7 @@
         <v>758</v>
       </c>
       <c r="C764" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D764" t="s">
         <v>899</v>
@@ -13891,7 +13891,7 @@
         <v>809</v>
       </c>
       <c r="D766" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -13944,7 +13944,7 @@
         <v>764</v>
       </c>
       <c r="C770" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D770" t="s">
         <v>876</v>
@@ -13958,10 +13958,10 @@
         <v>765</v>
       </c>
       <c r="C771" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D771" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -13972,7 +13972,7 @@
         <v>766</v>
       </c>
       <c r="C772" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D772" t="s">
         <v>888</v>
@@ -14000,7 +14000,7 @@
         <v>768</v>
       </c>
       <c r="C774" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D774" t="s">
         <v>897</v>
@@ -14017,7 +14017,7 @@
         <v>809</v>
       </c>
       <c r="D775" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -14045,7 +14045,7 @@
         <v>821</v>
       </c>
       <c r="D777" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="778" spans="1:4">
@@ -14112,7 +14112,7 @@
         <v>776</v>
       </c>
       <c r="C782" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D782" t="s">
         <v>884</v>
@@ -14182,7 +14182,7 @@
         <v>781</v>
       </c>
       <c r="C787" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D787" t="s">
         <v>891</v>
@@ -14199,7 +14199,7 @@
         <v>809</v>
       </c>
       <c r="D788" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -14241,7 +14241,7 @@
         <v>808</v>
       </c>
       <c r="D791" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="792" spans="1:4">
@@ -14252,7 +14252,7 @@
         <v>786</v>
       </c>
       <c r="C792" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D792" t="s">
         <v>882</v>
@@ -14308,10 +14308,10 @@
         <v>790</v>
       </c>
       <c r="C796" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D796" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="797" spans="1:4">
@@ -14350,7 +14350,7 @@
         <v>793</v>
       </c>
       <c r="C799" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D799" t="s">
         <v>928</v>

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -64,12 +64,12 @@
     <t>Shohei Ohtani</t>
   </si>
   <si>
+    <t>Freddie Freeman</t>
+  </si>
+  <si>
     <t>Corbin Burnes</t>
   </si>
   <si>
-    <t>Freddie Freeman</t>
-  </si>
-  <si>
     <t>Mike Trout</t>
   </si>
   <si>
@@ -85,12 +85,12 @@
     <t>Bo Bichette</t>
   </si>
   <si>
+    <t>Pete Alonso</t>
+  </si>
+  <si>
     <t>Rafael Devers</t>
   </si>
   <si>
-    <t>Pete Alonso</t>
-  </si>
-  <si>
     <t>Fernando Tatis Jr.</t>
   </si>
   <si>
@@ -115,12 +115,12 @@
     <t>Spencer Strider</t>
   </si>
   <si>
+    <t>Francisco Lindor</t>
+  </si>
+  <si>
     <t>Jose Altuve</t>
   </si>
   <si>
-    <t>Francisco Lindor</t>
-  </si>
-  <si>
     <t>Aaron Nola</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Brandon Woodruff</t>
   </si>
   <si>
+    <t>Shane McClanahan</t>
+  </si>
+  <si>
     <t>Randy Arozarena</t>
   </si>
   <si>
-    <t>Shane McClanahan</t>
-  </si>
-  <si>
     <t>Dylan Cease</t>
   </si>
   <si>
@@ -160,30 +160,30 @@
     <t>Carlos Rodon</t>
   </si>
   <si>
+    <t>Shane Bieber</t>
+  </si>
+  <si>
     <t>Cedric Mullins II</t>
   </si>
   <si>
-    <t>Shane Bieber</t>
-  </si>
-  <si>
     <t>Zack Wheeler</t>
   </si>
   <si>
+    <t>Kyle Schwarber</t>
+  </si>
+  <si>
     <t>Josh Hader</t>
   </si>
   <si>
-    <t>Kyle Schwarber</t>
-  </si>
-  <si>
     <t>Jazz Chisholm Jr.</t>
   </si>
   <si>
+    <t>Ozzie Albies</t>
+  </si>
+  <si>
     <t>Corey Seager</t>
   </si>
   <si>
-    <t>Ozzie Albies</t>
-  </si>
-  <si>
     <t>J.T. Realmuto</t>
   </si>
   <si>
@@ -217,12 +217,12 @@
     <t>Alek Manoah</t>
   </si>
   <si>
+    <t>Teoscar Hernandez</t>
+  </si>
+  <si>
     <t>Max Fried</t>
   </si>
   <si>
-    <t>Teoscar Hernandez</t>
-  </si>
-  <si>
     <t>Eloy Jimenez</t>
   </si>
   <si>
@@ -235,24 +235,24 @@
     <t>Cristian Javier</t>
   </si>
   <si>
+    <t>Daulton Varsho</t>
+  </si>
+  <si>
     <t>Zac Gallen</t>
   </si>
   <si>
-    <t>Daulton Varsho</t>
-  </si>
-  <si>
     <t>Xander Bogaerts</t>
   </si>
   <si>
     <t>Dansby Swanson</t>
   </si>
   <si>
+    <t>Framber Valdez</t>
+  </si>
+  <si>
     <t>Tim Anderson</t>
   </si>
   <si>
-    <t>Framber Valdez</t>
-  </si>
-  <si>
     <t>Joe Musgrove</t>
   </si>
   <si>
@@ -328,60 +328,60 @@
     <t>Nestor Cortes Jr.</t>
   </si>
   <si>
+    <t>C.J. Cron</t>
+  </si>
+  <si>
+    <t>Steven Kwan</t>
+  </si>
+  <si>
     <t>Logan Webb</t>
   </si>
   <si>
-    <t>C.J. Cron</t>
-  </si>
-  <si>
-    <t>Steven Kwan</t>
+    <t>Camilo Doval</t>
+  </si>
+  <si>
+    <t>Seiya Suzuki</t>
+  </si>
+  <si>
+    <t>Luis Severino</t>
   </si>
   <si>
     <t>Kyle Wright</t>
   </si>
   <si>
-    <t>Camilo Doval</t>
-  </si>
-  <si>
-    <t>Seiya Suzuki</t>
-  </si>
-  <si>
     <t>Gleyber Torres</t>
   </si>
   <si>
-    <t>Luis Severino</t>
-  </si>
-  <si>
     <t>Tyler O'Neill</t>
   </si>
   <si>
+    <t>Gunnar Henderson</t>
+  </si>
+  <si>
     <t>Logan Gilbert</t>
   </si>
   <si>
-    <t>Gunnar Henderson</t>
-  </si>
-  <si>
     <t>Anthony Santander</t>
   </si>
   <si>
+    <t>George Kirby</t>
+  </si>
+  <si>
     <t>Blake Snell</t>
   </si>
   <si>
-    <t>George Kirby</t>
+    <t>Clayton Kershaw</t>
   </si>
   <si>
     <t>Giancarlo Stanton</t>
   </si>
   <si>
-    <t>Clayton Kershaw</t>
+    <t>Amed Rosario</t>
   </si>
   <si>
     <t>Alejandro Kirk</t>
   </si>
   <si>
-    <t>Amed Rosario</t>
-  </si>
-  <si>
     <t>Kris Bryant</t>
   </si>
   <si>
@@ -394,24 +394,24 @@
     <t>Jake McCarthy</t>
   </si>
   <si>
+    <t>Jeremy Pena</t>
+  </si>
+  <si>
     <t>Willson Contreras</t>
   </si>
   <si>
     <t>David Bednar</t>
   </si>
   <si>
-    <t>Jeremy Pena</t>
-  </si>
-  <si>
     <t>Hunter Greene</t>
   </si>
   <si>
+    <t>Taylor Ward</t>
+  </si>
+  <si>
     <t>Kenley Jansen</t>
   </si>
   <si>
-    <t>Taylor Ward</t>
-  </si>
-  <si>
     <t>Freddy Peralta</t>
   </si>
   <si>
@@ -433,36 +433,36 @@
     <t>Joe Ryan</t>
   </si>
   <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
     <t>Ian Happ</t>
   </si>
   <si>
-    <t>Anthony Rizzo</t>
-  </si>
-  <si>
     <t>Scott Barlow</t>
   </si>
   <si>
     <t>Lucas Giolito</t>
   </si>
   <si>
+    <t>Chris Bassitt</t>
+  </si>
+  <si>
     <t>Pablo Lopez</t>
   </si>
   <si>
     <t>Andrew Vaughn</t>
   </si>
   <si>
-    <t>Chris Bassitt</t>
-  </si>
-  <si>
     <t>Max Muncy</t>
   </si>
   <si>
+    <t>Chris Sale</t>
+  </si>
+  <si>
     <t>Ty France</t>
   </si>
   <si>
-    <t>Chris Sale</t>
-  </si>
-  <si>
     <t>Nico Hoerner</t>
   </si>
   <si>
@@ -478,27 +478,27 @@
     <t>Hunter Renfroe</t>
   </si>
   <si>
+    <t>Dustin May</t>
+  </si>
+  <si>
+    <t>Matt Chapman</t>
+  </si>
+  <si>
     <t>Liam Hendriks</t>
   </si>
   <si>
-    <t>Matt Chapman</t>
-  </si>
-  <si>
-    <t>Dustin May</t>
+    <t>Bryce Harper</t>
   </si>
   <si>
     <t>Rowdy Tellez</t>
   </si>
   <si>
+    <t>MJ Melendez</t>
+  </si>
+  <si>
     <t>Brandon Lowe</t>
   </si>
   <si>
-    <t>Bryce Harper</t>
-  </si>
-  <si>
-    <t>MJ Melendez</t>
-  </si>
-  <si>
     <t>Mitch Haniger</t>
   </si>
   <si>
@@ -526,12 +526,12 @@
     <t>William Contreras</t>
   </si>
   <si>
+    <t>Jose Miranda</t>
+  </si>
+  <si>
     <t>Alexis Diaz</t>
   </si>
   <si>
-    <t>Jose Miranda</t>
-  </si>
-  <si>
     <t>Andres Munoz</t>
   </si>
   <si>
@@ -553,12 +553,12 @@
     <t>Jonathan India</t>
   </si>
   <si>
+    <t>Paul Sewald</t>
+  </si>
+  <si>
     <t>Brady Singer</t>
   </si>
   <si>
-    <t>Paul Sewald</t>
-  </si>
-  <si>
     <t>Luis Arraez</t>
   </si>
   <si>
@@ -571,12 +571,12 @@
     <t>Tyler Stephenson</t>
   </si>
   <si>
+    <t>Alec Bohm</t>
+  </si>
+  <si>
     <t>Ketel Marte</t>
   </si>
   <si>
-    <t>Alec Bohm</t>
-  </si>
-  <si>
     <t>Jeffrey Springs</t>
   </si>
   <si>
@@ -592,15 +592,15 @@
     <t>Drew Rasmussen</t>
   </si>
   <si>
+    <t>Ryan McMahon</t>
+  </si>
+  <si>
+    <t>Vaughn Grissom</t>
+  </si>
+  <si>
     <t>Frankie Montas</t>
   </si>
   <si>
-    <t>Ryan McMahon</t>
-  </si>
-  <si>
-    <t>Vaughn Grissom</t>
-  </si>
-  <si>
     <t>Pete Fairbanks</t>
   </si>
   <si>
@@ -610,96 +610,96 @@
     <t>Josh Naylor</t>
   </si>
   <si>
+    <t>Andrew Heaney</t>
+  </si>
+  <si>
     <t>Grayson Rodriguez</t>
   </si>
   <si>
-    <t>Andrew Heaney</t>
-  </si>
-  <si>
     <t>Whit Merrifield</t>
   </si>
   <si>
+    <t>J.D. Martinez</t>
+  </si>
+  <si>
     <t>Harrison Bader</t>
   </si>
   <si>
-    <t>J.D. Martinez</t>
-  </si>
-  <si>
     <t>Jean Segura</t>
   </si>
   <si>
+    <t>Alex Cobb</t>
+  </si>
+  <si>
     <t>Patrick Sandoval</t>
   </si>
   <si>
+    <t>Miles Mikolas</t>
+  </si>
+  <si>
     <t>Cal Raleigh</t>
   </si>
   <si>
-    <t>Miles Mikolas</t>
+    <t>Joey Meneses</t>
+  </si>
+  <si>
+    <t>Josh Rojas</t>
+  </si>
+  <si>
+    <t>Lars Nootbaar</t>
   </si>
   <si>
     <t>Jose Leclerc</t>
   </si>
   <si>
-    <t>Joey Meneses</t>
-  </si>
-  <si>
-    <t>Josh Rojas</t>
-  </si>
-  <si>
-    <t>Alex Cobb</t>
-  </si>
-  <si>
-    <t>Lars Nootbaar</t>
+    <t>Ramon Laureano</t>
   </si>
   <si>
     <t>Jose Berrios</t>
   </si>
   <si>
-    <t>Ramon Laureano</t>
-  </si>
-  <si>
     <t>Brendan Rodgers</t>
   </si>
   <si>
+    <t>Reid Detmers</t>
+  </si>
+  <si>
     <t>Trevor Story</t>
   </si>
   <si>
-    <t>Reid Detmers</t>
+    <t>Andrew Benintendi</t>
   </si>
   <si>
     <t>Edward Cabrera</t>
   </si>
   <si>
-    <t>Andrew Benintendi</t>
-  </si>
-  <si>
     <t>Joc Pederson</t>
   </si>
   <si>
     <t>Anthony Rendon</t>
   </si>
   <si>
+    <t>Sonny Gray</t>
+  </si>
+  <si>
     <t>Aaron Ashby</t>
   </si>
   <si>
-    <t>Sonny Gray</t>
-  </si>
-  <si>
     <t>Cody Bellinger</t>
   </si>
   <si>
+    <t>Brandon Drury</t>
+  </si>
+  <si>
     <t>Kolten Wong</t>
   </si>
   <si>
-    <t>Brandon Drury</t>
+    <t>Lourdes Gurriel Jr.</t>
   </si>
   <si>
     <t>Nathan Eovaldi</t>
   </si>
   <si>
-    <t>Lourdes Gurriel Jr.</t>
-  </si>
-  <si>
     <t>Justin Turner</t>
   </si>
   <si>
@@ -709,30 +709,30 @@
     <t>Josh Jung</t>
   </si>
   <si>
+    <t>Michael Conforto</t>
+  </si>
+  <si>
     <t>Austin Hays</t>
   </si>
   <si>
+    <t>CJ Abrams</t>
+  </si>
+  <si>
     <t>Danny Jansen</t>
   </si>
   <si>
-    <t>CJ Abrams</t>
-  </si>
-  <si>
     <t>Merrill Kelly</t>
   </si>
   <si>
-    <t>Michael Conforto</t>
+    <t>Seth Brown</t>
+  </si>
+  <si>
+    <t>Ezequiel Tovar</t>
   </si>
   <si>
     <t>Luis Urias</t>
   </si>
   <si>
-    <t>Ezequiel Tovar</t>
-  </si>
-  <si>
-    <t>Seth Brown</t>
-  </si>
-  <si>
     <t>Gavin Lux</t>
   </si>
   <si>
@@ -754,15 +754,15 @@
     <t>Tyler Anderson</t>
   </si>
   <si>
+    <t>Randal Grichuk</t>
+  </si>
+  <si>
+    <t>Triston Casas</t>
+  </si>
+  <si>
     <t>Charlie Blackmon</t>
   </si>
   <si>
-    <t>Randal Grichuk</t>
-  </si>
-  <si>
-    <t>Triston Casas</t>
-  </si>
-  <si>
     <t>Seranthony Dominguez</t>
   </si>
   <si>
@@ -784,105 +784,105 @@
     <t>Marcus Stroman</t>
   </si>
   <si>
+    <t>Jose Urquidy</t>
+  </si>
+  <si>
     <t>HaSeong Kim</t>
   </si>
   <si>
-    <t>Jose Urquidy</t>
-  </si>
-  <si>
     <t>Ranger Suarez</t>
   </si>
   <si>
+    <t>Jon Berti</t>
+  </si>
+  <si>
     <t>Lane Thomas</t>
   </si>
   <si>
     <t>Kyle Finnegan</t>
   </si>
   <si>
-    <t>Jon Berti</t>
+    <t>Bryan De La Cruz</t>
   </si>
   <si>
     <t>Roansy Contreras</t>
   </si>
   <si>
-    <t>Bryan De La Cruz</t>
-  </si>
-  <si>
     <t>Austin Meadows</t>
   </si>
   <si>
+    <t>DJ LeMahieu</t>
+  </si>
+  <si>
+    <t>Carlos Carrasco</t>
+  </si>
+  <si>
     <t>Yoan Moncada</t>
   </si>
   <si>
-    <t>Carlos Carrasco</t>
+    <t>Sean Manaea</t>
+  </si>
+  <si>
+    <t>Christopher Morel</t>
   </si>
   <si>
     <t>Michael Kopech</t>
   </si>
   <si>
-    <t>DJ LeMahieu</t>
-  </si>
-  <si>
-    <t>Sean Manaea</t>
-  </si>
-  <si>
-    <t>Christopher Morel</t>
+    <t>Giovanny Gallegos</t>
+  </si>
+  <si>
+    <t>Dylan Carlson</t>
+  </si>
+  <si>
+    <t>Manuel Margot</t>
+  </si>
+  <si>
+    <t>Miguel Vargas</t>
   </si>
   <si>
     <t>Trey Mancini</t>
   </si>
   <si>
-    <t>Dylan Carlson</t>
-  </si>
-  <si>
-    <t>Giovanny Gallegos</t>
-  </si>
-  <si>
-    <t>Manuel Margot</t>
-  </si>
-  <si>
-    <t>Miguel Vargas</t>
+    <t>Bailey Ober</t>
+  </si>
+  <si>
+    <t>Travis d'Arnaud</t>
+  </si>
+  <si>
+    <t>Jesse Winker</t>
   </si>
   <si>
     <t>Gregory Soto</t>
   </si>
   <si>
-    <t>Bailey Ober</t>
-  </si>
-  <si>
-    <t>Travis d'Arnaud</t>
-  </si>
-  <si>
-    <t>Jesse Winker</t>
+    <t>Martin Perez</t>
   </si>
   <si>
     <t>Dylan Floro</t>
   </si>
   <si>
-    <t>Martin Perez</t>
-  </si>
-  <si>
     <t>Jorge Soler</t>
   </si>
   <si>
+    <t>Jake Fraley</t>
+  </si>
+  <si>
+    <t>Hunter Brown</t>
+  </si>
+  <si>
     <t>Jordan Walker</t>
   </si>
   <si>
-    <t>Jake Fraley</t>
-  </si>
-  <si>
     <t>Justin Steele</t>
   </si>
   <si>
-    <t>Hunter Brown</t>
+    <t>Luis Rengifo</t>
   </si>
   <si>
     <t>Jarred Kelenic</t>
   </si>
   <si>
-    <t>Luis Rengifo</t>
-  </si>
-  <si>
     <t>Jared Walsh</t>
   </si>
   <si>
@@ -907,18 +907,18 @@
     <t>Garrett Whitlock</t>
   </si>
   <si>
+    <t>Kodai Senga</t>
+  </si>
+  <si>
     <t>Chris Taylor</t>
   </si>
   <si>
-    <t>Kodai Senga</t>
+    <t>Masataka Yoshida</t>
   </si>
   <si>
     <t>Tylor Megill</t>
   </si>
   <si>
-    <t>Masataka Yoshida</t>
-  </si>
-  <si>
     <t>Eduardo Rodriguez</t>
   </si>
   <si>
@@ -943,24 +943,24 @@
     <t>Jose Quintana</t>
   </si>
   <si>
+    <t>Wil Myers</t>
+  </si>
+  <si>
+    <t>Trent Grisham</t>
+  </si>
+  <si>
+    <t>Craig Kimbrel</t>
+  </si>
+  <si>
     <t>Logan O'Hoppe</t>
   </si>
   <si>
+    <t>Spencer Torkelson</t>
+  </si>
+  <si>
     <t>Ross Stripling</t>
   </si>
   <si>
-    <t>Wil Myers</t>
-  </si>
-  <si>
-    <t>Craig Kimbrel</t>
-  </si>
-  <si>
-    <t>Trent Grisham</t>
-  </si>
-  <si>
-    <t>Spencer Torkelson</t>
-  </si>
-  <si>
     <t>Avisail Garcia</t>
   </si>
   <si>
@@ -970,90 +970,102 @@
     <t>Daniel Hudson</t>
   </si>
   <si>
+    <t>Adam Wainwright</t>
+  </si>
+  <si>
+    <t>Michael Brantley</t>
+  </si>
+  <si>
+    <t>Kenta Maeda</t>
+  </si>
+  <si>
+    <t>Mike Yastrzemski</t>
+  </si>
+  <si>
+    <t>Esteury Ruiz</t>
+  </si>
+  <si>
     <t>Yasmani Grandal</t>
   </si>
   <si>
-    <t>Adam Wainwright</t>
-  </si>
-  <si>
-    <t>Michael Brantley</t>
-  </si>
-  <si>
-    <t>Kenta Maeda</t>
-  </si>
-  <si>
-    <t>Mike Yastrzemski</t>
-  </si>
-  <si>
-    <t>Esteury Ruiz</t>
+    <t>Mark Canha</t>
+  </si>
+  <si>
+    <t>Marcell Ozuna</t>
+  </si>
+  <si>
+    <t>Nick Gordon</t>
+  </si>
+  <si>
+    <t>Mike Clevinger</t>
   </si>
   <si>
     <t>Alex Kirilloff</t>
   </si>
   <si>
+    <t>Alex Lange</t>
+  </si>
+  <si>
+    <t>Jason Adam</t>
+  </si>
+  <si>
     <t>Tanner Houck</t>
   </si>
   <si>
-    <t>Mark Canha</t>
-  </si>
-  <si>
-    <t>Mike Clevinger</t>
-  </si>
-  <si>
-    <t>Marcell Ozuna</t>
-  </si>
-  <si>
-    <t>Alex Lange</t>
-  </si>
-  <si>
-    <t>Nick Gordon</t>
-  </si>
-  <si>
-    <t>Jason Adam</t>
+    <t>Brendan Donovan</t>
+  </si>
+  <si>
+    <t>Garrett Mitchell</t>
+  </si>
+  <si>
+    <t>Steven Matz</t>
+  </si>
+  <si>
+    <t>Kendall Graveman</t>
+  </si>
+  <si>
+    <t>Alex Wood</t>
   </si>
   <si>
     <t>Brandon Hughes</t>
   </si>
   <si>
-    <t>Brendan Donovan</t>
+    <t>Aaron Civale</t>
+  </si>
+  <si>
+    <t>Oswald Peraza</t>
+  </si>
+  <si>
+    <t>Chris Martin</t>
+  </si>
+  <si>
+    <t>Christian Vazquez</t>
+  </si>
+  <si>
+    <t>Hayden Wesneski</t>
+  </si>
+  <si>
+    <t>Eduardo Escobar</t>
   </si>
   <si>
     <t>Aroldis Chapman</t>
   </si>
   <si>
-    <t>Oswald Peraza</t>
-  </si>
-  <si>
-    <t>Chris Martin</t>
-  </si>
-  <si>
-    <t>Kendall Graveman</t>
-  </si>
-  <si>
-    <t>Garrett Mitchell</t>
-  </si>
-  <si>
-    <t>Steven Matz</t>
-  </si>
-  <si>
-    <t>Christian Vazquez</t>
-  </si>
-  <si>
-    <t>Alex Wood</t>
-  </si>
-  <si>
-    <t>Hayden Wesneski</t>
-  </si>
-  <si>
-    <t>Aaron Civale</t>
-  </si>
-  <si>
     <t>Trevor May</t>
   </si>
   <si>
+    <t>MacKenzie Gore</t>
+  </si>
+  <si>
     <t>Bubba Thompson</t>
   </si>
   <si>
+    <t>Nick Pivetta</t>
+  </si>
+  <si>
+    <t>Noah Syndergaard</t>
+  </si>
+  <si>
     <t>TJ Friedl</t>
   </si>
   <si>
@@ -1066,90 +1078,87 @@
     <t>Gabriel Moreno</t>
   </si>
   <si>
+    <t>Oscar Colas</t>
+  </si>
+  <si>
+    <t>Joey Votto</t>
+  </si>
+  <si>
+    <t>Gio Urshela</t>
+  </si>
+  <si>
+    <t>A.J. Minter</t>
+  </si>
+  <si>
+    <t>Francisco Alvarez</t>
+  </si>
+  <si>
+    <t>Josiah Gray</t>
+  </si>
+  <si>
+    <t>Mike Soroka</t>
+  </si>
+  <si>
+    <t>Trayce Thompson</t>
+  </si>
+  <si>
     <t>Isaac Paredes</t>
   </si>
   <si>
-    <t>Oscar Colas</t>
-  </si>
-  <si>
-    <t>Joey Votto</t>
+    <t>Kyle Bradish</t>
+  </si>
+  <si>
+    <t>Wilmer Flores</t>
+  </si>
+  <si>
+    <t>Kike Hernandez</t>
+  </si>
+  <si>
+    <t>David Peterson</t>
+  </si>
+  <si>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
+    <t>Andrew Painter</t>
+  </si>
+  <si>
+    <t>Jurickson</t>
+  </si>
+  <si>
+    <t>Eric Haase</t>
+  </si>
+  <si>
+    <t>Garrett Cooper</t>
   </si>
   <si>
     <t>A.J. Puk</t>
   </si>
   <si>
-    <t>A.J. Minter</t>
-  </si>
-  <si>
-    <t>Francisco Alvarez</t>
-  </si>
-  <si>
-    <t>Kike Hernandez</t>
-  </si>
-  <si>
-    <t>Trayce Thompson</t>
-  </si>
-  <si>
-    <t>Eduardo Escobar</t>
+    <t>AJ Pollock</t>
+  </si>
+  <si>
+    <t>Elvis</t>
+  </si>
+  <si>
+    <t>Tarik Skubal</t>
+  </si>
+  <si>
+    <t>Jose Suarez</t>
+  </si>
+  <si>
+    <t>Braxton Garrett</t>
   </si>
   <si>
     <t>Drey Jameson</t>
   </si>
   <si>
-    <t>MacKenzie Gore</t>
-  </si>
-  <si>
-    <t>Nick Pivetta</t>
-  </si>
-  <si>
-    <t>Wilmer Flores</t>
-  </si>
-  <si>
-    <t>Noah Syndergaard</t>
-  </si>
-  <si>
-    <t>Jose Alvarado</t>
-  </si>
-  <si>
-    <t>Andrew Painter</t>
-  </si>
-  <si>
-    <t>Eric Haase</t>
-  </si>
-  <si>
-    <t>Garrett Cooper</t>
-  </si>
-  <si>
-    <t>Jose Suarez</t>
-  </si>
-  <si>
-    <t>Gio Urshela</t>
-  </si>
-  <si>
-    <t>Josiah Gray</t>
-  </si>
-  <si>
-    <t>Mike Soroka</t>
-  </si>
-  <si>
-    <t>Tarik Skubal</t>
-  </si>
-  <si>
-    <t>Braxton Garrett</t>
-  </si>
-  <si>
     <t>James Karinchak</t>
   </si>
   <si>
     <t>German Marquez</t>
   </si>
   <si>
-    <t>Kyle Bradish</t>
-  </si>
-  <si>
-    <t>David Peterson</t>
-  </si>
-  <si>
     <t>Brock Burke</t>
   </si>
   <si>
@@ -1162,12 +1171,12 @@
     <t>Alex Vesia</t>
   </si>
   <si>
-    <t>Jurickson</t>
-  </si>
-  <si>
     <t>Alek Thomas</t>
   </si>
   <si>
+    <t>Cody Morris</t>
+  </si>
+  <si>
     <t>JT Brubaker</t>
   </si>
   <si>
@@ -1183,150 +1192,147 @@
     <t>Matt Carpenter</t>
   </si>
   <si>
-    <t>AJ Pollock</t>
+    <t>J.P. Crawford</t>
+  </si>
+  <si>
+    <t>Rafael Montero</t>
   </si>
   <si>
     <t>Shea Langeliers</t>
   </si>
   <si>
-    <t>Rafael Montero</t>
-  </si>
-  <si>
     <t>Brandon Crawford</t>
   </si>
   <si>
+    <t>Michael King</t>
+  </si>
+  <si>
     <t>Joey Bart</t>
   </si>
   <si>
-    <t>Michael King</t>
-  </si>
-  <si>
     <t>Adbert Alzolay</t>
   </si>
   <si>
+    <t>Joey Gallo</t>
+  </si>
+  <si>
+    <t>Harold Ramirez</t>
+  </si>
+  <si>
+    <t>Robert Suarez</t>
+  </si>
+  <si>
     <t>Mitch Keller</t>
   </si>
   <si>
-    <t>Elvis</t>
-  </si>
-  <si>
-    <t>Joey Gallo</t>
-  </si>
-  <si>
-    <t>Harold Ramirez</t>
-  </si>
-  <si>
-    <t>Robert Suarez</t>
-  </si>
-  <si>
     <t>Tony Kemp</t>
   </si>
   <si>
+    <t>Corey Kluber</t>
+  </si>
+  <si>
+    <t>Spencer Turnbull</t>
+  </si>
+  <si>
+    <t>Ramon Urias</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Connor Joe</t>
+  </si>
+  <si>
+    <t>Domingo German</t>
+  </si>
+  <si>
+    <t>Jo Adell</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Bo Naylor</t>
+  </si>
+  <si>
+    <t>Ken Waldichuk</t>
+  </si>
+  <si>
+    <t>Nolan Gorman</t>
+  </si>
+  <si>
+    <t>Tyrone Taylor</t>
+  </si>
+  <si>
+    <t>Royce Lewis</t>
+  </si>
+  <si>
+    <t>Myles Straw</t>
+  </si>
+  <si>
+    <t>Edward Olivares</t>
+  </si>
+  <si>
+    <t>Cole Irvin</t>
+  </si>
+  <si>
+    <t>Luis Ortiz</t>
+  </si>
+  <si>
+    <t>Tanner Scott</t>
+  </si>
+  <si>
+    <t>Joe Jimenez</t>
+  </si>
+  <si>
+    <t>Jeimer Candelario</t>
+  </si>
+  <si>
+    <t>Leody Taveras</t>
+  </si>
+  <si>
+    <t>Patrick Wisdom</t>
+  </si>
+  <si>
+    <t>Carson Kelly</t>
+  </si>
+  <si>
+    <t>J.D. Davis</t>
+  </si>
+  <si>
+    <t>Garrett Cleavinger</t>
+  </si>
+  <si>
+    <t>David Robertson</t>
+  </si>
+  <si>
+    <t>Akil Baddoo</t>
+  </si>
+  <si>
+    <t>Christian Bethancourt</t>
+  </si>
+  <si>
+    <t>Johnny Cueto</t>
+  </si>
+  <si>
+    <t>Aaron Bummer</t>
+  </si>
+  <si>
+    <t>Josh Lowe</t>
+  </si>
+  <si>
+    <t>Elias Diaz</t>
+  </si>
+  <si>
+    <t>James Paxton</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t>Joey Wendle</t>
   </si>
   <si>
-    <t>Corey Kluber</t>
-  </si>
-  <si>
-    <t>Ramon Urias</t>
-  </si>
-  <si>
-    <t>Will</t>
-  </si>
-  <si>
-    <t>Connor Joe</t>
-  </si>
-  <si>
-    <t>Domingo German</t>
-  </si>
-  <si>
-    <t>Jo Adell</t>
-  </si>
-  <si>
-    <t>Luke</t>
-  </si>
-  <si>
-    <t>Bo Naylor</t>
-  </si>
-  <si>
-    <t>Ken Waldichuk</t>
-  </si>
-  <si>
-    <t>Nolan Gorman</t>
-  </si>
-  <si>
-    <t>Tyrone Taylor</t>
-  </si>
-  <si>
-    <t>Myles Straw</t>
-  </si>
-  <si>
-    <t>Royce Lewis</t>
-  </si>
-  <si>
-    <t>J.P. Crawford</t>
-  </si>
-  <si>
-    <t>Cody Morris</t>
-  </si>
-  <si>
-    <t>Luis Ortiz</t>
-  </si>
-  <si>
-    <t>Jeimer Candelario</t>
-  </si>
-  <si>
-    <t>Tanner Scott</t>
-  </si>
-  <si>
-    <t>Leody Taveras</t>
-  </si>
-  <si>
-    <t>J.D. Davis</t>
-  </si>
-  <si>
-    <t>Carson Kelly</t>
-  </si>
-  <si>
-    <t>Patrick Wisdom</t>
-  </si>
-  <si>
-    <t>Joe Jimenez</t>
-  </si>
-  <si>
-    <t>Garrett Cleavinger</t>
-  </si>
-  <si>
-    <t>David Robertson</t>
-  </si>
-  <si>
-    <t>Akil Baddoo</t>
-  </si>
-  <si>
-    <t>Christian Bethancourt</t>
-  </si>
-  <si>
-    <t>Johnny Cueto</t>
-  </si>
-  <si>
-    <t>Aaron Bummer</t>
-  </si>
-  <si>
-    <t>Josh Lowe</t>
-  </si>
-  <si>
-    <t>Elias Diaz</t>
-  </si>
-  <si>
-    <t>Spencer Turnbull</t>
-  </si>
-  <si>
-    <t>James Paxton</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
     <t>Jose Trevino</t>
   </si>
   <si>
@@ -1345,18 +1351,12 @@
     <t>Kerry Carpenter</t>
   </si>
   <si>
-    <t>Edward Olivares</t>
-  </si>
-  <si>
     <t>Eric Hosmer</t>
   </si>
   <si>
     <t>Erik Swanson</t>
   </si>
   <si>
-    <t>Cole Irvin</t>
-  </si>
-  <si>
     <t>Jalen Beeks</t>
   </si>
   <si>
@@ -1372,18 +1372,18 @@
     <t>Marco Gonzales</t>
   </si>
   <si>
+    <t>Matt Bush</t>
+  </si>
+  <si>
+    <t>Bobby Dalbec</t>
+  </si>
+  <si>
     <t>Anthony Volpe</t>
   </si>
   <si>
-    <t>Matt Bush</t>
-  </si>
-  <si>
     <t>John Schreiber</t>
   </si>
   <si>
-    <t>Bobby Dalbec</t>
-  </si>
-  <si>
     <t>Ryne Nelson</t>
   </si>
   <si>
@@ -1402,27 +1402,27 @@
     <t>Joe Kelly</t>
   </si>
   <si>
+    <t>Hector Neris</t>
+  </si>
+  <si>
     <t>Rodolfo Castro</t>
   </si>
   <si>
-    <t>Hector Neris</t>
+    <t>Caleb Thielbar</t>
   </si>
   <si>
     <t>Austin Nola</t>
   </si>
   <si>
-    <t>Caleb Thielbar</t>
-  </si>
-  <si>
     <t>Graham Ashcraft</t>
   </si>
   <si>
+    <t>Shane Baz</t>
+  </si>
+  <si>
     <t>Diego Castillo</t>
   </si>
   <si>
-    <t>Shane Baz</t>
-  </si>
-  <si>
     <t>Andrew</t>
   </si>
   <si>
@@ -1447,42 +1447,42 @@
     <t>Adam Ottavino</t>
   </si>
   <si>
+    <t>Nate Pearson</t>
+  </si>
+  <si>
     <t>Michael Lorenzen</t>
   </si>
   <si>
+    <t>Trevor</t>
+  </si>
+  <si>
     <t>DL Hall</t>
   </si>
   <si>
     <t>Chas McCormick</t>
   </si>
   <si>
-    <t>Nate Pearson</t>
-  </si>
-  <si>
-    <t>Trevor</t>
-  </si>
-  <si>
     <t>David Fletcher</t>
   </si>
   <si>
+    <t>Eddie Rosario</t>
+  </si>
+  <si>
+    <t>Kyle Muller</t>
+  </si>
+  <si>
+    <t>Josh Donaldson</t>
+  </si>
+  <si>
     <t>Brett Baty</t>
   </si>
   <si>
-    <t>Josh Donaldson</t>
-  </si>
-  <si>
-    <t>Eddie Rosario</t>
-  </si>
-  <si>
-    <t>Kyle Muller</t>
+    <t>Trevor Stephan</t>
   </si>
   <si>
     <t>Nick Madrigal</t>
   </si>
   <si>
-    <t>Trevor Stephan</t>
-  </si>
-  <si>
     <t>Jonathan Schoop</t>
   </si>
   <si>
@@ -1495,24 +1495,24 @@
     <t>Brice Turang</t>
   </si>
   <si>
+    <t>Spencer Steer</t>
+  </si>
+  <si>
     <t>Anthony DeSclafani</t>
   </si>
   <si>
-    <t>Spencer Steer</t>
-  </si>
-  <si>
     <t>Gavin Sheets</t>
   </si>
   <si>
     <t>Jordan Lyles</t>
   </si>
   <si>
+    <t>Endy Rodriguez</t>
+  </si>
+  <si>
     <t>Matt Manning</t>
   </si>
   <si>
-    <t>Endy Rodriguez</t>
-  </si>
-  <si>
     <t>Dean Kremer</t>
   </si>
   <si>
@@ -1540,39 +1540,39 @@
     <t>Adrian Houser</t>
   </si>
   <si>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
     <t>Nelson Cruz</t>
   </si>
   <si>
-    <t>Kyle Hendricks</t>
+    <t>Luis Campusano</t>
   </si>
   <si>
     <t>Nick Martinez</t>
   </si>
   <si>
+    <t>Domingo Acevedo</t>
+  </si>
+  <si>
+    <t>Reynaldo Lopez</t>
+  </si>
+  <si>
     <t>Ryan Jeffers</t>
   </si>
   <si>
-    <t>Luis Campusano</t>
-  </si>
-  <si>
-    <t>Domingo Acevedo</t>
-  </si>
-  <si>
     <t>Drew Waters</t>
   </si>
   <si>
-    <t>Reynaldo Lopez</t>
-  </si>
-  <si>
     <t>Aledmys Diaz</t>
   </si>
   <si>
+    <t>Kevin Kiermaier</t>
+  </si>
+  <si>
     <t>Jack Suwinski</t>
   </si>
   <si>
-    <t>Kevin Kiermaier</t>
-  </si>
-  <si>
     <t>Will Brennan</t>
   </si>
   <si>
@@ -1588,15 +1588,15 @@
     <t>Kyle Lewis</t>
   </si>
   <si>
+    <t>Kevin Ginkel</t>
+  </si>
+  <si>
+    <t>Brian Anderson</t>
+  </si>
+  <si>
     <t>Francisco Mejia</t>
   </si>
   <si>
-    <t>Kevin Ginkel</t>
-  </si>
-  <si>
-    <t>Brian Anderson</t>
-  </si>
-  <si>
     <t>Sixto Sanchez</t>
   </si>
   <si>
@@ -1618,12 +1618,12 @@
     <t>Mike Zunino</t>
   </si>
   <si>
+    <t>Nick Pratto</t>
+  </si>
+  <si>
     <t>Michael Massey</t>
   </si>
   <si>
-    <t>Nick Pratto</t>
-  </si>
-  <si>
     <t>Omar Narvaez</t>
   </si>
   <si>
@@ -2437,12 +2437,12 @@
     <t>SP,DH</t>
   </si>
   <si>
+    <t>1B</t>
+  </si>
+  <si>
     <t>SP</t>
   </si>
   <si>
-    <t>1B</t>
-  </si>
-  <si>
     <t>3B,SS</t>
   </si>
   <si>
@@ -2542,12 +2542,12 @@
     <t>1B,2B,3B,DH</t>
   </si>
   <si>
+    <t>1B,LF,CF,RF</t>
+  </si>
+  <si>
     <t>2B,3B,SS</t>
   </si>
   <si>
-    <t>1B,LF,CF,RF</t>
-  </si>
-  <si>
     <t>2B,LF</t>
   </si>
   <si>
@@ -2566,12 +2566,12 @@
     <t>1B,LF,RF</t>
   </si>
   <si>
+    <t>2B,SS,LF,CF</t>
+  </si>
+  <si>
     <t>1B,LF</t>
   </si>
   <si>
-    <t>2B,SS,LF,CF</t>
-  </si>
-  <si>
     <t>1B,2B,3B,SS,LF,RF</t>
   </si>
   <si>
@@ -2590,7 +2590,7 @@
     <t>1B,2B,3B,SS,RF</t>
   </si>
   <si>
-    <t>RP,SP</t>
+    <t>CF,SP</t>
   </si>
   <si>
     <t>1B,2B,3B,SS,LF</t>
@@ -2677,12 +2677,12 @@
     <t>KC</t>
   </si>
   <si>
+    <t>NYM</t>
+  </si>
+  <si>
     <t>BOS</t>
   </si>
   <si>
-    <t>NYM</t>
-  </si>
-  <si>
     <t>STL</t>
   </si>
   <si>
@@ -2713,10 +2713,10 @@
     <t>MIN</t>
   </si>
   <si>
+    <t>COL</t>
+  </si>
+  <si>
     <t>SF</t>
-  </si>
-  <si>
-    <t>COL</t>
   </si>
   <si>
     <t>CIN</t>
@@ -3349,7 +3349,7 @@
         <v>806</v>
       </c>
       <c r="D13" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3363,7 +3363,7 @@
         <v>807</v>
       </c>
       <c r="D14" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3388,7 +3388,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D16" t="s">
         <v>876</v>
@@ -3444,7 +3444,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D20" t="s">
         <v>886</v>
@@ -3458,7 +3458,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="D21" t="s">
         <v>887</v>
@@ -3500,7 +3500,7 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D24" t="s">
         <v>889</v>
@@ -3531,7 +3531,7 @@
         <v>810</v>
       </c>
       <c r="D26" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3542,7 +3542,7 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D27" t="s">
         <v>890</v>
@@ -3584,10 +3584,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="D30" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3598,10 +3598,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="D31" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3612,7 +3612,7 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D32" t="s">
         <v>874</v>
@@ -3640,7 +3640,7 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D34" t="s">
         <v>884</v>
@@ -3654,7 +3654,7 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D35" t="s">
         <v>891</v>
@@ -3668,7 +3668,7 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="D36" t="s">
         <v>891</v>
@@ -3682,7 +3682,7 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D37" t="s">
         <v>892</v>
@@ -3738,7 +3738,7 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D41" t="s">
         <v>875</v>
@@ -3752,10 +3752,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D42" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3766,10 +3766,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D43" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3780,7 +3780,7 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D44" t="s">
         <v>876</v>
@@ -3794,10 +3794,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="D45" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3808,10 +3808,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="D46" t="s">
-        <v>877</v>
+        <v>893</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3822,7 +3822,7 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D47" t="s">
         <v>874</v>
@@ -3836,10 +3836,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="D48" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3850,10 +3850,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="D49" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3878,10 +3878,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="D51" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3892,10 +3892,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="D52" t="s">
-        <v>875</v>
+        <v>890</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3920,7 +3920,7 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D54" t="s">
         <v>882</v>
@@ -3962,7 +3962,7 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D57" t="s">
         <v>881</v>
@@ -3976,7 +3976,7 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D58" t="s">
         <v>878</v>
@@ -3993,7 +3993,7 @@
         <v>801</v>
       </c>
       <c r="D59" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4046,7 +4046,7 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D63" t="s">
         <v>881</v>
@@ -4060,10 +4060,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D64" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4074,10 +4074,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="D65" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4116,7 +4116,7 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D68" t="s">
         <v>880</v>
@@ -4144,10 +4144,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D70" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4158,10 +4158,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="D71" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4200,10 +4200,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>796</v>
+        <v>807</v>
       </c>
       <c r="D74" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4214,10 +4214,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="D75" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4228,7 +4228,7 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D76" t="s">
         <v>880</v>
@@ -4410,7 +4410,7 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D89" t="s">
         <v>878</v>
@@ -4424,7 +4424,7 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D90" t="s">
         <v>891</v>
@@ -4480,7 +4480,7 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D94" t="s">
         <v>890</v>
@@ -4494,7 +4494,7 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D95" t="s">
         <v>877</v>
@@ -4536,7 +4536,7 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D98" t="s">
         <v>874</v>
@@ -4564,7 +4564,7 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D100" t="s">
         <v>876</v>
@@ -4578,7 +4578,7 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D101" t="s">
         <v>898</v>
@@ -4592,10 +4592,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>803</v>
+        <v>820</v>
       </c>
       <c r="D102" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4606,10 +4606,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="D103" t="s">
-        <v>877</v>
+        <v>899</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4620,10 +4620,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D104" t="s">
-        <v>875</v>
+        <v>899</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4634,10 +4634,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="D105" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4648,10 +4648,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="D106" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4662,10 +4662,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="D107" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4676,7 +4676,7 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="D108" t="s">
         <v>876</v>
@@ -4704,10 +4704,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D110" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4718,10 +4718,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D111" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4746,10 +4746,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D113" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4760,10 +4760,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D114" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4774,10 +4774,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="D115" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4788,10 +4788,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="D116" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4802,10 +4802,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="D117" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4816,10 +4816,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D118" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4833,7 +4833,7 @@
         <v>815</v>
       </c>
       <c r="D119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4844,7 +4844,7 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D120" t="s">
         <v>894</v>
@@ -4886,10 +4886,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>818</v>
+        <v>796</v>
       </c>
       <c r="D123" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4900,10 +4900,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="D124" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4914,10 +4914,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
       <c r="D125" t="s">
-        <v>879</v>
+        <v>896</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4928,7 +4928,7 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D126" t="s">
         <v>900</v>
@@ -4942,10 +4942,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="D127" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4956,10 +4956,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="D128" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4970,7 +4970,7 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D129" t="s">
         <v>884</v>
@@ -4984,7 +4984,7 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D130" t="s">
         <v>900</v>
@@ -5040,7 +5040,7 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D134" t="s">
         <v>892</v>
@@ -5054,7 +5054,7 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D135" t="s">
         <v>897</v>
@@ -5068,10 +5068,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="D136" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5082,10 +5082,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="D137" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5110,7 +5110,7 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D139" t="s">
         <v>892</v>
@@ -5124,10 +5124,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D140" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5138,10 +5138,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="D141" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5152,10 +5152,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>806</v>
+        <v>825</v>
       </c>
       <c r="D142" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5180,10 +5180,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>827</v>
+        <v>807</v>
       </c>
       <c r="D144" t="s">
-        <v>878</v>
+        <v>887</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5194,10 +5194,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>806</v>
+        <v>827</v>
       </c>
       <c r="D145" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5222,7 +5222,7 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D147" t="s">
         <v>875</v>
@@ -5239,7 +5239,7 @@
         <v>800</v>
       </c>
       <c r="D148" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5253,7 +5253,7 @@
         <v>810</v>
       </c>
       <c r="D149" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5278,10 +5278,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D151" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5306,10 +5306,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D153" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5320,10 +5320,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="D154" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5334,10 +5334,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D155" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5348,10 +5348,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>797</v>
+        <v>828</v>
       </c>
       <c r="D156" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5362,10 +5362,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="D157" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5379,7 +5379,7 @@
         <v>801</v>
       </c>
       <c r="D158" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5404,7 +5404,7 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D160" t="s">
         <v>889</v>
@@ -5432,7 +5432,7 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D162" t="s">
         <v>888</v>
@@ -5463,7 +5463,7 @@
         <v>829</v>
       </c>
       <c r="D164" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5502,10 +5502,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>810</v>
+        <v>830</v>
       </c>
       <c r="D167" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5516,10 +5516,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>830</v>
+        <v>810</v>
       </c>
       <c r="D168" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5575,7 +5575,7 @@
         <v>820</v>
       </c>
       <c r="D172" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5628,10 +5628,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D176" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5642,10 +5642,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D177" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5670,7 +5670,7 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D179" t="s">
         <v>882</v>
@@ -5684,7 +5684,7 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D180" t="s">
         <v>890</v>
@@ -5712,10 +5712,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="D182" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5726,10 +5726,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="D183" t="s">
-        <v>874</v>
+        <v>894</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5754,7 +5754,7 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D185" t="s">
         <v>879</v>
@@ -5768,7 +5768,7 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D186" t="s">
         <v>879</v>
@@ -5785,7 +5785,7 @@
         <v>834</v>
       </c>
       <c r="D187" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5796,7 +5796,7 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D188" t="s">
         <v>891</v>
@@ -5810,10 +5810,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>806</v>
+        <v>835</v>
       </c>
       <c r="D189" t="s">
-        <v>876</v>
+        <v>898</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5824,10 +5824,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="D190" t="s">
-        <v>899</v>
+        <v>875</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5838,10 +5838,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="D191" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5894,10 +5894,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D195" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5908,10 +5908,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D196" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5936,10 +5936,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>800</v>
+        <v>838</v>
       </c>
       <c r="D198" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5950,10 +5950,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>838</v>
+        <v>800</v>
       </c>
       <c r="D199" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5978,10 +5978,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D201" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5992,10 +5992,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D202" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -6006,7 +6006,7 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D203" t="s">
         <v>888</v>
@@ -6020,10 +6020,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="D204" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6062,10 +6062,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="D207" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6076,10 +6076,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="D208" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6090,10 +6090,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
       <c r="D209" t="s">
-        <v>881</v>
+        <v>903</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6104,10 +6104,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="D210" t="s">
-        <v>903</v>
+        <v>881</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -6121,7 +6121,7 @@
         <v>812</v>
       </c>
       <c r="D211" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -6132,10 +6132,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="D212" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6146,10 +6146,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="D213" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -6160,10 +6160,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="D214" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6174,10 +6174,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="D215" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6191,7 +6191,7 @@
         <v>820</v>
       </c>
       <c r="D216" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6216,10 +6216,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D218" t="s">
-        <v>884</v>
+        <v>897</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6230,10 +6230,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="D219" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6258,10 +6258,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>812</v>
+        <v>840</v>
       </c>
       <c r="D221" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6272,10 +6272,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>840</v>
+        <v>812</v>
       </c>
       <c r="D222" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6286,10 +6286,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="D223" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6300,10 +6300,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="D224" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6317,7 +6317,7 @@
         <v>799</v>
       </c>
       <c r="D225" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6328,7 +6328,7 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D226" t="s">
         <v>888</v>
@@ -6359,7 +6359,7 @@
         <v>820</v>
       </c>
       <c r="D228" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6370,10 +6370,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="D229" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -6398,10 +6398,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="D231" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6412,10 +6412,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="D232" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6429,7 +6429,7 @@
         <v>841</v>
       </c>
       <c r="D233" t="s">
-        <v>884</v>
+        <v>903</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6443,7 +6443,7 @@
         <v>796</v>
       </c>
       <c r="D234" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6457,7 +6457,7 @@
         <v>842</v>
       </c>
       <c r="D235" t="s">
-        <v>903</v>
+        <v>884</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6482,7 +6482,7 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D237" t="s">
         <v>897</v>
@@ -6510,7 +6510,7 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D239" t="s">
         <v>895</v>
@@ -6527,7 +6527,7 @@
         <v>796</v>
       </c>
       <c r="D240" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6552,7 +6552,7 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D242" t="s">
         <v>883</v>
@@ -6566,10 +6566,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>797</v>
+        <v>824</v>
       </c>
       <c r="D243" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6580,10 +6580,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="D244" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6594,10 +6594,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="D245" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6650,7 +6650,7 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D249" t="s">
         <v>889</v>
@@ -6678,7 +6678,7 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D251" t="s">
         <v>884</v>
@@ -6692,7 +6692,7 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D252" t="s">
         <v>895</v>
@@ -6706,10 +6706,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D253" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6720,10 +6720,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D254" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6734,7 +6734,7 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D255" t="s">
         <v>874</v>
@@ -6748,10 +6748,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>823</v>
+        <v>844</v>
       </c>
       <c r="D256" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6762,7 +6762,7 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
       <c r="D257" t="s">
         <v>902</v>
@@ -6776,10 +6776,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>844</v>
+        <v>810</v>
       </c>
       <c r="D258" t="s">
-        <v>889</v>
+        <v>902</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6790,10 +6790,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="D259" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6804,10 +6804,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="D260" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6832,10 +6832,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>809</v>
+        <v>845</v>
       </c>
       <c r="D262" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6846,10 +6846,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D263" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6860,7 +6860,7 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D264" t="s">
         <v>892</v>
@@ -6874,10 +6874,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>845</v>
+        <v>807</v>
       </c>
       <c r="D265" t="s">
-        <v>876</v>
+        <v>899</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6888,10 +6888,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>806</v>
+        <v>846</v>
       </c>
       <c r="D266" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6902,10 +6902,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>846</v>
+        <v>807</v>
       </c>
       <c r="D267" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6916,10 +6916,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="D268" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6944,10 +6944,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
       <c r="D270" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6958,10 +6958,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="D271" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6972,10 +6972,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
       <c r="D272" t="s">
-        <v>882</v>
+        <v>895</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6986,10 +6986,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D273" t="s">
-        <v>874</v>
+        <v>897</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -7000,10 +7000,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="D274" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -7014,10 +7014,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D275" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7028,10 +7028,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="D276" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -7042,10 +7042,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D277" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7056,10 +7056,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D278" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -7084,10 +7084,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="D280" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7098,10 +7098,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="D281" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7112,10 +7112,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D282" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -7126,10 +7126,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D283" t="s">
-        <v>879</v>
+        <v>895</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7140,10 +7140,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="D284" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7154,10 +7154,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
       <c r="D285" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7168,7 +7168,7 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D286" t="s">
         <v>883</v>
@@ -7182,7 +7182,7 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D287" t="s">
         <v>874</v>
@@ -7210,7 +7210,7 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D289" t="s">
         <v>877</v>
@@ -7255,7 +7255,7 @@
         <v>810</v>
       </c>
       <c r="D292" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7269,7 +7269,7 @@
         <v>811</v>
       </c>
       <c r="D293" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -7280,10 +7280,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>847</v>
+        <v>807</v>
       </c>
       <c r="D294" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -7294,10 +7294,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>806</v>
+        <v>847</v>
       </c>
       <c r="D295" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7308,7 +7308,7 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="D296" t="s">
         <v>887</v>
@@ -7322,7 +7322,7 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D297" t="s">
         <v>886</v>
@@ -7336,7 +7336,7 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D298" t="s">
         <v>901</v>
@@ -7353,7 +7353,7 @@
         <v>815</v>
       </c>
       <c r="D299" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -7378,7 +7378,7 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D301" t="s">
         <v>895</v>
@@ -7392,10 +7392,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D302" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7434,10 +7434,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D305" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7448,10 +7448,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="D306" t="s">
-        <v>883</v>
+        <v>900</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -7462,10 +7462,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="D307" t="s">
-        <v>898</v>
+        <v>880</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7476,10 +7476,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>848</v>
+        <v>810</v>
       </c>
       <c r="D308" t="s">
-        <v>900</v>
+        <v>874</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7490,10 +7490,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="D309" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -7504,10 +7504,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="D310" t="s">
-        <v>880</v>
+        <v>901</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7518,10 +7518,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="D311" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7574,10 +7574,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="D315" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7588,10 +7588,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D316" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7602,10 +7602,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="D317" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7616,10 +7616,10 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
       <c r="D318" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7630,10 +7630,10 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="D319" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7644,10 +7644,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D320" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7658,10 +7658,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>849</v>
+        <v>821</v>
       </c>
       <c r="D321" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7672,10 +7672,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="D322" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7686,10 +7686,10 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="D323" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7700,7 +7700,7 @@
         <v>326</v>
       </c>
       <c r="C324" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D324" t="s">
         <v>892</v>
@@ -7714,10 +7714,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>802</v>
+        <v>850</v>
       </c>
       <c r="D325" t="s">
-        <v>875</v>
+        <v>897</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7742,10 +7742,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>850</v>
+        <v>810</v>
       </c>
       <c r="D327" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7756,10 +7756,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D328" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7770,10 +7770,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>810</v>
+        <v>851</v>
       </c>
       <c r="D329" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7784,10 +7784,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>851</v>
+        <v>800</v>
       </c>
       <c r="D330" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -7798,10 +7798,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D331" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -7812,10 +7812,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
       <c r="D332" t="s">
-        <v>876</v>
+        <v>892</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -7826,10 +7826,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D333" t="s">
-        <v>886</v>
+        <v>899</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -7843,7 +7843,7 @@
         <v>810</v>
       </c>
       <c r="D334" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -7854,10 +7854,10 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="D335" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -7868,10 +7868,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="D336" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -7882,10 +7882,10 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>852</v>
+        <v>810</v>
       </c>
       <c r="D337" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7896,10 +7896,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>806</v>
+        <v>852</v>
       </c>
       <c r="D338" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7910,7 +7910,7 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D339" t="s">
         <v>895</v>
@@ -7924,10 +7924,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D340" t="s">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -7941,7 +7941,7 @@
         <v>810</v>
       </c>
       <c r="D341" t="s">
-        <v>903</v>
+        <v>885</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -7952,10 +7952,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="D342" t="s">
-        <v>890</v>
+        <v>903</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -7966,10 +7966,10 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="D343" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -7977,13 +7977,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>187</v>
+        <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="D344" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -7991,13 +7991,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D345" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -8005,13 +8005,13 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C346" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D346" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -8019,13 +8019,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C347" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="D347" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8033,13 +8033,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>349</v>
+        <v>187</v>
       </c>
       <c r="C348" t="s">
-        <v>845</v>
+        <v>814</v>
       </c>
       <c r="D348" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -8050,10 +8050,10 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="D349" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8064,10 +8064,10 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="D350" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -8078,10 +8078,10 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="D351" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -8092,10 +8092,10 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="D352" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -8106,10 +8106,10 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="D353" t="s">
-        <v>887</v>
+        <v>900</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -8120,10 +8120,10 @@
         <v>355</v>
       </c>
       <c r="C354" t="s">
-        <v>853</v>
+        <v>809</v>
       </c>
       <c r="D354" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -8134,10 +8134,10 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="D355" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8148,10 +8148,10 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="D356" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8162,10 +8162,10 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D357" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8176,10 +8176,10 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D358" t="s">
-        <v>902</v>
+        <v>875</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8190,10 +8190,10 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="D359" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8204,10 +8204,10 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="D360" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8218,10 +8218,10 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D361" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8232,10 +8232,10 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>810</v>
+        <v>840</v>
       </c>
       <c r="D362" t="s">
-        <v>874</v>
+        <v>899</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8246,10 +8246,10 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>806</v>
+        <v>853</v>
       </c>
       <c r="D363" t="s">
-        <v>874</v>
+        <v>887</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -8260,10 +8260,10 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>854</v>
+        <v>811</v>
       </c>
       <c r="D364" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8274,10 +8274,10 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="D365" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8288,10 +8288,10 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D366" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8302,10 +8302,10 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="D367" t="s">
-        <v>883</v>
+        <v>904</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8316,10 +8316,10 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>806</v>
+        <v>854</v>
       </c>
       <c r="D368" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8330,10 +8330,10 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D369" t="s">
-        <v>875</v>
+        <v>889</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8344,10 +8344,10 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D370" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8358,10 +8358,10 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="D371" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8372,10 +8372,10 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="D372" t="s">
-        <v>877</v>
+        <v>905</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8386,10 +8386,10 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D373" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8400,10 +8400,10 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D374" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8414,10 +8414,10 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D375" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8428,10 +8428,10 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D376" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8445,7 +8445,7 @@
         <v>810</v>
       </c>
       <c r="D377" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -8456,10 +8456,10 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D378" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -8473,7 +8473,7 @@
         <v>810</v>
       </c>
       <c r="D379" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -8484,10 +8484,10 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="D380" t="s">
-        <v>904</v>
+        <v>879</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -8498,10 +8498,10 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="D381" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -8512,10 +8512,10 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D382" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8526,10 +8526,10 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="D383" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -8540,10 +8540,10 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="D384" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -8554,10 +8554,10 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D385" t="s">
-        <v>882</v>
+        <v>896</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -8568,10 +8568,10 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="D386" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -8582,10 +8582,10 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>823</v>
+        <v>801</v>
       </c>
       <c r="D387" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -8596,10 +8596,10 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="D388" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -8610,10 +8610,10 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="D389" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -8627,7 +8627,7 @@
         <v>796</v>
       </c>
       <c r="D390" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8638,10 +8638,10 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="D391" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -8652,10 +8652,10 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="D392" t="s">
-        <v>876</v>
+        <v>903</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -8666,10 +8666,10 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="D393" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -8680,10 +8680,10 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D394" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8694,10 +8694,10 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>796</v>
+        <v>816</v>
       </c>
       <c r="D395" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -8708,10 +8708,10 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="D396" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -8722,10 +8722,10 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="D397" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -8736,10 +8736,10 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>810</v>
+        <v>836</v>
       </c>
       <c r="D398" t="s">
-        <v>880</v>
+        <v>891</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8750,10 +8750,10 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>843</v>
+        <v>810</v>
       </c>
       <c r="D399" t="s">
-        <v>903</v>
+        <v>880</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -8764,10 +8764,10 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
       <c r="D400" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -8778,10 +8778,10 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>806</v>
+        <v>843</v>
       </c>
       <c r="D401" t="s">
-        <v>886</v>
+        <v>903</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -8792,10 +8792,10 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>835</v>
+        <v>807</v>
       </c>
       <c r="D402" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -8806,10 +8806,10 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D403" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -8820,10 +8820,10 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="D404" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -8834,10 +8834,10 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D405" t="s">
-        <v>876</v>
+        <v>906</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -8848,10 +8848,10 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="D406" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -8862,10 +8862,10 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="D407" t="s">
-        <v>907</v>
+        <v>876</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -8876,10 +8876,10 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="D408" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -8890,10 +8890,10 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D409" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -8904,10 +8904,10 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="D410" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -8918,10 +8918,10 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="D411" t="s">
-        <v>884</v>
+        <v>903</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -8932,10 +8932,10 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="D412" t="s">
-        <v>877</v>
+        <v>888</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -8946,10 +8946,10 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>796</v>
+        <v>823</v>
       </c>
       <c r="D413" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -8963,7 +8963,7 @@
         <v>796</v>
       </c>
       <c r="D414" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -8974,7 +8974,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="D415" t="s">
         <v>877</v>
@@ -8988,10 +8988,10 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="D416" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -9002,10 +9002,10 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D417" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -9016,10 +9016,10 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D418" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9027,13 +9027,13 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>420</v>
+        <v>187</v>
       </c>
       <c r="C419" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="D419" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -9041,13 +9041,13 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C420" t="s">
-        <v>830</v>
+        <v>810</v>
       </c>
       <c r="D420" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -9055,13 +9055,13 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C421" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="D421" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9069,13 +9069,13 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>187</v>
+        <v>422</v>
       </c>
       <c r="C422" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D422" t="s">
-        <v>880</v>
+        <v>902</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -9086,10 +9086,10 @@
         <v>423</v>
       </c>
       <c r="C423" t="s">
-        <v>855</v>
+        <v>800</v>
       </c>
       <c r="D423" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9100,10 +9100,10 @@
         <v>424</v>
       </c>
       <c r="C424" t="s">
-        <v>810</v>
+        <v>855</v>
       </c>
       <c r="D424" t="s">
-        <v>875</v>
+        <v>895</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -9114,10 +9114,10 @@
         <v>425</v>
       </c>
       <c r="C425" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="D425" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -9128,10 +9128,10 @@
         <v>426</v>
       </c>
       <c r="C426" t="s">
-        <v>810</v>
+        <v>830</v>
       </c>
       <c r="D426" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9142,10 +9142,10 @@
         <v>427</v>
       </c>
       <c r="C427" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D427" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -9156,10 +9156,10 @@
         <v>428</v>
       </c>
       <c r="C428" t="s">
-        <v>852</v>
+        <v>810</v>
       </c>
       <c r="D428" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9170,10 +9170,10 @@
         <v>429</v>
       </c>
       <c r="C429" t="s">
-        <v>806</v>
+        <v>821</v>
       </c>
       <c r="D429" t="s">
-        <v>889</v>
+        <v>901</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9184,10 +9184,10 @@
         <v>430</v>
       </c>
       <c r="C430" t="s">
-        <v>810</v>
+        <v>852</v>
       </c>
       <c r="D430" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9198,10 +9198,10 @@
         <v>431</v>
       </c>
       <c r="C431" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="D431" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -9212,10 +9212,10 @@
         <v>432</v>
       </c>
       <c r="C432" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="D432" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -9226,10 +9226,10 @@
         <v>433</v>
       </c>
       <c r="C433" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="D433" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9240,10 +9240,10 @@
         <v>434</v>
       </c>
       <c r="C434" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="D434" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -9254,10 +9254,10 @@
         <v>435</v>
       </c>
       <c r="C435" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D435" t="s">
-        <v>908</v>
+        <v>887</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -9268,10 +9268,10 @@
         <v>436</v>
       </c>
       <c r="C436" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D436" t="s">
-        <v>876</v>
+        <v>908</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9282,10 +9282,10 @@
         <v>437</v>
       </c>
       <c r="C437" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="D437" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -9296,10 +9296,10 @@
         <v>438</v>
       </c>
       <c r="C438" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D438" t="s">
-        <v>909</v>
+        <v>876</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -9310,10 +9310,10 @@
         <v>439</v>
       </c>
       <c r="C439" t="s">
-        <v>810</v>
+        <v>856</v>
       </c>
       <c r="D439" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -9324,10 +9324,10 @@
         <v>440</v>
       </c>
       <c r="C440" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D440" t="s">
-        <v>889</v>
+        <v>909</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -9338,10 +9338,10 @@
         <v>441</v>
       </c>
       <c r="C441" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="D441" t="s">
-        <v>901</v>
+        <v>883</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -9352,10 +9352,10 @@
         <v>442</v>
       </c>
       <c r="C442" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="D442" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -9366,10 +9366,10 @@
         <v>443</v>
       </c>
       <c r="C443" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="D443" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -9380,10 +9380,10 @@
         <v>444</v>
       </c>
       <c r="C444" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D444" t="s">
-        <v>881</v>
+        <v>895</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -9394,10 +9394,10 @@
         <v>445</v>
       </c>
       <c r="C445" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D445" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -9436,7 +9436,7 @@
         <v>448</v>
       </c>
       <c r="C448" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D448" t="s">
         <v>894</v>
@@ -9453,7 +9453,7 @@
         <v>823</v>
       </c>
       <c r="D449" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -9464,7 +9464,7 @@
         <v>450</v>
       </c>
       <c r="C450" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D450" t="s">
         <v>878</v>
@@ -9478,10 +9478,10 @@
         <v>451</v>
       </c>
       <c r="C451" t="s">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="D451" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -9492,10 +9492,10 @@
         <v>452</v>
       </c>
       <c r="C452" t="s">
-        <v>811</v>
+        <v>827</v>
       </c>
       <c r="D452" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9506,10 +9506,10 @@
         <v>453</v>
       </c>
       <c r="C453" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="D453" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -9520,10 +9520,10 @@
         <v>454</v>
       </c>
       <c r="C454" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="D454" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9534,7 +9534,7 @@
         <v>455</v>
       </c>
       <c r="C455" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D455" t="s">
         <v>894</v>
@@ -9548,7 +9548,7 @@
         <v>456</v>
       </c>
       <c r="C456" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D456" t="s">
         <v>875</v>
@@ -9593,7 +9593,7 @@
         <v>824</v>
       </c>
       <c r="D459" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -9618,10 +9618,10 @@
         <v>461</v>
       </c>
       <c r="C461" t="s">
-        <v>841</v>
+        <v>810</v>
       </c>
       <c r="D461" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -9632,10 +9632,10 @@
         <v>462</v>
       </c>
       <c r="C462" t="s">
-        <v>810</v>
+        <v>842</v>
       </c>
       <c r="D462" t="s">
-        <v>879</v>
+        <v>896</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9646,10 +9646,10 @@
         <v>463</v>
       </c>
       <c r="C463" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="D463" t="s">
-        <v>880</v>
+        <v>897</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -9660,10 +9660,10 @@
         <v>464</v>
       </c>
       <c r="C464" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="D464" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -9674,7 +9674,7 @@
         <v>465</v>
       </c>
       <c r="C465" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D465" t="s">
         <v>900</v>
@@ -9688,10 +9688,10 @@
         <v>466</v>
       </c>
       <c r="C466" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D466" t="s">
-        <v>878</v>
+        <v>891</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -9702,10 +9702,10 @@
         <v>467</v>
       </c>
       <c r="C467" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D467" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -9786,7 +9786,7 @@
         <v>473</v>
       </c>
       <c r="C473" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D473" t="s">
         <v>882</v>
@@ -9817,7 +9817,7 @@
         <v>810</v>
       </c>
       <c r="D475" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -9828,10 +9828,10 @@
         <v>476</v>
       </c>
       <c r="C476" t="s">
-        <v>857</v>
+        <v>811</v>
       </c>
       <c r="D476" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -9842,10 +9842,10 @@
         <v>477</v>
       </c>
       <c r="C477" t="s">
-        <v>810</v>
+        <v>857</v>
       </c>
       <c r="D477" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -9856,10 +9856,10 @@
         <v>478</v>
       </c>
       <c r="C478" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="D478" t="s">
-        <v>879</v>
+        <v>911</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -9870,10 +9870,10 @@
         <v>479</v>
       </c>
       <c r="C479" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D479" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -9884,10 +9884,10 @@
         <v>480</v>
       </c>
       <c r="C480" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="D480" t="s">
-        <v>911</v>
+        <v>879</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -9912,10 +9912,10 @@
         <v>482</v>
       </c>
       <c r="C482" t="s">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="D482" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -9926,10 +9926,10 @@
         <v>483</v>
       </c>
       <c r="C483" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="D483" t="s">
-        <v>876</v>
+        <v>903</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -9940,10 +9940,10 @@
         <v>484</v>
       </c>
       <c r="C484" t="s">
-        <v>820</v>
+        <v>799</v>
       </c>
       <c r="D484" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -9954,10 +9954,10 @@
         <v>485</v>
       </c>
       <c r="C485" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D485" t="s">
-        <v>903</v>
+        <v>886</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -9968,10 +9968,10 @@
         <v>486</v>
       </c>
       <c r="C486" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D486" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -9982,10 +9982,10 @@
         <v>487</v>
       </c>
       <c r="C487" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D487" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -10052,10 +10052,10 @@
         <v>492</v>
       </c>
       <c r="C492" t="s">
-        <v>806</v>
+        <v>827</v>
       </c>
       <c r="D492" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -10066,10 +10066,10 @@
         <v>493</v>
       </c>
       <c r="C493" t="s">
-        <v>827</v>
+        <v>807</v>
       </c>
       <c r="D493" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -10094,7 +10094,7 @@
         <v>495</v>
       </c>
       <c r="C495" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D495" t="s">
         <v>885</v>
@@ -10108,10 +10108,10 @@
         <v>496</v>
       </c>
       <c r="C496" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="D496" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -10122,10 +10122,10 @@
         <v>497</v>
       </c>
       <c r="C497" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D497" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -10136,7 +10136,7 @@
         <v>498</v>
       </c>
       <c r="C498" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D498" t="s">
         <v>893</v>
@@ -10150,7 +10150,7 @@
         <v>499</v>
       </c>
       <c r="C499" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D499" t="s">
         <v>877</v>
@@ -10192,7 +10192,7 @@
         <v>502</v>
       </c>
       <c r="C502" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D502" t="s">
         <v>881</v>
@@ -10248,7 +10248,7 @@
         <v>506</v>
       </c>
       <c r="C506" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D506" t="s">
         <v>884</v>
@@ -10262,10 +10262,10 @@
         <v>507</v>
       </c>
       <c r="C507" t="s">
-        <v>838</v>
+        <v>807</v>
       </c>
       <c r="D507" t="s">
-        <v>880</v>
+        <v>895</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10276,10 +10276,10 @@
         <v>508</v>
       </c>
       <c r="C508" t="s">
-        <v>806</v>
+        <v>838</v>
       </c>
       <c r="D508" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10290,7 +10290,7 @@
         <v>509</v>
       </c>
       <c r="C509" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="D509" t="s">
         <v>880</v>
@@ -10304,10 +10304,10 @@
         <v>510</v>
       </c>
       <c r="C510" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="D510" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10318,10 +10318,10 @@
         <v>511</v>
       </c>
       <c r="C511" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="D511" t="s">
-        <v>880</v>
+        <v>903</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10335,7 +10335,7 @@
         <v>810</v>
       </c>
       <c r="D512" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10346,10 +10346,10 @@
         <v>513</v>
       </c>
       <c r="C513" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="D513" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10360,10 +10360,10 @@
         <v>514</v>
       </c>
       <c r="C514" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="D514" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10388,10 +10388,10 @@
         <v>516</v>
       </c>
       <c r="C516" t="s">
-        <v>823</v>
+        <v>800</v>
       </c>
       <c r="D516" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10402,10 +10402,10 @@
         <v>517</v>
       </c>
       <c r="C517" t="s">
-        <v>800</v>
+        <v>823</v>
       </c>
       <c r="D517" t="s">
-        <v>881</v>
+        <v>896</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10430,7 +10430,7 @@
         <v>519</v>
       </c>
       <c r="C519" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D519" t="s">
         <v>903</v>
@@ -10444,7 +10444,7 @@
         <v>520</v>
       </c>
       <c r="C520" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D520" t="s">
         <v>885</v>
@@ -10458,7 +10458,7 @@
         <v>521</v>
       </c>
       <c r="C521" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D521" t="s">
         <v>885</v>
@@ -10486,10 +10486,10 @@
         <v>523</v>
       </c>
       <c r="C523" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="D523" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10500,10 +10500,10 @@
         <v>524</v>
       </c>
       <c r="C524" t="s">
-        <v>810</v>
+        <v>859</v>
       </c>
       <c r="D524" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10514,10 +10514,10 @@
         <v>525</v>
       </c>
       <c r="C525" t="s">
-        <v>859</v>
+        <v>816</v>
       </c>
       <c r="D525" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10528,7 +10528,7 @@
         <v>526</v>
       </c>
       <c r="C526" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D526" t="s">
         <v>889</v>
@@ -10584,7 +10584,7 @@
         <v>530</v>
       </c>
       <c r="C530" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D530" t="s">
         <v>874</v>
@@ -10626,7 +10626,7 @@
         <v>533</v>
       </c>
       <c r="C533" t="s">
-        <v>812</v>
+        <v>850</v>
       </c>
       <c r="D533" t="s">
         <v>885</v>
@@ -10640,7 +10640,7 @@
         <v>534</v>
       </c>
       <c r="C534" t="s">
-        <v>849</v>
+        <v>812</v>
       </c>
       <c r="D534" t="s">
         <v>885</v>
@@ -10657,7 +10657,7 @@
         <v>816</v>
       </c>
       <c r="D535" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10668,7 +10668,7 @@
         <v>536</v>
       </c>
       <c r="C536" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D536" t="s">
         <v>895</v>
@@ -10685,7 +10685,7 @@
         <v>801</v>
       </c>
       <c r="D537" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10696,7 +10696,7 @@
         <v>538</v>
       </c>
       <c r="C538" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D538" t="s">
         <v>896</v>
@@ -10713,7 +10713,7 @@
         <v>811</v>
       </c>
       <c r="D539" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10741,7 +10741,7 @@
         <v>816</v>
       </c>
       <c r="D541" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10769,7 +10769,7 @@
         <v>848</v>
       </c>
       <c r="D543" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -10780,7 +10780,7 @@
         <v>544</v>
       </c>
       <c r="C544" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D544" t="s">
         <v>891</v>
@@ -10881,7 +10881,7 @@
         <v>810</v>
       </c>
       <c r="D551" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -10934,7 +10934,7 @@
         <v>555</v>
       </c>
       <c r="C555" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D555" t="s">
         <v>875</v>
@@ -10948,7 +10948,7 @@
         <v>556</v>
       </c>
       <c r="C556" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D556" t="s">
         <v>896</v>
@@ -10976,7 +10976,7 @@
         <v>558</v>
       </c>
       <c r="C558" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D558" t="s">
         <v>902</v>
@@ -11035,7 +11035,7 @@
         <v>816</v>
       </c>
       <c r="D562" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -11130,7 +11130,7 @@
         <v>569</v>
       </c>
       <c r="C569" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D569" t="s">
         <v>893</v>
@@ -11144,7 +11144,7 @@
         <v>570</v>
       </c>
       <c r="C570" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D570" t="s">
         <v>914</v>
@@ -11270,7 +11270,7 @@
         <v>579</v>
       </c>
       <c r="C579" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D579" t="s">
         <v>901</v>
@@ -11284,10 +11284,10 @@
         <v>580</v>
       </c>
       <c r="C580" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D580" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -11329,7 +11329,7 @@
         <v>827</v>
       </c>
       <c r="D583" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -11343,7 +11343,7 @@
         <v>811</v>
       </c>
       <c r="D584" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -11357,7 +11357,7 @@
         <v>839</v>
       </c>
       <c r="D585" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -11382,7 +11382,7 @@
         <v>587</v>
       </c>
       <c r="C587" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D587" t="s">
         <v>885</v>
@@ -11396,7 +11396,7 @@
         <v>588</v>
       </c>
       <c r="C588" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D588" t="s">
         <v>890</v>
@@ -11424,7 +11424,7 @@
         <v>590</v>
       </c>
       <c r="C590" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D590" t="s">
         <v>882</v>
@@ -11438,7 +11438,7 @@
         <v>591</v>
       </c>
       <c r="C591" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D591" t="s">
         <v>893</v>
@@ -11469,7 +11469,7 @@
         <v>827</v>
       </c>
       <c r="D593" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -11505,7 +11505,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C596" t="s">
         <v>864</v>
@@ -11522,7 +11522,7 @@
         <v>596</v>
       </c>
       <c r="C597" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D597" t="s">
         <v>891</v>
@@ -11567,7 +11567,7 @@
         <v>823</v>
       </c>
       <c r="D600" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -11578,7 +11578,7 @@
         <v>600</v>
       </c>
       <c r="C601" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D601" t="s">
         <v>888</v>
@@ -11634,7 +11634,7 @@
         <v>604</v>
       </c>
       <c r="C605" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D605" t="s">
         <v>895</v>
@@ -11648,7 +11648,7 @@
         <v>605</v>
       </c>
       <c r="C606" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D606" t="s">
         <v>889</v>
@@ -11690,7 +11690,7 @@
         <v>608</v>
       </c>
       <c r="C609" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D609" t="s">
         <v>891</v>
@@ -11704,7 +11704,7 @@
         <v>609</v>
       </c>
       <c r="C610" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D610" t="s">
         <v>890</v>
@@ -11763,7 +11763,7 @@
         <v>811</v>
       </c>
       <c r="D614" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -11802,7 +11802,7 @@
         <v>616</v>
       </c>
       <c r="C617" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D617" t="s">
         <v>890</v>
@@ -11872,7 +11872,7 @@
         <v>621</v>
       </c>
       <c r="C622" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D622" t="s">
         <v>897</v>
@@ -11903,7 +11903,7 @@
         <v>814</v>
       </c>
       <c r="D624" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -11998,7 +11998,7 @@
         <v>630</v>
       </c>
       <c r="C631" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D631" t="s">
         <v>881</v>
@@ -12026,7 +12026,7 @@
         <v>632</v>
       </c>
       <c r="C633" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D633" t="s">
         <v>891</v>
@@ -12208,10 +12208,10 @@
         <v>645</v>
       </c>
       <c r="C646" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D646" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="647" spans="1:4">
@@ -12236,7 +12236,7 @@
         <v>647</v>
       </c>
       <c r="C648" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D648" t="s">
         <v>884</v>
@@ -12267,7 +12267,7 @@
         <v>838</v>
       </c>
       <c r="D650" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -12278,7 +12278,7 @@
         <v>650</v>
       </c>
       <c r="C651" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D651" t="s">
         <v>883</v>
@@ -12334,7 +12334,7 @@
         <v>654</v>
       </c>
       <c r="C655" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D655" t="s">
         <v>877</v>
@@ -12351,7 +12351,7 @@
         <v>820</v>
       </c>
       <c r="D656" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="657" spans="1:4">
@@ -12390,7 +12390,7 @@
         <v>658</v>
       </c>
       <c r="C659" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D659" t="s">
         <v>902</v>
@@ -12446,7 +12446,7 @@
         <v>662</v>
       </c>
       <c r="C663" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D663" t="s">
         <v>895</v>
@@ -12460,7 +12460,7 @@
         <v>663</v>
       </c>
       <c r="C664" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D664" t="s">
         <v>897</v>
@@ -12505,7 +12505,7 @@
         <v>815</v>
       </c>
       <c r="D667" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -12561,7 +12561,7 @@
         <v>821</v>
       </c>
       <c r="D671" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -12572,7 +12572,7 @@
         <v>671</v>
       </c>
       <c r="C672" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D672" t="s">
         <v>918</v>
@@ -12656,7 +12656,7 @@
         <v>677</v>
       </c>
       <c r="C678" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D678" t="s">
         <v>903</v>
@@ -12729,7 +12729,7 @@
         <v>823</v>
       </c>
       <c r="D683" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -12796,7 +12796,7 @@
         <v>687</v>
       </c>
       <c r="C688" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D688" t="s">
         <v>895</v>
@@ -12813,7 +12813,7 @@
         <v>816</v>
       </c>
       <c r="D689" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -12866,7 +12866,7 @@
         <v>692</v>
       </c>
       <c r="C693" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D693" t="s">
         <v>897</v>
@@ -12894,7 +12894,7 @@
         <v>694</v>
       </c>
       <c r="C695" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D695" t="s">
         <v>902</v>
@@ -12908,7 +12908,7 @@
         <v>695</v>
       </c>
       <c r="C696" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D696" t="s">
         <v>877</v>
@@ -12919,7 +12919,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C697" t="s">
         <v>810</v>
@@ -12950,7 +12950,7 @@
         <v>697</v>
       </c>
       <c r="C699" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D699" t="s">
         <v>877</v>
@@ -12995,7 +12995,7 @@
         <v>869</v>
       </c>
       <c r="D702" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -13006,7 +13006,7 @@
         <v>701</v>
       </c>
       <c r="C703" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D703" t="s">
         <v>890</v>
@@ -13062,7 +13062,7 @@
         <v>705</v>
       </c>
       <c r="C707" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D707" t="s">
         <v>924</v>
@@ -13118,7 +13118,7 @@
         <v>709</v>
       </c>
       <c r="C711" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D711" t="s">
         <v>885</v>
@@ -13247,7 +13247,7 @@
         <v>810</v>
       </c>
       <c r="D720" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -13353,10 +13353,10 @@
         <v>727</v>
       </c>
       <c r="B728" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C728" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D728" t="s">
         <v>901</v>
@@ -13440,7 +13440,7 @@
         <v>731</v>
       </c>
       <c r="C734" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D734" t="s">
         <v>896</v>
@@ -13569,7 +13569,7 @@
         <v>823</v>
       </c>
       <c r="D743" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -13580,7 +13580,7 @@
         <v>741</v>
       </c>
       <c r="C744" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D744" t="s">
         <v>895</v>
@@ -13622,7 +13622,7 @@
         <v>744</v>
       </c>
       <c r="C747" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D747" t="s">
         <v>890</v>
@@ -13681,7 +13681,7 @@
         <v>835</v>
       </c>
       <c r="D751" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -13734,7 +13734,7 @@
         <v>752</v>
       </c>
       <c r="C755" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D755" t="s">
         <v>879</v>
@@ -13765,7 +13765,7 @@
         <v>816</v>
       </c>
       <c r="D757" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -13773,7 +13773,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C758" t="s">
         <v>810</v>
@@ -13815,7 +13815,7 @@
         <v>760</v>
       </c>
       <c r="B761" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C761" t="s">
         <v>810</v>
@@ -13835,7 +13835,7 @@
         <v>825</v>
       </c>
       <c r="D762" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -13860,7 +13860,7 @@
         <v>759</v>
       </c>
       <c r="C764" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D764" t="s">
         <v>890</v>
@@ -13888,7 +13888,7 @@
         <v>761</v>
       </c>
       <c r="C766" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D766" t="s">
         <v>901</v>
@@ -13905,7 +13905,7 @@
         <v>816</v>
       </c>
       <c r="D767" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -13961,7 +13961,7 @@
         <v>810</v>
       </c>
       <c r="D771" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -13972,7 +13972,7 @@
         <v>767</v>
       </c>
       <c r="C772" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D772" t="s">
         <v>878</v>
@@ -13986,7 +13986,7 @@
         <v>768</v>
       </c>
       <c r="C773" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D773" t="s">
         <v>875</v>
@@ -14000,7 +14000,7 @@
         <v>769</v>
       </c>
       <c r="C774" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D774" t="s">
         <v>890</v>
@@ -14031,7 +14031,7 @@
         <v>809</v>
       </c>
       <c r="D776" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -14140,10 +14140,10 @@
         <v>779</v>
       </c>
       <c r="C784" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D784" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14210,7 +14210,7 @@
         <v>784</v>
       </c>
       <c r="C789" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D789" t="s">
         <v>893</v>
@@ -14280,7 +14280,7 @@
         <v>789</v>
       </c>
       <c r="C794" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D794" t="s">
         <v>884</v>
@@ -14336,7 +14336,7 @@
         <v>793</v>
       </c>
       <c r="C798" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D798" t="s">
         <v>891</v>
@@ -14353,7 +14353,7 @@
         <v>873</v>
       </c>
       <c r="D799" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="800" spans="1:4">
@@ -14364,7 +14364,7 @@
         <v>795</v>
       </c>
       <c r="C800" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D800" t="s">
         <v>928</v>

--- a/docs/FantasyProsBaseballDraft.xlsx
+++ b/docs/FantasyProsBaseballDraft.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="928">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -55,15 +55,15 @@
     <t>Juan Soto</t>
   </si>
   <si>
+    <t>Shohei Ohtani</t>
+  </si>
+  <si>
     <t>Vladimir Guerrero Jr.</t>
   </si>
   <si>
     <t>Mookie Betts</t>
   </si>
   <si>
-    <t>Shohei Ohtani</t>
-  </si>
-  <si>
     <t>Freddie Freeman</t>
   </si>
   <si>
@@ -85,30 +85,30 @@
     <t>Bo Bichette</t>
   </si>
   <si>
+    <t>Rafael Devers</t>
+  </si>
+  <si>
     <t>Pete Alonso</t>
   </si>
   <si>
-    <t>Rafael Devers</t>
-  </si>
-  <si>
     <t>Fernando Tatis Jr.</t>
   </si>
   <si>
     <t>Paul Goldschmidt</t>
   </si>
   <si>
+    <t>Austin Riley</t>
+  </si>
+  <si>
     <t>Sandy Alcantara</t>
   </si>
   <si>
-    <t>Austin Riley</t>
+    <t>Jacob deGrom</t>
   </si>
   <si>
     <t>Edwin Diaz</t>
   </si>
   <si>
-    <t>Jacob deGrom</t>
-  </si>
-  <si>
     <t>Michael Harris II</t>
   </si>
   <si>
@@ -142,57 +142,57 @@
     <t>Luis Robert</t>
   </si>
   <si>
+    <t>Matt Olson</t>
+  </si>
+  <si>
+    <t>Marcus Semien</t>
+  </si>
+  <si>
+    <t>Max Scherzer</t>
+  </si>
+  <si>
     <t>Emmanuel Clase</t>
   </si>
   <si>
-    <t>Marcus Semien</t>
-  </si>
-  <si>
-    <t>Matt Olson</t>
-  </si>
-  <si>
-    <t>Max Scherzer</t>
-  </si>
-  <si>
     <t>Justin Verlander</t>
   </si>
   <si>
     <t>Carlos Rodon</t>
   </si>
   <si>
+    <t>Cedric Mullins II</t>
+  </si>
+  <si>
     <t>Shane Bieber</t>
   </si>
   <si>
-    <t>Cedric Mullins II</t>
+    <t>Kyle Schwarber</t>
   </si>
   <si>
     <t>Zack Wheeler</t>
   </si>
   <si>
-    <t>Kyle Schwarber</t>
-  </si>
-  <si>
     <t>Josh Hader</t>
   </si>
   <si>
     <t>Jazz Chisholm Jr.</t>
   </si>
   <si>
+    <t>Corey Seager</t>
+  </si>
+  <si>
     <t>Ozzie Albies</t>
   </si>
   <si>
-    <t>Corey Seager</t>
-  </si>
-  <si>
     <t>J.T. Realmuto</t>
   </si>
   <si>
+    <t>Adolis Garcia</t>
+  </si>
+  <si>
     <t>Julio Urias</t>
   </si>
   <si>
-    <t>Adolis Garcia</t>
-  </si>
-  <si>
     <t>Jordan Romano</t>
   </si>
   <si>
@@ -214,12 +214,12 @@
     <t>Alex Bregman</t>
   </si>
   <si>
+    <t>Teoscar Hernandez</t>
+  </si>
+  <si>
     <t>Alek Manoah</t>
   </si>
   <si>
-    <t>Teoscar Hernandez</t>
-  </si>
-  <si>
     <t>Max Fried</t>
   </si>
   <si>
@@ -232,21 +232,21 @@
     <t>Yu Darvish</t>
   </si>
   <si>
+    <t>Daulton Varsho</t>
+  </si>
+  <si>
+    <t>Zac Gallen</t>
+  </si>
+  <si>
     <t>Cristian Javier</t>
   </si>
   <si>
-    <t>Daulton Varsho</t>
-  </si>
-  <si>
-    <t>Zac Gallen</t>
+    <t>Dansby Swanson</t>
   </si>
   <si>
     <t>Xander Bogaerts</t>
   </si>
   <si>
-    <t>Dansby Swanson</t>
-  </si>
-  <si>
     <t>Framber Valdez</t>
   </si>
   <si>
@@ -265,15 +265,15 @@
     <t>Tommy Edman</t>
   </si>
   <si>
+    <t>Oneil Cruz</t>
+  </si>
+  <si>
     <t>Raisel Iglesias</t>
   </si>
   <si>
     <t>Salvador Perez</t>
   </si>
   <si>
-    <t>Oneil Cruz</t>
-  </si>
-  <si>
     <t>Will Smith</t>
   </si>
   <si>
@@ -286,27 +286,27 @@
     <t>Andres Gimenez</t>
   </si>
   <si>
+    <t>Willy Adames</t>
+  </si>
+  <si>
+    <t>Robbie Ray</t>
+  </si>
+  <si>
     <t>Byron Buxton</t>
   </si>
   <si>
-    <t>Willy Adames</t>
-  </si>
-  <si>
-    <t>Robbie Ray</t>
+    <t>Corbin Carroll</t>
   </si>
   <si>
     <t>Tyler Glasnow</t>
   </si>
   <si>
-    <t>Corbin Carroll</t>
+    <t>Jose Abreu</t>
   </si>
   <si>
     <t>Adley Rutschman</t>
   </si>
   <si>
-    <t>Jose Abreu</t>
-  </si>
-  <si>
     <t>Nathaniel Lowe</t>
   </si>
   <si>
@@ -328,36 +328,36 @@
     <t>Nestor Cortes Jr.</t>
   </si>
   <si>
+    <t>Steven Kwan</t>
+  </si>
+  <si>
     <t>C.J. Cron</t>
   </si>
   <si>
-    <t>Steven Kwan</t>
+    <t>Camilo Doval</t>
+  </si>
+  <si>
+    <t>Tyler O'Neill</t>
   </si>
   <si>
     <t>Logan Webb</t>
   </si>
   <si>
-    <t>Camilo Doval</t>
-  </si>
-  <si>
     <t>Seiya Suzuki</t>
   </si>
   <si>
+    <t>Gunnar Henderson</t>
+  </si>
+  <si>
+    <t>Gleyber Torres</t>
+  </si>
+  <si>
     <t>Luis Severino</t>
   </si>
   <si>
     <t>Kyle Wright</t>
   </si>
   <si>
-    <t>Gleyber Torres</t>
-  </si>
-  <si>
-    <t>Tyler O'Neill</t>
-  </si>
-  <si>
-    <t>Gunnar Henderson</t>
-  </si>
-  <si>
     <t>Logan Gilbert</t>
   </si>
   <si>
@@ -370,60 +370,60 @@
     <t>Blake Snell</t>
   </si>
   <si>
+    <t>Alejandro Kirk</t>
+  </si>
+  <si>
+    <t>Christian Walker</t>
+  </si>
+  <si>
     <t>Clayton Kershaw</t>
   </si>
   <si>
     <t>Giancarlo Stanton</t>
   </si>
   <si>
+    <t>Jake McCarthy</t>
+  </si>
+  <si>
+    <t>Nick Castellanos</t>
+  </si>
+  <si>
     <t>Amed Rosario</t>
   </si>
   <si>
-    <t>Alejandro Kirk</t>
-  </si>
-  <si>
     <t>Kris Bryant</t>
   </si>
   <si>
-    <t>Christian Walker</t>
-  </si>
-  <si>
-    <t>Nick Castellanos</t>
-  </si>
-  <si>
-    <t>Jake McCarthy</t>
+    <t>David Bednar</t>
+  </si>
+  <si>
+    <t>Willson Contreras</t>
   </si>
   <si>
     <t>Jeremy Pena</t>
   </si>
   <si>
-    <t>Willson Contreras</t>
-  </si>
-  <si>
-    <t>David Bednar</t>
-  </si>
-  <si>
     <t>Hunter Greene</t>
   </si>
   <si>
+    <t>Kenley Jansen</t>
+  </si>
+  <si>
     <t>Taylor Ward</t>
   </si>
   <si>
-    <t>Kenley Jansen</t>
+    <t>Clay Holmes</t>
+  </si>
+  <si>
+    <t>Ryan Mountcastle</t>
+  </si>
+  <si>
+    <t>Nick Lodolo</t>
   </si>
   <si>
     <t>Freddy Peralta</t>
   </si>
   <si>
-    <t>Nick Lodolo</t>
-  </si>
-  <si>
-    <t>Ryan Mountcastle</t>
-  </si>
-  <si>
-    <t>Clay Holmes</t>
-  </si>
-  <si>
     <t>Jorge Polanco</t>
   </si>
   <si>
@@ -436,462 +436,471 @@
     <t>Anthony Rizzo</t>
   </si>
   <si>
+    <t>Lucas Giolito</t>
+  </si>
+  <si>
+    <t>Andrew Vaughn</t>
+  </si>
+  <si>
+    <t>Chris Bassitt</t>
+  </si>
+  <si>
+    <t>Pablo Lopez</t>
+  </si>
+  <si>
+    <t>Nico Hoerner</t>
+  </si>
+  <si>
+    <t>Chris Sale</t>
+  </si>
+  <si>
+    <t>Max Muncy</t>
+  </si>
+  <si>
+    <t>Scott Barlow</t>
+  </si>
+  <si>
+    <t>Ty France</t>
+  </si>
+  <si>
+    <t>Charlie Morton</t>
+  </si>
+  <si>
+    <t>Hunter Renfroe</t>
+  </si>
+  <si>
+    <t>Matt Chapman</t>
+  </si>
+  <si>
+    <t>Brandon Nimmo</t>
+  </si>
+  <si>
+    <t>Daniel Bard</t>
+  </si>
+  <si>
+    <t>Bryce Harper</t>
+  </si>
+  <si>
+    <t>Rowdy Tellez</t>
+  </si>
+  <si>
     <t>Ian Happ</t>
   </si>
   <si>
-    <t>Scott Barlow</t>
-  </si>
-  <si>
-    <t>Lucas Giolito</t>
-  </si>
-  <si>
-    <t>Chris Bassitt</t>
-  </si>
-  <si>
-    <t>Pablo Lopez</t>
-  </si>
-  <si>
-    <t>Andrew Vaughn</t>
-  </si>
-  <si>
-    <t>Max Muncy</t>
-  </si>
-  <si>
-    <t>Chris Sale</t>
-  </si>
-  <si>
-    <t>Ty France</t>
-  </si>
-  <si>
-    <t>Nico Hoerner</t>
-  </si>
-  <si>
-    <t>Charlie Morton</t>
-  </si>
-  <si>
-    <t>Brandon Nimmo</t>
-  </si>
-  <si>
-    <t>Daniel Bard</t>
-  </si>
-  <si>
-    <t>Hunter Renfroe</t>
+    <t>MJ Melendez</t>
+  </si>
+  <si>
+    <t>Brandon Lowe</t>
   </si>
   <si>
     <t>Dustin May</t>
   </si>
   <si>
-    <t>Matt Chapman</t>
+    <t>Sean Murphy</t>
   </si>
   <si>
     <t>Liam Hendriks</t>
   </si>
   <si>
-    <t>Bryce Harper</t>
-  </si>
-  <si>
-    <t>Rowdy Tellez</t>
-  </si>
-  <si>
-    <t>MJ Melendez</t>
-  </si>
-  <si>
-    <t>Brandon Lowe</t>
-  </si>
-  <si>
     <t>Mitch Haniger</t>
   </si>
   <si>
-    <t>Sean Murphy</t>
+    <t>Ke'Bryan Hayes</t>
+  </si>
+  <si>
+    <t>Josh Bell</t>
+  </si>
+  <si>
+    <t>Jordan Montgomery</t>
   </si>
   <si>
     <t>Jesus Luzardo</t>
   </si>
   <si>
-    <t>Ke'Bryan Hayes</t>
-  </si>
-  <si>
-    <t>Jordan Montgomery</t>
-  </si>
-  <si>
-    <t>Josh Bell</t>
+    <t>Eugenio Suarez</t>
+  </si>
+  <si>
+    <t>William Contreras</t>
+  </si>
+  <si>
+    <t>Jose Miranda</t>
+  </si>
+  <si>
+    <t>Andres Munoz</t>
+  </si>
+  <si>
+    <t>Jhoan Duran</t>
   </si>
   <si>
     <t>Jeff McNeil</t>
   </si>
   <si>
-    <t>Eugenio Suarez</t>
-  </si>
-  <si>
-    <t>William Contreras</t>
-  </si>
-  <si>
-    <t>Jose Miranda</t>
-  </si>
-  <si>
     <t>Alexis Diaz</t>
   </si>
   <si>
-    <t>Andres Munoz</t>
-  </si>
-  <si>
-    <t>Jhoan Duran</t>
+    <t>Javier Baez</t>
+  </si>
+  <si>
+    <t>Paul Sewald</t>
+  </si>
+  <si>
+    <t>Alex Verdugo</t>
+  </si>
+  <si>
+    <t>Oscar Gonzalez</t>
+  </si>
+  <si>
+    <t>Jonathan India</t>
   </si>
   <si>
     <t>Jake Cronenworth</t>
   </si>
   <si>
-    <t>Alex Verdugo</t>
-  </si>
-  <si>
-    <t>Javier Baez</t>
-  </si>
-  <si>
-    <t>Oscar Gonzalez</t>
-  </si>
-  <si>
-    <t>Jonathan India</t>
-  </si>
-  <si>
-    <t>Paul Sewald</t>
-  </si>
-  <si>
     <t>Brady Singer</t>
   </si>
   <si>
+    <t>Tony Gonsolin</t>
+  </si>
+  <si>
+    <t>Alec Bohm</t>
+  </si>
+  <si>
+    <t>Jeffrey Springs</t>
+  </si>
+  <si>
+    <t>Ketel Marte</t>
+  </si>
+  <si>
+    <t>Tyler Stephenson</t>
+  </si>
+  <si>
+    <t>Lance McCullers Jr.</t>
+  </si>
+  <si>
+    <t>Luis Garcia</t>
+  </si>
+  <si>
     <t>Luis Arraez</t>
   </si>
   <si>
-    <t>Tony Gonsolin</t>
+    <t>Thairo Estrada</t>
+  </si>
+  <si>
+    <t>Vaughn Grissom</t>
+  </si>
+  <si>
+    <t>Drew Rasmussen</t>
   </si>
   <si>
     <t>Jon Gray</t>
   </si>
   <si>
-    <t>Tyler Stephenson</t>
-  </si>
-  <si>
-    <t>Alec Bohm</t>
-  </si>
-  <si>
-    <t>Ketel Marte</t>
-  </si>
-  <si>
-    <t>Jeffrey Springs</t>
-  </si>
-  <si>
-    <t>Luis Garcia</t>
-  </si>
-  <si>
-    <t>Lance McCullers Jr.</t>
-  </si>
-  <si>
-    <t>Thairo Estrada</t>
-  </si>
-  <si>
-    <t>Drew Rasmussen</t>
-  </si>
-  <si>
     <t>Ryan McMahon</t>
   </si>
   <si>
-    <t>Vaughn Grissom</t>
+    <t>Pete Fairbanks</t>
+  </si>
+  <si>
+    <t>Josh Naylor</t>
+  </si>
+  <si>
+    <t>Riley Greene</t>
   </si>
   <si>
     <t>Frankie Montas</t>
   </si>
   <si>
-    <t>Pete Fairbanks</t>
-  </si>
-  <si>
-    <t>Riley Greene</t>
-  </si>
-  <si>
-    <t>Josh Naylor</t>
+    <t>J.D. Martinez</t>
+  </si>
+  <si>
+    <t>Whit Merrifield</t>
+  </si>
+  <si>
+    <t>Grayson Rodriguez</t>
+  </si>
+  <si>
+    <t>Harrison Bader</t>
   </si>
   <si>
     <t>Andrew Heaney</t>
   </si>
   <si>
-    <t>Grayson Rodriguez</t>
-  </si>
-  <si>
-    <t>Whit Merrifield</t>
-  </si>
-  <si>
-    <t>J.D. Martinez</t>
-  </si>
-  <si>
-    <t>Harrison Bader</t>
+    <t>Alex Cobb</t>
   </si>
   <si>
     <t>Jean Segura</t>
   </si>
   <si>
-    <t>Alex Cobb</t>
-  </si>
-  <si>
     <t>Patrick Sandoval</t>
   </si>
   <si>
+    <t>Joey Meneses</t>
+  </si>
+  <si>
+    <t>Cal Raleigh</t>
+  </si>
+  <si>
+    <t>Lars Nootbaar</t>
+  </si>
+  <si>
+    <t>Jose Leclerc</t>
+  </si>
+  <si>
+    <t>Jose Berrios</t>
+  </si>
+  <si>
+    <t>Ramon Laureano</t>
+  </si>
+  <si>
+    <t>Brendan Rodgers</t>
+  </si>
+  <si>
+    <t>Sonny Gray</t>
+  </si>
+  <si>
+    <t>Reid Detmers</t>
+  </si>
+  <si>
+    <t>Josh Rojas</t>
+  </si>
+  <si>
+    <t>Joc Pederson</t>
+  </si>
+  <si>
+    <t>Anthony Rendon</t>
+  </si>
+  <si>
+    <t>Cody Bellinger</t>
+  </si>
+  <si>
     <t>Miles Mikolas</t>
   </si>
   <si>
-    <t>Cal Raleigh</t>
-  </si>
-  <si>
-    <t>Joey Meneses</t>
-  </si>
-  <si>
-    <t>Josh Rojas</t>
-  </si>
-  <si>
-    <t>Lars Nootbaar</t>
-  </si>
-  <si>
-    <t>Jose Leclerc</t>
-  </si>
-  <si>
-    <t>Ramon Laureano</t>
-  </si>
-  <si>
-    <t>Jose Berrios</t>
-  </si>
-  <si>
-    <t>Brendan Rodgers</t>
-  </si>
-  <si>
-    <t>Reid Detmers</t>
+    <t>Aaron Ashby</t>
+  </si>
+  <si>
+    <t>Edward Cabrera</t>
+  </si>
+  <si>
+    <t>Brandon Drury</t>
+  </si>
+  <si>
+    <t>Nathan Eovaldi</t>
+  </si>
+  <si>
+    <t>Justin Turner</t>
+  </si>
+  <si>
+    <t>Lourdes Gurriel Jr.</t>
+  </si>
+  <si>
+    <t>Kolten Wong</t>
+  </si>
+  <si>
+    <t>Andrew Benintendi</t>
+  </si>
+  <si>
+    <t>Josh Jung</t>
+  </si>
+  <si>
+    <t>Ezequiel Tovar</t>
+  </si>
+  <si>
+    <t>Seth Brown</t>
+  </si>
+  <si>
+    <t>Austin Hays</t>
+  </si>
+  <si>
+    <t>Danny Jansen</t>
+  </si>
+  <si>
+    <t>Tyler Mahle</t>
   </si>
   <si>
     <t>Trevor Story</t>
   </si>
   <si>
-    <t>Andrew Benintendi</t>
-  </si>
-  <si>
-    <t>Edward Cabrera</t>
-  </si>
-  <si>
-    <t>Joc Pederson</t>
-  </si>
-  <si>
-    <t>Anthony Rendon</t>
-  </si>
-  <si>
-    <t>Sonny Gray</t>
-  </si>
-  <si>
-    <t>Aaron Ashby</t>
-  </si>
-  <si>
-    <t>Cody Bellinger</t>
-  </si>
-  <si>
-    <t>Brandon Drury</t>
-  </si>
-  <si>
-    <t>Kolten Wong</t>
-  </si>
-  <si>
-    <t>Lourdes Gurriel Jr.</t>
-  </si>
-  <si>
-    <t>Nathan Eovaldi</t>
-  </si>
-  <si>
-    <t>Justin Turner</t>
+    <t>Luis Urias</t>
+  </si>
+  <si>
+    <t>Jorge Lopez</t>
   </si>
   <si>
     <t>Jack Flaherty</t>
   </si>
   <si>
-    <t>Josh Jung</t>
-  </si>
-  <si>
     <t>Michael Conforto</t>
   </si>
   <si>
-    <t>Austin Hays</t>
+    <t>Triston Casas</t>
+  </si>
+  <si>
+    <t>Merrill Kelly</t>
+  </si>
+  <si>
+    <t>Adalberto Mondesi</t>
+  </si>
+  <si>
+    <t>Seranthony Dominguez</t>
+  </si>
+  <si>
+    <t>Randal Grichuk</t>
   </si>
   <si>
     <t>CJ Abrams</t>
   </si>
   <si>
-    <t>Danny Jansen</t>
-  </si>
-  <si>
-    <t>Merrill Kelly</t>
-  </si>
-  <si>
-    <t>Seth Brown</t>
-  </si>
-  <si>
-    <t>Ezequiel Tovar</t>
-  </si>
-  <si>
-    <t>Luis Urias</t>
+    <t>Trevor Rogers</t>
+  </si>
+  <si>
+    <t>Yandy Diaz</t>
   </si>
   <si>
     <t>Gavin Lux</t>
   </si>
   <si>
-    <t>Tyler Mahle</t>
-  </si>
-  <si>
     <t>Bryson Stott</t>
   </si>
   <si>
+    <t>Tyler Anderson</t>
+  </si>
+  <si>
     <t>Jameson Taillon</t>
   </si>
   <si>
-    <t>Adalberto Mondesi</t>
-  </si>
-  <si>
-    <t>Jorge Lopez</t>
-  </si>
-  <si>
-    <t>Tyler Anderson</t>
-  </si>
-  <si>
-    <t>Randal Grichuk</t>
-  </si>
-  <si>
-    <t>Triston Casas</t>
-  </si>
-  <si>
     <t>Charlie Blackmon</t>
   </si>
   <si>
-    <t>Seranthony Dominguez</t>
+    <t>Jorge Mateo</t>
   </si>
   <si>
     <t>Keibert Ruiz</t>
   </si>
   <si>
-    <t>Yandy Diaz</t>
-  </si>
-  <si>
-    <t>Trevor Rogers</t>
-  </si>
-  <si>
-    <t>Jorge Mateo</t>
+    <t>HaSeong Kim</t>
+  </si>
+  <si>
+    <t>Ranger Suarez</t>
+  </si>
+  <si>
+    <t>Kyle Finnegan</t>
   </si>
   <si>
     <t>Eric Lauer</t>
   </si>
   <si>
+    <t>Lane Thomas</t>
+  </si>
+  <si>
+    <t>Carlos Carrasco</t>
+  </si>
+  <si>
+    <t>Bryan De La Cruz</t>
+  </si>
+  <si>
     <t>Marcus Stroman</t>
   </si>
   <si>
+    <t>Yoan Moncada</t>
+  </si>
+  <si>
     <t>Jose Urquidy</t>
   </si>
   <si>
-    <t>HaSeong Kim</t>
-  </si>
-  <si>
-    <t>Ranger Suarez</t>
+    <t>Giovanny Gallegos</t>
+  </si>
+  <si>
+    <t>Roansy Contreras</t>
+  </si>
+  <si>
+    <t>Miguel Vargas</t>
+  </si>
+  <si>
+    <t>Austin Meadows</t>
+  </si>
+  <si>
+    <t>Trey Mancini</t>
+  </si>
+  <si>
+    <t>DJ LeMahieu</t>
+  </si>
+  <si>
+    <t>Michael Kopech</t>
+  </si>
+  <si>
+    <t>Sean Manaea</t>
+  </si>
+  <si>
+    <t>Travis d'Arnaud</t>
+  </si>
+  <si>
+    <t>Dylan Carlson</t>
   </si>
   <si>
     <t>Jon Berti</t>
   </si>
   <si>
-    <t>Lane Thomas</t>
-  </si>
-  <si>
-    <t>Kyle Finnegan</t>
-  </si>
-  <si>
-    <t>Bryan De La Cruz</t>
-  </si>
-  <si>
-    <t>Roansy Contreras</t>
-  </si>
-  <si>
-    <t>Austin Meadows</t>
-  </si>
-  <si>
-    <t>DJ LeMahieu</t>
-  </si>
-  <si>
-    <t>Carlos Carrasco</t>
-  </si>
-  <si>
-    <t>Yoan Moncada</t>
-  </si>
-  <si>
-    <t>Sean Manaea</t>
+    <t>Manuel Margot</t>
+  </si>
+  <si>
+    <t>Hunter Brown</t>
   </si>
   <si>
     <t>Christopher Morel</t>
   </si>
   <si>
-    <t>Michael Kopech</t>
-  </si>
-  <si>
-    <t>Giovanny Gallegos</t>
-  </si>
-  <si>
-    <t>Dylan Carlson</t>
-  </si>
-  <si>
-    <t>Manuel Margot</t>
-  </si>
-  <si>
-    <t>Miguel Vargas</t>
-  </si>
-  <si>
-    <t>Trey Mancini</t>
+    <t>Martin Perez</t>
+  </si>
+  <si>
+    <t>Dylan Floro</t>
+  </si>
+  <si>
+    <t>Gregory Soto</t>
+  </si>
+  <si>
+    <t>Jesse Winker</t>
   </si>
   <si>
     <t>Bailey Ober</t>
   </si>
   <si>
-    <t>Travis d'Arnaud</t>
-  </si>
-  <si>
-    <t>Jesse Winker</t>
-  </si>
-  <si>
-    <t>Gregory Soto</t>
-  </si>
-  <si>
-    <t>Martin Perez</t>
-  </si>
-  <si>
-    <t>Dylan Floro</t>
+    <t>Jake Fraley</t>
+  </si>
+  <si>
+    <t>Justin Steele</t>
+  </si>
+  <si>
+    <t>Jared Walsh</t>
   </si>
   <si>
     <t>Jorge Soler</t>
   </si>
   <si>
-    <t>Jake Fraley</t>
-  </si>
-  <si>
-    <t>Hunter Brown</t>
-  </si>
-  <si>
     <t>Jordan Walker</t>
   </si>
   <si>
-    <t>Justin Steele</t>
+    <t>Taijuan Walker</t>
+  </si>
+  <si>
+    <t>Jarred Kelenic</t>
   </si>
   <si>
     <t>Luis Rengifo</t>
   </si>
   <si>
-    <t>Jarred Kelenic</t>
-  </si>
-  <si>
-    <t>Jared Walsh</t>
-  </si>
-  <si>
-    <t>Taijuan Walker</t>
+    <t>Masataka Yoshida</t>
   </si>
   <si>
     <t>Brandon Marsh</t>
   </si>
   <si>
+    <t>Taylor Rogers</t>
+  </si>
+  <si>
+    <t>Garrett Whitlock</t>
+  </si>
+  <si>
     <t>Cal Quantrill</t>
   </si>
   <si>
@@ -901,25 +910,22 @@
     <t>Jose Siri</t>
   </si>
   <si>
-    <t>Taylor Rogers</t>
-  </si>
-  <si>
-    <t>Garrett Whitlock</t>
-  </si>
-  <si>
     <t>Kodai Senga</t>
   </si>
   <si>
     <t>Chris Taylor</t>
   </si>
   <si>
-    <t>Masataka Yoshida</t>
+    <t>Eduardo Rodriguez</t>
+  </si>
+  <si>
+    <t>Matt Mervis</t>
   </si>
   <si>
     <t>Tylor Megill</t>
   </si>
   <si>
-    <t>Eduardo Rodriguez</t>
+    <t>Evan Phillips</t>
   </si>
   <si>
     <t>Tommy Pham</t>
@@ -928,54 +934,51 @@
     <t>Jonah Heim</t>
   </si>
   <si>
-    <t>Matt Mervis</t>
+    <t>Jose Quintana</t>
+  </si>
+  <si>
+    <t>Wil Myers</t>
   </si>
   <si>
     <t>Brayan Bello</t>
   </si>
   <si>
-    <t>Evan Phillips</t>
+    <t>Spencer Torkelson</t>
+  </si>
+  <si>
+    <t>Ross Stripling</t>
   </si>
   <si>
     <t>Juan Yepez</t>
   </si>
   <si>
-    <t>Jose Quintana</t>
-  </si>
-  <si>
-    <t>Wil Myers</t>
-  </si>
-  <si>
     <t>Trent Grisham</t>
   </si>
   <si>
     <t>Craig Kimbrel</t>
   </si>
   <si>
+    <t>Daniel Hudson</t>
+  </si>
+  <si>
+    <t>Avisail Garcia</t>
+  </si>
+  <si>
+    <t>Adam Wainwright</t>
+  </si>
+  <si>
+    <t>Zach Eflin</t>
+  </si>
+  <si>
+    <t>Michael Brantley</t>
+  </si>
+  <si>
+    <t>Alex Lange</t>
+  </si>
+  <si>
     <t>Logan O'Hoppe</t>
   </si>
   <si>
-    <t>Spencer Torkelson</t>
-  </si>
-  <si>
-    <t>Ross Stripling</t>
-  </si>
-  <si>
-    <t>Avisail Garcia</t>
-  </si>
-  <si>
-    <t>Zach Eflin</t>
-  </si>
-  <si>
-    <t>Daniel Hudson</t>
-  </si>
-  <si>
-    <t>Adam Wainwright</t>
-  </si>
-  <si>
-    <t>Michael Brantley</t>
-  </si>
-  <si>
     <t>Kenta Maeda</t>
   </si>
   <si>
@@ -991,6 +994,9 @@
     <t>Mark Canha</t>
   </si>
   <si>
+    <t>Steven Matz</t>
+  </si>
+  <si>
     <t>Marcell Ozuna</t>
   </si>
   <si>
@@ -1003,13 +1009,16 @@
     <t>Alex Kirilloff</t>
   </si>
   <si>
-    <t>Alex Lange</t>
+    <t>Alex Wood</t>
+  </si>
+  <si>
+    <t>Tanner Houck</t>
   </si>
   <si>
     <t>Jason Adam</t>
   </si>
   <si>
-    <t>Tanner Houck</t>
+    <t>Kendall Graveman</t>
   </si>
   <si>
     <t>Brendan Donovan</t>
@@ -1018,30 +1027,33 @@
     <t>Garrett Mitchell</t>
   </si>
   <si>
-    <t>Steven Matz</t>
-  </si>
-  <si>
-    <t>Kendall Graveman</t>
-  </si>
-  <si>
-    <t>Alex Wood</t>
+    <t>Aaron Civale</t>
+  </si>
+  <si>
+    <t>Chris Martin</t>
+  </si>
+  <si>
+    <t>Gabriel Moreno</t>
+  </si>
+  <si>
+    <t>Oswald Peraza</t>
   </si>
   <si>
     <t>Brandon Hughes</t>
   </si>
   <si>
-    <t>Aaron Civale</t>
-  </si>
-  <si>
-    <t>Oswald Peraza</t>
-  </si>
-  <si>
-    <t>Chris Martin</t>
-  </si>
-  <si>
     <t>Christian Vazquez</t>
   </si>
   <si>
+    <t>Wilmer Flores</t>
+  </si>
+  <si>
+    <t>Josiah Gray</t>
+  </si>
+  <si>
+    <t>Isaac Paredes</t>
+  </si>
+  <si>
     <t>Hayden Wesneski</t>
   </si>
   <si>
@@ -1051,6 +1063,12 @@
     <t>Aroldis Chapman</t>
   </si>
   <si>
+    <t>Garrett Cooper</t>
+  </si>
+  <si>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
     <t>Trevor May</t>
   </si>
   <si>
@@ -1060,22 +1078,31 @@
     <t>Bubba Thompson</t>
   </si>
   <si>
+    <t>A.J. Puk</t>
+  </si>
+  <si>
     <t>Nick Pivetta</t>
   </si>
   <si>
+    <t>TJ Friedl</t>
+  </si>
+  <si>
     <t>Noah Syndergaard</t>
   </si>
   <si>
-    <t>TJ Friedl</t>
+    <t>James Karinchak</t>
+  </si>
+  <si>
+    <t>Andrew McCutchen</t>
+  </si>
+  <si>
+    <t>Eric Haase</t>
   </si>
   <si>
     <t>Carlos Estevez</t>
   </si>
   <si>
-    <t>Andrew McCutchen</t>
-  </si>
-  <si>
-    <t>Gabriel Moreno</t>
+    <t>Elvis</t>
   </si>
   <si>
     <t>Oscar Colas</t>
@@ -1090,75 +1117,60 @@
     <t>A.J. Minter</t>
   </si>
   <si>
+    <t>Rafael Montero</t>
+  </si>
+  <si>
     <t>Francisco Alvarez</t>
   </si>
   <si>
-    <t>Josiah Gray</t>
-  </si>
-  <si>
     <t>Mike Soroka</t>
   </si>
   <si>
     <t>Trayce Thompson</t>
   </si>
   <si>
-    <t>Isaac Paredes</t>
-  </si>
-  <si>
     <t>Kyle Bradish</t>
   </si>
   <si>
-    <t>Wilmer Flores</t>
-  </si>
-  <si>
     <t>Kike Hernandez</t>
   </si>
   <si>
     <t>David Peterson</t>
   </si>
   <si>
-    <t>Jose Alvarado</t>
-  </si>
-  <si>
     <t>Andrew Painter</t>
   </si>
   <si>
     <t>Jurickson</t>
   </si>
   <si>
-    <t>Eric Haase</t>
-  </si>
-  <si>
-    <t>Garrett Cooper</t>
-  </si>
-  <si>
-    <t>A.J. Puk</t>
+    <t>Bo Naylor</t>
   </si>
   <si>
     <t>AJ Pollock</t>
   </si>
   <si>
-    <t>Elvis</t>
-  </si>
-  <si>
     <t>Tarik Skubal</t>
   </si>
   <si>
+    <t>Braxton Garrett</t>
+  </si>
+  <si>
     <t>Jose Suarez</t>
   </si>
   <si>
-    <t>Braxton Garrett</t>
-  </si>
-  <si>
     <t>Drey Jameson</t>
   </si>
   <si>
-    <t>James Karinchak</t>
-  </si>
-  <si>
     <t>German Marquez</t>
   </si>
   <si>
+    <t>David Robertson</t>
+  </si>
+  <si>
+    <t>Joe Jimenez</t>
+  </si>
+  <si>
     <t>Brock Burke</t>
   </si>
   <si>
@@ -1177,10 +1189,13 @@
     <t>Cody Morris</t>
   </si>
   <si>
+    <t>Brandon Belt</t>
+  </si>
+  <si>
     <t>JT Brubaker</t>
   </si>
   <si>
-    <t>Brandon Belt</t>
+    <t>Jimmy Herget</t>
   </si>
   <si>
     <t>Max Kepler</t>
@@ -1195,18 +1210,15 @@
     <t>J.P. Crawford</t>
   </si>
   <si>
-    <t>Rafael Montero</t>
-  </si>
-  <si>
     <t>Shea Langeliers</t>
   </si>
   <si>
+    <t>Michael King</t>
+  </si>
+  <si>
     <t>Brandon Crawford</t>
   </si>
   <si>
-    <t>Michael King</t>
-  </si>
-  <si>
     <t>Joey Bart</t>
   </si>
   <si>
@@ -1219,54 +1231,54 @@
     <t>Harold Ramirez</t>
   </si>
   <si>
+    <t>Mitch Keller</t>
+  </si>
+  <si>
+    <t>Tony Kemp</t>
+  </si>
+  <si>
+    <t>Corey Kluber</t>
+  </si>
+  <si>
+    <t>Spencer Turnbull</t>
+  </si>
+  <si>
+    <t>Ramon Urias</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Connor Joe</t>
+  </si>
+  <si>
+    <t>Domingo German</t>
+  </si>
+  <si>
+    <t>Jo Adell</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
     <t>Robert Suarez</t>
   </si>
   <si>
-    <t>Mitch Keller</t>
-  </si>
-  <si>
-    <t>Tony Kemp</t>
-  </si>
-  <si>
-    <t>Corey Kluber</t>
-  </si>
-  <si>
-    <t>Spencer Turnbull</t>
-  </si>
-  <si>
-    <t>Ramon Urias</t>
-  </si>
-  <si>
-    <t>Will</t>
-  </si>
-  <si>
-    <t>Connor Joe</t>
-  </si>
-  <si>
-    <t>Domingo German</t>
-  </si>
-  <si>
-    <t>Jo Adell</t>
-  </si>
-  <si>
-    <t>Luke</t>
-  </si>
-  <si>
-    <t>Bo Naylor</t>
+    <t>Nolan Gorman</t>
   </si>
   <si>
     <t>Ken Waldichuk</t>
   </si>
   <si>
-    <t>Nolan Gorman</t>
-  </si>
-  <si>
     <t>Tyrone Taylor</t>
   </si>
   <si>
     <t>Royce Lewis</t>
   </si>
   <si>
+    <t>Rodolfo Castro</t>
+  </si>
+  <si>
     <t>Myles Straw</t>
   </si>
   <si>
@@ -1282,30 +1294,24 @@
     <t>Tanner Scott</t>
   </si>
   <si>
-    <t>Joe Jimenez</t>
+    <t>Leody Taveras</t>
+  </si>
+  <si>
+    <t>Patrick Wisdom</t>
   </si>
   <si>
     <t>Jeimer Candelario</t>
   </si>
   <si>
-    <t>Leody Taveras</t>
-  </si>
-  <si>
-    <t>Patrick Wisdom</t>
-  </si>
-  <si>
     <t>Carson Kelly</t>
   </si>
   <si>
+    <t>Garrett Cleavinger</t>
+  </si>
+  <si>
     <t>J.D. Davis</t>
   </si>
   <si>
-    <t>Garrett Cleavinger</t>
-  </si>
-  <si>
-    <t>David Robertson</t>
-  </si>
-  <si>
     <t>Akil Baddoo</t>
   </si>
   <si>
@@ -1321,6 +1327,9 @@
     <t>Josh Lowe</t>
   </si>
   <si>
+    <t>Jonathan Schoop</t>
+  </si>
+  <si>
     <t>Elias Diaz</t>
   </si>
   <si>
@@ -1330,9 +1339,15 @@
     <t>Michael</t>
   </si>
   <si>
+    <t>Carlos Santana</t>
+  </si>
+  <si>
     <t>Joey Wendle</t>
   </si>
   <si>
+    <t>Isiah KinerFalefa</t>
+  </si>
+  <si>
     <t>Jose Trevino</t>
   </si>
   <si>
@@ -1342,9 +1357,6 @@
     <t>Gary</t>
   </si>
   <si>
-    <t>Jimmy Herget</t>
-  </si>
-  <si>
     <t>Nick Fortes</t>
   </si>
   <si>
@@ -1360,6 +1372,9 @@
     <t>Jalen Beeks</t>
   </si>
   <si>
+    <t>Nick Martinez</t>
+  </si>
+  <si>
     <t>Matt Brash</t>
   </si>
   <si>
@@ -1372,12 +1387,12 @@
     <t>Marco Gonzales</t>
   </si>
   <si>
+    <t>Bobby Dalbec</t>
+  </si>
+  <si>
     <t>Matt Bush</t>
   </si>
   <si>
-    <t>Bobby Dalbec</t>
-  </si>
-  <si>
     <t>Anthony Volpe</t>
   </si>
   <si>
@@ -1405,9 +1420,6 @@
     <t>Hector Neris</t>
   </si>
   <si>
-    <t>Rodolfo Castro</t>
-  </si>
-  <si>
     <t>Caleb Thielbar</t>
   </si>
   <si>
@@ -1429,6 +1441,9 @@
     <t>Clarke Schmidt</t>
   </si>
   <si>
+    <t>Jonathan Loaisiga</t>
+  </si>
+  <si>
     <t>Collin McHugh</t>
   </si>
   <si>
@@ -1456,15 +1471,15 @@
     <t>Trevor</t>
   </si>
   <si>
+    <t>David Fletcher</t>
+  </si>
+  <si>
     <t>DL Hall</t>
   </si>
   <si>
     <t>Chas McCormick</t>
   </si>
   <si>
-    <t>David Fletcher</t>
-  </si>
-  <si>
     <t>Eddie Rosario</t>
   </si>
   <si>
@@ -1483,9 +1498,6 @@
     <t>Nick Madrigal</t>
   </si>
   <si>
-    <t>Jonathan Schoop</t>
-  </si>
-  <si>
     <t>Matthew Boyd</t>
   </si>
   <si>
@@ -1501,34 +1513,34 @@
     <t>Anthony DeSclafani</t>
   </si>
   <si>
+    <t>Jordan Lyles</t>
+  </si>
+  <si>
     <t>Gavin Sheets</t>
   </si>
   <si>
-    <t>Jordan Lyles</t>
-  </si>
-  <si>
     <t>Endy Rodriguez</t>
   </si>
   <si>
+    <t>Dean Kremer</t>
+  </si>
+  <si>
     <t>Matt Manning</t>
   </si>
   <si>
-    <t>Dean Kremer</t>
-  </si>
-  <si>
     <t>Zach Plesac</t>
   </si>
   <si>
-    <t>Isiah KinerFalefa</t>
-  </si>
-  <si>
     <t>Franmil</t>
   </si>
   <si>
+    <t>Yan Gomes</t>
+  </si>
+  <si>
     <t>Santiago Espinal</t>
   </si>
   <si>
-    <t>Yan Gomes</t>
+    <t>Adrian Houser</t>
   </si>
   <si>
     <t>Victor Robles</t>
@@ -1537,39 +1549,33 @@
     <t>Kyle Farmer</t>
   </si>
   <si>
-    <t>Adrian Houser</t>
-  </si>
-  <si>
     <t>Kyle Hendricks</t>
   </si>
   <si>
+    <t>Luis Campusano</t>
+  </si>
+  <si>
     <t>Nelson Cruz</t>
   </si>
   <si>
-    <t>Luis Campusano</t>
-  </si>
-  <si>
-    <t>Nick Martinez</t>
+    <t>Reynaldo Lopez</t>
   </si>
   <si>
     <t>Domingo Acevedo</t>
   </si>
   <si>
-    <t>Reynaldo Lopez</t>
-  </si>
-  <si>
     <t>Ryan Jeffers</t>
   </si>
   <si>
     <t>Drew Waters</t>
   </si>
   <si>
+    <t>Kevin Kiermaier</t>
+  </si>
+  <si>
     <t>Aledmys Diaz</t>
   </si>
   <si>
-    <t>Kevin Kiermaier</t>
-  </si>
-  <si>
     <t>Jack Suwinski</t>
   </si>
   <si>
@@ -1600,9 +1606,6 @@
     <t>Sixto Sanchez</t>
   </si>
   <si>
-    <t>Carlos Santana</t>
-  </si>
-  <si>
     <t>James Outman</t>
   </si>
   <si>
@@ -1621,12 +1624,12 @@
     <t>Nick Pratto</t>
   </si>
   <si>
+    <t>Omar Narvaez</t>
+  </si>
+  <si>
     <t>Michael Massey</t>
   </si>
   <si>
-    <t>Omar Narvaez</t>
-  </si>
-  <si>
     <t>Drew Smyly</t>
   </si>
   <si>
@@ -1663,9 +1666,6 @@
     <t>Hunter Harvey</t>
   </si>
   <si>
-    <t>Jonathan Loaisiga</t>
-  </si>
-  <si>
     <t>Joe Barlow</t>
   </si>
   <si>
@@ -1714,7 +1714,7 @@
     <t>Evan Longoria</t>
   </si>
   <si>
-    <t>Mark Leiter</t>
+    <t>Mark Leiter Jr.</t>
   </si>
   <si>
     <t>Vidal Brujan</t>
@@ -2428,15 +2428,15 @@
     <t>LF,DH</t>
   </si>
   <si>
+    <t>SP,DH</t>
+  </si>
+  <si>
     <t>1B,DH</t>
   </si>
   <si>
     <t>2B,RF</t>
   </si>
   <si>
-    <t>SP,DH</t>
-  </si>
-  <si>
     <t>1B</t>
   </si>
   <si>
@@ -2485,12 +2485,12 @@
     <t>LF,CF</t>
   </si>
   <si>
+    <t>LF,CF,RF</t>
+  </si>
+  <si>
     <t>SS,LF</t>
   </si>
   <si>
-    <t>LF,CF,RF</t>
-  </si>
-  <si>
     <t>CF,RF</t>
   </si>
   <si>
@@ -2506,21 +2506,21 @@
     <t>C,LF,RF,DH</t>
   </si>
   <si>
+    <t>1B,3B,DH</t>
+  </si>
+  <si>
     <t>2B,LF,RF</t>
   </si>
   <si>
-    <t>1B,3B,DH</t>
-  </si>
-  <si>
     <t>1B,2B,SS</t>
   </si>
   <si>
+    <t>2B,DH</t>
+  </si>
+  <si>
     <t>1B,2B,DH</t>
   </si>
   <si>
-    <t>2B,DH</t>
-  </si>
-  <si>
     <t>2B,SS,LF</t>
   </si>
   <si>
@@ -2530,12 +2530,12 @@
     <t>1B,RF,DH</t>
   </si>
   <si>
+    <t>DH</t>
+  </si>
+  <si>
     <t>2B,CF,RF</t>
   </si>
   <si>
-    <t>DH</t>
-  </si>
-  <si>
     <t>1B,RF</t>
   </si>
   <si>
@@ -2551,12 +2551,12 @@
     <t>2B,LF</t>
   </si>
   <si>
+    <t>1B,2B,3B</t>
+  </si>
+  <si>
     <t>2B,3B,SS,LF</t>
   </si>
   <si>
-    <t>1B,2B,3B</t>
-  </si>
-  <si>
     <t>2B,3B,SS,CF</t>
   </si>
   <si>
@@ -2578,19 +2578,19 @@
     <t>C,1B</t>
   </si>
   <si>
+    <t>C,LF</t>
+  </si>
+  <si>
     <t>2B,SS,CF</t>
   </si>
   <si>
-    <t>C,LF</t>
-  </si>
-  <si>
     <t>1B,3B,RF</t>
   </si>
   <si>
     <t>1B,2B,3B,SS,RF</t>
   </si>
   <si>
-    <t>CF,SP</t>
+    <t>RP,SP</t>
   </si>
   <si>
     <t>1B,2B,3B,SS,LF</t>
@@ -2662,27 +2662,27 @@
     <t>SD</t>
   </si>
   <si>
+    <t>LAA</t>
+  </si>
+  <si>
     <t>TOR</t>
   </si>
   <si>
     <t>LAD</t>
   </si>
   <si>
-    <t>LAA</t>
-  </si>
-  <si>
     <t>MIL</t>
   </si>
   <si>
     <t>KC</t>
   </si>
   <si>
+    <t>BOS</t>
+  </si>
+  <si>
     <t>NYM</t>
   </si>
   <si>
-    <t>BOS</t>
-  </si>
-  <si>
     <t>STL</t>
   </si>
   <si>
@@ -2731,12 +2731,12 @@
     <t>OAK</t>
   </si>
   <si>
+    <t>Andrus</t>
+  </si>
+  <si>
     <t>Profar</t>
   </si>
   <si>
-    <t>Andrus</t>
-  </si>
-  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -2756,9 +2756,6 @@
   </si>
   <si>
     <t>Reyes</t>
-  </si>
-  <si>
-    <t>Jr.</t>
   </si>
   <si>
     <t>Gurriel</t>
@@ -3349,7 +3346,7 @@
         <v>806</v>
       </c>
       <c r="D13" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3377,7 +3374,7 @@
         <v>800</v>
       </c>
       <c r="D15" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3433,7 +3430,7 @@
         <v>796</v>
       </c>
       <c r="D19" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3444,7 +3441,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="D20" t="s">
         <v>886</v>
@@ -3458,7 +3455,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="D21" t="s">
         <v>887</v>
@@ -3486,7 +3483,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D23" t="s">
         <v>888</v>
@@ -3500,10 +3497,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D24" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3514,10 +3511,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D25" t="s">
-        <v>875</v>
+        <v>889</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3528,10 +3525,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D26" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3542,10 +3539,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="D27" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3587,7 +3584,7 @@
         <v>796</v>
       </c>
       <c r="D30" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3710,10 +3707,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D39" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3738,10 +3735,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D41" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3752,10 +3749,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="D42" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3769,7 +3766,7 @@
         <v>807</v>
       </c>
       <c r="D43" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3794,10 +3791,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="D45" t="s">
-        <v>877</v>
+        <v>893</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3808,10 +3805,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="D46" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3822,7 +3819,7 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="D47" t="s">
         <v>874</v>
@@ -3836,7 +3833,7 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="D48" t="s">
         <v>874</v>
@@ -3878,10 +3875,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="D51" t="s">
-        <v>875</v>
+        <v>890</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3892,10 +3889,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="D52" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3920,10 +3917,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="D54" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3934,10 +3931,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="D55" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3951,7 +3948,7 @@
         <v>810</v>
       </c>
       <c r="D56" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3965,7 +3962,7 @@
         <v>807</v>
       </c>
       <c r="D57" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3993,7 +3990,7 @@
         <v>801</v>
       </c>
       <c r="D59" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4007,7 +4004,7 @@
         <v>798</v>
       </c>
       <c r="D60" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4046,10 +4043,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D63" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4060,10 +4057,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="D64" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4130,10 +4127,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="D69" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4144,10 +4141,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="D70" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4158,10 +4155,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="D71" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4175,7 +4172,7 @@
         <v>796</v>
       </c>
       <c r="D72" t="s">
-        <v>880</v>
+        <v>895</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4189,7 +4186,7 @@
         <v>796</v>
       </c>
       <c r="D73" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4284,10 +4281,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="D80" t="s">
-        <v>875</v>
+        <v>896</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4298,10 +4295,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="D81" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4312,10 +4309,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>796</v>
+        <v>818</v>
       </c>
       <c r="D82" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4329,7 +4326,7 @@
         <v>818</v>
       </c>
       <c r="D83" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4382,10 +4379,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
       <c r="D87" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4396,10 +4393,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>796</v>
+        <v>807</v>
       </c>
       <c r="D88" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4410,10 +4407,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="D89" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4424,10 +4421,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="D90" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4438,10 +4435,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="D91" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4452,10 +4449,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="D92" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4466,10 +4463,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
       <c r="D93" t="s">
-        <v>879</v>
+        <v>893</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4508,7 +4505,7 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D96" t="s">
         <v>885</v>
@@ -4578,10 +4575,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>803</v>
+        <v>820</v>
       </c>
       <c r="D101" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4592,10 +4589,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="D102" t="s">
-        <v>877</v>
+        <v>898</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4606,7 +4603,7 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="D103" t="s">
         <v>899</v>
@@ -4620,10 +4617,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>810</v>
+        <v>821</v>
       </c>
       <c r="D104" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4634,10 +4631,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="D105" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4648,10 +4645,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D106" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4662,10 +4659,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D107" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4690,10 +4687,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="D109" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4704,10 +4701,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D110" t="s">
-        <v>893</v>
+        <v>875</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4774,7 +4771,7 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>807</v>
+        <v>818</v>
       </c>
       <c r="D115" t="s">
         <v>882</v>
@@ -4788,10 +4785,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="D116" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4802,10 +4799,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="D117" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4816,10 +4813,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>818</v>
+        <v>797</v>
       </c>
       <c r="D118" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4830,10 +4827,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="D119" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4844,10 +4841,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D120" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4858,10 +4855,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>801</v>
+        <v>823</v>
       </c>
       <c r="D121" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4872,10 +4869,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D122" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4886,10 +4883,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
       <c r="D123" t="s">
-        <v>879</v>
+        <v>896</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4914,10 +4911,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="D125" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4942,10 +4939,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="D127" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4956,10 +4953,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="D128" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4970,10 +4967,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="D129" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4984,10 +4981,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D130" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4998,10 +4995,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="D131" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5012,10 +5009,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D132" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5082,10 +5079,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="D137" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5096,10 +5093,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
       <c r="D138" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5113,7 +5110,7 @@
         <v>807</v>
       </c>
       <c r="D139" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5127,7 +5124,7 @@
         <v>807</v>
       </c>
       <c r="D140" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5138,10 +5135,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="D141" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5152,10 +5149,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="D142" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5169,7 +5166,7 @@
         <v>826</v>
       </c>
       <c r="D143" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5180,10 +5177,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="D144" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5208,10 +5205,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>796</v>
+        <v>807</v>
       </c>
       <c r="D146" t="s">
-        <v>895</v>
+        <v>875</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5222,10 +5219,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D147" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5236,10 +5233,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       